--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DA38B5-5328-4069-8E76-261FA008917A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4CC1AA-4031-49BE-80B9-8105C90EC63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="3705" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="3270" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="572">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,9 +650,6 @@
     <t>提丰</t>
   </si>
   <si>
-    <t>杜林</t>
-  </si>
-  <si>
     <t>12F</t>
   </si>
   <si>
@@ -1056,9 +1053,6 @@
     <t>maa://21261 (100.0)</t>
   </si>
   <si>
-    <t>maa://31694 (100.0)</t>
-  </si>
-  <si>
     <t>maa://24376 (100.0)</t>
   </si>
   <si>
@@ -1128,28 +1122,13 @@
     <t>PhonoR-0</t>
   </si>
   <si>
-    <t>maa://36987 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://21334 (59.09)</t>
-  </si>
-  <si>
     <t>maa://37442 (100.0)</t>
   </si>
   <si>
-    <t>**maa://30968 (50.0)</t>
-  </si>
-  <si>
     <t>maa://29658 (94.29)</t>
   </si>
   <si>
-    <t>maa://31489 (91.67)</t>
-  </si>
-  <si>
     <t>maa://32651 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21919 (100.0), maa://21281 (90.91)</t>
   </si>
   <si>
     <t>maa://24379 (100.0), maa://24380 (100.0)</t>
@@ -1162,54 +1141,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*maa://25175 (77.78)</t>
-  </si>
-  <si>
-    <t>maa://22757 (85.0)</t>
-  </si>
-  <si>
-    <t>maa://28071 (84.62)</t>
-  </si>
-  <si>
-    <t>maa://28977 (94.44), *maa://23264 (62.26), maa://36669 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://37468 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://21663 (61.54)</t>
-  </si>
-  <si>
     <t>maa://24023 (98.31)</t>
   </si>
   <si>
-    <t>maa://21993 (86.67)</t>
-  </si>
-  <si>
-    <t>maa://29863 (84.21), ***maa://22752 (14.29), **maa://26013 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24370 (95.65)</t>
-  </si>
-  <si>
-    <t>maa://24385 (96.43)</t>
-  </si>
-  <si>
-    <t>maa://20109 (92.41), maa://22545 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://32658 (57.14)</t>
-  </si>
-  <si>
-    <t>*maa://21289 (71.43)</t>
-  </si>
-  <si>
     <t>***maa://24394 (16.0), maa://31203 (93.33)</t>
   </si>
   <si>
-    <t>maa://21955 (91.67)</t>
-  </si>
-  <si>
     <t>*maa://21476 (64.86), *maa://37551 (66.67)</t>
   </si>
   <si>
@@ -1219,508 +1156,611 @@
     <t>*maa://21624 (79.31)</t>
   </si>
   <si>
-    <t>maa://24368 (81.76)</t>
-  </si>
-  <si>
-    <t>*maa://24371 (52.63)</t>
-  </si>
-  <si>
     <t>*maa://32656 (66.67)</t>
   </si>
   <si>
-    <t>maa://24304 (86.88), maa://21478 (93.33)</t>
-  </si>
-  <si>
-    <t>maa://32721 (100.0), **maa://24373 (31.82)</t>
-  </si>
-  <si>
-    <t>maa://24375 (91.18)</t>
-  </si>
-  <si>
-    <t>**maa://24374 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24466 (94.59)</t>
-  </si>
-  <si>
-    <t>maa://29768 (98.19), maa://27728 (95.88)</t>
-  </si>
-  <si>
-    <t>maa://21229 (85.8), maa://30807 (96.15), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
-  </si>
-  <si>
-    <t>*maa://30769 (70.0)</t>
-  </si>
-  <si>
     <t>乌尔比安</t>
   </si>
   <si>
-    <t>maa://21287 (87.18)</t>
-  </si>
-  <si>
-    <t>*maa://21679 (70.0)</t>
-  </si>
-  <si>
     <t>*maa://30770 (73.53)</t>
   </si>
   <si>
-    <t>maa://28432 (93.28), *maa://28440 (72.73), maa://31400 (100.0), *maa://28650 (66.67)</t>
-  </si>
-  <si>
     <t>maa://28065 (97.06)</t>
   </si>
   <si>
     <t>深巡</t>
   </si>
   <si>
-    <t>maa://22750 (96.43)</t>
-  </si>
-  <si>
-    <t>maa://28504 (90.24)</t>
-  </si>
-  <si>
-    <t>maa://23890 (80.43), *maa://24940 (69.23)</t>
-  </si>
-  <si>
-    <t>maa://24382 (95.0)</t>
-  </si>
-  <si>
     <t>*maa://24383 (64.2)</t>
   </si>
   <si>
-    <t>**maa://35616 (40.0)</t>
-  </si>
-  <si>
-    <t>*maa://36237 (71.43)</t>
-  </si>
-  <si>
-    <t>maa://37411 (100.0)</t>
-  </si>
-  <si>
     <t>maa://21291 (88.57)</t>
   </si>
   <si>
     <t>maa://38495 (100.0)</t>
   </si>
   <si>
-    <t>maa://23263 (93.67), *maa://29765 (60.0)</t>
-  </si>
-  <si>
     <t>*maa://32940 (75.0), maa://24388 (93.33)</t>
   </si>
   <si>
-    <t>maa://30711 (97.96), maa://30768 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24842 (95.24)</t>
-  </si>
-  <si>
-    <t>maa://27613 (98.89)</t>
-  </si>
-  <si>
-    <t>maa://20110 (88.89), maa://34946 (90.48)</t>
-  </si>
-  <si>
     <t>maa://25389 (90.91)</t>
   </si>
   <si>
-    <t>maa://22516 (88.75), *maa://20794 (52.24), maa://29912 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://23669 (95.65), maa://36677 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22764 (95.56)</t>
-  </si>
-  <si>
     <t>海霓</t>
   </si>
   <si>
-    <t>maa://30511 (91.67), **maa://29760 (37.5)</t>
-  </si>
-  <si>
-    <t>*maa://32650 (70.0)</t>
-  </si>
-  <si>
-    <t>maa://24702 (94.01), maa://25390 (97.26), maa://36681 (94.12)</t>
-  </si>
-  <si>
-    <t>maa://24632 (94.17), **maa://24303 (36.36), maa://22499 (83.33), maa://22746 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21245 (80.98), maa://22744 (81.82)</t>
-  </si>
-  <si>
-    <t>maa://22765 (91.67), *maa://21915 (63.64)</t>
-  </si>
-  <si>
     <t>maa://30766 (88.0), **maa://36678 (50.0)</t>
   </si>
   <si>
-    <t>maa://24999 (91.39), maa://36673 (91.67), maa://25001 (85.29)</t>
-  </si>
-  <si>
-    <t>maa://21441 (96.14), maa://36679 (91.67), maa://37650 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21432 (90.32), maa://25198 (97.53), **maa://20795 (47.46), maa://36680 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21867 (90.77)</t>
-  </si>
-  <si>
-    <t>maa://22430 (88.1)</t>
-  </si>
-  <si>
-    <t>maa://29063 (80.58), *maa://25311 (77.5), ***maa://22725 (4.84)</t>
-  </si>
-  <si>
-    <t>maa://22525 (92.59), maa://21284 (83.78)</t>
-  </si>
-  <si>
-    <t>maa://37964 (88.89)</t>
-  </si>
-  <si>
-    <t>*maa://22880 (74.19), maa://20276 (81.03), *maa://22749 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://24839 (99.12)</t>
-  </si>
-  <si>
-    <t>maa://22762 (90.54)</t>
-  </si>
-  <si>
-    <t>maa://26245 (96.12), maa://21288 (96.09), maa://36682 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24378 (87.1)</t>
-  </si>
-  <si>
-    <t>maa://30442 (93.62)</t>
-  </si>
-  <si>
-    <t>maa://31836 (91.67), maa://30381 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://22736 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://22676 (91.11), *maa://22583 (76.0), *maa://22500 (53.85)</t>
-  </si>
-  <si>
-    <t>maa://23250 (98.14), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
-  </si>
-  <si>
     <t>maa://24381 (85.71)</t>
   </si>
   <si>
-    <t>*maa://21956 (79.17), maa://22730 (80.77)</t>
-  </si>
-  <si>
-    <t>maa://21280 (89.02), *maa://21239 (70.0)</t>
-  </si>
-  <si>
-    <t>maa://24709 (94.57)</t>
-  </si>
-  <si>
-    <t>maa://22742 (92.42), *maa://20791 (60.0)</t>
-  </si>
-  <si>
-    <t>maa://24617 (86.81), **maa://20790 (43.75), **maa://37170 (30.43)</t>
-  </si>
-  <si>
-    <t>**maa://22866 (32.0), maa://26222 (96.55)</t>
-  </si>
-  <si>
-    <t>maa://27395 (97.54), maa://22755 (87.23), **maa://22756 (42.86), ***maa://21737 (10.61)</t>
-  </si>
-  <si>
-    <t>*maa://22471 (61.29), maa://22521 (97.3)</t>
-  </si>
-  <si>
-    <t>maa://23892 (98.48)</t>
-  </si>
-  <si>
-    <t>maa://22729 (94.66), *maa://28648 (65.96), *maa://36674 (78.95)</t>
-  </si>
-  <si>
-    <t>maa://24386 (98.33)</t>
-  </si>
-  <si>
     <t>maa://24387 (82.35), maa://31212 (95.45)</t>
   </si>
   <si>
-    <t>maa://27396 (85.56), maa://27484 (94.52), maa://27480 (81.82)</t>
-  </si>
-  <si>
-    <t>maa://22301 (97.58), maa://22726 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22753 (91.04), *maa://21485 (79.66), **maa://37962 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://21917 (96.97), *maa://22741 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://21282 (98.72), **maa://37649 (40.0)</t>
-  </si>
-  <si>
-    <t>*maa://28503 (57.14)</t>
-  </si>
-  <si>
-    <t>*maa://29890 (74.19)</t>
-  </si>
-  <si>
-    <t>maa://21246 (91.43), maa://36684 (100.0)</t>
-  </si>
-  <si>
     <t>maa://22739 (90.0)</t>
   </si>
   <si>
     <t>maa://26228 (95.31)</t>
   </si>
   <si>
-    <t>***maa://21730 (17.46), maa://25251 (93.44), *maa://36675 (75.0)</t>
-  </si>
-  <si>
-    <t>*maa://33152 (57.69), ***maa://22770 (28.57)</t>
-  </si>
-  <si>
-    <t>*maa://26191 (71.88), *maa://36671 (78.57)</t>
-  </si>
-  <si>
-    <t>*maa://24479 (76.56), *maa://21990 (53.85)</t>
-  </si>
-  <si>
-    <t>*maa://25021 (59.68), *maa://22733 (61.54), maa://22761 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://28932 (78.35), *maa://20106 (63.3), *maa://22769 (62.96)</t>
-  </si>
-  <si>
-    <t>*maa://23911 (60.49), maa://27755 (89.83)</t>
-  </si>
-  <si>
-    <t>*maa://24313 (56.52), **maa://29784 (48.0)</t>
-  </si>
-  <si>
-    <t>maa://22524 (94.08), maa://22432 (82.93)</t>
-  </si>
-  <si>
-    <t>maa://20108 (96.03), maa://24621 (97.14), maa://22771 (83.33), maa://36676 (100.0), maa://37772 (100.0)</t>
-  </si>
-  <si>
-    <t>***maa://25695 (20.13), **maa://32237 (40.0), ***maa://34206 (10.53)</t>
-  </si>
-  <si>
-    <t>*maa://22743 (75.74), maa://22734 (84.55), *maa://30808 (67.5), ***maa://36048 (11.11)</t>
-  </si>
-  <si>
-    <t>maa://24570 (96.15)</t>
-  </si>
-  <si>
-    <t>**maa://28036 (31.03)</t>
-  </si>
-  <si>
-    <t>maa://29753 (95.48)</t>
-  </si>
-  <si>
-    <t>maa://24465 (90.49), maa://25725 (82.61)</t>
-  </si>
-  <si>
     <t>渡桥</t>
   </si>
   <si>
-    <t>maa://21247 (97.87), maa://22748 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://21248 (76.09), **maa://22728 (48.65)</t>
-  </si>
-  <si>
-    <t>maa://24421 (92.31)</t>
-  </si>
-  <si>
-    <t>maa://22864 (88.5)</t>
-  </si>
-  <si>
-    <t>maa://24372 (97.4)</t>
-  </si>
-  <si>
-    <t>**maa://21678 (48.94), maa://25236 (95.31), **maa://22735 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24913 (93.22)</t>
-  </si>
-  <si>
-    <t>**maa://21283 (48.61), maa://34494 (100.0), ***maa://36665 (20.0)</t>
-  </si>
-  <si>
     <t>maa://39355 (100.0)</t>
   </si>
   <si>
-    <t>maa://21895 (96.95), maa://36667 (95.83), **maa://20793 (38.78), maa://22760 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39351 (100.0)</t>
   </si>
   <si>
-    <t>maa://25199 (87.13), maa://30434 (90.0), maa://36670 (95.83), ***maa://25036 (16.0)</t>
-  </si>
-  <si>
-    <t>maa://35931 (93.22)</t>
-  </si>
-  <si>
-    <t>maa://27410 (96.19), maa://29661 (99.04), maa://28038 (84.62)</t>
-  </si>
-  <si>
-    <t>maa://32534 (91.96), **maa://32434 (36.36)</t>
-  </si>
-  <si>
-    <t>maa://32532 (92.13)</t>
-  </si>
-  <si>
-    <t>maa://25176 (97.37)</t>
-  </si>
-  <si>
-    <t>maa://27746 (83.67), maa://31270 (97.47)</t>
-  </si>
-  <si>
-    <t>*maa://24633 (54.36), *maa://30515 (69.07), ***maa://20792 (11.93), *maa://34787 (75.0), **maa://29083 (33.33)</t>
-  </si>
-  <si>
-    <t>maa://28624 (90.0), maa://24957 (97.06)</t>
-  </si>
-  <si>
-    <t>**maa://24395 (47.62)</t>
-  </si>
-  <si>
-    <t>maa://22466 (89.38), *maa://22732 (51.43)</t>
-  </si>
-  <si>
     <t>maa://39347 (100.0)</t>
   </si>
   <si>
-    <t>maa://31731 (94.44)</t>
-  </si>
-  <si>
-    <t>*maa://22751 (79.31), maa://27127 (92.86)</t>
-  </si>
-  <si>
-    <t>maa://35926 (93.85), *maa://36258 (76.6)</t>
-  </si>
-  <si>
-    <t>maa://21249 (95.48), maa://26254 (95.24)</t>
-  </si>
-  <si>
-    <t>*maa://21916 (58.93), maa://32931 (89.09), maa://23252 (92.19), **maa://22759 (45.45), maa://37496 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24762 (89.23), *maa://22727 (70.0)</t>
-  </si>
-  <si>
-    <t>maa://30587 (91.03), *maa://29748 (74.79), ***maa://29785 (15.62), *maa://37566 (70.0)</t>
-  </si>
-  <si>
-    <t>*maa://23168 (60.87), **maa://30050 (46.67)</t>
-  </si>
-  <si>
     <t>maa://21442 (99.46)</t>
   </si>
   <si>
-    <t>maa://23278 (96.1), maa://21386 (95.58), maa://36664 (91.3)</t>
-  </si>
-  <si>
-    <t>maa://32509 (100.0), maa://22754 (92.96), *maa://27295 (80.0), *maa://21746 (55.81), *maa://31008 (76.92)</t>
-  </si>
-  <si>
-    <t>maa://22747 (95.35), maa://22501 (97.83)</t>
-  </si>
-  <si>
-    <t>maa://30624 (88.0)</t>
-  </si>
-  <si>
-    <t>maa://24526 (92.82)</t>
-  </si>
-  <si>
-    <t>maa://39354 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://39366 (100.0)</t>
-  </si>
-  <si>
     <t>妮芙</t>
   </si>
   <si>
-    <t>maa://22399 (93.97), *maa://22758 (72.09)</t>
-  </si>
-  <si>
-    <t>maa://21411 (96.54)</t>
-  </si>
-  <si>
-    <t>maa://26223 (96.34)</t>
-  </si>
-  <si>
-    <t>maa://36713 (97.17)</t>
-  </si>
-  <si>
-    <t>*maa://22768 (53.33), *maa://34957 (75.0)</t>
-  </si>
-  <si>
-    <t>**maa://38786 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://28501 (98.44), maa://28051 (95.65)</t>
-  </si>
-  <si>
-    <t>maa://23504 (92.66), maa://29988 (86.27), **maa://22892 (40.15), *maa://25141 (77.19), maa://36663 (80.85), ***maa://22815 (24.0)</t>
-  </si>
-  <si>
-    <t>maa://24389 (95.24)</t>
-  </si>
-  <si>
-    <t>maa://24390 (94.29)</t>
-  </si>
-  <si>
-    <t>maa://28711 (89.55), ***maa://22740 (6.0), **maa://27377 (46.15), ***maa://25174 (20.0)</t>
-  </si>
-  <si>
-    <t>*maa://30709 (56.38), **maa://36668 (43.1)</t>
-  </si>
-  <si>
-    <t>*maa://21443 (77.7), ***maa://23820 (28.85)</t>
-  </si>
-  <si>
     <t>maa://39349 (100.0)</t>
   </si>
   <si>
-    <t>maa://24516 (81.71), maa://31215 (90.91), maa://26001 (92.31)</t>
-  </si>
-  <si>
-    <t>*maa://30062 (64.1), ***maa://26209 (13.64)</t>
-  </si>
-  <si>
-    <t>maa://26206 (92.31), **maa://22865 (47.5)</t>
-  </si>
-  <si>
-    <t>***maa://22737 (29.17)</t>
-  </si>
-  <si>
-    <t>maa://21364 (80.85), *maa://22766 (72.92), *maa://36666 (78.05)</t>
-  </si>
-  <si>
-    <t>maa://22523 (85.23), maa://29910 (97.44), maa://36672 (84.0), **maa://21440 (34.55)</t>
-  </si>
-  <si>
-    <t>maa://36660 (94.92), *maa://36701 (66.67)</t>
-  </si>
-  <si>
-    <t>*maa://24080 (68.15), ***maa://34960 (12.5)</t>
-  </si>
-  <si>
-    <t>maa://36697 (85.07)</t>
-  </si>
-  <si>
-    <t>更新日期：2024.07.10</t>
+    <t>maa://24702 (94.05), maa://25390 (97.33), maa://36681 (93.18)</t>
+  </si>
+  <si>
+    <t>maa://36987 (100.0), maa://39849 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24632 (94.31), **maa://24303 (36.36), maa://22499 (84.62), maa://22746 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21245 (81.5), maa://22744 (81.82)</t>
+  </si>
+  <si>
+    <t>maa://21955 (92.0)</t>
+  </si>
+  <si>
+    <t>maa://22765 (92.0), *maa://21915 (63.64)</t>
+  </si>
+  <si>
+    <t>***maa://25695 (19.28), **maa://32237 (40.62), ***maa://34206 (10.53), **maa://39243 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24999 (91.38), maa://36673 (91.07), maa://25001 (85.29)</t>
+  </si>
+  <si>
+    <t>*maa://22743 (76.06), maa://22734 (84.55), *maa://30808 (63.27), ***maa://36048 (8.7)</t>
+  </si>
+  <si>
+    <t>maa://21441 (96.14), maa://36679 (85.71), maa://37650 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://24570 (96.58)</t>
+  </si>
+  <si>
+    <t>maa://21432 (90.48), maa://25198 (94.38), **maa://20795 (47.9), maa://36680 (100.0)</t>
+  </si>
+  <si>
+    <t>***maa://28036 (28.57)</t>
+  </si>
+  <si>
+    <t>maa://24368 (81.13)</t>
+  </si>
+  <si>
+    <t>maa://29753 (95.73)</t>
+  </si>
+  <si>
+    <t>maa://24465 (90.06), maa://25725 (83.56)</t>
+  </si>
+  <si>
+    <t>maa://31694 (97.37)</t>
+  </si>
+  <si>
+    <t>maa://21247 (97.97), maa://22748 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24370 (95.74)</t>
+  </si>
+  <si>
+    <t>*maa://24371 (51.61)</t>
+  </si>
+  <si>
+    <t>maa://21867 (91.04)</t>
+  </si>
+  <si>
+    <t>*maa://21248 (76.19), **maa://22728 (48.65)</t>
+  </si>
+  <si>
+    <t>maa://24304 (87.43), maa://21478 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://22430 (88.44), **maa://39599 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24421 (91.58)</t>
+  </si>
+  <si>
+    <t>maa://22864 (87.93)</t>
+  </si>
+  <si>
+    <t>maa://24372 (97.44)</t>
+  </si>
+  <si>
+    <t>**maa://21678 (48.94), maa://25236 (95.59), **maa://22735 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://29063 (80.73), *maa://25311 (78.31), ***maa://22725 (4.84)</t>
+  </si>
+  <si>
+    <t>maa://24913 (91.94)</t>
+  </si>
+  <si>
+    <t>**maa://21283 (48.61), maa://34494 (100.0), **maa://36665 (42.86), maa://39601 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://25175 (76.92)</t>
+  </si>
+  <si>
+    <t>maa://32721 (100.0), **maa://24373 (30.43)</t>
+  </si>
+  <si>
+    <t>maa://21895 (96.97), maa://36667 (96.67), **maa://20793 (38.78), maa://22760 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24375 (91.67)</t>
+  </si>
+  <si>
+    <t>*maa://24374 (52.78)</t>
+  </si>
+  <si>
+    <t>maa://25199 (87.13), maa://30434 (90.2), maa://36670 (93.75), ***maa://25036 (16.0)</t>
+  </si>
+  <si>
+    <t>maa://24466 (94.74)</t>
+  </si>
+  <si>
+    <t>maa://22525 (92.73), maa://21284 (83.78)</t>
+  </si>
+  <si>
+    <t>maa://29768 (98.3), maa://27728 (95.96)</t>
+  </si>
+  <si>
+    <t>maa://21229 (85.88), maa://30807 (96.43), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
+  </si>
+  <si>
+    <t>maa://35931 (93.26)</t>
+  </si>
+  <si>
+    <t>maa://27410 (96.27), maa://29661 (98.21), maa://28038 (84.62)</t>
+  </si>
+  <si>
+    <t>*maa://30769 (72.73)</t>
+  </si>
+  <si>
+    <t>maa://32534 (92.41), **maa://32434 (36.36)</t>
+  </si>
+  <si>
+    <t>maa://32532 (92.27)</t>
+  </si>
+  <si>
+    <t>maa://25176 (97.5)</t>
+  </si>
+  <si>
+    <t>*maa://37964 (69.23)</t>
+  </si>
+  <si>
+    <t>maa://27746 (83.84), maa://31270 (96.51)</t>
+  </si>
+  <si>
+    <t>佩佩</t>
+  </si>
+  <si>
+    <t>*maa://24633 (54.36), *maa://30515 (69.07), ***maa://20792 (11.93), *maa://34787 (74.14), ***maa://29083 (29.41), maa://39402 (84.62)</t>
+  </si>
+  <si>
+    <t>*maa://22880 (74.24), maa://20276 (82.11), *maa://22749 (71.43)</t>
+  </si>
+  <si>
+    <t>maa://22757 (86.96)</t>
+  </si>
+  <si>
+    <t>maa://24839 (99.15)</t>
+  </si>
+  <si>
+    <t>maa://28624 (90.91), maa://24957 (97.22)</t>
+  </si>
+  <si>
+    <t>maa://22762 (91.03)</t>
+  </si>
+  <si>
+    <t>**maa://24395 (45.45)</t>
+  </si>
+  <si>
+    <t>maa://21287 (87.34)</t>
+  </si>
+  <si>
+    <t>maa://26245 (96.12), maa://21288 (96.18), maa://36682 (100.0), maa://39841 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://21334 (56.52)</t>
+  </si>
+  <si>
+    <t>*maa://21679 (71.43)</t>
+  </si>
+  <si>
+    <t>maa://22466 (88.33), *maa://22732 (52.63)</t>
+  </si>
+  <si>
+    <t>maa://31731 (94.59)</t>
+  </si>
+  <si>
+    <t>maa://27127 (91.89), *maa://22751 (77.97)</t>
+  </si>
+  <si>
+    <t>maa://39756 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://24378 (87.88)</t>
+  </si>
+  <si>
+    <t>maa://28071 (85.71)</t>
+  </si>
+  <si>
+    <t>maa://28432 (93.18), *maa://28440 (72.15), maa://31400 (100.0), *maa://28650 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://30442 (93.75)</t>
+  </si>
+  <si>
+    <t>maa://35926 (93.07), *maa://36258 (77.78)</t>
+  </si>
+  <si>
+    <t>maa://39384 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21249 (95.65), maa://26254 (95.24)</t>
+  </si>
+  <si>
+    <t>maa://21919 (97.44), maa://21281 (91.67)</t>
+  </si>
+  <si>
+    <t>maa://31836 (92.31), maa://30381 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22750 (96.77)</t>
+  </si>
+  <si>
+    <t>*maa://21916 (58.93), maa://32931 (86.89), maa://23252 (92.19), **maa://22759 (45.45), maa://37496 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22736 (80.82)</t>
+  </si>
+  <si>
+    <t>maa://28977 (94.52), *maa://23264 (62.26), maa://36669 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22676 (91.4), *maa://22583 (74.07), *maa://22500 (54.76)</t>
+  </si>
+  <si>
+    <t>maa://23250 (98.27), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24762 (89.39), *maa://22727 (70.0)</t>
+  </si>
+  <si>
+    <t>maa://28504 (90.7)</t>
+  </si>
+  <si>
+    <t>maa://23890 (80.85), *maa://24940 (69.23)</t>
+  </si>
+  <si>
+    <t>maa://39433 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30587 (91.56), *maa://29748 (75.41), ***maa://29785 (15.38), *maa://37566 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://24382 (90.48)</t>
+  </si>
+  <si>
+    <t>*maa://30968 (58.82)</t>
+  </si>
+  <si>
+    <t>*maa://23168 (59.57), **maa://30050 (43.75)</t>
+  </si>
+  <si>
+    <t>*maa://21956 (77.87), maa://22730 (81.48)</t>
+  </si>
+  <si>
+    <t>maa://21280 (89.14), *maa://21239 (70.0)</t>
+  </si>
+  <si>
+    <t>maa://24709 (91.75)</t>
+  </si>
+  <si>
+    <t>maa://23278 (96.14), maa://21386 (95.58), maa://36664 (92.86)</t>
+  </si>
+  <si>
+    <t>**maa://35616 (45.45)</t>
+  </si>
+  <si>
+    <t>*maa://36237 (62.5)</t>
+  </si>
+  <si>
+    <t>maa://39643 (100.0)</t>
+  </si>
+  <si>
+    <t>娜仁图亚</t>
+  </si>
+  <si>
+    <t>maa://22742 (92.54), *maa://20791 (61.19)</t>
+  </si>
+  <si>
+    <t>maa://24617 (87.76), **maa://20790 (43.75), ***maa://37170 (21.88)</t>
+  </si>
+  <si>
+    <t>maa://32509 (100.0), maa://22754 (92.96), *maa://27295 (80.0), *maa://21746 (55.81), *maa://31008 (77.5)</t>
+  </si>
+  <si>
+    <t>*maa://37411 (66.67)</t>
+  </si>
+  <si>
+    <t>**maa://22866 (30.77), maa://26222 (96.88)</t>
+  </si>
+  <si>
+    <t>maa://27395 (96.95), maa://22755 (87.23), **maa://22756 (42.86), ***maa://21737 (10.61)</t>
+  </si>
+  <si>
+    <t>maa://22747 (95.49), maa://22501 (97.96)</t>
+  </si>
+  <si>
+    <t>*maa://22471 (60.94), maa://22521 (97.37)</t>
+  </si>
+  <si>
+    <t>maa://23892 (98.51)</t>
+  </si>
+  <si>
+    <t>maa://22729 (94.78), *maa://28648 (66.67), *maa://36674 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://24385 (96.77)</t>
+  </si>
+  <si>
+    <t>maa://24386 (98.53)</t>
+  </si>
+  <si>
+    <t>maa://21993 (87.5)</t>
+  </si>
+  <si>
+    <t>maa://20109 (92.45), maa://22545 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30624 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://23263 (93.9), *maa://29765 (61.9)</t>
+  </si>
+  <si>
+    <t>maa://30711 (98.0), maa://30768 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24526 (92.66)</t>
+  </si>
+  <si>
+    <t>maa://24842 (95.56)</t>
+  </si>
+  <si>
+    <t>maa://27613 (98.92)</t>
+  </si>
+  <si>
+    <t>**maa://39354 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://39366 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://39364 (100.0)</t>
+  </si>
+  <si>
+    <t>杜林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maa://27396 (85.45), maa://27484 (95.0), maa://27480 (81.82)</t>
+  </si>
+  <si>
+    <t>maa://22399 (94.21), *maa://22758 (71.74)</t>
+  </si>
+  <si>
+    <t>maa://21411 (95.91)</t>
+  </si>
+  <si>
+    <t>maa://26223 (96.51)</t>
+  </si>
+  <si>
+    <t>maa://22301 (97.66), maa://22726 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://36713 (97.42)</t>
+  </si>
+  <si>
+    <t>maa://22753 (91.37), *maa://21485 (79.34), *maa://37962 (80.0)</t>
+  </si>
+  <si>
+    <t>*maa://34957 (76.92), *maa://22768 (53.33)</t>
+  </si>
+  <si>
+    <t>maa://37468 (87.5)</t>
+  </si>
+  <si>
+    <t>*maa://38786 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://28501 (98.46), maa://28051 (95.65)</t>
+  </si>
+  <si>
+    <t>maa://21917 (97.01), *maa://22741 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://20110 (87.69), maa://34946 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://21282 (98.76), *maa://37649 (62.5)</t>
+  </si>
+  <si>
+    <t>*maa://28503 (58.82)</t>
+  </si>
+  <si>
+    <t>maa://23504 (92.79), maa://29988 (86.34), **maa://22892 (40.15), *maa://25141 (76.52), *maa://36663 (79.59), ***maa://22815 (24.0)</t>
+  </si>
+  <si>
+    <t>*maa://29890 (72.22)</t>
+  </si>
+  <si>
+    <t>maa://24389 (95.45)</t>
+  </si>
+  <si>
+    <t>**maa://39821 (45.45), ***maa://39723 (23.53)</t>
+  </si>
+  <si>
+    <t>*maa://39477 (75.0)</t>
+  </si>
+  <si>
+    <t>莎草</t>
+  </si>
+  <si>
+    <t>maa://21246 (91.13), maa://36684 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24390 (95.0)</t>
+  </si>
+  <si>
+    <t>*maa://32658 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://29863 (81.82), ***maa://22752 (14.29), **maa://26013 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://28711 (89.86), ***maa://22740 (6.0), **maa://27377 (46.15), ***maa://25174 (20.0)</t>
+  </si>
+  <si>
+    <t>maa://22516 (88.89), *maa://20794 (52.24), maa://29912 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://23669 (95.69), maa://36677 (100.0), maa://39872 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22764 (96.08)</t>
+  </si>
+  <si>
+    <t>*maa://30709 (58.24), **maa://36668 (48.44)</t>
+  </si>
+  <si>
+    <t>*maa://21443 (78.06), ***maa://23820 (28.85)</t>
+  </si>
+  <si>
+    <t>maa://24516 (81.71), maa://31215 (91.53), maa://26001 (92.31)</t>
+  </si>
+  <si>
+    <t>衡沙</t>
+  </si>
+  <si>
+    <t>***maa://21730 (17.46), maa://25251 (92.42), *maa://36675 (75.0), *maa://39501 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://21289 (68.75)</t>
+  </si>
+  <si>
+    <t>*maa://30062 (64.1), ***maa://26209 (13.64), maa://39394 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://33152 (59.26), ***maa://22770 (28.57)</t>
+  </si>
+  <si>
+    <t>*maa://26191 (71.88), *maa://36671 (76.47)</t>
+  </si>
+  <si>
+    <t>*maa://24479 (76.47), *maa://21990 (53.85)</t>
+  </si>
+  <si>
+    <t>maa://26206 (91.18), **maa://22865 (46.34)</t>
+  </si>
+  <si>
+    <t>*maa://25021 (57.58), *maa://22733 (60.71), maa://22761 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://28932 (75.96), *maa://20106 (63.64), *maa://22769 (62.96)</t>
+  </si>
+  <si>
+    <t>**maa://22737 (30.77)</t>
+  </si>
+  <si>
+    <t>maa://21364 (80.84), *maa://22766 (72.16), *maa://36666 (72.92)</t>
+  </si>
+  <si>
+    <t>*maa://23911 (59.52), maa://27755 (90.48)</t>
+  </si>
+  <si>
+    <t>*maa://24313 (56.03), **maa://29784 (46.15)</t>
+  </si>
+  <si>
+    <t>*maa://21663 (62.26)</t>
+  </si>
+  <si>
+    <t>maa://22524 (94.23), maa://22432 (81.82)</t>
+  </si>
+  <si>
+    <t>maa://31489 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://22523 (84.92), maa://36672 (81.25), maa://29910 (97.67), **maa://21440 (34.55)</t>
+  </si>
+  <si>
+    <t>maa://20108 (96.03), maa://24621 (96.33), maa://22771 (83.33), maa://36676 (100.0), maa://37772 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30511 (92.0), *maa://29760 (54.55)</t>
+  </si>
+  <si>
+    <t>maa://36660 (94.93), *maa://36701 (62.5)</t>
+  </si>
+  <si>
+    <t>*maa://24080 (69.05), ***maa://34960 (10.53)</t>
+  </si>
+  <si>
+    <t>*maa://32650 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://39479 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://36697 (84.95)</t>
+  </si>
+  <si>
+    <t>锡人</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2084,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE70"/>
+  <dimension ref="A1:AE71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2208,70 +2248,70 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>125</v>
       </c>
       <c r="J2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>513</v>
+        <v>443</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>203</v>
+        <v>512</v>
       </c>
       <c r="R2" s="1">
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z2" s="1">
         <v>2</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AD2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2279,10 +2319,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
@@ -2291,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>495</v>
+        <v>410</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2300,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
@@ -2309,43 +2349,43 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R3" s="1">
         <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V3" s="1">
         <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z3" s="1">
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD3" s="1">
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>385</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2356,70 +2396,70 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R4" s="1">
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z4" s="1">
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>384</v>
+        <v>536</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2430,16 +2470,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>128</v>
@@ -2448,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>373</v>
+        <v>445</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2457,43 +2497,43 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>368</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V5" s="1">
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z5" s="1">
         <v>3</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>380</v>
+        <v>537</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -2501,10 +2541,10 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>71</v>
@@ -2513,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2531,43 +2571,43 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>416</v>
+        <v>492</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Z6" s="1">
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD6" s="1">
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2578,16 +2618,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>130</v>
@@ -2596,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2605,28 +2645,28 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V7" s="1">
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
@@ -2635,13 +2675,13 @@
         <v>66</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD7" s="1">
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2652,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2661,16 +2701,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>163</v>
@@ -2679,43 +2719,43 @@
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V8" s="1">
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z8" s="1">
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD8" s="1">
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2726,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2744,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2753,43 +2793,43 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R9" s="1">
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V9" s="1">
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z9" s="1">
         <v>4</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AD9" s="1">
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2797,10 +2837,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>488</v>
+        <v>399</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2809,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>133</v>
@@ -2818,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
@@ -2827,43 +2867,43 @@
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>375</v>
+        <v>470</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R10" s="1">
         <v>4</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V10" s="1">
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z10" s="1">
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD10" s="1">
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2874,16 +2914,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>134</v>
@@ -2892,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2904,40 +2944,40 @@
         <v>66</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R11" s="1">
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V11" s="1">
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z11" s="1">
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>426</v>
+        <v>539</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD11" s="1">
         <v>2</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2948,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2957,16 +2997,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>167</v>
@@ -2978,40 +3018,40 @@
         <v>66</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V12" s="1">
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>427</v>
+        <v>540</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD12" s="1">
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -3022,7 +3062,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
@@ -3031,16 +3071,16 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>496</v>
+        <v>414</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>168</v>
@@ -3049,43 +3089,43 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V13" s="1">
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z13" s="1">
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD13" s="1">
         <v>1</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3096,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -3105,16 +3145,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
@@ -3123,43 +3163,43 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R14" s="1">
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V14" s="1">
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>376</v>
+        <v>521</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z14" s="1">
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>428</v>
+        <v>541</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -3170,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>489</v>
+        <v>401</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3179,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3188,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>362</v>
+        <v>452</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
@@ -3197,43 +3237,43 @@
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V15" s="1">
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD15" s="1">
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3244,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3262,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>171</v>
@@ -3271,43 +3311,43 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R16" s="1">
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V16" s="1">
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z16" s="1">
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>477</v>
+        <v>385</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD16" s="1">
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3318,16 +3358,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3336,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3345,43 +3385,43 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -3392,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3401,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>497</v>
+        <v>417</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>141</v>
@@ -3410,7 +3450,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3419,43 +3459,43 @@
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R18" s="1">
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>382</v>
+        <v>499</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V18" s="1">
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z18" s="1">
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD18" s="1">
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3463,10 +3503,10 @@
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>84</v>
@@ -3484,52 +3524,52 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>517</v>
+        <v>389</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>174</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>66</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V19" s="1">
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z19" s="1">
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD19" s="1">
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>377</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3540,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3549,16 +3589,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>498</v>
+        <v>418</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>175</v>
@@ -3567,43 +3607,43 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -3614,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3623,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3632,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>518</v>
+        <v>455</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3641,43 +3681,43 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V21" s="1">
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>424</v>
+        <v>525</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z21" s="1">
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AD21" s="1">
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3685,10 +3725,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>87</v>
@@ -3697,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3706,52 +3746,52 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>519</v>
+        <v>456</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V22" s="1">
         <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z22" s="1">
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AD22" s="1">
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3762,25 +3802,25 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>491</v>
+        <v>405</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>326</v>
+      <c r="J23" s="1">
+        <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>326</v>
+        <v>457</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>178</v>
@@ -3789,43 +3829,43 @@
         <v>4</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R23" s="1">
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>467</v>
+        <v>383</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V23" s="1">
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z23" s="1">
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD23" s="1">
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>366</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3836,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3851,55 +3891,55 @@
         <v>147</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>179</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V24" s="1">
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z24" s="1">
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>548</v>
+        <v>392</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD24" s="1">
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3910,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>492</v>
+        <v>407</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3919,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
@@ -3928,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3937,54 +3977,54 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R25" s="1">
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>383</v>
+        <v>502</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V25" s="1">
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z25" s="1">
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AD25" s="1">
         <v>5</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>487</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>326</v>
+      <c r="B26" s="1">
+        <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>91</v>
@@ -3993,16 +4033,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>501</v>
+        <v>422</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>181</v>
@@ -4011,43 +4051,43 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>364</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V26" s="1">
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AD26" s="1">
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>430</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4055,19 +4095,19 @@
         <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>502</v>
+        <v>423</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -4076,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>374</v>
+        <v>459</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -4088,40 +4128,40 @@
         <v>66</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD27" s="1">
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4132,16 +4172,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>493</v>
+        <v>408</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>151</v>
@@ -4150,52 +4190,52 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R28" s="1">
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>419</v>
+        <v>504</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>326</v>
+      <c r="V28" s="1">
+        <v>2</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>326</v>
+        <v>531</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD28" s="1">
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4206,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>338</v>
+        <v>409</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4215,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
@@ -4224,7 +4264,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
@@ -4233,43 +4273,43 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD29" s="1">
         <v>2</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4277,10 +4317,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>95</v>
@@ -4289,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>503</v>
+        <v>387</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>153</v>
@@ -4298,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4307,43 +4347,43 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>526</v>
+        <v>390</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R30" s="1">
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>66</v>
+        <v>532</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -4351,10 +4391,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>96</v>
@@ -4363,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4372,54 +4412,63 @@
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>520</v>
+        <v>462</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R31" s="1">
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>421</v>
+        <v>505</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>97</v>
@@ -4428,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>504</v>
+        <v>426</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4437,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4446,28 +4495,28 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD32" s="1">
         <v>0</v>
@@ -4478,13 +4527,13 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>494</v>
+        <v>386</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>98</v>
@@ -4493,16 +4542,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>505</v>
+        <v>388</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>326</v>
+      <c r="J33" s="1">
+        <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>188</v>
@@ -4511,10 +4557,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -4523,22 +4569,22 @@
         <v>66</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
@@ -4546,46 +4592,46 @@
         <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>189</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R34" s="1">
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>20</v>
@@ -4594,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>431</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4602,46 +4648,55 @@
         <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>422</v>
+        <v>507</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AD35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>66</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -4652,43 +4707,43 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R36" s="1">
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>423</v>
+        <v>508</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
@@ -4699,16 +4754,16 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>192</v>
@@ -4717,30 +4772,30 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R37" s="1">
         <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4748,19 +4803,19 @@
         <v>103</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>66</v>
+        <v>463</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>193</v>
@@ -4769,25 +4824,25 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R38" s="1">
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD38" s="1">
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4801,16 +4856,16 @@
         <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>506</v>
+        <v>429</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>194</v>
@@ -4819,21 +4874,30 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -4841,10 +4905,10 @@
         <v>105</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>195</v>
@@ -4853,16 +4917,16 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>527</v>
+        <v>484</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4876,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
@@ -4885,10 +4949,10 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -4899,7 +4963,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4907,10 +4971,10 @@
         <v>107</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>197</v>
@@ -4925,10 +4989,10 @@
         <v>22</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4942,25 +5006,25 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4974,16 +5038,16 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>34</v>
@@ -4992,12 +5056,12 @@
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -5008,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
@@ -5017,13 +5081,16 @@
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
@@ -5037,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>507</v>
+        <v>434</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
@@ -5049,18 +5116,18 @@
         <v>66</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -5071,25 +5138,25 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>508</v>
+        <v>435</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>534</v>
+        <v>391</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
@@ -5100,10 +5167,10 @@
         <v>113</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>19</v>
@@ -5117,7 +5184,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5125,19 +5192,19 @@
         <v>114</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>66</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5148,19 +5215,19 @@
         <v>115</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -5171,16 +5238,16 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -5191,7 +5258,16 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -5202,7 +5278,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>509</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5224,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5232,10 +5308,10 @@
         <v>121</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -5246,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5257,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -5268,18 +5344,18 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>512</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>326</v>
+      <c r="F60" s="1">
+        <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -5287,10 +5363,10 @@
         <v>24</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -5298,10 +5374,10 @@
         <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -5309,10 +5385,10 @@
         <v>29</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5320,10 +5396,10 @@
         <v>32</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.2">
@@ -5331,10 +5407,10 @@
         <v>33</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.2">
@@ -5342,54 +5418,65 @@
         <v>38</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E67" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E71" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4CC1AA-4031-49BE-80B9-8105C90EC63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D5BB3C-F08B-4D82-8874-3437A8927BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="3270" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="3120" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="573">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1101,9 +1101,6 @@
     <t>maa://28502 (100.0)</t>
   </si>
   <si>
-    <t>maa://29652 (100.0)</t>
-  </si>
-  <si>
     <t>maa://36707 (100.0)</t>
   </si>
   <si>
@@ -1141,18 +1138,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maa://24023 (98.31)</t>
-  </si>
-  <si>
     <t>***maa://24394 (16.0), maa://31203 (93.33)</t>
   </si>
   <si>
-    <t>*maa://21476 (64.86), *maa://37551 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://30764 (82.86)</t>
-  </si>
-  <si>
     <t>*maa://21624 (79.31)</t>
   </si>
   <si>
@@ -1162,12 +1150,6 @@
     <t>乌尔比安</t>
   </si>
   <si>
-    <t>*maa://30770 (73.53)</t>
-  </si>
-  <si>
-    <t>maa://28065 (97.06)</t>
-  </si>
-  <si>
     <t>深巡</t>
   </si>
   <si>
@@ -1183,36 +1165,18 @@
     <t>*maa://32940 (75.0), maa://24388 (93.33)</t>
   </si>
   <si>
-    <t>maa://25389 (90.91)</t>
-  </si>
-  <si>
     <t>海霓</t>
   </si>
   <si>
-    <t>maa://30766 (88.0), **maa://36678 (50.0)</t>
-  </si>
-  <si>
     <t>maa://24381 (85.71)</t>
   </si>
   <si>
-    <t>maa://24387 (82.35), maa://31212 (95.45)</t>
-  </si>
-  <si>
-    <t>maa://22739 (90.0)</t>
-  </si>
-  <si>
-    <t>maa://26228 (95.31)</t>
-  </si>
-  <si>
     <t>渡桥</t>
   </si>
   <si>
     <t>maa://39355 (100.0)</t>
   </si>
   <si>
-    <t>maa://39351 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39347 (100.0)</t>
   </si>
   <si>
@@ -1225,93 +1189,24 @@
     <t>maa://39349 (100.0)</t>
   </si>
   <si>
-    <t>maa://24702 (94.05), maa://25390 (97.33), maa://36681 (93.18)</t>
-  </si>
-  <si>
-    <t>maa://36987 (100.0), maa://39849 (100.0)</t>
-  </si>
-  <si>
     <t>maa://24632 (94.31), **maa://24303 (36.36), maa://22499 (84.62), maa://22746 (100.0)</t>
   </si>
   <si>
-    <t>maa://21245 (81.5), maa://22744 (81.82)</t>
-  </si>
-  <si>
     <t>maa://21955 (92.0)</t>
   </si>
   <si>
-    <t>maa://22765 (92.0), *maa://21915 (63.64)</t>
-  </si>
-  <si>
-    <t>***maa://25695 (19.28), **maa://32237 (40.62), ***maa://34206 (10.53), **maa://39243 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24999 (91.38), maa://36673 (91.07), maa://25001 (85.29)</t>
-  </si>
-  <si>
-    <t>*maa://22743 (76.06), maa://22734 (84.55), *maa://30808 (63.27), ***maa://36048 (8.7)</t>
-  </si>
-  <si>
-    <t>maa://21441 (96.14), maa://36679 (85.71), maa://37650 (92.31)</t>
-  </si>
-  <si>
-    <t>maa://24570 (96.58)</t>
-  </si>
-  <si>
-    <t>maa://21432 (90.48), maa://25198 (94.38), **maa://20795 (47.9), maa://36680 (100.0)</t>
-  </si>
-  <si>
     <t>***maa://28036 (28.57)</t>
   </si>
   <si>
-    <t>maa://24368 (81.13)</t>
-  </si>
-  <si>
-    <t>maa://29753 (95.73)</t>
-  </si>
-  <si>
-    <t>maa://24465 (90.06), maa://25725 (83.56)</t>
-  </si>
-  <si>
-    <t>maa://31694 (97.37)</t>
-  </si>
-  <si>
-    <t>maa://21247 (97.97), maa://22748 (100.0)</t>
-  </si>
-  <si>
     <t>maa://24370 (95.74)</t>
   </si>
   <si>
     <t>*maa://24371 (51.61)</t>
   </si>
   <si>
-    <t>maa://21867 (91.04)</t>
-  </si>
-  <si>
-    <t>*maa://21248 (76.19), **maa://22728 (48.65)</t>
-  </si>
-  <si>
-    <t>maa://24304 (87.43), maa://21478 (93.33)</t>
-  </si>
-  <si>
-    <t>maa://22430 (88.44), **maa://39599 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24421 (91.58)</t>
-  </si>
-  <si>
-    <t>maa://22864 (87.93)</t>
-  </si>
-  <si>
-    <t>maa://24372 (97.44)</t>
-  </si>
-  <si>
     <t>**maa://21678 (48.94), maa://25236 (95.59), **maa://22735 (50.0)</t>
   </si>
   <si>
-    <t>maa://29063 (80.73), *maa://25311 (78.31), ***maa://22725 (4.84)</t>
-  </si>
-  <si>
     <t>maa://24913 (91.94)</t>
   </si>
   <si>
@@ -1324,81 +1219,30 @@
     <t>maa://32721 (100.0), **maa://24373 (30.43)</t>
   </si>
   <si>
-    <t>maa://21895 (96.97), maa://36667 (96.67), **maa://20793 (38.78), maa://22760 (100.0)</t>
-  </si>
-  <si>
     <t>maa://24375 (91.67)</t>
   </si>
   <si>
     <t>*maa://24374 (52.78)</t>
   </si>
   <si>
-    <t>maa://25199 (87.13), maa://30434 (90.2), maa://36670 (93.75), ***maa://25036 (16.0)</t>
-  </si>
-  <si>
     <t>maa://24466 (94.74)</t>
   </si>
   <si>
-    <t>maa://22525 (92.73), maa://21284 (83.78)</t>
-  </si>
-  <si>
-    <t>maa://29768 (98.3), maa://27728 (95.96)</t>
-  </si>
-  <si>
-    <t>maa://21229 (85.88), maa://30807 (96.43), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
-  </si>
-  <si>
-    <t>maa://35931 (93.26)</t>
-  </si>
-  <si>
-    <t>maa://27410 (96.27), maa://29661 (98.21), maa://28038 (84.62)</t>
-  </si>
-  <si>
     <t>*maa://30769 (72.73)</t>
   </si>
   <si>
-    <t>maa://32534 (92.41), **maa://32434 (36.36)</t>
-  </si>
-  <si>
-    <t>maa://32532 (92.27)</t>
-  </si>
-  <si>
-    <t>maa://25176 (97.5)</t>
-  </si>
-  <si>
-    <t>*maa://37964 (69.23)</t>
-  </si>
-  <si>
     <t>maa://27746 (83.84), maa://31270 (96.51)</t>
   </si>
   <si>
     <t>佩佩</t>
   </si>
   <si>
-    <t>*maa://24633 (54.36), *maa://30515 (69.07), ***maa://20792 (11.93), *maa://34787 (74.14), ***maa://29083 (29.41), maa://39402 (84.62)</t>
-  </si>
-  <si>
-    <t>*maa://22880 (74.24), maa://20276 (82.11), *maa://22749 (71.43)</t>
-  </si>
-  <si>
     <t>maa://22757 (86.96)</t>
   </si>
   <si>
-    <t>maa://24839 (99.15)</t>
-  </si>
-  <si>
-    <t>maa://28624 (90.91), maa://24957 (97.22)</t>
-  </si>
-  <si>
-    <t>maa://22762 (91.03)</t>
-  </si>
-  <si>
     <t>**maa://24395 (45.45)</t>
   </si>
   <si>
-    <t>maa://21287 (87.34)</t>
-  </si>
-  <si>
     <t>maa://26245 (96.12), maa://21288 (96.18), maa://36682 (100.0), maa://39841 (100.0)</t>
   </si>
   <si>
@@ -1408,39 +1252,18 @@
     <t>*maa://21679 (71.43)</t>
   </si>
   <si>
-    <t>maa://22466 (88.33), *maa://22732 (52.63)</t>
-  </si>
-  <si>
     <t>maa://31731 (94.59)</t>
   </si>
   <si>
-    <t>maa://27127 (91.89), *maa://22751 (77.97)</t>
-  </si>
-  <si>
-    <t>maa://39756 (92.31)</t>
-  </si>
-  <si>
     <t>maa://24378 (87.88)</t>
   </si>
   <si>
     <t>maa://28071 (85.71)</t>
   </si>
   <si>
-    <t>maa://28432 (93.18), *maa://28440 (72.15), maa://31400 (100.0), *maa://28650 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://30442 (93.75)</t>
-  </si>
-  <si>
-    <t>maa://35926 (93.07), *maa://36258 (77.78)</t>
-  </si>
-  <si>
     <t>maa://39384 (100.0)</t>
   </si>
   <si>
-    <t>maa://21249 (95.65), maa://26254 (95.24)</t>
-  </si>
-  <si>
     <t>maa://21919 (97.44), maa://21281 (91.67)</t>
   </si>
   <si>
@@ -1450,317 +1273,496 @@
     <t>maa://22750 (96.77)</t>
   </si>
   <si>
-    <t>*maa://21916 (58.93), maa://32931 (86.89), maa://23252 (92.19), **maa://22759 (45.45), maa://37496 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22736 (80.82)</t>
-  </si>
-  <si>
-    <t>maa://28977 (94.52), *maa://23264 (62.26), maa://36669 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22676 (91.4), *maa://22583 (74.07), *maa://22500 (54.76)</t>
-  </si>
-  <si>
-    <t>maa://23250 (98.27), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24762 (89.39), *maa://22727 (70.0)</t>
-  </si>
-  <si>
     <t>maa://28504 (90.7)</t>
   </si>
   <si>
-    <t>maa://23890 (80.85), *maa://24940 (69.23)</t>
-  </si>
-  <si>
     <t>maa://39433 (100.0)</t>
   </si>
   <si>
-    <t>maa://30587 (91.56), *maa://29748 (75.41), ***maa://29785 (15.38), *maa://37566 (80.0)</t>
-  </si>
-  <si>
     <t>maa://24382 (90.48)</t>
   </si>
   <si>
-    <t>*maa://30968 (58.82)</t>
-  </si>
-  <si>
-    <t>*maa://23168 (59.57), **maa://30050 (43.75)</t>
-  </si>
-  <si>
-    <t>*maa://21956 (77.87), maa://22730 (81.48)</t>
-  </si>
-  <si>
-    <t>maa://21280 (89.14), *maa://21239 (70.0)</t>
-  </si>
-  <si>
-    <t>maa://24709 (91.75)</t>
-  </si>
-  <si>
-    <t>maa://23278 (96.14), maa://21386 (95.58), maa://36664 (92.86)</t>
-  </si>
-  <si>
-    <t>**maa://35616 (45.45)</t>
-  </si>
-  <si>
-    <t>*maa://36237 (62.5)</t>
-  </si>
-  <si>
-    <t>maa://39643 (100.0)</t>
-  </si>
-  <si>
     <t>娜仁图亚</t>
   </si>
   <si>
-    <t>maa://22742 (92.54), *maa://20791 (61.19)</t>
-  </si>
-  <si>
-    <t>maa://24617 (87.76), **maa://20790 (43.75), ***maa://37170 (21.88)</t>
-  </si>
-  <si>
-    <t>maa://32509 (100.0), maa://22754 (92.96), *maa://27295 (80.0), *maa://21746 (55.81), *maa://31008 (77.5)</t>
-  </si>
-  <si>
-    <t>*maa://37411 (66.67)</t>
-  </si>
-  <si>
-    <t>**maa://22866 (30.77), maa://26222 (96.88)</t>
-  </si>
-  <si>
-    <t>maa://27395 (96.95), maa://22755 (87.23), **maa://22756 (42.86), ***maa://21737 (10.61)</t>
-  </si>
-  <si>
-    <t>maa://22747 (95.49), maa://22501 (97.96)</t>
-  </si>
-  <si>
-    <t>*maa://22471 (60.94), maa://22521 (97.37)</t>
-  </si>
-  <si>
-    <t>maa://23892 (98.51)</t>
-  </si>
-  <si>
-    <t>maa://22729 (94.78), *maa://28648 (66.67), *maa://36674 (80.0)</t>
-  </si>
-  <si>
     <t>maa://24385 (96.77)</t>
   </si>
   <si>
-    <t>maa://24386 (98.53)</t>
-  </si>
-  <si>
     <t>maa://21993 (87.5)</t>
   </si>
   <si>
-    <t>maa://20109 (92.45), maa://22545 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://30624 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://23263 (93.9), *maa://29765 (61.9)</t>
-  </si>
-  <si>
-    <t>maa://30711 (98.0), maa://30768 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24526 (92.66)</t>
-  </si>
-  <si>
-    <t>maa://24842 (95.56)</t>
-  </si>
-  <si>
     <t>maa://27613 (98.92)</t>
   </si>
   <si>
-    <t>**maa://39354 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://39366 (92.31)</t>
-  </si>
-  <si>
     <t>maa://39364 (100.0)</t>
   </si>
   <si>
+    <t>*maa://38786 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://29890 (72.22)</t>
+  </si>
+  <si>
+    <t>maa://24389 (95.45)</t>
+  </si>
+  <si>
+    <t>莎草</t>
+  </si>
+  <si>
+    <t>maa://22516 (88.89), *maa://20794 (52.24), maa://29912 (100.0)</t>
+  </si>
+  <si>
+    <t>衡沙</t>
+  </si>
+  <si>
+    <t>*maa://21289 (68.75)</t>
+  </si>
+  <si>
+    <t>*maa://33152 (59.26), ***maa://22770 (28.57)</t>
+  </si>
+  <si>
+    <t>maa://30511 (92.0), *maa://29760 (54.55)</t>
+  </si>
+  <si>
+    <t>*maa://32650 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://39479 (75.0)</t>
+  </si>
+  <si>
+    <t>锡人</t>
+  </si>
+  <si>
+    <t>maa://24702 (94.05), maa://25390 (97.35), maa://36681 (94.0)</t>
+  </si>
+  <si>
+    <t>maa://36987 (97.44), maa://39849 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21245 (81.71), maa://22744 (81.82)</t>
+  </si>
+  <si>
+    <t>*maa://21476 (64.86), *maa://37551 (66.67), maa://39431 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22765 (92.21), *maa://21915 (63.64)</t>
+  </si>
+  <si>
+    <t>***maa://25695 (19.53), **maa://32237 (39.39), ***maa://34206 (10.0), ***maa://39243 (25.0), **maa://39951 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://30766 (88.46), **maa://36678 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24999 (91.35), maa://36673 (91.07), maa://25001 (85.29)</t>
+  </si>
+  <si>
+    <t>maa://30764 (84.21)</t>
+  </si>
+  <si>
+    <t>*maa://22743 (75.5), maa://22734 (84.68), *maa://30808 (63.27), ***maa://36048 (8.0)</t>
+  </si>
+  <si>
+    <t>maa://21441 (96.14), maa://36679 (88.89), maa://37650 (92.86)</t>
+  </si>
+  <si>
+    <t>maa://24570 (96.73)</t>
+  </si>
+  <si>
+    <t>maa://21432 (90.48), maa://25198 (93.41), **maa://20795 (48.33), maa://36680 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24368 (80.84)</t>
+  </si>
+  <si>
+    <t>maa://29753 (95.37)</t>
+  </si>
+  <si>
+    <t>maa://24465 (90.16), maa://25725 (83.56)</t>
+  </si>
+  <si>
+    <t>maa://31694 (97.44)</t>
+  </si>
+  <si>
+    <t>maa://21247 (98.04), *maa://22748 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://21867 (90.51)</t>
+  </si>
+  <si>
+    <t>*maa://21248 (76.32), **maa://22728 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24304 (87.65), maa://21478 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://22430 (88.44), *maa://39599 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://24421 (91.67)</t>
+  </si>
+  <si>
+    <t>maa://22864 (88.14)</t>
+  </si>
+  <si>
+    <t>maa://24372 (97.47)</t>
+  </si>
+  <si>
+    <t>*maa://29063 (79.82), *maa://25311 (77.65), ***maa://22725 (4.84)</t>
+  </si>
+  <si>
+    <t>maa://21895 (96.97), maa://36667 (96.97), **maa://20793 (38.78), maa://22760 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://39351 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://25199 (86.41), maa://30434 (90.2), maa://36670 (90.24), ***maa://25036 (16.0)</t>
+  </si>
+  <si>
+    <t>maa://22525 (92.86), maa://21284 (84.21)</t>
+  </si>
+  <si>
+    <t>maa://29768 (97.79), maa://27728 (95.96)</t>
+  </si>
+  <si>
+    <t>maa://21229 (85.96), maa://30807 (94.83), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
+  </si>
+  <si>
+    <t>maa://35931 (93.0)</t>
+  </si>
+  <si>
+    <t>maa://27410 (96.33), maa://29661 (98.23), maa://28038 (84.62)</t>
+  </si>
+  <si>
+    <t>maa://32534 (92.53), **maa://32434 (36.36)</t>
+  </si>
+  <si>
+    <t>maa://32532 (92.46)</t>
+  </si>
+  <si>
+    <t>maa://25176 (97.56)</t>
+  </si>
+  <si>
+    <t>*maa://37964 (60.0)</t>
+  </si>
+  <si>
+    <t>*maa://24633 (54.67), *maa://30515 (69.39), ***maa://20792 (11.93), *maa://34787 (74.14), maa://39402 (82.35), ***maa://29083 (29.41)</t>
+  </si>
+  <si>
+    <t>*maa://22880 (73.13), maa://20276 (82.03), *maa://22749 (71.43)</t>
+  </si>
+  <si>
+    <t>maa://24839 (99.16)</t>
+  </si>
+  <si>
+    <t>maa://28624 (91.38), maa://24957 (97.22)</t>
+  </si>
+  <si>
+    <t>maa://22762 (91.14)</t>
+  </si>
+  <si>
+    <t>maa://21287 (87.65)</t>
+  </si>
+  <si>
+    <t>maa://22466 (87.9), *maa://22732 (53.25)</t>
+  </si>
+  <si>
+    <t>maa://27127 (91.03), *maa://22751 (77.97)</t>
+  </si>
+  <si>
+    <t>maa://39756 (93.06), maa://39875 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://30770 (74.29)</t>
+  </si>
+  <si>
+    <t>maa://28432 (93.36), *maa://28440 (72.15), maa://31400 (100.0), *maa://28650 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://30442 (93.88)</t>
+  </si>
+  <si>
+    <t>maa://35926 (93.36), *maa://36258 (78.79)</t>
+  </si>
+  <si>
+    <t>maa://28065 (97.14)</t>
+  </si>
+  <si>
+    <t>maa://39808 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21249 (95.77), maa://26254 (95.24)</t>
+  </si>
+  <si>
+    <t>*maa://21916 (59.65), maa://32931 (87.5), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22736 (81.33)</t>
+  </si>
+  <si>
+    <t>maa://28977 (94.52), *maa://23264 (62.26), maa://36669 (94.74)</t>
+  </si>
+  <si>
+    <t>maa://22676 (91.4), *maa://22583 (75.0), *maa://22500 (54.76)</t>
+  </si>
+  <si>
+    <t>maa://23250 (98.29), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24762 (89.55), *maa://22727 (70.0)</t>
+  </si>
+  <si>
+    <t>maa://23890 (81.05), *maa://24940 (69.23)</t>
+  </si>
+  <si>
+    <t>maa://30587 (91.77), *maa://29748 (75.41), ***maa://29785 (15.38), maa://37566 (81.25)</t>
+  </si>
+  <si>
+    <t>*maa://30968 (58.82), maa://39870 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://23168 (58.33), **maa://30050 (43.75)</t>
+  </si>
+  <si>
+    <t>*maa://21956 (78.05), maa://22730 (81.48)</t>
+  </si>
+  <si>
+    <t>maa://21280 (89.39), *maa://21239 (70.0)</t>
+  </si>
+  <si>
+    <t>maa://24709 (91.84)</t>
+  </si>
+  <si>
+    <t>maa://23278 (96.15), maa://21386 (95.58), maa://36664 (93.33)</t>
+  </si>
+  <si>
+    <t>**maa://35616 (38.46)</t>
+  </si>
+  <si>
+    <t>*maa://36237 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://39643 (80.0)</t>
+  </si>
+  <si>
     <t>杜林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maa://27396 (85.45), maa://27484 (95.0), maa://27480 (81.82)</t>
-  </si>
-  <si>
-    <t>maa://22399 (94.21), *maa://22758 (71.74)</t>
-  </si>
-  <si>
-    <t>maa://21411 (95.91)</t>
-  </si>
-  <si>
-    <t>maa://26223 (96.51)</t>
-  </si>
-  <si>
-    <t>maa://22301 (97.66), maa://22726 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://36713 (97.42)</t>
-  </si>
-  <si>
-    <t>maa://22753 (91.37), *maa://21485 (79.34), *maa://37962 (80.0)</t>
-  </si>
-  <si>
-    <t>*maa://34957 (76.92), *maa://22768 (53.33)</t>
-  </si>
-  <si>
-    <t>maa://37468 (87.5)</t>
-  </si>
-  <si>
-    <t>*maa://38786 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://28501 (98.46), maa://28051 (95.65)</t>
-  </si>
-  <si>
-    <t>maa://21917 (97.01), *maa://22741 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://20110 (87.69), maa://34946 (90.91)</t>
-  </si>
-  <si>
-    <t>maa://21282 (98.76), *maa://37649 (62.5)</t>
-  </si>
-  <si>
-    <t>*maa://28503 (58.82)</t>
-  </si>
-  <si>
-    <t>maa://23504 (92.79), maa://29988 (86.34), **maa://22892 (40.15), *maa://25141 (76.52), *maa://36663 (79.59), ***maa://22815 (24.0)</t>
-  </si>
-  <si>
-    <t>*maa://29890 (72.22)</t>
-  </si>
-  <si>
-    <t>maa://24389 (95.45)</t>
-  </si>
-  <si>
-    <t>**maa://39821 (45.45), ***maa://39723 (23.53)</t>
-  </si>
-  <si>
-    <t>*maa://39477 (75.0)</t>
-  </si>
-  <si>
-    <t>莎草</t>
-  </si>
-  <si>
-    <t>maa://21246 (91.13), maa://36684 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24390 (95.0)</t>
-  </si>
-  <si>
-    <t>*maa://32658 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://29863 (81.82), ***maa://22752 (14.29), **maa://26013 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://28711 (89.86), ***maa://22740 (6.0), **maa://27377 (46.15), ***maa://25174 (20.0)</t>
-  </si>
-  <si>
-    <t>maa://22516 (88.89), *maa://20794 (52.24), maa://29912 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://23669 (95.69), maa://36677 (100.0), maa://39872 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22764 (96.08)</t>
-  </si>
-  <si>
-    <t>*maa://30709 (58.24), **maa://36668 (48.44)</t>
-  </si>
-  <si>
-    <t>*maa://21443 (78.06), ***maa://23820 (28.85)</t>
-  </si>
-  <si>
-    <t>maa://24516 (81.71), maa://31215 (91.53), maa://26001 (92.31)</t>
-  </si>
-  <si>
-    <t>衡沙</t>
-  </si>
-  <si>
-    <t>***maa://21730 (17.46), maa://25251 (92.42), *maa://36675 (75.0), *maa://39501 (66.67)</t>
-  </si>
-  <si>
-    <t>*maa://21289 (68.75)</t>
-  </si>
-  <si>
-    <t>*maa://30062 (64.1), ***maa://26209 (13.64), maa://39394 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://33152 (59.26), ***maa://22770 (28.57)</t>
-  </si>
-  <si>
-    <t>*maa://26191 (71.88), *maa://36671 (76.47)</t>
-  </si>
-  <si>
-    <t>*maa://24479 (76.47), *maa://21990 (53.85)</t>
-  </si>
-  <si>
-    <t>maa://26206 (91.18), **maa://22865 (46.34)</t>
-  </si>
-  <si>
-    <t>*maa://25021 (57.58), *maa://22733 (60.71), maa://22761 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://28932 (75.96), *maa://20106 (63.64), *maa://22769 (62.96)</t>
-  </si>
-  <si>
-    <t>**maa://22737 (30.77)</t>
-  </si>
-  <si>
-    <t>maa://21364 (80.84), *maa://22766 (72.16), *maa://36666 (72.92)</t>
-  </si>
-  <si>
-    <t>*maa://23911 (59.52), maa://27755 (90.48)</t>
-  </si>
-  <si>
-    <t>*maa://24313 (56.03), **maa://29784 (46.15)</t>
-  </si>
-  <si>
-    <t>*maa://21663 (62.26)</t>
-  </si>
-  <si>
-    <t>maa://22524 (94.23), maa://22432 (81.82)</t>
-  </si>
-  <si>
-    <t>maa://31489 (92.31)</t>
-  </si>
-  <si>
-    <t>maa://22523 (84.92), maa://36672 (81.25), maa://29910 (97.67), **maa://21440 (34.55)</t>
-  </si>
-  <si>
-    <t>maa://20108 (96.03), maa://24621 (96.33), maa://22771 (83.33), maa://36676 (100.0), maa://37772 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://30511 (92.0), *maa://29760 (54.55)</t>
-  </si>
-  <si>
-    <t>maa://36660 (94.93), *maa://36701 (62.5)</t>
-  </si>
-  <si>
-    <t>*maa://24080 (69.05), ***maa://34960 (10.53)</t>
-  </si>
-  <si>
-    <t>*maa://32650 (66.67)</t>
-  </si>
-  <si>
-    <t>*maa://39479 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://36697 (84.95)</t>
-  </si>
-  <si>
-    <t>锡人</t>
-  </si>
-  <si>
-    <t>更新日期：2024.08.04</t>
+  </si>
+  <si>
+    <t>maa://22742 (92.65), *maa://20791 (62.32)</t>
+  </si>
+  <si>
+    <t>maa://24617 (88.12), **maa://20790 (43.08), ***maa://37170 (19.44)</t>
+  </si>
+  <si>
+    <t>maa://32509 (98.53), maa://22754 (92.96), *maa://27295 (80.0), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+  </si>
+  <si>
+    <t>*maa://37411 (75.0)</t>
+  </si>
+  <si>
+    <t>**maa://22866 (30.77), maa://26222 (96.97)</t>
+  </si>
+  <si>
+    <t>maa://27395 (96.99), maa://22755 (86.32), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+  </si>
+  <si>
+    <t>maa://22747 (95.52), maa://22501 (98.0)</t>
+  </si>
+  <si>
+    <t>*maa://22471 (60.94), maa://22521 (97.44)</t>
+  </si>
+  <si>
+    <t>maa://23892 (98.53)</t>
+  </si>
+  <si>
+    <t>maa://22729 (94.89), *maa://28648 (66.67), *maa://36674 (76.19)</t>
+  </si>
+  <si>
+    <t>maa://24386 (98.57)</t>
+  </si>
+  <si>
+    <t>maa://24387 (82.86), maa://31212 (95.45)</t>
+  </si>
+  <si>
+    <t>maa://20109 (92.5), maa://22545 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://30624 (78.12)</t>
+  </si>
+  <si>
+    <t>maa://23263 (94.12), *maa://29765 (62.5)</t>
+  </si>
+  <si>
+    <t>maa://30711 (98.04), maa://30768 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24526 (92.76)</t>
+  </si>
+  <si>
+    <t>maa://24842 (95.65)</t>
+  </si>
+  <si>
+    <t>**maa://39354 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://39366 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://27396 (85.2), maa://27484 (95.24), maa://27480 (82.35)</t>
+  </si>
+  <si>
+    <t>maa://22399 (94.21), *maa://22758 (70.21)</t>
+  </si>
+  <si>
+    <t>maa://21411 (95.96)</t>
+  </si>
+  <si>
+    <t>maa://26223 (96.63)</t>
+  </si>
+  <si>
+    <t>maa://22301 (97.73), maa://22726 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://36713 (97.54)</t>
+  </si>
+  <si>
+    <t>maa://22753 (91.37), *maa://21485 (78.69), *maa://37962 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://34957 (80.65), *maa://22768 (53.33)</t>
+  </si>
+  <si>
+    <t>maa://37468 (88.89)</t>
+  </si>
+  <si>
+    <t>maa://28501 (98.55), maa://28051 (95.65)</t>
+  </si>
+  <si>
+    <t>maa://21917 (97.14), *maa://22741 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://20110 (87.69), maa://34946 (92.0)</t>
+  </si>
+  <si>
+    <t>maa://21282 (98.79), *maa://37649 (55.56)</t>
+  </si>
+  <si>
+    <t>*maa://28503 (58.49)</t>
+  </si>
+  <si>
+    <t>maa://23504 (92.88), maa://29988 (85.38), **maa://22892 (40.58), *maa://25141 (76.52), *maa://36663 (78.43), ***maa://22815 (24.0)</t>
+  </si>
+  <si>
+    <t>*maa://39929 (78.05), ***maa://39723 (16.0)</t>
+  </si>
+  <si>
+    <t>*maa://39477 (60.0)</t>
+  </si>
+  <si>
+    <t>maa://21246 (91.17), maa://36684 (100.0), ***maa://22731 (6.67)</t>
+  </si>
+  <si>
+    <t>maa://24390 (95.35)</t>
+  </si>
+  <si>
+    <t>*maa://32658 (76.92)</t>
+  </si>
+  <si>
+    <t>maa://29863 (82.61), ***maa://22752 (14.29), **maa://26013 (40.0)</t>
+  </si>
+  <si>
+    <t>maa://22739 (90.48)</t>
+  </si>
+  <si>
+    <t>maa://25389 (91.3)</t>
+  </si>
+  <si>
+    <t>maa://28711 (87.5), ***maa://22740 (6.0), **maa://27377 (46.15), ***maa://25174 (20.0), *maa://39938 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://23669 (95.7), maa://36677 (96.88), maa://39872 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://22764 (96.15)</t>
+  </si>
+  <si>
+    <t>maa://26228 (95.65)</t>
+  </si>
+  <si>
+    <t>*maa://30709 (58.82), *maa://36668 (50.75)</t>
+  </si>
+  <si>
+    <t>*maa://21443 (78.03), ***maa://23820 (28.85)</t>
+  </si>
+  <si>
+    <t>maa://29652 (97.22)</t>
+  </si>
+  <si>
+    <t>maa://24516 (80.95), maa://31215 (89.23), maa://26001 (92.31)</t>
+  </si>
+  <si>
+    <t>***maa://21730 (17.46), maa://25251 (92.65), *maa://36675 (60.0), **maa://39501 (33.33)</t>
+  </si>
+  <si>
+    <t>*maa://30062 (64.1), ***maa://26209 (13.64), maa://39394 (85.71)</t>
+  </si>
+  <si>
+    <t>*maa://26191 (70.77), *maa://36671 (75.68)</t>
+  </si>
+  <si>
+    <t>*maa://24479 (75.36), *maa://21990 (53.85)</t>
+  </si>
+  <si>
+    <t>maa://26206 (90.14), **maa://22865 (45.24)</t>
+  </si>
+  <si>
+    <t>*maa://25021 (56.72), *maa://22733 (60.71), maa://22761 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://28932 (76.85), *maa://20106 (63.64), *maa://22769 (62.96)</t>
+  </si>
+  <si>
+    <t>**maa://22737 (30.53), maa://39883 (100.0), maa://39885 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://21364 (80.9), *maa://22766 (72.16), *maa://36666 (73.47)</t>
+  </si>
+  <si>
+    <t>*maa://23911 (59.77), maa://27755 (90.91)</t>
+  </si>
+  <si>
+    <t>*maa://24313 (55.94), **maa://29784 (46.15)</t>
+  </si>
+  <si>
+    <t>*maa://21663 (61.82)</t>
+  </si>
+  <si>
+    <t>maa://22524 (94.34), *maa://22432 (79.59)</t>
+  </si>
+  <si>
+    <t>maa://31489 (92.86)</t>
+  </si>
+  <si>
+    <t>maa://22523 (84.44), *maa://36672 (79.41), maa://29910 (95.56), **maa://21440 (34.55)</t>
+  </si>
+  <si>
+    <t>maa://20108 (96.06), maa://24621 (96.33), maa://22771 (83.33), maa://36676 (100.0), maa://37772 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24023 (98.33)</t>
+  </si>
+  <si>
+    <t>maa://36660 (94.74), *maa://36701 (64.0)</t>
+  </si>
+  <si>
+    <t>*maa://24080 (68.33), ***maa://34960 (10.53)</t>
+  </si>
+  <si>
+    <t>maa://36697 (85.42)</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2127,7 +2129,7 @@
   <dimension ref="A1:AE71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2248,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -2266,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
@@ -2278,13 +2280,13 @@
         <v>325</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="R2" s="1">
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
@@ -2299,10 +2301,10 @@
         <v>267</v>
       </c>
       <c r="Z2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>294</v>
@@ -2311,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2322,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
@@ -2331,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2340,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
@@ -2349,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>203</v>
@@ -2358,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>242</v>
@@ -2367,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>268</v>
@@ -2376,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>295</v>
@@ -2385,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>547</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2396,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
@@ -2432,7 +2434,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>243</v>
@@ -2450,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>296</v>
@@ -2459,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2470,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -2488,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2497,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>205</v>
@@ -2524,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>297</v>
@@ -2553,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2562,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>161</v>
@@ -2571,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>206</v>
@@ -2580,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>245</v>
@@ -2598,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>384</v>
+        <v>542</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>298</v>
@@ -2607,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>549</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2618,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
@@ -2636,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2645,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>207</v>
@@ -2654,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>246</v>
@@ -2663,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>272</v>
@@ -2681,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2689,10 +2691,10 @@
         <v>46</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>367</v>
+        <v>432</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2701,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
@@ -2719,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>208</v>
@@ -2737,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>273</v>
@@ -2746,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>379</v>
+        <v>543</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>300</v>
@@ -2755,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2766,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2784,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2793,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>209</v>
@@ -2802,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>248</v>
@@ -2811,16 +2813,16 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>274</v>
       </c>
       <c r="Z9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>301</v>
@@ -2829,7 +2831,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2837,10 +2839,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2849,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>133</v>
@@ -2858,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
@@ -2867,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>210</v>
@@ -2876,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>249</v>
@@ -2885,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>275</v>
@@ -2903,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2914,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -2932,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2950,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>250</v>
@@ -2959,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>276</v>
@@ -2968,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>539</v>
+        <v>421</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>303</v>
@@ -2977,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2988,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2997,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
@@ -3033,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>277</v>
@@ -3042,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>304</v>
@@ -3051,7 +3053,7 @@
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -3062,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
@@ -3071,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
@@ -3089,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>213</v>
@@ -3098,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>252</v>
@@ -3107,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>278</v>
@@ -3122,10 +3124,10 @@
         <v>305</v>
       </c>
       <c r="AD13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3136,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -3145,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
@@ -3154,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
@@ -3163,7 +3165,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>214</v>
@@ -3172,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>253</v>
@@ -3181,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>279</v>
@@ -3190,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>306</v>
@@ -3210,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3219,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3228,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
@@ -3237,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>215</v>
@@ -3246,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>254</v>
@@ -3255,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>280</v>
@@ -3273,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3284,7 +3286,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3311,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>216</v>
@@ -3320,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>255</v>
@@ -3329,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>281</v>
@@ -3338,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>385</v>
+        <v>547</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>308</v>
@@ -3347,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3358,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
@@ -3367,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3376,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3385,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>217</v>
@@ -3432,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3441,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>141</v>
@@ -3450,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3459,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>218</v>
@@ -3468,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>499</v>
+        <v>413</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>257</v>
@@ -3477,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>283</v>
@@ -3495,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3524,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>174</v>
@@ -3533,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>219</v>
@@ -3542,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>258</v>
@@ -3560,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>311</v>
@@ -3569,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3580,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3589,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
@@ -3607,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>220</v>
@@ -3663,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3672,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3681,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>221</v>
@@ -3690,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>260</v>
@@ -3699,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>286</v>
@@ -3708,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>313</v>
@@ -3717,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3737,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3746,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
@@ -3764,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>261</v>
@@ -3773,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>287</v>
@@ -3791,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3802,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
@@ -3817,10 +3819,10 @@
         <v>146</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>178</v>
@@ -3829,7 +3831,7 @@
         <v>4</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>223</v>
@@ -3838,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>383</v>
+        <v>512</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>262</v>
@@ -3847,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>288</v>
@@ -3856,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>352</v>
+        <v>550</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>315</v>
@@ -3865,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3876,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3921,7 +3923,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>289</v>
@@ -3930,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>316</v>
@@ -3939,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3950,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3959,7 +3961,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
@@ -3968,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3977,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>225</v>
@@ -3986,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>264</v>
@@ -3995,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>529</v>
+        <v>418</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>290</v>
@@ -4004,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>317</v>
@@ -4013,7 +4015,7 @@
         <v>5</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -4033,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
@@ -4048,10 +4050,10 @@
         <v>181</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>226</v>
@@ -4069,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>530</v>
+        <v>419</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>291</v>
@@ -4087,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>564</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4107,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -4116,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -4134,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>266</v>
@@ -4161,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>365</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4172,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4190,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>372</v>
+        <v>476</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
@@ -4208,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
@@ -4217,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>293</v>
@@ -4235,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4246,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4255,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
@@ -4264,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
@@ -4273,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>229</v>
@@ -4309,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4329,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>153</v>
@@ -4338,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4347,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>230</v>
@@ -4356,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
@@ -4365,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>30</v>
@@ -4403,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4412,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
@@ -4430,10 +4432,10 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>533</v>
+        <v>420</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>325</v>
@@ -4462,7 +4464,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>325</v>
@@ -4477,7 +4479,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4486,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>373</v>
+        <v>480</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4507,7 +4509,7 @@
         <v>325</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>325</v>
@@ -4527,7 +4529,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>325</v>
@@ -4542,13 +4544,16 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>156</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>188</v>
@@ -4557,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>233</v>
@@ -4569,7 +4574,7 @@
         <v>66</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>325</v>
@@ -4622,10 +4627,10 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>325</v>
@@ -4640,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>567</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4678,10 +4683,10 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>545</v>
+        <v>422</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>325</v>
@@ -4696,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>568</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -4707,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
@@ -4734,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>508</v>
+        <v>415</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>333</v>
@@ -4754,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
@@ -4772,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>237</v>
@@ -4781,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>334</v>
@@ -4815,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>463</v>
+        <v>405</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>193</v>
@@ -4824,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>238</v>
@@ -4842,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4856,10 +4861,10 @@
         <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>325</v>
@@ -4874,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>239</v>
@@ -4886,7 +4891,7 @@
         <v>325</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>570</v>
+        <v>428</v>
       </c>
       <c r="AD39" s="1" t="s">
         <v>325</v>
@@ -4917,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>240</v>
@@ -4940,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
@@ -4949,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>241</v>
@@ -4963,7 +4968,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5006,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
@@ -5038,7 +5043,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
@@ -5056,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5072,7 +5077,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
@@ -5081,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>331</v>
@@ -5090,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
@@ -5104,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
@@ -5116,7 +5121,7 @@
         <v>66</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>325</v>
@@ -5138,7 +5143,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
@@ -5150,7 +5155,7 @@
         <v>325</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>325</v>
@@ -5184,7 +5189,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5204,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5238,10 +5243,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>325</v>
@@ -5261,7 +5266,7 @@
         <v>337</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>488</v>
+        <v>412</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>325</v>
@@ -5278,7 +5283,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5300,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5322,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5333,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -5344,7 +5349,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5459,7 +5464,7 @@
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>325</v>
@@ -5470,7 +5475,7 @@
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>325</v>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D5BB3C-F08B-4D82-8874-3437A8927BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18235C7E-8DCF-483E-B340-823EA47B0BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="3120" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="574">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,12 +1138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>***maa://24394 (16.0), maa://31203 (93.33)</t>
-  </si>
-  <si>
-    <t>*maa://21624 (79.31)</t>
-  </si>
-  <si>
     <t>*maa://32656 (66.67)</t>
   </si>
   <si>
@@ -1153,18 +1147,12 @@
     <t>深巡</t>
   </si>
   <si>
-    <t>*maa://24383 (64.2)</t>
-  </si>
-  <si>
     <t>maa://21291 (88.57)</t>
   </si>
   <si>
     <t>maa://38495 (100.0)</t>
   </si>
   <si>
-    <t>*maa://32940 (75.0), maa://24388 (93.33)</t>
-  </si>
-  <si>
     <t>海霓</t>
   </si>
   <si>
@@ -1180,589 +1168,604 @@
     <t>maa://39347 (100.0)</t>
   </si>
   <si>
-    <t>maa://21442 (99.46)</t>
-  </si>
-  <si>
     <t>妮芙</t>
   </si>
   <si>
     <t>maa://39349 (100.0)</t>
   </si>
   <si>
-    <t>maa://24632 (94.31), **maa://24303 (36.36), maa://22499 (84.62), maa://22746 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21955 (92.0)</t>
-  </si>
-  <si>
-    <t>***maa://28036 (28.57)</t>
-  </si>
-  <si>
-    <t>maa://24370 (95.74)</t>
-  </si>
-  <si>
-    <t>*maa://24371 (51.61)</t>
-  </si>
-  <si>
-    <t>**maa://21678 (48.94), maa://25236 (95.59), **maa://22735 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24913 (91.94)</t>
-  </si>
-  <si>
-    <t>**maa://21283 (48.61), maa://34494 (100.0), **maa://36665 (42.86), maa://39601 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://25175 (76.92)</t>
-  </si>
-  <si>
     <t>maa://32721 (100.0), **maa://24373 (30.43)</t>
   </si>
   <si>
-    <t>maa://24375 (91.67)</t>
-  </si>
-  <si>
-    <t>*maa://24374 (52.78)</t>
-  </si>
-  <si>
     <t>maa://24466 (94.74)</t>
   </si>
   <si>
     <t>*maa://30769 (72.73)</t>
   </si>
   <si>
-    <t>maa://27746 (83.84), maa://31270 (96.51)</t>
-  </si>
-  <si>
     <t>佩佩</t>
   </si>
   <si>
-    <t>maa://22757 (86.96)</t>
-  </si>
-  <si>
     <t>**maa://24395 (45.45)</t>
   </si>
   <si>
     <t>maa://26245 (96.12), maa://21288 (96.18), maa://36682 (100.0), maa://39841 (100.0)</t>
   </si>
   <si>
-    <t>*maa://21334 (56.52)</t>
-  </si>
-  <si>
-    <t>*maa://21679 (71.43)</t>
-  </si>
-  <si>
     <t>maa://31731 (94.59)</t>
   </si>
   <si>
     <t>maa://24378 (87.88)</t>
   </si>
   <si>
-    <t>maa://28071 (85.71)</t>
-  </si>
-  <si>
     <t>maa://39384 (100.0)</t>
   </si>
   <si>
-    <t>maa://21919 (97.44), maa://21281 (91.67)</t>
-  </si>
-  <si>
     <t>maa://31836 (92.31), maa://30381 (100.0)</t>
   </si>
   <si>
     <t>maa://22750 (96.77)</t>
   </si>
   <si>
-    <t>maa://28504 (90.7)</t>
-  </si>
-  <si>
     <t>maa://39433 (100.0)</t>
   </si>
   <si>
-    <t>maa://24382 (90.48)</t>
-  </si>
-  <si>
     <t>娜仁图亚</t>
   </si>
   <si>
-    <t>maa://24385 (96.77)</t>
-  </si>
-  <si>
-    <t>maa://21993 (87.5)</t>
-  </si>
-  <si>
-    <t>maa://27613 (98.92)</t>
-  </si>
-  <si>
-    <t>maa://39364 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://38786 (66.67)</t>
-  </si>
-  <si>
     <t>*maa://29890 (72.22)</t>
   </si>
   <si>
-    <t>maa://24389 (95.45)</t>
-  </si>
-  <si>
     <t>莎草</t>
   </si>
   <si>
-    <t>maa://22516 (88.89), *maa://20794 (52.24), maa://29912 (100.0)</t>
-  </si>
-  <si>
     <t>衡沙</t>
   </si>
   <si>
-    <t>*maa://21289 (68.75)</t>
-  </si>
-  <si>
-    <t>*maa://33152 (59.26), ***maa://22770 (28.57)</t>
-  </si>
-  <si>
-    <t>maa://30511 (92.0), *maa://29760 (54.55)</t>
-  </si>
-  <si>
     <t>*maa://32650 (66.67)</t>
   </si>
   <si>
-    <t>*maa://39479 (75.0)</t>
-  </si>
-  <si>
     <t>锡人</t>
   </si>
   <si>
-    <t>maa://24702 (94.05), maa://25390 (97.35), maa://36681 (94.0)</t>
-  </si>
-  <si>
-    <t>maa://36987 (97.44), maa://39849 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21245 (81.71), maa://22744 (81.82)</t>
-  </si>
-  <si>
-    <t>*maa://21476 (64.86), *maa://37551 (66.67), maa://39431 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22765 (92.21), *maa://21915 (63.64)</t>
-  </si>
-  <si>
-    <t>***maa://25695 (19.53), **maa://32237 (39.39), ***maa://34206 (10.0), ***maa://39243 (25.0), **maa://39951 (50.0)</t>
-  </si>
-  <si>
     <t>maa://30766 (88.46), **maa://36678 (50.0)</t>
   </si>
   <si>
-    <t>maa://24999 (91.35), maa://36673 (91.07), maa://25001 (85.29)</t>
-  </si>
-  <si>
-    <t>maa://30764 (84.21)</t>
-  </si>
-  <si>
-    <t>*maa://22743 (75.5), maa://22734 (84.68), *maa://30808 (63.27), ***maa://36048 (8.0)</t>
-  </si>
-  <si>
-    <t>maa://21441 (96.14), maa://36679 (88.89), maa://37650 (92.86)</t>
-  </si>
-  <si>
-    <t>maa://24570 (96.73)</t>
-  </si>
-  <si>
-    <t>maa://21432 (90.48), maa://25198 (93.41), **maa://20795 (48.33), maa://36680 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24368 (80.84)</t>
-  </si>
-  <si>
-    <t>maa://29753 (95.37)</t>
-  </si>
-  <si>
-    <t>maa://24465 (90.16), maa://25725 (83.56)</t>
-  </si>
-  <si>
-    <t>maa://31694 (97.44)</t>
-  </si>
-  <si>
-    <t>maa://21247 (98.04), *maa://22748 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://21867 (90.51)</t>
-  </si>
-  <si>
-    <t>*maa://21248 (76.32), **maa://22728 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24304 (87.65), maa://21478 (93.33)</t>
-  </si>
-  <si>
-    <t>maa://22430 (88.44), *maa://39599 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://24421 (91.67)</t>
-  </si>
-  <si>
-    <t>maa://22864 (88.14)</t>
-  </si>
-  <si>
-    <t>maa://24372 (97.47)</t>
-  </si>
-  <si>
-    <t>*maa://29063 (79.82), *maa://25311 (77.65), ***maa://22725 (4.84)</t>
-  </si>
-  <si>
-    <t>maa://21895 (96.97), maa://36667 (96.97), **maa://20793 (38.78), maa://22760 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://39351 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://25199 (86.41), maa://30434 (90.2), maa://36670 (90.24), ***maa://25036 (16.0)</t>
-  </si>
-  <si>
-    <t>maa://22525 (92.86), maa://21284 (84.21)</t>
-  </si>
-  <si>
-    <t>maa://29768 (97.79), maa://27728 (95.96)</t>
-  </si>
-  <si>
-    <t>maa://21229 (85.96), maa://30807 (94.83), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
-  </si>
-  <si>
-    <t>maa://35931 (93.0)</t>
-  </si>
-  <si>
-    <t>maa://27410 (96.33), maa://29661 (98.23), maa://28038 (84.62)</t>
-  </si>
-  <si>
-    <t>maa://32534 (92.53), **maa://32434 (36.36)</t>
-  </si>
-  <si>
-    <t>maa://32532 (92.46)</t>
-  </si>
-  <si>
-    <t>maa://25176 (97.56)</t>
-  </si>
-  <si>
     <t>*maa://37964 (60.0)</t>
   </si>
   <si>
-    <t>*maa://24633 (54.67), *maa://30515 (69.39), ***maa://20792 (11.93), *maa://34787 (74.14), maa://39402 (82.35), ***maa://29083 (29.41)</t>
-  </si>
-  <si>
-    <t>*maa://22880 (73.13), maa://20276 (82.03), *maa://22749 (71.43)</t>
-  </si>
-  <si>
-    <t>maa://24839 (99.16)</t>
-  </si>
-  <si>
-    <t>maa://28624 (91.38), maa://24957 (97.22)</t>
-  </si>
-  <si>
-    <t>maa://22762 (91.14)</t>
-  </si>
-  <si>
-    <t>maa://21287 (87.65)</t>
-  </si>
-  <si>
-    <t>maa://22466 (87.9), *maa://22732 (53.25)</t>
-  </si>
-  <si>
-    <t>maa://27127 (91.03), *maa://22751 (77.97)</t>
-  </si>
-  <si>
-    <t>maa://39756 (93.06), maa://39875 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://30770 (74.29)</t>
-  </si>
-  <si>
-    <t>maa://28432 (93.36), *maa://28440 (72.15), maa://31400 (100.0), *maa://28650 (66.67)</t>
-  </si>
-  <si>
     <t>maa://30442 (93.88)</t>
   </si>
   <si>
-    <t>maa://35926 (93.36), *maa://36258 (78.79)</t>
-  </si>
-  <si>
     <t>maa://28065 (97.14)</t>
   </si>
   <si>
     <t>maa://39808 (100.0)</t>
   </si>
   <si>
-    <t>maa://21249 (95.77), maa://26254 (95.24)</t>
-  </si>
-  <si>
-    <t>*maa://21916 (59.65), maa://32931 (87.5), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22736 (81.33)</t>
-  </si>
-  <si>
-    <t>maa://28977 (94.52), *maa://23264 (62.26), maa://36669 (94.74)</t>
-  </si>
-  <si>
-    <t>maa://22676 (91.4), *maa://22583 (75.0), *maa://22500 (54.76)</t>
-  </si>
-  <si>
-    <t>maa://23250 (98.29), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24762 (89.55), *maa://22727 (70.0)</t>
-  </si>
-  <si>
-    <t>maa://23890 (81.05), *maa://24940 (69.23)</t>
-  </si>
-  <si>
-    <t>maa://30587 (91.77), *maa://29748 (75.41), ***maa://29785 (15.38), maa://37566 (81.25)</t>
-  </si>
-  <si>
     <t>*maa://30968 (58.82), maa://39870 (100.0)</t>
   </si>
   <si>
-    <t>*maa://23168 (58.33), **maa://30050 (43.75)</t>
-  </si>
-  <si>
-    <t>*maa://21956 (78.05), maa://22730 (81.48)</t>
-  </si>
-  <si>
-    <t>maa://21280 (89.39), *maa://21239 (70.0)</t>
-  </si>
-  <si>
     <t>maa://24709 (91.84)</t>
   </si>
   <si>
-    <t>maa://23278 (96.15), maa://21386 (95.58), maa://36664 (93.33)</t>
-  </si>
-  <si>
-    <t>**maa://35616 (38.46)</t>
-  </si>
-  <si>
-    <t>*maa://36237 (66.67)</t>
-  </si>
-  <si>
     <t>*maa://39643 (80.0)</t>
   </si>
   <si>
     <t>杜林</t>
   </si>
   <si>
-    <t>maa://22742 (92.65), *maa://20791 (62.32)</t>
-  </si>
-  <si>
-    <t>maa://24617 (88.12), **maa://20790 (43.08), ***maa://37170 (19.44)</t>
-  </si>
-  <si>
-    <t>maa://32509 (98.53), maa://22754 (92.96), *maa://27295 (80.0), *maa://21746 (55.81), *maa://31008 (78.05)</t>
-  </si>
-  <si>
-    <t>*maa://37411 (75.0)</t>
-  </si>
-  <si>
-    <t>**maa://22866 (30.77), maa://26222 (96.97)</t>
-  </si>
-  <si>
-    <t>maa://27395 (96.99), maa://22755 (86.32), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
-  </si>
-  <si>
-    <t>maa://22747 (95.52), maa://22501 (98.0)</t>
-  </si>
-  <si>
-    <t>*maa://22471 (60.94), maa://22521 (97.44)</t>
-  </si>
-  <si>
-    <t>maa://23892 (98.53)</t>
-  </si>
-  <si>
-    <t>maa://22729 (94.89), *maa://28648 (66.67), *maa://36674 (76.19)</t>
-  </si>
-  <si>
-    <t>maa://24386 (98.57)</t>
-  </si>
-  <si>
-    <t>maa://24387 (82.86), maa://31212 (95.45)</t>
-  </si>
-  <si>
-    <t>maa://20109 (92.5), maa://22545 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://30624 (78.12)</t>
-  </si>
-  <si>
-    <t>maa://23263 (94.12), *maa://29765 (62.5)</t>
-  </si>
-  <si>
-    <t>maa://30711 (98.04), maa://30768 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24526 (92.76)</t>
-  </si>
-  <si>
-    <t>maa://24842 (95.65)</t>
-  </si>
-  <si>
-    <t>**maa://39354 (33.33)</t>
-  </si>
-  <si>
-    <t>maa://39366 (93.33)</t>
-  </si>
-  <si>
-    <t>maa://27396 (85.2), maa://27484 (95.24), maa://27480 (82.35)</t>
-  </si>
-  <si>
-    <t>maa://22399 (94.21), *maa://22758 (70.21)</t>
-  </si>
-  <si>
-    <t>maa://21411 (95.96)</t>
-  </si>
-  <si>
-    <t>maa://26223 (96.63)</t>
-  </si>
-  <si>
-    <t>maa://22301 (97.73), maa://22726 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://36713 (97.54)</t>
-  </si>
-  <si>
-    <t>maa://22753 (91.37), *maa://21485 (78.69), *maa://37962 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://34957 (80.65), *maa://22768 (53.33)</t>
-  </si>
-  <si>
-    <t>maa://37468 (88.89)</t>
-  </si>
-  <si>
-    <t>maa://28501 (98.55), maa://28051 (95.65)</t>
-  </si>
-  <si>
-    <t>maa://21917 (97.14), *maa://22741 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://20110 (87.69), maa://34946 (92.0)</t>
-  </si>
-  <si>
-    <t>maa://21282 (98.79), *maa://37649 (55.56)</t>
-  </si>
-  <si>
-    <t>*maa://28503 (58.49)</t>
-  </si>
-  <si>
-    <t>maa://23504 (92.88), maa://29988 (85.38), **maa://22892 (40.58), *maa://25141 (76.52), *maa://36663 (78.43), ***maa://22815 (24.0)</t>
-  </si>
-  <si>
-    <t>*maa://39929 (78.05), ***maa://39723 (16.0)</t>
-  </si>
-  <si>
     <t>*maa://39477 (60.0)</t>
   </si>
   <si>
-    <t>maa://21246 (91.17), maa://36684 (100.0), ***maa://22731 (6.67)</t>
-  </si>
-  <si>
-    <t>maa://24390 (95.35)</t>
-  </si>
-  <si>
     <t>*maa://32658 (76.92)</t>
   </si>
   <si>
-    <t>maa://29863 (82.61), ***maa://22752 (14.29), **maa://26013 (40.0)</t>
-  </si>
-  <si>
-    <t>maa://22739 (90.48)</t>
-  </si>
-  <si>
-    <t>maa://25389 (91.3)</t>
-  </si>
-  <si>
-    <t>maa://28711 (87.5), ***maa://22740 (6.0), **maa://27377 (46.15), ***maa://25174 (20.0), *maa://39938 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://23669 (95.7), maa://36677 (96.88), maa://39872 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://22764 (96.15)</t>
-  </si>
-  <si>
-    <t>maa://26228 (95.65)</t>
-  </si>
-  <si>
-    <t>*maa://30709 (58.82), *maa://36668 (50.75)</t>
-  </si>
-  <si>
-    <t>*maa://21443 (78.03), ***maa://23820 (28.85)</t>
-  </si>
-  <si>
     <t>maa://29652 (97.22)</t>
   </si>
   <si>
-    <t>maa://24516 (80.95), maa://31215 (89.23), maa://26001 (92.31)</t>
-  </si>
-  <si>
-    <t>***maa://21730 (17.46), maa://25251 (92.65), *maa://36675 (60.0), **maa://39501 (33.33)</t>
-  </si>
-  <si>
-    <t>*maa://30062 (64.1), ***maa://26209 (13.64), maa://39394 (85.71)</t>
-  </si>
-  <si>
-    <t>*maa://26191 (70.77), *maa://36671 (75.68)</t>
-  </si>
-  <si>
-    <t>*maa://24479 (75.36), *maa://21990 (53.85)</t>
-  </si>
-  <si>
-    <t>maa://26206 (90.14), **maa://22865 (45.24)</t>
-  </si>
-  <si>
-    <t>*maa://25021 (56.72), *maa://22733 (60.71), maa://22761 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://28932 (76.85), *maa://20106 (63.64), *maa://22769 (62.96)</t>
-  </si>
-  <si>
-    <t>**maa://22737 (30.53), maa://39883 (100.0), maa://39885 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://21364 (80.9), *maa://22766 (72.16), *maa://36666 (73.47)</t>
-  </si>
-  <si>
-    <t>*maa://23911 (59.77), maa://27755 (90.91)</t>
-  </si>
-  <si>
-    <t>*maa://24313 (55.94), **maa://29784 (46.15)</t>
-  </si>
-  <si>
-    <t>*maa://21663 (61.82)</t>
-  </si>
-  <si>
-    <t>maa://22524 (94.34), *maa://22432 (79.59)</t>
-  </si>
-  <si>
-    <t>maa://31489 (92.86)</t>
-  </si>
-  <si>
-    <t>maa://22523 (84.44), *maa://36672 (79.41), maa://29910 (95.56), **maa://21440 (34.55)</t>
-  </si>
-  <si>
-    <t>maa://20108 (96.06), maa://24621 (96.33), maa://22771 (83.33), maa://36676 (100.0), maa://37772 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24023 (98.33)</t>
-  </si>
-  <si>
-    <t>maa://36660 (94.74), *maa://36701 (64.0)</t>
-  </si>
-  <si>
-    <t>*maa://24080 (68.33), ***maa://34960 (10.53)</t>
-  </si>
-  <si>
-    <t>maa://36697 (85.42)</t>
-  </si>
-  <si>
-    <t>更新日期：2024.08.10</t>
+    <t>maa://24702 (94.07), maa://25390 (97.39), maa://36681 (94.83)</t>
+  </si>
+  <si>
+    <t>maa://36987 (95.45), maa://39849 (100.0), maa://40192 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24632 (93.7), **maa://24303 (36.36), maa://22499 (84.62), maa://22746 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21245 (81.87), maa://22744 (81.82)</t>
+  </si>
+  <si>
+    <t>maa://21955 (92.31)</t>
+  </si>
+  <si>
+    <t>*maa://21476 (67.5), *maa://37551 (57.14), **maa://39431 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://22765 (92.59), *maa://21915 (65.22)</t>
+  </si>
+  <si>
+    <t>***maa://25695 (19.53), **maa://32237 (39.39), ***maa://34206 (10.0), ***maa://39243 (25.0), ***maa://39951 (18.18)</t>
+  </si>
+  <si>
+    <t>maa://24999 (91.19), maa://36673 (91.38), maa://25001 (85.29)</t>
+  </si>
+  <si>
+    <t>maa://30764 (85.0)</t>
+  </si>
+  <si>
+    <t>*maa://22743 (76.25), maa://22734 (83.93), *maa://30808 (62.96), ***maa://36048 (7.69)</t>
+  </si>
+  <si>
+    <t>maa://21441 (96.15), maa://36679 (91.67), maa://37650 (94.44)</t>
+  </si>
+  <si>
+    <t>*maa://21624 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://24570 (96.86)</t>
+  </si>
+  <si>
+    <t>maa://21432 (90.62), maa://25198 (93.48), **maa://20795 (48.33), maa://36680 (100.0)</t>
+  </si>
+  <si>
+    <t>***maa://28036 (29.69)</t>
+  </si>
+  <si>
+    <t>maa://24368 (80.38)</t>
+  </si>
+  <si>
+    <t>maa://29753 (95.48)</t>
+  </si>
+  <si>
+    <t>maa://24465 (90.22), maa://25725 (81.82)</t>
+  </si>
+  <si>
+    <t>maa://31694 (97.56)</t>
+  </si>
+  <si>
+    <t>maa://21247 (98.11), *maa://22748 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://24370 (95.92)</t>
+  </si>
+  <si>
+    <t>*maa://24371 (52.31)</t>
+  </si>
+  <si>
+    <t>maa://21867 (90.07)</t>
+  </si>
+  <si>
+    <t>*maa://21248 (75.9), **maa://22728 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24304 (87.93), maa://21478 (93.75)</t>
+  </si>
+  <si>
+    <t>maa://22430 (88.57), *maa://39599 (70.0)</t>
+  </si>
+  <si>
+    <t>maa://24421 (90.95)</t>
+  </si>
+  <si>
+    <t>maa://22864 (87.9)</t>
+  </si>
+  <si>
+    <t>maa://24372 (97.53)</t>
+  </si>
+  <si>
+    <t>maa://25236 (95.65), **maa://21678 (48.94), **maa://22735 (50.0)</t>
+  </si>
+  <si>
+    <t>*maa://29063 (79.34), *maa://25311 (77.27), ***maa://22725 (4.84)</t>
+  </si>
+  <si>
+    <t>maa://24913 (92.06)</t>
+  </si>
+  <si>
+    <t>**maa://21283 (49.32), maa://34494 (100.0), **maa://36665 (42.86), maa://39601 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://25175 (77.5)</t>
+  </si>
+  <si>
+    <t>maa://21895 (96.99), maa://36667 (97.5), **maa://20793 (38.78), maa://22760 (100.0)</t>
+  </si>
+  <si>
+    <t>**maa://39351 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24375 (91.89)</t>
+  </si>
+  <si>
+    <t>*maa://24374 (55.26)</t>
+  </si>
+  <si>
+    <t>maa://25199 (86.79), maa://36670 (89.13), maa://30434 (88.89), ***maa://25036 (16.0)</t>
+  </si>
+  <si>
+    <t>maa://22525 (92.31), maa://21284 (85.0)</t>
+  </si>
+  <si>
+    <t>maa://29768 (97.44), maa://27728 (96.0)</t>
+  </si>
+  <si>
+    <t>maa://21229 (85.8), maa://30807 (94.92), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
+  </si>
+  <si>
+    <t>maa://35931 (92.92)</t>
+  </si>
+  <si>
+    <t>maa://27410 (96.08), maa://29661 (97.48), maa://28038 (84.62)</t>
+  </si>
+  <si>
+    <t>maa://32534 (92.86), **maa://32434 (36.36)</t>
+  </si>
+  <si>
+    <t>maa://32532 (92.79)</t>
+  </si>
+  <si>
+    <t>maa://25176 (97.67)</t>
+  </si>
+  <si>
+    <t>maa://27746 (83.84), maa://31270 (96.84)</t>
+  </si>
+  <si>
+    <t>*maa://40438 (75.0)</t>
+  </si>
+  <si>
+    <t>*maa://24633 (54.97), *maa://30515 (69.7), ***maa://20792 (11.93), *maa://34787 (72.13), maa://39402 (86.36), ***maa://29083 (29.41)</t>
+  </si>
+  <si>
+    <t>*maa://22880 (71.72), maa://20276 (81.95), *maa://22749 (71.43)</t>
+  </si>
+  <si>
+    <t>maa://22757 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://24839 (99.18)</t>
+  </si>
+  <si>
+    <t>maa://28624 (90.48), maa://24957 (97.3)</t>
+  </si>
+  <si>
+    <t>maa://22762 (91.36), **maa://39552 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://21287 (88.24)</t>
+  </si>
+  <si>
+    <t>*maa://21334 (54.17)</t>
+  </si>
+  <si>
+    <t>*maa://21679 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://22466 (88.0), *maa://22732 (53.85)</t>
+  </si>
+  <si>
+    <t>maa://27127 (90.12), *maa://22751 (77.97)</t>
+  </si>
+  <si>
+    <t>maa://39756 (93.27), maa://39875 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://28071 (86.67)</t>
+  </si>
+  <si>
+    <t>*maa://30770 (76.92)</t>
+  </si>
+  <si>
+    <t>maa://28432 (93.21), *maa://28440 (72.5), maa://31400 (100.0), *maa://28650 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://35926 (93.33), *maa://36258 (78.57)</t>
+  </si>
+  <si>
+    <t>maa://21249 (95.34), maa://26254 (95.24)</t>
+  </si>
+  <si>
+    <t>maa://21919 (97.5), maa://21281 (91.67)</t>
+  </si>
+  <si>
+    <t>*maa://21916 (60.34), maa://32931 (88.57), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22736 (80.77)</t>
+  </si>
+  <si>
+    <t>maa://28977 (94.67), *maa://23264 (62.96), maa://36669 (95.24)</t>
+  </si>
+  <si>
+    <t>maa://22676 (91.58), *maa://22583 (75.44), *maa://22500 (55.81)</t>
+  </si>
+  <si>
+    <t>maa://23250 (98.38), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24762 (89.86), *maa://22727 (70.0)</t>
+  </si>
+  <si>
+    <t>maa://28504 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://23890 (81.25), *maa://24940 (69.23)</t>
+  </si>
+  <si>
+    <t>maa://30587 (91.46), *maa://29748 (75.41), ***maa://29785 (15.15), maa://37566 (81.25)</t>
+  </si>
+  <si>
+    <t>maa://24382 (90.91)</t>
+  </si>
+  <si>
+    <t>*maa://23168 (58.0), **maa://30050 (47.06)</t>
+  </si>
+  <si>
+    <t>maa://21442 (99.47)</t>
+  </si>
+  <si>
+    <t>*maa://21956 (78.4), maa://22730 (81.48)</t>
+  </si>
+  <si>
+    <t>maa://21280 (89.56), *maa://21239 (72.73)</t>
+  </si>
+  <si>
+    <t>*maa://24383 (65.91)</t>
+  </si>
+  <si>
+    <t>maa://23278 (96.17), maa://21386 (95.63), maa://36664 (94.29)</t>
+  </si>
+  <si>
+    <t>**maa://35616 (36.84)</t>
+  </si>
+  <si>
+    <t>*maa://36237 (60.0)</t>
+  </si>
+  <si>
+    <t>maa://22742 (92.2), *maa://20791 (62.32)</t>
+  </si>
+  <si>
+    <t>maa://24617 (88.24), **maa://20790 (43.94), ***maa://37170 (20.93)</t>
+  </si>
+  <si>
+    <t>maa://32509 (98.61), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+  </si>
+  <si>
+    <t>*maa://37411 (60.0)</t>
+  </si>
+  <si>
+    <t>**maa://22866 (30.77), maa://26222 (97.22)</t>
+  </si>
+  <si>
+    <t>maa://27395 (97.14), maa://22755 (87.0), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+  </si>
+  <si>
+    <t>maa://22747 (95.62), maa://22501 (98.0)</t>
+  </si>
+  <si>
+    <t>*maa://22471 (59.7), maa://22521 (96.43)</t>
+  </si>
+  <si>
+    <t>maa://23892 (98.57)</t>
+  </si>
+  <si>
+    <t>maa://22729 (94.96), *maa://28648 (69.09), *maa://36674 (73.91)</t>
+  </si>
+  <si>
+    <t>maa://24385 (96.88)</t>
+  </si>
+  <si>
+    <t>maa://24386 (98.67)</t>
+  </si>
+  <si>
+    <t>maa://21993 (88.24)</t>
+  </si>
+  <si>
+    <t>maa://24387 (82.86), maa://31212 (95.65)</t>
+  </si>
+  <si>
+    <t>maa://20109 (92.64), maa://22545 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://30624 (78.79)</t>
+  </si>
+  <si>
+    <t>maa://23263 (94.19), *maa://29765 (61.54)</t>
+  </si>
+  <si>
+    <t>*maa://32940 (75.0), maa://24388 (93.75)</t>
+  </si>
+  <si>
+    <t>maa://30711 (98.08), maa://30768 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24526 (92.92)</t>
+  </si>
+  <si>
+    <t>maa://24842 (93.62)</t>
+  </si>
+  <si>
+    <t>maa://27613 (98.94)</t>
+  </si>
+  <si>
+    <t>***maa://39354 (25.0)</t>
+  </si>
+  <si>
+    <t>maa://39366 (94.12)</t>
+  </si>
+  <si>
+    <t>*maa://39364 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://27396 (84.75), maa://27484 (95.4), maa://27480 (82.35)</t>
+  </si>
+  <si>
+    <t>maa://22399 (94.35), *maa://22758 (70.21)</t>
+  </si>
+  <si>
+    <t>maa://21411 (96.14)</t>
+  </si>
+  <si>
+    <t>maa://26223 (96.81)</t>
+  </si>
+  <si>
+    <t>maa://22301 (97.27), maa://22726 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://36713 (97.69)</t>
+  </si>
+  <si>
+    <t>maa://22753 (91.61), *maa://21485 (77.6), *maa://37962 (75.0)</t>
+  </si>
+  <si>
+    <t>*maa://34957 (78.12), *maa://22768 (53.33)</t>
+  </si>
+  <si>
+    <t>maa://37468 (90.0)</t>
+  </si>
+  <si>
+    <t>*maa://38786 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://28501 (98.63), maa://28051 (95.83)</t>
+  </si>
+  <si>
+    <t>maa://21917 (97.37), *maa://22741 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://20110 (87.69), maa://34946 (92.59)</t>
+  </si>
+  <si>
+    <t>maa://21282 (98.8), *maa://37649 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://28503 (59.26)</t>
+  </si>
+  <si>
+    <t>maa://23504 (92.96), maa://29988 (85.64), **maa://22892 (40.29), *maa://25141 (76.72), *maa://36663 (78.85), ***maa://22815 (24.0)</t>
+  </si>
+  <si>
+    <t>maa://24389 (95.65)</t>
+  </si>
+  <si>
+    <t>maa://39929 (83.33), ***maa://39723 (18.52)</t>
+  </si>
+  <si>
+    <t>maa://21246 (91.2), maa://36684 (100.0), ***maa://22731 (6.67)</t>
+  </si>
+  <si>
+    <t>maa://24390 (95.56)</t>
+  </si>
+  <si>
+    <t>*maa://29863 (79.17), ***maa://22752 (14.29), **maa://26013 (40.0)</t>
+  </si>
+  <si>
+    <t>maa://22739 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://25389 (88.0)</t>
+  </si>
+  <si>
+    <t>maa://28711 (88.16), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (50.0), maa://40166 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22516 (89.16), maa://29912 (100.0), *maa://20794 (52.24)</t>
+  </si>
+  <si>
+    <t>maa://23669 (95.77), maa://36677 (94.29), maa://39872 (87.5)</t>
+  </si>
+  <si>
+    <t>maa://22764 (96.23)</t>
+  </si>
+  <si>
+    <t>maa://26228 (95.89)</t>
+  </si>
+  <si>
+    <t>*maa://30709 (59.5), *maa://36668 (52.17)</t>
+  </si>
+  <si>
+    <t>*maa://21443 (78.3), ***maa://23820 (28.85)</t>
+  </si>
+  <si>
+    <t>maa://24516 (80.95), maa://31215 (90.41), maa://26001 (92.31)</t>
+  </si>
+  <si>
+    <t>***maa://21730 (17.46), maa://25251 (91.67), *maa://36675 (60.0), **maa://39501 (33.33)</t>
+  </si>
+  <si>
+    <t>*maa://21289 (70.59)</t>
+  </si>
+  <si>
+    <t>*maa://30062 (65.0), ***maa://26209 (13.64), *maa://39394 (75.0)</t>
+  </si>
+  <si>
+    <t>*maa://33152 (60.71), ***maa://22770 (28.57)</t>
+  </si>
+  <si>
+    <t>*maa://26191 (71.43), *maa://36671 (72.5)</t>
+  </si>
+  <si>
+    <t>*maa://24479 (76.06), *maa://21990 (53.85)</t>
+  </si>
+  <si>
+    <t>maa://26206 (90.79), **maa://22865 (43.18)</t>
+  </si>
+  <si>
+    <t>*maa://25021 (57.35), *maa://22733 (60.71), maa://22761 (100.0)</t>
+  </si>
+  <si>
+    <t>***maa://24394 (16.0), maa://31203 (93.75)</t>
+  </si>
+  <si>
+    <t>*maa://28932 (77.48), *maa://20106 (63.64), *maa://22769 (62.96)</t>
+  </si>
+  <si>
+    <t>**maa://22737 (30.83), maa://39883 (93.75), *maa://39885 (78.57)</t>
+  </si>
+  <si>
+    <t>maa://21364 (80.76), *maa://22766 (72.45), *maa://36666 (74.55)</t>
+  </si>
+  <si>
+    <t>*maa://23911 (61.11), maa://27755 (91.3)</t>
+  </si>
+  <si>
+    <t>*maa://24313 (56.55), **maa://29784 (46.15)</t>
+  </si>
+  <si>
+    <t>*maa://21663 (62.5)</t>
+  </si>
+  <si>
+    <t>maa://22524 (94.51), *maa://22432 (78.43)</t>
+  </si>
+  <si>
+    <t>maa://31489 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://22523 (84.62), *maa://36672 (78.38), maa://29910 (95.56), **maa://21440 (34.55)</t>
+  </si>
+  <si>
+    <t>maa://20108 (96.06), maa://24621 (96.4), maa://36676 (100.0), maa://22771 (83.33), maa://37772 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30511 (85.71), *maa://29760 (54.55)</t>
+  </si>
+  <si>
+    <t>maa://24023 (98.39)</t>
+  </si>
+  <si>
+    <t>maa://36660 (94.56), *maa://36701 (64.0)</t>
+  </si>
+  <si>
+    <t>*maa://24080 (68.36), ***maa://34960 (9.52)</t>
+  </si>
+  <si>
+    <t>maa://39479 (85.71)</t>
+  </si>
+  <si>
+    <t>maa://36697 (86.49)</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,7 +2132,7 @@
   <dimension ref="A1:AE71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2250,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -2268,7 +2271,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
@@ -2280,13 +2283,13 @@
         <v>325</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>500</v>
+        <v>402</v>
       </c>
       <c r="R2" s="1">
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
@@ -2304,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>294</v>
@@ -2313,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2321,10 +2324,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
@@ -2333,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2342,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
@@ -2351,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>203</v>
@@ -2360,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>242</v>
@@ -2369,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>268</v>
@@ -2378,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>295</v>
@@ -2387,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>423</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2398,7 +2401,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
@@ -2434,7 +2437,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>243</v>
@@ -2452,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>540</v>
+        <v>404</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>296</v>
@@ -2461,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2472,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -2490,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2499,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>205</v>
@@ -2526,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>297</v>
@@ -2555,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2564,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>161</v>
@@ -2573,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>206</v>
@@ -2582,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>245</v>
@@ -2600,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>298</v>
@@ -2609,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>424</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2620,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
@@ -2638,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2647,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>207</v>
@@ -2656,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>246</v>
@@ -2665,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>272</v>
@@ -2683,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2694,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2703,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
@@ -2721,7 +2724,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>208</v>
@@ -2739,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>273</v>
@@ -2748,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>300</v>
@@ -2757,7 +2760,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2768,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2783,10 +2786,10 @@
         <v>132</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2795,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>209</v>
@@ -2804,7 +2807,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>248</v>
@@ -2813,16 +2816,16 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>274</v>
       </c>
       <c r="Z9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>301</v>
@@ -2831,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2842,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2860,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
@@ -2869,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>210</v>
@@ -2878,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>249</v>
@@ -2887,7 +2890,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>275</v>
@@ -2905,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2934,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2952,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>250</v>
@@ -2961,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>276</v>
@@ -2970,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>421</v>
+        <v>541</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>303</v>
@@ -2979,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>364</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2990,7 +2993,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2999,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
@@ -3035,7 +3038,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>277</v>
@@ -3044,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>304</v>
@@ -3053,7 +3056,7 @@
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -3064,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
@@ -3073,7 +3076,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
@@ -3091,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>213</v>
@@ -3109,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>278</v>
@@ -3127,7 +3130,7 @@
         <v>3</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3138,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -3147,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
@@ -3156,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
@@ -3165,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>214</v>
@@ -3174,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>253</v>
@@ -3183,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>279</v>
@@ -3192,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>306</v>
@@ -3212,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3221,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3230,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
@@ -3239,7 +3242,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>215</v>
@@ -3248,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>254</v>
@@ -3257,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>417</v>
+        <v>526</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>280</v>
@@ -3275,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3286,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3313,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>216</v>
@@ -3322,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>255</v>
@@ -3331,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>281</v>
@@ -3340,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>308</v>
@@ -3349,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3360,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
@@ -3369,7 +3372,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3378,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3387,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>217</v>
@@ -3434,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3443,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>141</v>
@@ -3452,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3470,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>413</v>
+        <v>502</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>257</v>
@@ -3479,7 +3482,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>283</v>
@@ -3497,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3526,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>174</v>
@@ -3535,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>219</v>
@@ -3544,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>258</v>
@@ -3562,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>311</v>
@@ -3571,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3582,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3591,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
@@ -3665,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3674,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3683,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>221</v>
@@ -3692,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>414</v>
+        <v>504</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>260</v>
@@ -3701,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>286</v>
@@ -3710,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>313</v>
@@ -3719,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3739,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3748,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
@@ -3766,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>261</v>
@@ -3775,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>287</v>
@@ -3804,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
@@ -3822,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>178</v>
@@ -3831,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>223</v>
@@ -3840,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>262</v>
@@ -3849,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>288</v>
@@ -3858,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>550</v>
+        <v>405</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>315</v>
@@ -3867,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3878,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3923,7 +3926,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>289</v>
@@ -3932,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>316</v>
@@ -3941,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3952,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3961,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
@@ -3970,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3979,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>225</v>
@@ -3988,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>264</v>
@@ -3997,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>290</v>
@@ -4006,7 +4009,7 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>317</v>
@@ -4015,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -4035,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
@@ -4053,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>491</v>
+        <v>399</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>226</v>
@@ -4071,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>291</v>
@@ -4089,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>425</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4109,7 +4112,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -4118,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -4136,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>266</v>
@@ -4174,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4192,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
@@ -4210,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
@@ -4219,7 +4222,7 @@
         <v>2</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>293</v>
@@ -4248,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4257,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
@@ -4266,7 +4269,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
@@ -4275,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>229</v>
@@ -4331,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>153</v>
@@ -4340,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4349,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>378</v>
+        <v>485</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>230</v>
@@ -4358,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>372</v>
+        <v>509</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
@@ -4367,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>537</v>
+        <v>403</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>30</v>
@@ -4405,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4414,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
@@ -4432,10 +4435,10 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>325</v>
@@ -4479,7 +4482,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4488,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4529,7 +4532,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>325</v>
@@ -4544,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>156</v>
@@ -4553,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>481</v>
+        <v>398</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>188</v>
@@ -4562,7 +4565,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>233</v>
@@ -4627,10 +4630,10 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>325</v>
@@ -4645,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4683,10 +4686,10 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>325</v>
@@ -4701,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>427</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -4712,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
@@ -4739,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>415</v>
+        <v>513</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>333</v>
@@ -4759,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
@@ -4777,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>237</v>
@@ -4786,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>334</v>
@@ -4820,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>193</v>
@@ -4829,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>369</v>
+        <v>488</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>238</v>
@@ -4847,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4861,10 +4864,10 @@
         <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>325</v>
@@ -4879,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>239</v>
@@ -4891,7 +4894,7 @@
         <v>325</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="AD39" s="1" t="s">
         <v>325</v>
@@ -4922,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>240</v>
@@ -4945,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
@@ -4954,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>241</v>
@@ -4968,7 +4971,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5011,7 +5014,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
@@ -5043,7 +5046,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
@@ -5061,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5077,7 +5080,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
@@ -5086,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>331</v>
@@ -5095,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>416</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
@@ -5109,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
@@ -5143,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
@@ -5155,7 +5158,7 @@
         <v>325</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>325</v>
@@ -5209,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>499</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5243,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>354</v>
@@ -5266,7 +5269,7 @@
         <v>337</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>325</v>
@@ -5283,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5305,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5327,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5338,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>466</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -5349,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5357,10 +5360,10 @@
         <v>15</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>66</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -5464,7 +5467,7 @@
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>325</v>
@@ -5475,7 +5478,7 @@
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>325</v>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18235C7E-8DCF-483E-B340-823EA47B0BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3886022C-3211-4C25-BFF1-7425B48C4F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="4335" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="583">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>术士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,9 +253,6 @@
     <t>霜叶</t>
   </si>
   <si>
-    <t>艾丝黛儿</t>
-  </si>
-  <si>
     <t>慕斯</t>
   </si>
   <si>
@@ -350,9 +343,6 @@
     <t>杰克</t>
   </si>
   <si>
-    <t>近卫阿米娅</t>
-  </si>
-  <si>
     <t>山</t>
   </si>
   <si>
@@ -614,9 +604,6 @@
     <t>正义骑士号</t>
   </si>
   <si>
-    <t>寒芒克洛斯</t>
-  </si>
-  <si>
     <t>菲亚梅塔</t>
   </si>
   <si>
@@ -770,9 +757,6 @@
     <t>芙蓉</t>
   </si>
   <si>
-    <t>安塞尔</t>
-  </si>
-  <si>
     <t>末药</t>
   </si>
   <si>
@@ -1008,9 +992,6 @@
   </si>
   <si>
     <t>缄默德克萨斯</t>
-  </si>
-  <si>
-    <t>麒麟X夜刀</t>
   </si>
   <si>
     <t>空构</t>
@@ -1062,9 +1043,6 @@
     <t>maa://26203 (100.0)</t>
   </si>
   <si>
-    <t>maa://29113 (100.0)</t>
-  </si>
-  <si>
     <t>maa://30713 (100.0)</t>
   </si>
   <si>
@@ -1101,9 +1079,6 @@
     <t>maa://28502 (100.0)</t>
   </si>
   <si>
-    <t>maa://36707 (100.0)</t>
-  </si>
-  <si>
     <t>历阵锐枪芬</t>
   </si>
   <si>
@@ -1117,12 +1092,6 @@
   </si>
   <si>
     <t>PhonoR-0</t>
-  </si>
-  <si>
-    <t>maa://37442 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://29658 (94.29)</t>
   </si>
   <si>
     <t>maa://32651 (100.0)</t>
@@ -1138,18 +1107,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*maa://32656 (66.67)</t>
-  </si>
-  <si>
     <t>乌尔比安</t>
   </si>
   <si>
     <t>深巡</t>
   </si>
   <si>
-    <t>maa://21291 (88.57)</t>
-  </si>
-  <si>
     <t>maa://38495 (100.0)</t>
   </si>
   <si>
@@ -1180,42 +1143,21 @@
     <t>maa://24466 (94.74)</t>
   </si>
   <si>
-    <t>*maa://30769 (72.73)</t>
-  </si>
-  <si>
     <t>佩佩</t>
   </si>
   <si>
-    <t>**maa://24395 (45.45)</t>
-  </si>
-  <si>
-    <t>maa://26245 (96.12), maa://21288 (96.18), maa://36682 (100.0), maa://39841 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://31731 (94.59)</t>
-  </si>
-  <si>
     <t>maa://24378 (87.88)</t>
   </si>
   <si>
     <t>maa://39384 (100.0)</t>
   </si>
   <si>
-    <t>maa://31836 (92.31), maa://30381 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22750 (96.77)</t>
-  </si>
-  <si>
     <t>maa://39433 (100.0)</t>
   </si>
   <si>
     <t>娜仁图亚</t>
   </si>
   <si>
-    <t>*maa://29890 (72.22)</t>
-  </si>
-  <si>
     <t>莎草</t>
   </si>
   <si>
@@ -1231,15 +1173,6 @@
     <t>maa://30766 (88.46), **maa://36678 (50.0)</t>
   </si>
   <si>
-    <t>*maa://37964 (60.0)</t>
-  </si>
-  <si>
-    <t>maa://30442 (93.88)</t>
-  </si>
-  <si>
-    <t>maa://28065 (97.14)</t>
-  </si>
-  <si>
     <t>maa://39808 (100.0)</t>
   </si>
   <si>
@@ -1249,9 +1182,6 @@
     <t>maa://24709 (91.84)</t>
   </si>
   <si>
-    <t>*maa://39643 (80.0)</t>
-  </si>
-  <si>
     <t>杜林</t>
   </si>
   <si>
@@ -1264,261 +1194,54 @@
     <t>maa://29652 (97.22)</t>
   </si>
   <si>
-    <t>maa://24702 (94.07), maa://25390 (97.39), maa://36681 (94.83)</t>
-  </si>
-  <si>
-    <t>maa://36987 (95.45), maa://39849 (100.0), maa://40192 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24632 (93.7), **maa://24303 (36.36), maa://22499 (84.62), maa://22746 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21245 (81.87), maa://22744 (81.82)</t>
-  </si>
-  <si>
     <t>maa://21955 (92.31)</t>
   </si>
   <si>
-    <t>*maa://21476 (67.5), *maa://37551 (57.14), **maa://39431 (33.33)</t>
-  </si>
-  <si>
-    <t>maa://22765 (92.59), *maa://21915 (65.22)</t>
-  </si>
-  <si>
-    <t>***maa://25695 (19.53), **maa://32237 (39.39), ***maa://34206 (10.0), ***maa://39243 (25.0), ***maa://39951 (18.18)</t>
-  </si>
-  <si>
-    <t>maa://24999 (91.19), maa://36673 (91.38), maa://25001 (85.29)</t>
-  </si>
-  <si>
     <t>maa://30764 (85.0)</t>
   </si>
   <si>
-    <t>*maa://22743 (76.25), maa://22734 (83.93), *maa://30808 (62.96), ***maa://36048 (7.69)</t>
-  </si>
-  <si>
-    <t>maa://21441 (96.15), maa://36679 (91.67), maa://37650 (94.44)</t>
-  </si>
-  <si>
     <t>*maa://21624 (80.0)</t>
   </si>
   <si>
-    <t>maa://24570 (96.86)</t>
-  </si>
-  <si>
-    <t>maa://21432 (90.62), maa://25198 (93.48), **maa://20795 (48.33), maa://36680 (100.0)</t>
-  </si>
-  <si>
-    <t>***maa://28036 (29.69)</t>
-  </si>
-  <si>
-    <t>maa://24368 (80.38)</t>
-  </si>
-  <si>
-    <t>maa://29753 (95.48)</t>
-  </si>
-  <si>
-    <t>maa://24465 (90.22), maa://25725 (81.82)</t>
-  </si>
-  <si>
-    <t>maa://31694 (97.56)</t>
-  </si>
-  <si>
-    <t>maa://21247 (98.11), *maa://22748 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://24370 (95.92)</t>
-  </si>
-  <si>
     <t>*maa://24371 (52.31)</t>
   </si>
   <si>
-    <t>maa://21867 (90.07)</t>
-  </si>
-  <si>
-    <t>*maa://21248 (75.9), **maa://22728 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24304 (87.93), maa://21478 (93.75)</t>
-  </si>
-  <si>
-    <t>maa://22430 (88.57), *maa://39599 (70.0)</t>
-  </si>
-  <si>
-    <t>maa://24421 (90.95)</t>
-  </si>
-  <si>
-    <t>maa://22864 (87.9)</t>
-  </si>
-  <si>
-    <t>maa://24372 (97.53)</t>
-  </si>
-  <si>
-    <t>maa://25236 (95.65), **maa://21678 (48.94), **maa://22735 (50.0)</t>
-  </si>
-  <si>
-    <t>*maa://29063 (79.34), *maa://25311 (77.27), ***maa://22725 (4.84)</t>
-  </si>
-  <si>
-    <t>maa://24913 (92.06)</t>
-  </si>
-  <si>
     <t>**maa://21283 (49.32), maa://34494 (100.0), **maa://36665 (42.86), maa://39601 (100.0)</t>
   </si>
   <si>
-    <t>*maa://25175 (77.5)</t>
-  </si>
-  <si>
-    <t>maa://21895 (96.99), maa://36667 (97.5), **maa://20793 (38.78), maa://22760 (100.0)</t>
-  </si>
-  <si>
     <t>**maa://39351 (50.0)</t>
   </si>
   <si>
-    <t>maa://24375 (91.89)</t>
-  </si>
-  <si>
     <t>*maa://24374 (55.26)</t>
   </si>
   <si>
-    <t>maa://25199 (86.79), maa://36670 (89.13), maa://30434 (88.89), ***maa://25036 (16.0)</t>
-  </si>
-  <si>
-    <t>maa://22525 (92.31), maa://21284 (85.0)</t>
-  </si>
-  <si>
-    <t>maa://29768 (97.44), maa://27728 (96.0)</t>
-  </si>
-  <si>
     <t>maa://21229 (85.8), maa://30807 (94.92), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
   </si>
   <si>
-    <t>maa://35931 (92.92)</t>
-  </si>
-  <si>
-    <t>maa://27410 (96.08), maa://29661 (97.48), maa://28038 (84.62)</t>
-  </si>
-  <si>
-    <t>maa://32534 (92.86), **maa://32434 (36.36)</t>
-  </si>
-  <si>
-    <t>maa://32532 (92.79)</t>
-  </si>
-  <si>
     <t>maa://25176 (97.67)</t>
   </si>
   <si>
-    <t>maa://27746 (83.84), maa://31270 (96.84)</t>
-  </si>
-  <si>
-    <t>*maa://40438 (75.0)</t>
-  </si>
-  <si>
-    <t>*maa://24633 (54.97), *maa://30515 (69.7), ***maa://20792 (11.93), *maa://34787 (72.13), maa://39402 (86.36), ***maa://29083 (29.41)</t>
-  </si>
-  <si>
-    <t>*maa://22880 (71.72), maa://20276 (81.95), *maa://22749 (71.43)</t>
-  </si>
-  <si>
-    <t>maa://22757 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://24839 (99.18)</t>
-  </si>
-  <si>
-    <t>maa://28624 (90.48), maa://24957 (97.3)</t>
-  </si>
-  <si>
     <t>maa://22762 (91.36), **maa://39552 (50.0)</t>
   </si>
   <si>
-    <t>maa://21287 (88.24)</t>
-  </si>
-  <si>
     <t>*maa://21334 (54.17)</t>
   </si>
   <si>
     <t>*maa://21679 (75.0)</t>
   </si>
   <si>
-    <t>maa://22466 (88.0), *maa://22732 (53.85)</t>
-  </si>
-  <si>
-    <t>maa://27127 (90.12), *maa://22751 (77.97)</t>
-  </si>
-  <si>
-    <t>maa://39756 (93.27), maa://39875 (100.0)</t>
-  </si>
-  <si>
     <t>maa://28071 (86.67)</t>
   </si>
   <si>
-    <t>*maa://30770 (76.92)</t>
-  </si>
-  <si>
-    <t>maa://28432 (93.21), *maa://28440 (72.5), maa://31400 (100.0), *maa://28650 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://35926 (93.33), *maa://36258 (78.57)</t>
-  </si>
-  <si>
-    <t>maa://21249 (95.34), maa://26254 (95.24)</t>
-  </si>
-  <si>
-    <t>maa://21919 (97.5), maa://21281 (91.67)</t>
-  </si>
-  <si>
-    <t>*maa://21916 (60.34), maa://32931 (88.57), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22736 (80.77)</t>
-  </si>
-  <si>
     <t>maa://28977 (94.67), *maa://23264 (62.96), maa://36669 (95.24)</t>
   </si>
   <si>
-    <t>maa://22676 (91.58), *maa://22583 (75.44), *maa://22500 (55.81)</t>
-  </si>
-  <si>
-    <t>maa://23250 (98.38), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://24762 (89.86), *maa://22727 (70.0)</t>
-  </si>
-  <si>
-    <t>maa://28504 (90.91)</t>
-  </si>
-  <si>
     <t>maa://23890 (81.25), *maa://24940 (69.23)</t>
   </si>
   <si>
-    <t>maa://30587 (91.46), *maa://29748 (75.41), ***maa://29785 (15.15), maa://37566 (81.25)</t>
-  </si>
-  <si>
-    <t>maa://24382 (90.91)</t>
-  </si>
-  <si>
-    <t>*maa://23168 (58.0), **maa://30050 (47.06)</t>
-  </si>
-  <si>
     <t>maa://21442 (99.47)</t>
   </si>
   <si>
-    <t>*maa://21956 (78.4), maa://22730 (81.48)</t>
-  </si>
-  <si>
-    <t>maa://21280 (89.56), *maa://21239 (72.73)</t>
-  </si>
-  <si>
-    <t>*maa://24383 (65.91)</t>
-  </si>
-  <si>
-    <t>maa://23278 (96.17), maa://21386 (95.63), maa://36664 (94.29)</t>
-  </si>
-  <si>
-    <t>**maa://35616 (36.84)</t>
-  </si>
-  <si>
     <t>*maa://36237 (60.0)</t>
   </si>
   <si>
@@ -1528,36 +1251,12 @@
     <t>maa://24617 (88.24), **maa://20790 (43.94), ***maa://37170 (20.93)</t>
   </si>
   <si>
-    <t>maa://32509 (98.61), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
-  </si>
-  <si>
-    <t>*maa://37411 (60.0)</t>
-  </si>
-  <si>
     <t>**maa://22866 (30.77), maa://26222 (97.22)</t>
   </si>
   <si>
-    <t>maa://27395 (97.14), maa://22755 (87.0), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
-  </si>
-  <si>
-    <t>maa://22747 (95.62), maa://22501 (98.0)</t>
-  </si>
-  <si>
-    <t>*maa://22471 (59.7), maa://22521 (96.43)</t>
-  </si>
-  <si>
-    <t>maa://23892 (98.57)</t>
-  </si>
-  <si>
-    <t>maa://22729 (94.96), *maa://28648 (69.09), *maa://36674 (73.91)</t>
-  </si>
-  <si>
     <t>maa://24385 (96.88)</t>
   </si>
   <si>
-    <t>maa://24386 (98.67)</t>
-  </si>
-  <si>
     <t>maa://21993 (88.24)</t>
   </si>
   <si>
@@ -1567,205 +1266,533 @@
     <t>maa://20109 (92.64), maa://22545 (100.0)</t>
   </si>
   <si>
-    <t>*maa://30624 (78.79)</t>
-  </si>
-  <si>
-    <t>maa://23263 (94.19), *maa://29765 (61.54)</t>
-  </si>
-  <si>
     <t>*maa://32940 (75.0), maa://24388 (93.75)</t>
   </si>
   <si>
-    <t>maa://30711 (98.08), maa://30768 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24526 (92.92)</t>
-  </si>
-  <si>
-    <t>maa://24842 (93.62)</t>
-  </si>
-  <si>
     <t>maa://27613 (98.94)</t>
   </si>
   <si>
     <t>***maa://39354 (25.0)</t>
   </si>
   <si>
-    <t>maa://39366 (94.12)</t>
-  </si>
-  <si>
-    <t>*maa://39364 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://27396 (84.75), maa://27484 (95.4), maa://27480 (82.35)</t>
-  </si>
-  <si>
-    <t>maa://22399 (94.35), *maa://22758 (70.21)</t>
-  </si>
-  <si>
-    <t>maa://21411 (96.14)</t>
-  </si>
-  <si>
-    <t>maa://26223 (96.81)</t>
-  </si>
-  <si>
-    <t>maa://22301 (97.27), maa://22726 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://36713 (97.69)</t>
-  </si>
-  <si>
-    <t>maa://22753 (91.61), *maa://21485 (77.6), *maa://37962 (75.0)</t>
-  </si>
-  <si>
-    <t>*maa://34957 (78.12), *maa://22768 (53.33)</t>
-  </si>
-  <si>
-    <t>maa://37468 (90.0)</t>
-  </si>
-  <si>
     <t>*maa://38786 (75.0)</t>
   </si>
   <si>
     <t>maa://28501 (98.63), maa://28051 (95.83)</t>
   </si>
   <si>
-    <t>maa://21917 (97.37), *maa://22741 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://20110 (87.69), maa://34946 (92.59)</t>
-  </si>
-  <si>
-    <t>maa://21282 (98.8), *maa://37649 (66.67)</t>
-  </si>
-  <si>
-    <t>*maa://28503 (59.26)</t>
-  </si>
-  <si>
-    <t>maa://23504 (92.96), maa://29988 (85.64), **maa://22892 (40.29), *maa://25141 (76.72), *maa://36663 (78.85), ***maa://22815 (24.0)</t>
-  </si>
-  <si>
-    <t>maa://24389 (95.65)</t>
-  </si>
-  <si>
-    <t>maa://39929 (83.33), ***maa://39723 (18.52)</t>
-  </si>
-  <si>
     <t>maa://21246 (91.2), maa://36684 (100.0), ***maa://22731 (6.67)</t>
   </si>
   <si>
-    <t>maa://24390 (95.56)</t>
-  </si>
-  <si>
-    <t>*maa://29863 (79.17), ***maa://22752 (14.29), **maa://26013 (40.0)</t>
-  </si>
-  <si>
     <t>maa://22739 (90.91)</t>
   </si>
   <si>
-    <t>maa://25389 (88.0)</t>
-  </si>
-  <si>
     <t>maa://28711 (88.16), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (50.0), maa://40166 (100.0)</t>
   </si>
   <si>
     <t>maa://22516 (89.16), maa://29912 (100.0), *maa://20794 (52.24)</t>
   </si>
   <si>
-    <t>maa://23669 (95.77), maa://36677 (94.29), maa://39872 (87.5)</t>
-  </si>
-  <si>
-    <t>maa://22764 (96.23)</t>
-  </si>
-  <si>
     <t>maa://26228 (95.89)</t>
   </si>
   <si>
-    <t>*maa://30709 (59.5), *maa://36668 (52.17)</t>
-  </si>
-  <si>
-    <t>*maa://21443 (78.3), ***maa://23820 (28.85)</t>
-  </si>
-  <si>
-    <t>maa://24516 (80.95), maa://31215 (90.41), maa://26001 (92.31)</t>
-  </si>
-  <si>
-    <t>***maa://21730 (17.46), maa://25251 (91.67), *maa://36675 (60.0), **maa://39501 (33.33)</t>
-  </si>
-  <si>
-    <t>*maa://21289 (70.59)</t>
-  </si>
-  <si>
-    <t>*maa://30062 (65.0), ***maa://26209 (13.64), *maa://39394 (75.0)</t>
-  </si>
-  <si>
-    <t>*maa://33152 (60.71), ***maa://22770 (28.57)</t>
-  </si>
-  <si>
-    <t>*maa://26191 (71.43), *maa://36671 (72.5)</t>
-  </si>
-  <si>
     <t>*maa://24479 (76.06), *maa://21990 (53.85)</t>
   </si>
   <si>
-    <t>maa://26206 (90.79), **maa://22865 (43.18)</t>
-  </si>
-  <si>
-    <t>*maa://25021 (57.35), *maa://22733 (60.71), maa://22761 (100.0)</t>
-  </si>
-  <si>
-    <t>***maa://24394 (16.0), maa://31203 (93.75)</t>
-  </si>
-  <si>
-    <t>*maa://28932 (77.48), *maa://20106 (63.64), *maa://22769 (62.96)</t>
-  </si>
-  <si>
-    <t>**maa://22737 (30.83), maa://39883 (93.75), *maa://39885 (78.57)</t>
-  </si>
-  <si>
-    <t>maa://21364 (80.76), *maa://22766 (72.45), *maa://36666 (74.55)</t>
-  </si>
-  <si>
-    <t>*maa://23911 (61.11), maa://27755 (91.3)</t>
-  </si>
-  <si>
-    <t>*maa://24313 (56.55), **maa://29784 (46.15)</t>
-  </si>
-  <si>
-    <t>*maa://21663 (62.5)</t>
-  </si>
-  <si>
-    <t>maa://22524 (94.51), *maa://22432 (78.43)</t>
-  </si>
-  <si>
     <t>maa://31489 (93.33)</t>
   </si>
   <si>
-    <t>maa://22523 (84.62), *maa://36672 (78.38), maa://29910 (95.56), **maa://21440 (34.55)</t>
-  </si>
-  <si>
-    <t>maa://20108 (96.06), maa://24621 (96.4), maa://36676 (100.0), maa://22771 (83.33), maa://37772 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://30511 (85.71), *maa://29760 (54.55)</t>
-  </si>
-  <si>
-    <t>maa://24023 (98.39)</t>
-  </si>
-  <si>
-    <t>maa://36660 (94.56), *maa://36701 (64.0)</t>
-  </si>
-  <si>
-    <t>*maa://24080 (68.36), ***maa://34960 (9.52)</t>
-  </si>
-  <si>
     <t>maa://39479 (85.71)</t>
   </si>
   <si>
-    <t>maa://36697 (86.49)</t>
-  </si>
-  <si>
-    <t>更新日期：2024.08.31</t>
+    <t>maa://24702 (94.07), maa://25390 (97.4), maa://36681 (93.44)</t>
+  </si>
+  <si>
+    <t>maa://36987 (95.56), maa://40192 (100.0), maa://39849 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24632 (93.02), **maa://24303 (36.36), maa://22499 (84.62), maa://22746 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21245 (81.97), maa://22744 (81.82)</t>
+  </si>
+  <si>
+    <t>*maa://21476 (67.5), *maa://37551 (57.14), ***maa://39431 (25.0)</t>
+  </si>
+  <si>
+    <t>maa://22765 (91.76), *maa://21915 (65.22)</t>
+  </si>
+  <si>
+    <t>***maa://25695 (19.41), **maa://32237 (41.18), ***maa://34206 (14.29), ***maa://39951 (17.65), ***maa://39243 (25.0)</t>
+  </si>
+  <si>
+    <t>maa://36707 (99.62)</t>
+  </si>
+  <si>
+    <t>maa://24999 (91.29), maa://36673 (91.53), maa://25001 (85.51)</t>
+  </si>
+  <si>
+    <t>*maa://22743 (75.76), maa://22734 (83.33), *maa://30808 (62.96), ***maa://36048 (13.79)</t>
+  </si>
+  <si>
+    <t>maa://21441 (96.15), maa://36679 (93.1), maa://37650 (94.74)</t>
+  </si>
+  <si>
+    <t>maa://24570 (96.32)</t>
+  </si>
+  <si>
+    <t>maa://21432 (90.62), maa://25198 (93.55), **maa://20795 (48.33), maa://36680 (100.0)</t>
+  </si>
+  <si>
+    <t>***maa://28036 (29.23)</t>
+  </si>
+  <si>
+    <t>maa://24368 (80.31)</t>
+  </si>
+  <si>
+    <t>maa://29753 (95.07)</t>
+  </si>
+  <si>
+    <t>maa://24465 (90.26), maa://25725 (81.82)</t>
+  </si>
+  <si>
+    <t>maa://31694 (97.73)</t>
+  </si>
+  <si>
+    <t>齐尔查克</t>
+  </si>
+  <si>
+    <t>maa://21247 (98.14), *maa://22748 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://24370 (96.08)</t>
+  </si>
+  <si>
+    <t>艾丝黛尔</t>
+  </si>
+  <si>
+    <t>*maa://22763 (64.0)</t>
+  </si>
+  <si>
+    <t>maa://21867 (89.51)</t>
+  </si>
+  <si>
+    <t>*maa://21248 (76.02), **maa://22728 (48.78)</t>
+  </si>
+  <si>
+    <t>**maa://32656 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24304 (88.0), maa://21478 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://22430 (88.57), *maa://39599 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://24421 (90.5)</t>
+  </si>
+  <si>
+    <t>maa://22864 (88.0)</t>
+  </si>
+  <si>
+    <t>maa://24372 (97.56)</t>
+  </si>
+  <si>
+    <t>maa://25236 (95.71), **maa://21678 (48.94), **maa://22735 (50.0)</t>
+  </si>
+  <si>
+    <t>*maa://29063 (78.4), *maa://25311 (76.4), ***maa://22725 (4.84)</t>
+  </si>
+  <si>
+    <t>maa://24913 (92.19)</t>
+  </si>
+  <si>
+    <t>*maa://25175 (73.81)</t>
+  </si>
+  <si>
+    <t>maa://21895 (97.01), maa://36667 (97.83), **maa://20793 (38.78), maa://22760 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24375 (92.11)</t>
+  </si>
+  <si>
+    <t>阿米娅(近卫)</t>
+  </si>
+  <si>
+    <t>maa://25199 (86.92), maa://36670 (88.89), maa://30434 (88.89), ***maa://25036 (16.0)</t>
+  </si>
+  <si>
+    <t>maa://22525 (92.5), maa://21284 (82.93)</t>
+  </si>
+  <si>
+    <t>maa://29768 (97.47), maa://27728 (96.0)</t>
+  </si>
+  <si>
+    <t>maa://35931 (93.06)</t>
+  </si>
+  <si>
+    <t>maa://27410 (95.78), maa://29661 (97.54), maa://28038 (84.62)</t>
+  </si>
+  <si>
+    <t>*maa://30769 (76.92)</t>
+  </si>
+  <si>
+    <t>maa://32534 (93.0), **maa://32434 (36.36)</t>
+  </si>
+  <si>
+    <t>maa://32532 (91.98)</t>
+  </si>
+  <si>
+    <t>*maa://37964 (62.5)</t>
+  </si>
+  <si>
+    <t>maa://27746 (83.84), maa://31270 (96.91)</t>
+  </si>
+  <si>
+    <t>*maa://40438 (55.56)</t>
+  </si>
+  <si>
+    <t>莱欧斯</t>
+  </si>
+  <si>
+    <t>*maa://24633 (54.97), *maa://30515 (69.7), ***maa://20792 (11.93), *maa://34787 (72.13), maa://39402 (84.0), ***maa://29083 (29.41)</t>
+  </si>
+  <si>
+    <t>*maa://22880 (70.75), maa://20276 (81.95), *maa://22749 (71.43)</t>
+  </si>
+  <si>
+    <t>maa://22757 (84.62)</t>
+  </si>
+  <si>
+    <t>maa://24839 (99.19)</t>
+  </si>
+  <si>
+    <t>maa://28624 (91.04), maa://24957 (97.3)</t>
+  </si>
+  <si>
+    <t>**maa://24395 (43.48)</t>
+  </si>
+  <si>
+    <t>maa://21287 (87.21)</t>
+  </si>
+  <si>
+    <t>maa://26245 (96.12), maa://21288 (96.18), maa://36682 (100.0), maa://39841 (90.32)</t>
+  </si>
+  <si>
+    <t>maa://22466 (88.0), *maa://22732 (53.16)</t>
+  </si>
+  <si>
+    <t>maa://31731 (94.74)</t>
+  </si>
+  <si>
+    <t>maa://27127 (88.1), *maa://22751 (78.33)</t>
+  </si>
+  <si>
+    <t>maa://39756 (91.34), maa://39875 (93.94)</t>
+  </si>
+  <si>
+    <t>*maa://30770 (77.5)</t>
+  </si>
+  <si>
+    <t>maa://28432 (93.26), *maa://28440 (72.5), maa://31400 (100.0), *maa://28650 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://30442 (94.0)</t>
+  </si>
+  <si>
+    <t>maa://35926 (93.42), *maa://36258 (79.17)</t>
+  </si>
+  <si>
+    <t>maa://28065 (97.22)</t>
+  </si>
+  <si>
+    <t>maa://41296 (100.0)</t>
+  </si>
+  <si>
+    <t>森西</t>
+  </si>
+  <si>
+    <t>maa://21249 (95.36), maa://26254 (95.24)</t>
+  </si>
+  <si>
+    <t>maa://21919 (95.45), maa://21281 (91.67)</t>
+  </si>
+  <si>
+    <t>maa://31836 (92.86), maa://30381 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22750 (96.88)</t>
+  </si>
+  <si>
+    <t>*maa://21916 (60.34), maa://32931 (88.0), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22736 (81.25)</t>
+  </si>
+  <si>
+    <t>maa://22676 (91.67), *maa://22583 (75.44), *maa://22500 (55.81)</t>
+  </si>
+  <si>
+    <t>maa://23250 (98.42), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24762 (89.29), *maa://22727 (70.0)</t>
+  </si>
+  <si>
+    <t>maa://28504 (91.11)</t>
+  </si>
+  <si>
+    <t>maa://37442 (96.0)</t>
+  </si>
+  <si>
+    <t>maa://30587 (91.57), *maa://29748 (75.41), ***maa://29785 (15.15), *maa://37566 (76.47)</t>
+  </si>
+  <si>
+    <t>maa://24382 (91.67)</t>
+  </si>
+  <si>
+    <t>*maa://23168 (56.86), **maa://30050 (44.44)</t>
+  </si>
+  <si>
+    <t>*maa://21956 (78.57), maa://22730 (82.14)</t>
+  </si>
+  <si>
+    <t>寒芒克洛丝</t>
+  </si>
+  <si>
+    <t>maa://21280 (89.62), *maa://21239 (72.73)</t>
+  </si>
+  <si>
+    <t>*maa://24383 (66.29)</t>
+  </si>
+  <si>
+    <t>maa://23278 (96.19), maa://21386 (95.63), maa://36664 (91.67)</t>
+  </si>
+  <si>
+    <t>**maa://35616 (38.1)</t>
+  </si>
+  <si>
+    <t>maa://39643 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://32509 (98.63), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+  </si>
+  <si>
+    <t>*maa://37411 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://21291 (88.89)</t>
+  </si>
+  <si>
+    <t>maa://27395 (97.2), maa://22755 (87.13), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+  </si>
+  <si>
+    <t>maa://22747 (95.62), maa://22501 (98.04)</t>
+  </si>
+  <si>
+    <t>*maa://22471 (59.7), maa://22521 (95.4)</t>
+  </si>
+  <si>
+    <t>maa://23892 (98.59)</t>
+  </si>
+  <si>
+    <t>maa://22729 (95.1), *maa://28648 (69.09), *maa://36674 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://24386 (98.68)</t>
+  </si>
+  <si>
+    <t>maa://29113 (95.24)</t>
+  </si>
+  <si>
+    <t>*maa://30624 (76.47)</t>
+  </si>
+  <si>
+    <t>maa://23263 (94.19), *maa://29765 (62.12)</t>
+  </si>
+  <si>
+    <t>maa://30711 (96.23), maa://30768 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://41108 (100.0), maa://41238 (85.71)</t>
+  </si>
+  <si>
+    <t>maa://24526 (92.98)</t>
+  </si>
+  <si>
+    <t>maa://24842 (93.75)</t>
+  </si>
+  <si>
+    <t>maa://39366 (89.47)</t>
+  </si>
+  <si>
+    <t>*maa://39364 (66.67)</t>
+  </si>
+  <si>
+    <t>玛露西尔</t>
+  </si>
+  <si>
+    <t>术师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maa://27396 (84.81), maa://27484 (95.51), maa://27480 (82.35)</t>
+  </si>
+  <si>
+    <t>安赛尔</t>
+  </si>
+  <si>
+    <t>**maa://32495 (47.21), ***maa://31785 (14.95), ***maa://36683 (21.43)</t>
+  </si>
+  <si>
+    <t>maa://22399 (94.4), *maa://22758 (70.83)</t>
+  </si>
+  <si>
+    <t>maa://21411 (96.17)</t>
+  </si>
+  <si>
+    <t>maa://26223 (96.84)</t>
+  </si>
+  <si>
+    <t>maa://22301 (97.31), maa://22726 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://36713 (97.74)</t>
+  </si>
+  <si>
+    <t>maa://22753 (91.67), *maa://21485 (76.56), *maa://37962 (78.57)</t>
+  </si>
+  <si>
+    <t>*maa://34957 (79.41), *maa://22768 (53.33)</t>
+  </si>
+  <si>
+    <t>maa://37468 (91.67)</t>
+  </si>
+  <si>
+    <t>maa://21917 (97.4), *maa://22741 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://20110 (86.36), maa://34946 (90.0)</t>
+  </si>
+  <si>
+    <t>maa://21282 (98.8), *maa://37649 (62.5)</t>
+  </si>
+  <si>
+    <t>*maa://28503 (60.0)</t>
+  </si>
+  <si>
+    <t>maa://23504 (92.96), maa://29988 (85.57), **maa://22892 (40.71), *maa://25141 (77.31), *maa://36663 (79.25), ***maa://22815 (23.08)</t>
+  </si>
+  <si>
+    <t>*maa://29890 (72.97)</t>
+  </si>
+  <si>
+    <t>maa://24389 (95.83)</t>
+  </si>
+  <si>
+    <t>maa://39929 (85.91), ***maa://39723 (16.67)</t>
+  </si>
+  <si>
+    <t>阿米娅(医疗)</t>
+  </si>
+  <si>
+    <t>maa://24390 (95.74)</t>
+  </si>
+  <si>
+    <t>*maa://29863 (73.08), ***maa://22752 (13.33), **maa://26013 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://25389 (88.46)</t>
+  </si>
+  <si>
+    <t>maa://23669 (95.79), maa://36677 (94.59), maa://39872 (90.0)</t>
+  </si>
+  <si>
+    <t>maa://22764 (96.3)</t>
+  </si>
+  <si>
+    <t>*maa://30709 (60.05), *maa://36668 (52.17)</t>
+  </si>
+  <si>
+    <t>*maa://21443 (78.44), **maa://23820 (30.19)</t>
+  </si>
+  <si>
+    <t>maa://31215 (86.84), *maa://24516 (80.0), maa://26001 (92.31)</t>
+  </si>
+  <si>
+    <t>***maa://21730 (17.46), maa://25251 (91.89), ***maa://39501 (28.57), *maa://36675 (60.0)</t>
+  </si>
+  <si>
+    <t>*maa://21289 (72.22)</t>
+  </si>
+  <si>
+    <t>*maa://30062 (63.41), ***maa://26209 (13.04), *maa://39394 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://33152 (58.62), ***maa://22770 (28.57)</t>
+  </si>
+  <si>
+    <t>*maa://26191 (71.43), *maa://36671 (73.17)</t>
+  </si>
+  <si>
+    <t>maa://26206 (90.91), **maa://22865 (43.18)</t>
+  </si>
+  <si>
+    <t>*maa://25021 (56.52), *maa://22733 (60.71), maa://22761 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://31203 (94.44), ***maa://24394 (16.0)</t>
+  </si>
+  <si>
+    <t>*maa://28932 (77.88), *maa://20106 (63.64), *maa://22769 (62.96)</t>
+  </si>
+  <si>
+    <t>**maa://22737 (30.83), maa://39883 (88.89), *maa://39885 (76.47)</t>
+  </si>
+  <si>
+    <t>maa://21364 (80.48), *maa://22766 (73.0), *maa://36666 (75.44)</t>
+  </si>
+  <si>
+    <t>*maa://23911 (61.54), maa://27755 (91.43)</t>
+  </si>
+  <si>
+    <t>*maa://24313 (57.72), **maa://29784 (46.15)</t>
+  </si>
+  <si>
+    <t>*maa://21663 (60.34)</t>
+  </si>
+  <si>
+    <t>maa://22524 (94.61), *maa://22432 (78.43)</t>
+  </si>
+  <si>
+    <t>maa://29658 (94.44)</t>
+  </si>
+  <si>
+    <t>maa://22523 (84.78), *maa://36672 (75.0), maa://29910 (95.65), **maa://21440 (34.55)</t>
+  </si>
+  <si>
+    <t>maa://20108 (96.09), maa://24621 (96.4), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30511 (86.21), *maa://29760 (54.55)</t>
+  </si>
+  <si>
+    <t>maa://24023 (96.83)</t>
+  </si>
+  <si>
+    <t>maa://36660 (93.85), *maa://36701 (64.0)</t>
+  </si>
+  <si>
+    <t>*maa://24080 (68.35), ***maa://34960 (9.09)</t>
+  </si>
+  <si>
+    <t>麒麟R夜刀</t>
+  </si>
+  <si>
+    <t>maa://36697 (86.32)</t>
+  </si>
+  <si>
+    <t>更新日期：2024.09.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE71"/>
+  <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2176,2681 +2203,2699 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J2" s="1">
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="R2" s="1">
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>492</v>
+        <v>400</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Z2" s="1">
         <v>3</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>535</v>
+        <v>412</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AD2" s="1">
         <v>4</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N3" s="1">
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R3" s="1">
         <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>493</v>
+        <v>401</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="V3" s="1">
         <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Z3" s="1">
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AD3" s="1">
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="R4" s="1">
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>325</v>
+        <v>531</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>325</v>
+        <v>532</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Z4" s="1">
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AD4" s="1">
         <v>3</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N5" s="1">
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="V5" s="1">
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Z5" s="1">
         <v>3</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>325</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>385</v>
+        <v>491</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Z6" s="1">
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>538</v>
+        <v>413</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AD6" s="1">
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>325</v>
+        <v>441</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>325</v>
+        <v>442</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>386</v>
+        <v>492</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>367</v>
+        <v>512</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="V7" s="1">
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AD7" s="1">
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N8" s="1">
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="V8" s="1">
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Z8" s="1">
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AD8" s="1">
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>553</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>461</v>
+        <v>392</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R9" s="1">
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="V9" s="1">
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Z9" s="1">
         <v>6</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>540</v>
+        <v>414</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AD9" s="1">
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N10" s="1">
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R10" s="1">
         <v>4</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="V10" s="1">
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Z10" s="1">
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AD10" s="1">
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>352</v>
+        <v>427</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="R11" s="1">
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="V11" s="1">
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Z11" s="1">
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AD11" s="1">
         <v>2</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="V12" s="1">
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Z12" s="1">
         <v>3</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AD12" s="1">
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N13" s="1">
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="V13" s="1">
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Z13" s="1">
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AD13" s="1">
         <v>3</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>364</v>
+        <v>445</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>381</v>
+        <v>477</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R14" s="1">
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="V14" s="1">
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Z14" s="1">
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>463</v>
+        <v>393</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N15" s="1">
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="V15" s="1">
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>526</v>
+        <v>410</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AD15" s="1">
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R16" s="1">
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="V16" s="1">
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>527</v>
+        <v>411</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Z16" s="1">
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>544</v>
+        <v>416</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AD16" s="1">
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N17" s="1">
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>481</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J18" s="1">
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N18" s="1">
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="R18" s="1">
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>502</v>
+        <v>403</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="V18" s="1">
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Z18" s="1">
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AD18" s="1">
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V19" s="1">
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Z19" s="1">
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AD19" s="1">
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>325</v>
+        <v>140</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>325</v>
+        <v>65</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>358</v>
+        <v>499</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>340</v>
+        <v>519</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>382</v>
+        <v>479</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>504</v>
+        <v>404</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="V21" s="1">
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Z21" s="1">
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AD21" s="1">
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="V22" s="1">
         <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Z22" s="1">
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AD22" s="1">
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>359</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N23" s="1">
         <v>4</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R23" s="1">
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="V23" s="1">
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Z23" s="1">
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AD23" s="1">
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>564</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="V24" s="1">
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Z24" s="1">
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AD24" s="1">
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R25" s="1">
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>506</v>
+        <v>406</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="V25" s="1">
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>389</v>
+        <v>546</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Z25" s="1">
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AD25" s="1">
         <v>5</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N26" s="1">
         <v>2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="V26" s="1">
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AD26" s="1">
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>468</v>
+        <v>395</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AD27" s="1">
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R28" s="1">
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V28" s="1">
         <v>2</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AD28" s="1">
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J29" s="1">
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N29" s="1">
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AD29" s="1">
         <v>2</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>396</v>
+        <v>484</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R30" s="1">
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>509</v>
+        <v>407</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V30" s="1">
         <v>1</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J31" s="1">
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R31" s="1">
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>390</v>
+        <v>549</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>323</v>
+        <v>580</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1">
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>325</v>
+        <v>228</v>
+      </c>
+      <c r="R32" s="1">
+        <v>2</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>325</v>
+        <v>523</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AD32" s="1">
         <v>0</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N33" s="1">
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y33" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y34" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="Z33" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="E34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="R34" s="1">
-        <v>1</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="Z34" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD34" s="1">
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>325</v>
+        <v>20</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>325</v>
+        <v>487</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AD35" s="1">
         <v>1</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>571</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E36" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>191</v>
+        <v>504</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="R36" s="1">
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>513</v>
+        <v>408</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N37" s="1">
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="R37" s="1">
         <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="E38" s="1" t="s">
-        <v>103</v>
+        <v>457</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="R38" s="1">
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AD38" s="1">
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4858,83 +4903,92 @@
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="E39" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F39" s="1">
         <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N39" s="1">
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="E40" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N40" s="1">
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4942,65 +4996,65 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="E41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N41" s="1">
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5008,31 +5062,31 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="E43" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5040,65 +5094,65 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="E44" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R44" s="1">
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="E45" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F45" s="1">
         <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>491</v>
+        <v>399</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="R45" s="1">
         <v>1</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
@@ -5106,65 +5160,65 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="E46" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="E47" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
@@ -5172,47 +5226,56 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="E49" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N49" s="1">
         <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>401</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5220,271 +5283,282 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="E50" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>378</v>
+        <v>463</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E52" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F53" s="1">
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E57" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>395</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E59" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E66" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E67" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E72" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3886022C-3211-4C25-BFF1-7425B48C4F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C2082D-1BE2-4707-8106-1CFA5A815662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="4335" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="4155" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="580">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1064,18 +1064,10 @@
     <t>maa://23656 (100.0)</t>
   </si>
   <si>
-    <t>2024.04.21更新：增加每个作业好评率显示，删除好评率为0的作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*为好评率不高于80%,**为好评率不高于50%，***为好评率不高于30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.04.30更新：修复关卡名包含干员名时导致的搜素错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maa://28502 (100.0)</t>
   </si>
   <si>
@@ -1101,10 +1093,6 @@
   </si>
   <si>
     <t>maa://21484 (100.0)</t>
-  </si>
-  <si>
-    <t>2024.05.11更新：再次换用stage_id进行搜索，保证唯一性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乌尔比安</t>
@@ -1864,9 +1852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1875,6 +1860,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2159,7 +2147,7 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2236,7 +2224,7 @@
         <v>66</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -2280,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -2298,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>154</v>
@@ -2310,13 +2298,13 @@
         <v>319</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="R2" s="1">
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>11</v>
@@ -2334,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>289</v>
@@ -2343,7 +2331,7 @@
         <v>4</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2354,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>67</v>
@@ -2363,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>123</v>
@@ -2372,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>155</v>
@@ -2381,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>199</v>
@@ -2390,7 +2378,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>238</v>
@@ -2399,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>263</v>
@@ -2408,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>290</v>
@@ -2417,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2428,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>68</v>
@@ -2464,16 +2452,16 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="V4" s="1">
         <v>3</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>264</v>
@@ -2482,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>291</v>
@@ -2491,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2502,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>69</v>
@@ -2520,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>157</v>
@@ -2529,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>201</v>
@@ -2556,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>292</v>
@@ -2585,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>126</v>
@@ -2594,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>158</v>
@@ -2603,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>202</v>
@@ -2612,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>240</v>
@@ -2630,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>293</v>
@@ -2639,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2650,16 +2638,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>127</v>
@@ -2668,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>159</v>
@@ -2677,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>203</v>
@@ -2686,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>241</v>
@@ -2695,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>267</v>
@@ -2713,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2724,7 +2712,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>71</v>
@@ -2733,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>128</v>
@@ -2751,7 +2739,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>204</v>
@@ -2769,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>268</v>
@@ -2778,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>295</v>
@@ -2787,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2798,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>72</v>
@@ -2816,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>161</v>
@@ -2825,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>205</v>
@@ -2834,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>243</v>
@@ -2843,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>269</v>
@@ -2852,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>296</v>
@@ -2861,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2872,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>73</v>
@@ -2881,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>130</v>
@@ -2890,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>162</v>
@@ -2899,7 +2887,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>206</v>
@@ -2908,7 +2896,7 @@
         <v>4</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>244</v>
@@ -2917,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>270</v>
@@ -2935,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2946,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>74</v>
@@ -2964,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>163</v>
@@ -2982,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>245</v>
@@ -2991,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>271</v>
@@ -3000,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>298</v>
@@ -3009,7 +2997,7 @@
         <v>2</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -3020,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>75</v>
@@ -3029,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>132</v>
@@ -3065,7 +3053,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>272</v>
@@ -3074,7 +3062,7 @@
         <v>3</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>299</v>
@@ -3083,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -3094,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>76</v>
@@ -3103,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>133</v>
@@ -3121,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>209</v>
@@ -3130,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>247</v>
@@ -3139,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>273</v>
@@ -3157,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3168,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>77</v>
@@ -3177,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>134</v>
@@ -3186,7 +3174,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>166</v>
@@ -3195,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>210</v>
@@ -3204,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>248</v>
@@ -3213,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>274</v>
@@ -3222,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>301</v>
@@ -3242,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>78</v>
@@ -3251,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>135</v>
@@ -3260,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>167</v>
@@ -3269,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>211</v>
@@ -3278,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>249</v>
@@ -3287,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>275</v>
@@ -3305,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3316,7 +3304,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>79</v>
@@ -3343,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>212</v>
@@ -3352,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>250</v>
@@ -3361,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>276</v>
@@ -3370,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>303</v>
@@ -3379,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3390,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>80</v>
@@ -3399,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>137</v>
@@ -3408,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>169</v>
@@ -3417,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>213</v>
@@ -3464,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>81</v>
@@ -3473,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>138</v>
@@ -3482,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>170</v>
@@ -3491,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>214</v>
@@ -3500,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>252</v>
@@ -3509,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>278</v>
@@ -3527,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3556,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>171</v>
@@ -3565,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>215</v>
@@ -3574,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>253</v>
@@ -3592,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>306</v>
@@ -3601,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3612,7 +3600,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>83</v>
@@ -3621,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>140</v>
@@ -3639,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>216</v>
@@ -3648,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>254</v>
@@ -3695,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>141</v>
@@ -3704,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>173</v>
@@ -3713,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>217</v>
@@ -3722,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>255</v>
@@ -3731,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>281</v>
@@ -3740,7 +3728,7 @@
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>308</v>
@@ -3749,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3769,7 +3757,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>142</v>
@@ -3778,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>174</v>
@@ -3796,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>256</v>
@@ -3805,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>282</v>
@@ -3823,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3834,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
@@ -3852,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>175</v>
@@ -3861,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>219</v>
@@ -3870,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>257</v>
@@ -3879,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>283</v>
@@ -3888,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>310</v>
@@ -3897,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3908,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>87</v>
@@ -3953,7 +3941,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>284</v>
@@ -3962,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>311</v>
@@ -3971,7 +3959,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3982,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>88</v>
@@ -3991,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>145</v>
@@ -4000,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>177</v>
@@ -4009,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>221</v>
@@ -4018,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>259</v>
@@ -4027,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>285</v>
@@ -4036,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>312</v>
@@ -4045,7 +4033,7 @@
         <v>5</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -4065,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>146</v>
@@ -4083,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>222</v>
@@ -4101,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>286</v>
@@ -4119,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4139,7 +4127,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>147</v>
@@ -4148,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>179</v>
@@ -4166,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>261</v>
@@ -4193,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4204,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>91</v>
@@ -4222,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>180</v>
@@ -4240,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>17</v>
@@ -4249,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>288</v>
@@ -4267,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4278,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>92</v>
@@ -4287,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>149</v>
@@ -4296,7 +4284,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>181</v>
@@ -4305,7 +4293,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>225</v>
@@ -4314,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>22</v>
@@ -4341,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4361,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>150</v>
@@ -4370,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>182</v>
@@ -4379,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>226</v>
@@ -4388,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>30</v>
@@ -4397,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>29</v>
@@ -4435,7 +4423,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>151</v>
@@ -4444,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>183</v>
@@ -4462,10 +4450,10 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>319</v>
@@ -4483,7 +4471,7 @@
         <v>319</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AD31" s="1" t="s">
         <v>319</v>
@@ -4494,7 +4482,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>319</v>
@@ -4509,7 +4497,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>152</v>
@@ -4518,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>184</v>
@@ -4536,10 +4524,10 @@
         <v>2</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>319</v>
@@ -4548,7 +4536,7 @@
         <v>319</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>319</v>
@@ -4568,7 +4556,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>319</v>
@@ -4583,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>153</v>
@@ -4592,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>185</v>
@@ -4601,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>229</v>
@@ -4613,7 +4601,7 @@
         <v>65</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>319</v>
@@ -4633,7 +4621,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>319</v>
@@ -4675,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>319</v>
@@ -4693,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4713,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>187</v>
@@ -4731,10 +4719,10 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>319</v>
@@ -4749,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -4760,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>26</v>
@@ -4772,7 +4760,7 @@
         <v>319</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>319</v>
@@ -4787,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>327</v>
@@ -4807,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>38</v>
@@ -4825,7 +4813,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>233</v>
@@ -4834,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>328</v>
@@ -4847,13 +4835,13 @@
       </c>
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="E38" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>319</v>
@@ -4868,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>189</v>
@@ -4877,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>234</v>
@@ -4895,13 +4883,13 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="E39" s="1" t="s">
         <v>101</v>
       </c>
@@ -4909,10 +4897,10 @@
         <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>319</v>
@@ -4927,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>235</v>
@@ -4939,7 +4927,7 @@
         <v>319</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AD39" s="1" t="s">
         <v>319</v>
@@ -4949,11 +4937,11 @@
       </c>
     </row>
     <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="E40" s="1" t="s">
         <v>102</v>
       </c>
@@ -4964,7 +4952,7 @@
         <v>319</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>319</v>
@@ -4979,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>236</v>
@@ -4992,9 +4980,9 @@
       </c>
     </row>
     <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="E41" s="1" t="s">
         <v>103</v>
       </c>
@@ -5002,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>192</v>
@@ -5011,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>237</v>
@@ -5024,11 +5012,11 @@
       </c>
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="E42" s="1" t="s">
         <v>104</v>
       </c>
@@ -5058,9 +5046,9 @@
       </c>
     </row>
     <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="E43" s="1" t="s">
         <v>105</v>
       </c>
@@ -5068,7 +5056,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>194</v>
@@ -5090,9 +5078,9 @@
       </c>
     </row>
     <row r="44" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="E44" s="1" t="s">
         <v>106</v>
       </c>
@@ -5100,7 +5088,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>195</v>
@@ -5118,15 +5106,13 @@
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="E45" s="1" t="s">
         <v>107</v>
       </c>
@@ -5134,7 +5120,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>196</v>
@@ -5143,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>325</v>
@@ -5152,13 +5138,13 @@
         <v>1</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="E46" s="1" t="s">
         <v>108</v>
       </c>
@@ -5166,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>197</v>
@@ -5178,7 +5164,7 @@
         <v>65</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>319</v>
@@ -5188,11 +5174,9 @@
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="E47" s="1" t="s">
         <v>109</v>
       </c>
@@ -5200,7 +5184,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>198</v>
@@ -5212,7 +5196,7 @@
         <v>319</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>319</v>
@@ -5222,9 +5206,9 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="E48" s="1" t="s">
         <v>110</v>
       </c>
@@ -5244,7 +5228,7 @@
         <v>65</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>319</v>
@@ -5254,11 +5238,9 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="E49" s="1" t="s">
         <v>111</v>
       </c>
@@ -5275,13 +5257,13 @@
         <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="E50" s="1" t="s">
         <v>112</v>
       </c>
@@ -5309,10 +5291,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>319</v>
@@ -5332,7 +5314,7 @@
         <v>331</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>319</v>
@@ -5349,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5371,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5393,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5404,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -5415,7 +5397,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5426,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -5530,7 +5512,7 @@
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>319</v>
@@ -5541,7 +5523,7 @@
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>319</v>
@@ -5552,7 +5534,7 @@
     </row>
     <row r="72" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E72" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>319</v>
@@ -5562,13 +5544,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A47:C48"/>
+  <mergeCells count="3">
     <mergeCell ref="A38:C39"/>
     <mergeCell ref="A40:C41"/>
     <mergeCell ref="A42:C44"/>
-    <mergeCell ref="A45:C46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -612,7 +612,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.1), maa://25390 (97.4), maa://36681 (91.94)</t>
+          <t>maa://24702 (94.1), maa://25390 (97.41), maa://36681 (91.94)</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="AE2" s="2" t="inlineStr">
         <is>
-          <t>***maa://21730 (17.46), maa://25251 (91.89), ***maa://39501 (25.0), *maa://36675 (60.0)</t>
+          <t>***maa://21730 (17.19), maa://25251 (92.0), ***maa://39501 (20.0), *maa://36675 (60.0)</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (95.56), maa://40192 (100.0), maa://39849 (100.0)</t>
+          <t>maa://36987 (95.65), maa://40192 (100.0), maa://39849 (100.0)</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.19), *maa://22748 (75.0)</t>
+          <t>maa://21247 (98.26), *maa://22748 (75.0)</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (70.67), maa://20276 (81.95), *maa://22749 (62.5)</t>
+          <t>*maa://22880 (70.2), maa://20276 (82.35), *maa://22749 (62.5)</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (95.45), maa://26254 (95.24)</t>
+          <t>maa://21249 (95.5), maa://26254 (95.24)</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.08), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.18), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (98.7), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (98.72), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.44), ***maa://31785 (15.74), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (47.9), ***maa://31785 (15.74), ***maa://36683 (26.67)</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.26), maa://22744 (81.82)</t>
+          <t>maa://21245 (82.54), maa://22744 (82.61)</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (91.18), maa://24957 (97.3)</t>
+          <t>maa://28624 (91.3), maa://24957 (97.3)</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.53), *maa://22758 (70.83)</t>
+          <t>maa://22399 (94.62), *maa://22758 (71.43)</t>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="AE7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (71.43), *maa://36671 (73.17)</t>
+          <t>*maa://26191 (70.42), *maa://36671 (73.17)</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (96.21)</t>
+          <t>maa://21411 (96.25)</t>
         </is>
       </c>
       <c r="Y8" s="4" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="AA9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (88.61), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), *maa://39938 (54.55), maa://40166 (100.0)</t>
+          <t>maa://28711 (87.65), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (50.0), maa://40166 (100.0)</t>
         </is>
       </c>
       <c r="AC9" s="4" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="AE9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.74), **maa://22865 (44.44)</t>
+          <t>maa://26206 (90.0), **maa://22865 (45.65)</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.41), **maa://32237 (40.0), ***maa://34206 (14.29), ***maa://39951 (17.65), ***maa://39243 (25.0)</t>
+          <t>***maa://25695 (19.41), **maa://32237 (38.89), ***maa://34206 (14.29), ***maa://39951 (15.79), ***maa://39243 (25.0)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (97.22), maa://22755 (87.25), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (97.24), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.31), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.33), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="4" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="AE10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (56.52), *maa://22733 (60.71), maa://22761 (100.0)</t>
+          <t>*maa://25021 (56.52), *maa://22733 (58.62), maa://22761 (100.0)</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.62)</t>
+          <t>maa://36707 (99.63)</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (94.93), maa://22501 (98.08)</t>
+          <t>maa://22747 (94.96), maa://22501 (98.08)</t>
         </is>
       </c>
       <c r="U11" s="4" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.77)</t>
+          <t>maa://36713 (97.78)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.73)</t>
+          <t>maa://21867 (89.86)</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.67), *maa://21485 (76.56), *maa://37962 (80.0)</t>
+          <t>maa://22753 (91.67), *maa://21485 (76.56), maa://37962 (81.25)</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AA12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.8), maa://36677 (94.59), maa://39872 (81.82)</t>
+          <t>maa://23669 (95.82), maa://36677 (94.74), maa://39872 (81.82)</t>
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.34), maa://36673 (91.67), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.36), maa://36673 (91.8), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.38), **maa://22728 (48.78)</t>
+          <t>*maa://21248 (75.5), **maa://22728 (47.62)</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.67), *maa://22583 (75.44), *maa://22500 (55.81)</t>
+          <t>maa://22676 (91.75), *maa://22583 (75.86), *maa://22500 (55.81)</t>
         </is>
       </c>
       <c r="Q13" s="4" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (77.78), *maa://22768 (53.33)</t>
+          <t>*maa://34957 (79.49), *maa://22768 (53.33)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="AE13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.83), maa://39883 (89.47), *maa://39885 (77.78)</t>
+          <t>**maa://22737 (30.83), maa://39883 (90.48), *maa://39885 (73.68)</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (91.43)</t>
+          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (92.11)</t>
         </is>
       </c>
       <c r="M14" s="4" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.05), maa://22734 (83.33), *maa://30808 (62.96), ***maa://36048 (13.33)</t>
+          <t>*maa://22743 (76.05), maa://22734 (83.33), *maa://30808 (63.64), ***maa://36048 (13.33)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.2), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.27), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (89.36), *maa://22727 (70.0)</t>
+          <t>maa://24762 (89.51), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="4" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="AE15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.55), *maa://22766 (73.0), *maa://36666 (76.27)</t>
+          <t>maa://21364 (80.55), *maa://22766 (73.0), *maa://36666 (76.67)</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.15), maa://36679 (93.33), maa://37650 (94.74)</t>
+          <t>maa://21441 (96.15), maa://36679 (93.33), maa://37650 (95.0)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.33), maa://28051 (95.83)</t>
+          <t>maa://28501 (97.37), maa://28051 (95.83)</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="AA16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.95)</t>
+          <t>maa://26228 (96.0)</t>
         </is>
       </c>
       <c r="AC16" s="4" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="AE16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (61.54), maa://27755 (91.43)</t>
+          <t>*maa://23911 (61.54), maa://27755 (91.55)</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.39)</t>
+          <t>maa://24570 (96.43)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.15)</t>
+          <t>maa://24421 (90.34)</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.4), *maa://22741 (80.0)</t>
+          <t>maa://21917 (97.4), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="4" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>maa://37442 (96.15)</t>
+          <t>maa://37442 (96.3)</t>
         </is>
       </c>
       <c r="Q20" s="4" t="inlineStr">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>maa://31731 (94.87)</t>
+          <t>maa://31731 (95.0)</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AA21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (78.64), **maa://23820 (30.19)</t>
+          <t>*maa://21443 (78.64), ***maa://23820 (29.63)</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="AE21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.15), *maa://22432 (75.47)</t>
+          <t>maa://22524 (94.22), *maa://22432 (75.47)</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (87.21), *maa://22751 (77.05)</t>
+          <t>maa://27127 (87.36), *maa://22751 (77.05)</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.8), *maa://37649 (62.5)</t>
+          <t>maa://21282 (98.8), *maa://37649 (64.71)</t>
         </is>
       </c>
       <c r="Y22" s="4" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (91.67), maa://39875 (94.29)</t>
+          <t>maa://39756 (92.03), maa://39875 (94.74)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.62), *maa://29748 (75.41), ***maa://29785 (15.15), *maa://37566 (76.47)</t>
+          <t>maa://30587 (91.62), *maa://29748 (74.8), ***maa://29785 (15.15), *maa://37566 (76.47)</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>maa://23504 (93.02), maa://29988 (85.79), **maa://22892 (40.43), *maa://25141 (77.31), *maa://36663 (79.25), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (93.02), maa://29988 (85.86), **maa://22892 (40.43), *maa://25141 (77.31), *maa://36663 (79.25), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="AE24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (84.86), *maa://36672 (75.61), maa://29910 (95.65), **maa://21440 (34.55)</t>
+          <t>maa://22523 (84.86), *maa://36672 (75.61), maa://29910 (95.74), **maa://21440 (34.55)</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (77.78), *maa://25311 (75.56), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (77.95), *maa://25311 (74.73), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>maa://24378 (87.88)</t>
+          <t>maa://24378 (88.24)</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="AA25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (86.84), *maa://24516 (80.0), maa://26001 (92.31)</t>
+          <t>maa://31215 (85.9), *maa://24516 (80.0), maa://26001 (88.89)</t>
         </is>
       </c>
       <c r="AC25" s="4" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (92.19)</t>
+          <t>maa://24913 (90.91)</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="AE26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (83.33), *maa://29760 (54.55)</t>
+          <t>maa://30511 (83.87), *maa://29760 (54.55)</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.29), maa://25725 (81.82)</t>
+          <t>maa://24465 (90.3), maa://25725 (81.82)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (85.19), ***maa://39723 (15.62)</t>
+          <t>maa://39929 (85.21), ***maa://39723 (15.15)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="AE28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (93.9), *maa://36701 (64.0)</t>
+          <t>maa://36660 (94.02), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>*maa://25175 (73.81)</t>
+          <t>*maa://25175 (70.45)</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.31), *maa://28440 (72.5), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.33), *maa://28440 (72.5), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (55.77), **maa://30050 (44.44)</t>
+          <t>*maa://23168 (55.77), **maa://30050 (42.11)</t>
         </is>
       </c>
       <c r="Q29" s="4" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="AE29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.44), ***maa://34960 (9.09)</t>
+          <t>*maa://24080 (68.25), ***maa://34960 (9.09)</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>maa://30442 (94.0)</t>
+          <t>maa://30442 (94.12)</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.42), *maa://36258 (79.45)</t>
+          <t>maa://35926 (93.42), maa://36258 (80.26)</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (100.0), maa://41238 (90.91)</t>
+          <t>maa://41108 (88.89), maa://41238 (93.33)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956 (78.74), maa://22730 (82.14)</t>
+          <t>*maa://21956 (78.91), maa://22730 (82.14)</t>
         </is>
       </c>
       <c r="Q33" s="4" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.0)</t>
+          <t>maa://41296 (96.15)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="AE38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.44)</t>
+          <t>maa://36697 (86.78)</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (86.92), maa://36670 (87.93), maa://30434 (88.89), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (86.11), maa://36670 (88.33), maa://30434 (88.89), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (96.19), maa://21386 (95.63), maa://36664 (91.89)</t>
+          <t>maa://23278 (96.19), maa://21386 (95.63), maa://36664 (92.11)</t>
         </is>
       </c>
       <c r="Q40" s="4" t="inlineStr">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.5), maa://21284 (82.93)</t>
+          <t>maa://22525 (92.56), maa://21284 (82.93)</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (85.88), maa://30807 (94.92), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
+          <t>maa://21229 (85.47), maa://30807 (94.92), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.27)</t>
+          <t>maa://35931 (92.34)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (95.79), maa://29661 (97.58), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.79), maa://29661 (97.6), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.1), **maa://32434 (36.36)</t>
+          <t>maa://32534 (93.16), **maa://32434 (36.36)</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.06)</t>
+          <t>maa://32532 (92.13)</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (97.67)</t>
+          <t>maa://25176 (97.73)</t>
         </is>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (62.5)</t>
+          <t>*maa://37964 (58.82)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -612,7 +612,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.1), maa://25390 (97.41), maa://36681 (91.94)</t>
+          <t>maa://24702 (94.1), maa://25390 (97.42), maa://36681 (92.06)</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (70.2), maa://20276 (82.35), *maa://22749 (62.5)</t>
+          <t>*maa://22880 (70.2), maa://20276 (82.48), *maa://22749 (62.5)</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (95.5), maa://26254 (95.24)</t>
+          <t>maa://21249 (95.57), maa://26254 (95.24)</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.9), ***maa://31785 (15.74), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (48.12), ***maa://31785 (15.74), ***maa://36683 (26.67)</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (99.19)</t>
+          <t>maa://24839 (99.2)</t>
         </is>
       </c>
       <c r="M6" s="4" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>*maa://22763 (64.0)</t>
+          <t>*maa://22763 (65.38)</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="AE7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (70.42), *maa://36671 (73.17)</t>
+          <t>*maa://26191 (69.44), *maa://36671 (73.81)</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (96.25)</t>
+          <t>maa://21411 (96.28)</t>
         </is>
       </c>
       <c r="Y8" s="4" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (96.84)</t>
+          <t>maa://26223 (96.88)</t>
         </is>
       </c>
       <c r="Y9" s="4" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.41), **maa://32237 (38.89), ***maa://34206 (14.29), ***maa://39951 (15.79), ***maa://39243 (25.0)</t>
+          <t>***maa://25695 (19.41), **maa://32237 (38.89), ***maa://34206 (14.29), ***maa://39951 (20.0), ***maa://39243 (25.0)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (97.24), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (97.26), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.67), *maa://21485 (76.56), maa://37962 (81.25)</t>
+          <t>maa://22753 (91.72), *maa://21485 (76.56), maa://37962 (81.25)</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AA12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.82), maa://36677 (94.74), maa://39872 (81.82)</t>
+          <t>maa://23669 (95.83), maa://36677 (94.74), maa://39872 (81.82)</t>
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.75), *maa://22583 (75.86), *maa://22500 (55.81)</t>
+          <t>maa://22676 (91.75), *maa://22583 (74.58), *maa://22500 (55.81)</t>
         </is>
       </c>
       <c r="Q13" s="4" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (79.49), *maa://22768 (53.33)</t>
+          <t>*maa://34957 (77.5), *maa://22768 (53.33)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.27), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.33), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.15), maa://36679 (93.33), maa://37650 (95.0)</t>
+          <t>maa://21441 (96.15), maa://36679 (93.33), maa://37650 (95.24)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="AA16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (96.0)</t>
+          <t>maa://26228 (96.05)</t>
         </is>
       </c>
       <c r="AC16" s="4" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.57), *maa://39599 (78.57)</t>
+          <t>maa://22430 (88.57), *maa://39599 (80.0)</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.34)</t>
+          <t>maa://24421 (90.38)</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.7)</t>
+          <t>maa://24386 (98.72)</t>
         </is>
       </c>
       <c r="U19" s="4" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.71)</t>
+          <t>maa://41331 (86.36)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.36), maa://34946 (90.32)</t>
+          <t>maa://20110 (86.57), maa://34946 (90.32)</t>
         </is>
       </c>
       <c r="Y21" s="4" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AA21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (78.64), ***maa://23820 (29.63)</t>
+          <t>*maa://21443 (78.7), ***maa://23820 (29.63)</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="AE21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.22), *maa://22432 (75.47)</t>
+          <t>maa://22524 (94.25), *maa://22432 (75.47)</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.79)</t>
+          <t>***maa://28036 (28.79), maa://41753 (100.0)</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (92.03), maa://39875 (94.74)</t>
+          <t>maa://39756 (92.14), maa://39875 (95.0)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (60.0)</t>
+          <t>*maa://28503 (60.71)</t>
         </is>
       </c>
       <c r="Y23" s="4" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368 (80.37)</t>
+          <t>maa://24368 (80.43)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>maa://23504 (93.02), maa://29988 (85.86), **maa://22892 (40.43), *maa://25141 (77.31), *maa://36663 (79.25), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (93.04), maa://29988 (85.86), **maa://22892 (40.43), *maa://25141 (76.86), *maa://36663 (79.25), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="AE24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (84.86), *maa://36672 (75.61), maa://29910 (95.74), **maa://21440 (34.55)</t>
+          <t>maa://22523 (84.86), *maa://36672 (75.61), maa://29910 (93.88), **maa://21440 (34.55)</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (77.95), *maa://25311 (74.73), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (77.34), *maa://25311 (74.73), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (49.32), maa://34494 (100.0), **maa://36665 (50.0), maa://39601 (100.0)</t>
+          <t>**maa://21283 (49.32), maa://34494 (100.0), **maa://36665 (44.44), maa://39601 (85.71)</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (77.14)</t>
+          <t>*maa://30624 (77.78)</t>
         </is>
       </c>
       <c r="U27" s="4" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (85.21), ***maa://39723 (15.15)</t>
+          <t>maa://39929 (85.71), ***maa://39723 (15.15), maa://41749 (100.0)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>maa://31694 (97.73)</t>
+          <t>maa://31694 (97.78)</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="AE29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.25), ***maa://34960 (9.09)</t>
+          <t>*maa://24080 (68.33), ***maa://34960 (9.09)</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (88.89), maa://41238 (93.33)</t>
+          <t>maa://41108 (91.67), maa://41238 (93.94)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.15)</t>
+          <t>maa://41296 (96.43)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="AE38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.78)</t>
+          <t>maa://36697 (86.18)</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (96.19), maa://21386 (95.63), maa://36664 (92.11)</t>
+          <t>maa://23278 (96.19), maa://21386 (95.63), maa://36664 (92.31)</t>
         </is>
       </c>
       <c r="Q40" s="4" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (34.78)</t>
+          <t>**maa://35616 (36.0)</t>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.47), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.49), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -946,7 +946,7 @@
       </c>
       <c r="AA4" s="2" t="inlineStr">
         <is>
-          <t>*maa://32658 (76.92)</t>
+          <t>*maa://32658 (71.43)</t>
         </is>
       </c>
       <c r="AC4" s="4" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919 (95.56), maa://21281 (91.67)</t>
+          <t>maa://21919 (95.56), maa://21281 (92.31)</t>
         </is>
       </c>
       <c r="Q5" s="4" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (92.86), maa://30381 (100.0)</t>
+          <t>maa://31836 (93.33), maa://30381 (100.0)</t>
         </is>
       </c>
       <c r="Q6" s="4" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>maa://22750 (96.88)</t>
+          <t>maa://22750 (96.97)</t>
         </is>
       </c>
       <c r="Q7" s="4" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (97.26), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (97.28), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="AE10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (56.52), *maa://22733 (58.62), maa://22761 (100.0)</t>
+          <t>*maa://25021 (55.71), *maa://22733 (58.62), maa://22761 (100.0)</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.5), **maa://22728 (47.62)</t>
+          <t>*maa://21248 (75.62), **maa://22728 (47.62)</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="AA14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (96.36)</t>
+          <t>maa://22764 (96.43)</t>
         </is>
       </c>
       <c r="AC14" s="4" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="AE15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.55), *maa://22766 (73.0), *maa://36666 (76.67)</t>
+          <t>maa://21364 (80.61), *maa://22766 (73.0), *maa://36666 (76.67)</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.57), *maa://39599 (80.0)</t>
+          <t>maa://22430 (88.57), maa://39599 (81.25)</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="AA18" s="2" t="inlineStr">
         <is>
-          <t>maa://24393 (100.0)</t>
+          <t>maa://24393 (97.14)</t>
         </is>
       </c>
       <c r="AC18" s="4" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.7), maa://25198 (93.62), **maa://20795 (49.18), maa://36680 (100.0)</t>
+          <t>maa://21432 (90.7), maa://25198 (93.62), **maa://20795 (49.59), maa://36680 (100.0)</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (86.36)</t>
+          <t>maa://41331 (86.96)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (87.36), *maa://22751 (77.05)</t>
+          <t>maa://27127 (86.36), *maa://22751 (77.05)</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (92.14), maa://39875 (95.0)</t>
+          <t>maa://39756 (92.2), maa://39875 (95.12)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (60.71)</t>
+          <t>*maa://28503 (61.4)</t>
         </is>
       </c>
       <c r="Y23" s="4" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.64), maa://22545 (100.0)</t>
+          <t>maa://20109 (92.68), maa://22545 (100.0)</t>
         </is>
       </c>
       <c r="U25" s="4" t="inlineStr">
@@ -3538,11 +3538,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C26" s="2" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
           <t>宴</t>
@@ -3859,7 +3855,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (85.71), ***maa://39723 (15.15), maa://41749 (100.0)</t>
+          <t>maa://39929 (85.8), ***maa://39723 (15.15), **maa://41749 (50.0)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3936,7 +3932,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.33), *maa://28440 (72.5), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.36), *maa://28440 (72.5), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -4332,7 +4328,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (91.67), maa://41238 (93.94)</t>
+          <t>maa://41108 (85.71), maa://41238 (94.12)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4623,7 +4619,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.43)</t>
+          <t>maa://41296 (96.55)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4936,7 +4932,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (86.11), maa://36670 (88.33), maa://30434 (88.89), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (86.11), maa://36670 (88.52), maa://30434 (88.89), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -5675,7 +5671,7 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (97.73)</t>
+          <t>maa://25176 (97.78)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (54.97), *maa://30515 (69.7), ***maa://20792 (11.93), *maa://34787 (72.13), maa://39402 (84.0), ***maa://29083 (29.41)</t>
+          <t>*maa://24633 (54.97), *maa://30515 (69.7), ***maa://20792 (11.93), *maa://34787 (72.13), maa://39402 (85.19), ***maa://29083 (29.41)</t>
         </is>
       </c>
       <c r="M2" s="4" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="AE2" s="2" t="inlineStr">
         <is>
-          <t>***maa://21730 (17.19), maa://25251 (92.0), ***maa://39501 (20.0), *maa://36675 (60.0)</t>
+          <t>***maa://21730 (17.19), maa://25251 (92.11), ***maa://39501 (20.0), *maa://36675 (60.0)</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="AE3" s="2" t="inlineStr">
         <is>
-          <t>*maa://21289 (72.22)</t>
+          <t>*maa://21289 (68.42)</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="AE4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (63.41), ***maa://26209 (13.04), *maa://39394 (70.0)</t>
+          <t>*maa://30062 (63.41), ***maa://26209 (13.04), *maa://39394 (75.0)</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="AA9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.65), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (50.0), maa://40166 (100.0)</t>
+          <t>maa://28711 (87.8), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), *maa://39938 (53.85), maa://40166 (100.0)</t>
         </is>
       </c>
       <c r="AC9" s="4" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.78)</t>
+          <t>maa://36713 (97.79)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (92.11)</t>
+          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (92.5)</t>
         </is>
       </c>
       <c r="M14" s="4" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.45), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.46), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="4" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="AE15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.61), *maa://22766 (73.0), *maa://36666 (76.67)</t>
+          <t>maa://21364 (80.61), *maa://22766 (73.0), *maa://36666 (77.05)</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.43)</t>
+          <t>maa://24570 (96.45)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="AA19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (60.16), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (60.27), *maa://36668 (52.17)</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (86.96)</t>
+          <t>maa://41331 (87.5)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AA21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (78.7), ***maa://23820 (29.63)</t>
+          <t>*maa://21443 (78.77), ***maa://23820 (29.63)</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (92.2), maa://39875 (95.12)</t>
+          <t>maa://39756 (92.31), maa://39875 (95.24)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.62), *maa://29748 (74.8), ***maa://29785 (15.15), *maa://37566 (76.47)</t>
+          <t>maa://30587 (91.62), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (76.47)</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>maa://23504 (93.04), maa://29988 (85.86), **maa://22892 (40.43), *maa://25141 (76.86), *maa://36663 (79.25), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (93.04), maa://29988 (85.86), **maa://22892 (40.43), *maa://25141 (76.86), *maa://36663 (79.63), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.07)</t>
+          <t>maa://29753 (95.11)</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (77.34), *maa://25311 (74.73), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (76.74), *maa://25311 (74.73), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AE26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (83.87), *maa://29760 (54.55)</t>
+          <t>maa://30511 (83.87), *maa://29760 (61.54)</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (49.32), maa://34494 (100.0), **maa://36665 (44.44), maa://39601 (85.71)</t>
+          <t>**maa://21283 (48.65), maa://34494 (100.0), **maa://36665 (44.44), maa://39601 (85.71)</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.3), maa://25725 (81.82)</t>
+          <t>maa://24465 (90.32), maa://25725 (81.82)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (85.8), ***maa://39723 (15.15), **maa://41749 (50.0)</t>
+          <t>maa://39929 (85.8), ***maa://39723 (15.15), *maa://41749 (80.0)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AE28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (94.02), *maa://36701 (64.0)</t>
+          <t>maa://36660 (94.05), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.36), *maa://28440 (72.5), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.38), *maa://28440 (72.5), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.42), maa://36258 (80.26)</t>
+          <t>maa://35926 (93.45), maa://36258 (80.26)</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (85.71), maa://41238 (94.12)</t>
+          <t>maa://41108 (88.24), maa://41238 (94.12)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.34)</t>
+          <t>maa://35931 (92.38)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (95.79), maa://29661 (97.6), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.79), maa://29661 (97.64), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.13)</t>
+          <t>maa://32532 (92.17)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.41), **maa://32237 (38.89), ***maa://34206 (14.29), ***maa://39951 (20.0), ***maa://39243 (25.0)</t>
+          <t>***maa://25695 (19.41), **maa://32237 (38.89), ***maa://34206 (14.29), ***maa://39951 (19.05), ***maa://39243 (25.0)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (94.96), maa://22501 (98.08)</t>
+          <t>maa://22747 (95.0), maa://22501 (98.08)</t>
         </is>
       </c>
       <c r="U11" s="4" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.79)</t>
+          <t>maa://36713 (97.8)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>maa://30766 (88.46), **maa://36678 (50.0)</t>
+          <t>maa://30766 (88.89), **maa://36678 (50.0)</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AA12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.83), maa://36677 (94.74), maa://39872 (81.82)</t>
+          <t>maa://23669 (95.83), maa://36677 (94.74), maa://39872 (83.33)</t>
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.62), **maa://22728 (47.62)</t>
+          <t>*maa://21248 (75.74), **maa://22728 (47.62)</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (77.5), *maa://22768 (53.33)</t>
+          <t>*maa://34957 (78.05), *maa://22768 (53.33)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>maa://30764 (85.0)</t>
+          <t>maa://30764 (85.37)</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.14), *maa://28648 (69.09), *maa://36674 (76.0)</t>
+          <t>maa://22729 (95.14), *maa://28648 (69.09), *maa://36674 (76.92)</t>
         </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>*maa://21624 (80.0)</t>
+          <t>maa://21624 (80.65)</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.57), maa://39599 (81.25)</t>
+          <t>maa://22430 (88.57), maa://39599 (82.35)</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.38)</t>
+          <t>maa://24421 (90.43)</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="AA19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (60.27), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (60.38), *maa://36668 (52.17)</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (87.5)</t>
+          <t>maa://41331 (88.0)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>maa://37442 (96.3)</t>
+          <t>maa://37442 (96.43)</t>
         </is>
       </c>
       <c r="Q20" s="4" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AA21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (78.77), ***maa://23820 (29.63)</t>
+          <t>*maa://21443 (78.83), ***maa://23820 (29.63)</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="AE21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.25), *maa://22432 (75.47)</t>
+          <t>maa://22524 (94.25), *maa://22432 (74.07)</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (92.31), maa://39875 (95.24)</t>
+          <t>maa://39756 (91.67), maa://39875 (95.45)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.62), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (76.47)</t>
+          <t>maa://30587 (91.62), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (77.78)</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368 (80.43)</t>
+          <t>maa://24368 (80.5)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -3535,10 +3535,14 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>maa://41802 (100.0)</t>
+        </is>
+      </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
           <t>宴</t>
@@ -3780,7 +3784,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.32), maa://25725 (81.82)</t>
+          <t>maa://24465 (90.32), maa://25725 (82.05)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3810,7 +3814,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>*maa://30770 (77.5)</t>
+          <t>*maa://30770 (78.05)</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
@@ -3855,7 +3859,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (85.8), ***maa://39723 (15.15), *maa://41749 (80.0)</t>
+          <t>maa://39929 (85.96), ***maa://39723 (15.15), *maa://41749 (66.67)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3885,7 +3889,7 @@
       </c>
       <c r="AE28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (94.05), *maa://36701 (64.0)</t>
+          <t>maa://36660 (94.07), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3906,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>maa://31694 (97.78)</t>
+          <t>maa://31694 (97.87)</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -3932,7 +3936,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.38), *maa://28440 (72.5), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.4), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -4054,7 +4058,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>maa://30442 (94.12)</t>
+          <t>maa://30442 (94.23)</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
@@ -4176,7 +4180,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.45), maa://36258 (80.26)</t>
+          <t>maa://35926 (93.48), maa://36258 (80.26)</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -4328,7 +4332,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (88.24), maa://41238 (94.12)</t>
+          <t>maa://41108 (89.47), maa://41238 (94.12)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4619,7 +4623,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.55)</t>
+          <t>maa://41296 (96.77)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4696,7 +4700,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>maa://24375 (92.11)</t>
+          <t>maa://24375 (92.31)</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
@@ -4932,7 +4936,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (86.11), maa://36670 (88.52), maa://30434 (88.89), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (86.11), maa://36670 (88.71), maa://30434 (88.89), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -5076,7 +5080,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>maa://24466 (94.74)</t>
+          <t>maa://24466 (94.87)</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
@@ -5287,7 +5291,7 @@
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>*maa://36237 (60.0)</t>
+          <t>*maa://36237 (54.55)</t>
         </is>
       </c>
       <c r="Q45" s="4" t="inlineStr">
@@ -5322,7 +5326,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.38)</t>
+          <t>maa://35931 (92.41)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5539,7 +5543,7 @@
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>*maa://30769 (76.92)</t>
+          <t>*maa://30769 (78.57)</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
@@ -5603,7 +5607,7 @@
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.16), **maa://32434 (36.36)</t>
+          <t>maa://32534 (93.18), **maa://32434 (36.36)</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5641,7 @@
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.17)</t>
+          <t>maa://32532 (92.24)</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5692,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (58.82)</t>
+          <t>*maa://37964 (61.11)</t>
         </is>
       </c>
     </row>
@@ -5722,7 +5726,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (55.56)</t>
+          <t>**maa://40438 (45.45)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -612,7 +612,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.1), maa://25390 (97.42), maa://36681 (92.06)</t>
+          <t>maa://24702 (94.1), maa://25390 (97.42), maa://36681 (92.19)</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="AE2" s="2" t="inlineStr">
         <is>
-          <t>***maa://21730 (17.19), maa://25251 (92.11), ***maa://39501 (20.0), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.21), ***maa://21730 (17.19), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (95.57), maa://26254 (95.24)</t>
+          <t>maa://21249 (95.1), maa://26254 (95.24)</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="W3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.81), maa://27484 (95.6), maa://27480 (82.35)</t>
+          <t>maa://27396 (84.81), maa://27484 (95.65), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="4" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="AA3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (95.83)</t>
+          <t>maa://24390 (96.0)</t>
         </is>
       </c>
       <c r="AC3" s="4" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (98.72), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (98.73), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.12), ***maa://31785 (15.74), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (48.13), ***maa://31785 (16.51), ***maa://36683 (26.67)</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="AE4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (63.41), ***maa://26209 (13.04), *maa://39394 (75.0)</t>
+          <t>*maa://30062 (63.41), ***maa://26209 (13.04), *maa://39394 (76.92)</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.54), maa://22744 (82.61)</t>
+          <t>maa://21245 (82.63), maa://22744 (83.33)</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="AA5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (73.08), ***maa://22752 (13.33), **maa://26013 (33.33)</t>
+          <t>*maa://29863 (74.07), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
         </is>
       </c>
       <c r="AC5" s="4" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="AE6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (56.67), ***maa://22770 (28.57)</t>
+          <t>*maa://33152 (58.06), ***maa://22770 (28.57)</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.62), *maa://22758 (71.43)</t>
+          <t>maa://22399 (94.62), *maa://22758 (72.0)</t>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (68.29), ***maa://39431 (25.0), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (69.05), ***maa://39431 (25.0), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.41), **maa://32237 (38.89), ***maa://34206 (14.29), ***maa://39951 (19.05), ***maa://39243 (25.0)</t>
+          <t>***maa://25695 (19.3), **maa://32237 (38.89), ***maa://34206 (14.29), ***maa://39951 (18.18), **maa://39243 (40.0)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (97.28), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.62), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.33), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.35), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="4" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="AE10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (55.71), *maa://22733 (58.62), maa://22761 (100.0)</t>
+          <t>*maa://25021 (56.34), *maa://22733 (58.62), maa://22761 (100.0)</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (95.0), maa://22501 (98.08)</t>
+          <t>maa://22747 (94.33), maa://22501 (98.11)</t>
         </is>
       </c>
       <c r="U11" s="4" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.8)</t>
+          <t>maa://36713 (97.81)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AA12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.83), maa://36677 (94.74), maa://39872 (83.33)</t>
+          <t>maa://23669 (95.83), maa://36677 (94.87), maa://39872 (83.33)</t>
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="AE12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.26), *maa://20106 (63.64), *maa://22769 (62.96)</t>
+          <t>*maa://28932 (78.45), *maa://20106 (63.64), *maa://22769 (62.96)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.36), maa://36673 (91.8), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.37), maa://36673 (91.8), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.74), **maa://22728 (47.62)</t>
+          <t>*maa://21248 (75.49), **maa://22728 (47.62)</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (78.05), *maa://22768 (53.33)</t>
+          <t>*maa://34957 (78.57), *maa://22768 (53.33)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.46), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.47), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="4" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>*maa://22471 (59.7), maa://22521 (95.4)</t>
+          <t>*maa://22471 (59.42), maa://22521 (94.38)</t>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.33), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.4), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>maa://23892 (98.61)</t>
+          <t>maa://23892 (98.63)</t>
         </is>
       </c>
       <c r="U15" s="4" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.15), maa://36679 (93.33), maa://37650 (95.24)</t>
+          <t>maa://21441 (96.15), maa://36679 (93.55), maa://37650 (95.45)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>maa://28504 (91.3)</t>
+          <t>maa://28504 (91.49)</t>
         </is>
       </c>
       <c r="Q16" s="4" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.37), maa://28051 (95.83)</t>
+          <t>maa://28501 (97.4), maa://28051 (95.83)</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="AA16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (96.05)</t>
+          <t>maa://26228 (96.15)</t>
         </is>
       </c>
       <c r="AC16" s="4" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="AE16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (61.54), maa://27755 (91.55)</t>
+          <t>*maa://23911 (61.54), maa://27755 (91.67)</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>maa://21624 (80.65)</t>
+          <t>maa://21624 (81.25)</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.57), maa://39599 (82.35)</t>
+          <t>maa://22430 (88.57), maa://39599 (83.33)</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.45)</t>
+          <t>maa://24570 (96.47)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.43)</t>
+          <t>maa://24421 (90.48)</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.4), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.47), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="4" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.72)</t>
+          <t>maa://24386 (98.73)</t>
         </is>
       </c>
       <c r="U19" s="4" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="AA19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (60.38), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (60.48), *maa://36668 (52.17)</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.28)</t>
+          <t>maa://22864 (88.37)</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (88.0)</t>
+          <t>maa://41331 (89.29)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AA21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (78.83), ***maa://23820 (29.63)</t>
+          <t>*maa://21443 (78.9), **maa://23820 (30.91)</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.8), *maa://37649 (64.71)</t>
+          <t>maa://21282 (98.81), *maa://37649 (64.71)</t>
         </is>
       </c>
       <c r="Y22" s="4" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="AE22" s="2" t="inlineStr">
         <is>
-          <t>maa://29658 (94.44)</t>
+          <t>maa://29658 (94.59)</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (91.67), maa://39875 (95.45)</t>
+          <t>maa://39756 (91.95), maa://39875 (95.56)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (61.4)</t>
+          <t>*maa://28503 (62.07)</t>
         </is>
       </c>
       <c r="Y23" s="4" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="AA23" s="2" t="inlineStr">
         <is>
-          <t>maa://29652 (97.22)</t>
+          <t>maa://29652 (97.3)</t>
         </is>
       </c>
       <c r="AC23" s="4" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368 (80.5)</t>
+          <t>maa://24368 (80.56)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>maa://23504 (93.04), maa://29988 (85.86), **maa://22892 (40.43), *maa://25141 (76.86), *maa://36663 (79.63), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (93.08), maa://29988 (85.93), **maa://22892 (40.43), *maa://25141 (76.86), *maa://36663 (79.63), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="AE24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (84.86), *maa://36672 (75.61), maa://29910 (93.88), **maa://21440 (34.55)</t>
+          <t>maa://22523 (84.86), *maa://36672 (76.19), maa://29910 (93.88), **maa://21440 (34.55)</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (76.74), *maa://25311 (74.73), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (76.15), *maa://25311 (73.91), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>maa://24378 (88.24)</t>
+          <t>maa://24378 (88.57)</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="AA25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.9), *maa://24516 (80.0), maa://26001 (88.89)</t>
+          <t>maa://31215 (83.75), *maa://24516 (79.07), maa://26001 (88.89)</t>
         </is>
       </c>
       <c r="AC25" s="4" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>maa://24389 (95.83)</t>
+          <t>maa://24389 (96.0)</t>
         </is>
       </c>
       <c r="Y26" s="4" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (100.0), **maa://36665 (44.44), maa://39601 (85.71)</t>
+          <t>**maa://21283 (48.65), maa://34494 (100.0), **maa://36665 (44.44), maa://39601 (87.5)</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (77.78)</t>
+          <t>*maa://30624 (75.68)</t>
         </is>
       </c>
       <c r="U27" s="4" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>*maa://30770 (78.05)</t>
+          <t>*maa://30770 (78.57)</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (85.96), ***maa://39723 (15.15), *maa://41749 (66.67)</t>
+          <t>maa://39929 (85.56), ***maa://39723 (15.15), maa://41749 (81.82)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="AE28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (94.07), *maa://36701 (64.0)</t>
+          <t>maa://36660 (94.09), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.4), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.43), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="AE29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.33), ***maa://34960 (9.09)</t>
+          <t>*maa://24080 (68.78), ***maa://34960 (9.09)</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>*maa://32940 (75.0), maa://24388 (93.75)</t>
+          <t>*maa://32940 (66.67), maa://24388 (93.75)</t>
         </is>
       </c>
       <c r="U30" s="4" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>*maa://39477 (60.0)</t>
+          <t>*maa://39477 (71.43)</t>
         </is>
       </c>
       <c r="Y30" s="4" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.01), maa://36667 (97.92), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.01), maa://36667 (98.0), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>maa://28065 (97.22)</t>
+          <t>maa://28065 (94.59)</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (89.47), maa://41238 (94.12)</t>
+          <t>maa://41108 (87.5), maa://41238 (94.12)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.04)</t>
+          <t>maa://24526 (93.07)</t>
         </is>
       </c>
       <c r="Y34" s="4" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="AE34" s="2" t="inlineStr">
         <is>
-          <t>*maa://32650 (66.67)</t>
+          <t>*maa://32650 (69.23)</t>
         </is>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.77)</t>
+          <t>maa://41296 (97.3)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>maa://24842 (93.75)</t>
+          <t>maa://24842 (93.88)</t>
         </is>
       </c>
       <c r="Y35" s="4" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="AE35" s="2" t="inlineStr">
         <is>
-          <t>maa://39479 (85.71)</t>
+          <t>maa://39479 (88.89)</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>maa://27613 (98.94)</t>
+          <t>maa://27613 (98.96)</t>
         </is>
       </c>
       <c r="AC36" s="4" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.62), *maa://21239 (72.73)</t>
+          <t>maa://21280 (89.13), *maa://21239 (72.73)</t>
         </is>
       </c>
       <c r="Q37" s="4" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>***maa://39354 (25.0)</t>
+          <t>**maa://39354 (40.0)</t>
         </is>
       </c>
       <c r="AC37" s="4" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="AE38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.18)</t>
+          <t>maa://36697 (85.6)</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (86.11), maa://36670 (88.71), maa://30434 (88.89), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (86.11), maa://36670 (89.23), maa://30434 (88.89), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.84)</t>
+          <t>maa://24709 (91.92)</t>
         </is>
       </c>
       <c r="Q39" s="4" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (36.0)</t>
+          <t>**maa://35616 (34.62)</t>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (89.47)</t>
+          <t>maa://39366 (90.48)</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>*maa://39364 (66.67)</t>
+          <t>*maa://39364 (57.14)</t>
         </is>
       </c>
     </row>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.41)</t>
+          <t>maa://35931 (92.44)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>maa://39643 (83.33)</t>
+          <t>*maa://39643 (71.43)</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.24)</t>
+          <t>maa://32532 (92.27)</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (97.78)</t>
+          <t>maa://25176 (97.83)</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (84.0), maa://31270 (96.91)</t>
+          <t>maa://27746 (84.0), maa://31270 (96.94)</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>**maa://40438 (45.45)</t>
+          <t>**maa://40438 (42.86)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -764,7 +764,7 @@
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (70.2), maa://20276 (82.48), *maa://22749 (62.5)</t>
+          <t>*maa://22880 (70.2), maa://20276 (82.73), *maa://22749 (62.5)</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.24), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
+          <t>maa://24617 (88.35), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
         </is>
       </c>
       <c r="U3" s="4" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.13), ***maa://31785 (16.51), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (47.93), ***maa://31785 (16.51), ***maa://36683 (26.67)</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>maa://24370 (96.08)</t>
+          <t>maa://24370 (96.15)</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.62), *maa://22758 (72.0)</t>
+          <t>maa://22399 (94.62), *maa://22758 (70.59)</t>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.3), **maa://32237 (38.89), ***maa://34206 (14.29), ***maa://39951 (18.18), **maa://39243 (40.0)</t>
+          <t>***maa://25695 (19.3), **maa://32237 (37.84), ***maa://34206 (14.29), ***maa://39951 (21.74), **maa://39243 (40.0)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.62), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.64), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.35), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.37), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="4" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.81)</t>
+          <t>maa://36713 (97.82)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.72), *maa://21485 (76.56), maa://37962 (81.25)</t>
+          <t>maa://22753 (91.84), *maa://21485 (76.56), maa://37962 (81.25)</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.37), maa://36673 (91.8), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.38), maa://36673 (91.8), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (78.57), *maa://22768 (53.33)</t>
+          <t>*maa://34957 (76.74), *maa://22768 (53.33)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.05), maa://22734 (83.33), *maa://30808 (63.64), ***maa://36048 (13.33)</t>
+          <t>*maa://22743 (76.19), maa://22734 (83.33), *maa://30808 (63.64), ***maa://36048 (13.33)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.14), *maa://28648 (69.09), *maa://36674 (76.92)</t>
+          <t>maa://22729 (95.17), *maa://28648 (69.09), *maa://36674 (76.92)</t>
         </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="AE16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (61.54), maa://27755 (91.67)</t>
+          <t>*maa://23911 (61.54), maa://27755 (91.78)</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.28), *maa://22732 (52.5)</t>
+          <t>maa://22466 (88.37), *maa://22732 (52.5)</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="AE21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.25), *maa://22432 (74.07)</t>
+          <t>maa://22524 (94.29), *maa://22432 (74.07)</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.81), *maa://37649 (64.71)</t>
+          <t>maa://21282 (98.82), *maa://37649 (64.71)</t>
         </is>
       </c>
       <c r="Y22" s="4" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (91.95), maa://39875 (95.56)</t>
+          <t>maa://39756 (92.0), maa://39875 (95.56)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>maa://23504 (93.08), maa://29988 (85.93), **maa://22892 (40.43), *maa://25141 (76.86), *maa://36663 (79.63), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (93.1), maa://29988 (85.93), **maa://22892 (40.14), *maa://25141 (76.86), *maa://36663 (80.0), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (85.56), ***maa://39723 (15.15), maa://41749 (81.82)</t>
+          <t>maa://39929 (85.79), ***maa://39723 (15.15), maa://41749 (81.82)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.43), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.45), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (55.77), **maa://30050 (42.11)</t>
+          <t>*maa://23168 (55.77), **maa://30050 (40.0)</t>
         </is>
       </c>
       <c r="Q29" s="4" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.48), maa://36258 (80.26)</t>
+          <t>maa://35926 (93.48), maa://36258 (80.52)</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://41238 (94.12)</t>
+          <t>maa://41108 (88.0), maa://41238 (94.12)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (97.3)</t>
+          <t>maa://41296 (97.37)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.49), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.5), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>**maa://40438 (42.86)</t>
+          <t>**maa://40438 (40.0)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF72"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="AE2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.21), ***maa://21730 (17.19), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.41), ***maa://21730 (17.19), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (70.2), maa://20276 (82.48), *maa://22749 (62.5)</t>
+          <t>*maa://22880 (70.2), maa://20276 (82.73), *maa://22749 (62.5)</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (95.1), maa://26254 (95.24)</t>
+          <t>maa://21249 (95.12), maa://26254 (95.24)</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.24), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
+          <t>maa://24617 (88.35), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
         </is>
       </c>
       <c r="U3" s="4" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="W3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.81), maa://27484 (95.65), maa://27480 (82.35)</t>
+          <t>maa://27396 (84.81), maa://27484 (95.74), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="4" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.13), ***maa://31785 (16.51), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (47.93), ***maa://31785 (16.51), ***maa://36683 (26.67)</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="AE4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (63.41), ***maa://26209 (13.04), *maa://39394 (76.92)</t>
+          <t>*maa://30062 (61.9), ***maa://26209 (13.04), *maa://39394 (78.57)</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="AA5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (74.07), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
+          <t>*maa://29863 (75.0), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
         </is>
       </c>
       <c r="AC5" s="4" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>maa://24370 (96.08)</t>
+          <t>maa://24370 (96.15)</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>*maa://22763 (65.38)</t>
+          <t>*maa://22763 (66.67)</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.62), *maa://22758 (72.0)</t>
+          <t>maa://22399 (94.62), *maa://22758 (70.59)</t>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="AE7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (69.44), *maa://36671 (73.81)</t>
+          <t>*maa://26191 (68.49), *maa://36671 (72.09)</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (69.05), ***maa://39431 (25.0), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (69.77), ***maa://39431 (25.0), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (96.28)</t>
+          <t>maa://21411 (96.31)</t>
         </is>
       </c>
       <c r="Y8" s="4" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="AE9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (90.0), **maa://22865 (45.65)</t>
+          <t>maa://26206 (88.89), **maa://22865 (45.65)</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.3), **maa://32237 (38.89), ***maa://34206 (14.29), ***maa://39951 (18.18), **maa://39243 (40.0)</t>
+          <t>***maa://25695 (19.3), **maa://32237 (37.84), ***maa://34206 (14.29), ***maa://39951 (21.74), **maa://39243 (40.0)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.62), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.64), maa://22755 (87.62), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.35), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.38), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="4" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (87.21)</t>
+          <t>maa://21287 (87.36)</t>
         </is>
       </c>
       <c r="M11" s="4" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.81)</t>
+          <t>maa://36713 (97.83)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.86)</t>
+          <t>maa://21867 (89.93)</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.72), *maa://21485 (76.56), maa://37962 (81.25)</t>
+          <t>maa://22753 (91.84), *maa://21485 (76.56), maa://37962 (81.25)</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AA12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.83), maa://36677 (94.87), maa://39872 (83.33)</t>
+          <t>maa://23669 (95.86), maa://36677 (94.87), maa://39872 (83.33)</t>
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.37), maa://36673 (91.8), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.41), maa://36673 (91.8), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (78.57), *maa://22768 (53.33)</t>
+          <t>*maa://34957 (75.0), *maa://22768 (53.33)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>maa://30764 (85.37)</t>
+          <t>maa://30764 (85.71)</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>*maa://22471 (59.42), maa://22521 (94.38)</t>
+          <t>*maa://22471 (59.42), maa://22521 (94.44)</t>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.05), maa://22734 (83.33), *maa://30808 (63.64), ***maa://36048 (13.33)</t>
+          <t>*maa://22743 (76.19), maa://22734 (83.33), *maa://30808 (63.64), ***maa://36048 (13.33)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.15), maa://36679 (93.55), maa://37650 (95.45)</t>
+          <t>maa://21441 (96.17), maa://36679 (93.55), maa://37650 (95.45)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.14), *maa://28648 (69.09), *maa://36674 (76.92)</t>
+          <t>maa://22729 (95.17), *maa://28648 (69.09), *maa://36674 (78.57)</t>
         </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="AE16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (61.54), maa://27755 (91.67)</t>
+          <t>*maa://23911 (61.54), maa://27755 (91.78)</t>
         </is>
       </c>
     </row>
@@ -2497,12 +2497,12 @@
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U17" s="4" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.47)</t>
+          <t>maa://24570 (96.49)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.28), *maa://22732 (52.5)</t>
+          <t>maa://22466 (88.37), *maa://22732 (52.5)</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.73)</t>
+          <t>maa://24386 (98.75)</t>
         </is>
       </c>
       <c r="U19" s="4" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (89.29)</t>
+          <t>maa://41331 (90.32)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="AE21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.25), *maa://22432 (74.07)</t>
+          <t>maa://22524 (94.29), *maa://22432 (74.07)</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.81), *maa://37649 (64.71)</t>
+          <t>maa://21282 (98.82), *maa://37649 (64.71)</t>
         </is>
       </c>
       <c r="Y22" s="4" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (91.95), maa://39875 (95.56)</t>
+          <t>maa://39756 (92.11), maa://39875 (95.56)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>maa://23504 (93.08), maa://29988 (85.93), **maa://22892 (40.43), *maa://25141 (76.86), *maa://36663 (79.63), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (92.86), maa://29988 (86.0), **maa://22892 (40.14), *maa://25141 (76.86), *maa://36663 (80.0), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="AE24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (84.86), *maa://36672 (76.19), maa://29910 (93.88), **maa://21440 (34.55)</t>
+          <t>maa://22523 (84.86), *maa://36672 (76.74), maa://29910 (93.88), **maa://21440 (34.55)</t>
         </is>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>maa://24378 (88.57)</t>
+          <t>maa://24378 (88.89)</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>maa://24382 (91.67)</t>
+          <t>maa://24382 (92.0)</t>
         </is>
       </c>
       <c r="Q25" s="4" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (90.91)</t>
+          <t>maa://24913 (91.04)</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
@@ -3625,12 +3625,12 @@
       </c>
       <c r="Z26" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA26" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.32), maa://25725 (82.05)</t>
+          <t>maa://24465 (90.32), maa://25725 (82.28)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.19), *maa://29765 (62.12)</t>
+          <t>maa://23263 (94.25), *maa://29765 (62.12)</t>
         </is>
       </c>
       <c r="U28" s="4" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (85.56), ***maa://39723 (15.15), maa://41749 (81.82)</t>
+          <t>maa://39929 (86.02), ***maa://39723 (14.71), maa://41749 (85.71)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="AE28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (94.09), *maa://36701 (64.0)</t>
+          <t>maa://36660 (93.75), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.43), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.47), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (55.77), **maa://30050 (42.11)</t>
+          <t>*maa://23168 (55.77), **maa://30050 (40.0)</t>
         </is>
       </c>
       <c r="Q29" s="4" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.48), maa://36258 (80.26)</t>
+          <t>maa://35926 (93.53), maa://36258 (80.52)</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.01), maa://36667 (98.0), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.01), maa://36667 (98.04), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://41238 (94.12)</t>
+          <t>maa://41108 (88.89), maa://41238 (94.12)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (97.3)</t>
+          <t>maa://41296 (97.5)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="AE35" s="2" t="inlineStr">
         <is>
-          <t>maa://39479 (88.89)</t>
+          <t>maa://39479 (90.0)</t>
         </is>
       </c>
     </row>
@@ -4710,12 +4710,12 @@
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
@@ -4746,6 +4746,21 @@
       <c r="S36" s="2" t="inlineStr">
         <is>
           <t>maa://27613 (98.96)</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>凯瑟琳</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="AC36" s="4" t="inlineStr">
@@ -4825,6 +4840,21 @@
           <t>**maa://39354 (40.0)</t>
         </is>
       </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>波卜</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AC37" s="4" t="inlineStr">
         <is>
           <t>艾拉</t>
@@ -4919,7 +4949,7 @@
       </c>
       <c r="AE38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.6)</t>
+          <t>maa://36697 (85.71)</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5078,7 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (96.19), maa://21386 (95.63), maa://36664 (92.31)</t>
+          <t>maa://23278 (96.21), maa://21386 (95.63), maa://36664 (92.31)</t>
         </is>
       </c>
       <c r="Q40" s="4" t="inlineStr">
@@ -5226,7 +5256,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.49), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.51), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
@@ -5256,7 +5286,7 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (90.48)</t>
+          <t>maa://39366 (86.36)</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5336,7 @@
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>*maa://39364 (57.14)</t>
+          <t>*maa://39364 (62.5)</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5756,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>**maa://40438 (42.86)</t>
+          <t>**maa://40438 (37.5)</t>
         </is>
       </c>
     </row>
@@ -5929,6 +5959,23 @@
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>维娜·维多利亚</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -705,7 +705,7 @@
       </c>
       <c r="AA2" s="5" t="inlineStr">
         <is>
-          <t>maa://21246 (91.2), maa://36684 (100.0), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.2), maa://36684 (98.57), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="4" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="AE2" s="5" t="inlineStr">
         <is>
-          <t>maa://25251 (92.41), ***maa://21730 (17.19), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.41), ***maa://21730 (17.19), ***maa://39501 (25.0), *maa://36675 (60.0)</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>*maa://22880 (70.2), maa://20276 (82.73), *maa://22749 (62.5)</t>
+          <t>*maa://22880 (69.74), maa://20276 (82.73), *maa://22749 (62.5)</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.93), ***maa://31785 (16.51), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (47.93), ***maa://31785 (18.02), ***maa://36683 (26.67)</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="AA4" s="5" t="inlineStr">
         <is>
-          <t>*maa://32658 (71.43)</t>
+          <t>*maa://32658 (73.33)</t>
         </is>
       </c>
       <c r="AC4" s="4" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>**maa://42407 (50.0)</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="AA6" s="5" t="inlineStr">
         <is>
-          <t>maa://22739 (91.11)</t>
+          <t>maa://22739 (91.3)</t>
         </is>
       </c>
       <c r="AC6" s="4" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AE6" s="5" t="inlineStr">
         <is>
-          <t>*maa://33152 (58.06), ***maa://22770 (28.57)</t>
+          <t>*maa://33152 (59.38), ***maa://22770 (28.57)</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>maa://28624 (91.3), maa://24957 (97.3)</t>
+          <t>maa://28624 (91.3), maa://24957 (97.37)</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="S7" s="5" t="inlineStr">
         <is>
-          <t>maa://21291 (88.89)</t>
+          <t>maa://21291 (89.19)</t>
         </is>
       </c>
       <c r="U7" s="4" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>*maa://21476 (69.77), ***maa://39431 (25.0), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (69.77), **maa://39431 (40.0), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>maa://32931 (88.31), *maa://21916 (60.34), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
+          <t>maa://32931 (88.46), *maa://21916 (60.34), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
         </is>
       </c>
       <c r="Q8" s="4" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>maa://21411 (95.99)</t>
+          <t>maa://21411 (96.0)</t>
         </is>
       </c>
       <c r="Y8" s="4" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="AE8" s="5" t="inlineStr">
         <is>
-          <t>*maa://24479 (76.06), *maa://21990 (53.85)</t>
+          <t>*maa://24479 (76.39), *maa://21990 (53.85)</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>maa://22762 (91.57), **maa://39552 (50.0)</t>
+          <t>maa://22762 (91.57), *maa://39552 (66.67)</t>
         </is>
       </c>
       <c r="M9" s="4" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="W9" s="5" t="inlineStr">
         <is>
-          <t>maa://26223 (96.88)</t>
+          <t>maa://26223 (96.91)</t>
         </is>
       </c>
       <c r="Y9" s="4" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AA9" s="5" t="inlineStr">
         <is>
-          <t>maa://28711 (87.8), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (50.0), maa://40166 (100.0)</t>
+          <t>maa://28711 (87.95), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (50.0), maa://40166 (100.0)</t>
         </is>
       </c>
       <c r="AC9" s="4" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="O10" s="5" t="inlineStr">
         <is>
-          <t>maa://28977 (94.67), *maa://23264 (62.96), maa://36669 (90.91)</t>
+          <t>maa://28977 (94.67), *maa://23264 (62.96), maa://36669 (91.3)</t>
         </is>
       </c>
       <c r="Q10" s="4" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>maa://27395 (96.64), maa://22755 (87.62), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.67), maa://22755 (87.62), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="W10" s="5" t="inlineStr">
         <is>
-          <t>maa://22301 (97.38), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.4), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="4" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="S11" s="5" t="inlineStr">
         <is>
-          <t>maa://22747 (94.33), maa://22501 (98.11)</t>
+          <t>maa://22747 (94.33), maa://22501 (98.15)</t>
         </is>
       </c>
       <c r="U11" s="4" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="AA12" s="5" t="inlineStr">
         <is>
-          <t>maa://23669 (95.86), maa://36677 (94.87), maa://39872 (83.33)</t>
+          <t>maa://23669 (95.86), maa://36677 (94.87), maa://39872 (84.62)</t>
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="AE12" s="5" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.45), *maa://20106 (63.64), *maa://22769 (62.96)</t>
+          <t>*maa://28932 (78.63), *maa://20106 (63.64), *maa://22769 (62.96)</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>maa://24999 (91.41), maa://36673 (91.8), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.42), maa://36673 (91.8), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.49), **maa://22728 (47.62)</t>
+          <t>*maa://21248 (75.61), **maa://22728 (47.62)</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="O13" s="5" t="inlineStr">
         <is>
-          <t>maa://22676 (91.75), *maa://22583 (74.58), *maa://22500 (55.81)</t>
+          <t>maa://22676 (91.84), *maa://22583 (75.0), *maa://22500 (55.81)</t>
         </is>
       </c>
       <c r="Q13" s="4" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>maa://30764 (85.71)</t>
+          <t>maa://30764 (86.05)</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AE15" s="5" t="inlineStr">
         <is>
-          <t>maa://21364 (80.61), *maa://22766 (73.0), *maa://36666 (77.05)</t>
+          <t>maa://21364 (80.61), *maa://22766 (73.0), *maa://36666 (77.42)</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>maa://21441 (96.17), maa://36679 (93.55), maa://37650 (95.45)</t>
+          <t>maa://21441 (96.17), maa://36679 (93.75), maa://37650 (95.45)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>maa://22729 (95.17), *maa://28648 (69.09), *maa://36674 (78.57)</t>
+          <t>maa://22729 (95.17), *maa://28648 (69.09), *maa://36674 (79.31)</t>
         </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>maa://22430 (88.57), maa://39599 (83.33)</t>
+          <t>maa://22430 (88.57), maa://39599 (84.21)</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>maa://24570 (96.49)</t>
+          <t>maa://24570 (96.51)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
-          <t>maa://22466 (88.37), *maa://22732 (52.5)</t>
+          <t>maa://22466 (88.46), *maa://22732 (51.85)</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="AA19" s="5" t="inlineStr">
         <is>
-          <t>*maa://30709 (60.48), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (60.59), *maa://36668 (52.17)</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
-          <t>maa://22864 (88.37)</t>
+          <t>maa://22864 (88.46)</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>maa://41331 (90.62)</t>
+          <t>maa://41331 (90.91)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="W21" s="5" t="inlineStr">
         <is>
-          <t>maa://20110 (86.57), maa://34946 (90.32)</t>
+          <t>maa://20110 (86.57), maa://34946 (90.62)</t>
         </is>
       </c>
       <c r="Y21" s="4" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="AA21" s="5" t="inlineStr">
         <is>
-          <t>*maa://21443 (78.9), **maa://23820 (30.91)</t>
+          <t>*maa://21443 (78.96), **maa://23820 (30.91)</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="AE21" s="5" t="inlineStr">
         <is>
-          <t>maa://22524 (94.29), *maa://22432 (74.07)</t>
+          <t>maa://22524 (94.29), *maa://22432 (74.55)</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
-          <t>maa://25236 (95.77), **maa://21678 (48.94), **maa://22735 (50.0)</t>
+          <t>maa://25236 (95.83), **maa://21678 (48.94), **maa://22735 (50.0)</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>maa://27127 (86.36), *maa://22751 (77.05)</t>
+          <t>maa://27127 (86.52), *maa://22751 (77.05)</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="W22" s="5" t="inlineStr">
         <is>
-          <t>maa://21282 (98.82), *maa://37649 (64.71)</t>
+          <t>maa://21282 (98.82), *maa://37649 (66.67)</t>
         </is>
       </c>
       <c r="Y22" s="4" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>maa://39756 (92.11), maa://39875 (95.56)</t>
+          <t>maa://39756 (92.21), maa://39875 (95.65)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="O23" s="5" t="inlineStr">
         <is>
-          <t>maa://30587 (91.62), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (77.78)</t>
+          <t>maa://30587 (91.62), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (78.95)</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>maa://24368 (80.67)</t>
+          <t>maa://24368 (80.73)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://23504 (92.86), maa://29988 (86.07), **maa://22892 (40.14), *maa://25141 (76.86), *maa://36663 (80.0), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (92.88), maa://29988 (86.07), **maa://22892 (40.14), *maa://25141 (76.86), maa://36663 (80.36), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="AE24" s="5" t="inlineStr">
         <is>
-          <t>maa://22523 (84.86), *maa://36672 (76.74), maa://29910 (93.88), **maa://21440 (34.55)</t>
+          <t>maa://22523 (84.86), *maa://36672 (76.74), maa://29910 (94.0), **maa://21440 (34.55)</t>
         </is>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>*maa://29063 (76.15), *maa://25311 (73.91), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (76.15), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>***maa://42235 (25.0)</t>
+          <t>*maa://42235 (66.67)</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AE26" s="5" t="inlineStr">
         <is>
-          <t>maa://30511 (83.87), *maa://29760 (61.54)</t>
+          <t>maa://30511 (84.38), *maa://29760 (61.54)</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (100.0), **maa://36665 (44.44), maa://39601 (87.5)</t>
+          <t>**maa://21283 (48.65), maa://34494 (100.0), **maa://36665 (44.44), maa://39601 (88.89)</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>maa://24465 (90.32), maa://25725 (82.28)</t>
+          <t>maa://24465 (90.33), maa://25725 (82.28)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="S28" s="5" t="inlineStr">
         <is>
-          <t>maa://23263 (94.25), *maa://29765 (61.19)</t>
+          <t>maa://23263 (94.32), *maa://29765 (61.19)</t>
         </is>
       </c>
       <c r="U28" s="4" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (85.64), ***maa://39723 (14.71), maa://41749 (85.71)</t>
+          <t>maa://39929 (85.79), ***maa://39723 (14.71), maa://41749 (86.67)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AE29" s="5" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.78), ***maa://34960 (9.09)</t>
+          <t>*maa://24080 (68.87), ***maa://34960 (9.09)</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>maa://30442 (94.23)</t>
+          <t>maa://30442 (94.34)</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="O30" s="5" t="inlineStr">
         <is>
-          <t>maa://21442 (99.48)</t>
+          <t>maa://21442 (99.49)</t>
         </is>
       </c>
       <c r="Q30" s="4" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="K31" s="5" t="inlineStr">
         <is>
-          <t>maa://35926 (93.53), maa://36258 (80.52)</t>
+          <t>maa://35926 (93.56), maa://36258 (80.52)</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>maa://41108 (89.66), maa://41238 (94.44)</t>
+          <t>maa://41108 (90.32), maa://41238 (94.44)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4374,11 +4374,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AE32" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AE32" s="5" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -4438,7 +4434,7 @@
       </c>
       <c r="O33" s="5" t="inlineStr">
         <is>
-          <t>*maa://21956 (78.91), maa://22730 (82.14)</t>
+          <t>*maa://21956 (79.07), maa://22730 (82.14)</t>
         </is>
       </c>
       <c r="Q33" s="4" t="inlineStr">
@@ -4622,7 +4618,7 @@
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>maa://41296 (97.62)</t>
+          <t>maa://41296 (97.73)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4918,7 +4914,7 @@
       </c>
       <c r="O38" s="5" t="inlineStr">
         <is>
-          <t>*maa://24383 (66.29)</t>
+          <t>*maa://24383 (66.67)</t>
         </is>
       </c>
       <c r="Q38" s="4" t="inlineStr">
@@ -4965,7 +4961,7 @@
       </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
-          <t>maa://25199 (86.11), maa://36670 (89.23), maa://30434 (88.89), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (86.11), maa://36670 (89.39), maa://30434 (87.27), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -5077,7 +5073,7 @@
       </c>
       <c r="O40" s="5" t="inlineStr">
         <is>
-          <t>maa://23278 (96.21), maa://21386 (95.63), maa://36664 (92.31)</t>
+          <t>maa://23278 (95.88), maa://21386 (95.63), maa://36664 (90.24)</t>
         </is>
       </c>
       <c r="Q40" s="4" t="inlineStr">
@@ -5124,7 +5120,7 @@
       </c>
       <c r="O41" s="5" t="inlineStr">
         <is>
-          <t>**maa://35616 (34.62)</t>
+          <t>**maa://35616 (37.04)</t>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
@@ -5255,7 +5251,7 @@
       </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
-          <t>maa://29768 (97.51), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.52), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
@@ -5305,7 +5301,7 @@
       </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
-          <t>maa://21229 (85.47), maa://30807 (94.92), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
+          <t>maa://21229 (85.47), maa://30807 (95.08), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
@@ -5355,7 +5351,7 @@
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>maa://35931 (92.44)</t>
+          <t>maa://35931 (92.48)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5405,7 +5401,7 @@
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
-          <t>maa://27410 (95.79), maa://29661 (97.64), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.81), maa://29661 (97.64), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
@@ -5636,7 +5632,7 @@
       </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
-          <t>maa://32534 (93.18), **maa://32434 (36.36)</t>
+          <t>maa://32534 (93.21), **maa://32434 (36.36)</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5666,7 @@
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>maa://32532 (92.27)</t>
+          <t>maa://32532 (92.31)</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5734,7 @@
       </c>
       <c r="G59" s="5" t="inlineStr">
         <is>
-          <t>maa://27746 (84.0), maa://31270 (96.94)</t>
+          <t>maa://27746 (84.0), maa://31270 (96.97)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -705,7 +705,7 @@
       </c>
       <c r="AA2" s="5" t="inlineStr">
         <is>
-          <t>maa://21246 (91.2), maa://36684 (98.57), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.2), maa://36684 (98.59), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="4" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="AE2" s="5" t="inlineStr">
         <is>
-          <t>maa://25251 (92.41), ***maa://21730 (17.19), ***maa://39501 (25.0), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.5), ***maa://21730 (17.19), ***maa://39501 (25.0), *maa://36675 (60.0)</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>maa://21247 (98.26), *maa://22748 (75.0)</t>
+          <t>maa://21247 (98.28), *maa://22748 (75.0)</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>*maa://22880 (69.74), maa://20276 (82.73), *maa://22749 (62.5)</t>
+          <t>*maa://22880 (69.93), maa://20276 (82.86), *maa://22749 (62.5)</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="W3" s="5" t="inlineStr">
         <is>
-          <t>maa://27396 (84.81), maa://27484 (95.74), maa://27480 (82.35)</t>
+          <t>maa://27396 (84.91), maa://27484 (95.74), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="4" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="AE3" s="5" t="inlineStr">
         <is>
-          <t>*maa://21289 (68.42)</t>
+          <t>*maa://21289 (70.0)</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>maa://24632 (93.18), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.23), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.93), ***maa://31785 (18.02), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (47.54), ***maa://31785 (18.02), ***maa://36683 (26.67)</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>maa://21245 (82.63), maa://22744 (83.33)</t>
+          <t>maa://21245 (82.29), maa://22744 (83.33)</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>**maa://42407 (50.0)</t>
+          <t>*maa://42407 (75.0)</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>maa://28624 (91.3), maa://24957 (97.37)</t>
+          <t>maa://28624 (91.55), maa://24957 (97.44)</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="O7" s="5" t="inlineStr">
         <is>
-          <t>maa://22750 (96.97)</t>
+          <t>maa://22750 (97.06)</t>
         </is>
       </c>
       <c r="Q7" s="4" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="S7" s="5" t="inlineStr">
         <is>
-          <t>maa://21291 (89.19)</t>
+          <t>maa://21291 (89.47)</t>
         </is>
       </c>
       <c r="U7" s="4" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>maa://22399 (94.62), *maa://22758 (70.59)</t>
+          <t>maa://22399 (94.62), *maa://22758 (71.15)</t>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>maa://32931 (88.46), *maa://21916 (60.34), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
+          <t>maa://32931 (88.61), *maa://21916 (60.34), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
         </is>
       </c>
       <c r="Q8" s="4" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>maa://21411 (96.0)</t>
+          <t>maa://21411 (96.01)</t>
         </is>
       </c>
       <c r="Y8" s="4" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="AE8" s="5" t="inlineStr">
         <is>
-          <t>*maa://24479 (76.39), *maa://21990 (53.85)</t>
+          <t>*maa://24479 (76.71), *maa://21990 (53.85)</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="O9" s="5" t="inlineStr">
         <is>
-          <t>maa://22736 (81.25)</t>
+          <t>maa://22736 (80.25)</t>
         </is>
       </c>
       <c r="Q9" s="4" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="W9" s="5" t="inlineStr">
         <is>
-          <t>maa://26223 (96.91)</t>
+          <t>maa://26223 (96.94)</t>
         </is>
       </c>
       <c r="Y9" s="4" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AE9" s="5" t="inlineStr">
         <is>
-          <t>maa://26206 (89.02), **maa://22865 (45.65)</t>
+          <t>maa://26206 (89.16), **maa://22865 (45.65)</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.3), **maa://32237 (37.84), ***maa://34206 (14.29), ***maa://39951 (20.83), **maa://39243 (33.33)</t>
+          <t>***maa://25695 (19.19), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (19.23), **maa://39243 (33.33)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="O10" s="5" t="inlineStr">
         <is>
-          <t>maa://28977 (94.67), *maa://23264 (62.96), maa://36669 (91.3)</t>
+          <t>maa://28977 (94.74), *maa://23264 (62.96), maa://36669 (87.5)</t>
         </is>
       </c>
       <c r="Q10" s="4" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>maa://27395 (96.67), maa://22755 (87.62), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.03), maa://22755 (87.62), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="W10" s="5" t="inlineStr">
         <is>
-          <t>maa://22301 (97.4), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.41), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="4" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="AE10" s="5" t="inlineStr">
         <is>
-          <t>*maa://25021 (56.34), *maa://22733 (58.62), maa://22761 (100.0)</t>
+          <t>*maa://25021 (56.94), *maa://22733 (58.62), maa://22761 (100.0)</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>maa://36707 (99.63)</t>
+          <t>maa://36707 (99.64)</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="AE11" s="5" t="inlineStr">
         <is>
-          <t>maa://31203 (94.44), ***maa://24394 (16.0)</t>
+          <t>maa://31203 (94.44), ***maa://24394 (19.23)</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>maa://21867 (89.93)</t>
+          <t>maa://21867 (90.0)</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="W12" s="5" t="inlineStr">
         <is>
-          <t>maa://22753 (91.84), *maa://21485 (76.56), maa://37962 (81.25)</t>
+          <t>maa://22753 (91.84), *maa://21485 (76.74), maa://37962 (81.25)</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="AA12" s="5" t="inlineStr">
         <is>
-          <t>maa://23669 (95.86), maa://36677 (94.87), maa://39872 (84.62)</t>
+          <t>maa://23669 (95.51), maa://36677 (92.5), maa://39872 (84.62)</t>
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>maa://24999 (91.42), maa://36673 (91.8), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.45), maa://36673 (91.8), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.61), **maa://22728 (47.62)</t>
+          <t>*maa://21248 (75.73), **maa://22728 (47.62)</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="W13" s="5" t="inlineStr">
         <is>
-          <t>*maa://34957 (75.0), *maa://22768 (53.33)</t>
+          <t>*maa://34957 (75.56), *maa://22768 (53.33)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="AE13" s="5" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.83), maa://39883 (90.91), *maa://39885 (73.68)</t>
+          <t>**maa://22737 (30.6), maa://39883 (87.5), *maa://39885 (73.68)</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>maa://30764 (86.05)</t>
+          <t>maa://30764 (86.36)</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
-          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (92.5)</t>
+          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.02)</t>
         </is>
       </c>
       <c r="M14" s="4" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O14" s="5" t="inlineStr">
         <is>
-          <t>maa://23250 (98.47), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.48), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="4" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="R14" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S14" s="5" t="inlineStr">
         <is>
-          <t>*maa://22471 (59.42), maa://22521 (94.44)</t>
+          <t>maa://22521 (94.44)</t>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="W14" s="5" t="inlineStr">
         <is>
-          <t>maa://37468 (92.31)</t>
+          <t>maa://37468 (92.86)</t>
         </is>
       </c>
       <c r="Y14" s="4" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.19), maa://22734 (83.33), *maa://30808 (63.64), ***maa://36048 (13.33)</t>
+          <t>*maa://22743 (76.19), maa://22734 (83.33), *maa://30808 (64.29), ***maa://36048 (13.33)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>maa://24304 (88.4), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.46), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="O15" s="5" t="inlineStr">
         <is>
-          <t>maa://24762 (89.51), *maa://22727 (70.0)</t>
+          <t>maa://24762 (89.58), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="4" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AE15" s="5" t="inlineStr">
         <is>
-          <t>maa://21364 (80.61), *maa://22766 (73.0), *maa://36666 (77.42)</t>
+          <t>maa://21364 (80.61), *maa://22766 (73.0), *maa://36666 (78.46)</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>maa://21441 (96.17), maa://36679 (93.75), maa://37650 (95.45)</t>
+          <t>maa://21441 (96.17), maa://36679 (93.94), maa://37650 (95.45)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="W16" s="5" t="inlineStr">
         <is>
-          <t>maa://28501 (97.4), maa://28051 (95.83)</t>
+          <t>maa://28501 (97.44), maa://28051 (95.83)</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AE16" s="5" t="inlineStr">
         <is>
-          <t>*maa://23911 (61.54), maa://27755 (91.78)</t>
+          <t>*maa://23911 (61.96), maa://27755 (91.78)</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>maa://24570 (96.51)</t>
+          <t>maa://24570 (96.55)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>maa://24421 (90.48)</t>
+          <t>maa://24421 (90.57)</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
-          <t>maa://22466 (88.46), *maa://22732 (51.85)</t>
+          <t>maa://22466 (88.55), *maa://22732 (51.85)</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="W18" s="5" t="inlineStr">
         <is>
-          <t>maa://21917 (97.47), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.5), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="4" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="AE18" s="5" t="inlineStr">
         <is>
-          <t>*maa://24313 (57.33), **maa://29784 (46.15)</t>
+          <t>*maa://24313 (57.62), **maa://29784 (46.15)</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>maa://24386 (98.77)</t>
+          <t>maa://24386 (98.8)</t>
         </is>
       </c>
       <c r="U19" s="4" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="AA19" s="5" t="inlineStr">
         <is>
-          <t>*maa://30709 (60.59), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (60.8), *maa://36668 (52.17)</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>maa://41331 (90.91)</t>
+          <t>maa://41331 (88.89)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
-          <t>maa://29113 (95.24)</t>
+          <t>maa://29113 (95.45)</t>
         </is>
       </c>
       <c r="U20" s="4" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="AA21" s="5" t="inlineStr">
         <is>
-          <t>*maa://21443 (78.96), **maa://23820 (30.91)</t>
+          <t>*maa://21443 (78.72), **maa://23820 (30.91)</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="W22" s="5" t="inlineStr">
         <is>
-          <t>maa://21282 (98.82), *maa://37649 (66.67)</t>
+          <t>maa://21282 (98.83), *maa://37649 (66.67)</t>
         </is>
       </c>
       <c r="Y22" s="4" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.36), maa://41753 (100.0)</t>
+          <t>***maa://28036 (28.36), *maa://41753 (75.0)</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>maa://39756 (92.21), maa://39875 (95.65)</t>
+          <t>maa://39756 (92.36), maa://39875 (95.65)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>maa://24387 (82.86), maa://31212 (95.65)</t>
+          <t>maa://24387 (82.86), maa://31212 (95.83)</t>
         </is>
       </c>
       <c r="U23" s="4" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>maa://24368 (80.73)</t>
+          <t>maa://24368 (80.36)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://23504 (92.88), maa://29988 (86.07), **maa://22892 (40.14), *maa://25141 (76.86), maa://36663 (80.36), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (92.9), maa://29988 (86.21), **maa://22892 (40.14), *maa://25141 (76.86), maa://36663 (80.36), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="AE24" s="5" t="inlineStr">
         <is>
-          <t>maa://22523 (84.86), *maa://36672 (76.74), maa://29910 (94.0), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.03), *maa://36672 (76.74), maa://29910 (94.0), **maa://21440 (34.55)</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>maa://29753 (95.11)</t>
+          <t>maa://29753 (95.13)</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>*maa://42235 (66.67)</t>
+          <t>*maa://42235 (64.29)</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (100.0), **maa://36665 (44.44), maa://39601 (88.89)</t>
+          <t>**maa://21283 (48.65), maa://34494 (100.0), **maa://36665 (44.44), *maa://39601 (80.0)</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>maa://24465 (90.33), maa://25725 (82.28)</t>
+          <t>maa://24465 (90.35), maa://25725 (82.28)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>*maa://30770 (78.57)</t>
+          <t>*maa://30770 (79.07)</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (85.79), ***maa://39723 (14.71), maa://41749 (86.67)</t>
+          <t>maa://39929 (86.15), ***maa://39723 (14.71), maa://41749 (81.25)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="AE28" s="5" t="inlineStr">
         <is>
-          <t>maa://36660 (93.75), *maa://36701 (64.0)</t>
+          <t>maa://36660 (93.77), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AE29" s="5" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.87), ***maa://34960 (9.09)</t>
+          <t>*maa://24080 (68.96), ***maa://34960 (9.09)</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>maa://30442 (94.34)</t>
+          <t>maa://30442 (94.44)</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>maa://21895 (97.01), maa://36667 (98.04), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.01), maa://36667 (98.08), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>maa://41108 (90.32), maa://41238 (94.44)</t>
+          <t>maa://41108 (90.91), maa://41238 (94.44)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4371,10 +4371,14 @@
       </c>
       <c r="AD32" s="4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE32" s="5" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE32" s="5" t="inlineStr">
+        <is>
+          <t>maa://42408 (100.0)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -4618,7 +4622,7 @@
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>maa://41296 (97.73)</t>
+          <t>maa://41296 (97.96)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4961,7 +4965,7 @@
       </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
-          <t>maa://25199 (86.11), maa://36670 (89.39), maa://30434 (87.27), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (86.11), maa://36670 (88.06), maa://30434 (87.27), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -4991,7 +4995,7 @@
       </c>
       <c r="O39" s="5" t="inlineStr">
         <is>
-          <t>maa://24709 (91.92)</t>
+          <t>maa://24709 (92.0)</t>
         </is>
       </c>
       <c r="Q39" s="4" t="inlineStr">
@@ -5105,7 +5109,7 @@
       </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
-          <t>maa://24466 (94.87)</t>
+          <t>maa://24466 (95.0)</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
@@ -5120,7 +5124,7 @@
       </c>
       <c r="O41" s="5" t="inlineStr">
         <is>
-          <t>**maa://35616 (37.04)</t>
+          <t>**maa://35616 (37.93)</t>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
@@ -5204,7 +5208,7 @@
       </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
-          <t>maa://22525 (92.56), maa://21284 (82.93)</t>
+          <t>maa://22525 (92.62), maa://21284 (82.93)</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
@@ -5281,7 +5285,7 @@
       </c>
       <c r="S44" s="5" t="inlineStr">
         <is>
-          <t>maa://39366 (86.36)</t>
+          <t>maa://39366 (86.96)</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5355,7 @@
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>maa://35931 (92.48)</t>
+          <t>maa://35931 (92.51)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5568,7 +5572,7 @@
       </c>
       <c r="G51" s="5" t="inlineStr">
         <is>
-          <t>*maa://30769 (78.57)</t>
+          <t>*maa://30769 (80.0)</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
@@ -5717,7 +5721,7 @@
       </c>
       <c r="G58" s="5" t="inlineStr">
         <is>
-          <t>*maa://37964 (61.11)</t>
+          <t>*maa://37964 (63.16)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -615,7 +615,7 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>maa://24702 (94.1), maa://25390 (97.42), maa://36681 (92.19)</t>
+          <t>maa://24702 (94.1), maa://25390 (97.42), maa://36681 (90.77)</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="AA2" s="5" t="inlineStr">
         <is>
-          <t>maa://21246 (91.2), maa://36684 (98.59), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.2), maa://36684 (98.61), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="4" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="AE2" s="5" t="inlineStr">
         <is>
-          <t>maa://25251 (92.5), ***maa://21730 (17.19), ***maa://39501 (25.0), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.5), ***maa://21730 (17.19), ***maa://39501 (23.08), *maa://36675 (60.0)</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="W3" s="5" t="inlineStr">
         <is>
-          <t>maa://27396 (84.91), maa://27484 (95.74), maa://27480 (82.35)</t>
+          <t>maa://27396 (84.97), maa://27484 (95.74), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="4" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>maa://24632 (93.23), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.28), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="S6" s="5" t="inlineStr">
         <is>
-          <t>*maa://37411 (71.43)</t>
+          <t>*maa://37411 (75.0)</t>
         </is>
       </c>
       <c r="U6" s="4" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AE6" s="5" t="inlineStr">
         <is>
-          <t>*maa://33152 (59.38), ***maa://22770 (28.57)</t>
+          <t>*maa://33152 (60.61), ***maa://22770 (28.57)</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="AA8" s="5" t="inlineStr">
         <is>
-          <t>maa://25389 (88.46)</t>
+          <t>maa://25389 (88.89)</t>
         </is>
       </c>
       <c r="AC8" s="4" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.19), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (19.23), **maa://39243 (33.33)</t>
+          <t>***maa://25695 (19.19), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (18.52), **maa://39243 (33.33)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="S11" s="5" t="inlineStr">
         <is>
-          <t>maa://22747 (94.33), maa://22501 (98.15)</t>
+          <t>maa://22747 (94.37), maa://22501 (98.15)</t>
         </is>
       </c>
       <c r="U11" s="4" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="W11" s="5" t="inlineStr">
         <is>
-          <t>maa://36713 (97.83)</t>
+          <t>maa://36713 (97.84)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>maa://24999 (91.45), maa://36673 (91.8), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.46), maa://36673 (91.8), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.73), **maa://22728 (47.62)</t>
+          <t>*maa://21248 (75.36), **maa://22728 (47.62)</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="K15" s="5" t="inlineStr">
         <is>
-          <t>*maa://21334 (54.17)</t>
+          <t>*maa://21334 (52.0)</t>
         </is>
       </c>
       <c r="M15" s="4" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>maa://24421 (90.57)</t>
+          <t>maa://24421 (90.14)</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>maa://41331 (88.89)</t>
+          <t>maa://41331 (89.19)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>maa://39756 (92.36), maa://39875 (95.65)</t>
+          <t>maa://39756 (92.41), maa://39875 (95.74)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="O23" s="5" t="inlineStr">
         <is>
-          <t>maa://30587 (91.62), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (78.95)</t>
+          <t>maa://30587 (91.67), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (78.95)</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="AE24" s="5" t="inlineStr">
         <is>
-          <t>maa://22523 (85.03), *maa://36672 (76.74), maa://29910 (94.0), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.03), *maa://36672 (76.74), maa://29910 (94.12), **maa://21440 (34.55)</t>
         </is>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="AE25" s="5" t="inlineStr">
         <is>
-          <t>maa://20108 (96.09), maa://24621 (96.4), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.12), maa://24621 (96.4), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (86.15), ***maa://39723 (14.71), maa://41749 (81.25)</t>
+          <t>maa://39929 (86.29), ***maa://39723 (14.71), maa://41749 (81.25)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="AE28" s="5" t="inlineStr">
         <is>
-          <t>maa://36660 (93.77), *maa://36701 (64.0)</t>
+          <t>maa://36660 (93.8), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AE29" s="5" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.96), ***maa://34960 (9.09)</t>
+          <t>*maa://24080 (69.04), ***maa://34960 (9.09)</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>maa://21895 (97.01), maa://36667 (98.08), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.01), maa://36667 (98.11), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>maa://41108 (90.91), maa://41238 (94.44)</t>
+          <t>maa://41108 (91.18), maa://41238 (94.44)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AE34" s="5" t="inlineStr">
         <is>
-          <t>*maa://32650 (69.23)</t>
+          <t>*maa://32650 (64.29)</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>maa://41296 (97.96)</t>
+          <t>maa://41296 (98.0)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="AE38" s="5" t="inlineStr">
         <is>
-          <t>maa://36697 (85.83)</t>
+          <t>maa://36697 (85.16)</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="S44" s="5" t="inlineStr">
         <is>
-          <t>maa://39366 (86.96)</t>
+          <t>maa://39366 (83.33)</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>maa://35931 (92.51)</t>
+          <t>maa://35931 (92.54)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="G60" s="5" t="inlineStr">
         <is>
-          <t>**maa://40438 (37.5)</t>
+          <t>**maa://40438 (33.33)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -782,7 +782,7 @@
       </c>
       <c r="O3" s="5" t="inlineStr">
         <is>
-          <t>maa://21249 (95.12), maa://26254 (95.24)</t>
+          <t>maa://21249 (95.15), maa://26254 (95.24)</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>maa://32509 (98.73), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (98.75), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>*maa://42407 (75.0)</t>
+          <t>*maa://42407 (80.0)</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="W9" s="5" t="inlineStr">
         <is>
-          <t>maa://26223 (96.94)</t>
+          <t>maa://26223 (96.97)</t>
         </is>
       </c>
       <c r="Y9" s="4" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>maa://27395 (96.03), maa://22755 (87.62), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.03), maa://22755 (87.74), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="W13" s="5" t="inlineStr">
         <is>
-          <t>*maa://34957 (75.56), *maa://22768 (53.33)</t>
+          <t>*maa://34957 (76.09), *maa://22768 (53.33)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.19), maa://22734 (83.33), *maa://30808 (64.29), ***maa://36048 (13.33)</t>
+          <t>*maa://22743 (76.47), maa://22734 (83.33), *maa://30808 (64.29), ***maa://36048 (13.33)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>maa://22430 (88.57), maa://39599 (84.21)</t>
+          <t>maa://22430 (88.57), *maa://39599 (80.0)</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2500,10 +2500,14 @@
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" s="5" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>**maa://42324 (33.33)</t>
+        </is>
+      </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
           <t>亚叶</t>
@@ -2563,7 +2567,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>maa://24570 (96.55)</t>
+          <t>maa://24570 (96.57)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2959,7 +2963,7 @@
       </c>
       <c r="K21" s="5" t="inlineStr">
         <is>
-          <t>maa://31731 (95.0)</t>
+          <t>maa://31731 (95.12)</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr">
@@ -3126,7 +3130,7 @@
       </c>
       <c r="W22" s="5" t="inlineStr">
         <is>
-          <t>maa://21282 (98.83), *maa://37649 (66.67)</t>
+          <t>maa://21282 (98.84), *maa://37649 (66.67)</t>
         </is>
       </c>
       <c r="Y22" s="4" t="inlineStr">
@@ -3248,7 +3252,7 @@
       </c>
       <c r="W23" s="5" t="inlineStr">
         <is>
-          <t>*maa://28503 (62.71)</t>
+          <t>*maa://28503 (63.33)</t>
         </is>
       </c>
       <c r="Y23" s="4" t="inlineStr">
@@ -3432,7 +3436,7 @@
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>*maa://29063 (76.15), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (75.57), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3629,7 +3633,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>*maa://42235 (64.29)</t>
+          <t>*maa://42235 (68.75)</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3858,7 +3862,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (86.29), ***maa://39723 (14.71), maa://41749 (81.25)</t>
+          <t>maa://39929 (86.36), ***maa://39723 (14.71), maa://41749 (81.25)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3888,7 +3892,7 @@
       </c>
       <c r="AE28" s="5" t="inlineStr">
         <is>
-          <t>maa://36660 (93.8), *maa://36701 (64.0)</t>
+          <t>maa://36660 (93.82), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4213,7 @@
       </c>
       <c r="S31" s="5" t="inlineStr">
         <is>
-          <t>maa://30711 (96.23), maa://30768 (100.0)</t>
+          <t>maa://30711 (96.3), maa://30768 (100.0)</t>
         </is>
       </c>
       <c r="U31" s="4" t="inlineStr">
@@ -5335,7 +5339,7 @@
       </c>
       <c r="S45" s="5" t="inlineStr">
         <is>
-          <t>*maa://39364 (62.5)</t>
+          <t>*maa://39364 (55.56)</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5759,7 @@
       </c>
       <c r="G60" s="5" t="inlineStr">
         <is>
-          <t>**maa://40438 (33.33)</t>
+          <t>**maa://40438 (31.58)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>*maa://42407 (80.0)</t>
+          <t>maa://42407 (83.33)</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AA9" s="5" t="inlineStr">
         <is>
-          <t>maa://28711 (87.95), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (50.0), maa://40166 (100.0)</t>
+          <t>maa://28711 (87.95), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (46.67), maa://40166 (100.0)</t>
         </is>
       </c>
       <c r="AC9" s="4" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="AA12" s="5" t="inlineStr">
         <is>
-          <t>maa://23669 (95.51), maa://36677 (92.5), maa://39872 (84.62)</t>
+          <t>maa://23669 (95.51), maa://36677 (92.5), maa://39872 (85.71)</t>
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="AE13" s="5" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.6), maa://39883 (87.5), *maa://39885 (73.68)</t>
+          <t>**maa://22737 (30.6), maa://39883 (88.0), *maa://39885 (73.68)</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>maa://41331 (89.19)</t>
+          <t>maa://41331 (86.84)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://23504 (92.9), maa://29988 (86.21), **maa://22892 (40.14), *maa://25141 (76.86), maa://36663 (80.36), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (92.9), maa://29988 (86.21), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.36), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>*maa://42235 (68.75)</t>
+          <t>*maa://42235 (70.59)</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (86.36), ***maa://39723 (14.71), maa://41749 (81.25)</t>
+          <t>maa://39929 (86.43), ***maa://39723 (14.71), maa://41749 (81.25)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="AE29" s="5" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.04), ***maa://34960 (9.09)</t>
+          <t>*maa://24080 (69.13), ***maa://34960 (8.7)</t>
         </is>
       </c>
     </row>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="S45" s="5" t="inlineStr">
         <is>
-          <t>*maa://39364 (55.56)</t>
+          <t>**maa://39364 (50.0)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -752,7 +752,7 @@
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>maa://21247 (98.28), *maa://22748 (75.0)</t>
+          <t>maa://21247 (98.29), *maa://22748 (75.0)</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="O3" s="5" t="inlineStr">
         <is>
-          <t>maa://21249 (95.15), maa://26254 (95.24)</t>
+          <t>maa://21249 (95.17), maa://26254 (95.24)</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>maa://32509 (98.75), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (98.77), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AE9" s="5" t="inlineStr">
         <is>
-          <t>maa://26206 (89.16), **maa://22865 (45.65)</t>
+          <t>maa://26206 (89.29), **maa://22865 (45.65)</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>maa://24304 (88.46), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.52), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="O16" s="5" t="inlineStr">
         <is>
-          <t>maa://28504 (91.49)</t>
+          <t>maa://28504 (91.67)</t>
         </is>
       </c>
       <c r="Q16" s="4" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>maa://22430 (88.57), *maa://39599 (80.0)</t>
+          <t>maa://22430 (88.57), maa://39599 (80.95)</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>**maa://42324 (33.33)</t>
+          <t>**maa://42324 (50.0)</t>
         </is>
       </c>
       <c r="U17" s="4" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>maa://24570 (96.57)</t>
+          <t>maa://24570 (96.59)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>maa://24421 (90.14)</t>
+          <t>maa://24421 (90.19)</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="W21" s="5" t="inlineStr">
         <is>
-          <t>maa://20110 (86.57), maa://34946 (90.62)</t>
+          <t>maa://20110 (86.76), maa://34946 (90.62)</t>
         </is>
       </c>
       <c r="Y21" s="4" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>maa://39756 (92.41), maa://39875 (95.74)</t>
+          <t>maa://39756 (92.41), maa://39875 (95.83)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>*maa://29063 (75.57), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (75.76), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="AE25" s="5" t="inlineStr">
         <is>
-          <t>maa://20108 (96.12), maa://24621 (96.4), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.12), maa://24621 (96.43), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (86.43), ***maa://39723 (14.71), maa://41749 (81.25)</t>
+          <t>maa://39929 (86.57), ***maa://39723 (14.71), maa://41749 (81.25)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
-          <t>*maa://23168 (55.77), **maa://30050 (40.0)</t>
+          <t>*maa://23168 (55.77), **maa://30050 (38.1)</t>
         </is>
       </c>
       <c r="Q29" s="4" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>maa://41108 (91.18), maa://41238 (94.44)</t>
+          <t>maa://41108 (91.18), maa://41238 (94.59)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="S34" s="5" t="inlineStr">
         <is>
-          <t>maa://24526 (93.07)</t>
+          <t>maa://24526 (93.1)</t>
         </is>
       </c>
       <c r="Y34" s="4" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>maa://41296 (98.0)</t>
+          <t>maa://41296 (98.08)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="AE38" s="5" t="inlineStr">
         <is>
-          <t>maa://36697 (85.16)</t>
+          <t>maa://36697 (84.5)</t>
         </is>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>maa://32532 (92.31)</t>
+          <t>maa://32532 (92.34)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -615,7 +615,7 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>maa://24702 (94.1), maa://25390 (97.42), maa://36681 (90.77)</t>
+          <t>maa://24702 (94.1), maa://25390 (97.01), maa://36681 (90.77)</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="AA2" s="5" t="inlineStr">
         <is>
-          <t>maa://21246 (91.2), maa://36684 (98.61), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.2), maa://36684 (98.63), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="4" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="AE2" s="5" t="inlineStr">
         <is>
-          <t>maa://25251 (92.5), ***maa://21730 (17.19), ***maa://39501 (23.08), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.5), ***maa://21730 (17.19), ***maa://39501 (21.43), *maa://36675 (60.0)</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="AA3" s="5" t="inlineStr">
         <is>
-          <t>maa://24390 (96.0)</t>
+          <t>maa://24390 (96.08)</t>
         </is>
       </c>
       <c r="AC3" s="4" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.54), ***maa://31785 (18.02), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (47.54), ***maa://31785 (18.75), ***maa://36683 (26.67)</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="AA4" s="5" t="inlineStr">
         <is>
-          <t>*maa://32658 (73.33)</t>
+          <t>*maa://32658 (68.75)</t>
         </is>
       </c>
       <c r="AC4" s="4" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>maa://42407 (83.33)</t>
+          <t>maa://42407 (87.5)</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>maa://22399 (94.62), *maa://22758 (71.15)</t>
+          <t>maa://22399 (94.66), *maa://22758 (71.7)</t>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="AD7" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE7" s="5" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.49), *maa://36671 (72.09)</t>
+          <t>*maa://26191 (68.49), *maa://36671 (72.09), maa://42530 (100.0)</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>maa://21411 (96.01)</t>
+          <t>maa://21411 (96.03)</t>
         </is>
       </c>
       <c r="Y8" s="4" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="AE10" s="5" t="inlineStr">
         <is>
-          <t>*maa://25021 (56.94), *maa://22733 (58.62), maa://22761 (100.0)</t>
+          <t>*maa://25021 (56.16), *maa://22733 (58.62), maa://22761 (100.0)</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="W11" s="5" t="inlineStr">
         <is>
-          <t>maa://36713 (97.84)</t>
+          <t>maa://36713 (97.85)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="W12" s="5" t="inlineStr">
         <is>
-          <t>maa://22753 (91.84), *maa://21485 (76.74), maa://37962 (81.25)</t>
+          <t>maa://22753 (91.22), *maa://21485 (76.74), maa://37962 (81.25)</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="W13" s="5" t="inlineStr">
         <is>
-          <t>*maa://34957 (76.09), *maa://22768 (53.33)</t>
+          <t>*maa://34957 (76.6), *maa://22768 (53.33)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="AE13" s="5" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.6), maa://39883 (88.0), *maa://39885 (73.68)</t>
+          <t>**maa://22737 (30.6), maa://39883 (88.46), *maa://39885 (73.68)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
-          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.02)</t>
+          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.18)</t>
         </is>
       </c>
       <c r="M14" s="4" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>maa://24304 (88.52), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.59), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>maa://21441 (96.17), maa://36679 (93.94), maa://37650 (95.45)</t>
+          <t>maa://21441 (96.17), maa://36679 (94.12), maa://37650 (95.45)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="W16" s="5" t="inlineStr">
         <is>
-          <t>maa://28501 (97.44), maa://28051 (95.83)</t>
+          <t>maa://28501 (97.47), maa://28051 (95.83)</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>maa://24570 (96.59)</t>
+          <t>maa://24570 (96.61)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>maa://24421 (90.19)</t>
+          <t>maa://24421 (90.23)</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>maa://24386 (98.8)</t>
+          <t>maa://24386 (98.81)</t>
         </is>
       </c>
       <c r="U19" s="4" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>maa://41331 (86.84)</t>
+          <t>maa://41331 (82.93)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="O20" s="5" t="inlineStr">
         <is>
-          <t>maa://37442 (96.43)</t>
+          <t>maa://37442 (96.55)</t>
         </is>
       </c>
       <c r="Q20" s="4" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>maa://39756 (92.41), maa://39875 (95.83)</t>
+          <t>maa://39756 (92.5), maa://39875 (95.83)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://23504 (92.9), maa://29988 (86.21), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.36), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (92.9), maa://29988 (86.27), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.7), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>maa://29753 (95.13)</t>
+          <t>maa://29753 (95.15)</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="AA25" s="5" t="inlineStr">
         <is>
-          <t>maa://31215 (83.95), *maa://24516 (79.07), maa://26001 (88.89)</t>
+          <t>maa://31215 (84.15), *maa://24516 (79.07), maa://26001 (88.89)</t>
         </is>
       </c>
       <c r="AC25" s="4" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>*maa://42235 (70.59)</t>
+          <t>*maa://42235 (73.68)</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="S27" s="5" t="inlineStr">
         <is>
-          <t>*maa://30624 (75.68)</t>
+          <t>*maa://30624 (76.32)</t>
         </is>
       </c>
       <c r="U27" s="4" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>maa://24465 (90.35), maa://25725 (82.28)</t>
+          <t>maa://24465 (90.36), maa://25725 (82.28)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (86.57), ***maa://39723 (14.71), maa://41749 (81.25)</t>
+          <t>maa://39929 (86.7), ***maa://39723 (14.71), maa://41749 (81.25)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="AE28" s="5" t="inlineStr">
         <is>
-          <t>maa://36660 (93.82), *maa://36701 (64.0)</t>
+          <t>maa://36660 (93.85), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>maa://31694 (97.87)</t>
+          <t>maa://31694 (97.92)</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>maa://30442 (94.44)</t>
+          <t>maa://30442 (94.55)</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="W30" s="5" t="inlineStr">
         <is>
-          <t>*maa://39477 (71.43)</t>
+          <t>*maa://39477 (75.0)</t>
         </is>
       </c>
       <c r="Y30" s="4" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>maa://41108 (91.18), maa://41238 (94.59)</t>
+          <t>maa://41108 (91.43), maa://41238 (94.59)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="S34" s="5" t="inlineStr">
         <is>
-          <t>maa://24526 (93.1)</t>
+          <t>maa://24526 (93.13)</t>
         </is>
       </c>
       <c r="Y34" s="4" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>maa://41296 (98.08)</t>
+          <t>maa://41296 (98.11)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="AE38" s="5" t="inlineStr">
         <is>
-          <t>maa://36697 (84.5)</t>
+          <t>maa://36697 (84.62)</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
-          <t>maa://25199 (86.11), maa://36670 (88.06), maa://30434 (87.27), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (86.11), maa://36670 (88.06), maa://30434 (87.5), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="O39" s="5" t="inlineStr">
         <is>
-          <t>maa://24709 (92.0)</t>
+          <t>maa://24709 (92.16)</t>
         </is>
       </c>
       <c r="Q39" s="4" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
-          <t>maa://22525 (92.62), maa://21284 (82.93)</t>
+          <t>maa://22525 (92.68), maa://21284 (82.93)</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>maa://35931 (92.54)</t>
+          <t>maa://35931 (92.58)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>maa://32532 (92.34)</t>
+          <t>maa://32532 (91.93)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -705,7 +705,7 @@
       </c>
       <c r="AA2" s="5" t="inlineStr">
         <is>
-          <t>maa://21246 (91.2), maa://36684 (98.63), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.23), maa://36684 (98.63), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="4" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>*maa://22880 (69.93), maa://20276 (82.86), *maa://22749 (62.5)</t>
+          <t>*maa://22880 (69.68), maa://20276 (82.86), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="W3" s="5" t="inlineStr">
         <is>
-          <t>maa://27396 (84.97), maa://27484 (95.74), maa://27480 (82.35)</t>
+          <t>maa://27396 (85.02), maa://27484 (95.74), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="4" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="AA3" s="5" t="inlineStr">
         <is>
-          <t>maa://24390 (96.08)</t>
+          <t>maa://24390 (96.15)</t>
         </is>
       </c>
       <c r="AC3" s="4" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>maa://32509 (98.77), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (98.78), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.54), ***maa://31785 (18.75), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (47.54), ***maa://31785 (19.47), ***maa://36683 (26.67)</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="AA6" s="5" t="inlineStr">
         <is>
-          <t>maa://22739 (91.3)</t>
+          <t>maa://22739 (91.67)</t>
         </is>
       </c>
       <c r="AC6" s="4" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>maa://22399 (94.66), *maa://22758 (71.7)</t>
+          <t>maa://22399 (94.66), *maa://22758 (70.37)</t>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="AE7" s="5" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.49), *maa://36671 (72.09), maa://42530 (100.0)</t>
+          <t>*maa://26191 (68.49), *maa://36671 (72.73), maa://42530 (100.0)</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>maa://32931 (88.61), *maa://21916 (60.34), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
+          <t>maa://32931 (88.89), *maa://21916 (60.34), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
         </is>
       </c>
       <c r="Q8" s="4" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>maa://21411 (96.03)</t>
+          <t>maa://21411 (96.04)</t>
         </is>
       </c>
       <c r="Y8" s="4" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="W9" s="5" t="inlineStr">
         <is>
-          <t>maa://26223 (96.97)</t>
+          <t>maa://26223 (97.0)</t>
         </is>
       </c>
       <c r="Y9" s="4" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AA9" s="5" t="inlineStr">
         <is>
-          <t>maa://28711 (87.95), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (46.67), maa://40166 (100.0)</t>
+          <t>maa://28711 (88.1), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (43.75), maa://40166 (100.0)</t>
         </is>
       </c>
       <c r="AC9" s="4" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="W10" s="5" t="inlineStr">
         <is>
-          <t>maa://22301 (97.41), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.42), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="4" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="W11" s="5" t="inlineStr">
         <is>
-          <t>maa://36713 (97.85)</t>
+          <t>maa://36713 (97.86)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>maa://21867 (90.0)</t>
+          <t>maa://21867 (90.07)</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.36), **maa://22728 (47.62)</t>
+          <t>*maa://21248 (75.48), **maa://22728 (47.62)</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.47), maa://22734 (83.33), *maa://30808 (64.29), ***maa://36048 (13.33)</t>
+          <t>*maa://22743 (76.61), maa://22734 (83.33), *maa://30808 (64.29), ***maa://36048 (12.9)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>maa://24304 (88.59), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.11), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AE15" s="5" t="inlineStr">
         <is>
-          <t>maa://21364 (80.61), *maa://22766 (73.0), *maa://36666 (78.46)</t>
+          <t>maa://21364 (80.68), *maa://22766 (73.0), *maa://36666 (78.46)</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AE16" s="5" t="inlineStr">
         <is>
-          <t>*maa://23911 (61.96), maa://27755 (91.78)</t>
+          <t>*maa://23911 (61.96), maa://27755 (91.89)</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>maa://22430 (88.57), maa://39599 (80.95)</t>
+          <t>maa://22430 (88.14), maa://39599 (80.95)</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>**maa://42324 (50.0)</t>
+          <t>***maa://42324 (28.57)</t>
         </is>
       </c>
       <c r="U17" s="4" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>maa://24570 (96.61)</t>
+          <t>maa://24570 (96.65)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="AA19" s="5" t="inlineStr">
         <is>
-          <t>*maa://30709 (60.8), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (60.9), *maa://36668 (52.17)</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
-          <t>maa://22864 (88.46)</t>
+          <t>maa://22864 (88.55)</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>maa://39756 (92.5), maa://39875 (95.83)</t>
+          <t>maa://39756 (92.59), maa://39875 (95.83)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="W23" s="5" t="inlineStr">
         <is>
-          <t>*maa://28503 (63.33)</t>
+          <t>*maa://28503 (63.93)</t>
         </is>
       </c>
       <c r="Y23" s="4" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>maa://24368 (80.36)</t>
+          <t>maa://24368 (80.42)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://23504 (92.9), maa://29988 (86.27), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.7), ***maa://22815 (23.08)</t>
+          <t>maa://23504 (92.92), maa://29988 (86.34), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.7), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>maa://29753 (95.15)</t>
+          <t>maa://29753 (95.18)</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>*maa://29063 (75.76), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (76.12), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>*maa://42235 (73.68)</t>
+          <t>*maa://42235 (76.19)</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="AE27" s="5" t="inlineStr">
         <is>
-          <t>maa://24023 (96.77)</t>
+          <t>maa://24023 (96.83)</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (86.7), ***maa://39723 (14.71), maa://41749 (81.25)</t>
+          <t>maa://39929 (86.83), ***maa://39723 (14.71), maa://41749 (81.25)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="AE28" s="5" t="inlineStr">
         <is>
-          <t>maa://36660 (93.85), *maa://36701 (64.0)</t>
+          <t>maa://36660 (93.87), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>maa://28432 (93.47), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.52), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="AE29" s="5" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.13), ***maa://34960 (8.7)</t>
+          <t>*maa://24080 (69.02), ***maa://34960 (8.7)</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>maa://41108 (91.43), maa://41238 (94.59)</t>
+          <t>maa://41108 (89.47), maa://41238 (94.59)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="S34" s="5" t="inlineStr">
         <is>
-          <t>maa://24526 (93.13)</t>
+          <t>maa://24526 (93.16)</t>
         </is>
       </c>
       <c r="Y34" s="4" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>maa://41296 (98.11)</t>
+          <t>maa://41296 (98.15)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="AE38" s="5" t="inlineStr">
         <is>
-          <t>maa://36697 (84.62)</t>
+          <t>maa://36697 (84.73)</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="O39" s="5" t="inlineStr">
         <is>
-          <t>maa://24709 (92.16)</t>
+          <t>maa://24709 (92.23)</t>
         </is>
       </c>
       <c r="Q39" s="4" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="O40" s="5" t="inlineStr">
         <is>
-          <t>maa://23278 (95.88), maa://21386 (95.63), maa://36664 (90.24)</t>
+          <t>maa://23278 (95.89), maa://21386 (95.63), maa://36664 (90.24)</t>
         </is>
       </c>
       <c r="Q40" s="4" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
-          <t>maa://29768 (97.52), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.54), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>maa://35931 (92.58)</t>
+          <t>maa://35931 (92.61)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
-          <t>maa://27410 (95.81), maa://29661 (97.64), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.82), maa://29661 (97.64), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
-          <t>maa://32534 (93.21), **maa://32434 (36.36)</t>
+          <t>maa://32534 (93.26), **maa://32434 (36.36)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -615,7 +615,7 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>maa://24702 (94.1), maa://25390 (97.01), maa://36681 (90.77)</t>
+          <t>maa://24702 (94.1), maa://25390 (96.6), maa://36681 (90.77)</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="AA2" s="5" t="inlineStr">
         <is>
-          <t>maa://21246 (91.23), maa://36684 (98.63), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.26), maa://36684 (98.63), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="4" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>*maa://22880 (69.68), maa://20276 (82.86), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (69.23), maa://20276 (82.86), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>maa://32509 (98.78), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (98.8), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>maa://42407 (87.5)</t>
+          <t>maa://42407 (88.89)</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>maa://24839 (99.2)</t>
+          <t>maa://24839 (99.21)</t>
         </is>
       </c>
       <c r="M6" s="4" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="S6" s="5" t="inlineStr">
         <is>
-          <t>*maa://37411 (75.0)</t>
+          <t>*maa://37411 (77.78)</t>
         </is>
       </c>
       <c r="U6" s="4" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="O7" s="5" t="inlineStr">
         <is>
-          <t>maa://22750 (97.06)</t>
+          <t>maa://22750 (97.14)</t>
         </is>
       </c>
       <c r="Q7" s="4" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>*maa://21476 (69.77), **maa://39431 (40.0), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (69.77), **maa://39431 (50.0), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>maa://32931 (88.89), *maa://21916 (60.34), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
+          <t>maa://32931 (87.8), *maa://21916 (60.34), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
         </is>
       </c>
       <c r="Q8" s="4" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>maa://21411 (96.04)</t>
+          <t>maa://21411 (96.07)</t>
         </is>
       </c>
       <c r="Y8" s="4" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="S9" s="5" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.77), maa://26222 (97.3)</t>
+          <t>**maa://22866 (30.77), maa://26222 (97.37)</t>
         </is>
       </c>
       <c r="U9" s="4" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>maa://27395 (96.03), maa://22755 (87.74), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.08), maa://22755 (87.74), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="S11" s="5" t="inlineStr">
         <is>
-          <t>maa://22747 (94.37), maa://22501 (98.15)</t>
+          <t>maa://22747 (94.41), maa://22501 (98.15)</t>
         </is>
       </c>
       <c r="U11" s="4" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="AA11" s="5" t="inlineStr">
         <is>
-          <t>maa://22516 (89.16), maa://29912 (100.0), *maa://20794 (52.24)</t>
+          <t>maa://22516 (89.29), maa://29912 (100.0), *maa://20794 (52.24)</t>
         </is>
       </c>
       <c r="AC11" s="4" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.48), **maa://22728 (47.62)</t>
+          <t>*maa://21248 (75.12), **maa://22728 (47.62)</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="O13" s="5" t="inlineStr">
         <is>
-          <t>maa://22676 (91.84), *maa://22583 (75.0), *maa://22500 (55.81)</t>
+          <t>maa://22676 (91.84), *maa://22583 (75.41), *maa://22500 (55.81)</t>
         </is>
       </c>
       <c r="Q13" s="4" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="W13" s="5" t="inlineStr">
         <is>
-          <t>*maa://34957 (76.6), *maa://22768 (53.33)</t>
+          <t>*maa://34957 (76.6), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="AE13" s="5" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.6), maa://39883 (88.46), *maa://39885 (73.68)</t>
+          <t>**maa://22737 (30.6), maa://39883 (88.89), *maa://39885 (73.68)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
-          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.18)</t>
+          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.33)</t>
         </is>
       </c>
       <c r="M14" s="4" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.61), maa://22734 (83.33), *maa://30808 (64.29), ***maa://36048 (12.9)</t>
+          <t>*maa://22743 (76.88), maa://22734 (83.33), *maa://30808 (64.29), ***maa://36048 (12.9)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>maa://21441 (96.17), maa://36679 (94.12), maa://37650 (95.45)</t>
+          <t>maa://21441 (96.17), maa://36679 (91.43), maa://37650 (95.45)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="O16" s="5" t="inlineStr">
         <is>
-          <t>maa://28504 (91.67)</t>
+          <t>maa://28504 (91.84)</t>
         </is>
       </c>
       <c r="Q16" s="4" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>maa://22729 (95.17), *maa://28648 (69.09), *maa://36674 (79.31)</t>
+          <t>maa://22729 (95.17), *maa://28648 (69.09), *maa://36674 (80.0)</t>
         </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AE16" s="5" t="inlineStr">
         <is>
-          <t>*maa://23911 (61.96), maa://27755 (91.89)</t>
+          <t>*maa://23911 (62.37), maa://27755 (91.89)</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>maa://24570 (96.65)</t>
+          <t>maa://24570 (96.67)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="K21" s="5" t="inlineStr">
         <is>
-          <t>maa://31731 (95.12)</t>
+          <t>maa://31731 (95.24)</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="AA21" s="5" t="inlineStr">
         <is>
-          <t>*maa://21443 (78.72), **maa://23820 (30.91)</t>
+          <t>*maa://21443 (78.79), **maa://23820 (30.91)</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="AE21" s="5" t="inlineStr">
         <is>
-          <t>maa://22524 (94.29), *maa://22432 (74.55)</t>
+          <t>maa://22524 (94.32), *maa://22432 (74.55)</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>maa://27127 (86.52), *maa://22751 (77.05)</t>
+          <t>maa://27127 (86.52), *maa://22751 (77.42)</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://23504 (92.92), maa://29988 (86.34), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.7), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.41), maa://23504 (92.92), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.7), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="AE24" s="5" t="inlineStr">
         <is>
-          <t>maa://22523 (85.03), *maa://36672 (76.74), maa://29910 (94.12), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.19), *maa://36672 (76.74), maa://29910 (94.12), **maa://21440 (34.55)</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>*maa://29063 (76.12), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (75.56), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>maa://24913 (91.04)</t>
+          <t>maa://24913 (91.18)</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>*maa://42235 (76.19)</t>
+          <t>*maa://42235 (78.26)</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>maa://24465 (90.36), maa://25725 (82.28)</t>
+          <t>maa://24465 (90.37), maa://25725 (82.28)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (86.83), ***maa://39723 (14.71), maa://41749 (81.25)</t>
+          <t>maa://39929 (86.89), ***maa://39723 (14.71), maa://41749 (82.35)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="AE28" s="5" t="inlineStr">
         <is>
-          <t>maa://36660 (93.87), *maa://36701 (64.0)</t>
+          <t>maa://36660 (93.89), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>maa://31694 (97.92)</t>
+          <t>maa://31694 (97.96)</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>maa://28432 (93.52), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.54), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>maa://21895 (97.01), maa://36667 (98.11), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.01), maa://36667 (98.18), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="O33" s="5" t="inlineStr">
         <is>
-          <t>*maa://21956 (79.07), maa://22730 (82.14)</t>
+          <t>*maa://21956 (79.23), maa://22730 (82.14)</t>
         </is>
       </c>
       <c r="Q33" s="4" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="S34" s="5" t="inlineStr">
         <is>
-          <t>maa://24526 (93.16)</t>
+          <t>maa://24526 (93.19)</t>
         </is>
       </c>
       <c r="Y34" s="4" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>maa://41296 (98.15)</t>
+          <t>maa://41296 (98.18)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="O37" s="5" t="inlineStr">
         <is>
-          <t>maa://21280 (89.13), *maa://21239 (72.73)</t>
+          <t>maa://21280 (89.19), *maa://21239 (72.73)</t>
         </is>
       </c>
       <c r="Q37" s="4" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="AE38" s="5" t="inlineStr">
         <is>
-          <t>maa://36697 (84.73)</t>
+          <t>maa://36697 (84.21)</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
-          <t>maa://25199 (86.11), maa://36670 (88.06), maa://30434 (87.5), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (86.11), maa://36670 (88.24), maa://30434 (87.5), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="O40" s="5" t="inlineStr">
         <is>
-          <t>maa://23278 (95.89), maa://21386 (95.63), maa://36664 (90.24)</t>
+          <t>maa://23278 (95.89), maa://21386 (95.65), maa://36664 (90.48)</t>
         </is>
       </c>
       <c r="Q40" s="4" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="O41" s="5" t="inlineStr">
         <is>
-          <t>**maa://35616 (37.93)</t>
+          <t>**maa://35616 (36.67)</t>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
-          <t>maa://29768 (97.54), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.55), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>maa://35931 (92.61)</t>
+          <t>maa://35931 (92.64)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
-          <t>maa://32534 (93.26), **maa://32434 (36.36)</t>
+          <t>maa://32534 (93.31), **maa://32434 (36.36)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -720,7 +720,7 @@
       </c>
       <c r="AE2" s="5" t="inlineStr">
         <is>
-          <t>maa://25251 (92.5), ***maa://21730 (17.19), ***maa://39501 (21.43), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.5), ***maa://21730 (17.19), ***maa://39501 (20.0), *maa://36675 (60.0)</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="W3" s="5" t="inlineStr">
         <is>
-          <t>maa://27396 (85.02), maa://27484 (95.74), maa://27480 (82.35)</t>
+          <t>maa://27396 (85.07), maa://27484 (95.74), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="4" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>maa://32931 (87.8), *maa://21916 (60.34), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
+          <t>maa://32931 (86.9), *maa://21916 (61.02), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
         </is>
       </c>
       <c r="Q8" s="4" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>maa://22762 (91.57), *maa://39552 (66.67)</t>
+          <t>maa://22762 (91.57), *maa://39552 (75.0)</t>
         </is>
       </c>
       <c r="M9" s="4" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="O9" s="5" t="inlineStr">
         <is>
-          <t>maa://22736 (80.25)</t>
+          <t>maa://22736 (80.49)</t>
         </is>
       </c>
       <c r="Q9" s="4" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.19), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (18.52), **maa://39243 (33.33)</t>
+          <t>***maa://25695 (19.08), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (17.86), **maa://39243 (33.33)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>maa://27395 (96.08), maa://22755 (87.74), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.1), maa://22755 (87.74), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="W11" s="5" t="inlineStr">
         <is>
-          <t>maa://36713 (97.86)</t>
+          <t>maa://36713 (97.87)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="W12" s="5" t="inlineStr">
         <is>
-          <t>maa://22753 (91.22), *maa://21485 (76.74), maa://37962 (81.25)</t>
+          <t>maa://22753 (91.33), *maa://21485 (76.74), maa://37962 (81.25)</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="AE13" s="5" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.6), maa://39883 (88.89), *maa://39885 (73.68)</t>
+          <t>**maa://22737 (30.6), maa://39883 (89.29), *maa://39885 (73.68)</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O14" s="5" t="inlineStr">
         <is>
-          <t>maa://23250 (98.48), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.49), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="4" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="R14" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S14" s="5" t="inlineStr">
         <is>
-          <t>maa://22521 (94.44)</t>
+          <t>maa://22521 (94.44), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.88), maa://22734 (83.33), *maa://30808 (64.29), ***maa://36048 (12.9)</t>
+          <t>*maa://22743 (76.44), maa://22734 (83.33), *maa://30808 (64.29), ***maa://36048 (12.9)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>maa://24570 (96.67)</t>
+          <t>maa://24570 (96.69)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="AA19" s="5" t="inlineStr">
         <is>
-          <t>*maa://30709 (60.9), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (61.01), *maa://36668 (52.17)</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>maa://41331 (82.93)</t>
+          <t>maa://41331 (84.09)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="O20" s="5" t="inlineStr">
         <is>
-          <t>maa://37442 (96.55)</t>
+          <t>maa://37442 (96.77)</t>
         </is>
       </c>
       <c r="Q20" s="4" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="AE21" s="5" t="inlineStr">
         <is>
-          <t>maa://22524 (94.32), *maa://22432 (74.55)</t>
+          <t>maa://22524 (94.35), *maa://22432 (74.55)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
-          <t>maa://25236 (95.83), **maa://21678 (48.94), **maa://22735 (50.0)</t>
+          <t>maa://25236 (95.89), **maa://21678 (48.94), **maa://22735 (50.0)</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>maa://39756 (92.59), maa://39875 (95.83)</t>
+          <t>maa://39756 (92.59), maa://39875 (95.92)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://29988 (86.41), maa://23504 (92.92), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.7), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.41), maa://23504 (92.94), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.7), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>*maa://29063 (75.56), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (75.74), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="AA25" s="5" t="inlineStr">
         <is>
-          <t>maa://31215 (84.15), *maa://24516 (79.07), maa://26001 (88.89)</t>
+          <t>maa://31215 (84.34), *maa://24516 (79.07), maa://26001 (88.89)</t>
         </is>
       </c>
       <c r="AC25" s="4" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="AE25" s="5" t="inlineStr">
         <is>
-          <t>maa://20108 (96.12), maa://24621 (96.43), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.15), maa://24621 (96.43), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>*maa://42235 (78.26)</t>
+          <t>*maa://42235 (80.0)</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>maa://24465 (90.37), maa://25725 (82.28)</t>
+          <t>maa://24465 (90.39), maa://25725 (82.28)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (86.89), ***maa://39723 (14.71), maa://41749 (82.35)</t>
+          <t>maa://39929 (87.08), ***maa://39723 (14.71), maa://41749 (85.0)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="AE29" s="5" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.02), ***maa://34960 (8.7)</t>
+          <t>*maa://24080 (69.11), ***maa://34960 (8.7)</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="W30" s="5" t="inlineStr">
         <is>
-          <t>*maa://39477 (75.0)</t>
+          <t>*maa://39477 (77.78)</t>
         </is>
       </c>
       <c r="Y30" s="4" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="K31" s="5" t="inlineStr">
         <is>
-          <t>maa://35926 (93.56), maa://36258 (80.52)</t>
+          <t>maa://35926 (93.19), maa://36258 (80.52)</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>maa://41108 (89.47), maa://41238 (94.59)</t>
+          <t>maa://41108 (87.5), maa://41238 (94.74)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>maa://41296 (98.18)</t>
+          <t>maa://41296 (98.25)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="AE38" s="5" t="inlineStr">
         <is>
-          <t>maa://36697 (84.21)</t>
+          <t>maa://36697 (83.7)</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="S44" s="5" t="inlineStr">
         <is>
-          <t>maa://39366 (83.33)</t>
+          <t>maa://39366 (84.0)</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>maa://35931 (92.64)</t>
+          <t>maa://35931 (92.67)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>*maa://24633 (54.97), *maa://30515 (69.7), ***maa://20792 (11.93), *maa://34787 (72.13), maa://39402 (85.19), ***maa://29083 (29.41)</t>
+          <t>*maa://24633 (54.97), *maa://30515 (69.7), *maa://34787 (72.13), ***maa://20792 (11.93), maa://39402 (85.19), ***maa://29083 (29.41)</t>
         </is>
       </c>
       <c r="M2" s="4" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>maa://24632 (93.28), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.33), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="W11" s="5" t="inlineStr">
         <is>
-          <t>maa://36713 (97.87)</t>
+          <t>maa://36713 (97.88)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="W12" s="5" t="inlineStr">
         <is>
-          <t>maa://22753 (91.33), *maa://21485 (76.74), maa://37962 (81.25)</t>
+          <t>maa://22753 (91.33), *maa://21485 (76.74), maa://37962 (82.35)</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>maa://24999 (91.46), maa://36673 (91.8), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.48), maa://36673 (91.8), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>maa://30764 (86.36)</t>
+          <t>maa://30764 (86.67)</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AE15" s="5" t="inlineStr">
         <is>
-          <t>maa://21364 (80.68), *maa://22766 (73.0), *maa://36666 (78.46)</t>
+          <t>maa://21364 (80.68), *maa://22766 (73.0), *maa://36666 (77.27)</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>maa://22430 (88.14), maa://39599 (80.95)</t>
+          <t>maa://22430 (88.14), maa://39599 (81.82)</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="AA19" s="5" t="inlineStr">
         <is>
-          <t>*maa://30709 (61.01), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (61.11), *maa://36668 (52.17)</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>maa://41331 (84.09)</t>
+          <t>maa://41331 (84.44)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>maa://39756 (92.59), maa://39875 (95.92)</t>
+          <t>maa://39756 (92.64), maa://39875 (95.92)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="O23" s="5" t="inlineStr">
         <is>
-          <t>maa://30587 (91.67), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (78.95)</t>
+          <t>maa://30587 (91.72), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (78.95)</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://29988 (86.41), maa://23504 (92.94), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.7), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.47), maa://23504 (92.94), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.7), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="AA25" s="5" t="inlineStr">
         <is>
-          <t>maa://31215 (84.34), *maa://24516 (79.07), maa://26001 (88.89)</t>
+          <t>maa://31215 (84.34), *maa://24516 (79.07), maa://26001 (87.27)</t>
         </is>
       </c>
       <c r="AC25" s="4" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>*maa://42235 (80.0)</t>
+          <t>maa://42235 (80.77)</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>maa://24465 (90.39), maa://25725 (82.28)</t>
+          <t>maa://24465 (90.4), maa://25725 (82.28)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="S28" s="5" t="inlineStr">
         <is>
-          <t>maa://23263 (94.32), *maa://29765 (61.19)</t>
+          <t>maa://23263 (94.32), *maa://29765 (60.29)</t>
         </is>
       </c>
       <c r="U28" s="4" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (87.08), ***maa://39723 (14.71), maa://41749 (85.0)</t>
+          <t>maa://39929 (87.14), ***maa://39723 (14.71), maa://41749 (85.0)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="AE28" s="5" t="inlineStr">
         <is>
-          <t>maa://36660 (93.89), *maa://36701 (64.0)</t>
+          <t>maa://36660 (93.54), *maa://36701 (64.0)</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="AE29" s="5" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.11), ***maa://34960 (8.7)</t>
+          <t>*maa://24080 (68.92), ***maa://34960 (8.7)</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="W30" s="5" t="inlineStr">
         <is>
-          <t>*maa://39477 (77.78)</t>
+          <t>*maa://39477 (80.0)</t>
         </is>
       </c>
       <c r="Y30" s="4" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://41238 (94.74)</t>
+          <t>maa://41108 (87.8), maa://41238 (94.74)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>maa://41296 (98.25)</t>
+          <t>maa://41296 (98.28)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="O40" s="5" t="inlineStr">
         <is>
-          <t>maa://23278 (95.89), maa://21386 (95.65), maa://36664 (90.48)</t>
+          <t>maa://23278 (95.89), maa://21386 (95.65), maa://36664 (90.7)</t>
         </is>
       </c>
       <c r="Q40" s="4" t="inlineStr">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="S44" s="5" t="inlineStr">
         <is>
-          <t>maa://39366 (84.0)</t>
+          <t>maa://39366 (84.62)</t>
         </is>
       </c>
     </row>
@@ -5304,12 +5304,12 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
-          <t>maa://21229 (85.47), maa://30807 (95.08), *maa://22767 (52.94), ***maa://20796 (13.79)</t>
+          <t>maa://21229 (85.47), maa://30807 (95.08), *maa://22767 (52.94), ***maa://20796 (13.79), maa://42459 (100.0)</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="O45" s="5" t="inlineStr">
         <is>
-          <t>*maa://36237 (54.55)</t>
+          <t>*maa://36237 (58.33)</t>
         </is>
       </c>
       <c r="Q45" s="4" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="S45" s="5" t="inlineStr">
         <is>
-          <t>**maa://39364 (50.0)</t>
+          <t>**maa://39364 (45.45)</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>maa://35931 (92.67)</t>
+          <t>maa://35931 (92.27)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>maa://32532 (91.93)</t>
+          <t>maa://32532 (91.96)</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="G58" s="5" t="inlineStr">
         <is>
-          <t>*maa://37964 (63.16)</t>
+          <t>*maa://37964 (60.0)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -615,7 +615,7 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>maa://24702 (94.1), maa://25390 (96.6), maa://36681 (90.77)</t>
+          <t>maa://24702 (94.12), maa://25390 (96.19), maa://36681 (88.24)</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>*maa://24633 (54.97), *maa://30515 (69.7), *maa://34787 (72.13), ***maa://20792 (11.93), maa://39402 (85.19), ***maa://29083 (29.41)</t>
+          <t>*maa://24633 (54.97), *maa://30515 (69.7), *maa://34787 (72.13), ***maa://20792 (11.93), maa://39402 (86.21), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="4" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="S2" s="5" t="inlineStr">
         <is>
-          <t>maa://22742 (92.2), *maa://20791 (62.32)</t>
+          <t>maa://22742 (92.25), *maa://20791 (62.32)</t>
         </is>
       </c>
       <c r="U2" s="4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="AA2" s="5" t="inlineStr">
         <is>
-          <t>maa://21246 (91.26), maa://36684 (98.63), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.26), maa://36684 (98.68), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="4" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="AE2" s="5" t="inlineStr">
         <is>
-          <t>maa://25251 (92.5), ***maa://21730 (17.19), ***maa://39501 (20.0), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.77), ***maa://21730 (17.19), ***maa://39501 (18.75), *maa://36675 (60.0)</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>maa://36987 (95.65), maa://40192 (100.0), maa://39849 (100.0)</t>
+          <t>maa://36987 (93.62), maa://40192 (95.65), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>maa://21247 (98.29), *maa://22748 (75.0)</t>
+          <t>maa://21247 (98.31), *maa://22748 (75.0)</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>*maa://22880 (69.23), maa://20276 (82.86), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (70.0), maa://20276 (83.33), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="O3" s="5" t="inlineStr">
         <is>
-          <t>maa://21249 (95.17), maa://26254 (95.24)</t>
+          <t>maa://21249 (95.22), maa://26254 (95.65)</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="S3" s="5" t="inlineStr">
         <is>
-          <t>maa://24617 (88.35), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
+          <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
         </is>
       </c>
       <c r="U3" s="4" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="W3" s="5" t="inlineStr">
         <is>
-          <t>maa://27396 (85.07), maa://27484 (95.74), maa://27480 (82.35)</t>
+          <t>maa://27396 (85.37), maa://27484 (95.79), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="4" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="AE3" s="5" t="inlineStr">
         <is>
-          <t>*maa://21289 (70.0)</t>
+          <t>*maa://21289 (71.43)</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>maa://24632 (93.33), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.43), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>maa://32509 (98.8), maa://22754 (91.67), maa://27295 (80.39), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.7), maa://22754 (91.67), maa://27295 (80.77), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.54), ***maa://31785 (19.47), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (47.01), ***maa://31785 (20.87), ***maa://36683 (26.67)</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="AE4" s="5" t="inlineStr">
         <is>
-          <t>*maa://30062 (61.9), ***maa://26209 (13.04), *maa://39394 (78.57)</t>
+          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (73.33)</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>maa://21245 (82.29), maa://22744 (83.33)</t>
+          <t>maa://21245 (82.05), maa://22744 (83.33)</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>maa://22757 (81.48)</t>
+          <t>*maa://22757 (78.57)</t>
         </is>
       </c>
       <c r="M5" s="4" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="O5" s="5" t="inlineStr">
         <is>
-          <t>maa://21919 (95.56), maa://21281 (92.31)</t>
+          <t>maa://21919 (95.74), maa://21281 (92.31)</t>
         </is>
       </c>
       <c r="Q5" s="4" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="AA5" s="5" t="inlineStr">
         <is>
-          <t>*maa://29863 (75.0), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
+          <t>*maa://29863 (72.41), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
         </is>
       </c>
       <c r="AC5" s="4" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>maa://42407 (88.89)</t>
+          <t>maa://42407 (94.12)</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>maa://24370 (96.15)</t>
+          <t>maa://24370 (96.3)</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>maa://24839 (99.21)</t>
+          <t>maa://24839 (99.22)</t>
         </is>
       </c>
       <c r="M6" s="4" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="O6" s="5" t="inlineStr">
         <is>
-          <t>maa://31836 (93.33), maa://30381 (100.0)</t>
+          <t>maa://31836 (88.24), maa://30381 (91.67)</t>
         </is>
       </c>
       <c r="Q6" s="4" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="S6" s="5" t="inlineStr">
         <is>
-          <t>*maa://37411 (77.78)</t>
+          <t>maa://37411 (81.82)</t>
         </is>
       </c>
       <c r="U6" s="4" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="AA6" s="5" t="inlineStr">
         <is>
-          <t>maa://22739 (91.67)</t>
+          <t>maa://22739 (92.0)</t>
         </is>
       </c>
       <c r="AC6" s="4" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AE6" s="5" t="inlineStr">
         <is>
-          <t>*maa://33152 (60.61), ***maa://22770 (28.57)</t>
+          <t>*maa://33152 (61.76), ***maa://22770 (28.57)</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>maa://21955 (92.86)</t>
+          <t>maa://21955 (93.33)</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>maa://28624 (91.55), maa://24957 (97.44)</t>
+          <t>maa://28624 (92.0), maa://24957 (97.56)</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="O7" s="5" t="inlineStr">
         <is>
-          <t>maa://22750 (97.14)</t>
+          <t>maa://22750 (94.44)</t>
         </is>
       </c>
       <c r="Q7" s="4" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="S7" s="5" t="inlineStr">
         <is>
-          <t>maa://21291 (89.47)</t>
+          <t>maa://21291 (89.74)</t>
         </is>
       </c>
       <c r="U7" s="4" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>maa://22399 (94.66), *maa://22758 (70.37)</t>
+          <t>maa://22399 (94.74), *maa://22758 (70.37)</t>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="AE7" s="5" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.49), *maa://36671 (72.73), maa://42530 (100.0)</t>
+          <t>*maa://26191 (68.49), *maa://36671 (72.73), *maa://42530 (75.0)</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>*maa://21476 (69.77), **maa://39431 (50.0), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (70.45), **maa://39431 (42.86), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>*maa://24371 (53.03)</t>
+          <t>*maa://24371 (52.24)</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>maa://32931 (86.9), *maa://21916 (61.02), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
+          <t>maa://32931 (87.21), *maa://21916 (60.0), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
         </is>
       </c>
       <c r="Q8" s="4" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>maa://21411 (96.07)</t>
+          <t>maa://21411 (95.79)</t>
         </is>
       </c>
       <c r="Y8" s="4" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="AA8" s="5" t="inlineStr">
         <is>
-          <t>maa://25389 (88.89)</t>
+          <t>maa://25389 (89.66)</t>
         </is>
       </c>
       <c r="AC8" s="4" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="AE8" s="5" t="inlineStr">
         <is>
-          <t>*maa://24479 (76.71), *maa://21990 (53.85)</t>
+          <t>*maa://24479 (77.33), *maa://21990 (53.85)</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>maa://22762 (91.57), *maa://39552 (75.0)</t>
+          <t>maa://22762 (91.57), maa://39552 (85.71)</t>
         </is>
       </c>
       <c r="M9" s="4" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="O9" s="5" t="inlineStr">
         <is>
-          <t>maa://22736 (80.49)</t>
+          <t>maa://22736 (80.95)</t>
         </is>
       </c>
       <c r="Q9" s="4" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="S9" s="5" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.77), maa://26222 (97.37)</t>
+          <t>**maa://22866 (30.77), maa://26222 (97.5)</t>
         </is>
       </c>
       <c r="U9" s="4" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="W9" s="5" t="inlineStr">
         <is>
-          <t>maa://26223 (97.0)</t>
+          <t>maa://26223 (97.09)</t>
         </is>
       </c>
       <c r="Y9" s="4" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AA9" s="5" t="inlineStr">
         <is>
-          <t>maa://28711 (88.1), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (43.75), maa://40166 (100.0)</t>
+          <t>maa://28711 (88.37), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (41.18), maa://40166 (100.0)</t>
         </is>
       </c>
       <c r="AC9" s="4" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AE9" s="5" t="inlineStr">
         <is>
-          <t>maa://26206 (89.29), **maa://22865 (45.65)</t>
+          <t>maa://26206 (90.11), **maa://22865 (47.92)</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.08), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (17.86), **maa://39243 (33.33)</t>
+          <t>***maa://25695 (18.97), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (16.13), **maa://39243 (33.33)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>maa://32651 (100.0)</t>
+          <t>maa://32651 (92.86)</t>
         </is>
       </c>
       <c r="I10" s="4" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="O10" s="5" t="inlineStr">
         <is>
-          <t>maa://28977 (94.74), *maa://23264 (62.96), maa://36669 (87.5)</t>
+          <t>maa://28977 (93.59), *maa://23264 (61.82), maa://36669 (84.62)</t>
         </is>
       </c>
       <c r="Q10" s="4" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>maa://27395 (96.1), maa://22755 (87.74), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.18), maa://22755 (86.92), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="W10" s="5" t="inlineStr">
         <is>
-          <t>maa://22301 (97.42), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.45), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="4" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="AE10" s="5" t="inlineStr">
         <is>
-          <t>*maa://25021 (56.16), *maa://22733 (58.62), maa://22761 (100.0)</t>
+          <t>*maa://25021 (56.0), *maa://22733 (60.0), maa://22761 (100.0)</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>maa://36707 (99.64)</t>
+          <t>maa://36707 (99.66)</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="W11" s="5" t="inlineStr">
         <is>
-          <t>maa://36713 (97.88)</t>
+          <t>maa://36713 (97.92)</t>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="AE11" s="5" t="inlineStr">
         <is>
-          <t>maa://31203 (94.44), ***maa://24394 (19.23)</t>
+          <t>maa://31203 (94.74), ***maa://24394 (19.23)</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>maa://21867 (90.07)</t>
+          <t>maa://21867 (90.2)</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="W12" s="5" t="inlineStr">
         <is>
-          <t>maa://22753 (91.33), *maa://21485 (76.74), maa://37962 (82.35)</t>
+          <t>maa://22753 (91.5), *maa://21485 (76.92), maa://37962 (83.33)</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="AA12" s="5" t="inlineStr">
         <is>
-          <t>maa://23669 (95.51), maa://36677 (92.5), maa://39872 (85.71)</t>
+          <t>maa://23669 (95.51), maa://36677 (92.5), maa://39872 (86.67)</t>
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="AE12" s="5" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.63), *maa://20106 (63.64), *maa://22769 (62.96)</t>
+          <t>*maa://28932 (78.15), *maa://20106 (63.64), *maa://22769 (62.96)</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>maa://24999 (91.48), maa://36673 (91.8), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.43), maa://36673 (92.06), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.12), **maa://22728 (47.62)</t>
+          <t>*maa://21248 (74.88), **maa://22728 (46.51)</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="O13" s="5" t="inlineStr">
         <is>
-          <t>maa://22676 (91.84), *maa://22583 (75.41), *maa://22500 (55.81)</t>
+          <t>maa://22676 (92.08), *maa://22583 (75.41), *maa://22500 (55.81)</t>
         </is>
       </c>
       <c r="Q13" s="4" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="W13" s="5" t="inlineStr">
         <is>
-          <t>*maa://34957 (76.6), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (77.36), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="AE13" s="5" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.6), maa://39883 (89.29), *maa://39885 (73.68)</t>
+          <t>**maa://22737 (30.6), maa://39883 (90.62), *maa://39885 (70.0)</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>maa://30764 (86.67)</t>
+          <t>maa://30764 (87.23)</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
-          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.33)</t>
+          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.62)</t>
         </is>
       </c>
       <c r="M14" s="4" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O14" s="5" t="inlineStr">
         <is>
-          <t>maa://23250 (98.49), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.52), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="4" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="S14" s="5" t="inlineStr">
         <is>
-          <t>maa://22521 (94.44), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.51), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="W14" s="5" t="inlineStr">
         <is>
-          <t>maa://37468 (92.86)</t>
+          <t>maa://37468 (87.5)</t>
         </is>
       </c>
       <c r="Y14" s="4" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AA14" s="5" t="inlineStr">
         <is>
-          <t>maa://22764 (96.43)</t>
+          <t>maa://22764 (96.61)</t>
         </is>
       </c>
       <c r="AC14" s="4" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.44), maa://22734 (83.33), *maa://30808 (64.29), ***maa://36048 (12.9)</t>
+          <t>*maa://22743 (77.09), maa://22734 (83.48), *maa://30808 (64.41), ***maa://36048 (12.5)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>maa://24304 (88.11), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.24), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="K15" s="5" t="inlineStr">
         <is>
-          <t>*maa://21334 (52.0)</t>
+          <t>*maa://21334 (51.85)</t>
         </is>
       </c>
       <c r="M15" s="4" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="O15" s="5" t="inlineStr">
         <is>
-          <t>maa://24762 (89.58), *maa://22727 (70.0)</t>
+          <t>maa://24762 (89.66), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="4" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>maa://23892 (98.63)</t>
+          <t>maa://23892 (98.65)</t>
         </is>
       </c>
       <c r="U15" s="4" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="W15" s="5" t="inlineStr">
         <is>
-          <t>*maa://38786 (75.0)</t>
+          <t>*maa://38786 (80.0)</t>
         </is>
       </c>
       <c r="Y15" s="4" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AE15" s="5" t="inlineStr">
         <is>
-          <t>maa://21364 (80.68), *maa://22766 (73.0), *maa://36666 (77.27)</t>
+          <t>maa://21364 (80.68), *maa://22766 (72.12), *maa://36666 (77.61)</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>maa://21441 (96.17), maa://36679 (91.43), maa://37650 (95.45)</t>
+          <t>maa://21441 (96.17), maa://36679 (91.43), maa://37650 (96.3)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="O16" s="5" t="inlineStr">
         <is>
-          <t>maa://28504 (91.84)</t>
+          <t>maa://28504 (90.38)</t>
         </is>
       </c>
       <c r="Q16" s="4" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>maa://22729 (95.17), *maa://28648 (69.09), *maa://36674 (80.0)</t>
+          <t>maa://22729 (95.17), *maa://28648 (69.64), maa://36674 (81.25)</t>
         </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="W16" s="5" t="inlineStr">
         <is>
-          <t>maa://28501 (97.47), maa://28051 (95.83)</t>
+          <t>maa://28501 (97.62), maa://28051 (95.83)</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="AA16" s="5" t="inlineStr">
         <is>
-          <t>maa://26228 (96.15)</t>
+          <t>maa://26228 (95.06)</t>
         </is>
       </c>
       <c r="AC16" s="4" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AE16" s="5" t="inlineStr">
         <is>
-          <t>*maa://23911 (62.37), maa://27755 (91.89)</t>
+          <t>*maa://23911 (63.16), maa://27755 (92.11)</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>maa://21624 (81.25)</t>
+          <t>maa://21624 (81.82)</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>maa://22430 (88.14), maa://39599 (81.82)</t>
+          <t>maa://22430 (88.14), maa://39599 (84.0)</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="O17" s="5" t="inlineStr">
         <is>
-          <t>maa://23890 (81.25), *maa://24940 (69.23)</t>
+          <t>maa://23890 (80.41), *maa://24940 (66.67)</t>
         </is>
       </c>
       <c r="Q17" s="4" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>***maa://42324 (28.57)</t>
+          <t>**maa://42324 (30.77)</t>
         </is>
       </c>
       <c r="U17" s="4" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>maa://24570 (96.69)</t>
+          <t>maa://24570 (96.79)</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>maa://24421 (90.23)</t>
+          <t>maa://24421 (90.37)</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
-          <t>maa://22466 (88.55), *maa://22732 (51.85)</t>
+          <t>maa://22466 (88.72), *maa://22732 (51.22)</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="W18" s="5" t="inlineStr">
         <is>
-          <t>maa://21917 (97.5), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.53), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="4" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="AA18" s="5" t="inlineStr">
         <is>
-          <t>maa://24393 (97.14)</t>
+          <t>maa://24393 (97.3)</t>
         </is>
       </c>
       <c r="AC18" s="4" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="AE18" s="5" t="inlineStr">
         <is>
-          <t>*maa://24313 (57.62), **maa://29784 (46.15)</t>
+          <t>*maa://24313 (57.89), **maa://29784 (44.44)</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>maa://24386 (98.81)</t>
+          <t>maa://24386 (98.84)</t>
         </is>
       </c>
       <c r="U19" s="4" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="AA19" s="5" t="inlineStr">
         <is>
-          <t>*maa://30709 (61.11), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (61.72), *maa://36668 (52.17)</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AE19" s="5" t="inlineStr">
         <is>
-          <t>*maa://21663 (61.02)</t>
+          <t>*maa://21663 (61.67)</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>maa://21432 (90.7), maa://25198 (93.62), **maa://20795 (49.59), maa://36680 (100.0)</t>
+          <t>maa://21432 (90.91), maa://25198 (93.68), *maa://20795 (50.4), maa://36680 (100.0)</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
-          <t>maa://22864 (88.55)</t>
+          <t>maa://22864 (88.81)</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>maa://41331 (84.44)</t>
+          <t>maa://41331 (81.82)</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="O20" s="5" t="inlineStr">
         <is>
-          <t>maa://37442 (96.77)</t>
+          <t>maa://37442 (96.88)</t>
         </is>
       </c>
       <c r="Q20" s="4" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
-          <t>maa://29113 (95.45)</t>
+          <t>maa://29113 (95.65)</t>
         </is>
       </c>
       <c r="U20" s="4" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
-          <t>maa://24372 (97.56)</t>
+          <t>maa://24372 (96.43)</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="K21" s="5" t="inlineStr">
         <is>
-          <t>maa://31731 (95.24)</t>
+          <t>maa://31731 (95.56)</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="W21" s="5" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (90.62)</t>
+          <t>maa://20110 (86.76), maa://34946 (91.18)</t>
         </is>
       </c>
       <c r="Y21" s="4" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="AA21" s="5" t="inlineStr">
         <is>
-          <t>*maa://21443 (78.79), **maa://23820 (30.91)</t>
+          <t>*maa://21443 (79.04), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="AE21" s="5" t="inlineStr">
         <is>
-          <t>maa://22524 (94.35), *maa://22432 (74.55)</t>
+          <t>maa://22524 (93.99), *maa://22432 (75.44)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
-          <t>maa://25236 (95.89), **maa://21678 (48.94), **maa://22735 (50.0)</t>
+          <t>maa://25236 (96.05), **maa://21678 (48.94), **maa://22735 (50.0)</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>maa://27127 (86.52), *maa://22751 (77.42)</t>
+          <t>maa://27127 (85.56), *maa://22751 (76.19)</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>maa://38495 (100.0)</t>
+          <t>maa://38495 (87.5)</t>
         </is>
       </c>
       <c r="U22" s="4" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="W22" s="5" t="inlineStr">
         <is>
-          <t>maa://21282 (98.84), *maa://37649 (66.67)</t>
+          <t>maa://21282 (98.86), *maa://37649 (70.0)</t>
         </is>
       </c>
       <c r="Y22" s="4" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="AE22" s="5" t="inlineStr">
         <is>
-          <t>maa://29658 (94.59)</t>
+          <t>maa://29658 (94.74)</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.36), *maa://41753 (75.0)</t>
+          <t>***maa://28036 (28.36), *maa://41753 (60.0)</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>maa://39756 (92.64), maa://39875 (95.92)</t>
+          <t>maa://39756 (93.06), maa://39875 (94.34)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="O23" s="5" t="inlineStr">
         <is>
-          <t>maa://30587 (91.72), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (78.95)</t>
+          <t>maa://30587 (91.86), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (76.19)</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>maa://24387 (82.86), maa://31212 (95.83)</t>
+          <t>maa://24387 (82.86), maa://31212 (96.0)</t>
         </is>
       </c>
       <c r="U23" s="4" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="W23" s="5" t="inlineStr">
         <is>
-          <t>*maa://28503 (63.93)</t>
+          <t>*maa://28503 (65.08)</t>
         </is>
       </c>
       <c r="Y23" s="4" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="AA23" s="5" t="inlineStr">
         <is>
-          <t>maa://29652 (97.3)</t>
+          <t>maa://29652 (97.37)</t>
         </is>
       </c>
       <c r="AC23" s="4" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>maa://24368 (80.42)</t>
+          <t>maa://24368 (80.36)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://29988 (86.47), maa://23504 (92.94), **maa://22892 (40.14), *maa://25141 (77.05), maa://36663 (80.7), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (85.78), maa://23504 (92.76), **maa://22892 (40.14), *maa://25141 (77.24), *maa://36663 (79.31), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="AE24" s="5" t="inlineStr">
         <is>
-          <t>maa://22523 (85.19), *maa://36672 (76.74), maa://29910 (94.12), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.34), *maa://36672 (77.27), maa://29910 (94.12), **maa://21440 (34.55)</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>maa://29753 (95.18)</t>
+          <t>maa://29753 (95.28)</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>*maa://29063 (75.74), *maa://25311 (74.19), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (74.64), *maa://25311 (74.47), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="O25" s="5" t="inlineStr">
         <is>
-          <t>maa://24382 (92.0)</t>
+          <t>maa://24382 (92.31)</t>
         </is>
       </c>
       <c r="Q25" s="4" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>maa://20109 (92.68), maa://22545 (100.0)</t>
+          <t>maa://20109 (92.12), maa://22545 (100.0)</t>
         </is>
       </c>
       <c r="U25" s="4" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="W25" s="5" t="inlineStr">
         <is>
-          <t>*maa://29890 (73.68)</t>
+          <t>*maa://29890 (75.0)</t>
         </is>
       </c>
       <c r="Y25" s="4" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="AA25" s="5" t="inlineStr">
         <is>
-          <t>maa://31215 (84.34), *maa://24516 (79.07), maa://26001 (87.27)</t>
+          <t>maa://31215 (84.88), *maa://24516 (79.07), maa://26001 (87.27)</t>
         </is>
       </c>
       <c r="AC25" s="4" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="AE25" s="5" t="inlineStr">
         <is>
-          <t>maa://20108 (96.15), maa://24621 (96.43), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.18), maa://24621 (96.46), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
         </is>
       </c>
     </row>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>maa://24913 (91.18)</t>
+          <t>maa://24913 (91.43)</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>maa://42235 (80.77)</t>
+          <t>maa://42235 (86.49)</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="AE26" s="5" t="inlineStr">
         <is>
-          <t>maa://30511 (84.38), *maa://29760 (61.54)</t>
+          <t>maa://30511 (84.85), *maa://29760 (61.54)</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (100.0), **maa://36665 (44.44), *maa://39601 (80.0)</t>
+          <t>**maa://21283 (48.65), maa://34494 (100.0), *maa://39601 (72.73), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="K27" s="5" t="inlineStr">
         <is>
-          <t>maa://28071 (86.67)</t>
+          <t>maa://28071 (88.24)</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="S27" s="5" t="inlineStr">
         <is>
-          <t>*maa://30624 (76.32)</t>
+          <t>*maa://30624 (75.0)</t>
         </is>
       </c>
       <c r="U27" s="4" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>maa://24465 (90.4), maa://25725 (82.28)</t>
+          <t>maa://24465 (90.47), maa://25725 (82.72)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="S28" s="5" t="inlineStr">
         <is>
-          <t>maa://23263 (94.32), *maa://29765 (60.29)</t>
+          <t>maa://23263 (94.57), *maa://29765 (60.0)</t>
         </is>
       </c>
       <c r="U28" s="4" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>maa://39929 (87.14), ***maa://39723 (14.71), maa://41749 (85.0)</t>
+          <t>maa://39929 (87.34), ***maa://39723 (14.29), maa://41749 (83.33)</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="AE28" s="5" t="inlineStr">
         <is>
-          <t>maa://36660 (93.54), *maa://36701 (64.0)</t>
+          <t>maa://36660 (92.67), *maa://36701 (62.96)</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>maa://31694 (97.96)</t>
+          <t>maa://31694 (98.0)</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>maa://28432 (93.54), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.58), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -4009,12 +4009,12 @@
       </c>
       <c r="AD29" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE29" s="5" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.92), ***maa://34960 (8.7)</t>
+          <t>*maa://24080 (69.17), ***maa://34960 (8.7), maa://42865 (100.0)</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>maa://30442 (94.55)</t>
+          <t>maa://30442 (94.64)</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
@@ -4116,12 +4116,12 @@
       </c>
       <c r="Z30" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA30" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://42979 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="4" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="K31" s="5" t="inlineStr">
         <is>
-          <t>maa://35926 (93.19), maa://36258 (80.52)</t>
+          <t>maa://35926 (93.36), *maa://36258 (79.49)</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="S31" s="5" t="inlineStr">
         <is>
-          <t>maa://30711 (96.3), maa://30768 (100.0)</t>
+          <t>maa://30711 (96.43), maa://30768 (100.0)</t>
         </is>
       </c>
       <c r="U31" s="4" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>maa://21895 (97.01), maa://36667 (98.18), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.02), maa://36667 (98.21), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
@@ -4330,12 +4330,12 @@
       </c>
       <c r="R32" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>maa://41108 (87.8), maa://41238 (94.74)</t>
+          <t>maa://41108 (88.64), maa://41238 (95.24), maa://42859 (92.31)</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="O33" s="5" t="inlineStr">
         <is>
-          <t>*maa://21956 (79.23), maa://22730 (82.14)</t>
+          <t>*maa://21956 (78.95), maa://22730 (82.14)</t>
         </is>
       </c>
       <c r="Q33" s="4" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="S34" s="5" t="inlineStr">
         <is>
-          <t>maa://24526 (93.19)</t>
+          <t>maa://24526 (93.25)</t>
         </is>
       </c>
       <c r="Y34" s="4" t="inlineStr">
@@ -4599,6 +4599,21 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>忍冬</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
           <t>史尔特尔</t>
@@ -4626,7 +4641,7 @@
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>maa://41296 (98.28)</t>
+          <t>maa://41296 (98.55)</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
@@ -4686,7 +4701,7 @@
       </c>
       <c r="AE35" s="5" t="inlineStr">
         <is>
-          <t>maa://39479 (90.0)</t>
+          <t>maa://39479 (92.31)</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4763,7 @@
       </c>
       <c r="S36" s="5" t="inlineStr">
         <is>
-          <t>maa://27613 (98.96)</t>
+          <t>maa://27613 (98.97)</t>
         </is>
       </c>
       <c r="Y36" s="4" t="inlineStr">
@@ -4795,7 +4810,7 @@
       </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
-          <t>*maa://24374 (55.26)</t>
+          <t>*maa://24374 (57.5)</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
@@ -4825,7 +4840,7 @@
       </c>
       <c r="O37" s="5" t="inlineStr">
         <is>
-          <t>maa://21280 (89.19), *maa://21239 (72.73)</t>
+          <t>maa://21280 (88.83), *maa://21239 (72.73)</t>
         </is>
       </c>
       <c r="Q37" s="4" t="inlineStr">
@@ -4937,7 +4952,7 @@
       </c>
       <c r="S38" s="5" t="inlineStr">
         <is>
-          <t>maa://30713 (100.0)</t>
+          <t>maa://30713 (96.55)</t>
         </is>
       </c>
       <c r="AC38" s="4" t="inlineStr">
@@ -4952,7 +4967,7 @@
       </c>
       <c r="AE38" s="5" t="inlineStr">
         <is>
-          <t>maa://36697 (83.7)</t>
+          <t>maa://36697 (84.51)</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4984,7 @@
       </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
-          <t>maa://25199 (86.11), maa://36670 (88.24), maa://30434 (87.5), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (85.32), maa://36670 (88.57), maa://30434 (87.5), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -4999,7 +5014,7 @@
       </c>
       <c r="O39" s="5" t="inlineStr">
         <is>
-          <t>maa://24709 (92.23)</t>
+          <t>maa://24709 (92.31)</t>
         </is>
       </c>
       <c r="Q39" s="4" t="inlineStr">
@@ -5081,7 +5096,7 @@
       </c>
       <c r="O40" s="5" t="inlineStr">
         <is>
-          <t>maa://23278 (95.89), maa://21386 (95.65), maa://36664 (90.7)</t>
+          <t>maa://23278 (95.92), maa://21386 (95.68), maa://36664 (90.91)</t>
         </is>
       </c>
       <c r="Q40" s="4" t="inlineStr">
@@ -5095,6 +5110,21 @@
         </is>
       </c>
       <c r="S40" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>云迹</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5113,7 +5143,22 @@
       </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
-          <t>maa://24466 (95.0)</t>
+          <t>maa://24466 (95.12)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>菲莱</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
@@ -5128,7 +5173,7 @@
       </c>
       <c r="O41" s="5" t="inlineStr">
         <is>
-          <t>**maa://35616 (36.67)</t>
+          <t>**maa://35616 (39.39)</t>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
@@ -5144,6 +5189,21 @@
       <c r="S41" s="5" t="inlineStr">
         <is>
           <t>None</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>裁度</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5198,6 +5258,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>弑君者</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="E43" s="4" t="inlineStr">
@@ -5212,7 +5287,7 @@
       </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
-          <t>maa://22525 (92.68), maa://21284 (82.93)</t>
+          <t>maa://22525 (92.74), maa://21284 (82.93)</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
@@ -5222,12 +5297,12 @@
       </c>
       <c r="N43" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O43" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q43" s="4" t="inlineStr">
@@ -5237,12 +5312,12 @@
       </c>
       <c r="R43" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S43" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5334,7 @@
       </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
-          <t>maa://29768 (97.55), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.63), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
@@ -5289,7 +5364,7 @@
       </c>
       <c r="S44" s="5" t="inlineStr">
         <is>
-          <t>maa://39366 (84.62)</t>
+          <t>maa://39366 (85.71)</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5384,7 @@
       </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
-          <t>maa://21229 (85.47), maa://30807 (95.08), *maa://22767 (52.94), ***maa://20796 (13.79), maa://42459 (100.0)</t>
+          <t>maa://21229 (85.56), maa://30807 (95.08), *maa://22767 (55.56), ***maa://20796 (13.79), maa://42459 (100.0)</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
@@ -5339,7 +5414,7 @@
       </c>
       <c r="S45" s="5" t="inlineStr">
         <is>
-          <t>**maa://39364 (45.45)</t>
+          <t>**maa://39364 (46.15)</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5434,7 @@
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>maa://35931 (92.27)</t>
+          <t>maa://35931 (92.5)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
@@ -5409,7 +5484,7 @@
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
-          <t>maa://27410 (95.82), maa://29661 (97.64), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.86), maa://29661 (97.71), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
@@ -5524,7 +5599,22 @@
       </c>
       <c r="O49" s="5" t="inlineStr">
         <is>
-          <t>*maa://39643 (71.43)</t>
+          <t>*maa://39643 (66.67)</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>荒芜拉普兰德</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5640,7 +5730,7 @@
       </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
-          <t>maa://32534 (93.31), **maa://32434 (36.36)</t>
+          <t>maa://32534 (93.07), **maa://32434 (34.78)</t>
         </is>
       </c>
     </row>
@@ -5674,7 +5764,7 @@
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>maa://32532 (91.96)</t>
+          <t>maa://32532 (92.24)</t>
         </is>
       </c>
     </row>
@@ -5708,7 +5798,7 @@
       </c>
       <c r="G57" s="5" t="inlineStr">
         <is>
-          <t>maa://25176 (97.83)</t>
+          <t>maa://25176 (97.96)</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5815,7 @@
       </c>
       <c r="G58" s="5" t="inlineStr">
         <is>
-          <t>*maa://37964 (60.0)</t>
+          <t>*maa://37964 (57.14)</t>
         </is>
       </c>
     </row>
@@ -5742,7 +5832,7 @@
       </c>
       <c r="G59" s="5" t="inlineStr">
         <is>
-          <t>maa://27746 (84.0), maa://31270 (96.97)</t>
+          <t>maa://27746 (83.17), maa://31270 (95.19)</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5849,7 @@
       </c>
       <c r="G60" s="5" t="inlineStr">
         <is>
-          <t>**maa://40438 (31.58)</t>
+          <t>**maa://40438 (33.33)</t>
         </is>
       </c>
     </row>
@@ -5788,12 +5878,12 @@
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G62" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://42981 (100.0)</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11490" yWindow="4320" windowWidth="23925" windowHeight="16665" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1260" yWindow="3000" windowWidth="23925" windowHeight="16665" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -68,31 +68,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,5648 +467,6031 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AG73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9.5" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="19.75" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.5" customWidth="1" style="5" min="4" max="4"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="32.75" customWidth="1" style="5" min="7" max="7"/>
-    <col width="11.375" customWidth="1" style="5" min="8" max="8"/>
-    <col width="9.375" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
-    <col width="32.375" customWidth="1" style="5" min="11" max="11"/>
-    <col width="17.375" customWidth="1" style="5" min="12" max="12"/>
-    <col width="16.125" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
-    <col width="22.125" customWidth="1" style="5" min="15" max="15"/>
-    <col width="13.375" customWidth="1" style="5" min="16" max="16"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="4" min="17" max="17"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="18" max="18"/>
-    <col width="29" customWidth="1" style="5" min="19" max="19"/>
-    <col width="16.25" customWidth="1" style="5" min="20" max="20"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="4" min="21" max="21"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="22" max="22"/>
-    <col width="29.125" customWidth="1" style="5" min="23" max="23"/>
-    <col width="11.5" customWidth="1" style="5" min="24" max="24"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="4" min="25" max="25"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="26" max="26"/>
-    <col width="35.375" customWidth="1" style="5" min="27" max="27"/>
-    <col width="13" customWidth="1" style="5" min="28" max="28"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="4" min="29" max="29"/>
-    <col width="5.5" customWidth="1" style="4" min="30" max="30"/>
-    <col width="26.75" customWidth="1" style="5" min="31" max="31"/>
-    <col width="9" customWidth="1" style="4" min="32" max="32"/>
-    <col width="9" customWidth="1" style="4" min="33" max="16384"/>
+    <col width="26.25" customWidth="1" style="1" min="1" max="1"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="19.75" customWidth="1" style="2" min="4" max="4"/>
+    <col width="10.5" customWidth="1" style="2" min="5" max="5"/>
+    <col width="11.625" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
+    <col width="32.75" customWidth="1" style="2" min="8" max="8"/>
+    <col width="11.375" customWidth="1" style="2" min="9" max="9"/>
+    <col width="9.375" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="32.375" customWidth="1" style="2" min="12" max="12"/>
+    <col width="17.375" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.125" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="15" max="15"/>
+    <col width="22.125" customWidth="1" style="2" min="16" max="16"/>
+    <col width="13.375" customWidth="1" style="2" min="17" max="17"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="1" min="18" max="18"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
+    <col width="29" customWidth="1" style="2" min="20" max="20"/>
+    <col width="16.25" customWidth="1" style="2" min="21" max="21"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="1" min="22" max="22"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="23" max="23"/>
+    <col width="29.125" customWidth="1" style="2" min="24" max="24"/>
+    <col width="11.5" customWidth="1" style="2" min="25" max="25"/>
+    <col width="11.625" bestFit="1" customWidth="1" style="1" min="26" max="26"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="27" max="27"/>
+    <col width="35.375" customWidth="1" style="2" min="28" max="28"/>
+    <col width="13" customWidth="1" style="2" min="29" max="29"/>
+    <col width="13.875" bestFit="1" customWidth="1" style="1" min="30" max="30"/>
+    <col width="5.5" customWidth="1" style="1" min="31" max="31"/>
+    <col width="26.75" customWidth="1" style="2" min="32" max="32"/>
+    <col width="9" customWidth="1" style="1" min="33" max="34"/>
+    <col width="9" customWidth="1" style="1" min="35" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
+          <t>*为好评率不高于80%,**为好评率不高于50%，***为好评率不高于30%</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>先锋</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>近卫</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>重装</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>狙击</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>术师</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>医疗</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="W1" s="5" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>辅助</t>
         </is>
       </c>
-      <c r="Z1" s="4" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="AA1" s="5" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="inlineStr">
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>特种</t>
         </is>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="AE1" s="5" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="AG1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>夜刀</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>maa://24702 (94.12), maa://25390 (96.19), maa://36681 (88.24)</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Castle-3</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>黑角</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>*maa://24633 (54.97), *maa://30515 (69.7), *maa://34787 (72.13), ***maa://20792 (11.93), maa://39402 (86.21), ***maa://29083 (27.78)</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>巡林者</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>杜林</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>maa://22742 (92.25), *maa://20791 (62.32)</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>Lancet-2</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W2" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>梓兰</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA2" s="5" t="inlineStr">
+      <c r="AB2" s="2" t="inlineStr">
         <is>
           <t>maa://21246 (91.26), maa://36684 (98.68), ***maa://22731 (6.67)</t>
         </is>
       </c>
-      <c r="AC2" s="4" t="inlineStr">
+      <c r="AC2" s="1" t="n"/>
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>砾</t>
         </is>
       </c>
-      <c r="AD2" s="4" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AE2" s="5" t="inlineStr">
+      <c r="AF2" s="2" t="inlineStr">
         <is>
           <t>maa://25251 (92.77), ***maa://21730 (17.19), ***maa://39501 (18.75), *maa://36675 (60.0)</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="AG2" s="1" t="n"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>芬</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>maa://36987 (93.62), maa://40192 (95.65), maa://39849 (88.89)</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>玫兰莎</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>maa://21247 (98.31), *maa://22748 (75.0)</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>卡缇</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>*maa://22880 (70.0), maa://20276 (83.33), *maa://22749 (66.67)</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>克洛丝</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="P3" s="2" t="inlineStr">
         <is>
           <t>maa://21249 (95.22), maa://26254 (95.65)</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t>12F</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="2" t="inlineStr">
         <is>
           <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="inlineStr">
         <is>
           <t>芙蓉</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="W3" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="2" t="inlineStr">
         <is>
           <t>maa://27396 (85.37), maa://27484 (95.79), maa://27480 (82.35)</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="inlineStr">
         <is>
           <t>深海色</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA3" s="5" t="inlineStr">
+      <c r="AA3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB3" s="2" t="inlineStr">
         <is>
           <t>maa://24390 (96.15)</t>
         </is>
       </c>
-      <c r="AC3" s="4" t="inlineStr">
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="inlineStr">
         <is>
           <t>暗索</t>
         </is>
       </c>
-      <c r="AD3" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE3" s="5" t="inlineStr">
+      <c r="AE3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF3" s="2" t="inlineStr">
         <is>
           <t>*maa://21289 (71.43)</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="AG3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>香草</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>maa://24632 (93.43), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>杜宾</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="inlineStr">
         <is>
           <t>米格鲁</t>
         </is>
       </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="inlineStr">
         <is>
           <t>安德切尔</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="inlineStr">
         <is>
           <t>炎熔</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="S4" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>maa://32509 (97.7), maa://22754 (91.67), maa://27295 (80.77), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="inlineStr">
         <is>
           <t>安赛尔</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="W4" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="2" t="inlineStr">
         <is>
           <t>**maa://32495 (47.01), ***maa://31785 (20.87), ***maa://36683 (26.67)</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="inlineStr">
         <is>
           <t>地灵</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA4" s="5" t="inlineStr">
+      <c r="AA4" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB4" s="2" t="inlineStr">
         <is>
           <t>*maa://32658 (68.75)</t>
         </is>
       </c>
-      <c r="AC4" s="4" t="inlineStr">
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="inlineStr">
         <is>
           <t>阿消</t>
         </is>
       </c>
-      <c r="AD4" s="4" t="inlineStr">
+      <c r="AE4" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE4" s="5" t="inlineStr">
+      <c r="AF4" s="2" t="inlineStr">
         <is>
           <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (73.33)</t>
         </is>
       </c>
+      <c r="AG4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "-" 为该干员没有悖论模拟</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>翎羽</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>maa://21245 (82.05), maa://22744 (83.33)</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>缠丸</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>角峰</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>*maa://22757 (78.57)</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>杰西卡</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>maa://21919 (95.74), maa://21281 (92.31)</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="inlineStr">
         <is>
           <t>史都华德</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="n"/>
+      <c r="V5" s="1" t="inlineStr">
         <is>
           <t>末药</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="W5" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X5" s="2" t="inlineStr">
         <is>
           <t>maa://21290 (100.0)</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="1" t="inlineStr">
         <is>
           <t>梅尔</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="AA5" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA5" s="5" t="inlineStr">
+      <c r="AB5" s="2" t="inlineStr">
         <is>
           <t>*maa://29863 (72.41), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
         </is>
       </c>
-      <c r="AC5" s="4" t="inlineStr">
+      <c r="AC5" s="1" t="n"/>
+      <c r="AD5" s="1" t="inlineStr">
         <is>
           <t>红</t>
         </is>
       </c>
-      <c r="AD5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE5" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE5" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>讯使</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>maa://42407 (94.12)</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>霜叶</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>maa://24370 (96.3)</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>蛇屠箱</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>maa://24839 (99.22)</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="inlineStr">
         <is>
           <t>流星</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="O6" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
         <is>
           <t>maa://31836 (88.24), maa://30381 (91.67)</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="inlineStr">
         <is>
           <t>夜烟</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
         <is>
           <t>maa://37411 (81.82)</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="inlineStr">
         <is>
           <t>嘉维尔</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="W6" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="1" t="inlineStr">
         <is>
           <t>初雪</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA6" s="5" t="inlineStr">
+      <c r="AA6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB6" s="2" t="inlineStr">
         <is>
           <t>maa://22739 (92.0)</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC6" s="1" t="n"/>
+      <c r="AD6" s="1" t="inlineStr">
         <is>
           <t>崖心</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AE6" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE6" s="5" t="inlineStr">
+      <c r="AF6" s="2" t="inlineStr">
         <is>
           <t>*maa://33152 (61.76), ***maa://22770 (28.57)</t>
         </is>
       </c>
+      <c r="AG6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>清道夫</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>maa://21955 (93.33)</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>艾丝黛尔</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>*maa://22763 (66.67)</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>古米</t>
         </is>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="K7" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>maa://28624 (92.0), maa://24957 (97.56)</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="inlineStr">
         <is>
           <t>白雪</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
         <is>
           <t>maa://22750 (94.44)</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="inlineStr">
         <is>
           <t>远山</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
         <is>
           <t>maa://21291 (89.74)</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="inlineStr">
         <is>
           <t>调香师</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="W7" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr">
+      <c r="X7" s="2" t="inlineStr">
         <is>
           <t>maa://22399 (94.74), *maa://22758 (70.37)</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="inlineStr">
         <is>
           <t>真理</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="AA7" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="inlineStr">
+      <c r="AB7" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="AC7" s="4" t="inlineStr">
+      <c r="AC7" s="1" t="n"/>
+      <c r="AD7" s="1" t="inlineStr">
         <is>
           <t>狮蝎</t>
         </is>
       </c>
-      <c r="AD7" s="4" t="inlineStr">
+      <c r="AE7" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE7" s="5" t="inlineStr">
+      <c r="AF7" s="2" t="inlineStr">
         <is>
           <t>*maa://26191 (68.49), *maa://36671 (72.73), *maa://42530 (75.0)</t>
         </is>
       </c>
+      <c r="AG7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>更新日期：2024.11.02 22:43:40</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>红豆</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>*maa://21476 (70.45), **maa://39431 (42.86), *maa://37551 (57.14)</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>慕斯</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>*maa://24371 (52.24)</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="inlineStr">
         <is>
           <t>临光</t>
         </is>
       </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="n"/>
+      <c r="N8" s="1" t="inlineStr">
         <is>
           <t>蓝毒</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="O8" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>maa://32931 (87.21), *maa://21916 (60.0), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="1" t="inlineStr">
         <is>
           <t>阿米娅</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U8" s="1" t="n"/>
+      <c r="V8" s="1" t="inlineStr">
         <is>
           <t>白面鸮</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W8" s="5" t="inlineStr">
+      <c r="W8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X8" s="2" t="inlineStr">
         <is>
           <t>maa://21411 (95.79)</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="1" t="inlineStr">
         <is>
           <t>空</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA8" s="5" t="inlineStr">
+      <c r="AA8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB8" s="2" t="inlineStr">
         <is>
           <t>maa://25389 (89.66)</t>
         </is>
       </c>
-      <c r="AC8" s="4" t="inlineStr">
+      <c r="AC8" s="1" t="n"/>
+      <c r="AD8" s="1" t="inlineStr">
         <is>
           <t>食铁兽</t>
         </is>
       </c>
-      <c r="AD8" s="4" t="inlineStr">
+      <c r="AE8" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE8" s="5" t="inlineStr">
+      <c r="AF8" s="2" t="inlineStr">
         <is>
           <t>*maa://24479 (77.33), *maa://21990 (53.85)</t>
         </is>
       </c>
+      <c r="AG8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>凛冬</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>maa://22765 (91.76), *maa://21915 (68.0)</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>芙兰卡</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="inlineStr">
         <is>
           <t>雷蛇</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="K9" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>maa://22762 (91.57), maa://39552 (85.71)</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="inlineStr">
         <is>
           <t>白金</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>maa://22736 (80.95)</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="1" t="inlineStr">
         <is>
           <t>天火</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="S9" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>**maa://22866 (30.77), maa://26222 (97.5)</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="1" t="n"/>
+      <c r="V9" s="1" t="inlineStr">
         <is>
           <t>赫默</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W9" s="5" t="inlineStr">
+      <c r="W9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X9" s="2" t="inlineStr">
         <is>
           <t>maa://26223 (97.09)</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="1" t="inlineStr">
         <is>
           <t>安洁莉娜</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="AA9" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AA9" s="5" t="inlineStr">
+      <c r="AB9" s="2" t="inlineStr">
         <is>
           <t>maa://28711 (88.37), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (41.18), maa://40166 (100.0)</t>
         </is>
       </c>
-      <c r="AC9" s="4" t="inlineStr">
+      <c r="AC9" s="1" t="n"/>
+      <c r="AD9" s="1" t="inlineStr">
         <is>
           <t>伊桑</t>
         </is>
       </c>
-      <c r="AD9" s="4" t="inlineStr">
+      <c r="AE9" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE9" s="5" t="inlineStr">
+      <c r="AF9" s="2" t="inlineStr">
         <is>
           <t>maa://26206 (90.11), **maa://22865 (47.92)</t>
         </is>
       </c>
+      <c r="AG9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>德克萨斯</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>***maa://25695 (18.97), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (16.13), **maa://39243 (33.33)</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>因陀罗</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>maa://32651 (92.86)</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="inlineStr">
         <is>
           <t>可颂</t>
         </is>
       </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>**maa://24395 (43.48)</t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="inlineStr">
         <is>
           <t>陨星</t>
         </is>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="O10" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>maa://28977 (93.59), *maa://23264 (61.82), maa://36669 (84.62)</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="inlineStr">
         <is>
           <t>伊芙利特</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="S10" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="T10" s="2" t="inlineStr">
         <is>
           <t>maa://27395 (96.18), maa://22755 (86.92), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="inlineStr">
         <is>
           <t>华法琳</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="W10" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W10" s="5" t="inlineStr">
+      <c r="X10" s="2" t="inlineStr">
         <is>
           <t>maa://22301 (97.45), maa://22726 (100.0)</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="inlineStr">
         <is>
           <t>格劳克斯</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA10" s="5" t="inlineStr">
+      <c r="AA10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB10" s="2" t="inlineStr">
         <is>
           <t>maa://24391 (100.0)</t>
         </is>
       </c>
-      <c r="AC10" s="4" t="inlineStr">
+      <c r="AC10" s="1" t="n"/>
+      <c r="AD10" s="1" t="inlineStr">
         <is>
           <t>槐琥</t>
         </is>
       </c>
-      <c r="AD10" s="4" t="inlineStr">
+      <c r="AE10" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE10" s="5" t="inlineStr">
+      <c r="AF10" s="2" t="inlineStr">
         <is>
           <t>*maa://25021 (56.0), *maa://22733 (60.0), maa://22761 (100.0)</t>
         </is>
       </c>
+      <c r="AG10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>推进之王</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>maa://36707 (99.66)</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>拉普兰德</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="inlineStr">
         <is>
           <t>火神</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>maa://21287 (87.5)</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="1" t="n"/>
+      <c r="N11" s="1" t="inlineStr">
         <is>
           <t>普罗旺斯</t>
         </is>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="O11" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="1" t="inlineStr">
         <is>
           <t>艾雅法拉</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="S11" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="T11" s="2" t="inlineStr">
         <is>
           <t>maa://22747 (94.41), maa://22501 (98.15)</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="U11" s="1" t="n"/>
+      <c r="V11" s="1" t="inlineStr">
         <is>
           <t>闪灵</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W11" s="5" t="inlineStr">
+      <c r="W11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X11" s="2" t="inlineStr">
         <is>
           <t>maa://36713 (97.92)</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="1" t="inlineStr">
         <is>
           <t>麦哲伦</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr">
+      <c r="AA11" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA11" s="5" t="inlineStr">
+      <c r="AB11" s="2" t="inlineStr">
         <is>
           <t>maa://22516 (89.29), maa://29912 (100.0), *maa://20794 (52.24)</t>
         </is>
       </c>
-      <c r="AC11" s="4" t="inlineStr">
+      <c r="AC11" s="1" t="n"/>
+      <c r="AD11" s="1" t="inlineStr">
         <is>
           <t>雪雉</t>
         </is>
       </c>
-      <c r="AD11" s="4" t="inlineStr">
+      <c r="AE11" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE11" s="5" t="inlineStr">
+      <c r="AF11" s="2" t="inlineStr">
         <is>
           <t>maa://31203 (94.74), ***maa://24394 (19.23)</t>
         </is>
       </c>
+      <c r="AG11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>格拉尼</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>maa://30766 (88.89), **maa://36678 (50.0)</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>幽灵鲨</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>maa://21867 (90.2)</t>
         </is>
       </c>
-      <c r="I12" s="4" t="inlineStr">
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="inlineStr">
         <is>
           <t>星熊</t>
         </is>
       </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="n"/>
+      <c r="N12" s="1" t="inlineStr">
         <is>
           <t>守林人</t>
         </is>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="O12" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O12" s="5" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="1" t="inlineStr">
         <is>
           <t>夜魔</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U12" s="1" t="n"/>
+      <c r="V12" s="1" t="inlineStr">
         <is>
           <t>夜莺</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="W12" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W12" s="5" t="inlineStr">
+      <c r="X12" s="2" t="inlineStr">
         <is>
           <t>maa://22753 (91.5), *maa://21485 (76.92), maa://37962 (83.33)</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="1" t="inlineStr">
         <is>
           <t>巫恋</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="inlineStr">
+      <c r="AA12" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA12" s="5" t="inlineStr">
+      <c r="AB12" s="2" t="inlineStr">
         <is>
           <t>maa://23669 (95.51), maa://36677 (92.5), maa://39872 (86.67)</t>
         </is>
       </c>
-      <c r="AC12" s="4" t="inlineStr">
+      <c r="AC12" s="1" t="n"/>
+      <c r="AD12" s="1" t="inlineStr">
         <is>
           <t>阿</t>
         </is>
       </c>
-      <c r="AD12" s="4" t="inlineStr">
+      <c r="AE12" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE12" s="5" t="inlineStr">
+      <c r="AF12" s="2" t="inlineStr">
         <is>
           <t>*maa://28932 (78.15), *maa://20106 (63.64), *maa://22769 (62.96)</t>
         </is>
       </c>
+      <c r="AG12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>桃金娘</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>maa://24999 (91.43), maa://36673 (92.06), maa://25001 (85.51)</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>银灰</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>*maa://21248 (74.88), **maa://22728 (46.51)</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="inlineStr">
         <is>
           <t>塞雷娅</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="inlineStr">
         <is>
           <t>能天使</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="O13" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O13" s="5" t="inlineStr">
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>maa://22676 (92.08), *maa://22583 (75.41), *maa://22500 (55.81)</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="1" t="inlineStr">
         <is>
           <t>格雷伊</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="S13" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>maa://21484 (100.0)</t>
         </is>
       </c>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="U13" s="1" t="n"/>
+      <c r="V13" s="1" t="inlineStr">
         <is>
           <t>苏苏洛</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="W13" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" s="5" t="inlineStr">
+      <c r="X13" s="2" t="inlineStr">
         <is>
           <t>*maa://34957 (77.36), *maa://22768 (51.61)</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="1" t="inlineStr">
         <is>
           <t>月禾</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA13" s="5" t="inlineStr">
+      <c r="AA13" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB13" s="2" t="inlineStr">
         <is>
           <t>maa://24392 (100.0)</t>
         </is>
       </c>
-      <c r="AC13" s="4" t="inlineStr">
+      <c r="AC13" s="1" t="n"/>
+      <c r="AD13" s="1" t="inlineStr">
         <is>
           <t>傀影</t>
         </is>
       </c>
-      <c r="AD13" s="4" t="inlineStr">
+      <c r="AE13" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE13" s="5" t="inlineStr">
+      <c r="AF13" s="2" t="inlineStr">
         <is>
           <t>**maa://22737 (30.6), maa://39883 (90.62), *maa://39885 (70.0)</t>
         </is>
       </c>
+      <c r="AG13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>苇草</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>maa://30764 (87.23)</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="inlineStr">
         <is>
           <t>暴行</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>**maa://32656 (50.0)</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="inlineStr">
         <is>
           <t>斑点</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="K14" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K14" s="5" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.62)</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="1" t="n"/>
+      <c r="N14" s="1" t="inlineStr">
         <is>
           <t>空爆</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="O14" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>maa://23250 (98.52), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="1" t="inlineStr">
         <is>
           <t>莫斯提马</t>
         </is>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="S14" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>maa://22521 (94.51), maa://42751 (100.0)</t>
         </is>
       </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="U14" s="1" t="n"/>
+      <c r="V14" s="1" t="inlineStr">
         <is>
           <t>锡兰</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W14" s="5" t="inlineStr">
+      <c r="W14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X14" s="2" t="inlineStr">
         <is>
           <t>maa://37468 (87.5)</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="1" t="inlineStr">
         <is>
           <t>波登可</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA14" s="5" t="inlineStr">
+      <c r="AA14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB14" s="2" t="inlineStr">
         <is>
           <t>maa://22764 (96.61)</t>
         </is>
       </c>
-      <c r="AC14" s="4" t="inlineStr">
+      <c r="AC14" s="1" t="n"/>
+      <c r="AD14" s="1" t="inlineStr">
         <is>
           <t>THRM-EX</t>
         </is>
       </c>
-      <c r="AD14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE14" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF14" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>风笛</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>*maa://22743 (77.09), maa://22734 (83.48), *maa://30808 (64.41), ***maa://36048 (12.5)</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>月见夜</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>maa://24304 (88.24), maa://21478 (91.18)</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="inlineStr">
         <is>
           <t>坚雷</t>
         </is>
       </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K15" s="5" t="inlineStr">
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>*maa://21334 (51.85)</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="1" t="n"/>
+      <c r="N15" s="1" t="inlineStr">
         <is>
           <t>黑</t>
         </is>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="O15" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O15" s="5" t="inlineStr">
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>maa://24762 (89.66), *maa://22727 (70.0)</t>
         </is>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="1" t="inlineStr">
         <is>
           <t>惊蛰</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S15" s="5" t="inlineStr">
+      <c r="S15" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>maa://23892 (98.65)</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="U15" s="1" t="n"/>
+      <c r="V15" s="1" t="inlineStr">
         <is>
           <t>微风</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
+      <c r="W15" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X15" s="2" t="inlineStr">
         <is>
           <t>*maa://38786 (80.0)</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="1" t="inlineStr">
         <is>
           <t>铃兰</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA15" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC15" s="4" t="inlineStr">
+      <c r="AA15" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB15" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC15" s="1" t="n"/>
+      <c r="AD15" s="1" t="inlineStr">
         <is>
           <t>温蒂</t>
         </is>
       </c>
-      <c r="AD15" s="4" t="inlineStr">
+      <c r="AE15" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE15" s="5" t="inlineStr">
+      <c r="AF15" s="2" t="inlineStr">
         <is>
           <t>maa://21364 (80.68), *maa://22766 (72.12), *maa://36666 (77.61)</t>
         </is>
       </c>
+      <c r="AG15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>极境</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>maa://21441 (96.17), maa://36679 (91.43), maa://37650 (96.3)</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="inlineStr">
         <is>
           <t>猎蜂</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="G16" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I16" s="4" t="inlineStr">
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="inlineStr">
         <is>
           <t>拜松</t>
         </is>
       </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>maa://24377 (100.0)</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="inlineStr">
         <is>
           <t>红云</t>
         </is>
       </c>
-      <c r="N16" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
+      <c r="O16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>maa://28504 (90.38)</t>
         </is>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="inlineStr">
         <is>
           <t>刻俄柏</t>
         </is>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="S16" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="T16" s="2" t="inlineStr">
         <is>
           <t>maa://22729 (95.17), *maa://28648 (69.64), maa://36674 (81.25)</t>
         </is>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="inlineStr">
         <is>
           <t>清流</t>
         </is>
       </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="W16" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W16" s="5" t="inlineStr">
+      <c r="X16" s="2" t="inlineStr">
         <is>
           <t>maa://28501 (97.62), maa://28051 (95.83)</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="inlineStr">
         <is>
           <t>稀音</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA16" s="5" t="inlineStr">
+      <c r="AA16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB16" s="2" t="inlineStr">
         <is>
           <t>maa://26228 (95.06)</t>
         </is>
       </c>
-      <c r="AC16" s="4" t="inlineStr">
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="inlineStr">
         <is>
           <t>孑</t>
         </is>
       </c>
-      <c r="AD16" s="4" t="inlineStr">
+      <c r="AE16" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE16" s="5" t="inlineStr">
+      <c r="AF16" s="2" t="inlineStr">
         <is>
           <t>*maa://23911 (63.16), maa://27755 (92.11)</t>
         </is>
       </c>
+      <c r="AG16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>贾维</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>maa://21624 (81.82)</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>斯卡蒂</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>maa://22430 (88.14), maa://39599 (84.0)</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="inlineStr">
         <is>
           <t>吽</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K17" s="5" t="inlineStr">
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>*maa://21679 (75.0)</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="inlineStr">
         <is>
           <t>送葬人</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="O17" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O17" s="5" t="inlineStr">
+      <c r="P17" s="2" t="inlineStr">
         <is>
           <t>maa://23890 (80.41), *maa://24940 (66.67)</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="inlineStr">
         <is>
           <t>苦艾</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="S17" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
         <is>
           <t>**maa://42324 (30.77)</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="1" t="n"/>
+      <c r="V17" s="1" t="inlineStr">
         <is>
           <t>亚叶</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="W17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y17" s="1" t="n"/>
+      <c r="Z17" s="1" t="inlineStr">
         <is>
           <t>浊心斯卡蒂</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC17" s="4" t="inlineStr">
+      <c r="AA17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC17" s="1" t="n"/>
+      <c r="AD17" s="1" t="inlineStr">
         <is>
           <t>罗宾</t>
         </is>
       </c>
-      <c r="AD17" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG17" s="1" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>豆苗</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>maa://24570 (96.79)</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="inlineStr">
         <is>
           <t>泡普卡</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="inlineStr">
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>maa://24421 (90.37)</t>
         </is>
       </c>
-      <c r="I18" s="4" t="inlineStr">
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="inlineStr">
         <is>
           <t>年</t>
         </is>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="K18" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K18" s="5" t="inlineStr">
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>maa://22466 (88.72), *maa://22732 (51.22)</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="1" t="inlineStr">
         <is>
           <t>梅</t>
         </is>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="O18" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O18" s="5" t="inlineStr">
+      <c r="P18" s="2" t="inlineStr">
         <is>
           <t>maa://24379 (100.0), maa://24380 (100.0)</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="1" t="n"/>
+      <c r="R18" s="1" t="inlineStr">
         <is>
           <t>莱恩哈特</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="S18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
         <is>
           <t>maa://24385 (96.88)</t>
         </is>
       </c>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="U18" s="1" t="n"/>
+      <c r="V18" s="1" t="inlineStr">
         <is>
           <t>絮雨</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="W18" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W18" s="5" t="inlineStr">
+      <c r="X18" s="2" t="inlineStr">
         <is>
           <t>maa://21917 (97.53), maa://22741 (83.33)</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="1" t="n"/>
+      <c r="Z18" s="1" t="inlineStr">
         <is>
           <t>罗比菈塔</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA18" s="5" t="inlineStr">
+      <c r="AA18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB18" s="2" t="inlineStr">
         <is>
           <t>maa://24393 (97.3)</t>
         </is>
       </c>
-      <c r="AC18" s="4" t="inlineStr">
+      <c r="AC18" s="1" t="n"/>
+      <c r="AD18" s="1" t="inlineStr">
         <is>
           <t>卡夫卡</t>
         </is>
       </c>
-      <c r="AD18" s="4" t="inlineStr">
+      <c r="AE18" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE18" s="5" t="inlineStr">
+      <c r="AF18" s="2" t="inlineStr">
         <is>
           <t>*maa://24313 (57.89), **maa://29784 (44.44)</t>
         </is>
       </c>
+      <c r="AG18" s="1" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>嵯峨</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="inlineStr">
         <is>
           <t>诗怀雅</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="G19" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="inlineStr">
         <is>
           <t>石棉</t>
         </is>
       </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K19" s="5" t="inlineStr">
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>maa://39347 (100.0)</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="inlineStr">
         <is>
           <t>安比尔</t>
         </is>
       </c>
-      <c r="N19" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O19" s="5" t="inlineStr">
+      <c r="O19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
         <is>
           <t>maa://39433 (100.0)</t>
         </is>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="1" t="n"/>
+      <c r="R19" s="1" t="inlineStr">
         <is>
           <t>卡达</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="S19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
         <is>
           <t>maa://24386 (98.84)</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="U19" s="1" t="n"/>
+      <c r="V19" s="1" t="inlineStr">
         <is>
           <t>图耶</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W19" s="5" t="inlineStr">
+      <c r="W19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X19" s="2" t="inlineStr">
         <is>
           <t>maa://31386 (100.0)</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="1" t="n"/>
+      <c r="Z19" s="1" t="inlineStr">
         <is>
           <t>灵知</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="inlineStr">
+      <c r="AA19" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA19" s="5" t="inlineStr">
+      <c r="AB19" s="2" t="inlineStr">
         <is>
           <t>*maa://30709 (61.72), *maa://36668 (52.17)</t>
         </is>
       </c>
-      <c r="AC19" s="4" t="inlineStr">
+      <c r="AC19" s="1" t="n"/>
+      <c r="AD19" s="1" t="inlineStr">
         <is>
           <t>乌有</t>
         </is>
       </c>
-      <c r="AD19" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE19" s="5" t="inlineStr">
+      <c r="AE19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF19" s="2" t="inlineStr">
         <is>
           <t>*maa://21663 (61.67)</t>
         </is>
       </c>
+      <c r="AG19" s="1" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>琴柳</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>maa://21432 (90.91), maa://25198 (93.68), *maa://20795 (50.4), maa://36680 (100.0)</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>陈</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>maa://22864 (88.81)</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="inlineStr">
         <is>
           <t>森蚺</t>
         </is>
       </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>maa://41331 (81.82)</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="1" t="n"/>
+      <c r="N20" s="1" t="inlineStr">
         <is>
           <t>灰喉</t>
         </is>
       </c>
-      <c r="N20" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O20" s="5" t="inlineStr">
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>maa://37442 (96.88)</t>
         </is>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="1" t="n"/>
+      <c r="R20" s="1" t="inlineStr">
         <is>
           <t>蜜蜡</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S20" s="5" t="inlineStr">
+      <c r="S20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
         <is>
           <t>maa://29113 (95.65)</t>
         </is>
       </c>
-      <c r="U20" s="4" t="inlineStr">
+      <c r="U20" s="1" t="n"/>
+      <c r="V20" s="1" t="inlineStr">
         <is>
           <t>凯尔希</t>
         </is>
       </c>
-      <c r="V20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="W20" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y20" s="1" t="n"/>
+      <c r="Z20" s="1" t="inlineStr">
         <is>
           <t>九色鹿</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA20" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC20" s="4" t="inlineStr">
+      <c r="AA20" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC20" s="1" t="n"/>
+      <c r="AD20" s="1" t="inlineStr">
         <is>
           <t>霜华</t>
         </is>
       </c>
-      <c r="AD20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE20" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE20" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG20" s="1" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>野鬃</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>maa://21261 (100.0)</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="inlineStr">
         <is>
           <t>星极</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>maa://24372 (96.43)</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="inlineStr">
         <is>
           <t>泡泡</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>maa://31731 (95.56)</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="1" t="n"/>
+      <c r="N21" s="1" t="inlineStr">
         <is>
           <t>慑砂</t>
         </is>
       </c>
-      <c r="N21" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
         <is>
           <t>maa://24381 (85.71)</t>
         </is>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="1" t="n"/>
+      <c r="R21" s="1" t="inlineStr">
         <is>
           <t>特米米</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S21" s="5" t="inlineStr">
+      <c r="S21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
         <is>
           <t>maa://21993 (88.24)</t>
         </is>
       </c>
-      <c r="U21" s="4" t="inlineStr">
+      <c r="U21" s="1" t="n"/>
+      <c r="V21" s="1" t="inlineStr">
         <is>
           <t>桑葚</t>
         </is>
       </c>
-      <c r="V21" s="4" t="inlineStr">
+      <c r="W21" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W21" s="5" t="inlineStr">
+      <c r="X21" s="2" t="inlineStr">
         <is>
           <t>maa://20110 (86.76), maa://34946 (91.18)</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Y21" s="1" t="n"/>
+      <c r="Z21" s="1" t="inlineStr">
         <is>
           <t>令</t>
         </is>
       </c>
-      <c r="Z21" s="4" t="inlineStr">
+      <c r="AA21" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA21" s="5" t="inlineStr">
+      <c r="AB21" s="2" t="inlineStr">
         <is>
           <t>*maa://21443 (79.04), ***maa://23820 (29.82)</t>
         </is>
       </c>
-      <c r="AC21" s="4" t="inlineStr">
+      <c r="AC21" s="1" t="n"/>
+      <c r="AD21" s="1" t="inlineStr">
         <is>
           <t>歌蕾蒂娅</t>
         </is>
       </c>
-      <c r="AD21" s="4" t="inlineStr">
+      <c r="AE21" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE21" s="5" t="inlineStr">
+      <c r="AF21" s="2" t="inlineStr">
         <is>
           <t>maa://22524 (93.99), *maa://22432 (75.44)</t>
         </is>
       </c>
+      <c r="AG21" s="1" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>焰尾</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="inlineStr">
         <is>
           <t>赫拉格</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>maa://25236 (96.05), **maa://21678 (48.94), **maa://22735 (50.0)</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="inlineStr">
         <is>
           <t>瑕光</t>
         </is>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="K22" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>maa://27127 (85.56), *maa://22751 (76.19)</t>
         </is>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="1" t="n"/>
+      <c r="N22" s="1" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="N22" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O22" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="O22" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q22" s="1" t="n"/>
+      <c r="R22" s="1" t="inlineStr">
         <is>
           <t>薄绿</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="S22" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
         <is>
           <t>maa://38495 (87.5)</t>
         </is>
       </c>
-      <c r="U22" s="4" t="inlineStr">
+      <c r="U22" s="1" t="n"/>
+      <c r="V22" s="1" t="inlineStr">
         <is>
           <t>蜜莓</t>
         </is>
       </c>
-      <c r="V22" s="4" t="inlineStr">
+      <c r="W22" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W22" s="5" t="inlineStr">
+      <c r="X22" s="2" t="inlineStr">
         <is>
           <t>maa://21282 (98.86), *maa://37649 (70.0)</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Y22" s="1" t="n"/>
+      <c r="Z22" s="1" t="inlineStr">
         <is>
           <t>夏栎</t>
         </is>
       </c>
-      <c r="Z22" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA22" s="5" t="inlineStr">
+      <c r="AA22" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB22" s="2" t="inlineStr">
         <is>
           <t>maa://23656 (100.0)</t>
         </is>
       </c>
-      <c r="AC22" s="4" t="inlineStr">
+      <c r="AC22" s="1" t="n"/>
+      <c r="AD22" s="1" t="inlineStr">
         <is>
           <t>贝娜</t>
         </is>
       </c>
-      <c r="AD22" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE22" s="5" t="inlineStr">
+      <c r="AE22" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF22" s="2" t="inlineStr">
         <is>
           <t>maa://29658 (94.74)</t>
         </is>
       </c>
+      <c r="AG22" s="1" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>夜半</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>***maa://28036 (28.36), *maa://41753 (60.0)</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>炎客</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="inlineStr">
         <is>
           <t>泥岩</t>
         </is>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="K23" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K23" s="5" t="inlineStr">
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>maa://39756 (93.06), maa://39875 (94.34)</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="1" t="n"/>
+      <c r="N23" s="1" t="inlineStr">
         <is>
           <t>早露</t>
         </is>
       </c>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="O23" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O23" s="5" t="inlineStr">
+      <c r="P23" s="2" t="inlineStr">
         <is>
           <t>maa://30587 (91.86), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (76.19)</t>
         </is>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="Q23" s="1" t="n"/>
+      <c r="R23" s="1" t="inlineStr">
         <is>
           <t>爱丽丝</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="S23" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S23" s="5" t="inlineStr">
+      <c r="T23" s="2" t="inlineStr">
         <is>
           <t>maa://24387 (82.86), maa://31212 (96.0)</t>
         </is>
       </c>
-      <c r="U23" s="4" t="inlineStr">
+      <c r="U23" s="1" t="n"/>
+      <c r="V23" s="1" t="inlineStr">
         <is>
           <t>褐果</t>
         </is>
       </c>
-      <c r="V23" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W23" s="5" t="inlineStr">
+      <c r="W23" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X23" s="2" t="inlineStr">
         <is>
           <t>*maa://28503 (65.08)</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="inlineStr">
+      <c r="Y23" s="1" t="n"/>
+      <c r="Z23" s="1" t="inlineStr">
         <is>
           <t>海蒂</t>
         </is>
       </c>
-      <c r="Z23" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA23" s="5" t="inlineStr">
+      <c r="AA23" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB23" s="2" t="inlineStr">
         <is>
           <t>maa://29652 (97.37)</t>
         </is>
       </c>
-      <c r="AC23" s="4" t="inlineStr">
+      <c r="AC23" s="1" t="n"/>
+      <c r="AD23" s="1" t="inlineStr">
         <is>
           <t>绮良</t>
         </is>
       </c>
-      <c r="AD23" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE23" s="5" t="inlineStr">
+      <c r="AE23" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF23" s="2" t="inlineStr">
         <is>
           <t>maa://31489 (93.33)</t>
         </is>
       </c>
+      <c r="AG23" s="1" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>晓歌</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>maa://24368 (80.36)</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>布洛卡</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="inlineStr">
         <is>
           <t>闪击</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="n"/>
+      <c r="N24" s="1" t="inlineStr">
         <is>
           <t>安哲拉</t>
         </is>
       </c>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="O24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q24" s="1" t="n"/>
+      <c r="R24" s="1" t="inlineStr">
         <is>
           <t>炎狱炎熔</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U24" s="4" t="inlineStr">
+      <c r="S24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U24" s="1" t="n"/>
+      <c r="V24" s="1" t="inlineStr">
         <is>
           <t>流明</t>
         </is>
       </c>
-      <c r="V24" s="4" t="inlineStr">
+      <c r="W24" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="W24" s="5" t="inlineStr">
+      <c r="X24" s="2" t="inlineStr">
         <is>
           <t>maa://29988 (85.78), maa://23504 (92.76), **maa://22892 (40.14), *maa://25141 (77.24), *maa://36663 (79.31), ***maa://22815 (23.08)</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="1" t="n"/>
+      <c r="Z24" s="1" t="inlineStr">
         <is>
           <t>掠风</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA24" s="5" t="inlineStr">
+      <c r="AA24" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB24" s="2" t="inlineStr">
         <is>
           <t>maa://39349 (100.0)</t>
         </is>
       </c>
-      <c r="AC24" s="4" t="inlineStr">
+      <c r="AC24" s="1" t="n"/>
+      <c r="AD24" s="1" t="inlineStr">
         <is>
           <t>水月</t>
         </is>
       </c>
-      <c r="AD24" s="4" t="inlineStr">
+      <c r="AE24" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AE24" s="5" t="inlineStr">
+      <c r="AF24" s="2" t="inlineStr">
         <is>
           <t>maa://22523 (85.34), *maa://36672 (77.27), maa://29910 (94.12), **maa://21440 (34.55)</t>
         </is>
       </c>
+      <c r="AG24" s="1" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>伺夜</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>maa://29753 (95.28)</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>煌</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>*maa://29063 (74.64), *maa://25311 (74.47), ***maa://22725 (4.84)</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="inlineStr">
         <is>
           <t>暴雨</t>
         </is>
       </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
+      <c r="K25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>maa://24378 (88.89)</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="inlineStr">
         <is>
           <t>酸糖</t>
         </is>
       </c>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O25" s="5" t="inlineStr">
+      <c r="O25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
         <is>
           <t>maa://24382 (92.31)</t>
         </is>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="Q25" s="1" t="n"/>
+      <c r="R25" s="1" t="inlineStr">
         <is>
           <t>夕</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="S25" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S25" s="5" t="inlineStr">
+      <c r="T25" s="2" t="inlineStr">
         <is>
           <t>maa://20109 (92.12), maa://22545 (100.0)</t>
         </is>
       </c>
-      <c r="U25" s="4" t="inlineStr">
+      <c r="U25" s="1" t="n"/>
+      <c r="V25" s="1" t="inlineStr">
         <is>
           <t>濯尘芙蓉</t>
         </is>
       </c>
-      <c r="V25" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
+      <c r="W25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X25" s="2" t="inlineStr">
         <is>
           <t>*maa://29890 (75.0)</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Y25" s="1" t="n"/>
+      <c r="Z25" s="1" t="inlineStr">
         <is>
           <t>但书</t>
         </is>
       </c>
-      <c r="Z25" s="4" t="inlineStr">
+      <c r="AA25" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA25" s="5" t="inlineStr">
+      <c r="AB25" s="2" t="inlineStr">
         <is>
           <t>maa://31215 (84.88), *maa://24516 (79.07), maa://26001 (87.27)</t>
         </is>
       </c>
-      <c r="AC25" s="4" t="inlineStr">
+      <c r="AC25" s="1" t="n"/>
+      <c r="AD25" s="1" t="inlineStr">
         <is>
           <t>老鲤</t>
         </is>
       </c>
-      <c r="AD25" s="4" t="inlineStr">
+      <c r="AE25" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AE25" s="5" t="inlineStr">
+      <c r="AF25" s="2" t="inlineStr">
         <is>
           <t>maa://20108 (96.18), maa://24621 (96.46), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
         </is>
       </c>
+      <c r="AG25" s="1" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>谜图</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>maa://41802 (100.0)</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="inlineStr">
         <is>
           <t>宴</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>maa://24913 (91.43)</t>
         </is>
       </c>
-      <c r="I26" s="4" t="inlineStr">
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="inlineStr">
         <is>
           <t>灰毫</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M26" s="1" t="n"/>
+      <c r="N26" s="1" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
       </c>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="O26" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O26" s="5" t="inlineStr">
+      <c r="P26" s="2" t="inlineStr">
         <is>
           <t>*maa://30968 (58.82), maa://39870 (100.0)</t>
         </is>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="Q26" s="1" t="n"/>
+      <c r="R26" s="1" t="inlineStr">
         <is>
           <t>异客</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="S26" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U26" s="1" t="n"/>
+      <c r="V26" s="1" t="inlineStr">
         <is>
           <t>明椒</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
+      <c r="W26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X26" s="2" t="inlineStr">
         <is>
           <t>maa://24389 (96.0)</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Y26" s="1" t="n"/>
+      <c r="Z26" s="1" t="inlineStr">
         <is>
           <t>白铁</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA26" s="5" t="inlineStr">
+      <c r="AA26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB26" s="2" t="inlineStr">
         <is>
           <t>maa://42235 (86.49)</t>
         </is>
       </c>
-      <c r="AC26" s="4" t="inlineStr">
+      <c r="AC26" s="1" t="n"/>
+      <c r="AD26" s="1" t="inlineStr">
         <is>
           <t>见行者</t>
         </is>
       </c>
-      <c r="AD26" s="4" t="inlineStr">
+      <c r="AE26" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE26" s="5" t="inlineStr">
+      <c r="AF26" s="2" t="inlineStr">
         <is>
           <t>maa://30511 (84.85), *maa://29760 (61.54)</t>
         </is>
       </c>
+      <c r="AG26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>伊内丝</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="inlineStr">
         <is>
           <t>柏喙</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>**maa://21283 (48.65), maa://34494 (100.0), *maa://39601 (72.73), **maa://36665 (44.44)</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr">
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="inlineStr">
         <is>
           <t>极光</t>
         </is>
       </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
+      <c r="K27" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>maa://28071 (88.24)</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="1" t="n"/>
+      <c r="N27" s="1" t="inlineStr">
         <is>
           <t>奥斯塔</t>
         </is>
       </c>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="O27" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="P27" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="Q27" s="1" t="n"/>
+      <c r="R27" s="1" t="inlineStr">
         <is>
           <t>深靛</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S27" s="5" t="inlineStr">
+      <c r="S27" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
         <is>
           <t>*maa://30624 (75.0)</t>
         </is>
       </c>
-      <c r="U27" s="4" t="inlineStr">
+      <c r="U27" s="1" t="n"/>
+      <c r="V27" s="1" t="inlineStr">
         <is>
           <t>焰影苇草</t>
         </is>
       </c>
-      <c r="V27" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="W27" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X27" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y27" s="1" t="n"/>
+      <c r="Z27" s="1" t="inlineStr">
         <is>
           <t>U-Official</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA27" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC27" s="4" t="inlineStr">
+      <c r="AA27" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB27" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC27" s="1" t="n"/>
+      <c r="AD27" s="1" t="inlineStr">
         <is>
           <t>风丸</t>
         </is>
       </c>
-      <c r="AD27" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE27" s="5" t="inlineStr">
+      <c r="AE27" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF27" s="2" t="inlineStr">
         <is>
           <t>maa://24023 (96.83)</t>
         </is>
       </c>
+      <c r="AG27" s="1" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>缪尔赛思</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>maa://24465 (90.47), maa://25725 (82.72)</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="inlineStr">
         <is>
           <t>断罪者</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I28" s="4" t="inlineStr">
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="inlineStr">
         <is>
           <t>暮落</t>
         </is>
       </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>*maa://30770 (79.07)</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="M28" s="1" t="n"/>
+      <c r="N28" s="1" t="inlineStr">
         <is>
           <t>迷迭香</t>
         </is>
       </c>
-      <c r="N28" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="O28" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q28" s="1" t="n"/>
+      <c r="R28" s="1" t="inlineStr">
         <is>
           <t>卡涅利安</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="S28" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S28" s="5" t="inlineStr">
+      <c r="T28" s="2" t="inlineStr">
         <is>
           <t>maa://23263 (94.57), *maa://29765 (60.0)</t>
         </is>
       </c>
-      <c r="U28" s="4" t="inlineStr">
+      <c r="U28" s="1" t="n"/>
+      <c r="V28" s="1" t="inlineStr">
         <is>
           <t>纯烬艾雅法拉</t>
         </is>
       </c>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="W28" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W28" s="5" t="inlineStr">
+      <c r="X28" s="2" t="inlineStr">
         <is>
           <t>maa://39929 (87.34), ***maa://39723 (14.29), maa://41749 (83.33)</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Y28" s="1" t="n"/>
+      <c r="Z28" s="1" t="inlineStr">
         <is>
           <t>淬羽赫默</t>
         </is>
       </c>
-      <c r="Z28" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA28" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC28" s="4" t="inlineStr">
+      <c r="AA28" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB28" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC28" s="1" t="n"/>
+      <c r="AD28" s="1" t="inlineStr">
         <is>
           <t>归溟幽灵鲨</t>
         </is>
       </c>
-      <c r="AD28" s="4" t="inlineStr">
+      <c r="AE28" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE28" s="5" t="inlineStr">
+      <c r="AF28" s="2" t="inlineStr">
         <is>
           <t>maa://36660 (92.67), *maa://36701 (62.96)</t>
         </is>
       </c>
+      <c r="AG28" s="1" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>青枳</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>maa://31694 (98.0)</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>刻刀</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
         <is>
           <t>*maa://25175 (70.45)</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr">
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="inlineStr">
         <is>
           <t>号角</t>
         </is>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="K29" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K29" s="5" t="inlineStr">
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>maa://28432 (93.58), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="inlineStr">
         <is>
           <t>松果</t>
         </is>
       </c>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="O29" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O29" s="5" t="inlineStr">
+      <c r="P29" s="2" t="inlineStr">
         <is>
           <t>*maa://23168 (55.77), **maa://30050 (38.1)</t>
         </is>
       </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="Q29" s="1" t="n"/>
+      <c r="R29" s="1" t="inlineStr">
         <is>
           <t>布丁</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S29" s="5" t="inlineStr">
+      <c r="S29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
         <is>
           <t>maa://28502 (100.0)</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="U29" s="1" t="n"/>
+      <c r="V29" s="1" t="inlineStr">
         <is>
           <t>刺玫</t>
         </is>
       </c>
-      <c r="V29" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="W29" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X29" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y29" s="1" t="n"/>
+      <c r="Z29" s="1" t="inlineStr">
         <is>
           <t>凛视</t>
         </is>
       </c>
-      <c r="Z29" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA29" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC29" s="4" t="inlineStr">
+      <c r="AA29" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB29" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC29" s="1" t="n"/>
+      <c r="AD29" s="1" t="inlineStr">
         <is>
           <t>多萝西</t>
         </is>
       </c>
-      <c r="AD29" s="4" t="inlineStr">
+      <c r="AE29" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE29" s="5" t="inlineStr">
+      <c r="AF29" s="2" t="inlineStr">
         <is>
           <t>*maa://24080 (69.17), ***maa://34960 (8.7), maa://42865 (100.0)</t>
         </is>
       </c>
+      <c r="AG29" s="1" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>万顷</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="inlineStr">
         <is>
           <t>铸铁</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>maa://39355 (100.0)</t>
         </is>
       </c>
-      <c r="I30" s="4" t="inlineStr">
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="inlineStr">
         <is>
           <t>车尔尼</t>
         </is>
       </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
+      <c r="K30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>maa://30442 (94.64)</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="inlineStr">
         <is>
           <t>空弦</t>
         </is>
       </c>
-      <c r="N30" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
+      <c r="O30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
         <is>
           <t>maa://21442 (99.49)</t>
         </is>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="Q30" s="1" t="n"/>
+      <c r="R30" s="1" t="inlineStr">
         <is>
           <t>蚀清</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="S30" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S30" s="5" t="inlineStr">
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>*maa://32940 (66.67), maa://24388 (93.75)</t>
         </is>
       </c>
-      <c r="U30" s="4" t="inlineStr">
+      <c r="U30" s="1" t="n"/>
+      <c r="V30" s="1" t="inlineStr">
         <is>
           <t>哈洛德</t>
         </is>
       </c>
-      <c r="V30" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W30" s="5" t="inlineStr">
+      <c r="W30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X30" s="2" t="inlineStr">
         <is>
           <t>*maa://39477 (80.0)</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Y30" s="1" t="n"/>
+      <c r="Z30" s="1" t="inlineStr">
         <is>
           <t>塑心</t>
         </is>
       </c>
-      <c r="Z30" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA30" s="5" t="inlineStr">
+      <c r="AA30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB30" s="2" t="inlineStr">
         <is>
           <t>maa://42979 (100.0)</t>
         </is>
       </c>
-      <c r="AC30" s="4" t="inlineStr">
+      <c r="AC30" s="1" t="n"/>
+      <c r="AD30" s="1" t="inlineStr">
         <is>
           <t>缄默德克萨斯</t>
         </is>
       </c>
-      <c r="AD30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE30" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE30" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF30" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG30" s="1" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>红隼</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>断崖</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>maa://32721 (100.0), **maa://24373 (30.43)</t>
         </is>
       </c>
-      <c r="I31" s="4" t="inlineStr">
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="inlineStr">
         <is>
           <t>斥罪</t>
         </is>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="K31" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K31" s="5" t="inlineStr">
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>maa://35926 (93.36), *maa://36258 (79.49)</t>
         </is>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="M31" s="1" t="n"/>
+      <c r="N31" s="1" t="inlineStr">
         <is>
           <t>灰烬</t>
         </is>
       </c>
-      <c r="N31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O31" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="O31" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q31" s="1" t="n"/>
+      <c r="R31" s="1" t="inlineStr">
         <is>
           <t>耶拉</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="S31" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S31" s="5" t="inlineStr">
+      <c r="T31" s="2" t="inlineStr">
         <is>
           <t>maa://30711 (96.43), maa://30768 (100.0)</t>
         </is>
       </c>
-      <c r="U31" s="4" t="inlineStr">
+      <c r="U31" s="1" t="n"/>
+      <c r="V31" s="1" t="inlineStr">
         <is>
           <t>阿米娅(医疗)</t>
         </is>
       </c>
-      <c r="V31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W31" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="W31" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X31" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y31" s="1" t="n"/>
+      <c r="Z31" s="1" t="inlineStr">
         <is>
           <t>小满</t>
         </is>
       </c>
-      <c r="Z31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA31" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC31" s="4" t="inlineStr">
+      <c r="AA31" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB31" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC31" s="1" t="n"/>
+      <c r="AD31" s="1" t="inlineStr">
         <is>
           <t>麒麟R夜刀</t>
         </is>
       </c>
-      <c r="AD31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE31" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE31" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF31" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG31" s="1" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>历阵锐枪芬</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="inlineStr">
         <is>
           <t>棘刺</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="G32" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>maa://21895 (97.02), maa://36667 (98.21), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
-      <c r="I32" s="4" t="inlineStr">
+      <c r="I32" s="1" t="n"/>
+      <c r="J32" s="1" t="inlineStr">
         <is>
           <t>火哨</t>
         </is>
       </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K32" s="5" t="inlineStr">
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>maa://28065 (94.59)</t>
         </is>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="M32" s="1" t="n"/>
+      <c r="N32" s="1" t="inlineStr">
         <is>
           <t>熔泉</t>
         </is>
       </c>
-      <c r="N32" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O32" s="5" t="inlineStr">
+      <c r="O32" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
         <is>
           <t>maa://26203 (100.0)</t>
         </is>
       </c>
-      <c r="Q32" s="4" t="inlineStr">
+      <c r="Q32" s="1" t="n"/>
+      <c r="R32" s="1" t="inlineStr">
         <is>
           <t>澄闪</t>
         </is>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="S32" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S32" s="5" t="inlineStr">
+      <c r="T32" s="2" t="inlineStr">
         <is>
           <t>maa://41108 (88.64), maa://41238 (95.24), maa://42859 (92.31)</t>
         </is>
       </c>
-      <c r="U32" s="4" t="inlineStr">
+      <c r="U32" s="1" t="n"/>
+      <c r="V32" s="1" t="inlineStr">
         <is>
           <t>莎草</t>
         </is>
       </c>
-      <c r="V32" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y32" s="4" t="inlineStr">
+      <c r="W32" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X32" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y32" s="1" t="n"/>
+      <c r="Z32" s="1" t="inlineStr">
         <is>
           <t>PhonoR-0</t>
         </is>
       </c>
-      <c r="Z32" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC32" s="4" t="inlineStr">
+      <c r="AA32" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB32" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC32" s="1" t="n"/>
+      <c r="AD32" s="1" t="inlineStr">
         <is>
           <t>空构</t>
         </is>
       </c>
-      <c r="AD32" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE32" s="5" t="inlineStr">
+      <c r="AE32" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF32" s="2" t="inlineStr">
         <is>
           <t>maa://42408 (100.0)</t>
         </is>
       </c>
+      <c r="AG32" s="1" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>渡桥</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="inlineStr">
         <is>
           <t>燧石</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
         <is>
           <t>**maa://39351 (50.0)</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="inlineStr">
         <is>
           <t>洋灰</t>
         </is>
       </c>
-      <c r="J33" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K33" s="5" t="inlineStr">
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>maa://39808 (100.0)</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="1" t="n"/>
+      <c r="N33" s="1" t="inlineStr">
         <is>
           <t>假日威龙陈</t>
         </is>
       </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="O33" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O33" s="5" t="inlineStr">
+      <c r="P33" s="2" t="inlineStr">
         <is>
           <t>*maa://21956 (78.95), maa://22730 (82.14)</t>
         </is>
       </c>
-      <c r="Q33" s="4" t="inlineStr">
+      <c r="Q33" s="1" t="n"/>
+      <c r="R33" s="1" t="inlineStr">
         <is>
           <t>洛洛</t>
         </is>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="S33" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S33" s="5" t="inlineStr">
+      <c r="T33" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="inlineStr">
+      <c r="U33" s="1" t="n"/>
+      <c r="Z33" s="1" t="inlineStr">
         <is>
           <t>魔王</t>
         </is>
       </c>
-      <c r="Z33" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC33" s="4" t="inlineStr">
+      <c r="AA33" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB33" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC33" s="1" t="n"/>
+      <c r="AD33" s="1" t="inlineStr">
         <is>
           <t>琳琅诗怀雅</t>
         </is>
       </c>
-      <c r="AD33" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE33" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF33" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG33" s="1" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>齐尔查克</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="inlineStr">
         <is>
           <t>芳汀</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I34" s="4" t="inlineStr">
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="inlineStr">
         <is>
           <t>Friston-3</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="n"/>
+      <c r="N34" s="1" t="inlineStr">
         <is>
           <t>远牙</t>
         </is>
       </c>
-      <c r="N34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q34" s="4" t="inlineStr">
+      <c r="O34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q34" s="1" t="n"/>
+      <c r="R34" s="1" t="inlineStr">
         <is>
           <t>黑键</t>
         </is>
       </c>
-      <c r="R34" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S34" s="5" t="inlineStr">
+      <c r="S34" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
         <is>
           <t>maa://24526 (93.25)</t>
         </is>
       </c>
-      <c r="Y34" s="4" t="inlineStr">
+      <c r="U34" s="1" t="n"/>
+      <c r="Z34" s="1" t="inlineStr">
         <is>
           <t>海霓</t>
         </is>
       </c>
-      <c r="Z34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC34" s="4" t="inlineStr">
+      <c r="AA34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB34" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC34" s="1" t="n"/>
+      <c r="AD34" s="1" t="inlineStr">
         <is>
           <t>杏仁</t>
         </is>
       </c>
-      <c r="AD34" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE34" s="5" t="inlineStr">
+      <c r="AE34" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF34" s="2" t="inlineStr">
         <is>
           <t>*maa://32650 (64.29)</t>
         </is>
       </c>
+      <c r="AG34" s="1" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>忍冬</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="inlineStr">
         <is>
           <t>史尔特尔</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I35" s="4" t="inlineStr">
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="n"/>
+      <c r="J35" s="1" t="inlineStr">
         <is>
           <t>涤火杰西卡</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K35" s="5" t="inlineStr">
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>maa://41296 (98.55)</t>
         </is>
       </c>
-      <c r="M35" s="4" t="inlineStr">
+      <c r="M35" s="1" t="n"/>
+      <c r="N35" s="1" t="inlineStr">
         <is>
           <t>正义骑士号</t>
         </is>
       </c>
-      <c r="N35" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O35" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q35" s="4" t="inlineStr">
+      <c r="O35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="n"/>
+      <c r="R35" s="1" t="inlineStr">
         <is>
           <t>星源</t>
         </is>
       </c>
-      <c r="R35" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S35" s="5" t="inlineStr">
+      <c r="S35" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
         <is>
           <t>maa://24842 (93.88)</t>
         </is>
       </c>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="U35" s="1" t="n"/>
+      <c r="Z35" s="1" t="inlineStr">
         <is>
           <t>衡沙</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA35" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC35" s="4" t="inlineStr">
+      <c r="AA35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB35" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC35" s="1" t="n"/>
+      <c r="AD35" s="1" t="inlineStr">
         <is>
           <t>维荻</t>
         </is>
       </c>
-      <c r="AD35" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE35" s="5" t="inlineStr">
+      <c r="AE35" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF35" s="2" t="inlineStr">
         <is>
           <t>maa://39479 (92.31)</t>
         </is>
       </c>
+      <c r="AG35" s="1" t="n"/>
     </row>
     <row r="36">
-      <c r="E36" s="4" t="inlineStr">
+      <c r="F36" s="1" t="inlineStr">
         <is>
           <t>鞭刃</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>maa://24375 (92.31)</t>
         </is>
       </c>
-      <c r="I36" s="4" t="inlineStr">
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="inlineStr">
         <is>
           <t>深律</t>
         </is>
       </c>
-      <c r="J36" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K36" s="5" t="inlineStr">
+      <c r="K36" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>maa://42240 (100.0)</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="M36" s="1" t="n"/>
+      <c r="N36" s="1" t="inlineStr">
         <is>
           <t>寒芒克洛丝</t>
         </is>
       </c>
-      <c r="N36" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O36" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q36" s="4" t="inlineStr">
+      <c r="O36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q36" s="1" t="n"/>
+      <c r="R36" s="1" t="inlineStr">
         <is>
           <t>至简</t>
         </is>
       </c>
-      <c r="R36" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S36" s="5" t="inlineStr">
+      <c r="S36" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
         <is>
           <t>maa://27613 (98.97)</t>
         </is>
       </c>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="U36" s="1" t="n"/>
+      <c r="Z36" s="1" t="inlineStr">
         <is>
           <t>凯瑟琳</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA36" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC36" s="4" t="inlineStr">
+      <c r="AA36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC36" s="1" t="n"/>
+      <c r="AD36" s="1" t="inlineStr">
         <is>
           <t>双月</t>
         </is>
       </c>
-      <c r="AD36" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE36" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF36" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG36" s="1" t="n"/>
     </row>
     <row r="37">
-      <c r="E37" s="4" t="inlineStr">
+      <c r="F37" s="1" t="inlineStr">
         <is>
           <t>杰克</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G37" s="5" t="inlineStr">
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
         <is>
           <t>*maa://24374 (57.5)</t>
         </is>
       </c>
-      <c r="I37" s="4" t="inlineStr">
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="inlineStr">
         <is>
           <t>黍</t>
         </is>
       </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="inlineStr">
         <is>
           <t>菲亚梅塔</t>
         </is>
       </c>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="O37" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O37" s="5" t="inlineStr">
+      <c r="P37" s="2" t="inlineStr">
         <is>
           <t>maa://21280 (88.83), *maa://21239 (72.73)</t>
         </is>
       </c>
-      <c r="Q37" s="4" t="inlineStr">
+      <c r="Q37" s="1" t="n"/>
+      <c r="R37" s="1" t="inlineStr">
         <is>
           <t>雪绒</t>
         </is>
       </c>
-      <c r="R37" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S37" s="5" t="inlineStr">
+      <c r="S37" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
         <is>
           <t>**maa://39354 (40.0)</t>
         </is>
       </c>
-      <c r="Y37" s="4" t="inlineStr">
+      <c r="U37" s="1" t="n"/>
+      <c r="Z37" s="1" t="inlineStr">
         <is>
           <t>波卜</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA37" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC37" s="4" t="inlineStr">
+      <c r="AA37" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB37" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC37" s="1" t="n"/>
+      <c r="AD37" s="1" t="inlineStr">
         <is>
           <t>艾拉</t>
         </is>
       </c>
-      <c r="AD37" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE37" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE37" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF37" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG37" s="1" t="n"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>*为好评率不高于80%,**为好评率不高于50%，***为好评率不高于30%</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="8" t="n"/>
+      <c r="F38" s="1" t="inlineStr">
         <is>
           <t>阿米娅(近卫)</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I38" s="4" t="inlineStr">
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="1" t="n"/>
+      <c r="J38" s="1" t="inlineStr">
         <is>
           <t>露托</t>
         </is>
       </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K38" s="5" t="inlineStr">
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>maa://39384 (100.0)</t>
         </is>
       </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="M38" s="1" t="n"/>
+      <c r="N38" s="1" t="inlineStr">
         <is>
           <t>埃拉托</t>
         </is>
       </c>
-      <c r="N38" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O38" s="5" t="inlineStr">
+      <c r="O38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
         <is>
           <t>*maa://24383 (66.67)</t>
         </is>
       </c>
-      <c r="Q38" s="4" t="inlineStr">
+      <c r="Q38" s="1" t="n"/>
+      <c r="R38" s="1" t="inlineStr">
         <is>
           <t>和弦</t>
         </is>
       </c>
-      <c r="R38" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S38" s="5" t="inlineStr">
+      <c r="S38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
         <is>
           <t>maa://30713 (96.55)</t>
         </is>
       </c>
-      <c r="AC38" s="4" t="inlineStr">
+      <c r="U38" s="1" t="n"/>
+      <c r="AD38" s="1" t="inlineStr">
         <is>
           <t>阿斯卡纶</t>
         </is>
       </c>
-      <c r="AD38" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE38" s="5" t="inlineStr">
+      <c r="AE38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF38" s="2" t="inlineStr">
         <is>
           <t>maa://36697 (84.51)</t>
         </is>
       </c>
+      <c r="AG38" s="1" t="n"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="E39" s="4" t="inlineStr">
+      <c r="B39" s="7" t="n"/>
+      <c r="C39" s="7" t="n"/>
+      <c r="D39" s="8" t="n"/>
+      <c r="F39" s="1" t="inlineStr">
         <is>
           <t>山</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="G39" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="H39" s="2" t="inlineStr">
         <is>
           <t>maa://25199 (85.32), maa://36670 (88.57), maa://30434 (87.5), ***maa://25036 (16.0)</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr">
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="inlineStr">
         <is>
           <t>深巡</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K39" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="n"/>
+      <c r="N39" s="1" t="inlineStr">
         <is>
           <t>承曦格雷伊</t>
         </is>
       </c>
-      <c r="N39" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O39" s="5" t="inlineStr">
+      <c r="O39" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
         <is>
           <t>maa://24709 (92.31)</t>
         </is>
       </c>
-      <c r="Q39" s="4" t="inlineStr">
+      <c r="Q39" s="1" t="n"/>
+      <c r="R39" s="1" t="inlineStr">
         <is>
           <t>林</t>
         </is>
       </c>
-      <c r="R39" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S39" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC39" s="4" t="inlineStr">
+      <c r="S39" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U39" s="1" t="n"/>
+      <c r="AD39" s="1" t="inlineStr">
         <is>
           <t>锡人</t>
         </is>
       </c>
-      <c r="AD39" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE39" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE39" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF39" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG39" s="1" t="n"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>减号-为该干员没有悖论模拟</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="7" t="n"/>
+      <c r="D40" s="8" t="n"/>
+      <c r="F40" s="1" t="inlineStr">
         <is>
           <t>战车</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I40" s="4" t="inlineStr">
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="inlineStr">
         <is>
           <t>森西</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K40" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M40" s="4" t="inlineStr">
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M40" s="1" t="n"/>
+      <c r="N40" s="1" t="inlineStr">
         <is>
           <t>鸿雪</t>
         </is>
       </c>
-      <c r="N40" s="4" t="inlineStr">
+      <c r="O40" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O40" s="5" t="inlineStr">
+      <c r="P40" s="2" t="inlineStr">
         <is>
           <t>maa://23278 (95.92), maa://21386 (95.68), maa://36664 (90.91)</t>
         </is>
       </c>
-      <c r="Q40" s="4" t="inlineStr">
+      <c r="Q40" s="1" t="n"/>
+      <c r="R40" s="1" t="inlineStr">
         <is>
           <t>霍尔海雅</t>
         </is>
       </c>
-      <c r="R40" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S40" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
+      <c r="S40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U40" s="1" t="n"/>
+      <c r="AD40" s="1" t="inlineStr">
         <is>
           <t>云迹</t>
         </is>
       </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG40" s="1" t="n"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="E41" s="4" t="inlineStr">
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="8" t="n"/>
+      <c r="F41" s="1" t="inlineStr">
         <is>
           <t>赤冬</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G41" s="5" t="inlineStr">
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
         <is>
           <t>maa://24466 (95.12)</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="inlineStr">
         <is>
           <t>菲莱</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="inlineStr">
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="inlineStr">
         <is>
           <t>铅踝</t>
         </is>
       </c>
-      <c r="N41" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O41" s="5" t="inlineStr">
+      <c r="O41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
         <is>
           <t>**maa://35616 (39.39)</t>
         </is>
       </c>
-      <c r="Q41" s="4" t="inlineStr">
+      <c r="Q41" s="1" t="n"/>
+      <c r="R41" s="1" t="inlineStr">
         <is>
           <t>寒檀</t>
         </is>
       </c>
-      <c r="R41" s="4" t="inlineStr">
+      <c r="S41" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S41" s="5" t="inlineStr">
+      <c r="T41" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="U41" s="1" t="n"/>
+      <c r="AD41" s="1" t="inlineStr">
         <is>
           <t>裁度</t>
         </is>
       </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE41" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF41" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG41" s="1" t="n"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="7" t="inlineStr">
-        <is>
-          <t>更新日期：2024.09.16</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="B42" s="10" t="n"/>
+      <c r="C42" s="7" t="n"/>
+      <c r="D42" s="8" t="n"/>
+      <c r="F42" s="1" t="inlineStr">
         <is>
           <t>帕拉斯</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G42" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M42" s="4" t="inlineStr">
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="n"/>
+      <c r="N42" s="1" t="inlineStr">
         <is>
           <t>子月</t>
         </is>
       </c>
-      <c r="N42" s="4" t="inlineStr">
+      <c r="O42" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O42" s="5" t="inlineStr">
+      <c r="P42" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q42" s="4" t="inlineStr">
+      <c r="Q42" s="1" t="n"/>
+      <c r="R42" s="1" t="inlineStr">
         <is>
           <t>戴菲恩</t>
         </is>
       </c>
-      <c r="R42" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S42" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
+      <c r="S42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U42" s="1" t="n"/>
+      <c r="AD42" s="1" t="inlineStr">
         <is>
           <t>弑君者</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG42" s="1" t="n"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="E43" s="4" t="inlineStr">
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="n"/>
+      <c r="D43" s="8" t="n"/>
+      <c r="F43" s="1" t="inlineStr">
         <is>
           <t>龙舌兰</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="G43" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G43" s="5" t="inlineStr">
+      <c r="H43" s="2" t="inlineStr">
         <is>
           <t>maa://22525 (92.74), maa://21284 (82.93)</t>
         </is>
       </c>
-      <c r="M43" s="4" t="inlineStr">
+      <c r="I43" s="1" t="n"/>
+      <c r="N43" s="1" t="inlineStr">
         <is>
           <t>截云</t>
         </is>
       </c>
-      <c r="N43" s="4" t="inlineStr">
+      <c r="O43" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O43" s="5" t="inlineStr">
+      <c r="P43" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q43" s="4" t="inlineStr">
+      <c r="Q43" s="1" t="n"/>
+      <c r="R43" s="1" t="inlineStr">
         <is>
           <t>折光</t>
         </is>
       </c>
-      <c r="R43" s="4" t="inlineStr">
+      <c r="S43" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S43" s="5" t="inlineStr">
+      <c r="T43" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
+      <c r="U43" s="1" t="n"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="E44" s="4" t="inlineStr">
+      <c r="B44" s="7" t="n"/>
+      <c r="C44" s="7" t="n"/>
+      <c r="D44" s="8" t="n"/>
+      <c r="F44" s="1" t="inlineStr">
         <is>
           <t>羽毛笔</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="G44" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G44" s="5" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>maa://29768 (97.63), maa://27728 (96.0)</t>
         </is>
       </c>
-      <c r="M44" s="4" t="inlineStr">
+      <c r="I44" s="1" t="n"/>
+      <c r="N44" s="1" t="inlineStr">
         <is>
           <t>泰拉大陆调查团</t>
         </is>
       </c>
-      <c r="N44" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O44" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q44" s="4" t="inlineStr">
+      <c r="O44" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q44" s="1" t="n"/>
+      <c r="R44" s="1" t="inlineStr">
         <is>
           <t>温米</t>
         </is>
       </c>
-      <c r="R44" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S44" s="5" t="inlineStr">
+      <c r="S44" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
         <is>
           <t>maa://39366 (85.71)</t>
         </is>
       </c>
+      <c r="U44" s="1" t="n"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="8" t="n"/>
-      <c r="B45" s="8" t="n"/>
-      <c r="C45" s="8" t="n"/>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="F45" s="1" t="inlineStr">
         <is>
           <t>耀骑士临光</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="G45" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G45" s="5" t="inlineStr">
+      <c r="H45" s="2" t="inlineStr">
         <is>
           <t>maa://21229 (85.56), maa://30807 (95.08), *maa://22767 (55.56), ***maa://20796 (13.79), maa://42459 (100.0)</t>
         </is>
       </c>
-      <c r="M45" s="4" t="inlineStr">
+      <c r="I45" s="1" t="n"/>
+      <c r="N45" s="1" t="inlineStr">
         <is>
           <t>玫拉</t>
         </is>
       </c>
-      <c r="N45" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O45" s="5" t="inlineStr">
+      <c r="O45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
         <is>
           <t>*maa://36237 (58.33)</t>
         </is>
       </c>
-      <c r="Q45" s="4" t="inlineStr">
+      <c r="Q45" s="1" t="n"/>
+      <c r="R45" s="1" t="inlineStr">
         <is>
           <t>阿罗玛</t>
         </is>
       </c>
-      <c r="R45" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S45" s="5" t="inlineStr">
+      <c r="S45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
         <is>
           <t>**maa://39364 (46.15)</t>
         </is>
       </c>
+      <c r="U45" s="1" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="n"/>
-      <c r="B46" s="8" t="n"/>
-      <c r="C46" s="8" t="n"/>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="B46" s="3" t="n"/>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="3" t="n"/>
+      <c r="F46" s="1" t="inlineStr">
         <is>
           <t>艾丽妮</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G46" s="5" t="inlineStr">
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
         <is>
           <t>maa://35931 (92.5)</t>
         </is>
       </c>
-      <c r="M46" s="4" t="inlineStr">
+      <c r="I46" s="1" t="n"/>
+      <c r="N46" s="1" t="inlineStr">
         <is>
           <t>隐现</t>
         </is>
       </c>
-      <c r="N46" s="4" t="inlineStr">
+      <c r="O46" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O46" s="5" t="inlineStr">
+      <c r="P46" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q46" s="4" t="inlineStr">
+      <c r="Q46" s="1" t="n"/>
+      <c r="R46" s="1" t="inlineStr">
         <is>
           <t>逻各斯</t>
         </is>
       </c>
-      <c r="R46" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S46" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="S46" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U46" s="1" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="n"/>
-      <c r="B47" s="8" t="n"/>
-      <c r="C47" s="8" t="n"/>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+      <c r="F47" s="1" t="inlineStr">
         <is>
           <t>百炼嘉维尔</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="G47" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G47" s="5" t="inlineStr">
+      <c r="H47" s="2" t="inlineStr">
         <is>
           <t>maa://27410 (95.86), maa://29661 (97.71), maa://28038 (84.62)</t>
         </is>
       </c>
-      <c r="M47" s="4" t="inlineStr">
+      <c r="I47" s="1" t="n"/>
+      <c r="N47" s="1" t="inlineStr">
         <is>
           <t>提丰</t>
         </is>
       </c>
-      <c r="N47" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O47" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q47" s="4" t="inlineStr">
+      <c r="O47" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q47" s="1" t="n"/>
+      <c r="R47" s="1" t="inlineStr">
         <is>
           <t>妮芙</t>
         </is>
       </c>
-      <c r="R47" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S47" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="S47" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U47" s="1" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="n"/>
-      <c r="B48" s="8" t="n"/>
-      <c r="C48" s="8" t="n"/>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" s="3" t="n"/>
+      <c r="F48" s="1" t="inlineStr">
         <is>
           <t>玛恩纳</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G48" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M48" s="4" t="inlineStr">
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="n"/>
+      <c r="N48" s="1" t="inlineStr">
         <is>
           <t>冰酿</t>
         </is>
       </c>
-      <c r="N48" s="4" t="inlineStr">
+      <c r="O48" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O48" s="5" t="inlineStr">
+      <c r="P48" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
+      <c r="Q48" s="1" t="n"/>
+      <c r="R48" s="1" t="inlineStr">
         <is>
           <t>玛露西尔</t>
         </is>
       </c>
-      <c r="R48" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S48" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="S48" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U48" s="1" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="n"/>
-      <c r="B49" s="8" t="n"/>
-      <c r="C49" s="8" t="n"/>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="B49" s="3" t="n"/>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+      <c r="F49" s="1" t="inlineStr">
         <is>
           <t>罗小黑</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G49" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M49" s="4" t="inlineStr">
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="n"/>
+      <c r="N49" s="1" t="inlineStr">
         <is>
           <t>跃跃</t>
         </is>
       </c>
-      <c r="N49" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O49" s="5" t="inlineStr">
+      <c r="O49" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
         <is>
           <t>*maa://39643 (66.67)</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="Q49" s="1" t="n"/>
+      <c r="R49" s="1" t="inlineStr">
         <is>
           <t>荒芜拉普兰德</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="S49" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T49" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U49" s="1" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="n"/>
-      <c r="B50" s="8" t="n"/>
-      <c r="C50" s="8" t="n"/>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="B50" s="3" t="n"/>
+      <c r="C50" s="3" t="n"/>
+      <c r="D50" s="3" t="n"/>
+      <c r="F50" s="1" t="inlineStr">
         <is>
           <t>海沫</t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G50" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M50" s="4" t="inlineStr">
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="1" t="n"/>
+      <c r="N50" s="1" t="inlineStr">
         <is>
           <t>莱伊</t>
         </is>
       </c>
-      <c r="N50" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O50" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O50" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q50" s="1" t="n"/>
     </row>
     <row r="51">
-      <c r="E51" s="4" t="inlineStr">
+      <c r="F51" s="1" t="inlineStr">
         <is>
           <t>达格达</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G51" s="5" t="inlineStr">
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t>*maa://30769 (80.0)</t>
         </is>
       </c>
-      <c r="M51" s="4" t="inlineStr">
+      <c r="I51" s="1" t="n"/>
+      <c r="N51" s="1" t="inlineStr">
         <is>
           <t>维什戴尔</t>
         </is>
       </c>
-      <c r="N51" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O51" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O51" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q51" s="1" t="n"/>
     </row>
     <row r="52">
-      <c r="E52" s="4" t="inlineStr">
+      <c r="F52" s="1" t="inlineStr">
         <is>
           <t>石英</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G52" s="5" t="inlineStr">
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
         <is>
           <t>maa://24376 (100.0)</t>
         </is>
       </c>
-      <c r="M52" s="4" t="inlineStr">
+      <c r="I52" s="1" t="n"/>
+      <c r="N52" s="1" t="inlineStr">
         <is>
           <t>娜仁图亚</t>
         </is>
       </c>
-      <c r="N52" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O52" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O52" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q52" s="1" t="n"/>
     </row>
     <row r="53">
-      <c r="E53" s="4" t="inlineStr">
+      <c r="F53" s="1" t="inlineStr">
         <is>
           <t>重岳</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="G53" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G53" s="5" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>maa://32534 (93.07), **maa://32434 (34.78)</t>
         </is>
       </c>
+      <c r="I53" s="1" t="n"/>
     </row>
     <row r="54">
-      <c r="E54" s="4" t="inlineStr">
+      <c r="F54" s="1" t="inlineStr">
         <is>
           <t>铎铃</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="G54" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G54" s="5" t="inlineStr">
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
+      <c r="I54" s="1" t="n"/>
     </row>
     <row r="55">
-      <c r="E55" s="4" t="inlineStr">
+      <c r="F55" s="1" t="inlineStr">
         <is>
           <t>仇白</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr">
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
         <is>
           <t>maa://32532 (92.24)</t>
         </is>
       </c>
+      <c r="I55" s="1" t="n"/>
     </row>
     <row r="56">
-      <c r="E56" s="4" t="inlineStr">
+      <c r="F56" s="1" t="inlineStr">
         <is>
           <t>火龙S黑角</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G56" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" s="1" t="n"/>
     </row>
     <row r="57">
-      <c r="E57" s="4" t="inlineStr">
+      <c r="F57" s="1" t="inlineStr">
         <is>
           <t>休谟斯</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G57" s="5" t="inlineStr">
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
         <is>
           <t>maa://25176 (97.96)</t>
         </is>
       </c>
+      <c r="I57" s="1" t="n"/>
     </row>
     <row r="58">
-      <c r="E58" s="4" t="inlineStr">
+      <c r="F58" s="1" t="inlineStr">
         <is>
           <t>摩根</t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>*maa://37964 (57.14)</t>
         </is>
       </c>
+      <c r="I58" s="1" t="n"/>
     </row>
     <row r="59">
-      <c r="E59" s="4" t="inlineStr">
+      <c r="F59" s="1" t="inlineStr">
         <is>
           <t>圣约送葬人</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="G59" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G59" s="5" t="inlineStr">
+      <c r="H59" s="2" t="inlineStr">
         <is>
           <t>maa://27746 (83.17), maa://31270 (95.19)</t>
         </is>
       </c>
+      <c r="I59" s="1" t="n"/>
     </row>
     <row r="60">
-      <c r="E60" s="4" t="inlineStr">
+      <c r="F60" s="1" t="inlineStr">
         <is>
           <t>苍苔</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G60" s="5" t="inlineStr">
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
         <is>
           <t>**maa://40438 (33.33)</t>
         </is>
       </c>
+      <c r="I60" s="1" t="n"/>
     </row>
     <row r="61">
-      <c r="E61" s="4" t="inlineStr">
+      <c r="F61" s="1" t="inlineStr">
         <is>
           <t>赫德雷</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G61" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="1" t="n"/>
     </row>
     <row r="62">
-      <c r="E62" s="4" t="inlineStr">
+      <c r="F62" s="1" t="inlineStr">
         <is>
           <t>止颂</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G62" s="5" t="inlineStr">
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
         <is>
           <t>maa://42981 (100.0)</t>
         </is>
       </c>
+      <c r="I62" s="1" t="n"/>
     </row>
     <row r="63">
-      <c r="E63" s="4" t="inlineStr">
+      <c r="F63" s="1" t="inlineStr">
         <is>
           <t>薇薇安娜</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G63" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="1" t="n"/>
     </row>
     <row r="64">
-      <c r="E64" s="4" t="inlineStr">
+      <c r="F64" s="1" t="inlineStr">
         <is>
           <t>烈夏</t>
         </is>
       </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G64" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="1" t="n"/>
     </row>
     <row r="65">
-      <c r="E65" s="4" t="inlineStr">
+      <c r="F65" s="1" t="inlineStr">
         <is>
           <t>锏</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G65" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="1" t="n"/>
     </row>
     <row r="66">
-      <c r="E66" s="4" t="inlineStr">
+      <c r="F66" s="1" t="inlineStr">
         <is>
           <t>左乐</t>
         </is>
       </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G66" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="1" t="n"/>
     </row>
     <row r="67">
-      <c r="E67" s="4" t="inlineStr">
+      <c r="F67" s="1" t="inlineStr">
         <is>
           <t>导火索</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G67" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="1" t="n"/>
     </row>
     <row r="68">
-      <c r="E68" s="4" t="inlineStr">
+      <c r="F68" s="1" t="inlineStr">
         <is>
           <t>医生</t>
         </is>
       </c>
-      <c r="F68" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G68" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" s="1" t="n"/>
     </row>
     <row r="69">
-      <c r="E69" s="4" t="inlineStr">
+      <c r="F69" s="1" t="inlineStr">
         <is>
           <t>奥达</t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G69" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" s="1" t="n"/>
     </row>
     <row r="70">
-      <c r="E70" s="4" t="inlineStr">
+      <c r="F70" s="1" t="inlineStr">
         <is>
           <t>乌尔比安</t>
         </is>
       </c>
-      <c r="F70" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G70" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" s="1" t="n"/>
     </row>
     <row r="71">
-      <c r="E71" s="4" t="inlineStr">
+      <c r="F71" s="1" t="inlineStr">
         <is>
           <t>佩佩</t>
         </is>
       </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G71" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" s="1" t="n"/>
     </row>
     <row r="72">
-      <c r="E72" s="4" t="inlineStr">
+      <c r="F72" s="1" t="inlineStr">
         <is>
           <t>莱欧斯</t>
         </is>
       </c>
-      <c r="F72" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G72" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" s="1" t="n"/>
     </row>
     <row r="73">
-      <c r="E73" s="4" t="inlineStr">
+      <c r="F73" s="1" t="inlineStr">
         <is>
           <t>维娜·维多利亚</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G73" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="A42:C44"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1260" yWindow="3000" windowWidth="23925" windowHeight="16665" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.12), maa://25390 (96.19), maa://36681 (88.24)</t>
+          <t>maa://24702 (94.12), maa://25390 (95.78), maa://36681 (88.24)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.26), maa://36684 (98.68), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.26), maa://36684 (98.7), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (70.0), maa://20276 (83.33), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (69.57), maa://20276 (83.33), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (85.37), maa://27484 (95.79), maa://27480 (82.35)</t>
+          <t>maa://27396 (85.42), maa://27484 (95.79), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (96.15)</t>
+          <t>maa://24390 (96.23)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.43), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.48), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.7), maa://22754 (91.67), maa://27295 (80.77), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.7), maa://22754 (91.67), maa://27295 (81.82), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.05), maa://22744 (83.33)</t>
+          <t>maa://21245 (82.14), maa://22744 (83.33)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (94.12)</t>
+          <t>maa://42407 (94.44)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (88.24), maa://30381 (91.67)</t>
+          <t>maa://31836 (88.89), maa://30381 (91.67)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>maa://21955 (93.33)</t>
+          <t>maa://21955 (93.55)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>maa://22750 (94.44)</t>
+          <t>maa://22750 (94.74)</t>
         </is>
       </c>
       <c r="Q7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.74), *maa://22758 (70.37)</t>
+          <t>maa://22399 (94.78), *maa://22758 (70.37)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.49), *maa://36671 (72.73), *maa://42530 (75.0)</t>
+          <t>*maa://26191 (68.92), *maa://36671 (73.33), *maa://42530 (75.0)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.02 22:43:40</t>
+          <t>更新日期：2024.11.02 22:47:19</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.09)</t>
+          <t>maa://26223 (97.12)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (88.37), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (41.18), maa://40166 (100.0)</t>
+          <t>maa://28711 (88.51), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (41.18), maa://40166 (100.0)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (90.11), **maa://22865 (47.92)</t>
+          <t>maa://26206 (90.22), **maa://22865 (47.92)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.5), *maa://21485 (76.92), maa://37962 (83.33)</t>
+          <t>maa://22753 (91.5), *maa://21485 (77.1), maa://37962 (83.33)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.51), maa://36677 (92.5), maa://39872 (86.67)</t>
+          <t>maa://23669 (95.51), maa://36677 (92.68), maa://39872 (86.67)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.15), *maa://20106 (63.64), *maa://22769 (62.96)</t>
+          <t>*maa://28932 (78.15), *maa://20106 (63.64), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.43), maa://36673 (92.06), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.45), maa://36673 (92.06), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.88), **maa://22728 (46.51)</t>
+          <t>*maa://21248 (74.53), **maa://22728 (46.51)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (77.36), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (77.78), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.6), maa://39883 (90.62), *maa://39885 (70.0)</t>
+          <t>**maa://22737 (30.6), maa://39883 (91.43), *maa://39885 (70.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.62)</t>
+          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.75)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.09), maa://22734 (83.48), *maa://30808 (64.41), ***maa://36048 (12.5)</t>
+          <t>*maa://22743 (77.09), maa://22734 (83.48), *maa://30808 (64.41), ***maa://36048 (12.12)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.24), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.3), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (89.66), *maa://22727 (70.0)</t>
+          <t>maa://24762 (89.73), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.68), *maa://22766 (72.12), *maa://36666 (77.61)</t>
+          <t>maa://21364 (80.68), *maa://22766 (72.12), *maa://36666 (77.94)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.17), *maa://28648 (69.64), maa://36674 (81.25)</t>
+          <t>maa://22729 (95.21), *maa://28648 (69.64), maa://36674 (81.25)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.62), maa://28051 (95.83)</t>
+          <t>maa://28501 (97.67), maa://28051 (95.83)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (30.77)</t>
+          <t>***maa://42324 (28.57)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.84)</t>
+          <t>maa://24386 (98.85)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (61.72), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (61.56), *maa://36668 (52.17)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.81)</t>
+          <t>maa://22864 (88.89)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (81.82)</t>
+          <t>maa://41331 (82.46)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.43)</t>
+          <t>maa://24372 (96.51)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (93.99), *maa://22432 (75.44)</t>
+          <t>maa://22524 (94.02), *maa://22432 (75.44)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>maa://38495 (87.5)</t>
+          <t>maa://38495 (88.89)</t>
         </is>
       </c>
       <c r="U22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.86), *maa://37649 (70.0)</t>
+          <t>maa://21282 (98.86), *maa://37649 (71.43)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.06), maa://39875 (94.34)</t>
+          <t>maa://39756 (93.1), maa://39875 (94.34)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.86), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (76.19)</t>
+          <t>maa://30587 (91.33), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (76.19)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.34), *maa://36672 (77.27), maa://29910 (94.12), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.34), *maa://36672 (77.78), maa://29910 (94.12), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.28)</t>
+          <t>maa://29753 (94.89)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.43)</t>
+          <t>maa://24913 (91.67)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (86.49)</t>
+          <t>maa://42235 (87.18)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.47), maa://25725 (82.72)</t>
+          <t>maa://24465 (90.48), maa://25725 (82.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (87.34), ***maa://39723 (14.29), maa://41749 (83.33)</t>
+          <t>maa://39929 (87.55), ***maa://39723 (14.29), maa://41749 (83.33)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.67), *maa://36701 (62.96)</t>
+          <t>maa://36660 (92.7), *maa://36701 (62.96)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.58), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.6), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>*maa://32940 (66.67), maa://24388 (93.75)</t>
+          <t>*maa://32940 (66.67), maa://24388 (94.12)</t>
         </is>
       </c>
       <c r="U30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.36), *maa://36258 (79.49)</t>
+          <t>maa://35926 (93.36), *maa://36258 (79.75)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (88.64), maa://41238 (95.24), maa://42859 (92.31)</t>
+          <t>maa://41108 (88.64), maa://41238 (95.24), maa://42859 (92.86)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (98.55)</t>
+          <t>maa://41296 (98.59)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (84.51)</t>
+          <t>maa://36697 (84.72)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.92), maa://21386 (95.68), maa://36664 (90.91)</t>
+          <t>maa://23278 (95.92), maa://21386 (95.68), maa://36664 (91.11)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.74), maa://21284 (82.93)</t>
+          <t>maa://22525 (92.8), maa://21284 (82.93)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.63), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.65), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.5)</t>
+          <t>maa://35931 (92.15)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (95.86), maa://29661 (97.71), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.86), maa://29661 (97.73), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.07), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.09), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>**maa://40438 (33.33)</t>
+          <t>**maa://40438 (36.36)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6489,9 +6489,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (69.57), maa://20276 (83.33), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (69.57), maa://20276 (83.45), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (95.22), maa://26254 (95.65)</t>
+          <t>maa://21249 (95.24), maa://26254 (95.65)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (85.42), maa://27484 (95.79), maa://27480 (82.35)</t>
+          <t>maa://27396 (85.47), maa://27484 (95.79), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.7), maa://22754 (91.67), maa://27295 (81.82), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.73), maa://22754 (91.67), maa://27295 (81.82), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.01), ***maa://31785 (20.87), ***maa://36683 (26.67)</t>
+          <t>**maa://32495 (47.01), ***maa://31785 (20.87), ***maa://36683 (28.26)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (73.33)</t>
+          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (75.0)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.14), maa://22744 (83.33)</t>
+          <t>maa://21245 (82.23), maa://22744 (83.33)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>maa://37411 (81.82)</t>
+          <t>maa://37411 (83.33)</t>
         </is>
       </c>
       <c r="U6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.78), *maa://22758 (70.37)</t>
+          <t>maa://22399 (94.78), *maa://22758 (70.91)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.02 22:47:19</t>
+          <t>更新日期：2024.11.03 01:13:15</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (91.57), maa://39552 (85.71)</t>
+          <t>maa://22762 (91.57), maa://39552 (87.5)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (93.59), *maa://23264 (61.82), maa://36669 (84.62)</t>
+          <t>maa://28977 (93.59), *maa://23264 (61.82), maa://36669 (85.19)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.92)</t>
+          <t>maa://36713 (97.93)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.75)</t>
+          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.88)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.52), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.53), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (94.51), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.57), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.21), *maa://28648 (69.64), maa://36674 (81.25)</t>
+          <t>maa://22729 (95.24), *maa://28648 (69.64), maa://36674 (81.25)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.37)</t>
+          <t>maa://24421 (90.41)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.53), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.56), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.51)</t>
+          <t>maa://24372 (96.55)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (91.18)</t>
+          <t>maa://20110 (86.76), maa://34946 (91.43)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (85.56), *maa://22751 (76.19)</t>
+          <t>maa://27127 (85.71), *maa://22751 (76.19)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368 (80.36)</t>
+          <t>maa://24368 (80.42)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.67)</t>
+          <t>maa://24913 (91.78)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.57), *maa://29765 (60.0)</t>
+          <t>maa://23263 (94.62), *maa://29765 (60.0)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>maa://21442 (99.49)</t>
+          <t>maa://21442 (99.5)</t>
         </is>
       </c>
       <c r="Q30" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956 (78.95), maa://22730 (82.14)</t>
+          <t>*maa://21956 (79.1), maa://22730 (82.14)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (92.31)</t>
+          <t>maa://24709 (92.38)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (39.39)</t>
+          <t>**maa://35616 (38.24)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.65), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.66), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.17), maa://31270 (95.19)</t>
+          <t>maa://27746 (83.33), maa://31270 (95.19)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.26), maa://36684 (98.7), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.26), maa://36684 (98.72), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.77), ***maa://21730 (17.19), ***maa://39501 (18.75), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.77), ***maa://21730 (16.92), ***maa://39501 (18.75), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (93.62), maa://40192 (95.65), maa://39849 (88.89)</t>
+          <t>maa://36987 (93.62), maa://40192 (96.0), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (69.57), maa://20276 (83.45), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (69.57), maa://20276 (83.56), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (95.24), maa://26254 (95.65)</t>
+          <t>maa://21249 (94.79), maa://26254 (95.65)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
+          <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (19.57)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (85.47), maa://27484 (95.79), maa://27480 (82.35)</t>
+          <t>maa://27396 (85.52), maa://27484 (95.79), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.48), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.53), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.73), maa://22754 (91.67), maa://27295 (81.82), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.73), maa://22754 (91.67), maa://27295 (82.14), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.01), ***maa://31785 (20.87), ***maa://36683 (28.26)</t>
+          <t>**maa://32495 (47.01), ***maa://31785 (21.55), ***maa://36683 (28.26)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (75.0)</t>
+          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (76.47)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.23), maa://22744 (83.33)</t>
+          <t>maa://21245 (82.32), maa://22744 (83.33)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>*maa://22757 (78.57)</t>
+          <t>*maa://22757 (75.86)</t>
         </is>
       </c>
       <c r="M5" s="1" t="n"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919 (95.74), maa://21281 (92.31)</t>
+          <t>maa://21919 (95.83), maa://21281 (92.31)</t>
         </is>
       </c>
       <c r="Q5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (94.44)</t>
+          <t>maa://42407 (89.47)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.78), *maa://22758 (70.91)</t>
+          <t>maa://22399 (94.78), *maa://22758 (71.43)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.03 01:13:15</t>
+          <t>更新日期：2024.11.03 14:53:27</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (91.57), maa://39552 (87.5)</t>
+          <t>maa://22762 (91.57), maa://39552 (88.89)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.12)</t>
+          <t>maa://26223 (97.14)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (88.51), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (41.18), maa://40166 (100.0)</t>
+          <t>maa://28711 (88.51), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (42.11), maa://40166 (85.71)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (90.22), **maa://22865 (47.92)</t>
+          <t>maa://26206 (90.32), **maa://22865 (47.92)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.97), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (16.13), **maa://39243 (33.33)</t>
+          <t>***maa://25695 (18.86), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (16.13), **maa://39243 (33.33)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (93.59), *maa://23264 (61.82), maa://36669 (85.19)</t>
+          <t>maa://28977 (93.59), maa://36669 (85.19), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (94.41), maa://22501 (98.15)</t>
+          <t>maa://22747 (93.75), maa://22501 (98.15)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.5), *maa://21485 (77.1), maa://37962 (83.33)</t>
+          <t>maa://22753 (91.5), *maa://21485 (77.1), maa://37962 (84.21)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.15), *maa://20106 (63.64), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (77.69), *maa://20106 (63.64), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.08), *maa://22583 (75.41), *maa://22500 (55.81)</t>
+          <t>maa://22676 (92.08), *maa://22583 (75.41), *maa://22500 (56.82)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.6), maa://39883 (91.43), *maa://39885 (70.0)</t>
+          <t>**maa://22737 (30.6), maa://39883 (91.43), *maa://39885 (66.67)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.53), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.54), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.09), maa://22734 (83.48), *maa://30808 (64.41), ***maa://36048 (12.12)</t>
+          <t>*maa://22743 (77.35), maa://22734 (83.48), *maa://30808 (65.0), ***maa://36048 (12.12)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.3), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.36), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.68), *maa://22766 (72.12), *maa://36666 (77.94)</t>
+          <t>maa://21364 (80.68), *maa://22766 (71.43), *maa://36666 (78.26)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.17), maa://36679 (91.43), maa://37650 (96.3)</t>
+          <t>maa://21441 (96.17), maa://36679 (91.43), maa://37650 (96.43)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (63.16), maa://27755 (92.11)</t>
+          <t>*maa://23911 (63.16), maa://27755 (92.21)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.14), maa://39599 (84.0)</t>
+          <t>maa://22430 (88.2), maa://39599 (85.19)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>*maa://21679 (75.0)</t>
+          <t>*maa://21679 (76.0)</t>
         </is>
       </c>
       <c r="M17" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>***maa://42324 (28.57)</t>
+          <t>***maa://42324 (26.67)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>maa://24385 (96.88)</t>
+          <t>maa://24385 (96.97)</t>
         </is>
       </c>
       <c r="U18" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (82.46)</t>
+          <t>maa://41331 (83.61)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>maa://29113 (95.65)</t>
+          <t>maa://29113 (88.0)</t>
         </is>
       </c>
       <c r="U20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (79.04), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (79.1), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (85.71), *maa://22751 (76.19)</t>
+          <t>maa://27127 (85.87), *maa://22751 (76.19)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.1), maa://39875 (94.34)</t>
+          <t>maa://39756 (93.14), maa://39875 (94.34)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.33), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (76.19)</t>
+          <t>maa://30587 (91.33), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (77.27)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (85.78), maa://23504 (92.76), **maa://22892 (40.14), *maa://25141 (77.24), *maa://36663 (79.31), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (85.78), maa://23504 (92.76), **maa://22892 (40.14), *maa://25141 (77.24), *maa://36663 (79.66), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (94.89)</t>
+          <t>maa://29753 (94.92)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.64), *maa://25311 (74.47), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (74.64), *maa://25311 (74.74), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.18), maa://24621 (96.46), maa://36676 (100.0), maa://22771 (84.62), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.18), maa://24621 (96.46), maa://36676 (100.0), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (87.18)</t>
+          <t>maa://42235 (88.1)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.48), maa://25725 (82.72)</t>
+          <t>maa://24465 (90.5), maa://25725 (82.93)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (87.55), ***maa://39723 (14.29), maa://41749 (83.33)</t>
+          <t>maa://39929 (87.76), ***maa://39723 (14.29), maa://41749 (83.33)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.7), *maa://36701 (62.96)</t>
+          <t>maa://36660 (92.73), *maa://36701 (62.96)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.6), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (66.67)</t>
+          <t>maa://28432 (93.62), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.17), ***maa://34960 (8.7), maa://42865 (100.0)</t>
+          <t>*maa://24080 (69.17), ***maa://34960 (8.7), maa://42865 (90.0)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (100.0)</t>
+          <t>maa://42979 (92.86)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.36), *maa://36258 (79.75)</t>
+          <t>maa://35926 (93.39), *maa://36258 (79.75)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (88.64), maa://41238 (95.24), maa://42859 (92.86)</t>
+          <t>maa://41108 (88.89), maa://41238 (95.24), maa://42859 (94.12)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (98.59)</t>
+          <t>maa://41296 (98.63)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>maa://24466 (95.12)</t>
+          <t>maa://24466 (92.86)</t>
         </is>
       </c>
       <c r="I41" s="1" t="n"/>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.8), maa://21284 (82.93)</t>
+          <t>maa://22525 (92.86), maa://21284 (82.93)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.15)</t>
+          <t>maa://35931 (92.18)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (95.86), maa://29661 (97.73), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.89), maa://29661 (97.73), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.24)</t>
+          <t>maa://32532 (92.27)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (97.96)</t>
+          <t>maa://25176 (98.0)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.12), maa://25390 (95.78), maa://36681 (88.24)</t>
+          <t>maa://24702 (94.16), maa://25390 (95.8), maa://36681 (85.71)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (54.97), *maa://30515 (69.7), *maa://34787 (72.13), ***maa://20792 (11.93), maa://39402 (86.21), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (54.97), *maa://30515 (69.0), *maa://34787 (70.97), ***maa://20792 (11.93), maa://39402 (84.38), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (92.25), *maa://20791 (62.32)</t>
+          <t>maa://22742 (91.61), *maa://20791 (62.32)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.26), maa://36684 (98.72), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.26), maa://36684 (97.53), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.77), ***maa://21730 (16.92), ***maa://39501 (18.75), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.94), ***maa://21730 (16.92), ***maa://39501 (17.65), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (93.62), maa://40192 (96.0), maa://39849 (88.89)</t>
+          <t>maa://36987 (93.62), maa://40192 (96.15), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (69.57), maa://20276 (83.56), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (68.67), maa://20276 (84.0), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.79), maa://26254 (95.65)</t>
+          <t>maa://21249 (94.84), maa://26254 (95.65)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (19.57)</t>
+          <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (20.83)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (85.52), maa://27484 (95.79), maa://27480 (82.35)</t>
+          <t>maa://27396 (84.77), maa://27484 (95.83), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (96.23)</t>
+          <t>maa://24390 (96.36)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.53), **maa://24303 (36.36), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.57), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.73), maa://22754 (91.67), maa://27295 (82.14), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.8), maa://27295 (82.46), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -994,12 +994,12 @@
       </c>
       <c r="W4" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.01), ***maa://31785 (21.55), ***maa://36683 (28.26)</t>
+          <t>**maa://32495 (46.85), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (100.0)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="AB4" s="2" t="inlineStr">
         <is>
-          <t>*maa://32658 (68.75)</t>
+          <t>*maa://32658 (66.67)</t>
         </is>
       </c>
       <c r="AC4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (76.47)</t>
+          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (72.22)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.32), maa://22744 (83.33)</t>
+          <t>maa://21245 (82.76), maa://22744 (83.33)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919 (95.83), maa://21281 (92.31)</t>
+          <t>maa://21919 (95.92), maa://21281 (85.71)</t>
         </is>
       </c>
       <c r="Q5" s="1" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (72.41), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
+          <t>*maa://29863 (70.0), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
         </is>
       </c>
       <c r="AC5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (89.47)</t>
+          <t>maa://42407 (92.59)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>maa://24370 (96.3)</t>
+          <t>maa://24370 (96.36)</t>
         </is>
       </c>
       <c r="I6" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (99.22)</t>
+          <t>maa://24839 (99.24)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (88.89), maa://30381 (91.67)</t>
+          <t>maa://31836 (89.47), maa://30381 (91.67)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="AB6" s="2" t="inlineStr">
         <is>
-          <t>maa://22739 (92.0)</t>
+          <t>maa://22739 (92.31)</t>
         </is>
       </c>
       <c r="AC6" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (61.76), ***maa://22770 (28.57)</t>
+          <t>*maa://33152 (60.53), ***maa://22770 (28.57)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.0), maa://24957 (97.56)</t>
+          <t>maa://28624 (92.21), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>maa://22750 (94.74)</t>
+          <t>maa://22750 (94.87)</t>
         </is>
       </c>
       <c r="Q7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.78), *maa://22758 (71.43)</t>
+          <t>maa://22399 (94.85), *maa://22758 (71.93)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.92), *maa://36671 (73.33), *maa://42530 (75.0)</t>
+          <t>*maa://26191 (68.0), *maa://36671 (71.74), **maa://42530 (42.86)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.03 14:53:27</t>
+          <t>更新日期：2024.11.09 17:55:06</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (70.45), **maa://39431 (42.86), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (71.11), **maa://39431 (44.44), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24371 (52.24)</t>
+          <t>*maa://24371 (52.17)</t>
         </is>
       </c>
       <c r="I8" s="1" t="n"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (87.21), *maa://21916 (60.0), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (100.0)</t>
+          <t>maa://32931 (85.71), *maa://21916 (60.0), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (95.65)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.79)</t>
+          <t>maa://21411 (95.85)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
-          <t>maa://25389 (89.66)</t>
+          <t>maa://25389 (87.1)</t>
         </is>
       </c>
       <c r="AC8" s="1" t="n"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AF8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.33), *maa://21990 (53.85)</t>
+          <t>*maa://24479 (77.92), *maa://21990 (53.85)</t>
         </is>
       </c>
       <c r="AG8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (91.76), *maa://21915 (68.0)</t>
+          <t>maa://22765 (91.86), *maa://21915 (68.0)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (91.57), maa://39552 (88.89)</t>
+          <t>maa://22762 (91.67), maa://39552 (90.0)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (80.95)</t>
+          <t>maa://22736 (80.46)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.77), maa://26222 (97.5)</t>
+          <t>**maa://22866 (30.77), maa://26222 (97.56)</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.14)</t>
+          <t>maa://26223 (97.2)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (88.51), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (42.11), maa://40166 (85.71)</t>
+          <t>maa://28711 (87.91), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (45.0), maa://40166 (87.5)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (90.32), **maa://22865 (47.92)</t>
+          <t>maa://26206 (89.58), **maa://22865 (48.98)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.86), **maa://32237 (37.84), ***maa://34206 (18.18), ***maa://39951 (16.13), **maa://39243 (33.33)</t>
+          <t>***maa://25695 (18.86), **maa://32237 (42.5), ***maa://34206 (18.18), ***maa://39951 (15.15), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>maa://32651 (92.86)</t>
+          <t>maa://32651 (93.75)</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>**maa://24395 (43.48)</t>
+          <t>**maa://24395 (44.0)</t>
         </is>
       </c>
       <c r="M10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (93.59), maa://36669 (85.19), *maa://23264 (61.82)</t>
+          <t>maa://28977 (92.41), maa://36669 (85.71), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.18), maa://22755 (86.92), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.6), maa://22755 (87.04), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.45), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.46), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (56.0), *maa://22733 (60.0), maa://22761 (100.0)</t>
+          <t>*maa://25021 (53.85), *maa://22733 (58.06), maa://22761 (100.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.66)</t>
+          <t>maa://36707 (99.34)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (87.5)</t>
+          <t>maa://21287 (87.78)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.75), maa://22501 (98.15)</t>
+          <t>maa://22747 (93.79), maa://22501 (98.18)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.93)</t>
+          <t>maa://36713 (98.01)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="AF11" s="2" t="inlineStr">
         <is>
-          <t>maa://31203 (94.74), ***maa://24394 (19.23)</t>
+          <t>maa://31203 (95.45), ***maa://24394 (19.23)</t>
         </is>
       </c>
       <c r="AG11" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (90.2)</t>
+          <t>maa://21867 (89.74)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.5), *maa://21485 (77.1), maa://37962 (84.21)</t>
+          <t>maa://22753 (91.5), *maa://21485 (77.44), maa://37962 (85.71)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.51), maa://36677 (92.68), maa://39872 (86.67)</t>
+          <t>maa://23669 (95.19), maa://36677 (93.33), maa://39872 (88.89)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (77.69), *maa://20106 (63.64), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (77.6), *maa://20106 (63.64), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.45), maa://36673 (92.06), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.52), maa://36673 (92.42), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.53), **maa://22728 (46.51)</t>
+          <t>*maa://21248 (74.65), **maa://22728 (46.51)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.08), *maa://22583 (75.41), *maa://22500 (56.82)</t>
+          <t>maa://22676 (91.26), *maa://22583 (75.41), *maa://22500 (56.82)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (77.78), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (77.19), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.6), maa://39883 (91.43), *maa://39885 (66.67)</t>
+          <t>**maa://22737 (30.37), maa://39883 (89.74), *maa://39885 (58.33)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>maa://30764 (87.23)</t>
+          <t>maa://30764 (87.76)</t>
         </is>
       </c>
       <c r="E14" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (93.88)</t>
+          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (92.98)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.54), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.56), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="X14" s="2" t="inlineStr">
         <is>
-          <t>maa://37468 (87.5)</t>
+          <t>maa://37468 (88.24)</t>
         </is>
       </c>
       <c r="Y14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.35), maa://22734 (83.48), *maa://30808 (65.0), ***maa://36048 (12.12)</t>
+          <t>*maa://22743 (76.88), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (11.76)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.36), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.54), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (89.73), *maa://22727 (70.0)</t>
+          <t>maa://24762 (89.86), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.68), *maa://22766 (71.43), *maa://36666 (78.26)</t>
+          <t>maa://21364 (80.74), *maa://22766 (70.75), *maa://36666 (77.03)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.17), maa://36679 (91.43), maa://37650 (96.43)</t>
+          <t>maa://21441 (96.19), maa://36679 (91.89), maa://37650 (96.67)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43216 (100.0)</t>
         </is>
       </c>
       <c r="I16" s="1" t="n"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>maa://28504 (90.38)</t>
+          <t>maa://28504 (90.57)</t>
         </is>
       </c>
       <c r="Q16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.24), *maa://28648 (69.64), maa://36674 (81.25)</t>
+          <t>maa://22729 (95.24), *maa://28648 (68.42), maa://36674 (82.86)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.67), maa://28051 (95.83)</t>
+          <t>maa://28501 (97.75), maa://28051 (95.83)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.06)</t>
+          <t>maa://26228 (95.18)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (63.16), maa://27755 (92.21)</t>
+          <t>*maa://23911 (63.54), maa://27755 (92.31)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.2), maa://39599 (85.19)</t>
+          <t>maa://22430 (88.2), maa://39599 (85.71)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>***maa://42324 (26.67)</t>
+          <t>**maa://42324 (31.25)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.79)</t>
+          <t>maa://24570 (96.86)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.41)</t>
+          <t>maa://24421 (90.13)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.56), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.59), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (57.89), **maa://29784 (44.44)</t>
+          <t>*maa://24313 (57.14), **maa://29784 (44.44)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.85)</t>
+          <t>maa://24386 (98.89)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (61.56), *maa://36668 (52.17)</t>
+          <t>*maa://30709 (61.99), *maa://36668 (54.17)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (61.67)</t>
+          <t>*maa://21663 (61.29)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.91), maa://25198 (93.68), *maa://20795 (50.4), maa://36680 (100.0)</t>
+          <t>maa://21432 (90.37), maa://25198 (93.81), *maa://20795 (50.4), maa://36680 (96.43)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.89)</t>
+          <t>maa://22864 (88.97)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (83.61)</t>
+          <t>maa://41331 (83.82)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>maa://37442 (96.88)</t>
+          <t>maa://37442 (96.97)</t>
         </is>
       </c>
       <c r="Q20" s="1" t="n"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>maa://29113 (88.0)</t>
+          <t>maa://29113 (85.19)</t>
         </is>
       </c>
       <c r="U20" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.55)</t>
+          <t>maa://24372 (96.63)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (91.43)</t>
+          <t>maa://20110 (86.76), maa://34946 (91.67)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (79.1), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (79.23), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.02), *maa://22432 (75.44)</t>
+          <t>maa://22524 (94.24), *maa://22432 (75.86)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.05), **maa://21678 (48.94), **maa://22735 (50.0)</t>
+          <t>maa://25236 (96.15), **maa://21678 (48.94), **maa://22735 (50.0)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (85.87), *maa://22751 (76.19)</t>
+          <t>maa://27127 (86.02), *maa://22751 (75.0)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>maa://38495 (88.89)</t>
+          <t>*maa://38495 (80.0)</t>
         </is>
       </c>
       <c r="U22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.86), *maa://37649 (71.43)</t>
+          <t>maa://21282 (98.32), *maa://37649 (68.18)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="AF22" s="2" t="inlineStr">
         <is>
-          <t>maa://29658 (94.74)</t>
+          <t>maa://29658 (92.68)</t>
         </is>
       </c>
       <c r="AG22" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.36), *maa://41753 (60.0)</t>
+          <t>***maa://28036 (28.36), *maa://41753 (55.56)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.14), maa://39875 (94.34)</t>
+          <t>maa://39756 (93.12), maa://39875 (94.74)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.33), *maa://29748 (75.2), ***maa://29785 (15.15), *maa://37566 (77.27)</t>
+          <t>maa://30587 (91.53), *maa://29748 (75.4), ***maa://29785 (16.42), *maa://37566 (76.92)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>maa://24387 (82.86), maa://31212 (96.0)</t>
+          <t>maa://24387 (83.33), maa://31212 (96.0)</t>
         </is>
       </c>
       <c r="U23" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (65.08)</t>
+          <t>*maa://28503 (65.62)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368 (80.42)</t>
+          <t>maa://24368 (80.47)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (85.78), maa://23504 (92.76), **maa://22892 (40.14), *maa://25141 (77.24), *maa://36663 (79.66), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (85.98), maa://23504 (92.88), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.65), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.34), *maa://36672 (77.78), maa://29910 (94.12), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.42), *maa://36672 (79.17), maa://29910 (92.31), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (94.92)</t>
+          <t>maa://29753 (95.0)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>maa://24378 (88.89)</t>
+          <t>maa://24378 (86.49)</t>
         </is>
       </c>
       <c r="M25" s="1" t="n"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>maa://24382 (92.31)</t>
+          <t>maa://24382 (92.59)</t>
         </is>
       </c>
       <c r="Q25" s="1" t="n"/>
@@ -3718,12 +3718,12 @@
       </c>
       <c r="S25" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.12), maa://22545 (100.0)</t>
+          <t>maa://20109 (92.12), maa://22545 (100.0), maa://42915 (100.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (84.88), *maa://24516 (79.07), maa://26001 (87.27)</t>
+          <t>maa://31215 (85.06), *maa://24516 (79.07), maa://26001 (87.27)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.18), maa://24621 (96.46), maa://36676 (100.0), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.21), maa://24621 (96.49), maa://36676 (96.3), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.78)</t>
+          <t>maa://24913 (90.79)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (88.1)</t>
+          <t>maa://42235 (90.38)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AF26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (84.85), *maa://29760 (61.54)</t>
+          <t>maa://30511 (82.35), *maa://29760 (61.54)</t>
         </is>
       </c>
       <c r="AG26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (100.0), *maa://39601 (72.73), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.65), maa://34494 (96.15), *maa://39601 (69.23), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (75.0)</t>
+          <t>*maa://30624 (73.33)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AF27" s="2" t="inlineStr">
         <is>
-          <t>maa://24023 (96.83)</t>
+          <t>maa://24023 (96.88)</t>
         </is>
       </c>
       <c r="AG27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.5), maa://25725 (82.93)</t>
+          <t>maa://24465 (90.58), maa://25725 (83.13)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.62), *maa://29765 (60.0)</t>
+          <t>maa://23263 (94.74), *maa://29765 (59.72)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (87.76), ***maa://39723 (14.29), maa://41749 (83.33)</t>
+          <t>maa://39929 (88.48), ***maa://39723 (14.29), maa://41749 (82.14)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.73), *maa://36701 (62.96)</t>
+          <t>maa://36660 (92.93), *maa://36701 (62.96)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>*maa://25175 (70.45)</t>
+          <t>*maa://25175 (71.11)</t>
         </is>
       </c>
       <c r="I29" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.62), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.31), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (55.77), **maa://30050 (38.1)</t>
+          <t>*maa://23168 (55.77), **maa://30050 (40.91)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.17), ***maa://34960 (8.7), maa://42865 (90.0)</t>
+          <t>*maa://24080 (69.17), ***maa://34960 (8.7), maa://42865 (89.47)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>maa://30442 (94.64)</t>
+          <t>maa://30442 (94.83)</t>
         </is>
       </c>
       <c r="M30" s="1" t="n"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t>*maa://39477 (80.0)</t>
+          <t>maa://39477 (81.82)</t>
         </is>
       </c>
       <c r="Y30" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (92.86)</t>
+          <t>maa://42979 (95.35)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.39), *maa://36258 (79.75)</t>
+          <t>maa://35926 (93.6), *maa://36258 (80.0)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.02), maa://36667 (98.21), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.04), maa://36667 (98.25), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>maa://28065 (94.59)</t>
+          <t>maa://28065 (94.74)</t>
         </is>
       </c>
       <c r="M32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (88.89), maa://41238 (95.24), maa://42859 (94.12)</t>
+          <t>maa://41108 (89.13), maa://42859 (91.43), maa://41238 (95.45)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>**maa://39351 (50.0)</t>
+          <t>**maa://39351 (33.33)</t>
         </is>
       </c>
       <c r="I33" s="1" t="n"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.25)</t>
+          <t>maa://24526 (93.31)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (98.63)</t>
+          <t>maa://41296 (97.5)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>maa://27613 (98.97)</t>
+          <t>maa://27613 (98.98)</t>
         </is>
       </c>
       <c r="U36" s="1" t="n"/>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>*maa://24374 (57.5)</t>
+          <t>*maa://24374 (58.54)</t>
         </is>
       </c>
       <c r="I37" s="1" t="n"/>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (88.83), *maa://21239 (72.73)</t>
+          <t>maa://21280 (88.95), *maa://21239 (72.73)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (66.67)</t>
+          <t>*maa://24383 (67.03)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (84.72)</t>
+          <t>maa://36697 (84.56)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (85.32), maa://36670 (88.57), maa://30434 (87.5), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (85.32), maa://36670 (88.73), maa://30434 (87.72), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (92.38)</t>
+          <t>maa://24709 (91.07)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.92), maa://21386 (95.68), maa://36664 (91.11)</t>
+          <t>maa://23278 (95.92), maa://21386 (95.7), maa://36664 (91.49)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>maa://24466 (92.86)</t>
+          <t>maa://24466 (93.02)</t>
         </is>
       </c>
       <c r="I41" s="1" t="n"/>
@@ -5522,12 +5522,12 @@
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24)</t>
+          <t>**maa://35616 (38.24), *maa://43177 (66.67)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.86), maa://21284 (82.93)</t>
+          <t>maa://22525 (92.25), maa://21284 (82.93)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5679,11 +5679,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="T43" s="2" t="inlineStr"/>
       <c r="U43" s="1" t="n"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
@@ -5702,7 +5698,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.66), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.71), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5755,7 +5751,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (85.56), maa://30807 (95.08), *maa://22767 (55.56), ***maa://20796 (13.79), maa://42459 (100.0)</t>
+          <t>maa://21229 (85.56), maa://30807 (95.08), *maa://22767 (57.89), ***maa://20796 (13.79), *maa://42459 (60.0)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5787,7 +5783,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (46.15)</t>
+          <t>**maa://39364 (50.0)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5808,7 +5804,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.18)</t>
+          <t>maa://35931 (92.06)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5861,7 +5857,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (95.89), maa://29661 (97.73), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.91), maa://29661 (97.76), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -5983,7 +5979,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (66.67)</t>
+          <t>*maa://39643 (72.22)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>
@@ -6122,7 +6118,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.09), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.17), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6158,7 +6154,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.27)</t>
+          <t>maa://32532 (92.02)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6194,7 +6190,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (98.0)</t>
+          <t>maa://25176 (98.08)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>
@@ -6212,7 +6208,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (57.14)</t>
+          <t>*maa://37964 (54.55)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6230,7 +6226,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.33), maa://31270 (95.19)</t>
+          <t>maa://27746 (83.5), maa://31270 (95.33)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6248,7 +6244,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>**maa://40438 (36.36)</t>
+          <t>**maa://40438 (48.39)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.94), ***maa://21730 (16.92), ***maa://39501 (17.65), *maa://36675 (60.0)</t>
+          <t>maa://25251 (93.02), ***maa://21730 (16.92), ***maa://39501 (17.65), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (92.59)</t>
+          <t>maa://42407 (92.86)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (89.47), maa://30381 (91.67)</t>
+          <t>maa://31836 (89.47), maa://30381 (92.31)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.85), *maa://22758 (71.93)</t>
+          <t>maa://22399 (94.89), *maa://22758 (71.93)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.09 17:55:06</t>
+          <t>更新日期：2024.11.10 13:16:41</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.58), **maa://22865 (48.98)</t>
+          <t>maa://26206 (89.69), **maa://22865 (48.98)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.86), **maa://32237 (42.5), ***maa://34206 (18.18), ***maa://39951 (15.15), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.32), **maa://32237 (42.5), ***maa://34206 (18.18), ***maa://39951 (17.65), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.6), maa://22755 (87.04), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.62), maa://22755 (87.27), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.46), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.47), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.34)</t>
+          <t>maa://36707 (99.35)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.79), maa://22501 (98.18)</t>
+          <t>maa://22747 (93.84), maa://22501 (98.18)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.01)</t>
+          <t>maa://36713 (98.03)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.19), maa://36677 (93.33), maa://39872 (88.89)</t>
+          <t>maa://23669 (95.19), maa://36677 (93.33), maa://39872 (89.47)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (77.6), *maa://20106 (63.64), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (77.78), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.52), maa://36673 (92.42), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.53), maa://36673 (92.42), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.65), **maa://22728 (46.51)</t>
+          <t>*maa://21248 (74.3), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (89.86), *maa://22727 (70.0)</t>
+          <t>maa://24762 (89.93), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.74), *maa://22766 (70.75), *maa://36666 (77.03)</t>
+          <t>maa://21364 (80.74), *maa://22766 (70.75), *maa://36666 (77.33)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.19), maa://36679 (91.89), maa://37650 (96.67)</t>
+          <t>maa://21441 (96.19), maa://36679 (92.31), maa://37650 (96.67)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.86)</t>
+          <t>maa://24570 (96.88)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.59), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.62), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.89)</t>
+          <t>maa://24386 (98.9)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (83.82)</t>
+          <t>maa://41331 (84.06)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (91.67)</t>
+          <t>maa://20110 (86.76), maa://34946 (91.89)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (79.23), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (79.29), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.12), maa://39875 (94.74)</t>
+          <t>maa://39756 (93.19), maa://39875 (94.74)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (85.98), maa://23504 (92.88), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.65), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.11), maa://23504 (92.88), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.65), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.21), maa://24621 (96.49), maa://36676 (96.3), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.21), maa://24621 (96.52), maa://36676 (96.3), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (90.38)</t>
+          <t>maa://42235 (90.57)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AF27" s="2" t="inlineStr">
         <is>
-          <t>maa://24023 (96.88)</t>
+          <t>maa://24023 (96.92)</t>
         </is>
       </c>
       <c r="AG27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.58), maa://25725 (83.13)</t>
+          <t>maa://24465 (90.59), maa://25725 (83.13)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (88.48), ***maa://39723 (14.29), maa://41749 (82.14)</t>
+          <t>maa://39929 (88.64), ***maa://39723 (14.29), maa://41749 (82.14)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.93), *maa://36701 (62.96)</t>
+          <t>maa://36660 (93.01), *maa://36701 (62.96)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.17), ***maa://34960 (8.7), maa://42865 (89.47)</t>
+          <t>*maa://24080 (69.17), ***maa://34960 (8.7), maa://42865 (90.0)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (95.35)</t>
+          <t>maa://42979 (95.74)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.6), *maa://36258 (80.0)</t>
+          <t>maa://35926 (93.68), *maa://36258 (80.0)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>maa://30711 (96.43), maa://30768 (100.0)</t>
+          <t>maa://30711 (96.49), maa://30768 (100.0)</t>
         </is>
       </c>
       <c r="U31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (89.13), maa://42859 (91.43), maa://41238 (95.45)</t>
+          <t>maa://41108 (89.36), maa://42859 (92.5), maa://41238 (95.45)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.31)</t>
+          <t>maa://24526 (93.33)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (84.56)</t>
+          <t>maa://36697 (84.77)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (85.32), maa://36670 (88.73), maa://30434 (87.72), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (85.32), maa://36670 (87.5), maa://30434 (87.72), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (85.56), maa://30807 (95.08), *maa://22767 (57.89), ***maa://20796 (13.79), *maa://42459 (60.0)</t>
+          <t>maa://21229 (85.56), maa://30807 (95.16), *maa://22767 (57.89), ***maa://20796 (13.79), *maa://42459 (60.0)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.06)</t>
+          <t>maa://35931 (92.09)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (95.91), maa://29661 (97.76), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.92), maa://29661 (97.76), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (72.22)</t>
+          <t>*maa://39643 (68.42)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.02)</t>
+          <t>maa://32532 (92.05)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.5), maa://31270 (95.33)</t>
+          <t>maa://27746 (83.5), maa://31270 (95.37)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.16), maa://25390 (95.8), maa://36681 (85.71)</t>
+          <t>maa://24702 (94.16), maa://25390 (95.82), maa://36681 (85.71)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (54.97), *maa://30515 (69.0), *maa://34787 (70.97), ***maa://20792 (11.93), maa://39402 (84.38), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (54.97), *maa://30515 (69.0), *maa://34787 (71.43), ***maa://20792 (11.93), maa://39402 (84.38), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.26), maa://36684 (97.53), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.29), maa://36684 (97.56), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (93.02), ***maa://21730 (16.92), ***maa://39501 (17.65), *maa://36675 (60.0)</t>
+          <t>maa://25251 (91.95), ***maa://21730 (16.92), ***maa://39501 (16.67), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (93.62), maa://40192 (96.15), maa://39849 (88.89)</t>
+          <t>maa://36987 (93.62), maa://40192 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.31), *maa://22748 (75.0)</t>
+          <t>maa://21247 (98.35), *maa://22748 (75.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (68.67), maa://20276 (84.0), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (68.82), maa://20276 (84.11), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.84), maa://26254 (95.65)</t>
+          <t>maa://21249 (94.84), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.77), maa://27484 (95.83), maa://27480 (82.35)</t>
+          <t>maa://27396 (84.77), maa://27484 (95.88), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -901,7 +901,7 @@
       </c>
       <c r="AF3" s="2" t="inlineStr">
         <is>
-          <t>*maa://21289 (71.43)</t>
+          <t>*maa://21289 (72.73)</t>
         </is>
       </c>
       <c r="AG3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.57), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.71), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.8), maa://27295 (82.46), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.83), maa://27295 (82.46), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (46.85), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (100.0)</t>
+          <t>**maa://32495 (47.06), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (100.0)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (72.22)</t>
+          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (73.68)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.76), maa://22744 (83.33)</t>
+          <t>maa://21245 (82.35), maa://22744 (83.33)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919 (95.92), maa://21281 (85.71)</t>
+          <t>maa://21919 (96.0), maa://21281 (85.71)</t>
         </is>
       </c>
       <c r="Q5" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (99.24)</t>
+          <t>maa://24839 (99.25)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (60.53), ***maa://22770 (28.57)</t>
+          <t>*maa://33152 (60.0), ***maa://22770 (28.57)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.89), *maa://22758 (71.93)</t>
+          <t>maa://22399 (94.93), *maa://22758 (71.93)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.0), *maa://36671 (71.74), **maa://42530 (42.86)</t>
+          <t>*maa://26191 (68.0), *maa://36671 (71.74), **maa://42530 (50.0)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.10 13:16:41</t>
+          <t>更新日期：2024.11.13 13:18:25</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (85.71), *maa://21916 (60.0), maa://23252 (92.31), **maa://22759 (45.45), maa://37496 (95.65)</t>
+          <t>maa://32931 (85.11), *maa://21916 (60.0), maa://23252 (92.42), **maa://22759 (45.45), maa://37496 (95.83)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.85)</t>
+          <t>maa://21411 (95.87)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (80.46)</t>
+          <t>maa://22736 (80.68)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.2)</t>
+          <t>maa://26223 (97.25)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.91), ***maa://22740 (5.88), **maa://27377 (46.15), ***maa://25174 (20.0), **maa://39938 (45.0), maa://40166 (87.5)</t>
+          <t>maa://28711 (88.04), ***maa://22740 (5.88), **maa://27377 (46.15), **maa://39938 (45.0), ***maa://25174 (20.0), maa://40166 (90.91)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.32), **maa://32237 (42.5), ***maa://34206 (18.18), ***maa://39951 (17.65), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.32), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (17.65), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.62), maa://22755 (87.27), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.68), maa://22755 (87.27), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.47), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.51), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.35)</t>
+          <t>maa://36707 (99.36)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (87.78)</t>
+          <t>maa://21287 (87.91)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.84), maa://22501 (98.18)</t>
+          <t>maa://22747 (93.2), maa://22501 (98.18)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.03)</t>
+          <t>maa://36713 (98.05)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.5), *maa://21485 (77.44), maa://37962 (85.71)</t>
+          <t>maa://22753 (91.5), *maa://21485 (77.44), maa://37962 (86.36)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.19), maa://36677 (93.33), maa://39872 (89.47)</t>
+          <t>maa://23669 (95.26), maa://36677 (93.33), maa://39872 (89.47)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.53), maa://36673 (92.42), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.54), maa://36673 (92.42), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.3), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (74.42), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.37), maa://39883 (89.74), *maa://39885 (58.33)</t>
+          <t>**maa://22737 (30.37), maa://39883 (90.48), *maa://39885 (58.33)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.12), maa://21288 (96.21), maa://36682 (100.0), maa://39841 (92.98)</t>
+          <t>maa://26245 (96.15), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (93.33)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.56), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.59), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (94.57), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.68), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.88), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (11.76)</t>
+          <t>*maa://22743 (77.01), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (14.29)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.54), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.6), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (89.93), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.0), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.74), *maa://22766 (70.75), *maa://36666 (77.33)</t>
+          <t>maa://21364 (80.47), *maa://22766 (71.03), *maa://36666 (77.63)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.19), maa://36679 (92.31), maa://37650 (96.67)</t>
+          <t>maa://21441 (96.21), maa://36679 (92.5), maa://37650 (96.77)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.24), *maa://28648 (68.42), maa://36674 (82.86)</t>
+          <t>maa://22729 (95.27), *maa://28648 (68.42), maa://36674 (82.86)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.75), maa://28051 (95.83)</t>
+          <t>maa://28501 (97.75), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (63.54), maa://27755 (92.31)</t>
+          <t>*maa://23911 (63.92), maa://27755 (92.41)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.2), maa://39599 (85.71)</t>
+          <t>maa://22430 (88.2), maa://39599 (86.67)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (31.25)</t>
+          <t>***maa://42324 (27.78)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.88)</t>
+          <t>maa://24570 (96.89)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.13)</t>
+          <t>maa://24421 (90.22)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.72), *maa://22732 (51.22)</t>
+          <t>maa://22466 (88.81), *maa://22732 (50.6)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (57.14), **maa://29784 (44.44)</t>
+          <t>*maa://24313 (57.69), **maa://29784 (44.44)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (61.99), *maa://36668 (54.17)</t>
+          <t>*maa://30709 (62.18), *maa://36668 (54.17)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.37), maa://25198 (93.81), *maa://20795 (50.4), maa://36680 (96.43)</t>
+          <t>maa://21432 (90.44), maa://25198 (92.86), *maa://20795 (50.4), maa://36680 (96.43)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.97)</t>
+          <t>maa://22864 (88.32)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.06)</t>
+          <t>maa://41331 (84.72)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>maa://37442 (96.97)</t>
+          <t>maa://37442 (97.22)</t>
         </is>
       </c>
       <c r="Q20" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.63)</t>
+          <t>maa://24372 (96.67)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (79.29), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (79.47), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.24), *maa://22432 (75.86)</t>
+          <t>maa://22524 (94.27), *maa://22432 (75.86)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.15), **maa://21678 (48.94), **maa://22735 (50.0)</t>
+          <t>maa://25236 (96.15), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (86.02), *maa://22751 (75.0)</t>
+          <t>maa://27127 (86.17), *maa://22751 (75.0)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>*maa://38495 (80.0)</t>
+          <t>maa://38495 (81.82)</t>
         </is>
       </c>
       <c r="U22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.32), *maa://37649 (68.18)</t>
+          <t>maa://21282 (98.34), *maa://37649 (68.18)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.19), maa://39875 (94.74)</t>
+          <t>maa://39756 (93.0), maa://39875 (94.74)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.53), *maa://29748 (75.4), ***maa://29785 (16.42), *maa://37566 (76.92)</t>
+          <t>maa://30587 (91.62), *maa://29748 (75.4), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>maa://24387 (83.33), maa://31212 (96.0)</t>
+          <t>maa://24387 (83.33), maa://31212 (96.15)</t>
         </is>
       </c>
       <c r="U23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368 (80.47)</t>
+          <t>maa://24368 (80.17)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.11), maa://23504 (92.88), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.65), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.24), maa://23504 (92.93), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.65), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.0)</t>
+          <t>maa://29753 (95.02)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.64), *maa://25311 (74.74), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (74.47), *maa://25311 (75.0), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>maa://24382 (92.59)</t>
+          <t>maa://24382 (92.86)</t>
         </is>
       </c>
       <c r="Q25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.06), *maa://24516 (79.07), maa://26001 (87.27)</t>
+          <t>maa://31215 (85.56), *maa://24516 (79.07), maa://26001 (87.27)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.21), maa://24621 (96.52), maa://36676 (96.3), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.21), maa://24621 (96.52), maa://36676 (96.43), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (90.79)</t>
+          <t>maa://24913 (90.91)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>*maa://30968 (58.82), maa://39870 (100.0)</t>
+          <t>*maa://30968 (61.11), maa://39870 (100.0)</t>
         </is>
       </c>
       <c r="Q26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (90.57)</t>
+          <t>maa://42235 (91.07)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (96.15), *maa://39601 (69.23), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.65), maa://34494 (96.15), *maa://39601 (71.43), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AF27" s="2" t="inlineStr">
         <is>
-          <t>maa://24023 (96.92)</t>
+          <t>maa://24023 (96.97)</t>
         </is>
       </c>
       <c r="AG27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.59), maa://25725 (83.13)</t>
+          <t>maa://24465 (90.63), maa://25725 (83.13)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (88.64), ***maa://39723 (14.29), maa://41749 (82.14)</t>
+          <t>maa://39929 (88.64), ***maa://39723 (14.29), maa://41749 (82.76)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.17), ***maa://34960 (8.7), maa://42865 (90.0)</t>
+          <t>*maa://24080 (69.25), ***maa://34960 (8.7), maa://42865 (86.36)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (95.74)</t>
+          <t>maa://42979 (96.08)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.68), *maa://36258 (80.0)</t>
+          <t>maa://35926 (93.75), maa://36258 (80.49)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (89.36), maa://42859 (92.5), maa://41238 (95.45)</t>
+          <t>maa://41108 (87.5), maa://42859 (92.5), maa://41238 (95.74)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.33)</t>
+          <t>maa://24526 (93.36)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (97.5)</t>
+          <t>maa://41296 (97.59)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="AF35" s="2" t="inlineStr">
         <is>
-          <t>maa://39479 (92.31)</t>
+          <t>maa://39479 (92.86)</t>
         </is>
       </c>
       <c r="AG35" s="1" t="n"/>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>*maa://24374 (58.54)</t>
+          <t>*maa://24374 (59.52)</t>
         </is>
       </c>
       <c r="I37" s="1" t="n"/>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (88.95), *maa://21239 (72.73)</t>
+          <t>maa://21280 (89.01), *maa://21239 (72.73)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (67.03)</t>
+          <t>*maa://24383 (67.39)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (84.77)</t>
+          <t>maa://36697 (85.06)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (85.32), maa://36670 (87.5), maa://30434 (87.72), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (85.32), maa://36670 (88.0), maa://30434 (88.14), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.07)</t>
+          <t>maa://24709 (91.15)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.92), maa://21386 (95.7), maa://36664 (91.49)</t>
+          <t>maa://23278 (95.92), maa://21386 (95.7), maa://36664 (91.84)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5676,10 +5676,14 @@
       </c>
       <c r="S43" s="1" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T43" s="2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>maa://43198 (100.0)</t>
+        </is>
+      </c>
       <c r="U43" s="1" t="n"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
@@ -5783,7 +5787,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (50.0)</t>
+          <t>**maa://39364 (46.67)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5804,7 +5808,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.09)</t>
+          <t>maa://35931 (92.19)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5857,7 +5861,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (95.92), maa://29661 (97.76), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.96), maa://29661 (97.76), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -5979,7 +5983,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (68.42)</t>
+          <t>*maa://39643 (65.0)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>
@@ -6118,7 +6122,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.17), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.21), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6208,7 +6212,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (54.55)</t>
+          <t>*maa://37964 (56.52)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6244,7 +6248,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>**maa://40438 (48.39)</t>
+          <t>*maa://40438 (51.52)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.16), maa://25390 (95.82), maa://36681 (85.71)</t>
+          <t>maa://24702 (94.16), maa://25390 (95.82), maa://36681 (85.92)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.29), maa://36684 (97.56), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (97.56), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (91.95), ***maa://21730 (16.92), ***maa://39501 (16.67), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.05), ***maa://21730 (16.92), ***maa://39501 (16.67), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.83), maa://27295 (82.46), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.85), maa://27295 (82.46), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.06), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (100.0)</t>
+          <t>**maa://32495 (47.27), ***maa://31785 (22.22), ***maa://36683 (28.26), *maa://43217 (80.0)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (92.86)</t>
+          <t>maa://42407 (93.1)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (60.0), ***maa://22770 (28.57)</t>
+          <t>*maa://33152 (60.0), ***maa://22770 (27.27)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>*maa://22763 (66.67)</t>
+          <t>*maa://22763 (67.86)</t>
         </is>
       </c>
       <c r="I7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.13 13:18:25</t>
+          <t>更新日期：2024.11.14 13:18:07</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (85.11), *maa://21916 (60.0), maa://23252 (92.42), **maa://22759 (45.45), maa://37496 (95.83)</t>
+          <t>maa://32931 (84.21), *maa://21916 (60.0), maa://23252 (92.42), **maa://22759 (45.45), maa://37496 (95.83)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.77), maa://26222 (97.56)</t>
+          <t>**maa://22866 (30.77), maa://26222 (97.62)</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.25)</t>
+          <t>maa://26223 (97.27)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.69), **maa://22865 (48.98)</t>
+          <t>maa://26206 (89.8), **maa://22865 (48.98)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (92.41), maa://36669 (85.71), *maa://23264 (61.82)</t>
+          <t>maa://28977 (91.25), maa://36669 (86.21), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.68), maa://22755 (87.27), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.73), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.51), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.54), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.85), *maa://22733 (58.06), maa://22761 (100.0)</t>
+          <t>*maa://25021 (54.43), *maa://22733 (59.38), maa://22761 (100.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (87.91)</t>
+          <t>maa://21287 (88.04)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.2), maa://22501 (98.18)</t>
+          <t>maa://22747 (93.2), maa://22501 (98.21)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.05)</t>
+          <t>maa://36713 (98.06)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="AF11" s="2" t="inlineStr">
         <is>
-          <t>maa://31203 (95.45), ***maa://24394 (19.23)</t>
+          <t>maa://31203 (95.65), ***maa://24394 (19.23)</t>
         </is>
       </c>
       <c r="AG11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.5), *maa://21485 (77.44), maa://37962 (86.36)</t>
+          <t>maa://22753 (91.5), *maa://21485 (76.87), maa://37962 (86.36)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.26), maa://36677 (93.33), maa://39872 (89.47)</t>
+          <t>maa://23669 (95.26), maa://36677 (93.33), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.42), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (74.54), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (77.19), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (77.59), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.37), maa://39883 (90.48), *maa://39885 (58.33)</t>
+          <t>**maa://22737 (30.37), maa://39883 (90.91), *maa://39885 (58.33)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.15), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (93.33)</t>
+          <t>maa://26245 (96.18), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (93.55)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (96.61)</t>
+          <t>maa://22764 (96.67)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.6), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.66), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.21), maa://36679 (92.5), maa://37650 (96.77)</t>
+          <t>maa://21441 (96.21), maa://36679 (92.68), maa://37650 (96.77)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.27), *maa://28648 (68.42), maa://36674 (82.86)</t>
+          <t>maa://22729 (95.27), *maa://28648 (68.42), maa://36674 (83.78)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.89)</t>
+          <t>maa://24570 (96.92)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.22)</t>
+          <t>maa://24421 (89.87)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.81), *maa://22732 (50.6)</t>
+          <t>maa://22466 (88.89), *maa://22732 (50.6)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.62), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.65), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (57.69), **maa://29784 (44.44)</t>
+          <t>*maa://24313 (57.32), **maa://29784 (44.44)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.18), *maa://36668 (54.17)</t>
+          <t>*maa://30709 (62.28), *maa://36668 (54.17)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.44), maa://25198 (92.86), *maa://20795 (50.4), maa://36680 (96.43)</t>
+          <t>maa://21432 (90.51), maa://25198 (92.86), *maa://20795 (50.4), maa://36680 (96.43)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.32)</t>
+          <t>maa://22864 (88.41)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.72)</t>
+          <t>maa://41331 (84.93)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.67)</t>
+          <t>maa://24372 (96.7)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>maa://24381 (85.71)</t>
+          <t>maa://24381 (86.67)</t>
         </is>
       </c>
       <c r="Q21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (79.47), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (79.59), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.27), *maa://22432 (75.86)</t>
+          <t>maa://22524 (94.33), *maa://22432 (76.27)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.15), **maa://21678 (48.94), **maa://22735 (42.86)</t>
+          <t>maa://25236 (96.2), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.34), *maa://37649 (68.18)</t>
+          <t>maa://21282 (98.36), *maa://37649 (68.18)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="AF22" s="2" t="inlineStr">
         <is>
-          <t>maa://29658 (92.68)</t>
+          <t>maa://29658 (92.86)</t>
         </is>
       </c>
       <c r="AG22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.0), maa://39875 (94.74)</t>
+          <t>maa://39756 (93.07), maa://39875 (94.74)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="AB23" s="2" t="inlineStr">
         <is>
-          <t>maa://29652 (97.37)</t>
+          <t>maa://29652 (97.44)</t>
         </is>
       </c>
       <c r="AC23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368 (80.17)</t>
+          <t>maa://24368 (80.23)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.24), maa://23504 (92.93), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.65), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.3), maa://23504 (92.95), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.65), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.42), *maa://36672 (79.17), maa://29910 (92.31), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.42), *maa://36672 (79.59), maa://29910 (92.31), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.02)</t>
+          <t>maa://29753 (95.04)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.47), *maa://25311 (75.0), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (74.47), *maa://25311 (75.26), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.12), maa://22545 (100.0), maa://42915 (100.0)</t>
+          <t>maa://20109 (92.17), maa://22545 (100.0), maa://42915 (100.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.56), *maa://24516 (79.07), maa://26001 (87.27)</t>
+          <t>maa://31215 (85.71), *maa://24516 (79.07), maa://26001 (87.27)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.21), maa://24621 (96.52), maa://36676 (96.43), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.21), maa://24621 (96.55), maa://36676 (96.43), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (91.07)</t>
+          <t>maa://42235 (91.38)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.74), *maa://29765 (59.72)</t>
+          <t>maa://23263 (94.79), *maa://29765 (60.27)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (88.64), ***maa://39723 (14.29), maa://41749 (82.76)</t>
+          <t>maa://39929 (88.93), ***maa://39723 (14.29), maa://41749 (82.76)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (93.01), *maa://36701 (62.96)</t>
+          <t>maa://36660 (92.39), *maa://36701 (62.96)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.31), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.33), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.25), ***maa://34960 (8.7), maa://42865 (86.36)</t>
+          <t>*maa://24080 (69.25), ***maa://34960 (8.7), maa://42865 (86.96)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.08)</t>
+          <t>maa://42979 (96.49)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://42859 (92.5), maa://41238 (95.74)</t>
+          <t>maa://41108 (87.5), maa://42859 (92.86), maa://41238 (95.83)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.36)</t>
+          <t>maa://24526 (93.39)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (97.59)</t>
+          <t>maa://41296 (95.29)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>maa://27613 (98.98)</t>
+          <t>maa://27613 (98.99)</t>
         </is>
       </c>
       <c r="U36" s="1" t="n"/>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (67.39)</t>
+          <t>*maa://24383 (67.74)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.06)</t>
+          <t>maa://36697 (85.26)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.92), maa://21386 (95.7), maa://36664 (91.84)</t>
+          <t>maa://23278 (95.92), maa://21386 (95.7), maa://36664 (90.0)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.25), maa://21284 (82.93)</t>
+          <t>maa://22525 (92.25), maa://21284 (83.33)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (85.56), maa://30807 (95.16), *maa://22767 (57.89), ***maa://20796 (13.79), *maa://42459 (60.0)</t>
+          <t>maa://21229 (85.08), maa://30807 (95.24), *maa://22767 (57.89), ***maa://20796 (13.79), *maa://42459 (60.0)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (46.67)</t>
+          <t>**maa://39364 (41.18)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (95.96), maa://29661 (97.76), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.98), maa://29661 (97.76), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.05)</t>
+          <t>maa://32532 (92.08)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (98.08)</t>
+          <t>maa://25176 (98.11)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.5), maa://31270 (95.37)</t>
+          <t>maa://27746 (83.5), maa://31270 (95.41)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (51.52)</t>
+          <t>*maa://40438 (54.29)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.16), maa://25390 (95.82), maa://36681 (85.92)</t>
+          <t>maa://24702 (94.16), maa://25390 (95.82), maa://36681 (86.11)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (97.56), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (97.59), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.05), ***maa://21730 (16.92), ***maa://39501 (16.67), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.22), ***maa://21730 (16.92), ***maa://39501 (15.79), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (93.62), maa://40192 (96.3), maa://39849 (88.89)</t>
+          <t>maa://36987 (93.62), maa://40192 (96.43), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.35), *maa://22748 (75.0)</t>
+          <t>maa://21247 (98.36), *maa://22748 (75.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (20.83)</t>
+          <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (20.41)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.77), maa://27484 (95.88), maa://27480 (82.35)</t>
+          <t>maa://27396 (84.54), maa://27484 (95.88), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.71), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.75), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.85), maa://27295 (82.46), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.87), maa://27295 (82.46), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.27), ***maa://31785 (22.22), ***maa://36683 (28.26), *maa://43217 (80.0)</t>
+          <t>**maa://32495 (47.27), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (86.67)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="AB4" s="2" t="inlineStr">
         <is>
-          <t>*maa://32658 (66.67)</t>
+          <t>*maa://32658 (68.42)</t>
         </is>
       </c>
       <c r="AC4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (73.68)</t>
+          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (66.67)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.35), maa://22744 (83.33)</t>
+          <t>maa://21245 (82.52), maa://22744 (83.33)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>*maa://22757 (75.86)</t>
+          <t>*maa://22757 (76.67)</t>
         </is>
       </c>
       <c r="M5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (93.1)</t>
+          <t>maa://42407 (93.33)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="AB6" s="2" t="inlineStr">
         <is>
-          <t>maa://22739 (92.31)</t>
+          <t>maa://22739 (92.59)</t>
         </is>
       </c>
       <c r="AC6" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (60.0), ***maa://22770 (27.27)</t>
+          <t>*maa://33152 (61.9), ***maa://22770 (27.27)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.21), maa://24957 (97.62)</t>
+          <t>maa://28624 (92.31), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>maa://22750 (94.87)</t>
+          <t>maa://22750 (90.24)</t>
         </is>
       </c>
       <c r="Q7" s="1" t="n"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>maa://21291 (89.74)</t>
+          <t>maa://21291 (87.5)</t>
         </is>
       </c>
       <c r="U7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (94.93), *maa://22758 (71.93)</t>
+          <t>maa://22399 (95.0), *maa://22758 (72.41)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.14 13:18:07</t>
+          <t>更新日期：2024.11.15 13:19:01</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (71.11), **maa://39431 (44.44), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (71.74), **maa://39431 (44.44), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (84.21), *maa://21916 (60.0), maa://23252 (92.42), **maa://22759 (45.45), maa://37496 (95.83)</t>
+          <t>maa://32931 (84.54), *maa://21916 (60.66), maa://23252 (92.42), maa://37496 (96.0), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.87)</t>
+          <t>maa://21411 (95.9)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (91.86), *maa://21915 (68.0)</t>
+          <t>maa://22765 (91.95), *maa://21915 (68.0)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.77), maa://26222 (97.62)</t>
+          <t>**maa://22866 (30.77), maa://26222 (97.67)</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.27)</t>
+          <t>maa://26223 (97.35)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (88.04), ***maa://22740 (5.88), **maa://27377 (46.15), **maa://39938 (45.0), ***maa://25174 (20.0), maa://40166 (90.91)</t>
+          <t>maa://28711 (88.04), ***maa://22740 (5.88), **maa://39938 (47.62), **maa://27377 (46.15), ***maa://25174 (20.0), maa://40166 (90.91)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.8), **maa://22865 (48.98)</t>
+          <t>maa://26206 (89.9), **maa://22865 (48.98)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.32), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (17.65), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.32), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (20.0), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>**maa://24395 (44.0)</t>
+          <t>**maa://24395 (42.31)</t>
         </is>
       </c>
       <c r="M10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (91.25), maa://36669 (86.21), *maa://23264 (61.82)</t>
+          <t>maa://28977 (91.25), maa://36669 (87.1), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.54), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.56), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.36)</t>
+          <t>maa://36707 (99.37)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.06)</t>
+          <t>maa://36713 (98.07)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
-          <t>maa://22516 (89.29), maa://29912 (100.0), *maa://20794 (52.24)</t>
+          <t>maa://29912 (100.0), maa://22516 (89.41), *maa://20794 (52.24)</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>maa://30766 (88.89), **maa://36678 (50.0)</t>
+          <t>maa://30766 (89.29), **maa://36678 (50.0)</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.74)</t>
+          <t>maa://21867 (89.81)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.26), maa://36677 (93.33), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.27), maa://36677 (93.33), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (77.78), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.12), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.54), maa://36673 (92.42), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.56), maa://36673 (92.42), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.54), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (74.19), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.37), maa://39883 (90.91), *maa://39885 (58.33)</t>
+          <t>**maa://22737 (30.37), maa://39883 (90.91), *maa://39885 (56.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>maa://30764 (87.76)</t>
+          <t>maa://30764 (88.0)</t>
         </is>
       </c>
       <c r="E14" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.18), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (93.55)</t>
+          <t>maa://26245 (96.21), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (93.75)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="X14" s="2" t="inlineStr">
         <is>
-          <t>maa://37468 (88.24)</t>
+          <t>maa://37468 (88.89)</t>
         </is>
       </c>
       <c r="Y14" s="1" t="n"/>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>maa://23892 (98.65)</t>
+          <t>maa://23892 (98.68)</t>
         </is>
       </c>
       <c r="U15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.47), *maa://22766 (71.03), *maa://36666 (77.63)</t>
+          <t>maa://21364 (80.47), *maa://22766 (71.03), *maa://36666 (78.21)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.21), maa://36679 (92.68), maa://37650 (96.77)</t>
+          <t>maa://21441 (96.23), maa://36679 (92.68), maa://37650 (96.77)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.75), maa://28051 (96.0)</t>
+          <t>maa://28501 (97.78), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.18)</t>
+          <t>maa://26228 (95.24)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (63.92), maa://27755 (92.41)</t>
+          <t>*maa://23911 (64.65), maa://27755 (92.41)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>maa://21624 (81.82)</t>
+          <t>maa://21624 (82.35)</t>
         </is>
       </c>
       <c r="E17" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.2), maa://39599 (86.67)</t>
+          <t>maa://22430 (88.33), maa://39599 (86.67)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>maa://23890 (80.41), *maa://24940 (66.67)</t>
+          <t>maa://23890 (80.81), *maa://24940 (66.67)</t>
         </is>
       </c>
       <c r="Q17" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>***maa://42324 (27.78)</t>
+          <t>**maa://42324 (31.58)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.92)</t>
+          <t>maa://24570 (96.94)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.89), *maa://22732 (50.6)</t>
+          <t>maa://22466 (88.97), *maa://22732 (50.6)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.65), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.67), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.9)</t>
+          <t>maa://24386 (98.91)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.28), *maa://36668 (54.17)</t>
+          <t>*maa://30709 (62.47), *maa://36668 (54.17)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.51), maa://25198 (92.86), *maa://20795 (50.4), maa://36680 (96.43)</t>
+          <t>maa://21432 (90.58), maa://25198 (92.86), *maa://20795 (50.4), maa://36680 (96.43)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.41)</t>
+          <t>maa://22864 (88.49)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.93)</t>
+          <t>maa://41331 (82.89)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (91.89)</t>
+          <t>maa://20110 (86.76), maa://34946 (92.11)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (79.59), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (79.65), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.33), *maa://22432 (76.27)</t>
+          <t>maa://22524 (94.36), *maa://22432 (76.27)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.2), **maa://21678 (48.94), **maa://22735 (42.86)</t>
+          <t>maa://25236 (96.25), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (86.17), *maa://22751 (75.0)</t>
+          <t>maa://27127 (86.46), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.36), *maa://37649 (68.18)</t>
+          <t>maa://21282 (98.38), *maa://37649 (69.57)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="AF22" s="2" t="inlineStr">
         <is>
-          <t>maa://29658 (92.86)</t>
+          <t>maa://29658 (93.02)</t>
         </is>
       </c>
       <c r="AG22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.07), maa://39875 (94.74)</t>
+          <t>maa://39756 (92.72), maa://39875 (93.1)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.62), *maa://29748 (75.4), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (91.67), *maa://29748 (75.4), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>maa://24387 (83.33), maa://31212 (96.15)</t>
+          <t>maa://24387 (81.08), maa://31212 (96.15)</t>
         </is>
       </c>
       <c r="U23" s="1" t="n"/>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="AF23" s="2" t="inlineStr">
         <is>
-          <t>maa://31489 (93.33)</t>
+          <t>maa://31489 (93.75)</t>
         </is>
       </c>
       <c r="AG23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.3), maa://23504 (92.95), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.65), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.36), maa://23504 (92.95), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.65), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.47), *maa://25311 (75.26), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (73.61), *maa://25311 (74.49), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.71), *maa://24516 (79.07), maa://26001 (87.27)</t>
+          <t>maa://31215 (84.78), *maa://24516 (79.07), maa://26001 (87.27)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (90.91)</t>
+          <t>maa://24913 (91.14)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (91.38)</t>
+          <t>maa://42235 (91.53)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AF26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (82.35), *maa://29760 (61.54)</t>
+          <t>maa://30511 (82.35), *maa://29760 (64.29)</t>
         </is>
       </c>
       <c r="AG26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (96.15), *maa://39601 (71.43), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.65), maa://34494 (96.15), *maa://39601 (73.33), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (73.33)</t>
+          <t>*maa://30624 (73.91)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.63), maa://25725 (83.13)</t>
+          <t>maa://24465 (90.66), maa://25725 (83.33)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.79), *maa://29765 (60.27)</t>
+          <t>maa://23263 (94.85), *maa://29765 (60.27)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (88.93), ***maa://39723 (14.29), maa://41749 (82.76)</t>
+          <t>maa://39929 (89.05), ***maa://39723 (14.29), maa://41749 (83.87)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>maa://31694 (98.0)</t>
+          <t>maa://31694 (98.08)</t>
         </is>
       </c>
       <c r="E29" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.33), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.36), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.25), ***maa://34960 (8.7), maa://42865 (86.96)</t>
+          <t>*maa://24080 (69.33), ***maa://34960 (8.7), maa://42865 (87.5)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>maa://30442 (94.83)</t>
+          <t>maa://30442 (94.92)</t>
         </is>
       </c>
       <c r="M30" s="1" t="n"/>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>maa://21442 (99.5)</t>
+          <t>maa://21442 (99.51)</t>
         </is>
       </c>
       <c r="Q30" s="1" t="n"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t>maa://39477 (81.82)</t>
+          <t>maa://39477 (83.33)</t>
         </is>
       </c>
       <c r="Y30" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.49)</t>
+          <t>maa://42979 (96.77)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.75), maa://36258 (80.49)</t>
+          <t>maa://35926 (93.8), maa://36258 (80.72)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>maa://30711 (96.49), maa://30768 (100.0)</t>
+          <t>maa://30711 (96.61), maa://30768 (100.0)</t>
         </is>
       </c>
       <c r="U31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://42859 (92.86), maa://41238 (95.83)</t>
+          <t>maa://41108 (87.5), maa://42859 (93.18), maa://41238 (96.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956 (79.1), maa://22730 (82.14)</t>
+          <t>*maa://21956 (79.26), maa://22730 (82.14)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.39)</t>
+          <t>maa://24526 (93.44)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.29)</t>
+          <t>maa://41296 (95.45)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>maa://27613 (98.99)</t>
+          <t>maa://27613 (99.0)</t>
         </is>
       </c>
       <c r="U36" s="1" t="n"/>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.01), *maa://21239 (72.73)</t>
+          <t>maa://21280 (89.12), *maa://21239 (72.73)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (67.74)</t>
+          <t>*maa://24383 (68.09)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.26)</t>
+          <t>maa://36697 (85.35)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (85.32), maa://36670 (88.0), maa://30434 (88.14), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (85.32), maa://36670 (88.16), maa://30434 (88.14), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.15)</t>
+          <t>maa://24709 (91.23)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.92), maa://21386 (95.7), maa://36664 (90.0)</t>
+          <t>maa://23278 (95.92), maa://21386 (95.7), maa://36664 (90.2)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.71), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.73), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.19)</t>
+          <t>maa://35931 (92.28)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (95.98), maa://29661 (97.76), maa://28038 (84.62)</t>
+          <t>maa://27410 (95.99), maa://29661 (97.78), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (65.0)</t>
+          <t>*maa://39643 (66.67)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>maa://24376 (100.0)</t>
+          <t>maa://24376 (96.43)</t>
         </is>
       </c>
       <c r="I52" s="1" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.21), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.24), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.08)</t>
+          <t>maa://32532 (92.15)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (56.52)</t>
+          <t>*maa://37964 (58.33)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.5), maa://31270 (95.41)</t>
+          <t>maa://27746 (83.5), maa://31270 (95.5)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (54.29)</t>
+          <t>*maa://40438 (52.78)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (100.0)</t>
+          <t>maa://42981 (94.74)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (54.97), *maa://30515 (69.0), *maa://34787 (71.43), ***maa://20792 (11.93), maa://39402 (84.38), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.26), *maa://30515 (69.0), *maa://34787 (71.43), ***maa://20792 (11.93), maa://39402 (84.38), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (99.25)</t>
+          <t>maa://24839 (99.26)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.0), *maa://36671 (71.74), **maa://42530 (50.0)</t>
+          <t>*maa://26191 (68.0), *maa://36671 (71.74), *maa://42530 (55.56)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.15 13:19:01</t>
+          <t>更新日期：2024.11.16 13:18:21</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (84.54), *maa://21916 (60.66), maa://23252 (92.42), maa://37496 (96.0), **maa://22759 (45.45)</t>
+          <t>maa://32931 (84.54), *maa://21916 (60.66), maa://23252 (92.42), maa://37496 (96.15), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.01), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (14.29)</t>
+          <t>*maa://22743 (77.01), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (16.67)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.33), maa://39599 (86.67)</t>
+          <t>maa://22430 (88.33), maa://39599 (83.87)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.91)</t>
+          <t>maa://24386 (98.92)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (82.89)</t>
+          <t>maa://41331 (83.12)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.36), *maa://22432 (76.27)</t>
+          <t>maa://22524 (94.39), *maa://22432 (76.27)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (92.72), maa://39875 (93.1)</t>
+          <t>maa://39756 (92.79), maa://39875 (93.1)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.67), *maa://29748 (75.4), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (91.67), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368 (80.23)</t>
+          <t>maa://24368 (80.29)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.36), maa://23504 (92.95), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.65), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.36), maa://23504 (92.95), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.95), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.04)</t>
+          <t>maa://29753 (95.06)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (91.53)</t>
+          <t>maa://42235 (91.67)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.85), *maa://29765 (60.27)</t>
+          <t>maa://23263 (94.85), *maa://29765 (60.81)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.05), ***maa://39723 (14.29), maa://41749 (83.87)</t>
+          <t>maa://39929 (89.08), ***maa://39723 (14.29), maa://41749 (83.87)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.33), ***maa://34960 (8.7), maa://42865 (87.5)</t>
+          <t>*maa://24080 (69.33), ***maa://34960 (8.7), maa://42865 (88.0)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.77)</t>
+          <t>maa://42979 (96.88)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.8), maa://36258 (80.72)</t>
+          <t>maa://35926 (93.82), maa://36258 (80.72)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.04), maa://36667 (98.25), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.06), maa://36667 (98.25), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://42859 (93.18), maa://41238 (96.0)</t>
+          <t>maa://41108 (87.5), maa://42859 (93.33), maa://41238 (94.23)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956 (79.26), maa://22730 (82.14)</t>
+          <t>*maa://21956 (79.41), maa://22730 (82.14)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.45)</t>
+          <t>maa://41296 (95.56)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.35)</t>
+          <t>maa://36697 (85.44)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.24), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.26), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.15)</t>
+          <t>maa://32532 (92.18)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.5), maa://31270 (95.5)</t>
+          <t>maa://27746 (83.5), maa://31270 (95.54)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (94.74)</t>
+          <t>maa://42981 (95.24)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.31), maa://24957 (97.62)</t>
+          <t>maa://28624 (92.5), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.0), *maa://36671 (71.74), *maa://42530 (55.56)</t>
+          <t>*maa://26191 (68.0), *maa://36671 (71.74), *maa://42530 (63.64)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.16 13:18:21</t>
+          <t>更新日期：2024.11.17 00:06:00</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.32), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (20.0), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.32), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (19.44), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.5), *maa://21485 (76.87), maa://37962 (86.36)</t>
+          <t>maa://22753 (91.5), *maa://21485 (76.87), maa://37962 (86.96)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.27), *maa://28648 (68.42), maa://36674 (83.78)</t>
+          <t>maa://22729 (95.27), *maa://28648 (67.24), maa://36674 (84.21)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (64.65), maa://27755 (92.41)</t>
+          <t>*maa://23911 (65.0), maa://27755 (92.41)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.47), *maa://36668 (54.17)</t>
+          <t>*maa://30709 (62.56), *maa://36668 (54.17)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (83.12)</t>
+          <t>maa://41331 (83.33)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.39), *maa://22432 (76.27)</t>
+          <t>maa://22524 (94.42), *maa://22432 (76.27)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.38), *maa://37649 (69.57)</t>
+          <t>maa://21282 (98.4), *maa://37649 (69.57)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.08), ***maa://39723 (14.29), maa://41749 (83.87)</t>
+          <t>maa://39929 (89.08), ***maa://39723 (14.29), maa://41749 (84.38)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.33), ***maa://34960 (8.7), maa://42865 (88.0)</t>
+          <t>*maa://24080 (69.33), ***maa://34960 (8.7), maa://42865 (84.62)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.82), maa://36258 (80.72)</t>
+          <t>maa://35926 (93.82), maa://36258 (80.95)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.56)</t>
+          <t>maa://41296 (95.6)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.18)</t>
+          <t>maa://32532 (92.21)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.22), ***maa://21730 (16.92), ***maa://39501 (15.79), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.22), ***maa://21730 (18.18), ***maa://39501 (15.79), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>maa://24370 (96.36)</t>
+          <t>maa://24370 (96.43)</t>
         </is>
       </c>
       <c r="I6" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.17 00:06:00</t>
+          <t>更新日期：2024.11.17 13:18:12</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (84.54), *maa://21916 (60.66), maa://23252 (92.42), maa://37496 (96.15), **maa://22759 (45.45)</t>
+          <t>maa://32931 (84.69), *maa://21916 (60.66), maa://23252 (92.42), maa://37496 (96.15), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.73), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.76), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.37), maa://39883 (90.91), *maa://39885 (56.0)</t>
+          <t>**maa://22737 (30.37), maa://39883 (91.11), *maa://39885 (56.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.21), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (93.75)</t>
+          <t>maa://26245 (96.21), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (93.85)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.24)</t>
+          <t>maa://26228 (95.29)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (31.58)</t>
+          <t>**maa://42324 (35.0)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (57.32), **maa://29784 (44.44)</t>
+          <t>*maa://24313 (57.59), **maa://29784 (44.44)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AF26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (82.35), *maa://29760 (64.29)</t>
+          <t>maa://30511 (82.86), *maa://29760 (64.29)</t>
         </is>
       </c>
       <c r="AG26" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (73.91)</t>
+          <t>*maa://30624 (74.47)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t>maa://39477 (83.33)</t>
+          <t>maa://39477 (84.62)</t>
         </is>
       </c>
       <c r="Y30" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.88)</t>
+          <t>maa://42979 (96.92)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.06), maa://36667 (98.25), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.06), maa://36667 (98.28), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="AF35" s="2" t="inlineStr">
         <is>
-          <t>maa://39479 (92.86)</t>
+          <t>maa://39479 (93.33)</t>
         </is>
       </c>
       <c r="AG35" s="1" t="n"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.73), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.74), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (52.78)</t>
+          <t>*maa://40438 (54.05)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.16), maa://25390 (95.82), maa://36681 (86.11)</t>
+          <t>maa://24702 (94.16), maa://25390 (95.82), maa://36681 (86.3)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (97.59), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (97.62), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.36), *maa://22748 (75.0)</t>
+          <t>maa://21247 (98.37), *maa://22748 (75.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (68.82), maa://20276 (84.11), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (69.01), maa://20276 (84.11), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.84), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.86), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.52), maa://22744 (83.33)</t>
+          <t>maa://21245 (82.61), maa://22744 (83.33)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (61.9), ***maa://22770 (27.27)</t>
+          <t>*maa://33152 (60.47), ***maa://22770 (27.27)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.0), *maa://22758 (72.41)</t>
+          <t>maa://22399 (95.04), *maa://22758 (72.41)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.0), *maa://36671 (71.74), *maa://42530 (63.64)</t>
+          <t>*maa://26191 (68.42), *maa://36671 (70.21), *maa://42530 (63.64)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.17 13:18:12</t>
+          <t>更新日期：2024.11.19 13:18:32</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (84.69), *maa://21916 (60.66), maa://23252 (92.42), maa://37496 (96.15), **maa://22759 (45.45)</t>
+          <t>maa://32931 (84.85), *maa://21916 (60.66), maa://23252 (92.42), maa://37496 (96.15), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (88.04), ***maa://22740 (5.88), **maa://39938 (47.62), **maa://27377 (46.15), ***maa://25174 (20.0), maa://40166 (90.91)</t>
+          <t>maa://28711 (88.3), ***maa://22740 (5.88), **maa://39938 (47.62), **maa://27377 (46.15), ***maa://25174 (20.0), maa://40166 (90.91)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.76), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.78), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.56), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.57), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (88.04)</t>
+          <t>maa://21287 (88.17)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.2), maa://22501 (98.21)</t>
+          <t>maa://22747 (93.2), maa://22501 (98.28)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.07)</t>
+          <t>maa://36713 (98.08)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.81)</t>
+          <t>maa://21867 (89.94)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.5), *maa://21485 (76.87), maa://37962 (86.96)</t>
+          <t>maa://22753 (91.61), *maa://21485 (76.87), maa://37962 (86.96)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.56), maa://36673 (92.42), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.59), maa://36673 (92.42), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.26), *maa://22583 (75.41), *maa://22500 (56.82)</t>
+          <t>maa://22676 (91.43), *maa://22583 (75.41), *maa://22500 (56.82)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (77.59), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (77.97), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.37), maa://39883 (91.11), *maa://39885 (56.0)</t>
+          <t>**maa://22737 (30.37), maa://39883 (91.3), *maa://39885 (56.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.21), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (93.85)</t>
+          <t>maa://26245 (96.24), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (93.94)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (96.67)</t>
+          <t>maa://22764 (96.72)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.01), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (16.67)</t>
+          <t>*maa://22743 (77.13), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (23.08)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.66), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.72), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.23), maa://36679 (92.68), maa://37650 (96.77)</t>
+          <t>maa://21441 (96.24), maa://36679 (92.68), maa://37650 (96.77)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.33), maa://39599 (83.87)</t>
+          <t>maa://22430 (88.4), maa://39599 (84.38)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (35.0)</t>
+          <t>**maa://42324 (40.0)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (89.87)</t>
+          <t>maa://24421 (89.91)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.92)</t>
+          <t>maa://24386 (98.94)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.58), maa://25198 (92.86), *maa://20795 (50.4), maa://36680 (96.43)</t>
+          <t>maa://21432 (90.78), maa://25198 (92.86), *maa://20795 (50.4), maa://36680 (96.43)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.49)</t>
+          <t>maa://22864 (88.57)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (83.33)</t>
+          <t>maa://41331 (82.72)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>maa://21261 (100.0)</t>
+          <t>maa://21261 (97.37)</t>
         </is>
       </c>
       <c r="E21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.25), **maa://21678 (48.94), **maa://22735 (42.86)</t>
+          <t>maa://25236 (96.34), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.4), *maa://37649 (69.57)</t>
+          <t>maa://21282 (98.41), *maa://37649 (69.57)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.36), *maa://41753 (55.56)</t>
+          <t>***maa://28036 (28.36), **maa://41753 (50.0)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (92.79), maa://39875 (93.1)</t>
+          <t>maa://39756 (92.99), maa://39875 (93.22)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368 (80.29)</t>
+          <t>maa://24368 (80.06)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.36), maa://23504 (92.95), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.95), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.36), maa://23504 (92.97), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.95), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.06)</t>
+          <t>maa://29753 (95.08)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (73.61), *maa://25311 (74.49), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (73.79), *maa://25311 (74.49), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>maa://24378 (86.49)</t>
+          <t>maa://24378 (86.84)</t>
         </is>
       </c>
       <c r="M25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (91.67)</t>
+          <t>maa://42235 (91.8)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>*maa://30770 (79.07)</t>
+          <t>*maa://30770 (79.55)</t>
         </is>
       </c>
       <c r="M28" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.85), *maa://29765 (60.81)</t>
+          <t>maa://23263 (94.85), *maa://29765 (61.33)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.08), ***maa://39723 (14.29), maa://41749 (84.38)</t>
+          <t>maa://39929 (89.2), ***maa://39723 (14.29), maa://41749 (85.29)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.39), *maa://36701 (62.96)</t>
+          <t>maa://36660 (92.47), *maa://36701 (62.96)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.36), *maa://28440 (72.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.38), *maa://28440 (73.49), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.33), ***maa://34960 (8.7), maa://42865 (84.62)</t>
+          <t>*maa://24080 (69.41), ***maa://34960 (8.7), maa://42865 (85.19)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.92)</t>
+          <t>maa://42979 (96.97)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.82), maa://36258 (80.95)</t>
+          <t>maa://35926 (93.82), maa://36258 (81.4)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>maa://28065 (94.74)</t>
+          <t>maa://28065 (94.87)</t>
         </is>
       </c>
       <c r="M32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://42859 (93.33), maa://41238 (94.23)</t>
+          <t>maa://41108 (87.5), maa://42859 (93.62), maa://41238 (94.74)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="AF32" s="2" t="inlineStr">
         <is>
-          <t>maa://42408 (100.0)</t>
+          <t>maa://42408 (85.71)</t>
         </is>
       </c>
       <c r="AG32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956 (79.41), maa://22730 (82.14)</t>
+          <t>*maa://21956 (79.41), *maa://22730 (79.31)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.6)</t>
+          <t>maa://41296 (95.7)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>maa://24375 (92.31)</t>
+          <t>maa://24375 (92.5)</t>
         </is>
       </c>
       <c r="I36" s="1" t="n"/>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.12), *maa://21239 (72.73)</t>
+          <t>maa://21280 (89.18), *maa://21239 (72.73)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (68.09)</t>
+          <t>*maa://24383 (68.42)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.44)</t>
+          <t>maa://36697 (85.53)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (85.32), maa://36670 (88.16), maa://30434 (88.14), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (85.32), maa://36670 (88.16), maa://30434 (88.33), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.23)</t>
+          <t>maa://24709 (91.3)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.92), maa://21386 (95.7), maa://36664 (90.2)</t>
+          <t>maa://23278 (95.93), maa://21386 (95.7), maa://36664 (90.2)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>maa://24466 (93.02)</t>
+          <t>maa://24466 (93.18)</t>
         </is>
       </c>
       <c r="I41" s="1" t="n"/>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.25), maa://21284 (83.33)</t>
+          <t>maa://22525 (92.31), maa://21284 (83.33)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.74), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.75), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (85.08), maa://30807 (95.24), *maa://22767 (57.89), ***maa://20796 (13.79), *maa://42459 (60.0)</t>
+          <t>maa://21229 (85.08), maa://30807 (95.24), *maa://22767 (57.89), ***maa://20796 (13.79), *maa://42459 (66.67)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>*maa://36237 (58.33)</t>
+          <t>*maa://36237 (61.54)</t>
         </is>
       </c>
       <c r="Q45" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (41.18)</t>
+          <t>**maa://39364 (38.89)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.28)</t>
+          <t>maa://35931 (92.4)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (95.99), maa://29661 (97.78), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.0), maa://29661 (97.78), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (66.67)</t>
+          <t>*maa://39643 (68.18)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>*maa://30769 (80.0)</t>
+          <t>maa://30769 (81.25)</t>
         </is>
       </c>
       <c r="I51" s="1" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.26), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.29), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.21)</t>
+          <t>maa://32532 (92.28)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.5), maa://31270 (95.54)</t>
+          <t>maa://27746 (82.69), maa://31270 (95.54)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (54.05)</t>
+          <t>*maa://40438 (55.26)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.16), maa://25390 (95.82), maa://36681 (86.3)</t>
+          <t>maa://24702 (94.18), maa://25390 (95.83), maa://36681 (86.3)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (20.41)</t>
+          <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (66.67)</t>
+          <t>*maa://30062 (60.0), ***maa://26209 (13.04), *maa://39394 (66.67)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.19 13:18:32</t>
+          <t>更新日期：2024.11.20 13:18:41</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.9)</t>
+          <t>maa://21411 (95.92)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.59), maa://36673 (92.42), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.61), maa://36673 (92.42), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.43), *maa://22583 (75.41), *maa://22500 (56.82)</t>
+          <t>maa://22676 (91.59), *maa://22583 (75.41), *maa://22500 (56.82)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.37), maa://39883 (91.3), *maa://39885 (56.0)</t>
+          <t>**maa://22737 (30.37), maa://39883 (91.67), *maa://39885 (56.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.24), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (93.94)</t>
+          <t>maa://26245 (96.27), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (94.03)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.13), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (23.08)</t>
+          <t>*maa://22743 (77.13), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (25.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.47), *maa://22766 (71.03), *maa://36666 (78.21)</t>
+          <t>maa://21364 (80.54), *maa://22766 (70.37), *maa://36666 (78.21)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.24), maa://36679 (92.68), maa://37650 (96.77)</t>
+          <t>maa://21441 (96.26), maa://36679 (92.68), maa://37650 (96.77)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.27), *maa://28648 (67.24), maa://36674 (84.21)</t>
+          <t>maa://22729 (95.3), *maa://28648 (67.24), maa://36674 (84.21)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.4), maa://39599 (84.38)</t>
+          <t>maa://22430 (88.46), maa://39599 (84.38)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.94)</t>
+          <t>maa://24570 (96.95)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.56), *maa://36668 (54.17)</t>
+          <t>*maa://30709 (62.56), *maa://36668 (53.42)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (92.99), maa://39875 (93.22)</t>
+          <t>maa://39756 (93.02), maa://39875 (93.22)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.2), ***maa://39723 (14.29), maa://41749 (85.29)</t>
+          <t>maa://39929 (89.2), ***maa://39723 (14.29), maa://41749 (85.71)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.38), *maa://28440 (73.49), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.38), *maa://28440 (73.81), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.97)</t>
+          <t>maa://42979 (97.06)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.06), maa://36667 (98.28), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.09), maa://36667 (98.28), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://42859 (93.62), maa://41238 (94.74)</t>
+          <t>maa://41108 (87.5), maa://42859 (93.62), maa://41238 (94.92)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.53)</t>
+          <t>maa://36697 (85.62)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.3)</t>
+          <t>maa://24709 (91.38)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.4)</t>
+          <t>maa://35931 (92.42)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.29), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.31), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.28)</t>
+          <t>maa://32532 (92.31)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.18), maa://25390 (95.83), maa://36681 (86.3)</t>
+          <t>maa://24702 (94.18), maa://25390 (95.85), maa://36681 (86.3)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.42), *maa://36671 (70.21), *maa://42530 (63.64)</t>
+          <t>*maa://26191 (67.53), *maa://36671 (70.21), *maa://42530 (63.64)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.20 13:18:41</t>
+          <t>更新日期：2024.11.21 13:18:54</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (84.85), *maa://21916 (60.66), maa://23252 (92.42), maa://37496 (96.15), **maa://22759 (45.45)</t>
+          <t>maa://32931 (85.0), *maa://21916 (60.66), maa://23252 (92.42), maa://37496 (96.15), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.92)</t>
+          <t>maa://21411 (95.94)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.78), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.81), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.94)</t>
+          <t>maa://21867 (90.0)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.27), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (94.03)</t>
+          <t>maa://26245 (96.27), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (94.12)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.56), *maa://36668 (53.42)</t>
+          <t>*maa://30709 (62.56), *maa://36668 (54.05)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (86.46), *maa://22751 (73.85)</t>
+          <t>maa://27127 (86.6), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.2), ***maa://39723 (14.29), maa://41749 (85.71)</t>
+          <t>maa://39929 (89.24), ***maa://39723 (14.29), maa://41749 (85.71)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (97.06)</t>
+          <t>maa://42979 (97.1)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>maa://27613 (99.0)</t>
+          <t>maa://27613 (99.01)</t>
         </is>
       </c>
       <c r="U36" s="1" t="n"/>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.42)</t>
+          <t>maa://35931 (92.48)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.31)</t>
+          <t>maa://32532 (92.34)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.18), maa://25390 (95.85), maa://36681 (86.3)</t>
+          <t>maa://24702 (94.2), maa://25390 (95.85), maa://36681 (86.3)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.26), *maa://30515 (69.0), *maa://34787 (71.43), ***maa://20792 (11.93), maa://39402 (84.38), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.26), *maa://30515 (69.0), *maa://34787 (71.88), ***maa://20792 (11.93), maa://39402 (84.38), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.61), *maa://20791 (62.32)</t>
+          <t>maa://22742 (91.67), *maa://20791 (62.32)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.46), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
+          <t>maa://24617 (88.57), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.27), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (86.67)</t>
+          <t>**maa://32495 (47.27), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (87.5)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.21 13:18:54</t>
+          <t>更新日期：2024.11.22 13:18:20</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AF8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.92), *maa://21990 (53.85)</t>
+          <t>*maa://24479 (78.21), *maa://21990 (53.85)</t>
         </is>
       </c>
       <c r="AG8" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.35)</t>
+          <t>maa://26223 (97.37)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.37)</t>
+          <t>maa://36707 (99.38)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.27), maa://36677 (93.33), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.27), maa://36677 (93.48), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.27), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (94.12)</t>
+          <t>maa://26245 (96.3), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (94.12)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.13), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (25.0)</t>
+          <t>*maa://22743 (77.13), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (26.83)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.29)</t>
+          <t>maa://26228 (95.35)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.67), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.7), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.57)</t>
+          <t>maa://22864 (88.65)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (92.11)</t>
+          <t>maa://20110 (86.76), maa://34946 (92.31)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="AF22" s="2" t="inlineStr">
         <is>
-          <t>maa://29658 (93.02)</t>
+          <t>maa://29658 (93.18)</t>
         </is>
       </c>
       <c r="AG22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.02), maa://39875 (93.22)</t>
+          <t>maa://39756 (93.06), maa://39875 (93.22)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>maa://24387 (81.08), maa://31212 (96.15)</t>
+          <t>maa://24387 (81.08), maa://31212 (96.3)</t>
         </is>
       </c>
       <c r="U23" s="1" t="n"/>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="AB23" s="2" t="inlineStr">
         <is>
-          <t>maa://29652 (97.44)</t>
+          <t>maa://29652 (97.5)</t>
         </is>
       </c>
       <c r="AC23" s="1" t="n"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="X25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29890 (75.0)</t>
+          <t>*maa://29890 (75.61)</t>
         </is>
       </c>
       <c r="Y25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (84.78), *maa://24516 (79.07), maa://26001 (87.27)</t>
+          <t>maa://31215 (84.95), *maa://24516 (79.07), maa://26001 (87.27)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="X26" s="2" t="inlineStr">
         <is>
-          <t>maa://24389 (96.0)</t>
+          <t>maa://24389 (96.15)</t>
         </is>
       </c>
       <c r="Y26" s="1" t="n"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AF27" s="2" t="inlineStr">
         <is>
-          <t>maa://24023 (96.97)</t>
+          <t>maa://24023 (97.01)</t>
         </is>
       </c>
       <c r="AG27" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.24), ***maa://39723 (14.29), maa://41749 (85.71)</t>
+          <t>maa://39929 (89.27), ***maa://39723 (14.29), maa://41749 (85.71)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.47), *maa://36701 (62.96)</t>
+          <t>maa://36660 (92.49), *maa://36701 (62.96)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>*maa://32940 (66.67), maa://24388 (94.12)</t>
+          <t>*maa://32940 (66.67), maa://24388 (94.44)</t>
         </is>
       </c>
       <c r="U30" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://42859 (93.62), maa://41238 (94.92)</t>
+          <t>maa://41108 (87.5), maa://42859 (93.62), maa://41238 (95.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>maa://24842 (93.88)</t>
+          <t>maa://24842 (94.0)</t>
         </is>
       </c>
       <c r="U35" s="1" t="n"/>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>maa://27613 (99.01)</t>
+          <t>maa://27613 (99.02)</t>
         </is>
       </c>
       <c r="U36" s="1" t="n"/>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>maa://30713 (96.55)</t>
+          <t>maa://30713 (96.67)</t>
         </is>
       </c>
       <c r="U38" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.62)</t>
+          <t>maa://36697 (85.71)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.38)</t>
+          <t>maa://24709 (91.45)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.0), maa://29661 (97.78), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.01), maa://29661 (97.78), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.86), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.88), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (96.36)</t>
+          <t>maa://24390 (96.43)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.61), maa://22744 (83.33)</t>
+          <t>maa://21245 (82.61), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919 (96.0), maa://21281 (85.71)</t>
+          <t>maa://21919 (96.08), maa://21281 (85.71)</t>
         </is>
       </c>
       <c r="Q5" s="1" t="n"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>maa://37411 (83.33)</t>
+          <t>maa://37411 (84.62)</t>
         </is>
       </c>
       <c r="U6" s="1" t="n"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>maa://21955 (93.55)</t>
+          <t>maa://21955 (93.75)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.04), *maa://22758 (72.41)</t>
+          <t>maa://22399 (95.07), *maa://22758 (72.41)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.22 13:18:20</t>
+          <t>更新日期：2024.11.23 13:18:17</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24371 (52.17)</t>
+          <t>*maa://24371 (52.86)</t>
         </is>
       </c>
       <c r="I8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.94)</t>
+          <t>maa://21411 (95.96)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AF8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24479 (78.21), *maa://21990 (53.85)</t>
+          <t>*maa://24479 (77.22), *maa://21990 (53.85)</t>
         </is>
       </c>
       <c r="AG8" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.81), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.86), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.2), maa://22501 (98.28)</t>
+          <t>maa://22747 (93.2), maa://22501 (98.33)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.08)</t>
+          <t>maa://36713 (98.09)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.61), maa://36673 (92.42), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.62), maa://36673 (92.42), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.59), *maa://22583 (75.41), *maa://22500 (56.82)</t>
+          <t>maa://22676 (91.67), *maa://22583 (75.41), *maa://22500 (56.82)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (77.97), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (78.33), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.13), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (26.83)</t>
+          <t>*maa://22743 (77.13), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (28.57)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.54), *maa://22766 (70.37), *maa://36666 (78.21)</t>
+          <t>maa://21364 (80.33), *maa://22766 (70.37), *maa://36666 (77.22)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.95)</t>
+          <t>maa://24570 (96.97)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (61.29)</t>
+          <t>*maa://21663 (61.9)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.78), maa://25198 (92.86), *maa://20795 (50.4), maa://36680 (96.43)</t>
+          <t>maa://21432 (90.85), maa://25198 (92.93), *maa://20795 (50.79), maa://36680 (96.43)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (82.72)</t>
+          <t>maa://41331 (81.71)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (86.6), *maa://22751 (73.85)</t>
+          <t>maa://27127 (86.73), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.06), maa://39875 (93.22)</t>
+          <t>maa://39756 (93.15), maa://39875 (93.22)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.36), maa://23504 (92.97), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.95), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.36), maa://23504 (93.05), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.95), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.08)</t>
+          <t>maa://29753 (95.1)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.66), maa://25725 (83.33)</t>
+          <t>maa://24465 (90.67), maa://25725 (83.33)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.27), ***maa://39723 (14.29), maa://41749 (85.71)</t>
+          <t>maa://39929 (89.27), ***maa://39723 (14.29), maa://41749 (86.84)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.49), *maa://36701 (62.96)</t>
+          <t>maa://36660 (92.54), *maa://36701 (62.96)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (97.1)</t>
+          <t>maa://42979 (97.14)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.82), maa://36258 (81.4)</t>
+          <t>maa://35926 (93.82), maa://36258 (81.61)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.09), maa://36667 (98.28), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.11), maa://36667 (98.28), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://42859 (93.62), maa://41238 (95.0)</t>
+          <t>maa://41108 (87.5), maa://42859 (93.75), maa://41238 (95.31)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="AF34" s="2" t="inlineStr">
         <is>
-          <t>*maa://32650 (64.29)</t>
+          <t>*maa://32650 (66.67)</t>
         </is>
       </c>
       <c r="AG34" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.7)</t>
+          <t>maa://41296 (95.88)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.71)</t>
+          <t>maa://36697 (85.98)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (85.32), maa://36670 (88.16), maa://30434 (88.33), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (85.32), maa://36670 (88.16), maa://30434 (88.52), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), *maa://43177 (66.67)</t>
+          <t>**maa://35616 (38.24), *maa://43177 (75.0)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.48)</t>
+          <t>maa://35931 (92.54)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.01), maa://29661 (97.78), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.02), maa://29661 (97.78), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.31), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.33), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.23 13:18:17</t>
+          <t>更新日期：2024.11.23 17:16:53</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.86), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.88), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.2), maa://22501 (98.33)</t>
+          <t>maa://22747 (93.2), maa://22501 (98.36)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.09)</t>
+          <t>maa://36713 (98.1)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.1)</t>
+          <t>maa://29753 (95.12)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://42859 (93.75), maa://41238 (95.31)</t>
+          <t>maa://41108 (87.5), maa://42859 (93.75), maa://41238 (95.38)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.34)</t>
+          <t>maa://32532 (92.37)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.2), maa://25390 (95.85), maa://36681 (86.3)</t>
+          <t>maa://24702 (94.2), maa://25390 (95.85), maa://36681 (86.67)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.26), *maa://30515 (69.0), *maa://34787 (71.88), ***maa://20792 (11.93), maa://39402 (84.38), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.26), *maa://30515 (69.0), *maa://34787 (71.88), ***maa://20792 (11.93), maa://39402 (84.85), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.67), *maa://20791 (62.32)</t>
+          <t>maa://22742 (91.72), *maa://20791 (62.32)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (97.62), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (97.65), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.22), ***maa://21730 (18.18), ***maa://39501 (15.79), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.31), ***maa://21730 (18.18), ***maa://39501 (15.79), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.54), maa://27484 (95.88), maa://27480 (82.35)</t>
+          <t>maa://27396 (84.54), maa://27484 (95.92), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.75), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.79), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.27), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (87.5)</t>
+          <t>**maa://32495 (47.27), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (88.24)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.61), maa://22744 (84.0)</t>
+          <t>maa://21245 (82.69), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>maa://24370 (96.43)</t>
+          <t>maa://24370 (96.49)</t>
         </is>
       </c>
       <c r="I6" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (89.47), maa://30381 (92.31)</t>
+          <t>maa://31836 (90.0), maa://30381 (92.31)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.23 13:18:17</t>
+          <t>更新日期：2024.11.24 12:07:34</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.37)</t>
+          <t>maa://26223 (97.39)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.86), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.88), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.2), maa://22501 (98.33)</t>
+          <t>maa://22747 (93.2), maa://22501 (98.36)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.09)</t>
+          <t>maa://36713 (98.1)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.62), maa://36673 (92.42), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.63), maa://36673 (92.42), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.3), maa://21288 (96.21), maa://36682 (97.3), maa://39841 (94.12)</t>
+          <t>maa://26245 (96.3), maa://21288 (96.21), maa://36682 (97.37), maa://39841 (94.12)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (96.72)</t>
+          <t>maa://22764 (96.77)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.26), maa://36679 (92.68), maa://37650 (96.77)</t>
+          <t>maa://21441 (96.28), maa://36679 (92.68), maa://37650 (96.77)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>maa://28504 (90.57)</t>
+          <t>maa://28504 (90.74)</t>
         </is>
       </c>
       <c r="Q16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.3), *maa://28648 (67.24), maa://36674 (84.21)</t>
+          <t>maa://22729 (95.3), *maa://28648 (67.24), maa://36674 (82.05)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.78), maa://28051 (96.0)</t>
+          <t>maa://28501 (97.8), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>maa://24385 (96.97)</t>
+          <t>maa://24385 (97.06)</t>
         </is>
       </c>
       <c r="U18" s="1" t="n"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AB18" s="2" t="inlineStr">
         <is>
-          <t>maa://24393 (97.3)</t>
+          <t>maa://24393 (97.37)</t>
         </is>
       </c>
       <c r="AC18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.94)</t>
+          <t>maa://24386 (98.95)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.85), maa://25198 (92.93), *maa://20795 (50.79), maa://36680 (96.43)</t>
+          <t>maa://21432 (90.21), maa://25198 (92.93), *maa://20795 (50.79), maa://36680 (96.43)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (81.71)</t>
+          <t>maa://41331 (81.93)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>maa://24381 (86.67)</t>
+          <t>maa://24381 (87.5)</t>
         </is>
       </c>
       <c r="Q21" s="1" t="n"/>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>maa://21993 (88.24)</t>
+          <t>maa://21993 (88.89)</t>
         </is>
       </c>
       <c r="U21" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.15), maa://39875 (93.22)</t>
+          <t>maa://39756 (93.21), maa://39875 (93.22)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.36), maa://23504 (93.05), **maa://22892 (39.86), *maa://25141 (77.42), maa://36663 (80.95), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.36), maa://23504 (93.07), **maa://22892 (39.86), *maa://25141 (77.6), maa://36663 (80.95), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.1)</t>
+          <t>maa://29753 (95.12)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>maa://24382 (92.86)</t>
+          <t>maa://24382 (93.1)</t>
         </is>
       </c>
       <c r="Q25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (84.95), *maa://24516 (79.07), maa://26001 (87.27)</t>
+          <t>maa://31215 (85.11), *maa://24516 (79.07), maa://26001 (87.27)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.14)</t>
+          <t>maa://24913 (91.25)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (96.15), *maa://39601 (73.33), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.65), maa://34494 (96.3), *maa://39601 (73.33), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (74.47)</t>
+          <t>*maa://30624 (75.0)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.27), ***maa://39723 (14.29), maa://41749 (86.84)</t>
+          <t>maa://39929 (89.35), ***maa://39723 (14.29), maa://41749 (86.84)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.54), *maa://36701 (62.96)</t>
+          <t>maa://36660 (92.59), *maa://36701 (62.96)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>*maa://25175 (71.11)</t>
+          <t>*maa://25175 (69.57)</t>
         </is>
       </c>
       <c r="I29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (55.77), **maa://30050 (40.91)</t>
+          <t>*maa://23168 (54.72), **maa://30050 (43.48)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.41), ***maa://34960 (8.7), maa://42865 (85.19)</t>
+          <t>*maa://24080 (69.23), ***maa://34960 (8.33), maa://42865 (82.14)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (97.14)</t>
+          <t>maa://42979 (97.26)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.82), maa://36258 (81.61)</t>
+          <t>maa://35926 (93.82), maa://36258 (81.82)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.5), maa://42859 (93.75), maa://41238 (95.31)</t>
+          <t>maa://41108 (87.76), maa://42859 (93.88), maa://41238 (95.38)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.88)</t>
+          <t>maa://41296 (95.92)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>*maa://24374 (59.52)</t>
+          <t>*maa://24374 (58.14)</t>
         </is>
       </c>
       <c r="I37" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>**maa://39354 (40.0)</t>
+          <t>**maa://39354 (33.33)</t>
         </is>
       </c>
       <c r="U37" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.98)</t>
+          <t>maa://36697 (86.06)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (85.32), maa://36670 (88.16), maa://30434 (88.52), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (85.32), maa://36670 (88.46), maa://30434 (88.52), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.45)</t>
+          <t>maa://24709 (91.53)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5803,12 +5803,12 @@
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.54)</t>
+          <t>maa://35931 (92.57), maa://43901 (100.0)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.02), maa://29661 (97.78), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.05), maa://29661 (97.78), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>maa://24376 (96.43)</t>
+          <t>maa://24376 (96.55)</t>
         </is>
       </c>
       <c r="I52" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.34)</t>
+          <t>maa://32532 (92.37)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (98.11)</t>
+          <t>maa://25176 (98.15)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (55.26)</t>
+          <t>*maa://40438 (56.41)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (95.24)</t>
+          <t>maa://42981 (95.45)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.5), maa://24957 (97.62)</t>
+          <t>maa://28624 (92.59), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 12:07:34</t>
+          <t>更新日期：2024.11.24 13:17:50</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.96)</t>
+          <t>maa://21411 (95.98)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (40.0)</t>
+          <t>**maa://42324 (38.1)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (91.8)</t>
+          <t>maa://42235 (91.94)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.35), ***maa://39723 (14.29), maa://41749 (86.84)</t>
+          <t>maa://39929 (89.38), ***maa://39723 (14.29), maa://41749 (86.84)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="AF32" s="2" t="inlineStr">
         <is>
-          <t>maa://42408 (85.71)</t>
+          <t>*maa://42408 (75.0)</t>
         </is>
       </c>
       <c r="AG32" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (85.71)</t>
+          <t>maa://39366 (86.21)</t>
         </is>
       </c>
       <c r="U44" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (38.89)</t>
+          <t>**maa://39364 (36.84)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (68.18)</t>
+          <t>*maa://39643 (69.57)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (97.65), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (97.7), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (69.01), maa://20276 (84.11), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (69.01), maa://20276 (84.21), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.88), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.91), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.54), maa://27484 (95.92), maa://27480 (82.35)</t>
+          <t>maa://27396 (84.59), maa://27484 (95.92), maa://27480 (82.35)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.87), maa://27295 (82.46), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.87), maa://27295 (82.76), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.27), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (88.24)</t>
+          <t>**maa://32495 (47.27), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (88.89)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.5), maa://24957 (97.62)</t>
+          <t>maa://28624 (92.59), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.07), *maa://22758 (72.41)</t>
+          <t>maa://22399 (95.07), *maa://22758 (72.88)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 12:07:34</t>
+          <t>更新日期：2024.11.24 15:31:26</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.96)</t>
+          <t>maa://21411 (95.98)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.67), *maa://22583 (75.41), *maa://22500 (56.82)</t>
+          <t>maa://22676 (91.67), *maa://22583 (75.81), *maa://22500 (56.82)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.3), maa://21288 (96.21), maa://36682 (97.37), maa://39841 (94.12)</t>
+          <t>maa://26245 (96.3), maa://21288 (96.21), maa://36682 (97.37), maa://39841 (94.2)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.72), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.78), maa://21478 (91.18)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (40.0)</t>
+          <t>**maa://42324 (38.1)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (89.91)</t>
+          <t>maa://24421 (89.96)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (91.8)</t>
+          <t>maa://42235 (91.94)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.35), ***maa://39723 (14.29), maa://41749 (86.84)</t>
+          <t>maa://39929 (89.38), ***maa://39723 (14.29), maa://41749 (86.84)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="AF32" s="2" t="inlineStr">
         <is>
-          <t>maa://42408 (85.71)</t>
+          <t>*maa://42408 (75.0)</t>
         </is>
       </c>
       <c r="AG32" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (85.71)</t>
+          <t>maa://39366 (86.21)</t>
         </is>
       </c>
       <c r="U44" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (38.89)</t>
+          <t>**maa://39364 (36.84)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (68.18)</t>
+          <t>*maa://39643 (69.57)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.2), maa://25390 (95.85), maa://36681 (86.67)</t>
+          <t>maa://24702 (94.22), maa://25390 (95.87), maa://36681 (86.84)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.26), *maa://30515 (69.0), *maa://34787 (71.88), ***maa://20792 (11.93), maa://39402 (84.85), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.84), *maa://30515 (69.0), *maa://34787 (72.31), ***maa://20792 (11.93), maa://39402 (85.71), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.72), *maa://20791 (62.32)</t>
+          <t>maa://22742 (91.28), *maa://20791 (62.32)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (97.7), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (96.63), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.31), ***maa://21730 (18.18), ***maa://39501 (15.79), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.39), ***maa://21730 (19.4), ***maa://39501 (15.79), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (93.62), maa://40192 (96.43), maa://39849 (88.89)</t>
+          <t>maa://36987 (93.62), maa://40192 (96.67), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.37), *maa://22748 (75.0)</t>
+          <t>maa://21247 (98.39), *maa://22748 (75.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (69.01), maa://20276 (84.21), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (68.0), maa://20276 (84.62), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.91), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.52), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.57), **maa://20790 (43.94), ***maa://37170 (20.0)</t>
+          <t>maa://24617 (88.68), **maa://20790 (44.78), ***maa://37170 (19.61)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.59), maa://27484 (95.92), maa://27480 (82.35)</t>
+          <t>maa://27396 (84.59), maa://27484 (96.0), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.79), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.15), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.87), maa://27295 (82.76), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.89), maa://27295 (82.76), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.27), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (88.89)</t>
+          <t>**maa://32495 (47.47), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (91.3)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.69), maa://22744 (84.0)</t>
+          <t>maa://21245 (82.94), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (93.33)</t>
+          <t>maa://42407 (93.75)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (99.26)</t>
+          <t>maa://24839 (99.27)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (90.0), maa://30381 (92.31)</t>
+          <t>maa://31836 (90.48), maa://30381 (92.31)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="AB6" s="2" t="inlineStr">
         <is>
-          <t>maa://22739 (92.59)</t>
+          <t>maa://22739 (92.73)</t>
         </is>
       </c>
       <c r="AC6" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.59), maa://24957 (97.62)</t>
+          <t>maa://28624 (92.68), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>maa://22750 (90.24)</t>
+          <t>maa://22750 (90.7)</t>
         </is>
       </c>
       <c r="Q7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (67.53), *maa://36671 (70.21), *maa://42530 (63.64)</t>
+          <t>*maa://26191 (67.95), *maa://36671 (70.21), *maa://42530 (63.64)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 15:31:26</t>
+          <t>更新日期：2024.11.30 13:17:44</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (85.0), *maa://21916 (60.66), maa://23252 (92.42), maa://37496 (96.15), **maa://22759 (45.45)</t>
+          <t>maa://32931 (85.15), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.15), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.98)</t>
+          <t>maa://21411 (96.05)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.39)</t>
+          <t>maa://26223 (97.41)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (88.3), ***maa://22740 (5.88), **maa://39938 (47.62), **maa://27377 (46.15), ***maa://25174 (20.0), maa://40166 (90.91)</t>
+          <t>maa://28711 (87.5), ***maa://22740 (5.88), **maa://39938 (50.0), **maa://27377 (46.15), ***maa://25174 (20.0), maa://40166 (90.91)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.32), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (19.44), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.32), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (18.92), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.88), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.93), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (54.43), *maa://22733 (59.38), maa://22761 (100.0)</t>
+          <t>*maa://25021 (53.75), *maa://22733 (59.38), maa://22761 (100.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (88.17)</t>
+          <t>maa://21287 (88.3)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.2), maa://22501 (98.36)</t>
+          <t>maa://22747 (93.24), maa://22501 (98.51)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.1)</t>
+          <t>maa://36713 (98.11)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (90.0)</t>
+          <t>maa://21867 (90.12)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.61), *maa://21485 (76.87), maa://37962 (86.96)</t>
+          <t>maa://22753 (91.67), *maa://21485 (76.87), maa://37962 (88.0)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.27), maa://36677 (93.48), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.34), maa://36677 (93.48), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.63), maa://36673 (92.42), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.67), maa://36673 (92.65), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.19), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (74.55), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.67), *maa://22583 (75.81), *maa://22500 (56.82)</t>
+          <t>maa://22676 (91.74), *maa://22583 (75.81), *maa://22500 (56.82)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.37), maa://39883 (91.67), *maa://39885 (56.0)</t>
+          <t>**maa://22737 (30.88), maa://39883 (90.0), *maa://39885 (56.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.3), maa://21288 (96.21), maa://36682 (97.37), maa://39841 (94.2)</t>
+          <t>maa://26245 (96.32), maa://21288 (96.24), maa://36682 (97.37), maa://39841 (94.44)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.59), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.6), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (94.68), maa://42751 (100.0)</t>
+          <t>maa://22521 (93.68), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (96.77)</t>
+          <t>maa://22764 (96.83)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.78), maa://21478 (91.18)</t>
+          <t>maa://24304 (88.78), maa://21478 (91.43)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.0), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.07), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.33), *maa://22766 (70.37), *maa://36666 (77.22)</t>
+          <t>maa://21364 (80.46), *maa://22766 (70.64), *maa://36666 (77.22)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.28), maa://36679 (92.68), maa://37650 (96.77)</t>
+          <t>maa://21441 (96.28), maa://36679 (92.68), maa://37650 (96.88)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.3), *maa://28648 (67.24), maa://36674 (82.05)</t>
+          <t>maa://22729 (95.3), *maa://28648 (68.33), maa://36674 (82.05)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (65.0), maa://27755 (92.41)</t>
+          <t>*maa://23911 (65.0), maa://27755 (92.5)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.46), maa://39599 (84.38)</t>
+          <t>maa://22430 (88.52), maa://39599 (84.85)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>maa://23890 (80.81), *maa://24940 (66.67)</t>
+          <t>maa://23890 (80.81), *maa://24940 (67.86)</t>
         </is>
       </c>
       <c r="Q17" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (38.1)</t>
+          <t>**maa://42324 (43.48)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (96.97)</t>
+          <t>maa://24570 (97.0)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (89.96)</t>
+          <t>maa://24421 (90.17)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>maa://24385 (97.06)</t>
+          <t>maa://24385 (97.14)</t>
         </is>
       </c>
       <c r="U18" s="1" t="n"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AB18" s="2" t="inlineStr">
         <is>
-          <t>maa://24393 (97.37)</t>
+          <t>maa://24393 (97.5)</t>
         </is>
       </c>
       <c r="AC18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.95)</t>
+          <t>maa://24386 (98.98)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.56), *maa://36668 (54.05)</t>
+          <t>*maa://30709 (62.66), *maa://36668 (54.05)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.21), maa://25198 (92.93), *maa://20795 (50.79), maa://36680 (96.43)</t>
+          <t>maa://21432 (90.28), maa://25198 (92.93), *maa://20795 (50.79), maa://36680 (96.43)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.65)</t>
+          <t>maa://22864 (88.81)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (81.93)</t>
+          <t>maa://41331 (82.35)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.7)</t>
+          <t>maa://24372 (96.74)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>maa://24381 (87.5)</t>
+          <t>maa://24381 (88.89)</t>
         </is>
       </c>
       <c r="Q21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (79.65), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (79.77), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.42), *maa://22432 (76.27)</t>
+          <t>maa://22524 (94.44), *maa://22432 (76.27)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.41), *maa://37649 (69.57)</t>
+          <t>maa://21282 (98.43), *maa://37649 (70.83)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="AF22" s="2" t="inlineStr">
         <is>
-          <t>maa://29658 (93.18)</t>
+          <t>maa://29658 (93.33)</t>
         </is>
       </c>
       <c r="AG22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.21), maa://39875 (93.22)</t>
+          <t>maa://39756 (93.39), maa://39875 (93.33)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.67), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (91.76), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>maa://24387 (81.08), maa://31212 (96.3)</t>
+          <t>maa://24387 (81.58), maa://31212 (92.86)</t>
         </is>
       </c>
       <c r="U23" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (65.62)</t>
+          <t>*maa://28503 (66.67)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.36), maa://23504 (93.07), **maa://22892 (39.86), *maa://25141 (77.6), maa://36663 (80.95), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.43), maa://23504 (93.12), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.95), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>maa://24378 (86.84)</t>
+          <t>maa://24378 (87.18)</t>
         </is>
       </c>
       <c r="M25" s="1" t="n"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.17), maa://22545 (100.0), maa://42915 (100.0)</t>
+          <t>maa://20109 (92.26), maa://22545 (100.0), maa://42915 (100.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.11), *maa://24516 (79.07), maa://26001 (87.27)</t>
+          <t>maa://31215 (85.42), *maa://24516 (79.07), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.25)</t>
+          <t>maa://24913 (91.36)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (91.94)</t>
+          <t>maa://42235 (92.06)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (96.3), *maa://39601 (73.33), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.65), maa://34494 (96.3), *maa://39601 (75.0), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (75.0)</t>
+          <t>*maa://30624 (75.51)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.67), maa://25725 (83.33)</t>
+          <t>maa://24465 (90.68), maa://25725 (83.33)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.38), ***maa://39723 (14.29), maa://41749 (86.84)</t>
+          <t>maa://39929 (89.08), ***maa://39723 (14.29), maa://41749 (88.64)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.59), *maa://36701 (62.96)</t>
+          <t>maa://36660 (92.36), *maa://36701 (62.96)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.38), *maa://28440 (73.81), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.38), *maa://28440 (75.28), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (54.72), **maa://30050 (43.48)</t>
+          <t>*maa://23168 (54.72), **maa://30050 (50.0)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.23), ***maa://34960 (8.33), maa://42865 (82.14)</t>
+          <t>*maa://24080 (69.23), ***maa://34960 (8.33), *maa://42865 (80.0)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (97.26)</t>
+          <t>maa://42979 (97.53)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4466,12 +4466,12 @@
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.82), maa://36258 (81.82)</t>
+          <t>maa://35926 (93.85), maa://36258 (82.42), maa://43904 (100.0)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.11), maa://36667 (98.28), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.19), maa://36667 (98.28), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.76), maa://42859 (93.88), maa://41238 (95.38)</t>
+          <t>maa://41108 (87.76), maa://42859 (94.0), maa://41238 (95.83)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.44)</t>
+          <t>maa://24526 (93.47)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.92)</t>
+          <t>maa://41296 (96.08)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.06)</t>
+          <t>maa://36697 (86.47)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (85.32), maa://36670 (88.46), maa://30434 (88.52), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (84.55), maa://36670 (87.5), maa://30434 (88.52), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.53)</t>
+          <t>maa://24709 (91.67)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.93), maa://21386 (95.7), maa://36664 (90.2)</t>
+          <t>maa://23278 (95.95), maa://21386 (95.74), maa://36664 (90.2)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.31), maa://21284 (83.33)</t>
+          <t>maa://22525 (92.48), maa://21284 (83.72)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.75), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.77), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (85.08), maa://30807 (95.24), *maa://22767 (57.89), ***maa://20796 (13.79), *maa://42459 (66.67)</t>
+          <t>maa://21229 (84.78), maa://30807 (95.38), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (66.67)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.05), maa://29661 (97.78), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.11), maa://29661 (97.78), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.33), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.43), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.37)</t>
+          <t>maa://32532 (92.43)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (58.33)</t>
+          <t>*maa://37964 (56.0)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (82.69), maa://31270 (95.54)</t>
+          <t>maa://27746 (82.86), maa://31270 (94.69)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (56.41)</t>
+          <t>*maa://40438 (55.0)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (95.45)</t>
+          <t>maa://42981 (95.83)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 13:17:44</t>
+          <t>更新日期：2024.11.30 17:56:43</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.5), ***maa://22740 (5.88), **maa://39938 (50.0), **maa://27377 (46.15), ***maa://25174 (20.0), maa://40166 (90.91)</t>
+          <t>maa://28711 (87.5), ***maa://22740 (5.88), *maa://39938 (52.17), **maa://27377 (46.15), ***maa://25174 (20.0), maa://40166 (91.67)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.32), maa://21288 (96.24), maa://36682 (97.37), maa://39841 (94.44)</t>
+          <t>maa://26245 (96.32), maa://21288 (96.24), maa://36682 (97.37), maa://39841 (94.52)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.3), *maa://28648 (68.33), maa://36674 (82.05)</t>
+          <t>maa://22729 (95.33), *maa://28648 (68.33), maa://36674 (82.05)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.8), maa://28051 (96.0)</t>
+          <t>maa://28501 (97.83), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.97), *maa://22732 (50.6)</t>
+          <t>maa://22466 (89.05), *maa://22732 (50.6)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.66), *maa://36668 (54.05)</t>
+          <t>*maa://30709 (62.75), *maa://36668 (54.05)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.44), *maa://22432 (76.27)</t>
+          <t>maa://22524 (94.44), *maa://22432 (76.67)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.43), *maa://37649 (70.83)</t>
+          <t>maa://21282 (98.44), *maa://37649 (70.83)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.39), maa://39875 (93.33)</t>
+          <t>maa://39756 (93.45), maa://39875 (93.33)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.08), ***maa://39723 (14.29), maa://41749 (88.64)</t>
+          <t>maa://39929 (89.12), ***maa://39723 (14.29), maa://41749 (88.64)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (97.53)</t>
+          <t>maa://42979 (97.56)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.76), maa://42859 (94.0), maa://41238 (95.83)</t>
+          <t>maa://41108 (87.76), maa://42859 (94.12), maa://41238 (95.83)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (86.21)</t>
+          <t>maa://39366 (86.67)</t>
         </is>
       </c>
       <c r="U44" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.28), *maa://20791 (62.32)</t>
+          <t>maa://22742 (91.33), *maa://20791 (62.32)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.39), *maa://22748 (75.0)</t>
+          <t>maa://21247 (98.4), *maa://22748 (75.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.15), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.2), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 17:56:43</t>
+          <t>更新日期：2024.11.30 23:36:59</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (96.63), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (96.67), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.2), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.24), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 23:36:59</t>
+          <t>更新日期：2024.12.01 15:12:11</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.41)</t>
+          <t>maa://26223 (97.44)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.11)</t>
+          <t>maa://36713 (98.12)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.32), maa://21288 (96.24), maa://36682 (97.37), maa://39841 (94.52)</t>
+          <t>maa://26245 (96.32), maa://21288 (96.24), maa://36682 (97.37), maa://39841 (94.59)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.52), maa://39599 (84.85)</t>
+          <t>maa://22430 (88.52), maa://39599 (85.29)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.81)</t>
+          <t>maa://22864 (88.89)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.45), maa://39875 (93.33)</t>
+          <t>maa://39756 (93.48), maa://39875 (93.33)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.38), *maa://28440 (75.28), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.4), *maa://28440 (75.28), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108 (87.76), maa://42859 (94.12), maa://41238 (95.83)</t>
+          <t>maa://42859 (94.34), maa://41108 (87.76), maa://41238 (95.83)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956 (79.41), *maa://22730 (79.31)</t>
+          <t>*maa://21956 (79.56), *maa://22730 (79.31)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.55), maa://36670 (87.5), maa://30434 (88.52), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (84.55), maa://36670 (87.5), maa://30434 (88.71), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.01 15:12:11</t>
+          <t>更新日期：2024.12.01 15:16:43</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.22), maa://25390 (95.87), maa://36681 (86.84)</t>
+          <t>maa://24702 (94.22), maa://25390 (95.88), maa://36681 (86.84)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.84), *maa://30515 (69.0), *maa://34787 (72.31), ***maa://20792 (11.93), maa://39402 (85.71), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.84), *maa://30515 (69.0), *maa://34787 (72.31), ***maa://20792 (11.93), maa://39402 (86.49), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.33), *maa://20791 (62.32)</t>
+          <t>maa://22742 (91.39), *maa://20791 (62.32)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (96.67), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (95.6), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (68.0), maa://20276 (84.62), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (67.42), maa://20276 (84.71), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.52), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.55), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.68), **maa://20790 (44.78), ***maa://37170 (19.61)</t>
+          <t>maa://24617 (88.79), **maa://20790 (44.78), ***maa://37170 (18.87)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.59), maa://27484 (96.0), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.64), maa://27484 (96.0), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.89), maa://27295 (82.76), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.89), maa://27295 (83.33), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.47), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (91.3)</t>
+          <t>**maa://32495 (47.67), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (88.89)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (99.27)</t>
+          <t>maa://24839 (99.28)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.68), maa://24957 (97.62)</t>
+          <t>maa://28624 (92.94), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.07), *maa://22758 (72.88)</t>
+          <t>maa://22399 (95.1), *maa://22758 (72.88)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (67.95), *maa://36671 (70.21), *maa://42530 (63.64)</t>
+          <t>*maa://26191 (67.95), *maa://36671 (70.21), *maa://42530 (66.67)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.01 15:16:43</t>
+          <t>更新日期：2024.12.07 13:18:04</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (96.05)</t>
+          <t>maa://21411 (95.83)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (91.67), maa://39552 (90.0)</t>
+          <t>maa://22762 (91.76), maa://39552 (90.0)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (80.68)</t>
+          <t>maa://22736 (80.9)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.5), ***maa://22740 (5.88), *maa://39938 (52.17), **maa://27377 (46.15), ***maa://25174 (20.0), maa://40166 (91.67)</t>
+          <t>maa://28711 (86.73), ***maa://22740 (5.88), **maa://39938 (48.0), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (92.86)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.9), **maa://22865 (48.98)</t>
+          <t>maa://26206 (89.9), **maa://22865 (50.0)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.32), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (18.92), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.21), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (17.95), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (91.25), maa://36669 (87.1), *maa://23264 (61.82)</t>
+          <t>maa://28977 (91.36), maa://36669 (87.88), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.57), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.58), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.38)</t>
+          <t>maa://36707 (99.39)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.12)</t>
+          <t>maa://36713 (98.14)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.67), *maa://21485 (76.87), maa://37962 (88.0)</t>
+          <t>maa://22753 (91.19), *maa://21485 (76.87), maa://37962 (88.89)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.34), maa://36677 (93.48), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.34), maa://36677 (93.62), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.12), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.29), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.67), maa://36673 (92.65), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.7), maa://36673 (92.65), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.74), *maa://22583 (75.81), *maa://22500 (56.82)</t>
+          <t>maa://22676 (91.74), *maa://22583 (75.81), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (78.33), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (78.69), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (30.88), maa://39883 (90.0), *maa://39885 (56.0)</t>
+          <t>**maa://22737 (31.39), maa://39883 (90.57), *maa://39885 (56.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.32), maa://21288 (96.24), maa://36682 (97.37), maa://39841 (94.59)</t>
+          <t>maa://26245 (96.38), maa://21288 (96.24), maa://39841 (94.81), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.6), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.61), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.13), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (28.57)</t>
+          <t>*maa://22743 (76.84), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (28.57)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.78), maa://21478 (91.43)</t>
+          <t>maa://24304 (88.5), maa://21478 (91.43)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.46), *maa://22766 (70.64), *maa://36666 (77.22)</t>
+          <t>maa://21364 (80.53), *maa://22766 (70.64), *maa://36666 (77.78)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.33), *maa://28648 (68.33), maa://36674 (82.05)</t>
+          <t>maa://22729 (95.33), *maa://28648 (68.33), maa://36674 (82.5)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.52), maa://39599 (85.29)</t>
+          <t>maa://22430 (88.52), maa://39599 (85.71)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (43.48)</t>
+          <t>**maa://42324 (45.83)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.0)</t>
+          <t>maa://24570 (97.03)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.05), *maa://22732 (50.6)</t>
+          <t>maa://22466 (89.29), *maa://22732 (50.6)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.98)</t>
+          <t>maa://24386 (98.99)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.75), *maa://36668 (54.05)</t>
+          <t>*maa://30709 (62.84), *maa://36668 (54.67)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (61.9)</t>
+          <t>*maa://21663 (62.5)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.28), maa://25198 (92.93), *maa://20795 (50.79), maa://36680 (96.43)</t>
+          <t>maa://21432 (89.73), maa://25198 (92.93), *maa://20795 (51.18), maa://36680 (96.55)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.89)</t>
+          <t>maa://22864 (88.97)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (82.35)</t>
+          <t>maa://41331 (83.7)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (79.77), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (79.94), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.44), *maa://22432 (76.67)</t>
+          <t>maa://22524 (94.53), *maa://22432 (76.67)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (86.73), *maa://22751 (73.85)</t>
+          <t>maa://27127 (86.0), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.44), *maa://37649 (70.83)</t>
+          <t>maa://21282 (98.45), *maa://37649 (68.0)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="AF22" s="2" t="inlineStr">
         <is>
-          <t>maa://29658 (93.33)</t>
+          <t>maa://29658 (93.48)</t>
         </is>
       </c>
       <c r="AG22" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.36), **maa://41753 (50.0)</t>
+          <t>***maa://28036 (28.36), *maa://41753 (54.55)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.48), maa://39875 (93.33)</t>
+          <t>maa://39756 (93.72), maa://39875 (93.55)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.76), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (91.8), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.43), maa://23504 (93.12), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.95), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.55), maa://23504 (93.18), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (81.25), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.42), *maa://36672 (79.59), maa://29910 (92.31), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.42), maa://36672 (80.39), maa://29910 (92.31), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.12)</t>
+          <t>maa://29753 (95.18)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (73.79), *maa://25311 (74.49), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (73.97), *maa://25311 (73.74), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.26), maa://22545 (100.0), maa://42915 (100.0)</t>
+          <t>maa://20109 (92.31), maa://22545 (100.0), maa://42915 (100.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.42), *maa://24516 (79.07), maa://26001 (87.5)</t>
+          <t>maa://31215 (85.42), *maa://24516 (79.31), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.21), maa://24621 (96.55), maa://36676 (96.43), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.21), maa://24621 (96.55), maa://36676 (96.67), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (92.06)</t>
+          <t>maa://42235 (92.86)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AF26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (82.86), *maa://29760 (64.29)</t>
+          <t>maa://30511 (83.33), *maa://29760 (64.29)</t>
         </is>
       </c>
       <c r="AG26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (96.3), *maa://39601 (75.0), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.65), maa://34494 (96.43), *maa://39601 (75.0), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (75.51)</t>
+          <t>*maa://30624 (76.0)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.68), maa://25725 (83.33)</t>
+          <t>maa://24465 (90.72), maa://25725 (83.53)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.12), ***maa://39723 (14.29), maa://41749 (88.64)</t>
+          <t>maa://39929 (89.37), ***maa://39723 (14.29), maa://41749 (90.0)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.36), *maa://36701 (62.96)</t>
+          <t>maa://36660 (92.83), *maa://36701 (64.29)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>*maa://25175 (69.57)</t>
+          <t>*maa://25175 (70.21)</t>
         </is>
       </c>
       <c r="I29" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.4), *maa://28440 (75.28), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.09), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.23), ***maa://34960 (8.33), *maa://42865 (80.0)</t>
+          <t>*maa://24080 (69.23), ***maa://34960 (8.33), *maa://42865 (77.42)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>maa://21442 (99.51)</t>
+          <t>maa://21442 (99.52)</t>
         </is>
       </c>
       <c r="Q30" s="1" t="n"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t>maa://39477 (84.62)</t>
+          <t>maa://39477 (85.71)</t>
         </is>
       </c>
       <c r="Y30" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (97.56)</t>
+          <t>maa://42979 (97.83)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.85), maa://36258 (82.42), maa://43904 (100.0)</t>
+          <t>maa://35926 (93.87), maa://36258 (82.42), maa://43904 (100.0)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.19), maa://36667 (98.28), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.21), maa://36667 (98.31), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (94.34), maa://41108 (87.76), maa://41238 (95.83)</t>
+          <t>maa://42859 (95.08), maa://41108 (87.76), maa://41238 (96.05)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4767,6 +4767,22 @@
         </is>
       </c>
       <c r="U33" s="1" t="n"/>
+      <c r="V33" s="1" t="inlineStr">
+        <is>
+          <t>瑰盐</t>
+        </is>
+      </c>
+      <c r="W33" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X33" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y33" s="1" t="n"/>
       <c r="Z33" s="1" t="inlineStr">
         <is>
           <t>魔王</t>
@@ -4877,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.47)</t>
+          <t>maa://24526 (93.52)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4959,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.08)</t>
+          <t>maa://41296 (96.23)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5171,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.18), *maa://21239 (72.73)</t>
+          <t>maa://21280 (89.29), *maa://21239 (72.73)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5187,7 +5203,7 @@
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>**maa://39354 (33.33)</t>
+          <t>***maa://39354 (25.0)</t>
         </is>
       </c>
       <c r="U37" s="1" t="n"/>
@@ -5304,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.47)</t>
+          <t>maa://36697 (86.13)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5325,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.55), maa://36670 (87.5), maa://30434 (88.71), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (84.55), maa://36670 (87.95), maa://30434 (89.06), ***maa://25036 (16.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5357,7 +5373,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.67)</t>
+          <t>maa://24709 (91.8)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5442,7 +5458,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.95), maa://21386 (95.74), maa://36664 (90.2)</t>
+          <t>maa://23278 (95.95), maa://21386 (95.74), maa://36664 (90.74)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5527,7 +5543,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), *maa://43177 (75.0)</t>
+          <t>**maa://35616 (38.24), *maa://43177 (80.0)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5649,7 +5665,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.48), maa://21284 (83.72)</t>
+          <t>maa://22525 (92.54), maa://21284 (83.72)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5685,6 +5701,22 @@
         </is>
       </c>
       <c r="U43" s="1" t="n"/>
+      <c r="AD43" s="1" t="inlineStr">
+        <is>
+          <t>引星棘刺</t>
+        </is>
+      </c>
+      <c r="AE43" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF43" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG43" s="1" t="n"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="B44" s="7" t="n"/>
@@ -5755,7 +5787,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.78), maa://30807 (95.38), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (66.67)</t>
+          <t>maa://21229 (84.78), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (66.67)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5808,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.57), maa://43901 (100.0)</t>
+          <t>maa://35931 (92.39), *maa://43901 (80.0)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5861,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.11), maa://29661 (97.78), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.14), maa://29661 (97.78), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -5983,7 +6015,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (69.57)</t>
+          <t>*maa://39643 (66.67)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>
@@ -6040,6 +6072,22 @@
         </is>
       </c>
       <c r="Q50" s="1" t="n"/>
+      <c r="R50" s="1" t="inlineStr">
+        <is>
+          <t>特克诺</t>
+        </is>
+      </c>
+      <c r="S50" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T50" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U50" s="1" t="n"/>
     </row>
     <row r="51">
       <c r="F51" s="1" t="inlineStr">
@@ -6122,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.43), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.47), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6158,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.43)</t>
+          <t>maa://32532 (92.55)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6212,7 +6260,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (56.0)</t>
+          <t>*maa://37964 (55.56)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6230,7 +6278,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (82.86), maa://31270 (94.69)</t>
+          <t>maa://27746 (82.86), maa://31270 (94.78)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6248,7 +6296,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (55.0)</t>
+          <t>*maa://40438 (57.14)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6279,12 +6327,12 @@
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (95.83)</t>
+          <t>maa://42981 (96.0), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>
@@ -6315,12 +6363,12 @@
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.84), *maa://30515 (69.0), *maa://34787 (72.31), ***maa://20792 (11.93), maa://39402 (86.49), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (71.21), ***maa://20792 (11.93), maa://39402 (86.49), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.64), maa://27484 (96.0), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.69), maa://27484 (96.0), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (60.0), ***maa://26209 (13.04), *maa://39394 (66.67)</t>
+          <t>*maa://30062 (60.0), ***maa://26209 (13.04), *maa://39394 (68.18)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>maa://21291 (87.5)</t>
+          <t>maa://21291 (85.37)</t>
         </is>
       </c>
       <c r="U7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.07 13:18:04</t>
+          <t>更新日期：2024.12.07 23:48:34</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.21), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (17.95), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.1), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (17.5), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.39)</t>
+          <t>maa://36707 (99.4)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.24), maa://22501 (98.51)</t>
+          <t>maa://22747 (93.33), maa://22501 (98.51)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (31.39), maa://39883 (90.57), *maa://39885 (56.0)</t>
+          <t>**maa://22737 (31.88), maa://39883 (90.57), *maa://39885 (56.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.84), maa://22734 (83.76), *maa://30808 (63.93), ***maa://36048 (28.57)</t>
+          <t>*maa://22743 (76.84), maa://22734 (83.9), *maa://30808 (63.93), ***maa://36048 (28.57)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.52), maa://39599 (85.71)</t>
+          <t>maa://22430 (88.59), maa://39599 (85.71)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.03)</t>
+          <t>maa://24570 (97.04)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.29), *maa://22732 (50.6)</t>
+          <t>maa://22466 (88.65), *maa://22732 (50.6)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.84), *maa://36668 (54.67)</t>
+          <t>*maa://30709 (62.94), *maa://36668 (54.67)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.8), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (91.85), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>*maa://30968 (61.11), maa://39870 (100.0)</t>
+          <t>*maa://30968 (63.16), maa://39870 (100.0)</t>
         </is>
       </c>
       <c r="Q26" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.37), ***maa://39723 (14.29), maa://41749 (90.0)</t>
+          <t>maa://39929 (89.4), ***maa://39723 (14.29), maa://41749 (90.0)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (97.83)</t>
+          <t>maa://42979 (97.87)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.87), maa://36258 (82.42), maa://43904 (100.0)</t>
+          <t>maa://35926 (93.89), maa://36258 (82.42), maa://43904 (100.0)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.21), maa://36667 (98.31), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.22), maa://36667 (98.31), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.08), maa://41108 (87.76), maa://41238 (96.05)</t>
+          <t>maa://42859 (95.24), maa://41108 (87.76), maa://41238 (96.05)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.23)</t>
+          <t>maa://41296 (96.3)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.8)</t>
+          <t>maa://24709 (91.87)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>maa://24466 (93.18)</t>
+          <t>maa://24466 (93.33)</t>
         </is>
       </c>
       <c r="I41" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.39), *maa://43901 (80.0)</t>
+          <t>maa://35931 (92.42), *maa://43901 (80.0)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.14), maa://29661 (97.78), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.15), maa://29661 (97.78), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.47), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.49), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.55)</t>
+          <t>maa://32532 (92.58)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (71.21), ***maa://20792 (11.93), maa://39402 (86.49), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (71.21), ***maa://20792 (11.93), maa://39402 (86.84), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (90.48), maa://30381 (92.31)</t>
+          <t>maa://31836 (90.91), maa://30381 (92.31)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.1), *maa://22758 (72.88)</t>
+          <t>maa://22399 (95.14), *maa://22758 (72.88)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.07 23:48:34</t>
+          <t>更新日期：2024.12.08 13:18:47</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24371 (52.86)</t>
+          <t>*maa://24371 (53.52)</t>
         </is>
       </c>
       <c r="I8" s="1" t="n"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (85.15), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.15), **maa://22759 (45.45)</t>
+          <t>maa://32931 (85.15), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.3), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.9), **maa://22865 (50.0)</t>
+          <t>maa://26206 (89.0), **maa://22865 (50.0)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.1), **maa://32237 (41.46), ***maa://34206 (18.18), ***maa://39951 (17.5), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.55), **maa://32237 (40.48), ***maa://34206 (18.18), ***maa://39951 (17.5), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.75), *maa://22733 (59.38), maa://22761 (100.0)</t>
+          <t>*maa://25021 (53.09), *maa://22733 (59.38), maa://22761 (100.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.33), maa://22501 (98.51)</t>
+          <t>maa://22747 (93.38), maa://22501 (98.51)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.38), maa://21288 (96.24), maa://39841 (94.81), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.38), maa://21288 (96.24), maa://39841 (94.87), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.07), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.13), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.53), *maa://22766 (70.64), *maa://36666 (77.78)</t>
+          <t>maa://21364 (80.59), *maa://22766 (70.64), *maa://36666 (78.05)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.33), *maa://28648 (68.33), maa://36674 (82.5)</t>
+          <t>maa://22729 (95.33), *maa://28648 (68.33), maa://36674 (82.93)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (83.7)</t>
+          <t>maa://41331 (83.87)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368 (80.06)</t>
+          <t>*maa://24368 (79.83)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.55), maa://23504 (93.18), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (81.25), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.55), maa://23504 (93.18), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (81.54), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.23), ***maa://34960 (8.33), *maa://42865 (77.42)</t>
+          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (77.42)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (97.87)</t>
+          <t>maa://42979 (97.94)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.22), maa://36667 (98.31), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.22), maa://36667 (98.33), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.77), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.78), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.08 13:18:47</t>
+          <t>更新日期：2024.12.08 15:46:46</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.04)</t>
+          <t>maa://24570 (97.06)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.21), maa://24621 (96.55), maa://36676 (96.67), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.24), maa://24621 (96.55), maa://36676 (96.67), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.13)</t>
+          <t>maa://36697 (86.21)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.15), maa://29661 (97.78), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.15), maa://29661 (97.79), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6363,12 +6363,12 @@
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44405 (100.0)</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.22), maa://25390 (95.88), maa://36681 (86.84)</t>
+          <t>maa://24702 (94.22), maa://25390 (95.9), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (71.21), ***maa://20792 (11.93), maa://39402 (86.84), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (71.21), ***maa://20792 (11.93), maa://39402 (87.18), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.39), *maa://20791 (62.32)</t>
+          <t>maa://22742 (91.45), *maa://20791 (62.86)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (95.6), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (95.65), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.39), ***maa://21730 (19.4), ***maa://39501 (15.79), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.39), ***maa://21730 (19.4), ***maa://39501 (15.0), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (93.62), maa://40192 (96.67), maa://39849 (88.89)</t>
+          <t>maa://36987 (95.83), maa://40192 (100.0), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (67.42), maa://20276 (84.71), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (67.04), maa://20276 (84.71), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.55), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.57), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.79), **maa://20790 (44.78), ***maa://37170 (18.87)</t>
+          <t>maa://24617 (88.79), **maa://20790 (44.78), ***maa://37170 (18.52)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.69), maa://27484 (96.0), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.69), maa://27484 (96.04), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.89), maa://27295 (83.33), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.92), maa://27295 (83.33), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.67), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (88.89)</t>
+          <t>**maa://32495 (47.88), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (89.29)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (60.0), ***maa://26209 (13.04), *maa://39394 (68.18)</t>
+          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (68.18)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>*maa://22757 (76.67)</t>
+          <t>*maa://22757 (77.42)</t>
         </is>
       </c>
       <c r="M5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (93.75)</t>
+          <t>maa://42407 (93.94)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>maa://21955 (93.75)</t>
+          <t>maa://21955 (93.94)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.94), maa://24957 (97.62)</t>
+          <t>maa://28624 (93.02), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>maa://21291 (85.37)</t>
+          <t>maa://21291 (85.71)</t>
         </is>
       </c>
       <c r="U7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (67.95), *maa://36671 (70.21), *maa://42530 (66.67)</t>
+          <t>*maa://26191 (67.95), *maa://36671 (70.21), *maa://42530 (69.23)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.08 15:46:46</t>
+          <t>更新日期：2024.12.12 13:20:00</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (71.74), **maa://39431 (44.44), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (71.74), **maa://39431 (45.45), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24371 (53.52)</t>
+          <t>*maa://24371 (54.29)</t>
         </is>
       </c>
       <c r="I8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (91.95), *maa://21915 (68.0)</t>
+          <t>maa://22765 (92.05), *maa://21915 (68.0)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (91.76), maa://39552 (90.0)</t>
+          <t>maa://22762 (91.86), maa://39552 (90.0)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (80.9)</t>
+          <t>maa://22736 (81.11)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.77), maa://26222 (97.67)</t>
+          <t>**maa://22866 (30.19), maa://26222 (97.78)</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (86.73), ***maa://22740 (5.88), **maa://39938 (48.0), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (92.86)</t>
+          <t>maa://28711 (86.87), ***maa://22740 (5.88), **maa://39938 (48.0), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (93.33)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.55), **maa://32237 (40.48), ***maa://34206 (18.18), ***maa://39951 (17.5), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.44), **maa://32237 (40.48), ***maa://34206 (18.18), ***maa://39951 (17.5), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (91.36), maa://36669 (87.88), *maa://23264 (61.82)</t>
+          <t>maa://28977 (91.36), maa://36669 (88.24), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.93), maa://22755 (87.39), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.93), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.09), *maa://22733 (59.38), maa://22761 (100.0)</t>
+          <t>*maa://25021 (53.66), *maa://22733 (59.38), maa://22761 (100.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.38), maa://22501 (98.51)</t>
+          <t>maa://22747 (93.38), maa://22501 (98.53)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>maa://30766 (89.29), **maa://36678 (50.0)</t>
+          <t>maa://30766 (89.29), *maa://36678 (60.0)</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.19), *maa://21485 (76.87), maa://37962 (88.89)</t>
+          <t>maa://22753 (91.25), *maa://21485 (76.87), maa://37962 (88.89)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.34), maa://36677 (93.62), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.34), maa://36677 (93.75), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.7), maa://36673 (92.65), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.73), maa://36673 (92.65), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (78.69), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (79.03), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>maa://30764 (88.0)</t>
+          <t>maa://30764 (88.24)</t>
         </is>
       </c>
       <c r="E14" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.38), maa://21288 (96.24), maa://39841 (94.87), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.43), maa://21288 (96.27), maa://39841 (94.87), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.61), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.62), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (93.68), maa://42751 (100.0)</t>
+          <t>maa://22521 (93.75), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="X14" s="2" t="inlineStr">
         <is>
-          <t>maa://37468 (88.89)</t>
+          <t>maa://37468 (89.47)</t>
         </is>
       </c>
       <c r="Y14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (96.83)</t>
+          <t>maa://22764 (96.88)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.84), maa://22734 (83.9), *maa://30808 (63.93), ***maa://36048 (28.57)</t>
+          <t>*maa://22743 (76.84), maa://22734 (83.9), *maa://30808 (64.52), ***maa://36048 (28.57)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.5), maa://21478 (91.43)</t>
+          <t>maa://24304 (88.56), maa://21478 (91.43)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.59), *maa://22766 (70.64), *maa://36666 (78.05)</t>
+          <t>maa://21364 (80.59), *maa://22766 (70.64), *maa://36666 (78.31)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.28), maa://36679 (92.68), maa://37650 (96.88)</t>
+          <t>maa://21441 (96.28), maa://36679 (93.02), maa://37650 (96.88)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>maa://28504 (90.74)</t>
+          <t>maa://28504 (90.91)</t>
         </is>
       </c>
       <c r="Q16" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (45.83)</t>
+          <t>**maa://42324 (48.0)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.17)</t>
+          <t>maa://24421 (90.25)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.7), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.75), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AB18" s="2" t="inlineStr">
         <is>
-          <t>maa://24393 (97.5)</t>
+          <t>maa://24393 (97.56)</t>
         </is>
       </c>
       <c r="AC18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (98.99)</t>
+          <t>maa://24386 (99.0)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.94), *maa://36668 (54.67)</t>
+          <t>*maa://30709 (62.78), *maa://36668 (54.67)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.73), maa://25198 (92.93), *maa://20795 (51.18), maa://36680 (96.55)</t>
+          <t>maa://21432 (89.73), maa://25198 (93.0), *maa://20795 (51.18), maa://36680 (96.55)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (92.31)</t>
+          <t>maa://20110 (86.76), maa://34946 (92.5)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.53), *maa://22432 (76.67)</t>
+          <t>maa://22524 (94.55), *maa://22432 (76.67)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (86.0), *maa://22751 (73.85)</t>
+          <t>maa://27127 (85.15), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.45), *maa://37649 (68.0)</t>
+          <t>maa://21282 (98.46), *maa://37649 (68.0)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.36), *maa://41753 (54.55)</t>
+          <t>***maa://28036 (28.36), *maa://41753 (58.33)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.72), maa://39875 (93.55)</t>
+          <t>maa://39756 (93.78), maa://39875 (93.55)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.85), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (91.89), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="AB23" s="2" t="inlineStr">
         <is>
-          <t>maa://29652 (97.5)</t>
+          <t>maa://29652 (97.56)</t>
         </is>
       </c>
       <c r="AC23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.55), maa://23504 (93.18), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (81.54), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.61), maa://23504 (93.19), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (81.82), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.42), maa://36672 (80.39), maa://29910 (92.31), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.42), maa://36672 (80.77), maa://29910 (92.31), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (73.97), *maa://25311 (73.74), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (73.97), *maa://25311 (74.0), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.42), *maa://24516 (79.31), maa://26001 (87.5)</t>
+          <t>maa://31215 (85.42), *maa://24516 (79.55), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>maa://41802 (100.0)</t>
+          <t>maa://41802 (91.67)</t>
         </is>
       </c>
       <c r="E26" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.36)</t>
+          <t>maa://24913 (91.46)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (92.86)</t>
+          <t>maa://42235 (92.96)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AF26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (83.33), *maa://29760 (64.29)</t>
+          <t>maa://30511 (83.78), *maa://29760 (64.29)</t>
         </is>
       </c>
       <c r="AG26" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (76.0)</t>
+          <t>*maa://30624 (76.47)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AF27" s="2" t="inlineStr">
         <is>
-          <t>maa://24023 (97.01)</t>
+          <t>maa://24023 (97.06)</t>
         </is>
       </c>
       <c r="AG27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.72), maa://25725 (83.53)</t>
+          <t>maa://24465 (90.76), maa://25725 (83.53)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.85), *maa://29765 (61.33)</t>
+          <t>maa://23263 (94.85), *maa://29765 (60.53)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.4), ***maa://39723 (14.29), maa://41749 (90.0)</t>
+          <t>maa://39929 (89.51), ***maa://39723 (14.29), maa://41749 (90.0)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.09), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.11), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (54.72), **maa://30050 (50.0)</t>
+          <t>*maa://23168 (54.72), *maa://30050 (51.85)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (97.94)</t>
+          <t>maa://42979 (96.97)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.89), maa://36258 (82.42), maa://43904 (100.0)</t>
+          <t>maa://35926 (93.92), maa://36258 (82.98), *maa://43904 (80.0)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.24), maa://41108 (87.76), maa://41238 (96.05)</t>
+          <t>maa://42859 (95.52), maa://41108 (87.76), maa://41238 (96.1)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.3)</t>
+          <t>maa://41296 (96.4)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.21)</t>
+          <t>maa://36697 (85.88)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.87)</t>
+          <t>maa://24709 (92.0)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), *maa://43177 (80.0)</t>
+          <t>**maa://35616 (38.24), maa://43177 (81.82)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.54), maa://21284 (83.72)</t>
+          <t>maa://22525 (92.59), maa://21284 (83.72)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.78), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.79), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.42), *maa://43901 (80.0)</t>
+          <t>maa://35931 (92.42), maa://43901 (85.71)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.58)</t>
+          <t>maa://32532 (92.22)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (98.15)</t>
+          <t>maa://25176 (98.18)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (55.56)</t>
+          <t>*maa://37964 (57.14)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>maa://44405 (100.0)</t>
+          <t>**maa://44405 (50.0)</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (95.65), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (95.7), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (61.36), ***maa://26209 (13.04), *maa://39394 (68.18)</t>
+          <t>*maa://30062 (62.22), ***maa://26209 (13.04), *maa://39394 (68.18)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (82.94), maa://22744 (84.0)</t>
+          <t>maa://21245 (83.02), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.12 13:20:00</t>
+          <t>更新日期：2024.12.13 13:19:35</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (91.36), maa://36669 (88.24), *maa://23264 (61.82)</t>
+          <t>maa://28977 (91.36), maa://36669 (88.57), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.28), maa://36679 (93.02), maa://37650 (96.88)</t>
+          <t>maa://21441 (96.3), maa://36679 (93.02), maa://37650 (96.88)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.75), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.78), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (83.87)</t>
+          <t>maa://41331 (84.04)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>maa://38495 (81.82)</t>
+          <t>maa://38495 (83.33)</t>
         </is>
       </c>
       <c r="U22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.78), maa://39875 (93.55)</t>
+          <t>maa://39756 (93.8), maa://39875 (93.55)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.18)</t>
+          <t>maa://29753 (95.2)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (96.43), *maa://39601 (75.0), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.65), maa://34494 (96.43), *maa://39601 (76.47), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.97)</t>
+          <t>maa://42979 (97.03)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.52), maa://41108 (87.76), maa://41238 (96.1)</t>
+          <t>maa://42859 (95.59), maa://41108 (87.76), maa://41238 (96.1)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>maa://24375 (92.5)</t>
+          <t>maa://24375 (92.68)</t>
         </is>
       </c>
       <c r="I36" s="1" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.88)</t>
+          <t>maa://36697 (85.96)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (86.67)</t>
+          <t>maa://39366 (87.1)</t>
         </is>
       </c>
       <c r="U44" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.42), maa://43901 (85.71)</t>
+          <t>maa://35931 (92.45), maa://43901 (85.71)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>**maa://44405 (50.0)</t>
+          <t>maa://44405 (94.74)</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.39), ***maa://21730 (19.4), ***maa://39501 (15.0), *maa://36675 (60.0)</t>
+          <t>maa://25251 (91.4), ***maa://21730 (19.4), ***maa://39501 (15.0), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (96.43)</t>
+          <t>maa://24390 (96.49)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.92), maa://27295 (83.33), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.94), maa://27295 (83.33), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.13 13:19:35</t>
+          <t>更新日期：2024.12.14 13:22:12</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.83)</t>
+          <t>maa://21411 (95.86)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.0), **maa://22865 (50.0)</t>
+          <t>maa://26206 (89.11), **maa://22865 (50.0)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.34), maa://36677 (93.75), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.36), maa://36677 (93.75), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>*maa://21334 (51.85)</t>
+          <t>*maa://21334 (53.57)</t>
         </is>
       </c>
       <c r="M15" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (66.67)</t>
+          <t>*maa://28503 (67.16)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.61), maa://23504 (93.19), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (81.82), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.61), maa://23504 (93.21), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (81.82), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.59), maa://41108 (87.76), maa://41238 (96.1)</t>
+          <t>maa://42859 (95.65), maa://41108 (87.76), maa://41238 (96.1)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.4)</t>
+          <t>maa://41296 (96.43)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.29), *maa://21239 (72.73)</t>
+          <t>maa://21280 (88.83), *maa://21239 (72.73)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.55), maa://36670 (87.95), maa://30434 (89.06), ***maa://25036 (16.0)</t>
+          <t>maa://25199 (84.68), maa://36670 (87.95), maa://30434 (89.06), ***maa://25036 (16.0), **maa://44165 (50.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), maa://43177 (81.82)</t>
+          <t>**maa://35616 (38.24), maa://43177 (83.33)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (67.04), maa://20276 (84.71), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (66.67), maa://20276 (84.71), *maa://22749 (66.67)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.69), maa://27484 (96.04), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.69), maa://27484 (96.08), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (70.0), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
+          <t>*maa://29863 (70.97), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
         </is>
       </c>
       <c r="AC5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (93.94)</t>
+          <t>maa://42407 (94.12)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.14 13:22:12</t>
+          <t>更新日期：2024.12.15 13:19:36</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (85.15), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.3), **maa://22759 (45.45)</t>
+          <t>maa://32931 (85.29), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.3), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.86)</t>
+          <t>maa://21411 (95.87)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (91.36), maa://36669 (88.57), *maa://23264 (61.82)</t>
+          <t>maa://28977 (91.36), maa://36669 (88.89), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.38), maa://22501 (98.53)</t>
+          <t>maa://22747 (93.38), maa://22501 (98.55)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (90.12)</t>
+          <t>maa://21867 (90.18)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.25), *maa://21485 (76.87), maa://37962 (88.89)</t>
+          <t>maa://22753 (91.3), *maa://21485 (76.87), maa://37962 (88.89)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.73), maa://36673 (92.65), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.74), maa://36673 (92.65), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>maa://30764 (88.24)</t>
+          <t>maa://30764 (88.46)</t>
         </is>
       </c>
       <c r="E14" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.59), *maa://22766 (70.64), *maa://36666 (78.31)</t>
+          <t>maa://21364 (80.66), *maa://22766 (70.64), *maa://36666 (78.31)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.59), maa://39599 (85.71)</t>
+          <t>maa://22430 (88.59), maa://39599 (86.11)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (62.5)</t>
+          <t>*maa://21663 (61.54)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.73), maa://25198 (93.0), *maa://20795 (51.18), maa://36680 (96.55)</t>
+          <t>maa://21432 (89.8), maa://25198 (93.0), *maa://20795 (51.18), maa://36680 (96.55)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (88.97)</t>
+          <t>maa://22864 (89.04)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>maa://37442 (97.22)</t>
+          <t>maa://37442 (94.59)</t>
         </is>
       </c>
       <c r="Q20" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.36), *maa://41753 (58.33)</t>
+          <t>***maa://28036 (27.94), *maa://41753 (58.33)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.83)</t>
+          <t>*maa://24368 (79.6)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.61), maa://23504 (93.21), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (81.82), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.61), maa://23504 (93.23), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (81.82), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.2)</t>
+          <t>maa://29753 (95.22)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>maa://28071 (88.24)</t>
+          <t>maa://28071 (88.89)</t>
         </is>
       </c>
       <c r="M27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.76), maa://25725 (83.53)</t>
+          <t>maa://24465 (90.77), maa://25725 (83.53)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.51), ***maa://39723 (14.29), maa://41749 (90.0)</t>
+          <t>maa://39929 (89.58), ***maa://39723 (14.29), maa://41749 (90.0)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.22), maa://36667 (98.33), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.24), maa://36667 (98.33), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.65), maa://41108 (87.76), maa://41238 (96.1)</t>
+          <t>maa://42859 (95.77), maa://41108 (87.76), maa://41238 (96.1)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (88.83), *maa://21239 (72.73)</t>
+          <t>maa://21280 (88.89), *maa://21239 (72.73)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.15), maa://29661 (97.79), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.17), maa://29661 (97.81), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.45), *maa://20791 (62.86)</t>
+          <t>maa://22742 (91.5), *maa://20791 (62.86)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (91.4), ***maa://21730 (19.4), ***maa://39501 (15.0), *maa://36675 (60.0)</t>
+          <t>maa://25251 (91.49), ***maa://21730 (19.4), ***maa://39501 (19.05), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.4), *maa://22748 (75.0)</t>
+          <t>maa://21247 (98.4), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.67), maa://20276 (84.71), *maa://22749 (66.67)</t>
+          <t>*maa://22880 (65.93), maa://20276 (84.71), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (96.49)</t>
+          <t>maa://24390 (96.55)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.94), maa://27295 (83.33), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.94), maa://27295 (83.61), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.88), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (89.29)</t>
+          <t>**maa://32495 (47.69), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (89.66)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (83.02), maa://22744 (84.0)</t>
+          <t>maa://21245 (83.1), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (70.97), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
+          <t>*maa://29863 (71.88), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
         </is>
       </c>
       <c r="AC5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (94.12)</t>
+          <t>maa://42407 (94.44)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (67.95), *maa://36671 (70.21), *maa://42530 (69.23)</t>
+          <t>*maa://26191 (67.95), *maa://36671 (70.83), *maa://42530 (69.23)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.15 13:19:36</t>
+          <t>更新日期：2024.12.18 13:18:43</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.87)</t>
+          <t>maa://21411 (95.89)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AF8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.22), *maa://21990 (53.85)</t>
+          <t>*maa://24479 (77.78), *maa://21990 (53.85)</t>
         </is>
       </c>
       <c r="AG8" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.11), **maa://22865 (50.0)</t>
+          <t>maa://26206 (89.32), **maa://22865 (50.0)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.44), **maa://32237 (40.48), ***maa://34206 (18.18), ***maa://39951 (17.5), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.44), **maa://32237 (40.48), ***maa://34206 (18.18), ***maa://39951 (17.07), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.38), maa://22501 (98.55)</t>
+          <t>maa://22747 (93.42), maa://22501 (98.55)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.14)</t>
+          <t>maa://36713 (98.15)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.36), maa://36677 (93.75), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.36), maa://36677 (93.88), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.29), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.46), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.74), maa://36673 (92.65), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.75), maa://36673 (92.65), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.43), maa://21288 (96.27), maa://39841 (94.87), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.43), maa://21288 (96.27), maa://39841 (94.94), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="X14" s="2" t="inlineStr">
         <is>
-          <t>maa://37468 (89.47)</t>
+          <t>maa://37468 (90.0)</t>
         </is>
       </c>
       <c r="Y14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.84), maa://22734 (83.9), *maa://30808 (64.52), ***maa://36048 (28.57)</t>
+          <t>*maa://22743 (76.96), maa://22734 (83.9), *maa://30808 (64.52), ***maa://36048 (28.57)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.66), *maa://22766 (70.64), *maa://36666 (78.31)</t>
+          <t>maa://21364 (80.72), *maa://22766 (70.91), *maa://36666 (78.57)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.3), maa://36679 (93.02), maa://37650 (96.88)</t>
+          <t>maa://21441 (96.31), maa://36679 (93.02), maa://37650 (96.88)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.35)</t>
+          <t>maa://26228 (95.4)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (48.0)</t>
+          <t>**maa://42324 (46.15)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.06)</t>
+          <t>maa://24570 (97.07)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.25)</t>
+          <t>maa://24421 (90.3)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.65), *maa://22732 (50.6)</t>
+          <t>maa://22466 (88.73), *maa://22732 (50.6)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.78), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.8), maa://22741 (83.33)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.78), *maa://36668 (54.67)</t>
+          <t>*maa://30709 (62.96), *maa://36668 (55.84)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.8), maa://25198 (93.0), *maa://20795 (51.18), maa://36680 (96.55)</t>
+          <t>maa://21432 (89.86), maa://25198 (93.0), *maa://20795 (51.18), maa://36680 (96.55)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.04)</t>
+          <t>maa://22864 (89.12)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.04)</t>
+          <t>maa://41331 (84.21)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (79.94), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (80.0), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.55), *maa://22432 (76.67)</t>
+          <t>maa://22524 (94.58), *maa://22432 (76.67)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.8), maa://39875 (93.55)</t>
+          <t>maa://39756 (93.95), maa://39875 (93.65)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.89), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (91.94), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.6)</t>
+          <t>*maa://24368 (79.66)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.61), maa://23504 (93.23), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (81.82), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.67), maa://23504 (93.23), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.6), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.42), maa://36672 (80.77), maa://29910 (92.31), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.42), maa://36672 (80.77), maa://29910 (92.45), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.31), maa://22545 (100.0), maa://42915 (100.0)</t>
+          <t>maa://20109 (92.35), maa://22545 (100.0), maa://42915 (100.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="X25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29890 (75.61)</t>
+          <t>*maa://29890 (76.19)</t>
         </is>
       </c>
       <c r="Y25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.42), *maa://24516 (79.55), maa://26001 (87.5)</t>
+          <t>maa://31215 (85.57), *maa://24516 (79.78), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>maa://41802 (91.67)</t>
+          <t>maa://41802 (92.31)</t>
         </is>
       </c>
       <c r="E26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (92.96)</t>
+          <t>maa://42235 (93.15)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.65), maa://34494 (96.43), *maa://39601 (76.47), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.0), maa://34494 (96.43), *maa://39601 (76.47), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.85), *maa://29765 (60.53)</t>
+          <t>maa://23263 (94.9), *maa://29765 (60.53)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.58), ***maa://39723 (14.29), maa://41749 (90.0)</t>
+          <t>maa://39929 (89.68), ***maa://39723 (14.29), maa://41749 (90.2)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.83), *maa://36701 (64.29)</t>
+          <t>maa://36660 (92.88), *maa://36701 (64.29)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.11), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (92.81), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (97.03)</t>
+          <t>maa://42979 (96.23)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.92), maa://36258 (82.98), *maa://43904 (80.0)</t>
+          <t>maa://35926 (93.94), maa://36258 (83.16), *maa://43904 (71.43)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.77), maa://41108 (87.76), maa://41238 (96.1)</t>
+          <t>maa://42859 (96.1), maa://41108 (87.76), maa://41238 (96.1)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.52)</t>
+          <t>maa://24526 (93.55)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.43)</t>
+          <t>maa://41296 (96.49)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (85.96)</t>
+          <t>maa://36697 (86.19)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.68), maa://36670 (87.95), maa://30434 (89.06), ***maa://25036 (16.0), **maa://44165 (50.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (86.9), maa://30434 (89.06), ***maa://25036 (16.0), **maa://44165 (50.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (92.0)</t>
+          <t>maa://24709 (92.06)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), maa://43177 (83.33)</t>
+          <t>**maa://35616 (38.24), maa://43177 (84.62)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.45), maa://43901 (85.71)</t>
+          <t>maa://35931 (92.47), maa://43901 (87.5)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.17), maa://29661 (97.81), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.17), maa://29661 (97.83), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (82.86), maa://31270 (94.78)</t>
+          <t>maa://27746 (83.02), maa://31270 (94.78)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (57.14)</t>
+          <t>*maa://40438 (58.14)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (96.0), maa://43903 (100.0)</t>
+          <t>maa://42981 (96.15), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>maa://44405 (94.74)</t>
+          <t>maa://44405 (95.0)</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.5), *maa://20791 (62.86)</t>
+          <t>maa://22742 (91.56), *maa://20791 (62.86)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.4), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.41), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.93), maa://20276 (84.71), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.93), maa://20276 (84.81), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.94), maa://27295 (83.61), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.96), maa://27295 (83.61), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (83.1), maa://22744 (84.0)</t>
+          <t>maa://21245 (83.18), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (93.02), maa://24957 (97.62)</t>
+          <t>maa://28624 (93.1), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.18 13:18:43</t>
+          <t>更新日期：2024.12.19 13:19:06</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (86.87), ***maa://22740 (5.88), **maa://39938 (48.0), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (93.33)</t>
+          <t>maa://28711 (87.0), ***maa://22740 (5.88), **maa://39938 (48.0), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (93.33)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.93), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.95), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.42), maa://22501 (98.55)</t>
+          <t>maa://22747 (93.42), maa://22501 (98.57)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.3), *maa://21485 (76.87), maa://37962 (88.89)</t>
+          <t>maa://22753 (91.36), *maa://21485 (76.87), maa://37962 (88.89)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.46), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.63), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (31.88), maa://39883 (90.57), *maa://39885 (56.0)</t>
+          <t>**maa://22737 (32.37), maa://39883 (90.74), *maa://39885 (56.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.43), maa://21288 (96.27), maa://39841 (94.94), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.43), maa://21288 (96.27), maa://39841 (95.0), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (93.75), maa://42751 (100.0)</t>
+          <t>maa://22521 (93.81), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.96), maa://22734 (83.9), *maa://30808 (64.52), ***maa://36048 (28.57)</t>
+          <t>*maa://22743 (76.96), maa://22734 (83.9), *maa://30808 (64.52), **maa://36048 (31.82)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.13), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.2), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.72), *maa://22766 (70.91), *maa://36666 (78.57)</t>
+          <t>maa://21364 (80.84), *maa://22766 (70.91), *maa://36666 (78.57)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (65.0), maa://27755 (92.5)</t>
+          <t>*maa://23911 (65.35), maa://27755 (92.5)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>maa://21624 (82.35)</t>
+          <t>maa://21624 (82.86)</t>
         </is>
       </c>
       <c r="E17" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.59), maa://39599 (86.11)</t>
+          <t>maa://22430 (88.65), maa://39599 (86.11)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (46.15)</t>
+          <t>**maa://42324 (48.15)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.07)</t>
+          <t>maa://24570 (97.09)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.73), *maa://22732 (50.6)</t>
+          <t>maa://22466 (88.81), *maa://22732 (50.6)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (62.96), *maa://36668 (55.84)</t>
+          <t>*maa://30709 (63.05), *maa://36668 (55.84)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (80.0), ***maa://23820 (29.82)</t>
+          <t>maa://21443 (80.06), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>maa://38495 (83.33)</t>
+          <t>maa://38495 (84.62)</t>
         </is>
       </c>
       <c r="U22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.95), maa://39875 (93.65)</t>
+          <t>maa://39756 (93.98), maa://39875 (93.65)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.94), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (91.98), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>maa://24387 (81.58), maa://31212 (92.86)</t>
+          <t>maa://24387 (81.58), maa://31212 (93.1)</t>
         </is>
       </c>
       <c r="U23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.67), maa://23504 (93.23), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.6), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.67), maa://23504 (93.26), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.6), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.42), maa://36672 (80.77), maa://29910 (92.45), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.49), maa://36672 (80.77), maa://29910 (92.45), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.35), maa://22545 (100.0), maa://42915 (100.0)</t>
+          <t>maa://20109 (92.4), maa://22545 (100.0), maa://42915 (100.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="X26" s="2" t="inlineStr">
         <is>
-          <t>maa://24389 (96.15)</t>
+          <t>maa://24389 (96.3)</t>
         </is>
       </c>
       <c r="Y26" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.68), ***maa://39723 (14.29), maa://41749 (90.2)</t>
+          <t>maa://39929 (89.68), ***maa://39723 (14.29), maa://41749 (90.57)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.94), maa://36258 (83.16), *maa://43904 (71.43)</t>
+          <t>maa://35926 (93.96), maa://36258 (83.16), *maa://43904 (71.43)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.24), maa://36667 (98.33), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.25), maa://36667 (98.33), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.1), maa://41108 (87.76), maa://41238 (96.1)</t>
+          <t>maa://42859 (96.1), maa://41108 (87.76), maa://41238 (96.15)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.49)</t>
+          <t>maa://41296 (96.55)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (88.89), *maa://21239 (72.73)</t>
+          <t>maa://21280 (89.0), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (68.42)</t>
+          <t>*maa://24383 (67.71)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>maa://30713 (96.67)</t>
+          <t>maa://30713 (96.77)</t>
         </is>
       </c>
       <c r="U38" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (92.06)</t>
+          <t>maa://24709 (92.13)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.95), maa://21386 (95.74), maa://36664 (90.74)</t>
+          <t>maa://23278 (95.96), maa://21386 (95.74), maa://36664 (90.74)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.59), maa://21284 (83.72)</t>
+          <t>maa://22525 (92.65), maa://21284 (83.72)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.78), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (66.67)</t>
+          <t>maa://21229 (84.78), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (71.43)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>*maa://36237 (61.54)</t>
+          <t>*maa://36237 (64.29)</t>
         </is>
       </c>
       <c r="Q45" s="1" t="n"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (36.84)</t>
+          <t>**maa://39364 (35.0)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.17), maa://29661 (97.83), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.18), maa://29661 (97.83), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (57.14)</t>
+          <t>*maa://37964 (55.17)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (58.14)</t>
+          <t>*maa://40438 (59.09)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.22), maa://25390 (95.9), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.24), maa://25390 (95.9), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (71.21), ***maa://20792 (11.93), maa://39402 (87.18), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (72.06), ***maa://20792 (11.93), maa://39402 (87.18), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.56), *maa://20791 (62.86)</t>
+          <t>maa://22742 (91.61), *maa://20791 (62.86)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.57), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.59), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.79), **maa://20790 (44.78), ***maa://37170 (18.52)</t>
+          <t>maa://24617 (88.89), **maa://20790 (44.78), ***maa://37170 (18.52)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.69), maa://27484 (96.08), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.42), maa://27484 (96.08), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.96), maa://27295 (83.61), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.98), maa://27295 (83.61), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.69), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (89.66)</t>
+          <t>**maa://32495 (47.89), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (89.66)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (62.22), ***maa://26209 (13.04), *maa://39394 (68.18)</t>
+          <t>*maa://30062 (63.04), ***maa://26209 (13.04), *maa://39394 (68.18)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>maa://24370 (96.49)</t>
+          <t>maa://24370 (96.55)</t>
         </is>
       </c>
       <c r="I6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.14), *maa://22758 (72.88)</t>
+          <t>maa://22399 (95.17), *maa://22758 (73.33)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.19 13:19:06</t>
+          <t>更新日期：2024.12.20 08:28:42</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.95), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.98), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.58), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.6), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.42), maa://22501 (98.57)</t>
+          <t>maa://22747 (93.42), maa://22501 (98.59)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.74), *maa://22583 (75.81), *maa://22500 (57.78)</t>
+          <t>maa://22676 (91.82), *maa://22583 (75.81), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.96), maa://22734 (83.9), *maa://30808 (64.52), **maa://36048 (31.82)</t>
+          <t>*maa://22743 (76.96), maa://22734 (83.9), *maa://30808 (64.52), **maa://36048 (33.33)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.65), maa://39599 (86.11)</t>
+          <t>maa://22430 (88.65), maa://39599 (86.49)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (61.54)</t>
+          <t>*maa://21663 (62.12)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (92.5)</t>
+          <t>maa://20110 (86.76), maa://34946 (92.68)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.06), ***maa://23820 (29.82)</t>
+          <t>maa://21443 (80.11), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.98), maa://39875 (93.65)</t>
+          <t>maa://39756 (94.0), maa://39875 (93.75)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.67), maa://23504 (93.26), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.6), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.67), maa://23504 (93.28), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.6), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (73.97), *maa://25311 (74.0), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (73.47), *maa://25311 (74.0), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.24), maa://24621 (96.55), maa://36676 (96.67), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.24), maa://24621 (96.58), maa://36676 (96.67), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.68), ***maa://39723 (14.29), maa://41749 (90.57)</t>
+          <t>maa://39929 (89.68), ***maa://39723 (14.29), maa://41749 (90.74)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (77.42)</t>
+          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (78.12)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.25), maa://36667 (98.33), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.27), maa://36667 (98.33), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.0), *maa://21239 (66.67)</t>
+          <t>maa://21280 (89.05), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (86.9), maa://30434 (89.06), ***maa://25036 (16.0), **maa://44165 (50.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.06), maa://30434 (89.23), ***maa://25036 (16.0), **maa://44165 (50.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.78), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (71.43)</t>
+          <t>maa://21229 (84.78), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (75.0)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.47), maa://43901 (87.5)</t>
+          <t>maa://35931 (92.5), maa://43901 (87.5)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.49), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.52), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.22), maa://25390 (95.9), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.24), maa://25390 (95.9), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (71.21), ***maa://20792 (11.93), maa://39402 (87.18), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (72.06), ***maa://20792 (11.93), maa://39402 (87.18), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.56), *maa://20791 (62.86)</t>
+          <t>maa://22742 (91.61), *maa://20791 (62.86)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.57), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.59), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.79), **maa://20790 (44.78), ***maa://37170 (18.52)</t>
+          <t>maa://24617 (88.89), **maa://20790 (44.78), ***maa://37170 (18.52)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.69), maa://27484 (96.08), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.42), maa://27484 (96.08), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.96), maa://27295 (83.61), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (97.98), maa://27295 (83.61), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.69), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (89.66)</t>
+          <t>**maa://32495 (47.89), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (89.66)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (62.22), ***maa://26209 (13.04), *maa://39394 (68.18)</t>
+          <t>*maa://30062 (63.04), ***maa://26209 (13.04), *maa://39394 (68.18)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>maa://24370 (96.49)</t>
+          <t>maa://24370 (96.55)</t>
         </is>
       </c>
       <c r="I6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.14), *maa://22758 (72.88)</t>
+          <t>maa://22399 (95.17), *maa://22758 (73.33)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.19 13:19:06</t>
+          <t>更新日期：2024.12.20 08:32:28</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.95), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (95.98), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.58), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.6), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.42), maa://22501 (98.57)</t>
+          <t>maa://22747 (93.42), maa://22501 (98.59)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.74), *maa://22583 (75.81), *maa://22500 (57.78)</t>
+          <t>maa://22676 (91.82), *maa://22583 (75.81), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.96), maa://22734 (83.9), *maa://30808 (64.52), **maa://36048 (31.82)</t>
+          <t>*maa://22743 (76.96), maa://22734 (83.9), *maa://30808 (64.52), **maa://36048 (33.33)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.65), maa://39599 (86.11)</t>
+          <t>maa://22430 (88.65), maa://39599 (86.49)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (61.54)</t>
+          <t>*maa://21663 (62.12)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (92.5)</t>
+          <t>maa://20110 (86.76), maa://34946 (92.68)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.06), ***maa://23820 (29.82)</t>
+          <t>maa://21443 (80.11), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (93.98), maa://39875 (93.65)</t>
+          <t>maa://39756 (94.0), maa://39875 (93.75)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.67), maa://23504 (93.26), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.6), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.67), maa://23504 (93.28), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.6), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (73.97), *maa://25311 (74.0), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (73.47), *maa://25311 (74.0), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.24), maa://24621 (96.55), maa://36676 (96.67), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.24), maa://24621 (96.58), maa://36676 (96.67), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.68), ***maa://39723 (14.29), maa://41749 (90.57)</t>
+          <t>maa://39929 (89.68), ***maa://39723 (14.29), maa://41749 (90.74)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (77.42)</t>
+          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (78.12)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.25), maa://36667 (98.33), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.27), maa://36667 (98.33), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.0), *maa://21239 (66.67)</t>
+          <t>maa://21280 (89.05), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (86.9), maa://30434 (89.06), ***maa://25036 (16.0), **maa://44165 (50.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.06), maa://30434 (89.23), ***maa://25036 (16.0), **maa://44165 (50.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.78), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (71.43)</t>
+          <t>maa://21229 (84.78), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (75.0)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.47), maa://43901 (87.5)</t>
+          <t>maa://35931 (92.5), maa://43901 (87.5)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.49), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.52), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (91.49), ***maa://21730 (19.4), ***maa://39501 (19.05), *maa://36675 (60.0)</t>
+          <t>maa://25251 (91.58), ***maa://21730 (20.59), ***maa://39501 (19.05), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.59), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.62), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (96.55)</t>
+          <t>maa://24390 (96.61)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.98), maa://27295 (83.61), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (98.0), maa://27295 (83.61), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.89), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (89.66)</t>
+          <t>**maa://32495 (48.09), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (90.0)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (83.18), maa://22744 (84.0)</t>
+          <t>maa://21245 (83.41), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>*maa://22757 (77.42)</t>
+          <t>*maa://22757 (78.12)</t>
         </is>
       </c>
       <c r="M5" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (90.91), maa://30381 (92.31)</t>
+          <t>maa://31836 (91.3), maa://30381 (92.31)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>maa://21291 (85.71)</t>
+          <t>maa://21291 (86.05)</t>
         </is>
       </c>
       <c r="U7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.20 08:32:28</t>
+          <t>更新日期：2024.12.21 13:17:14</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (85.29), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.3), **maa://22759 (45.45)</t>
+          <t>maa://32931 (85.44), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.3), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (91.36), maa://36669 (88.89), *maa://23264 (61.82)</t>
+          <t>maa://28977 (91.36), maa://36669 (89.19), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.6), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.61), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (88.3)</t>
+          <t>maa://21287 (88.42)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.15)</t>
+          <t>maa://36713 (98.16)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (90.18)</t>
+          <t>maa://21867 (89.63)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.36), *maa://21485 (76.87), maa://37962 (88.89)</t>
+          <t>maa://22753 (91.41), *maa://21485 (76.87), maa://37962 (88.89)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.36), maa://36677 (93.88), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.37), maa://36677 (93.88), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.75), maa://36673 (92.65), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.77), maa://36673 (92.65), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.43), maa://21288 (96.27), maa://39841 (95.0), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.48), maa://21288 (96.3), maa://39841 (95.0), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="X14" s="2" t="inlineStr">
         <is>
-          <t>maa://37468 (90.0)</t>
+          <t>maa://37468 (90.48)</t>
         </is>
       </c>
       <c r="Y14" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.31), maa://36679 (93.02), maa://37650 (96.88)</t>
+          <t>maa://21441 (96.33), maa://36679 (93.02), maa://37650 (96.88)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.33), *maa://28648 (68.33), maa://36674 (82.93)</t>
+          <t>maa://22729 (95.36), *maa://28648 (68.33), maa://36674 (82.93)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.09)</t>
+          <t>maa://24570 (97.1)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (99.0)</t>
+          <t>maa://24386 (99.02)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.86), maa://25198 (93.0), *maa://20795 (51.18), maa://36680 (96.55)</t>
+          <t>maa://21432 (89.86), maa://25198 (93.07), *maa://20795 (51.18), maa://36680 (96.55)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.12)</t>
+          <t>maa://22864 (89.19)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.21)</t>
+          <t>maa://41331 (84.54)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.58), *maa://22432 (76.67)</t>
+          <t>maa://22524 (94.61), *maa://22432 (76.67)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.0), maa://39875 (93.75)</t>
+          <t>maa://39756 (94.02), maa://39875 (93.75)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.66)</t>
+          <t>*maa://24368 (79.72)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.49), maa://36672 (80.77), maa://29910 (92.45), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.57), maa://36672 (80.77), maa://29910 (92.45), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.22)</t>
+          <t>maa://29753 (94.86)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.57), *maa://24516 (79.78), maa://26001 (87.5)</t>
+          <t>maa://31215 (85.71), *maa://24516 (79.78), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.68), ***maa://39723 (14.29), maa://41749 (90.74)</t>
+          <t>maa://39929 (89.71), ***maa://39723 (14.29), maa://41749 (90.74)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.88), *maa://36701 (64.29)</t>
+          <t>maa://36660 (92.9), *maa://36701 (64.29)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (92.81), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (92.83), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.23)</t>
+          <t>maa://42979 (96.26)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.55)</t>
+          <t>maa://41296 (96.61)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>maa://27613 (99.02)</t>
+          <t>maa://27613 (99.03)</t>
         </is>
       </c>
       <c r="U36" s="1" t="n"/>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.96), maa://21386 (95.74), maa://36664 (90.74)</t>
+          <t>maa://23278 (95.97), maa://21386 (95.74), maa://36664 (90.74)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (98.18)</t>
+          <t>maa://25176 (98.21)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (59.09)</t>
+          <t>*maa://40438 (60.0)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (96.15), maa://43903 (100.0)</t>
+          <t>maa://42981 (96.3), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>maa://44405 (95.0)</t>
+          <t>maa://44405 (95.24)</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.24), maa://25390 (95.9), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.24), maa://25390 (95.92), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (72.06), ***maa://20792 (11.93), maa://39402 (87.18), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (72.06), ***maa://20792 (11.93), maa://39402 (87.5), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.93), maa://20276 (84.81), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (66.12), maa://20276 (84.81), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.89), **maa://20790 (44.78), ***maa://37170 (18.52)</t>
+          <t>maa://24617 (88.89), **maa://20790 (44.78), ***maa://37170 (20.0)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.42), maa://27484 (96.08), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.42), maa://27484 (96.12), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.24), **maa://24303 (33.33), maa://22499 (85.71), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.24), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>maa://21955 (93.94)</t>
+          <t>maa://21955 (94.12)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.21 13:17:14</t>
+          <t>更新日期：2024.12.22 13:16:54</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (71.74), **maa://39431 (45.45), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (72.34), **maa://39431 (45.45), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (85.44), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.3), **maa://22759 (45.45)</t>
+          <t>maa://32931 (84.62), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.3), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.89)</t>
+          <t>maa://21411 (95.91)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (81.11)</t>
+          <t>maa://22736 (81.32)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.44)</t>
+          <t>maa://26223 (97.46)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.32), **maa://22865 (50.0)</t>
+          <t>maa://26206 (89.32), *maa://22865 (50.98)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.44), **maa://32237 (40.48), ***maa://34206 (18.18), ***maa://39951 (17.07), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.44), **maa://32237 (40.48), ***maa://34206 (21.74), ***maa://39951 (17.07), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.37), maa://36677 (93.88), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.39), maa://36677 (93.88), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.63), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.79), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (79.03), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (79.37), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.48), maa://21288 (96.3), maa://39841 (95.0), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.5), maa://21288 (96.3), maa://39841 (95.06), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.96), maa://22734 (83.9), *maa://30808 (64.52), **maa://36048 (33.33)</t>
+          <t>*maa://22743 (76.96), maa://22734 (84.03), *maa://30808 (64.52), **maa://36048 (33.33)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.2), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.26), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.84), *maa://22766 (70.91), *maa://36666 (78.57)</t>
+          <t>maa://21364 (80.91), *maa://22766 (70.91), *maa://36666 (78.57)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.3)</t>
+          <t>maa://24421 (90.34)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (99.02)</t>
+          <t>maa://24386 (99.04)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (63.05), *maa://36668 (55.84)</t>
+          <t>*maa://30709 (63.14), *maa://36668 (55.84)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.19)</t>
+          <t>maa://22864 (89.26)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.61), *maa://22432 (76.67)</t>
+          <t>maa://22524 (94.63), *maa://22432 (76.67)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (85.15), *maa://22751 (73.85)</t>
+          <t>maa://27127 (85.29), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.46), *maa://37649 (68.0)</t>
+          <t>maa://21282 (98.46), *maa://37649 (69.23)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.02), maa://39875 (93.75)</t>
+          <t>maa://39756 (94.05), maa://39875 (93.75)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.98), *maa://29748 (75.59), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (91.98), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.67), maa://23504 (93.28), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.6), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.73), maa://23504 (93.28), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.6), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (73.47), *maa://25311 (74.0), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (73.65), *maa://25311 (74.0), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.24), maa://24621 (96.58), maa://36676 (96.67), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.27), maa://24621 (96.58), maa://36676 (96.67), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (93.15)</t>
+          <t>maa://42235 (93.24)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.9), *maa://29765 (60.53)</t>
+          <t>maa://23263 (94.95), *maa://29765 (60.53)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.71), ***maa://39723 (14.29), maa://41749 (90.74)</t>
+          <t>maa://39929 (89.74), ***maa://39723 (14.29), maa://41749 (90.74)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (92.83), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (92.86), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (78.12)</t>
+          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (78.79)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.96), maa://36258 (83.16), *maa://43904 (71.43)</t>
+          <t>maa://35926 (93.98), maa://36258 (83.16), *maa://43904 (71.43)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.06), maa://30434 (89.23), ***maa://25036 (16.0), **maa://44165 (50.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.21), maa://30434 (89.23), ***maa://25036 (16.0), **maa://44165 (50.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), maa://43177 (84.62)</t>
+          <t>**maa://35616 (38.24), maa://43177 (85.71)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.78), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (75.0)</t>
+          <t>maa://21229 (84.86), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (75.0)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.18), maa://29661 (97.83), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.18), maa://29661 (97.84), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (72.06), ***maa://20792 (11.93), maa://39402 (87.5), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (72.06), ***maa://20792 (11.93), maa://39402 (87.8), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.22 13:16:54</t>
+          <t>更新日期：2024.12.23 13:18:33</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.4)</t>
+          <t>maa://36707 (99.41)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.82), *maa://22583 (75.81), *maa://22500 (57.78)</t>
+          <t>maa://22676 (91.82), *maa://22583 (76.19), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (65.35), maa://27755 (92.5)</t>
+          <t>*maa://23911 (65.35), maa://27755 (92.59)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (63.14), *maa://36668 (55.84)</t>
+          <t>*maa://30709 (63.24), *maa://36668 (55.84)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.26)</t>
+          <t>maa://22864 (89.33)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.05), maa://39875 (93.75)</t>
+          <t>maa://39756 (94.07), maa://39875 (93.75)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.74), ***maa://39723 (14.29), maa://41749 (90.74)</t>
+          <t>maa://39929 (89.74), ***maa://39723 (14.29), maa://41749 (90.91)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (92.86), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (92.88), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.61)</t>
+          <t>maa://41296 (96.64)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.97), maa://21386 (95.74), maa://36664 (90.74)</t>
+          <t>maa://23278 (95.99), maa://21386 (95.74), maa://36664 (90.74)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.79), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.8), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.18), maa://29661 (97.84), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.19), maa://29661 (97.84), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.52), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.54), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>maa://44405 (95.24)</t>
+          <t>maa://44405 (95.45)</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.24), maa://25390 (95.92), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.27), maa://25390 (95.92), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (91.58), ***maa://21730 (20.59), ***maa://39501 (19.05), *maa://36675 (60.0)</t>
+          <t>maa://25251 (91.67), ***maa://21730 (20.59), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.12), maa://20276 (84.81), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.76), maa://20276 (84.91), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.89), **maa://20790 (44.78), ***maa://37170 (20.0)</t>
+          <t>maa://24617 (88.99), **maa://20790 (44.78), ***maa://37170 (19.3)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.42), maa://27484 (96.12), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.42), maa://27484 (96.15), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.24), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.29), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (71.88), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
+          <t>*maa://29863 (69.7), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
         </is>
       </c>
       <c r="AC5" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.23 13:18:33</t>
+          <t>更新日期：2024.12.24 13:17:51</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.91)</t>
+          <t>maa://21411 (95.92)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.46)</t>
+          <t>maa://26223 (97.48)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (91.36), maa://36669 (89.19), *maa://23264 (61.82)</t>
+          <t>maa://28977 (91.36), maa://36669 (89.47), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (95.98), maa://22755 (87.5), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.0), maa://22755 (87.61), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.61), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.62), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.96), maa://22734 (84.03), *maa://30808 (64.52), **maa://36048 (33.33)</t>
+          <t>*maa://22743 (76.96), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (33.33)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.36), *maa://28648 (68.33), maa://36674 (82.93)</t>
+          <t>maa://22729 (95.39), *maa://28648 (68.33), maa://36674 (82.93)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.65), maa://39599 (86.49)</t>
+          <t>maa://22430 (88.65), maa://39599 (86.84)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.34)</t>
+          <t>maa://24421 (90.38)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (99.04)</t>
+          <t>maa://24386 (99.05)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.86), maa://25198 (93.07), *maa://20795 (51.18), maa://36680 (96.55)</t>
+          <t>maa://21432 (89.86), maa://25198 (93.07), *maa://20795 (51.18), maa://36680 (96.67)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.07), maa://39875 (93.75)</t>
+          <t>maa://39756 (94.12), maa://39875 (93.75)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.98), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (92.02), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.73), maa://23504 (93.28), **maa://22892 (39.58), *maa://25141 (77.6), maa://36663 (80.6), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.73), maa://23504 (93.28), **maa://22892 (39.58), *maa://25141 (76.98), maa://36663 (80.6), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.57), maa://36672 (80.77), maa://29910 (92.45), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.64), maa://36672 (80.77), maa://29910 (92.45), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.74), ***maa://39723 (14.29), maa://41749 (90.91)</t>
+          <t>maa://39929 (89.84), ***maa://39723 (14.29), maa://41749 (90.91)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.9), *maa://36701 (64.29)</t>
+          <t>maa://36660 (92.93), *maa://36701 (64.29)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.26)</t>
+          <t>maa://42979 (96.3)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.98), maa://36258 (83.16), *maa://43904 (71.43)</t>
+          <t>maa://35926 (93.98), maa://36258 (83.16), *maa://43904 (75.0)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.1), maa://41108 (87.76), maa://41238 (96.15)</t>
+          <t>maa://42859 (96.2), maa://41108 (87.76), maa://41238 (96.15)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.21), maa://30434 (89.23), ***maa://25036 (16.0), **maa://44165 (50.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.21), maa://30434 (89.23), ***maa://25036 (16.0), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.5), maa://43901 (87.5)</t>
+          <t>maa://35931 (92.5), maa://43901 (88.89)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (55.48), *maa://30515 (69.0), *maa://34787 (72.06), ***maa://20792 (11.93), maa://39402 (87.8), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (72.46), ***maa://20792 (11.93), maa://39402 (88.37), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.61), *maa://20791 (62.86)</t>
+          <t>maa://22742 (91.67), *maa://20791 (63.38)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (95.7), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (95.74), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (91.67), ***maa://21730 (20.59), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
+          <t>maa://25251 (91.75), ***maa://21730 (21.74), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.41), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.44), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.76), maa://20276 (84.91), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.95), maa://20276 (85.0), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.62), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.22), maa://26254 (95.83)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.42), maa://27484 (96.15), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.52), maa://27484 (96.15), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (96.61)</t>
+          <t>maa://24390 (93.55)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.29), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.33), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (98.0), maa://27295 (83.61), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (98.04), maa://27295 (83.87), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.09), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (90.0)</t>
+          <t>**maa://32495 (47.91), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (90.32)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (83.41), maa://22744 (84.0)</t>
+          <t>maa://21245 (83.49), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>*maa://22757 (78.12)</t>
+          <t>*maa://22757 (78.79)</t>
         </is>
       </c>
       <c r="M5" s="1" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (69.7), ***maa://22752 (13.33), **maa://26013 (42.86)</t>
+          <t>*maa://29863 (67.65), ***maa://22752 (12.5), **maa://26013 (37.5)</t>
         </is>
       </c>
       <c r="AC5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (94.44)</t>
+          <t>maa://42407 (94.59)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (99.28)</t>
+          <t>maa://24839 (99.29)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>*maa://22763 (67.86)</t>
+          <t>*maa://22763 (68.97)</t>
         </is>
       </c>
       <c r="I7" s="1" t="n"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>maa://21291 (86.05)</t>
+          <t>maa://21291 (84.09)</t>
         </is>
       </c>
       <c r="U7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (67.95), *maa://36671 (70.83), *maa://42530 (69.23)</t>
+          <t>*maa://26191 (67.95), *maa://36671 (69.39), *maa://42530 (64.29)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.24 13:17:51</t>
+          <t>更新日期：2024.12.29 14:56:16</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (84.62), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.3), **maa://22759 (45.45)</t>
+          <t>maa://32931 (84.62), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.43), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (81.32)</t>
+          <t>maa://22736 (81.52)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.0), ***maa://22740 (5.88), **maa://39938 (48.0), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (93.33)</t>
+          <t>maa://28711 (87.25), ***maa://22740 (5.77), **maa://39938 (48.0), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (93.33)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.32), *maa://22865 (50.98)</t>
+          <t>maa://26206 (89.32), *maa://22865 (51.92)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>**maa://24395 (42.31)</t>
+          <t>**maa://24395 (40.74)</t>
         </is>
       </c>
       <c r="M10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.0), maa://22755 (87.61), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.07), maa://22755 (87.61), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.62), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.63), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.66), *maa://22733 (59.38), maa://22761 (100.0)</t>
+          <t>*maa://25021 (54.22), *maa://22733 (59.38), maa://22761 (100.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.42), maa://22501 (98.59)</t>
+          <t>maa://22747 (92.81), maa://22501 (98.59)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.16)</t>
+          <t>maa://36713 (98.17)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
-          <t>maa://29912 (100.0), maa://22516 (89.41), *maa://20794 (52.24)</t>
+          <t>maa://29912 (100.0), maa://22516 (88.37), *maa://20794 (52.24)</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.63)</t>
+          <t>maa://21867 (89.7)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.41), *maa://21485 (76.87), maa://37962 (88.89)</t>
+          <t>maa://22753 (91.46), *maa://21485 (76.87), maa://37962 (89.66)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.39), maa://36677 (93.88), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.41), maa://36677 (92.16), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.77), maa://36673 (92.65), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.79), maa://36673 (92.65), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.82), *maa://22583 (76.19), *maa://22500 (57.78)</t>
+          <t>maa://22676 (91.82), *maa://22583 (75.0), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.5), maa://21288 (96.3), maa://39841 (95.06), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.53), maa://21288 (96.3), maa://39841 (95.12), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (76.96), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (33.33)</t>
+          <t>*maa://22743 (77.32), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (33.33)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.56), maa://21478 (91.43)</t>
+          <t>maa://24304 (88.18), maa://21478 (91.43)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.26), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.32), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.33), maa://36679 (93.02), maa://37650 (96.88)</t>
+          <t>maa://21441 (96.35), maa://36679 (93.02), maa://37650 (96.97)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (65.35), maa://27755 (92.59)</t>
+          <t>*maa://23911 (65.69), maa://27755 (92.68)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.65), maa://39599 (86.84)</t>
+          <t>maa://22430 (88.71), maa://39599 (86.84)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>maa://23890 (80.81), *maa://24940 (67.86)</t>
+          <t>maa://23890 (81.0), *maa://24940 (67.86)</t>
         </is>
       </c>
       <c r="Q17" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.38)</t>
+          <t>maa://24421 (90.46)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.81), *maa://22732 (50.6)</t>
+          <t>maa://22466 (88.89), *maa://22732 (50.6)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (57.59), **maa://29784 (44.44)</t>
+          <t>*maa://24313 (57.86), **maa://29784 (44.44)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (63.24), *maa://36668 (55.84)</t>
+          <t>*maa://30709 (63.5), *maa://36668 (55.84)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (62.12)</t>
+          <t>*maa://21663 (61.19)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.86), maa://25198 (93.07), *maa://20795 (51.18), maa://36680 (96.67)</t>
+          <t>maa://21432 (89.86), maa://25198 (93.14), *maa://20795 (51.18), maa://36680 (96.67)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.54)</t>
+          <t>maa://41331 (84.69)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.74)</t>
+          <t>maa://24372 (96.77)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (27.94), *maa://41753 (58.33)</t>
+          <t>***maa://28036 (27.54), *maa://41753 (53.85)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.12), maa://39875 (93.75)</t>
+          <t>maa://39756 (94.21), maa://39875 (93.75)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (67.16)</t>
+          <t>*maa://28503 (66.18)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.72)</t>
+          <t>*maa://24368 (79.55)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.73), maa://23504 (93.28), **maa://22892 (39.58), *maa://25141 (76.98), maa://36663 (80.6), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.84), maa://23504 (93.33), **maa://22892 (39.58), *maa://25141 (76.98), *maa://36663 (79.41), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.64), maa://36672 (80.77), maa://29910 (92.45), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.64), maa://36672 (80.77), maa://29910 (92.59), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (94.86)</t>
+          <t>maa://29753 (94.88)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (73.65), *maa://25311 (74.0), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (73.65), *maa://25311 (73.27), ***maa://22725 (4.84)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.84), ***maa://39723 (14.29), maa://41749 (90.91)</t>
+          <t>maa://39929 (89.91), ***maa://39723 (14.29), maa://41749 (91.07)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.93), *maa://36701 (64.29)</t>
+          <t>maa://36660 (92.97), *maa://36701 (64.29)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (92.88), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (92.9), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (54.72), *maa://30050 (51.85)</t>
+          <t>*maa://23168 (54.72), *maa://30050 (51.72)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (78.79)</t>
+          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (76.47)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4400,12 +4400,12 @@
       </c>
       <c r="AA30" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.3)</t>
+          <t>maa://42979 (96.36), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.98), maa://36258 (83.16), *maa://43904 (75.0)</t>
+          <t>maa://35926 (93.63), maa://36258 (83.33), *maa://43904 (77.78)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.27), maa://36667 (98.33), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.28), maa://36667 (98.39), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.2), maa://41108 (87.76), maa://41238 (96.15)</t>
+          <t>maa://42859 (96.34), maa://41108 (87.76), maa://41238 (96.2)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.55)</t>
+          <t>maa://24526 (93.57)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.64)</t>
+          <t>maa://41296 (96.67)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.05), *maa://21239 (66.67)</t>
+          <t>maa://21280 (89.11), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (67.71)</t>
+          <t>*maa://24383 (68.04)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.21), maa://30434 (89.23), ***maa://25036 (16.0), *maa://44165 (66.67)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.5), maa://30434 (89.39), ***maa://25036 (16.0), *maa://44165 (66.67), maa://45059 (100.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (92.13)</t>
+          <t>maa://24709 (91.41)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.8), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.83), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.86), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (75.0)</t>
+          <t>maa://21229 (84.86), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (77.78)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (35.0)</t>
+          <t>**maa://39364 (38.1)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.22)</t>
+          <t>maa://32532 (92.25)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.02), maa://31270 (94.78)</t>
+          <t>maa://27746 (83.02), maa://31270 (94.83)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (60.0)</t>
+          <t>*maa://40438 (60.87)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (96.3), maa://43903 (100.0)</t>
+          <t>maa://42981 (96.43), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>maa://44405 (95.45)</t>
+          <t>maa://44405 (91.3)</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.27), maa://25390 (95.92), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.27), maa://25390 (95.93), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (72.46), ***maa://20792 (11.93), maa://39402 (88.37), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (72.86), ***maa://20792 (11.93), maa://39402 (88.37), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (91.75), ***maa://21730 (21.74), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
+          <t>maa://25251 (91.75), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.44), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.45), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.22), maa://26254 (95.83)</t>
+          <t>maa://21249 (94.22), maa://26254 (96.0)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.33), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.38), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (93.1), maa://24957 (97.62)</t>
+          <t>maa://28624 (93.18), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (67.95), *maa://36671 (69.39), *maa://42530 (64.29)</t>
+          <t>*maa://26191 (68.35), *maa://36671 (69.39), *maa://42530 (64.29)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.29 14:56:16</t>
+          <t>更新日期：2024.12.31 13:17:57</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.92)</t>
+          <t>maa://21411 (95.93)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.44), **maa://32237 (40.48), ***maa://34206 (21.74), ***maa://39951 (17.07), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.44), **maa://32237 (40.48), ***maa://34206 (21.74), ***maa://39951 (16.67), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.7)</t>
+          <t>maa://21867 (89.76)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.41), maa://36677 (92.16), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.41), maa://36677 (92.31), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.82), *maa://22583 (75.0), *maa://22500 (57.78)</t>
+          <t>maa://22676 (91.96), *maa://22583 (75.0), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (79.37), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (79.69), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>maa://23892 (98.68)</t>
+          <t>maa://23892 (97.4)</t>
         </is>
       </c>
       <c r="U15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.39), *maa://28648 (68.33), maa://36674 (82.93)</t>
+          <t>maa://22729 (95.39), *maa://28648 (68.85), maa://36674 (82.93)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.46)</t>
+          <t>maa://24421 (90.5)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.89), *maa://22732 (50.6)</t>
+          <t>maa://22466 (88.97), *maa://22732 (50.6)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.86), maa://25198 (93.14), *maa://20795 (51.18), maa://36680 (96.67)</t>
+          <t>maa://21432 (89.86), maa://25198 (93.14), *maa://20795 (51.18), maa://36680 (93.55)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.69)</t>
+          <t>maa://41331 (85.15)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.11), ***maa://23820 (29.82)</t>
+          <t>maa://21443 (80.17), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (85.29), *maa://22751 (73.85)</t>
+          <t>maa://27127 (85.44), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.46), *maa://37649 (69.23)</t>
+          <t>maa://21282 (98.47), *maa://37649 (66.67)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.21), maa://39875 (93.75)</t>
+          <t>maa://39756 (94.3), maa://39875 (93.75)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.84), maa://23504 (93.33), **maa://22892 (39.58), *maa://25141 (76.98), *maa://36663 (79.41), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.84), maa://23504 (93.15), **maa://22892 (39.58), *maa://25141 (76.98), *maa://36663 (78.26), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.64), maa://36672 (80.77), maa://29910 (92.59), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.71), maa://36672 (80.77), maa://29910 (92.59), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="X25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29890 (76.19)</t>
+          <t>*maa://29890 (76.74)</t>
         </is>
       </c>
       <c r="Y25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.27), maa://24621 (96.58), maa://36676 (96.67), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.27), maa://24621 (96.58), maa://36676 (96.77), maa://22771 (85.71), maa://37772 (100.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.91), ***maa://39723 (14.29), maa://41749 (91.07)</t>
+          <t>maa://39929 (89.97), ***maa://39723 (14.29), maa://41749 (91.38)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.97), *maa://36701 (64.29)</t>
+          <t>maa://36660 (92.99), *maa://36701 (64.29)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (92.9), *maa://28440 (76.6), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (92.9), *maa://28440 (76.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.36), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.4), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.63), maa://36258 (83.33), *maa://43904 (77.78)</t>
+          <t>maa://35926 (93.66), maa://36258 (83.67), *maa://43904 (77.78)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.28), maa://36667 (98.39), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.3), maa://36667 (98.39), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.34), maa://41108 (87.76), maa://41238 (96.2)</t>
+          <t>maa://42859 (96.34), maa://41108 (87.76), maa://41238 (96.3)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.67)</t>
+          <t>maa://41296 (96.69)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>maa://24842 (94.0)</t>
+          <t>maa://24842 (94.12)</t>
         </is>
       </c>
       <c r="U35" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.5), maa://30434 (89.39), ***maa://25036 (16.0), *maa://44165 (66.67), maa://45059 (100.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.64), maa://30434 (89.39), ***maa://25036 (16.0), *maa://44165 (66.67), maa://45059 (100.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.83), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.84), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.5), maa://43901 (88.89)</t>
+          <t>maa://35931 (92.61), maa://43901 (88.89)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.19), maa://29661 (97.84), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.2), maa://29661 (97.86), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.54), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.56), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.25)</t>
+          <t>maa://32532 (91.92)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (98.21)</t>
+          <t>maa://25176 (98.25)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (72.86), ***maa://20792 (11.93), maa://39402 (88.37), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (72.86), ***maa://20792 (11.93), maa://39402 (88.64), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (91.75), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
+          <t>maa://25251 (91.84), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.95), maa://20276 (85.0), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.95), maa://20276 (85.09), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>maa://21955 (94.12)</t>
+          <t>maa://21955 (94.29)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>*maa://22763 (68.97)</t>
+          <t>*maa://22763 (66.67)</t>
         </is>
       </c>
       <c r="I7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.31 13:17:57</t>
+          <t>更新日期：2025.01.01 13:19:57</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (72.34), **maa://39431 (45.45), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (72.92), **maa://39431 (45.45), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.25), ***maa://22740 (5.77), **maa://39938 (48.0), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (93.33)</t>
+          <t>maa://28711 (87.38), ***maa://22740 (5.77), **maa://39938 (48.0), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (93.33)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.07), maa://22755 (87.61), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.09), maa://22755 (87.61), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.63), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.64), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.53), maa://21288 (96.3), maa://39841 (95.12), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.53), maa://21288 (96.3), maa://39841 (95.18), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.32), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (33.33)</t>
+          <t>*maa://22743 (77.44), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (32.61)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.91), *maa://22766 (70.91), *maa://36666 (78.57)</t>
+          <t>maa://21364 (80.91), *maa://22766 (70.91), *maa://36666 (78.82)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.39), *maa://28648 (68.85), maa://36674 (82.93)</t>
+          <t>maa://22729 (94.77), *maa://28648 (68.85), maa://36674 (82.93)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.5)</t>
+          <t>maa://24421 (90.12)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (63.5), *maa://36668 (55.84)</t>
+          <t>*maa://30709 (63.59), *maa://36668 (55.84)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.3), maa://39875 (93.75)</t>
+          <t>maa://39756 (94.32), maa://39875 (93.75)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.55)</t>
+          <t>*maa://24368 (78.89)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.84), maa://23504 (93.15), **maa://22892 (39.58), *maa://25141 (76.98), *maa://36663 (78.26), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.84), maa://23504 (93.15), **maa://22892 (39.31), *maa://25141 (76.38), *maa://36663 (78.26), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="X25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29890 (76.74)</t>
+          <t>*maa://29890 (77.27)</t>
         </is>
       </c>
       <c r="Y25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.71), *maa://24516 (79.78), maa://26001 (87.5)</t>
+          <t>maa://31215 (85.86), *maa://24516 (79.78), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="X26" s="2" t="inlineStr">
         <is>
-          <t>maa://24389 (96.3)</t>
+          <t>maa://24389 (96.43)</t>
         </is>
       </c>
       <c r="Y26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.0), maa://34494 (96.43), *maa://39601 (76.47), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.0), maa://34494 (96.55), *maa://39601 (76.47), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.97), ***maa://39723 (14.29), maa://41749 (91.38)</t>
+          <t>maa://39929 (89.72), ***maa://39723 (14.29), maa://41749 (91.53)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.99), *maa://36701 (64.29)</t>
+          <t>maa://36660 (93.02), *maa://36701 (64.29)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (92.9), *maa://28440 (76.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (92.93), *maa://28440 (76.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (54.72), *maa://30050 (51.72)</t>
+          <t>*maa://23168 (55.56), *maa://30050 (51.72)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (76.47)</t>
+          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (77.14)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.4), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.43), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.19)</t>
+          <t>maa://36697 (86.26)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (96.43), maa://43903 (100.0)</t>
+          <t>maa://42981 (96.55), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.27), maa://25390 (95.93), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.29), maa://25390 (95.95), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (72.86), ***maa://20792 (11.93), maa://39402 (88.64), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (72.86), ***maa://20792 (11.93), maa://39402 (88.89), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.67), *maa://20791 (63.38)</t>
+          <t>maa://22742 (91.08), *maa://20791 (63.38)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (95.74), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (95.79), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.22), maa://26254 (96.0)</t>
+          <t>maa://21249 (94.22), maa://26254 (96.15)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.99), **maa://20790 (44.78), ***maa://37170 (19.3)</t>
+          <t>maa://24617 (88.99), **maa://20790 (44.78), ***maa://37170 (18.97)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.38), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.42), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (98.04), maa://27295 (83.87), maa://22754 (91.67), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (98.04), maa://27295 (83.87), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.05)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>maa://37411 (84.62)</t>
+          <t>maa://37411 (85.71)</t>
         </is>
       </c>
       <c r="U6" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (60.47), ***maa://22770 (27.27)</t>
+          <t>*maa://33152 (61.36), ***maa://22770 (27.27)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.17), *maa://22758 (73.33)</t>
+          <t>maa://22399 (95.17), *maa://22758 (73.77)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.35), *maa://36671 (69.39), *maa://42530 (64.29)</t>
+          <t>*maa://26191 (68.75), *maa://36671 (69.39), *maa://42530 (64.29)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.01 13:19:57</t>
+          <t>更新日期：2025.01.03 13:17:45</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.93)</t>
+          <t>maa://21411 (95.94)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.48)</t>
+          <t>maa://26223 (97.5)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.38), ***maa://22740 (5.77), **maa://39938 (48.0), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (93.33)</t>
+          <t>maa://28711 (87.38), ***maa://22740 (5.77), **maa://39938 (46.15), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (94.12)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.44), **maa://32237 (40.48), ***maa://34206 (21.74), ***maa://39951 (16.67), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.34), **maa://32237 (40.48), ***maa://34206 (21.74), ***maa://39951 (16.28), ***maa://39243 (28.57)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.41)</t>
+          <t>maa://36707 (99.42)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.55), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (74.89), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.96), *maa://22583 (75.0), *maa://22500 (57.78)</t>
+          <t>maa://22676 (91.96), *maa://22583 (75.38), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.53), maa://21288 (96.3), maa://39841 (95.18), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.55), maa://21288 (96.3), maa://39841 (95.18), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2354,12 +2354,12 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.44), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (32.61)</t>
+          <t>*maa://22743 (77.44), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (32.61), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.32), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.38), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.91), *maa://22766 (70.91), *maa://36666 (78.82)</t>
+          <t>maa://21364 (80.97), *maa://22766 (70.27), *maa://36666 (78.82)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.35), maa://36679 (93.02), maa://37650 (96.97)</t>
+          <t>maa://21441 (96.35), maa://36679 (93.18), maa://37650 (96.97)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.4)</t>
+          <t>maa://26228 (95.45)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (65.69), maa://27755 (92.68)</t>
+          <t>*maa://23911 (65.69), maa://27755 (92.77)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>maa://21624 (82.86)</t>
+          <t>maa://21624 (83.33)</t>
         </is>
       </c>
       <c r="E17" s="1" t="n"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>*maa://21679 (76.0)</t>
+          <t>*maa://21679 (76.92)</t>
         </is>
       </c>
       <c r="M17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.1)</t>
+          <t>maa://24570 (97.13)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (61.19)</t>
+          <t>*maa://21663 (61.76)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.33)</t>
+          <t>maa://22864 (89.4)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.15)</t>
+          <t>maa://41331 (85.29)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.32), maa://39875 (93.75)</t>
+          <t>maa://39756 (94.34), maa://39875 (93.85)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (92.02), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (71.43)</t>
+          <t>maa://30587 (92.02), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (68.97)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.71), maa://36672 (80.77), maa://29910 (92.59), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.71), maa://36672 (80.77), maa://29910 (92.73), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (94.88)</t>
+          <t>maa://29753 (94.9)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3670,12 +3670,12 @@
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (73.65), *maa://25311 (73.27), ***maa://22725 (4.84)</t>
+          <t>*maa://29063 (73.83), *maa://25311 (73.53), ***maa://22725 (4.84), maa://45047 (100.0)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>maa://24382 (93.1)</t>
+          <t>maa://24382 (93.33)</t>
         </is>
       </c>
       <c r="Q25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (93.24)</t>
+          <t>maa://42235 (93.33)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.0), maa://34494 (96.55), *maa://39601 (76.47), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.0), maa://34494 (96.67), *maa://39601 (76.47), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.77), maa://25725 (83.53)</t>
+          <t>maa://24465 (90.78), maa://25725 (83.53)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (94.95), *maa://29765 (60.53)</t>
+          <t>maa://23263 (95.0), *maa://29765 (60.53)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.72), ***maa://39723 (14.29), maa://41749 (91.53)</t>
+          <t>maa://39929 (89.75), ***maa://39723 (14.29), maa://41749 (91.53)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (77.14)</t>
+          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (78.95)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t>maa://39477 (85.71)</t>
+          <t>maa://39477 (86.67)</t>
         </is>
       </c>
       <c r="Y30" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.43), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.46), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.66), maa://36258 (83.67), *maa://43904 (77.78)</t>
+          <t>maa://35926 (93.7), maa://36258 (83.67), *maa://43904 (80.0)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.3), maa://36667 (98.39), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.33), maa://36667 (98.41), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956 (79.56), *maa://22730 (79.31)</t>
+          <t>*maa://21956 (79.71), *maa://22730 (79.31)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.57)</t>
+          <t>maa://24526 (93.6)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.69)</t>
+          <t>maa://41296 (96.72)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.26)</t>
+          <t>maa://36697 (86.34)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.64), maa://30434 (89.39), ***maa://25036 (16.0), *maa://44165 (66.67), maa://45059 (100.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.78), maa://30434 (89.39), ***maa://25036 (16.0), *maa://44165 (66.67), maa://45059 (100.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.41)</t>
+          <t>maa://24709 (91.47)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.99), maa://21386 (95.74), maa://36664 (90.74)</t>
+          <t>maa://23278 (96.0), maa://21386 (95.74), maa://36664 (90.74)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), maa://43177 (85.71)</t>
+          <t>**maa://35616 (38.24), maa://43177 (86.67)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.65), maa://21284 (83.72)</t>
+          <t>maa://22525 (92.7), maa://21284 (83.72)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.84), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.85), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.86), maa://30807 (95.45), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (77.78)</t>
+          <t>maa://21229 (84.86), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (77.78)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.56), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.58), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (91.92)</t>
+          <t>maa://32532 (91.95)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.02), maa://31270 (94.83)</t>
+          <t>maa://27746 (83.02), maa://31270 (94.87)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (96.55), maa://43903 (100.0)</t>
+          <t>maa://42981 (96.67), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.29), maa://25390 (95.95), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.29), maa://25390 (95.98), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (72.86), ***maa://20792 (11.93), maa://39402 (88.89), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (72.86), ***maa://20792 (11.93), maa://39402 (89.13), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.52), maa://27484 (96.15), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.57), maa://27484 (96.15), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.91), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (90.32)</t>
+          <t>**maa://32495 (47.91), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (90.62)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (83.49), maa://22744 (84.0)</t>
+          <t>maa://21245 (83.56), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (61.36), ***maa://22770 (27.27)</t>
+          <t>*maa://33152 (60.0), ***maa://22770 (26.09)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (93.18), maa://24957 (97.62)</t>
+          <t>maa://28624 (93.55), maa://24957 (97.62)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.17), *maa://22758 (73.77)</t>
+          <t>maa://22399 (95.17), *maa://22758 (74.19)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.03 13:17:45</t>
+          <t>更新日期：2025.01.04 13:16:59</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (72.92), **maa://39431 (45.45), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (72.92), **maa://39431 (50.0), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AF8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.78), *maa://21990 (53.85)</t>
+          <t>*maa://24479 (76.83), *maa://21990 (51.85)</t>
         </is>
       </c>
       <c r="AG8" s="1" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (91.86), maa://39552 (90.0)</t>
+          <t>maa://22762 (91.95), maa://39552 (90.0)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.32), *maa://22865 (51.92)</t>
+          <t>maa://26206 (89.42), *maa://22865 (51.92)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.09), maa://22755 (87.61), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.11), maa://22755 (87.61), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1946,12 +1946,12 @@
       </c>
       <c r="AE11" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF11" s="2" t="inlineStr">
         <is>
-          <t>maa://31203 (95.65), ***maa://24394 (19.23)</t>
+          <t>maa://31203 (95.65)</t>
         </is>
       </c>
       <c r="AG11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.46), *maa://21485 (76.87), maa://37962 (89.66)</t>
+          <t>maa://22753 (91.46), *maa://21485 (77.04), maa://37962 (89.66)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.79), maa://36673 (92.65), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.8), maa://36673 (92.65), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (79.69), *maa://22768 (51.61)</t>
+          <t>*maa://34957 (80.0), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.55), maa://21288 (96.3), maa://39841 (95.18), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.55), maa://21288 (96.3), maa://39841 (95.29), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.44), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (32.61), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.44), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (34.04), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.77), *maa://28648 (68.85), maa://36674 (82.93)</t>
+          <t>maa://22729 (94.77), *maa://28648 (68.85), maa://36674 (83.33)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.13)</t>
+          <t>maa://24570 (97.14)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (63.59), *maa://36668 (55.84)</t>
+          <t>*maa://30709 (63.59), *maa://36668 (56.41)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.86), maa://25198 (93.14), *maa://20795 (51.18), maa://36680 (93.55)</t>
+          <t>maa://21432 (89.93), maa://25198 (93.14), *maa://20795 (51.18), maa://36680 (93.55)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.29)</t>
+          <t>maa://41331 (84.62)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.17), ***maa://23820 (29.82)</t>
+          <t>maa://21443 (80.23), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.63), *maa://22432 (76.67)</t>
+          <t>maa://22524 (94.63), *maa://22432 (77.05)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (85.44), *maa://22751 (73.85)</t>
+          <t>maa://27127 (85.58), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.34), maa://39875 (93.85)</t>
+          <t>maa://39756 (94.36), maa://39875 (93.85)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (78.89)</t>
+          <t>*maa://24368 (78.3)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.84), maa://23504 (93.15), **maa://22892 (39.31), *maa://25141 (76.38), *maa://36663 (78.26), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.46), maa://23504 (93.18), **maa://22892 (39.31), *maa://25141 (76.38), *maa://36663 (78.26), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (73.83), *maa://25311 (73.53), ***maa://22725 (4.84), maa://45047 (100.0)</t>
+          <t>*maa://29063 (74.0), *maa://25311 (73.53), ***maa://22725 (4.84), maa://45047 (100.0)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (85.86), *maa://24516 (79.78), maa://26001 (87.5)</t>
+          <t>maa://31215 (86.0), *maa://24516 (79.78), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (93.33)</t>
+          <t>maa://42235 (93.51)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.75), ***maa://39723 (14.29), maa://41749 (91.53)</t>
+          <t>maa://39929 (89.85), ***maa://39723 (14.29), maa://41749 (91.67)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (93.02), *maa://36701 (64.29)</t>
+          <t>maa://36660 (93.04), *maa://36701 (64.29)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>*maa://25175 (70.21)</t>
+          <t>*maa://25175 (68.75)</t>
         </is>
       </c>
       <c r="I29" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (92.93), *maa://28440 (76.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (92.95), *maa://28440 (76.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.05), ***maa://34960 (8.33), *maa://42865 (78.95)</t>
+          <t>*maa://24080 (69.05), *maa://42865 (78.95), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.46), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.52), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.7), maa://36258 (83.67), *maa://43904 (80.0)</t>
+          <t>maa://35926 (93.73), maa://36258 (83.67), *maa://43904 (80.0)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.33), maa://36667 (98.41), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.37), maa://36667 (98.41), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.34), maa://41108 (87.76), maa://41238 (96.3)</t>
+          <t>maa://42859 (96.47), maa://41108 (87.76), maa://41238 (96.3)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.72)</t>
+          <t>maa://41296 (96.75)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.34)</t>
+          <t>maa://36697 (86.41)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.78), maa://30434 (89.39), ***maa://25036 (16.0), *maa://44165 (66.67), maa://45059 (100.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.78), maa://30434 (89.39), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (38.1)</t>
+          <t>**maa://39364 (36.36)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.61), maa://43901 (88.89)</t>
+          <t>maa://35931 (92.63), maa://43901 (88.89)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.58), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.6), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (91.95)</t>
+          <t>maa://32532 (91.98)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.02), maa://31270 (94.87)</t>
+          <t>maa://27746 (83.18), maa://31270 (94.92)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (96.67), maa://43903 (100.0)</t>
+          <t>maa://42981 (96.77), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (91.84), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.0), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.45), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.46), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.57), maa://27484 (96.15), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.62), maa://27484 (96.15), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (94.59)</t>
+          <t>maa://42407 (94.74)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (93.55), maa://24957 (97.62)</t>
+          <t>maa://28624 (93.55), maa://24957 (97.67)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="AE7" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.75), *maa://36671 (69.39), *maa://42530 (64.29)</t>
+          <t>*maa://26191 (67.9), *maa://36671 (68.0), *maa://42530 (60.0), maa://45272 (100.0)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.04 13:16:59</t>
+          <t>更新日期：2025.01.05 13:20:09</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (72.92), **maa://39431 (50.0), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (73.47), **maa://39431 (50.0), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (84.62), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.43), **maa://22759 (45.45)</t>
+          <t>maa://32931 (83.96), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.43), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.94)</t>
+          <t>maa://21411 (95.95)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.42), *maa://22865 (51.92)</t>
+          <t>maa://26206 (89.52), *maa://22865 (51.92)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.34), **maa://32237 (40.48), ***maa://34206 (21.74), ***maa://39951 (16.28), ***maa://39243 (28.57)</t>
+          <t>***maa://25695 (19.34), **maa://32237 (40.48), ***maa://34206 (21.74), ***maa://39951 (16.28), ***maa://39243 (28.57), maa://45271 (100.0)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>**maa://24395 (40.74)</t>
+          <t>**maa://24395 (39.29)</t>
         </is>
       </c>
       <c r="M10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.64), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.66), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.81), maa://22501 (98.59)</t>
+          <t>maa://22747 (92.81), maa://22501 (98.61)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.46), *maa://21485 (77.04), maa://37962 (89.66)</t>
+          <t>maa://22753 (91.46), *maa://21485 (77.04), maa://37962 (86.67)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.79), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.2), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.8), maa://36673 (92.65), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.82), maa://36673 (92.65), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.96), *maa://22583 (75.38), *maa://22500 (57.78)</t>
+          <t>maa://22676 (91.96), *maa://22583 (74.24), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (32.37), maa://39883 (90.74), *maa://39885 (56.0)</t>
+          <t>**maa://22737 (32.37), maa://39883 (90.91), *maa://39885 (56.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (80.97), *maa://22766 (70.27), *maa://36666 (78.82)</t>
+          <t>maa://21364 (81.03), *maa://22766 (70.27), *maa://36666 (79.07)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (63.59), *maa://36668 (56.41)</t>
+          <t>*maa://30709 (63.68), *maa://36668 (56.41)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.62)</t>
+          <t>maa://41331 (84.91)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.23), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (80.0), ***maa://23820 (29.82)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.63), *maa://22432 (77.05)</t>
+          <t>maa://22524 (94.63), *maa://22432 (77.42)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.47), *maa://37649 (66.67)</t>
+          <t>maa://21282 (98.48), *maa://37649 (66.67)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.36), maa://39875 (93.85)</t>
+          <t>maa://39756 (94.38), maa://39875 (93.85)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (92.02), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (68.97)</t>
+          <t>maa://30587 (92.06), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (70.0)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.46), maa://23504 (93.18), **maa://22892 (39.31), *maa://25141 (76.38), *maa://36663 (78.26), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.46), maa://23504 (93.18), **maa://22892 (39.31), *maa://25141 (76.56), *maa://36663 (78.26), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.71), maa://36672 (80.77), maa://29910 (92.73), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.71), maa://36672 (80.77), maa://29910 (92.86), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (94.9)</t>
+          <t>maa://29753 (94.92)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (93.51)</t>
+          <t>maa://42235 (93.59)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (76.47)</t>
+          <t>*maa://30624 (77.36)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (95.0), *maa://29765 (60.53)</t>
+          <t>maa://23263 (95.0), *maa://29765 (61.54)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.85), ***maa://39723 (14.29), maa://41749 (91.67)</t>
+          <t>maa://39929 (89.88), ***maa://39723 (14.29), maa://41749 (91.67)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (55.56), *maa://30050 (51.72)</t>
+          <t>*maa://23168 (55.56), *maa://30050 (53.33)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.05), *maa://42865 (78.95), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.87), *maa://42865 (78.95), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.52), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.61), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.73), maa://36258 (83.67), *maa://43904 (80.0)</t>
+          <t>maa://35926 (93.38), maa://36258 (83.84), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.47), maa://41108 (87.76), maa://41238 (96.3)</t>
+          <t>maa://42859 (96.63), maa://41108 (87.76), maa://41238 (96.3)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956 (79.71), *maa://22730 (79.31)</t>
+          <t>*maa://21956 (79.86), *maa://22730 (79.31)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.6)</t>
+          <t>maa://24526 (93.63)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.11), *maa://21239 (66.67)</t>
+          <t>maa://21280 (89.22), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.41)</t>
+          <t>maa://36697 (86.49)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.78), maa://30434 (89.39), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (66.67)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (89.39), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.85), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.86), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.63), maa://43901 (88.89)</t>
+          <t>maa://35931 (92.68), maa://43901 (90.0)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.2), maa://29661 (97.86), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.21), maa://29661 (97.86), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.18), maa://31270 (94.92)</t>
+          <t>maa://27746 (83.18), maa://31270 (94.96)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (96.77), maa://43903 (100.0)</t>
+          <t>maa://42981 (96.88), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (95.79), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.32), maa://36684 (94.79), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (83.56), maa://22744 (84.0)</t>
+          <t>maa://21245 (83.64), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.05 13:20:09</t>
+          <t>更新日期：2025.01.06 13:18:43</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (54.22), *maa://22733 (59.38), maa://22761 (100.0)</t>
+          <t>*maa://25021 (54.76), *maa://22733 (59.38), maa://22761 (100.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (98.17)</t>
+          <t>maa://36713 (97.95)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957 (80.0), *maa://22768 (51.61)</t>
+          <t>maa://34957 (80.3), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.4)</t>
+          <t>maa://22864 (89.47)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.91)</t>
+          <t>maa://41331 (85.19)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (80.0), ***maa://23820 (29.82)</t>
+          <t>*maa://21443 (80.0), ***maa://23820 (29.31)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (85.58), *maa://22751 (73.85)</t>
+          <t>maa://27127 (84.76), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.38), maa://39875 (93.85)</t>
+          <t>maa://39756 (94.42), maa://39875 (93.85)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (93.59)</t>
+          <t>maa://42235 (93.67)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.78), maa://25725 (83.53)</t>
+          <t>maa://24465 (90.81), maa://25725 (83.53)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.88), ***maa://39723 (14.29), maa://41749 (91.67)</t>
+          <t>maa://39929 (89.88), maa://41749 (91.8), ***maa://39723 (14.29)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (92.95), *maa://28440 (76.84), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (92.95), *maa://28440 (77.08), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.61), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.64), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.75)</t>
+          <t>maa://41296 (96.8)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.21), maa://29661 (97.86), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.22), maa://29661 (97.86), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.6), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.62), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.32), maa://36684 (94.79), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.35), maa://36684 (94.79), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (93.55)</t>
+          <t>maa://24390 (93.65)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.06 13:18:43</t>
+          <t>更新日期：2025.01.07 13:17:31</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (83.96), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.43), **maa://22759 (45.45)</t>
+          <t>maa://32931 (83.96), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.55), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (92.05), *maa://21915 (68.0)</t>
+          <t>maa://22765 (92.13), *maa://21915 (68.0)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.5)</t>
+          <t>maa://26223 (97.52)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.46), *maa://21485 (77.04), maa://37962 (86.67)</t>
+          <t>maa://22753 (91.46), *maa://21485 (77.21), maa://37962 (86.67)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.82), maa://36673 (92.65), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.82), maa://36673 (92.75), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.89), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (75.11), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (93.81), maa://42751 (100.0)</t>
+          <t>maa://22521 (93.88), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.77), *maa://28648 (68.85), maa://36674 (83.33)</t>
+          <t>maa://22729 (94.77), *maa://28648 (69.35), maa://36674 (83.33)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.45)</t>
+          <t>maa://26228 (95.51)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (77.36)</t>
+          <t>*maa://30624 (77.78)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.88), maa://41749 (91.8), ***maa://39723 (14.29)</t>
+          <t>maa://39929 (89.88), maa://41749 (91.94), ***maa://39723 (14.29)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.63), maa://41108 (87.76), maa://41238 (96.3)</t>
+          <t>maa://42859 (96.63), maa://41108 (87.76), maa://41238 (96.39)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (89.39), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (66.67)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (89.55), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.68), maa://43901 (90.0)</t>
+          <t>maa://35931 (92.71), maa://43901 (90.0)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.22), maa://29661 (97.86), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.23), maa://29661 (97.86), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.62), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.65), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.18), maa://31270 (94.96)</t>
+          <t>maa://27746 (83.18), maa://31270 (95.0)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.29), maa://25390 (95.98), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.31), maa://25390 (95.98), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (72.86), ***maa://20792 (11.93), maa://39402 (89.13), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (73.61), ***maa://20792 (11.93), maa://39402 (89.36), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.08), *maa://20791 (63.38)</t>
+          <t>maa://22742 (91.08), *maa://20791 (63.89)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.35), maa://36684 (94.79), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.38), maa://36684 (94.79), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.0), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.08), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.46), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.47), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.95), maa://20276 (85.09), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (66.13), maa://20276 (85.19), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.22), maa://26254 (96.15)</t>
+          <t>maa://21249 (94.22), maa://26254 (96.3)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (88.99), **maa://20790 (44.78), ***maa://37170 (18.97)</t>
+          <t>maa://24617 (89.09), **maa://20790 (44.12), ***maa://37170 (18.97)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (98.04), maa://27295 (83.87), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.05)</t>
+          <t>maa://32509 (98.04), maa://27295 (84.13), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.91), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (90.62)</t>
+          <t>**maa://32495 (47.91), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (90.91)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.07 13:17:31</t>
+          <t>更新日期：2025.01.09 13:18:22</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.95)</t>
+          <t>maa://21411 (95.97)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (54.76), *maa://22733 (59.38), maa://22761 (100.0)</t>
+          <t>*maa://25021 (55.29), *maa://22733 (59.38), maa://22761 (100.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.95)</t>
+          <t>maa://36713 (97.96)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.82), maa://36673 (92.75), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.83), maa://36673 (92.75), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>maa://34957 (80.3), *maa://22768 (51.61)</t>
+          <t>maa://34957 (80.88), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (32.37), maa://39883 (90.91), *maa://39885 (56.0)</t>
+          <t>**maa://22737 (32.37), maa://39883 (91.23), *maa://39885 (56.0)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.55), maa://21288 (96.3), maa://39841 (95.29), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.55), maa://21288 (96.3), maa://39841 (95.35), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.62), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.63), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.44), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (34.04), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.55), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (34.04), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.18), maa://21478 (91.43)</t>
+          <t>maa://24304 (88.24), maa://21478 (91.43)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.03), *maa://22766 (70.27), *maa://36666 (79.07)</t>
+          <t>maa://21364 (81.09), *maa://22766 (70.27), *maa://36666 (78.16)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.77), *maa://28648 (69.35), maa://36674 (83.33)</t>
+          <t>maa://22729 (94.77), *maa://28648 (68.25), maa://36674 (83.33)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.83), maa://28051 (96.0)</t>
+          <t>maa://28501 (97.85), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.71), maa://39599 (86.84)</t>
+          <t>maa://22430 (88.77), maa://39599 (86.84)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.14)</t>
+          <t>maa://24570 (97.16)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.12)</t>
+          <t>maa://24421 (90.16)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (99.05)</t>
+          <t>maa://24386 (99.06)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.93), maa://25198 (93.14), *maa://20795 (51.18), maa://36680 (93.55)</t>
+          <t>maa://21432 (90.07), maa://25198 (93.14), *maa://20795 (51.18), maa://36680 (93.55)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443 (80.0), ***maa://23820 (29.31)</t>
+          <t>maa://21443 (80.06), ***maa://23820 (29.31)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.34), **maa://21678 (48.94), **maa://22735 (42.86)</t>
+          <t>maa://25236 (96.39), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (84.76), *maa://22751 (73.85)</t>
+          <t>maa://27127 (84.91), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.42), maa://39875 (93.85)</t>
+          <t>maa://39756 (94.53), maa://39875 (93.85)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.46), maa://23504 (93.18), **maa://22892 (39.31), *maa://25141 (76.56), *maa://36663 (78.26), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.46), maa://23504 (93.18), **maa://22892 (39.31), *maa://25141 (76.56), *maa://36663 (78.57), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.27), maa://24621 (96.58), maa://36676 (96.77), maa://22771 (85.71), maa://37772 (100.0)</t>
+          <t>maa://20108 (96.27), maa://24621 (96.58), maa://36676 (96.88), maa://22771 (85.71), **maa://37772 (50.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.88), maa://41749 (91.94), ***maa://39723 (14.29)</t>
+          <t>maa://39929 (89.97), maa://41749 (91.94), ***maa://39723 (14.29)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.64), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.67), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.38), maa://36258 (83.84), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.38), maa://36258 (84.0), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.37), maa://36667 (98.41), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.38), maa://36667 (98.41), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.63), maa://41108 (87.76), maa://41238 (96.39)</t>
+          <t>maa://42859 (96.63), maa://41108 (87.76), maa://41238 (96.43)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.8)</t>
+          <t>maa://41296 (96.83)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (89.55), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (66.67)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (89.55), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (75.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.86), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (77.78)</t>
+          <t>maa://21229 (84.86), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (80.0)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (36.36)</t>
+          <t>**maa://39364 (39.13)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.71), maa://43901 (90.0)</t>
+          <t>maa://35931 (92.41), maa://43901 (90.0)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.23), maa://29661 (97.86), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.24), maa://29661 (97.86), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (91.98)</t>
+          <t>maa://32532 (92.02)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (60.87)</t>
+          <t>*maa://40438 (61.7)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (96.88), maa://43903 (100.0)</t>
+          <t>maa://42981 (96.97), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.08), *maa://20791 (63.89)</t>
+          <t>maa://22742 (91.14), *maa://20791 (63.89)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.08), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.16), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.62), maa://27484 (96.15), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.35), maa://27484 (96.15), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (93.65)</t>
+          <t>maa://24390 (93.75)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.91), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (90.91)</t>
+          <t>**maa://32495 (47.91), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (91.18)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>*maa://22757 (78.79)</t>
+          <t>*maa://22757 (79.41)</t>
         </is>
       </c>
       <c r="M5" s="1" t="n"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>maa://21955 (94.29)</t>
+          <t>maa://21955 (94.44)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.09 13:18:22</t>
+          <t>更新日期：2025.01.11 13:17:38</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (73.47), **maa://39431 (50.0), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (74.0), **maa://39431 (50.0), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
-          <t>maa://25389 (87.1)</t>
+          <t>maa://25389 (87.5)</t>
         </is>
       </c>
       <c r="AC8" s="1" t="n"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AF8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24479 (76.83), *maa://21990 (51.85)</t>
+          <t>*maa://24479 (77.11), *maa://21990 (51.85)</t>
         </is>
       </c>
       <c r="AG8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (92.13), *maa://21915 (68.0)</t>
+          <t>maa://22765 (92.22), *maa://21915 (68.0)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.52), *maa://22865 (51.92)</t>
+          <t>maa://26206 (89.62), *maa://22865 (51.92)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.34), **maa://32237 (40.48), ***maa://34206 (21.74), ***maa://39951 (16.28), ***maa://39243 (28.57), maa://45271 (100.0)</t>
+          <t>***maa://25695 (19.34), **maa://32237 (41.86), ***maa://34206 (20.83), ***maa://39951 (16.28), ***maa://39243 (28.57), *maa://45271 (60.0)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.42)</t>
+          <t>maa://36707 (99.43)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.81), maa://22501 (98.61)</t>
+          <t>maa://22747 (92.86), maa://22501 (97.3)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.96)</t>
+          <t>maa://36713 (97.97)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.46), *maa://21485 (77.21), maa://37962 (86.67)</t>
+          <t>maa://22753 (90.91), *maa://21485 (77.21), maa://37962 (86.67)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (91.96), *maa://22583 (74.24), *maa://22500 (57.78)</t>
+          <t>maa://22676 (92.04), *maa://22583 (74.24), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.55), maa://21288 (96.3), maa://39841 (95.35), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.55), maa://21288 (96.3), maa://39841 (95.4), maa://36682 (97.37)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (96.88)</t>
+          <t>maa://22764 (96.92)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.55), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (34.04), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.55), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (35.42), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.77), maa://39599 (86.84)</t>
+          <t>maa://22430 (88.83), maa://39599 (86.84)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.16)</t>
+          <t>maa://24570 (97.18)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (90.16)</t>
+          <t>maa://24421 (89.8)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AB18" s="2" t="inlineStr">
         <is>
-          <t>maa://24393 (97.56)</t>
+          <t>maa://24393 (97.62)</t>
         </is>
       </c>
       <c r="AC18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (99.06)</t>
+          <t>maa://24386 (99.07)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (63.68), *maa://36668 (56.41)</t>
+          <t>*maa://30709 (63.86), *maa://36668 (56.41)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.47)</t>
+          <t>maa://22864 (89.54)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.19)</t>
+          <t>maa://41331 (85.32)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.53), maa://39875 (93.85)</t>
+          <t>maa://39756 (94.57), maa://39875 (93.85)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (66.18)</t>
+          <t>*maa://28503 (65.71)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.46), maa://23504 (93.18), **maa://22892 (39.31), *maa://25141 (76.56), *maa://36663 (78.57), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (86.52), maa://23504 (93.18), **maa://22892 (39.73), *maa://25141 (76.56), *maa://36663 (78.57), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.71), maa://36672 (80.77), maa://29910 (92.86), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.71), maa://36672 (81.13), maa://29910 (92.86), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (94.92)</t>
+          <t>maa://29753 (94.94)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (86.0), *maa://24516 (79.78), maa://26001 (87.5)</t>
+          <t>maa://31215 (86.14), *maa://24516 (79.78), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (93.67)</t>
+          <t>maa://42235 (93.75)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>maa://28071 (88.89)</t>
+          <t>maa://28071 (89.47)</t>
         </is>
       </c>
       <c r="M27" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (77.78)</t>
+          <t>*maa://30624 (78.18)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.97), maa://41749 (91.94), ***maa://39723 (14.29)</t>
+          <t>maa://39929 (89.97), maa://41749 (92.06), ***maa://39723 (14.29)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (92.95), *maa://28440 (77.08), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (92.97), *maa://28440 (77.08), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.38), maa://36667 (98.41), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.41), maa://36667 (98.41), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.63), maa://41108 (87.76), maa://41238 (96.43)</t>
+          <t>maa://42859 (96.67), maa://41108 (88.0), maa://41238 (96.43)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.22), *maa://21239 (66.67)</t>
+          <t>maa://21280 (88.78), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.49)</t>
+          <t>maa://36697 (86.56)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (89.55), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (75.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (89.86), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (75.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.47)</t>
+          <t>maa://24709 (91.6)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (96.0), maa://21386 (95.74), maa://36664 (90.74)</t>
+          <t>maa://23278 (95.68), maa://21386 (95.74), maa://36664 (90.74)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.86), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.87), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.41), maa://43901 (90.0)</t>
+          <t>maa://35931 (92.41), maa://43901 (90.91)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.24), maa://29661 (97.86), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.25), maa://29661 (97.86), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (66.67)</t>
+          <t>*maa://39643 (68.0)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.65), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.67), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.02)</t>
+          <t>maa://32532 (92.05)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (98.25)</t>
+          <t>maa://25176 (98.28)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (61.7)</t>
+          <t>*maa://40438 (63.27)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.31), maa://25390 (95.98), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.33), maa://25390 (95.98), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919 (96.08), maa://21281 (85.71)</t>
+          <t>maa://21919 (96.15), maa://21281 (85.71)</t>
         </is>
       </c>
       <c r="Q5" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (91.3), maa://30381 (92.31)</t>
+          <t>maa://31836 (91.67), maa://30381 (92.31)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.11 13:17:38</t>
+          <t>更新日期：2025.01.12 13:18:28</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24371 (54.29)</t>
+          <t>*maa://24371 (54.93)</t>
         </is>
       </c>
       <c r="I8" s="1" t="n"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (83.96), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.55), **maa://22759 (45.45)</t>
+          <t>maa://32931 (84.11), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.55), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AF8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.11), *maa://21990 (51.85)</t>
+          <t>*maa://24479 (77.38), *maa://21990 (51.85)</t>
         </is>
       </c>
       <c r="AG8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (92.22), *maa://21915 (68.0)</t>
+          <t>maa://22765 (92.31), *maa://21915 (68.0)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (81.52)</t>
+          <t>maa://22736 (81.72)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.19), maa://26222 (97.78)</t>
+          <t>**maa://22866 (30.19), maa://26222 (97.83)</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.34), **maa://32237 (41.86), ***maa://34206 (20.83), ***maa://39951 (16.28), ***maa://39243 (28.57), *maa://45271 (60.0)</t>
+          <t>***maa://25695 (19.34), **maa://32237 (41.86), ***maa://34206 (20.83), ***maa://39951 (16.28), ***maa://39243 (28.57), **maa://45271 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (91.36), maa://36669 (89.47), *maa://23264 (61.82)</t>
+          <t>maa://28977 (91.36), maa://36669 (89.74), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.66), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.67), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (88.42)</t>
+          <t>maa://21287 (88.54)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.83), maa://36673 (92.75), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.83), maa://36673 (92.86), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.04), *maa://22583 (74.24), *maa://22500 (57.78)</t>
+          <t>maa://22676 (92.11), *maa://22583 (74.24), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.55), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (35.42), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.66), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (35.42), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.09), *maa://22766 (70.27), *maa://36666 (78.16)</t>
+          <t>maa://21364 (81.15), *maa://22766 (70.27), *maa://36666 (78.16)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.35), maa://36679 (93.18), maa://37650 (96.97)</t>
+          <t>maa://21441 (96.35), maa://36679 (93.48), maa://37650 (96.97)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.83), maa://39599 (86.84)</t>
+          <t>maa://22430 (88.83), maa://39599 (87.18)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (57.86), **maa://29784 (44.44)</t>
+          <t>*maa://24313 (58.13), **maa://29784 (44.44)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.07), maa://25198 (93.14), *maa://20795 (51.18), maa://36680 (93.55)</t>
+          <t>maa://21432 (90.07), maa://25198 (93.14), *maa://20795 (51.56), maa://36680 (93.55)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.32)</t>
+          <t>maa://41331 (85.59)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>maa://21261 (97.37)</t>
+          <t>maa://21261 (97.44)</t>
         </is>
       </c>
       <c r="E21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (84.91), *maa://22751 (73.85)</t>
+          <t>maa://27127 (84.26), *maa://22751 (73.85)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (27.54), *maa://41753 (53.85)</t>
+          <t>***maa://28036 (28.57), *maa://41753 (53.85)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.57), maa://39875 (93.85)</t>
+          <t>maa://39756 (94.58), maa://39875 (93.85)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (78.3)</t>
+          <t>*maa://24368 (78.36)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (94.94)</t>
+          <t>maa://29753 (94.96)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.0), *maa://25311 (73.53), ***maa://22725 (4.84), maa://45047 (100.0)</t>
+          <t>*maa://29063 (74.17), *maa://25311 (73.53), ***maa://22725 (4.84), maa://45047 (100.0)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (86.14), *maa://24516 (79.78), maa://26001 (87.5)</t>
+          <t>maa://31215 (86.27), *maa://24516 (79.78), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.27), maa://24621 (96.58), maa://36676 (96.88), maa://22771 (85.71), **maa://37772 (50.0)</t>
+          <t>maa://20108 (96.27), maa://24621 (96.61), maa://36676 (96.88), maa://22771 (85.71), **maa://37772 (50.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.81), maa://25725 (83.53)</t>
+          <t>maa://24465 (90.81), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (93.04), *maa://36701 (64.29)</t>
+          <t>maa://36660 (93.06), *maa://36701 (64.29)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.67), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.69), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.41), maa://36667 (98.41), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.41), maa://36667 (98.44), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.67), maa://41108 (88.0), maa://41238 (96.43)</t>
+          <t>maa://42859 (95.6), maa://41108 (88.0), maa://41238 (96.43)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.83)</t>
+          <t>maa://41296 (96.85)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="AF35" s="2" t="inlineStr">
         <is>
-          <t>maa://39479 (93.33)</t>
+          <t>maa://39479 (93.75)</t>
         </is>
       </c>
       <c r="AG35" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (88.78), *maa://21239 (66.67)</t>
+          <t>maa://21280 (88.83), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (89.86), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (75.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (89.86), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (80.0)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.6)</t>
+          <t>maa://24709 (91.67)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.68), maa://21386 (95.74), maa://36664 (90.74)</t>
+          <t>maa://23278 (95.68), maa://21386 (95.74), maa://36664 (90.91)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.86), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), *maa://42459 (80.0)</t>
+          <t>maa://21229 (84.86), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (81.82)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.41), maa://43901 (90.91)</t>
+          <t>maa://35931 (92.41), maa://43901 (91.67)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.05)</t>
+          <t>maa://32532 (92.08)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.33), maa://25390 (95.98), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.35), maa://25390 (95.98), maa://36681 (87.01)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (73.61), ***maa://20792 (11.93), maa://39402 (89.36), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (73.61), ***maa://20792 (11.93), maa://39402 (89.58), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.14), *maa://20791 (63.89)</t>
+          <t>maa://22742 (91.19), *maa://20791 (63.89)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.38), maa://36684 (94.79), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.38), maa://36684 (94.95), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.16), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.31), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.47), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.48), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.13), maa://20276 (85.19), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (66.31), maa://20276 (85.37), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.22), maa://26254 (96.3)</t>
+          <t>maa://21249 (94.25), maa://26254 (96.3)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.09), **maa://20790 (44.12), ***maa://37170 (18.97)</t>
+          <t>maa://24617 (89.29), **maa://20790 (44.12), ***maa://37170 (18.64)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.35), maa://27484 (96.15), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.35), maa://27484 (96.23), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.42), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.46), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (98.04), maa://27295 (84.13), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (98.08), maa://27295 (84.62), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.91), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (91.18)</t>
+          <t>**maa://32495 (47.91), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (91.67)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (83.64), maa://22744 (84.0)</t>
+          <t>maa://21245 (83.71), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919 (96.15), maa://21281 (85.71)</t>
+          <t>maa://21919 (96.23), maa://21281 (85.71)</t>
         </is>
       </c>
       <c r="Q5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (94.74)</t>
+          <t>maa://42407 (94.87)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (91.67), maa://30381 (92.31)</t>
+          <t>maa://31836 (92.0), maa://30381 (92.31)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>maa://37411 (85.71)</t>
+          <t>maa://37411 (86.67)</t>
         </is>
       </c>
       <c r="U6" s="1" t="n"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="AB6" s="2" t="inlineStr">
         <is>
-          <t>maa://22739 (92.73)</t>
+          <t>maa://22739 (92.86)</t>
         </is>
       </c>
       <c r="AC6" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (60.0), ***maa://22770 (26.09)</t>
+          <t>*maa://33152 (60.87), ***maa://22770 (26.09)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (93.55), maa://24957 (97.67)</t>
+          <t>maa://28624 (93.55), maa://24957 (97.73)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>maa://21291 (84.09)</t>
+          <t>maa://21291 (84.44)</t>
         </is>
       </c>
       <c r="U7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.17), *maa://22758 (74.19)</t>
+          <t>maa://22399 (95.24), *maa://22758 (74.6)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.12 13:18:28</t>
+          <t>更新日期：2025.01.17 13:17:18</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (74.0), **maa://39431 (50.0), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (74.51), **maa://39431 (50.0), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.97)</t>
+          <t>maa://21411 (95.99)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AF8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.38), *maa://21990 (51.85)</t>
+          <t>*maa://24479 (77.65), *maa://21990 (51.85)</t>
         </is>
       </c>
       <c r="AG8" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (81.72)</t>
+          <t>maa://22736 (81.91)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.19), maa://26222 (97.83)</t>
+          <t>**maa://22866 (30.19), maa://26222 (97.87)</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.52)</t>
+          <t>maa://26223 (97.58)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.38), ***maa://22740 (5.77), **maa://39938 (46.15), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (94.12)</t>
+          <t>maa://28711 (87.38), ***maa://22740 (5.77), **maa://39938 (46.15), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (94.44)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.62), *maa://22865 (51.92)</t>
+          <t>maa://26206 (89.81), *maa://22865 (51.92)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.34), **maa://32237 (41.86), ***maa://34206 (20.83), ***maa://39951 (16.28), ***maa://39243 (28.57), **maa://45271 (50.0)</t>
+          <t>***maa://25695 (19.13), **maa://32237 (40.91), ***maa://34206 (20.83), ***maa://39951 (16.28), ***maa://39243 (28.57), **maa://45271 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>**maa://24395 (39.29)</t>
+          <t>**maa://24395 (41.38)</t>
         </is>
       </c>
       <c r="M10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (91.36), maa://36669 (89.74), *maa://23264 (61.82)</t>
+          <t>maa://28977 (91.46), maa://36669 (90.0), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.11), maa://22755 (87.61), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.17), maa://22755 (87.61), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (55.29), *maa://22733 (59.38), maa://22761 (100.0)</t>
+          <t>*maa://25021 (55.29), *maa://22733 (60.61), maa://22761 (100.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (88.54)</t>
+          <t>maa://21287 (88.66)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.86), maa://22501 (97.3)</t>
+          <t>maa://22747 (92.86), maa://22501 (97.33)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.97)</t>
+          <t>maa://36713 (97.98)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.76)</t>
+          <t>maa://21867 (89.82)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (90.91), *maa://21485 (77.21), maa://37962 (86.67)</t>
+          <t>maa://22753 (90.96), *maa://21485 (77.37), maa://37962 (87.1)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.41), maa://36677 (92.31), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.41), maa://36677 (92.45), maa://39872 (90.0)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.2), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.52), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.83), maa://36673 (92.86), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.85), maa://36673 (92.86), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.11), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (75.22), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.11), *maa://22583 (74.24), *maa://22500 (57.78)</t>
+          <t>maa://22676 (92.17), *maa://22583 (74.24), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (32.37), maa://39883 (91.23), *maa://39885 (56.0)</t>
+          <t>**maa://22737 (32.14), maa://39883 (91.23), *maa://39885 (57.69)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.55), maa://21288 (96.3), maa://39841 (95.4), maa://36682 (97.37)</t>
+          <t>maa://26245 (96.55), maa://21288 (96.3), maa://39841 (95.45), maa://36682 (97.44)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.63), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.65), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (93.88), maa://42751 (100.0)</t>
+          <t>maa://22521 (93.94), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (96.92)</t>
+          <t>maa://22764 (96.97)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.66), maa://22734 (84.03), *maa://30808 (65.08), **maa://36048 (35.42), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.66), maa://22734 (84.03), *maa://30808 (65.62), **maa://36048 (36.0), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.24), maa://21478 (91.43)</t>
+          <t>maa://24304 (88.24), maa://21478 (91.67)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.15), *maa://22766 (70.27), *maa://36666 (78.16)</t>
+          <t>maa://21364 (81.27), *maa://22766 (70.54), *maa://36666 (78.16)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.85), maa://28051 (96.0)</t>
+          <t>maa://28501 (97.87), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.51)</t>
+          <t>maa://26228 (95.56)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (65.69), maa://27755 (92.77)</t>
+          <t>*maa://23911 (65.38), maa://27755 (92.77)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.83), maa://39599 (87.18)</t>
+          <t>maa://22430 (88.95), maa://39599 (87.18)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (89.8)</t>
+          <t>maa://24421 (89.47)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (88.97), *maa://22732 (50.6)</t>
+          <t>maa://22466 (89.12), **maa://22732 (50.0)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.8), maa://22741 (83.33)</t>
+          <t>maa://21917 (97.8), maa://22741 (85.71)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (99.07)</t>
+          <t>maa://24386 (99.08)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.54)</t>
+          <t>maa://22864 (89.61)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.59)</t>
+          <t>maa://41331 (84.82)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>maa://37442 (94.59)</t>
+          <t>maa://37442 (94.74)</t>
         </is>
       </c>
       <c r="Q20" s="1" t="n"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>maa://31731 (95.56)</t>
+          <t>maa://31731 (95.74)</t>
         </is>
       </c>
       <c r="M21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.06), ***maa://23820 (29.31)</t>
+          <t>maa://21443 (80.11), ***maa://23820 (29.31)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.63), *maa://22432 (77.42)</t>
+          <t>maa://22524 (94.69), *maa://22432 (77.78)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.39), **maa://21678 (48.94), **maa://22735 (42.86)</t>
+          <t>maa://25236 (96.43), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>maa://38495 (84.62)</t>
+          <t>maa://38495 (85.71)</t>
         </is>
       </c>
       <c r="U22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.48), *maa://37649 (66.67)</t>
+          <t>maa://21282 (98.51), *maa://37649 (66.67)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.58), maa://39875 (93.85)</t>
+          <t>maa://39756 (94.66), maa://39875 (93.85)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (92.06), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (70.0)</t>
+          <t>maa://30587 (92.11), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (70.0)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (78.36)</t>
+          <t>*maa://24368 (78.2)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (86.52), maa://23504 (93.18), **maa://22892 (39.73), *maa://25141 (76.56), *maa://36663 (78.57), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (85.9), maa://23504 (93.22), **maa://22892 (39.73), *maa://25141 (76.74), *maa://36663 (78.57), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.71), maa://36672 (81.13), maa://29910 (92.86), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.71), maa://36672 (81.48), maa://29910 (92.86), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.17), *maa://25311 (73.53), ***maa://22725 (4.84), maa://45047 (100.0)</t>
+          <t>*maa://29063 (74.34), *maa://25311 (73.53), ***maa://22725 (4.84), maa://45047 (100.0)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.4), maa://22545 (100.0), maa://42915 (100.0)</t>
+          <t>maa://20109 (92.44), maa://22545 (100.0), maa://42915 (100.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (86.27), *maa://24516 (79.78), maa://26001 (87.5)</t>
+          <t>maa://31215 (86.41), *maa://24516 (79.78), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.27), maa://24621 (96.61), maa://36676 (96.88), maa://22771 (85.71), **maa://37772 (50.0)</t>
+          <t>maa://20108 (96.27), maa://24621 (96.64), maa://36676 (96.88), maa://22771 (85.71), **maa://37772 (50.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>maa://41802 (92.31)</t>
+          <t>maa://41802 (92.86)</t>
         </is>
       </c>
       <c r="E26" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.46)</t>
+          <t>maa://24913 (91.57)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (93.75)</t>
+          <t>maa://42235 (93.83)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AF26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (83.78), *maa://29760 (64.29)</t>
+          <t>maa://30511 (84.21), *maa://29760 (64.29)</t>
         </is>
       </c>
       <c r="AG26" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.81), maa://25725 (83.72)</t>
+          <t>maa://24465 (90.83), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>*maa://30770 (79.55)</t>
+          <t>*maa://30770 (80.0)</t>
         </is>
       </c>
       <c r="M28" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (95.0), *maa://29765 (61.54)</t>
+          <t>maa://23263 (95.05), *maa://29765 (61.54)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (89.97), maa://41749 (92.06), ***maa://39723 (14.29)</t>
+          <t>maa://39929 (90.12), maa://41749 (92.19), ***maa://39723 (14.29)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (93.06), *maa://36701 (64.29)</t>
+          <t>maa://36660 (93.12), *maa://36701 (64.29)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (92.97), *maa://28440 (77.08), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.02), *maa://28440 (77.08), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (55.56), *maa://30050 (53.33)</t>
+          <t>*maa://23168 (56.36), *maa://30050 (51.61)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.87), *maa://42865 (78.95), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.87), maa://42865 (80.95), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>maa://21442 (99.52)</t>
+          <t>maa://21442 (99.53)</t>
         </is>
       </c>
       <c r="Q30" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.69), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.0), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.38), maa://36258 (84.0), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.41), maa://36258 (84.16), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.41), maa://36667 (98.44), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.44), maa://36667 (98.46), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.6), maa://41108 (88.0), maa://41238 (96.43)</t>
+          <t>maa://42859 (95.7), maa://41108 (88.0), maa://41238 (96.55)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="AF32" s="2" t="inlineStr">
         <is>
-          <t>*maa://42408 (75.0)</t>
+          <t>*maa://42408 (77.78)</t>
         </is>
       </c>
       <c r="AG32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956 (79.86), *maa://22730 (79.31)</t>
+          <t>maa://21956 (80.14), *maa://22730 (79.31)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.85)</t>
+          <t>maa://41296 (96.88)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>maa://27613 (99.03)</t>
+          <t>maa://27613 (99.04)</t>
         </is>
       </c>
       <c r="U36" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (88.83), *maa://21239 (66.67)</t>
+          <t>maa://21280 (88.89), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (68.04)</t>
+          <t>*maa://24383 (68.69)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.56)</t>
+          <t>maa://36697 (86.84)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (89.86), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (80.0)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (90.0), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.67)</t>
+          <t>maa://24709 (91.73)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.68), maa://21386 (95.74), maa://36664 (90.91)</t>
+          <t>maa://23278 (95.7), maa://21386 (95.74), maa://36664 (90.91)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.7), maa://21284 (83.72)</t>
+          <t>maa://22525 (92.7), maa://21284 (84.09)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.87), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.88), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.86), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (81.82)</t>
+          <t>maa://21229 (84.86), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (85.71)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (39.13)</t>
+          <t>**maa://39364 (36.0)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.41), maa://43901 (91.67)</t>
+          <t>maa://35931 (92.44), maa://43901 (92.31)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.25), maa://29661 (97.86), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.26), maa://29661 (97.18), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>maa://24376 (96.55)</t>
+          <t>maa://24376 (96.67)</t>
         </is>
       </c>
       <c r="I52" s="1" t="n"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.67), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.69), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.08)</t>
+          <t>maa://32532 (92.11)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.18), maa://31270 (95.0)</t>
+          <t>maa://27746 (82.41), maa://31270 (95.04)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (63.27)</t>
+          <t>*maa://40438 (64.0)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (96.97), maa://43903 (100.0)</t>
+          <t>maa://42981 (97.06), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>maa://44405 (91.3)</t>
+          <t>maa://44405 (91.67)</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.31), maa://20276 (85.37), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (66.31), maa://20276 (85.45), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.35), maa://27484 (96.23), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.35), maa://27484 (96.26), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (98.08), maa://27295 (84.62), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (97.17), maa://27295 (84.62), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>*maa://22757 (79.41)</t>
+          <t>*maa://22757 (77.14)</t>
         </is>
       </c>
       <c r="M5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (94.87)</t>
+          <t>maa://42407 (95.0)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>maa://21291 (84.44)</t>
+          <t>maa://21291 (84.78)</t>
         </is>
       </c>
       <c r="U7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.17 13:17:18</t>
+          <t>更新日期：2025.01.18 13:16:09</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.38), ***maa://22740 (5.77), **maa://39938 (46.15), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (94.44)</t>
+          <t>maa://28711 (87.38), ***maa://22740 (5.77), **maa://39938 (46.15), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.0)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.56)</t>
+          <t>maa://26228 (95.6)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>maa://21624 (83.33)</t>
+          <t>maa://21624 (83.78)</t>
         </is>
       </c>
       <c r="E17" s="1" t="n"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AB18" s="2" t="inlineStr">
         <is>
-          <t>maa://24393 (97.62)</t>
+          <t>maa://24393 (97.67)</t>
         </is>
       </c>
       <c r="AC18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (63.86), *maa://36668 (56.41)</t>
+          <t>*maa://30709 (63.94), *maa://36668 (56.41)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.82)</t>
+          <t>maa://41331 (84.96)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.69), *maa://22432 (77.78)</t>
+          <t>maa://22524 (94.71), *maa://22432 (77.78)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.51), *maa://37649 (66.67)</t>
+          <t>maa://21282 (98.51), *maa://37649 (67.86)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.66), maa://39875 (93.85)</t>
+          <t>maa://39756 (94.7), maa://39875 (93.85)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (93.83)</t>
+          <t>maa://42235 (93.9)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.12), maa://41749 (92.19), ***maa://39723 (14.29)</t>
+          <t>maa://39929 (90.15), maa://41749 (90.77), ***maa://39723 (14.29)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (56.36), *maa://30050 (51.61)</t>
+          <t>*maa://23168 (57.14), *maa://30050 (51.61)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.0), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.03), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.7), maa://41108 (88.0), maa://41238 (96.55)</t>
+          <t>maa://42859 (95.74), maa://41108 (88.0), maa://41238 (96.55)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="AF32" s="2" t="inlineStr">
         <is>
-          <t>*maa://42408 (77.78)</t>
+          <t>*maa://42408 (80.0)</t>
         </is>
       </c>
       <c r="AG32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.88)</t>
+          <t>maa://41296 (96.9)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>maa://27613 (99.04)</t>
+          <t>maa://27613 (99.05)</t>
         </is>
       </c>
       <c r="U36" s="1" t="n"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>***maa://39354 (25.0)</t>
+          <t>**maa://39354 (33.33)</t>
         </is>
       </c>
       <c r="U37" s="1" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (90.0), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (66.67)</t>
+          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (90.14), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5453,12 +5453,12 @@
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.7), maa://21386 (95.74), maa://36664 (90.91)</t>
+          <t>maa://23278 (95.7), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), maa://43177 (86.67)</t>
+          <t>**maa://35616 (38.24), maa://43177 (87.5)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (87.1)</t>
+          <t>maa://39366 (87.5)</t>
         </is>
       </c>
       <c r="U44" s="1" t="n"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (36.0)</t>
+          <t>**maa://39364 (38.46)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (64.0)</t>
+          <t>*maa://40438 (64.71)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.18 13:16:09</t>
+          <t>更新日期：2025.01.18 14:49:21</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.34), *maa://25311 (73.53), ***maa://22725 (4.84), maa://45047 (100.0)</t>
+          <t>*maa://29063 (74.51), *maa://25311 (73.53), ***maa://22725 (4.84), maa://45047 (100.0)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.35), maa://25390 (95.98), maa://36681 (87.01)</t>
+          <t>maa://24702 (94.39), maa://25390 (96.06), maa://36681 (87.34)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.05), *maa://30515 (69.31), *maa://34787 (73.61), ***maa://20792 (11.93), maa://39402 (89.58), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.33), *maa://30515 (69.61), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (90.2), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.19), *maa://20791 (63.89)</t>
+          <t>maa://22742 (91.3), *maa://20791 (63.01)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.38), maa://36684 (94.95), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.41), maa://36684 (95.0), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.31), ***maa://21730 (22.86), ***maa://39501 (18.18), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.45), ***maa://21730 (23.94), ***maa://39501 (21.74), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.48), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.5), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.31), maa://20276 (85.45), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.26), maa://20276 (85.71), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.25), maa://26254 (96.3)</t>
+          <t>maa://21249 (94.27), maa://26254 (96.3)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.29), **maa://20790 (44.12), ***maa://37170 (18.64)</t>
+          <t>maa://24617 (89.38), **maa://20790 (44.12), ***maa://37170 (17.46)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.35), maa://27484 (96.26), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.54), maa://27484 (96.36), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (93.75)</t>
+          <t>maa://24390 (93.85)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.46), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.59), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.17), maa://27295 (84.62), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (97.3), maa://27295 (84.62), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (47.91), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (91.67)</t>
+          <t>**maa://32495 (48.31), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (87.18)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (63.04), ***maa://26209 (13.04), *maa://39394 (68.18)</t>
+          <t>*maa://30062 (63.83), ***maa://26209 (13.04), *maa://39394 (69.57)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (83.71), maa://22744 (84.0)</t>
+          <t>maa://21245 (83.93), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919 (96.23), maa://21281 (85.71)</t>
+          <t>maa://21919 (96.3), *maa://21281 (80.0)</t>
         </is>
       </c>
       <c r="Q5" s="1" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (67.65), ***maa://22752 (12.5), **maa://26013 (37.5)</t>
+          <t>*maa://29863 (68.57), ***maa://22752 (12.5), **maa://26013 (37.5)</t>
         </is>
       </c>
       <c r="AC5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (95.0)</t>
+          <t>maa://42407 (95.12)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (99.29)</t>
+          <t>maa://24839 (98.95)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>maa://37411 (86.67)</t>
+          <t>maa://37411 (87.5)</t>
         </is>
       </c>
       <c r="U6" s="1" t="n"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>*maa://22763 (66.67)</t>
+          <t>*maa://22763 (64.52)</t>
         </is>
       </c>
       <c r="I7" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (93.55), maa://24957 (97.73)</t>
+          <t>maa://28624 (91.67), maa://24957 (97.73)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>maa://22750 (90.7)</t>
+          <t>maa://22750 (91.11)</t>
         </is>
       </c>
       <c r="Q7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.24), *maa://22758 (74.6)</t>
+          <t>maa://22399 (95.3), *maa://22758 (75.0)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (67.9), *maa://36671 (68.0), *maa://42530 (60.0), maa://45272 (100.0)</t>
+          <t>*maa://26191 (68.29), *maa://36671 (68.0), *maa://42530 (60.0), maa://45272 (100.0)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.18 14:49:21</t>
+          <t>更新日期：2025.01.25 08:45:24</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (74.51), **maa://39431 (50.0), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (73.08), **maa://39431 (50.0), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (84.11), *maa://21916 (61.29), maa://23252 (92.42), maa://37496 (96.55), **maa://22759 (45.45)</t>
+          <t>maa://32931 (83.49), *maa://21916 (61.9), maa://23252 (92.54), maa://37496 (96.67), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.99)</t>
+          <t>maa://21411 (96.03)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (91.95), maa://39552 (90.0)</t>
+          <t>maa://22762 (92.05), maa://39552 (90.0)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (81.91)</t>
+          <t>maa://22736 (82.11)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.58)</t>
+          <t>maa://26223 (97.62)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.38), ***maa://22740 (5.77), **maa://39938 (46.15), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.0)</t>
+          <t>maa://28711 (86.36), ***maa://22740 (5.77), **maa://39938 (44.44), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.24)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.81), *maa://22865 (51.92)</t>
+          <t>maa://26206 (90.09), *maa://22865 (51.92)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.13), **maa://32237 (40.91), ***maa://34206 (20.83), ***maa://39951 (16.28), ***maa://39243 (28.57), **maa://45271 (50.0)</t>
+          <t>***maa://25695 (19.02), **maa://32237 (40.91), ***maa://34206 (20.83), ***maa://39951 (15.91), ***maa://39243 (28.57), **maa://45271 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (91.46), maa://36669 (90.0), *maa://23264 (61.82)</t>
+          <t>maa://28977 (90.36), maa://36669 (87.8), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.17), maa://22755 (87.61), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.22), maa://22755 (87.72), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.67), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.7), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.43)</t>
+          <t>maa://36707 (99.45)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45557 (100.0)</t>
         </is>
       </c>
       <c r="Q11" s="1" t="n"/>
@@ -1898,12 +1898,12 @@
       </c>
       <c r="S11" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.86), maa://22501 (97.33)</t>
+          <t>maa://22747 (92.86), maa://22501 (97.47), *maa://45521 (60.0)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.98)</t>
+          <t>maa://36713 (97.84)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.82)</t>
+          <t>maa://21867 (89.88)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (90.96), *maa://21485 (77.37), maa://37962 (87.1)</t>
+          <t>maa://22753 (91.12), *maa://21485 (76.81), maa://37962 (87.88)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.41), maa://36677 (92.45), maa://39872 (90.0)</t>
+          <t>maa://23669 (95.44), maa://36677 (92.59), maa://39872 (90.48)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.52), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (77.94), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.85), maa://36673 (92.86), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.94), maa://36673 (92.96), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.22), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (75.0), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.17), *maa://22583 (74.24), *maa://22500 (57.78)</t>
+          <t>maa://22676 (92.31), *maa://22583 (74.24), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>maa://34957 (80.88), *maa://22768 (51.61)</t>
+          <t>maa://34957 (81.16), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (32.14), maa://39883 (91.23), *maa://39885 (57.69)</t>
+          <t>**maa://22737 (32.62), maa://39883 (91.94), *maa://39885 (55.56)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.55), maa://21288 (96.3), maa://39841 (95.45), maa://36682 (97.44)</t>
+          <t>maa://26245 (96.58), maa://21288 (96.3), maa://39841 (95.65), maa://36682 (97.44)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.65), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.67), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (96.97)</t>
+          <t>maa://22764 (97.01)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.66), maa://22734 (84.03), *maa://30808 (65.62), **maa://36048 (36.0), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.39), maa://22734 (84.03), *maa://30808 (63.64), **maa://36048 (39.62), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.24), maa://21478 (91.67)</t>
+          <t>maa://24304 (87.86), maa://21478 (91.67)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.38), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.51), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.27), *maa://22766 (70.54), *maa://36666 (78.16)</t>
+          <t>maa://21364 (81.39), *maa://36666 (78.89), *maa://22766 (69.91)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.77), *maa://28648 (68.25), maa://36674 (83.33)</t>
+          <t>maa://22729 (94.77), *maa://28648 (68.75), maa://36674 (82.22)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.87), maa://28051 (96.0)</t>
+          <t>maa://28501 (97.89), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.6)</t>
+          <t>maa://26228 (95.65)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (65.38), maa://27755 (92.77)</t>
+          <t>*maa://23911 (65.38), maa://27755 (92.94)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.95), maa://39599 (87.18)</t>
+          <t>maa://22430 (88.54), maa://39599 (85.71)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.18)</t>
+          <t>maa://24570 (97.2)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.12), **maa://22732 (50.0)</t>
+          <t>maa://22466 (89.33), *maa://22732 (51.16)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (97.8), maa://22741 (85.71)</t>
+          <t>maa://21917 (96.77), maa://22741 (85.71)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (58.13), **maa://29784 (44.44)</t>
+          <t>*maa://24313 (58.39), **maa://29784 (44.44)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (99.08)</t>
+          <t>maa://24386 (99.1)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (63.94), *maa://36668 (56.41)</t>
+          <t>*maa://30709 (64.37), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (61.76)</t>
+          <t>*maa://21663 (62.32)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.07), maa://25198 (93.14), *maa://20795 (51.56), maa://36680 (93.55)</t>
+          <t>maa://21432 (89.68), maa://25198 (93.4), *maa://20795 (51.56), maa://36680 (93.75)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.96)</t>
+          <t>maa://41331 (86.07)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>maa://37442 (94.74)</t>
+          <t>maa://37442 (94.87)</t>
         </is>
       </c>
       <c r="Q20" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.77)</t>
+          <t>maa://24372 (96.84)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>maa://31731 (95.74)</t>
+          <t>maa://31731 (95.92)</t>
         </is>
       </c>
       <c r="M21" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (92.68)</t>
+          <t>maa://20110 (86.76), maa://34946 (92.86)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.11), ***maa://23820 (29.31)</t>
+          <t>maa://21443 (80.39), ***maa://23820 (29.31)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.71), *maa://22432 (77.78)</t>
+          <t>maa://22524 (94.29), *maa://22432 (77.78)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.43), **maa://21678 (48.94), **maa://22735 (42.86)</t>
+          <t>maa://25236 (96.47), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (84.26), *maa://22751 (73.85)</t>
+          <t>maa://27127 (83.64), *maa://22751 (71.64)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.51), *maa://37649 (67.86)</t>
+          <t>maa://21282 (98.53), *maa://37649 (67.86)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.7), maa://39875 (93.85)</t>
+          <t>maa://39756 (94.97), maa://39875 (93.94)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (92.11), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (70.0)</t>
+          <t>maa://30587 (91.71), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (71.88)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>maa://24387 (81.58), maa://31212 (93.1)</t>
+          <t>maa://24387 (81.58), maa://31212 (93.33)</t>
         </is>
       </c>
       <c r="U23" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (65.71)</t>
+          <t>*maa://28503 (64.79)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (78.2)</t>
+          <t>*maa://24368 (78.05)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (85.9), maa://23504 (93.22), **maa://22892 (39.73), *maa://25141 (76.74), *maa://36663 (78.57), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (85.54), maa://23504 (93.3), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (77.46), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.71), maa://36672 (81.48), maa://29910 (92.86), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.71), maa://36672 (81.82), maa://29910 (92.86), **maa://21440 (34.55)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (94.96)</t>
+          <t>maa://29753 (95.0)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.51), *maa://25311 (73.53), ***maa://22725 (4.84), maa://45047 (100.0)</t>
+          <t>*maa://29063 (74.19), *maa://25311 (73.53), ***maa://22725 (4.84), **maa://45047 (50.0)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="X25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29890 (77.27)</t>
+          <t>*maa://29890 (77.78)</t>
         </is>
       </c>
       <c r="Y25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (86.41), *maa://24516 (79.78), maa://26001 (87.5)</t>
+          <t>maa://31215 (86.79), *maa://24516 (79.78), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.27), maa://24621 (96.64), maa://36676 (96.88), maa://22771 (85.71), **maa://37772 (50.0)</t>
+          <t>maa://20108 (96.27), maa://24621 (96.69), maa://36676 (96.88), maa://22771 (85.71), **maa://37772 (50.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.57)</t>
+          <t>maa://24913 (91.67)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>*maa://30968 (63.16), maa://39870 (100.0)</t>
+          <t>*maa://30968 (65.0), maa://39870 (90.91)</t>
         </is>
       </c>
       <c r="Q26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (93.9)</t>
+          <t>maa://42235 (94.19)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AF26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (84.21), *maa://29760 (64.29)</t>
+          <t>maa://30511 (82.5), *maa://29760 (64.29)</t>
         </is>
       </c>
       <c r="AG26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.0), maa://34494 (96.67), *maa://39601 (76.47), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.0), *maa://39601 (76.47), maa://34494 (96.97), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (78.18)</t>
+          <t>*maa://30624 (78.57)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AF27" s="2" t="inlineStr">
         <is>
-          <t>maa://24023 (97.06)</t>
+          <t>maa://24023 (97.1)</t>
         </is>
       </c>
       <c r="AG27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.83), maa://25725 (83.72)</t>
+          <t>maa://24465 (90.91), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (95.05), *maa://29765 (61.54)</t>
+          <t>maa://23263 (95.1), *maa://29765 (62.96)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.15), maa://41749 (90.77), ***maa://39723 (14.29)</t>
+          <t>maa://39929 (90.6), maa://41749 (91.3), ***maa://39723 (14.29)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (93.12), *maa://36701 (64.29)</t>
+          <t>maa://36660 (92.66), *maa://36701 (65.52)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>*maa://25175 (68.75)</t>
+          <t>*maa://25175 (67.35)</t>
         </is>
       </c>
       <c r="I29" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.02), *maa://28440 (77.08), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.15), *maa://28440 (78.64), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (57.14), *maa://30050 (51.61)</t>
+          <t>*maa://23168 (56.9), *maa://30050 (51.61)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.87), maa://42865 (80.95), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.95), maa://42865 (80.95), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4304,12 +4304,12 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://45792 (100.0)</t>
         </is>
       </c>
       <c r="E30" s="1" t="n"/>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>maa://30442 (94.92)</t>
+          <t>maa://30442 (95.0)</t>
         </is>
       </c>
       <c r="M30" s="1" t="n"/>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>maa://21442 (99.53)</t>
+          <t>maa://21442 (99.54)</t>
         </is>
       </c>
       <c r="Q30" s="1" t="n"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t>maa://39477 (86.67)</t>
+          <t>maa://39477 (87.5)</t>
         </is>
       </c>
       <c r="Y30" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.03), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.15), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.41), maa://36258 (84.16), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.45), maa://36258 (84.76), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4530,12 +4530,12 @@
       </c>
       <c r="AA31" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB31" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.44), maa://36667 (98.46), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.45), maa://36667 (98.55), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>maa://28065 (94.87)</t>
+          <t>maa://28065 (95.0)</t>
         </is>
       </c>
       <c r="M32" s="1" t="n"/>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="S32" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.74), maa://41108 (88.0), maa://41238 (96.55)</t>
+          <t>maa://42859 (95.96), maa://41108 (88.0), maa://41238 (96.81), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4758,12 +4758,12 @@
       </c>
       <c r="S33" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45558 (100.0)</t>
         </is>
       </c>
       <c r="U33" s="1" t="n"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.63)</t>
+          <t>maa://24526 (93.65)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="AF34" s="2" t="inlineStr">
         <is>
-          <t>*maa://32650 (66.67)</t>
+          <t>*maa://32650 (68.75)</t>
         </is>
       </c>
       <c r="AG34" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.9)</t>
+          <t>maa://41296 (97.12)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5045,6 +5045,22 @@
       <c r="AG35" s="1" t="n"/>
     </row>
     <row r="36">
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>寻澜</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
           <t>鞭刃</t>
@@ -5105,7 +5121,7 @@
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>maa://27613 (99.05)</t>
+          <t>maa://27613 (99.07)</t>
         </is>
       </c>
       <c r="U36" s="1" t="n"/>
@@ -5155,7 +5171,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>*maa://24374 (58.14)</t>
+          <t>*maa://24374 (56.82)</t>
         </is>
       </c>
       <c r="I37" s="1" t="n"/>
@@ -5166,12 +5182,12 @@
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://45718 (100.0), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5187,7 +5203,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (88.89), *maa://21239 (66.67)</t>
+          <t>maa://21280 (88.94), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5308,6 +5324,22 @@
         </is>
       </c>
       <c r="U38" s="1" t="n"/>
+      <c r="Z38" s="1" t="inlineStr">
+        <is>
+          <t>行箸</t>
+        </is>
+      </c>
+      <c r="AA38" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB38" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC38" s="1" t="n"/>
       <c r="AD38" s="1" t="inlineStr">
         <is>
           <t>阿斯卡纶</t>
@@ -5320,7 +5352,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.84)</t>
+          <t>maa://36697 (86.93)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5341,7 +5373,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199 (84.82), maa://36670 (87.91), maa://30434 (90.14), ***maa://25036 (16.0), *maa://44165 (66.67), *maa://45059 (66.67)</t>
+          <t>maa://36670 (88.04), maa://25199 (84.82), maa://30434 (90.28), ***maa://25036 (16.0), *maa://45059 (57.14), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5373,7 +5405,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.73)</t>
+          <t>maa://24709 (91.97)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5384,12 +5416,12 @@
       </c>
       <c r="S39" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>*maa://45788 (70.0)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5458,7 +5490,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.7), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
+          <t>maa://23278 (95.71), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5600,6 +5632,22 @@
         </is>
       </c>
       <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>余</t>
+        </is>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="inlineStr">
         <is>
           <t>子月</t>
@@ -5665,7 +5713,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.7), maa://21284 (84.09)</t>
+          <t>maa://22525 (92.81), maa://21284 (84.78)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5734,7 +5782,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.88), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.91), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5766,7 +5814,7 @@
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (87.5)</t>
+          <t>maa://39366 (87.88)</t>
         </is>
       </c>
       <c r="U44" s="1" t="n"/>
@@ -5787,7 +5835,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.86), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (85.71)</t>
+          <t>maa://21229 (84.95), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (86.67)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5840,7 +5888,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.44), maa://43901 (92.31)</t>
+          <t>maa://35931 (92.64), maa://43901 (92.86)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5893,7 +5941,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.26), maa://29661 (97.18), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.34), maa://29661 (97.24), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6122,6 +6170,22 @@
         </is>
       </c>
       <c r="Q51" s="1" t="n"/>
+      <c r="R51" s="1" t="inlineStr">
+        <is>
+          <t>烛煌</t>
+        </is>
+      </c>
+      <c r="S51" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T51" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U51" s="1" t="n"/>
     </row>
     <row r="52">
       <c r="F52" s="1" t="inlineStr">
@@ -6170,7 +6234,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.69), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.97), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6206,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.11)</t>
+          <t>maa://32532 (92.31)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6260,7 +6324,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (55.17)</t>
+          <t>*maa://37964 (56.67)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6278,7 +6342,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (82.41), maa://31270 (95.04)</t>
+          <t>maa://27746 (82.57), maa://31270 (95.16)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6296,7 +6360,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (64.71)</t>
+          <t>*maa://40438 (65.38)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6332,7 +6396,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (97.06), maa://43903 (100.0)</t>
+          <t>maa://42981 (97.14), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>
@@ -6368,7 +6432,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>maa://44405 (91.67)</t>
+          <t>maa://44405 (88.0)</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.39), maa://25390 (96.06), maa://36681 (87.34)</t>
+          <t>maa://24702 (94.39), maa://25390 (96.09), maa://36681 (87.34)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.33), *maa://30515 (69.61), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (90.2), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.33), *maa://30515 (69.61), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (90.38), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.27), maa://26254 (96.3)</t>
+          <t>maa://21249 (94.3), maa://26254 (96.3)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -848,12 +848,12 @@
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.38), **maa://20790 (44.12), ***maa://37170 (17.46)</t>
+          <t>maa://24617 (89.38), **maa://20790 (44.12), ***maa://37170 (17.19), maa://45854 (100.0)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (93.85)</t>
+          <t>maa://24390 (94.03)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.59), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.63), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.3), maa://27295 (84.62), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (97.3), maa://27295 (84.85), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.31), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (87.18)</t>
+          <t>**maa://32495 (48.31), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (85.37)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (83.93), maa://22744 (84.0)</t>
+          <t>maa://21245 (84.0), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (92.0), maa://30381 (92.31)</t>
+          <t>maa://31836 (92.31), maa://30381 (92.31)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="AB6" s="2" t="inlineStr">
         <is>
-          <t>maa://22739 (92.86)</t>
+          <t>maa://22739 (92.98)</t>
         </is>
       </c>
       <c r="AC6" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.25 08:45:24</t>
+          <t>更新日期：2025.01.26 08:43:45</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (96.03)</t>
+          <t>maa://21411 (96.06)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
-          <t>maa://25389 (87.5)</t>
+          <t>maa://25389 (87.88)</t>
         </is>
       </c>
       <c r="AC8" s="1" t="n"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AF8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.65), *maa://21990 (51.85)</t>
+          <t>*maa://24479 (77.91), *maa://21990 (51.85)</t>
         </is>
       </c>
       <c r="AG8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (92.31), *maa://21915 (68.0)</t>
+          <t>maa://22765 (92.31), *maa://21915 (69.23)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (82.11)</t>
+          <t>maa://22736 (82.29)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.19), maa://26222 (97.87)</t>
+          <t>**maa://22866 (30.19), maa://26222 (97.92)</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.62)</t>
+          <t>maa://26223 (97.67)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (90.09), *maa://22865 (51.92)</t>
+          <t>maa://26206 (90.18), *maa://22865 (51.92)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.02), **maa://32237 (40.91), ***maa://34206 (20.83), ***maa://39951 (15.91), ***maa://39243 (28.57), **maa://45271 (50.0)</t>
+          <t>***maa://25695 (19.02), **maa://32237 (40.91), ***maa://34206 (20.83), ***maa://39951 (15.56), ***maa://39243 (28.57), *maa://45271 (53.33)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.22), maa://22755 (87.72), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.24), maa://22755 (87.72), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="W10" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.7), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.7), maa://22726 (100.0), maa://45828 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (55.29), *maa://22733 (60.61), maa://22761 (100.0)</t>
+          <t>*maa://25021 (54.65), *maa://22733 (60.61), maa://22761 (100.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="AF11" s="2" t="inlineStr">
         <is>
-          <t>maa://31203 (95.65)</t>
+          <t>maa://31203 (95.83)</t>
         </is>
       </c>
       <c r="AG11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.12), *maa://21485 (76.81), maa://37962 (87.88)</t>
+          <t>maa://22753 (91.18), *maa://21485 (76.81), maa://37962 (87.88)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.44), maa://36677 (92.59), maa://39872 (90.48)</t>
+          <t>maa://23669 (95.44), maa://36677 (92.59), maa://39872 (90.91)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (77.94), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.1), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.94), maa://36673 (92.96), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.82), maa://36673 (92.96), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.31), *maa://22583 (74.24), *maa://22500 (57.78)</t>
+          <t>maa://22676 (92.37), *maa://22583 (74.24), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>maa://34957 (81.16), *maa://22768 (51.61)</t>
+          <t>maa://34957 (81.43), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>maa://30764 (88.46)</t>
+          <t>maa://30764 (88.68)</t>
         </is>
       </c>
       <c r="E14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.67), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.68), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.39), maa://22734 (84.03), *maa://30808 (63.64), **maa://36048 (39.62), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.39), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (40.74), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.39), *maa://36666 (78.89), *maa://22766 (69.91)</t>
+          <t>maa://21364 (81.45), *maa://36666 (78.89), *maa://22766 (69.91)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.35), maa://36679 (93.48), maa://37650 (96.97)</t>
+          <t>maa://21441 (96.35), maa://36679 (93.62), maa://37650 (96.97)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.89), maa://28051 (96.0)</t>
+          <t>maa://28501 (97.92), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.65)</t>
+          <t>maa://26228 (95.7)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.54), maa://39599 (85.71)</t>
+          <t>maa://22430 (88.6), maa://39599 (84.44)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.2)</t>
+          <t>maa://24570 (97.21)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (64.37), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (64.54), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (86.07)</t>
+          <t>maa://41331 (86.29)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>maa://29113 (85.19)</t>
+          <t>maa://29113 (85.71)</t>
         </is>
       </c>
       <c r="U20" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.29), *maa://22432 (77.78)</t>
+          <t>maa://22524 (94.29), *maa://22432 (78.46)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (83.64), *maa://22751 (71.64)</t>
+          <t>maa://27127 (82.14), *maa://22751 (71.64)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.53), *maa://37649 (67.86)</t>
+          <t>maa://21282 (98.54), *maa://37649 (67.86)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (94.97), maa://39875 (93.94)</t>
+          <t>maa://39756 (95.0), maa://39875 (93.94)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="AB23" s="2" t="inlineStr">
         <is>
-          <t>maa://29652 (97.56)</t>
+          <t>maa://29652 (97.62)</t>
         </is>
       </c>
       <c r="AC23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (78.05)</t>
+          <t>*maa://24368 (78.11)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (85.54), maa://23504 (93.3), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (77.46), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (85.19), maa://23504 (93.09), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (77.78), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3636,12 +3636,12 @@
       </c>
       <c r="AE24" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.71), maa://36672 (81.82), maa://29910 (92.86), **maa://21440 (34.55)</t>
+          <t>maa://22523 (85.71), maa://36672 (80.36), maa://29910 (92.86), **maa://21440 (34.55), maa://45831 (100.0)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>maa://24378 (87.18)</t>
+          <t>maa://24378 (87.8)</t>
         </is>
       </c>
       <c r="M25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (86.79), *maa://24516 (79.78), maa://26001 (87.5)</t>
+          <t>maa://31215 (86.92), *maa://24516 (80.0), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.19)</t>
+          <t>maa://42235 (94.25)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.0), *maa://39601 (76.47), maa://34494 (96.97), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (48.0), *maa://39601 (76.47), maa://34494 (97.06), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (78.57)</t>
+          <t>*maa://30624 (77.19)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.91), maa://25725 (83.72)</t>
+          <t>maa://24465 (90.93), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>*maa://30770 (80.0)</t>
+          <t>maa://30770 (80.43)</t>
         </is>
       </c>
       <c r="M28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.6), maa://41749 (91.3), ***maa://39723 (14.29)</t>
+          <t>maa://39929 (90.68), maa://41749 (91.3), ***maa://39723 (14.29)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.66), *maa://36701 (65.52)</t>
+          <t>maa://36660 (92.38), *maa://36701 (65.52)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>*maa://25175 (67.35)</t>
+          <t>*maa://25175 (66.0)</t>
         </is>
       </c>
       <c r="I29" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.15), *maa://28440 (78.64), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.17), *maa://28440 (78.85), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.95), maa://42865 (80.95), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.95), maa://42865 (82.22), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4400,12 +4400,12 @@
       </c>
       <c r="AA30" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.15), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.21), maa://45045 (100.0), maa://45822 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.45), maa://36258 (84.76), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.48), maa://36258 (84.76), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.45), maa://36667 (98.55), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.45), maa://36667 (98.57), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.96), maa://41108 (88.0), maa://41238 (96.81), maa://45523 (100.0)</t>
+          <t>maa://42859 (96.0), maa://41108 (88.0), maa://41238 (96.88), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>maa://21956 (80.14), *maa://22730 (79.31)</t>
+          <t>maa://21956 (80.28), *maa://22730 (79.31)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (97.12)</t>
+          <t>maa://41296 (95.77)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (88.94), *maa://21239 (66.67)</t>
+          <t>maa://21280 (89.0), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (68.69)</t>
+          <t>*maa://24383 (69.0)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.04), maa://25199 (84.82), maa://30434 (90.28), ***maa://25036 (16.0), *maa://45059 (57.14), *maa://44165 (66.67)</t>
+          <t>maa://36670 (88.04), maa://25199 (84.82), maa://30434 (90.41), ***maa://25036 (16.0), *maa://45059 (66.67), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.97)</t>
+          <t>maa://24709 (92.09)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5416,12 +5416,12 @@
       </c>
       <c r="S39" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>*maa://45788 (70.0)</t>
+          <t>*maa://45788 (76.0), *maa://45790 (80.0)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.81), maa://21284 (84.78)</t>
+          <t>maa://22525 (92.81), maa://21284 (85.11)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.91), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.92), maa://27728 (96.0)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.34), maa://29661 (97.24), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.35), maa://29661 (97.24), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.97), **maa://32434 (34.78)</t>
+          <t>maa://32534 (94.01), **maa://32434 (34.78)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (98.28)</t>
+          <t>maa://25176 (98.31)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.39), maa://25390 (96.09), maa://36681 (87.34)</t>
+          <t>maa://24702 (94.43), maa://25390 (96.09), maa://36681 (87.34)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.33), *maa://30515 (69.61), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (90.38), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.6), *maa://30515 (69.9), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (90.57), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.3), *maa://20791 (63.01)</t>
+          <t>maa://22742 (91.36), *maa://20791 (63.01)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.41), maa://36684 (95.0), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.41), maa://36684 (95.05), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.45), ***maa://21730 (23.94), ***maa://39501 (21.74), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.52), ***maa://21730 (23.94), ***maa://39501 (21.74), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (95.83), maa://40192 (100.0), maa://39849 (88.89)</t>
+          <t>maa://36987 (95.92), maa://40192 (100.0), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.26), maa://20276 (85.71), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.26), maa://20276 (85.8), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.63), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.67), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.3), maa://27295 (84.85), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (97.3), maa://27295 (85.07), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.31), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (85.37)</t>
+          <t>**maa://32495 (48.31), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (85.71)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (63.83), ***maa://26209 (13.04), *maa://39394 (69.57)</t>
+          <t>*maa://30062 (62.5), ***maa://26209 (13.04), *maa://39394 (69.57)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (84.0), maa://22744 (84.0)</t>
+          <t>maa://21245 (84.07), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (68.57), ***maa://22752 (12.5), **maa://26013 (37.5)</t>
+          <t>*maa://29863 (66.67), ***maa://22752 (12.5), **maa://26013 (37.5)</t>
         </is>
       </c>
       <c r="AC5" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (98.95)</t>
+          <t>maa://24839 (98.96)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (91.67), maa://24957 (97.73)</t>
+          <t>maa://28624 (91.75), maa://24957 (97.73)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>maa://22750 (91.11)</t>
+          <t>maa://22750 (91.3)</t>
         </is>
       </c>
       <c r="Q7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.3), *maa://22758 (75.0)</t>
+          <t>maa://22399 (95.3), *maa://22758 (75.38)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.29), *maa://36671 (68.0), *maa://42530 (60.0), maa://45272 (100.0)</t>
+          <t>*maa://26191 (68.67), *maa://36671 (68.0), *maa://42530 (60.0), maa://45272 (100.0)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.26 08:43:45</t>
+          <t>更新日期：2025.01.27 13:17:55</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (86.36), ***maa://22740 (5.77), **maa://39938 (44.44), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.24)</t>
+          <t>maa://28711 (86.49), ***maa://22740 (5.77), **maa://39938 (44.44), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.24)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.02), **maa://32237 (40.91), ***maa://34206 (20.83), ***maa://39951 (15.56), ***maa://39243 (28.57), *maa://45271 (53.33)</t>
+          <t>***maa://25695 (19.02), **maa://32237 (40.91), ***maa://34206 (20.83), ***maa://39951 (15.56), ***maa://39243 (28.57), *maa://45271 (56.25)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (88.66)</t>
+          <t>maa://21287 (88.78)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.86), maa://22501 (97.47), *maa://45521 (60.0)</t>
+          <t>maa://22747 (92.86), maa://22501 (97.5), *maa://45521 (60.0)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.84)</t>
+          <t>maa://36713 (97.85)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.18), *maa://21485 (76.81), maa://37962 (87.88)</t>
+          <t>maa://22753 (91.23), *maa://21485 (76.81), maa://37962 (87.88)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.37), *maa://22583 (74.24), *maa://22500 (57.78)</t>
+          <t>maa://22676 (92.44), *maa://22583 (74.24), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>maa://30764 (88.68)</t>
+          <t>maa://30764 (88.89)</t>
         </is>
       </c>
       <c r="E14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (97.01)</t>
+          <t>maa://22764 (97.06)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (87.86), maa://21478 (91.67)</t>
+          <t>maa://24304 (87.92), maa://21478 (91.67)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="X15" s="2" t="inlineStr">
         <is>
-          <t>*maa://38786 (80.0)</t>
+          <t>maa://38786 (83.33)</t>
         </is>
       </c>
       <c r="Y15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.45), *maa://36666 (78.89), *maa://22766 (69.91)</t>
+          <t>maa://21364 (81.5), *maa://36666 (79.12), *maa://22766 (69.91)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.35), maa://36679 (93.62), maa://37650 (96.97)</t>
+          <t>maa://21441 (96.35), maa://36679 (93.62), maa://37650 (97.06)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.21)</t>
+          <t>maa://24570 (97.22)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (89.47)</t>
+          <t>maa://24421 (89.11)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (99.1)</t>
+          <t>maa://24386 (99.12)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (64.54), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (64.62), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (62.32)</t>
+          <t>*maa://21663 (62.86)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (86.29)</t>
+          <t>maa://41331 (85.83)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.39), ***maa://23820 (29.31)</t>
+          <t>maa://21443 (80.44), ***maa://23820 (29.31)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.0), maa://39875 (93.94)</t>
+          <t>maa://39756 (95.05), maa://39875 (94.03)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.71), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (71.88)</t>
+          <t>maa://30587 (91.71), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (72.73)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (64.79)</t>
+          <t>*maa://28503 (65.28)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (78.11)</t>
+          <t>*maa://24368 (77.9)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (85.19), maa://23504 (93.09), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (77.78), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (85.37), maa://23504 (93.09), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (77.78), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.0)</t>
+          <t>maa://29753 (95.02)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.19), *maa://25311 (73.53), ***maa://22725 (4.84), **maa://45047 (50.0)</t>
+          <t>*maa://29063 (74.36), *maa://25311 (73.53), ***maa://22725 (4.84), **maa://45047 (50.0)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.25)</t>
+          <t>maa://42235 (94.38)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (77.19)</t>
+          <t>*maa://30624 (77.59)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.93), maa://25725 (83.72)</t>
+          <t>maa://24465 (90.96), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (95.1), *maa://29765 (62.96)</t>
+          <t>maa://23263 (95.15), *maa://29765 (62.96)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.68), maa://41749 (91.3), ***maa://39723 (14.29)</t>
+          <t>maa://39929 (90.73), maa://41749 (91.43), ***maa://39723 (14.29)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.38), *maa://36701 (65.52)</t>
+          <t>maa://36660 (92.42), *maa://36701 (65.52)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.95), maa://42865 (82.22), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.95), maa://42865 (80.43), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.21), maa://45045 (100.0), maa://45822 (100.0)</t>
+          <t>maa://42979 (96.3), maa://45045 (100.0), maa://45822 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.48), maa://36258 (84.76), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.48), maa://36258 (84.91), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.45), maa://36667 (98.57), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.47), maa://36667 (98.59), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.93)</t>
+          <t>maa://36697 (87.0)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.04), maa://25199 (84.82), maa://30434 (90.41), ***maa://25036 (16.0), *maa://45059 (66.67), *maa://44165 (66.67)</t>
+          <t>maa://36670 (88.04), maa://25199 (84.82), maa://30434 (90.54), ***maa://25036 (16.0), *maa://45059 (66.67), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (92.09)</t>
+          <t>maa://24709 (92.2)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>*maa://45788 (76.0), *maa://45790 (80.0)</t>
+          <t>*maa://45788 (78.12), maa://45790 (83.33)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.71), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
+          <t>maa://23278 (95.74), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.95), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (86.67)</t>
+          <t>maa://21229 (84.95), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (87.5)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.64), maa://43901 (92.86)</t>
+          <t>maa://35931 (92.64), maa://43901 (93.33)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.31)</t>
+          <t>maa://32532 (92.34)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (56.67)</t>
+          <t>*maa://37964 (54.84)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.43), maa://25390 (96.09), maa://36681 (87.34)</t>
+          <t>maa://24702 (94.43), maa://25390 (96.12), maa://36681 (87.34)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.6), *maa://30515 (69.9), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (90.57), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.88), *maa://30515 (69.9), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (90.74), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.41), maa://36684 (95.05), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.41), maa://36684 (95.1), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.52), ***maa://21730 (23.94), ***maa://39501 (21.74), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.66), ***maa://21730 (25.0), ***maa://39501 (20.83), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.26), maa://20276 (85.8), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.26), maa://20276 (86.05), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.3), maa://26254 (96.3)</t>
+          <t>maa://21249 (94.32), maa://26254 (96.3)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.38), **maa://20790 (44.12), ***maa://37170 (17.19), maa://45854 (100.0)</t>
+          <t>maa://24617 (89.47), **maa://20790 (44.12), ***maa://37170 (17.19), maa://45854 (100.0)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.54), maa://27484 (96.36), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.28), maa://27484 (96.43), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (94.03)</t>
+          <t>maa://24390 (94.12)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.67), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.71), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.3), maa://27295 (85.07), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (97.32), maa://27295 (85.07), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.31), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (85.71)</t>
+          <t>**maa://32495 (48.51), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (85.71)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (62.5), ***maa://26209 (13.04), *maa://39394 (69.57)</t>
+          <t>*maa://30062 (63.27), ***maa://26209 (13.04), *maa://39394 (69.57)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (84.07), maa://22744 (84.0)</t>
+          <t>maa://21245 (84.14), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>maa://24370 (96.55)</t>
+          <t>maa://24370 (96.61)</t>
         </is>
       </c>
       <c r="I6" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (98.96)</t>
+          <t>maa://24839 (98.97)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>*maa://22763 (64.52)</t>
+          <t>*maa://22763 (65.62)</t>
         </is>
       </c>
       <c r="I7" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (91.75), maa://24957 (97.73)</t>
+          <t>maa://28624 (92.0), maa://24957 (97.73)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>maa://22750 (91.3)</t>
+          <t>maa://22750 (91.49)</t>
         </is>
       </c>
       <c r="Q7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.27 13:17:55</t>
+          <t>更新日期：2025.01.28 13:17:19</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (83.49), *maa://21916 (61.9), maa://23252 (92.54), maa://37496 (96.67), **maa://22759 (45.45)</t>
+          <t>maa://32931 (83.04), *maa://21916 (60.94), maa://23252 (91.18), maa://37496 (96.77), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (96.06)</t>
+          <t>maa://21411 (96.08)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
-          <t>maa://25389 (87.88)</t>
+          <t>maa://25389 (88.57)</t>
         </is>
       </c>
       <c r="AC8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (92.31), *maa://21915 (69.23)</t>
+          <t>maa://22765 (92.39), *maa://21915 (69.23)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.67)</t>
+          <t>maa://26223 (97.69)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (86.49), ***maa://22740 (5.77), **maa://39938 (44.44), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.24)</t>
+          <t>maa://28711 (86.61), ***maa://22740 (5.77), **maa://39938 (42.86), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.24)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (90.18), *maa://22865 (51.92)</t>
+          <t>maa://26206 (90.43), *maa://22865 (51.92)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.02), **maa://32237 (40.91), ***maa://34206 (20.83), ***maa://39951 (15.56), ***maa://39243 (28.57), *maa://45271 (56.25)</t>
+          <t>***maa://25695 (18.82), **maa://32237 (41.3), ***maa://34206 (20.0), ***maa://39951 (15.22), ***maa://39243 (28.57), *maa://45271 (52.63)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.24), maa://22755 (87.72), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.32), maa://22755 (87.83), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.7), maa://22726 (100.0), maa://45828 (100.0)</t>
+          <t>maa://22301 (97.72), maa://22726 (100.0), maa://45828 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (54.65), *maa://22733 (60.61), maa://22761 (100.0)</t>
+          <t>*maa://25021 (53.41), *maa://22733 (60.0), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.86), maa://22501 (97.5), *maa://45521 (60.0)</t>
+          <t>maa://22747 (92.9), maa://22501 (97.56), *maa://45521 (60.0)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.85)</t>
+          <t>maa://36713 (97.87)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.23), *maa://21485 (76.81), maa://37962 (87.88)</t>
+          <t>maa://22753 (91.28), *maa://21485 (76.81), maa://37962 (87.88)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.44), maa://36677 (92.59), maa://39872 (90.91)</t>
+          <t>maa://23669 (95.47), maa://36677 (92.59), maa://39872 (90.91)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.1), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.26), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.82), maa://36673 (92.96), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.87), maa://36673 (92.96), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (75.0), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (74.03), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.44), *maa://22583 (74.24), *maa://22500 (57.78)</t>
+          <t>maa://22676 (92.56), *maa://22583 (74.24), *maa://22500 (57.78)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (32.62), maa://39883 (91.94), *maa://39885 (55.56)</t>
+          <t>**maa://22737 (33.57), maa://39883 (91.94), *maa://39885 (55.56)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.58), maa://21288 (96.3), maa://39841 (95.65), maa://36682 (97.44)</t>
+          <t>maa://26245 (96.62), maa://21288 (96.3), maa://39841 (95.7), maa://36682 (97.44)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (93.94), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.0), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.39), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (40.74), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.61), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (42.86), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (87.92), maa://21478 (91.67)</t>
+          <t>maa://24304 (88.04), maa://21478 (91.67)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.51), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.57), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.5), *maa://36666 (79.12), *maa://22766 (69.91)</t>
+          <t>maa://21364 (81.37), *maa://36666 (78.26), *maa://22766 (68.7)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.35), maa://36679 (93.62), maa://37650 (97.06)</t>
+          <t>maa://21441 (96.38), maa://36679 (93.62), maa://37650 (97.06)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.77), *maa://28648 (68.75), maa://36674 (82.22)</t>
+          <t>maa://22729 (94.81), *maa://28648 (68.75), maa://36674 (82.22)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.92), maa://28051 (96.0)</t>
+          <t>maa://28501 (97.96), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.7)</t>
+          <t>maa://26228 (95.79)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (65.38), maa://27755 (92.94)</t>
+          <t>*maa://23911 (64.76), maa://27755 (92.94)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.6), maa://39599 (84.44)</t>
+          <t>maa://22430 (88.66), maa://39599 (84.44)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.22)</t>
+          <t>maa://24570 (97.24)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (89.11)</t>
+          <t>maa://24421 (89.16)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.33), *maa://22732 (51.16)</t>
+          <t>maa://22466 (89.4), *maa://22732 (51.16)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AB18" s="2" t="inlineStr">
         <is>
-          <t>maa://24393 (97.67)</t>
+          <t>maa://24393 (97.78)</t>
         </is>
       </c>
       <c r="AC18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (64.62), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (64.71), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.68), maa://25198 (93.4), *maa://20795 (51.56), maa://36680 (93.75)</t>
+          <t>maa://21432 (89.87), maa://25198 (93.4), *maa://20795 (51.56), maa://36680 (93.75)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.61)</t>
+          <t>maa://22864 (89.74)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.83)</t>
+          <t>maa://41331 (86.36)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.84)</t>
+          <t>maa://24372 (96.88)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.44), ***maa://23820 (29.31)</t>
+          <t>maa://21443 (80.6), ***maa://23820 (29.31)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.29), *maa://22432 (78.46)</t>
+          <t>maa://22524 (94.31), *maa://22432 (78.46)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.47), **maa://21678 (48.94), **maa://22735 (42.86)</t>
+          <t>maa://25236 (96.59), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (82.14), *maa://22751 (71.64)</t>
+          <t>maa://27127 (82.3), *maa://22751 (71.64)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.54), *maa://37649 (67.86)</t>
+          <t>maa://21282 (98.55), *maa://37649 (67.86)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.05), maa://39875 (94.03)</t>
+          <t>maa://39756 (95.11), maa://39875 (94.12)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.71), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (72.73)</t>
+          <t>maa://30587 (91.75), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (73.53)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (85.37), maa://23504 (93.09), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (77.78), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (85.02), maa://23504 (93.14), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (78.08), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.71), maa://36672 (80.36), maa://29910 (92.86), **maa://21440 (34.55), maa://45831 (100.0)</t>
+          <t>maa://22523 (85.79), maa://36672 (80.36), maa://29910 (92.86), **maa://21440 (34.55), maa://45831 (100.0)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.02)</t>
+          <t>maa://29753 (95.04)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.36), *maa://25311 (73.53), ***maa://22725 (4.84), **maa://45047 (50.0)</t>
+          <t>*maa://29063 (74.52), *maa://25311 (73.53), ***maa://22725 (4.84), **maa://45047 (50.0)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.27), maa://24621 (96.69), maa://36676 (96.88), maa://22771 (85.71), **maa://37772 (50.0)</t>
+          <t>maa://20108 (96.3), maa://24621 (96.72), maa://36676 (96.88), maa://22771 (85.71), **maa://37772 (50.0)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.67)</t>
+          <t>maa://24913 (91.76)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.38)</t>
+          <t>maa://42235 (94.44)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (48.0), *maa://39601 (76.47), maa://34494 (97.06), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (47.37), *maa://39601 (76.47), maa://34494 (97.14), **maa://36665 (44.44)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (77.59)</t>
+          <t>*maa://30624 (77.97)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AF27" s="2" t="inlineStr">
         <is>
-          <t>maa://24023 (97.1)</t>
+          <t>maa://24023 (97.18)</t>
         </is>
       </c>
       <c r="AG27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.96), maa://25725 (83.72)</t>
+          <t>maa://24465 (90.98), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.73), maa://41749 (91.43), ***maa://39723 (14.29)</t>
+          <t>maa://39929 (90.53), maa://41749 (91.89), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.42), *maa://36701 (65.52)</t>
+          <t>maa://36660 (92.47), *maa://36701 (65.52)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>maa://31694 (98.08)</t>
+          <t>maa://31694 (98.11)</t>
         </is>
       </c>
       <c r="E29" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.17), *maa://28440 (78.85), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.19), *maa://28440 (79.05), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.95), maa://42865 (80.43), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.77), maa://42865 (81.25), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.3), maa://45045 (100.0), maa://45822 (100.0)</t>
+          <t>maa://42979 (96.32), maa://45045 (100.0), maa://45822 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.48), maa://36258 (84.91), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.5), maa://36258 (85.19), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.47), maa://36667 (98.59), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.49), maa://36667 (98.59), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>maa://28065 (95.0)</t>
+          <t>maa://28065 (95.12)</t>
         </is>
       </c>
       <c r="M32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.0), maa://41108 (88.0), maa://41238 (96.88), maa://45523 (100.0)</t>
+          <t>maa://42859 (96.08), maa://41108 (88.0), maa://41238 (96.97), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>maa://21956 (80.28), *maa://22730 (79.31)</t>
+          <t>maa://21956 (80.56), *maa://22730 (79.31)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.77)</t>
+          <t>maa://41296 (95.83)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.0), *maa://21239 (66.67)</t>
+          <t>maa://21280 (89.1), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>**maa://39354 (33.33)</t>
+          <t>**maa://39354 (40.0)</t>
         </is>
       </c>
       <c r="U37" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (69.0)</t>
+          <t>*maa://24383 (69.31)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.04), maa://25199 (84.82), maa://30434 (90.54), ***maa://25036 (16.0), *maa://45059 (66.67), *maa://44165 (66.67)</t>
+          <t>maa://36670 (88.04), maa://25199 (84.82), maa://30434 (90.79), ***maa://25036 (16.0), *maa://45059 (72.73), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (92.2)</t>
+          <t>maa://24709 (92.31)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>*maa://45788 (78.12), maa://45790 (83.33)</t>
+          <t>*maa://45788 (77.78), maa://45790 (87.5)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.74), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
+          <t>maa://23278 (95.75), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.81), maa://21284 (85.11)</t>
+          <t>maa://22525 (92.91), maa://21284 (85.11)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.92), maa://27728 (96.0)</t>
+          <t>maa://29768 (97.93), maa://27728 (96.04)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.95), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (87.5)</t>
+          <t>maa://21229 (84.49), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.64), maa://43901 (93.33)</t>
+          <t>maa://35931 (92.72), maa://43901 (93.75)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.35), maa://29661 (97.24), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.37), maa://29661 (97.24), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (68.0)</t>
+          <t>*maa://39643 (65.38)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (94.01), **maa://32434 (34.78)</t>
+          <t>maa://32534 (93.73), **maa://32434 (33.33)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.34)</t>
+          <t>maa://32532 (92.39)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (82.57), maa://31270 (95.16)</t>
+          <t>maa://27746 (82.57), maa://31270 (95.2)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (65.38)</t>
+          <t>*maa://40438 (66.67)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.66), ***maa://21730 (25.0), ***maa://39501 (20.83), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.79), ***maa://21730 (25.0), ***maa://39501 (20.83), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.32), maa://26254 (96.3)</t>
+          <t>maa://21249 (94.32), maa://26254 (96.43)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.47), **maa://20790 (44.12), ***maa://37170 (17.19), maa://45854 (100.0)</t>
+          <t>maa://24617 (89.57), **maa://20790 (44.12), ***maa://37170 (17.19), maa://45854 (100.0)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.71), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.75), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.51), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (85.71)</t>
+          <t>**maa://32495 (48.51), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (86.05)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919 (96.3), *maa://21281 (80.0)</t>
+          <t>maa://21919 (96.36), *maa://21281 (80.0)</t>
         </is>
       </c>
       <c r="Q5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (95.12)</t>
+          <t>maa://42407 (95.24)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (92.31), maa://30381 (92.31)</t>
+          <t>maa://31836 (92.59), maa://30381 (92.31)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.3), *maa://22758 (75.38)</t>
+          <t>maa://22399 (95.3), *maa://22758 (75.76)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.67), *maa://36671 (68.0), *maa://42530 (60.0), maa://45272 (100.0)</t>
+          <t>*maa://26191 (68.67), *maa://36671 (68.0), *maa://42530 (62.5), maa://45272 (100.0)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.28 13:17:19</t>
+          <t>更新日期：2025.01.30 13:18:46</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (83.04), *maa://21916 (60.94), maa://23252 (91.18), maa://37496 (96.77), **maa://22759 (45.45)</t>
+          <t>maa://32931 (83.33), *maa://21916 (60.94), maa://23252 (91.18), maa://37496 (96.77), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (92.39), *maa://21915 (69.23)</t>
+          <t>maa://22765 (92.39), *maa://21915 (70.37)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (82.29)</t>
+          <t>maa://22736 (82.47)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.69)</t>
+          <t>maa://26223 (97.71)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.82), **maa://32237 (41.3), ***maa://34206 (20.0), ***maa://39951 (15.22), ***maa://39243 (28.57), *maa://45271 (52.63)</t>
+          <t>***maa://25695 (18.82), **maa://32237 (41.3), ***maa://34206 (20.0), ***maa://39951 (15.22), ***maa://39243 (28.57), *maa://45271 (55.0)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (90.36), maa://36669 (87.8), *maa://23264 (61.82)</t>
+          <t>maa://28977 (90.36), maa://36669 (88.1), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.72), maa://22726 (100.0), maa://45828 (100.0)</t>
+          <t>maa://22301 (97.74), maa://22726 (100.0), maa://45828 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.9), maa://22501 (97.56), *maa://45521 (60.0)</t>
+          <t>maa://22747 (92.9), maa://22501 (97.59), *maa://45521 (66.67)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.28), *maa://21485 (76.81), maa://37962 (87.88)</t>
+          <t>maa://22753 (91.28), *maa://21485 (76.26), maa://37962 (88.57)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.87), maa://36673 (92.96), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.89), maa://36673 (92.96), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.03), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (73.71), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.56), *maa://22583 (74.24), *maa://22500 (57.78)</t>
+          <t>maa://22676 (92.62), *maa://22583 (74.24), *maa://22500 (58.7)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (33.57), maa://39883 (91.94), *maa://39885 (55.56)</t>
+          <t>**maa://22737 (33.57), maa://39883 (92.19), *maa://39885 (57.14)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.68), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.69), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (97.06)</t>
+          <t>maa://22764 (97.1)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.61), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (42.86), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.83), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (42.86), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.04), maa://21478 (91.67)</t>
+          <t>maa://24304 (88.1), maa://21478 (91.67)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.37), *maa://36666 (78.26), *maa://22766 (68.7)</t>
+          <t>maa://21364 (81.37), *maa://36666 (78.12), *maa://22766 (68.7)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.38), maa://36679 (93.62), maa://37650 (97.06)</t>
+          <t>maa://21441 (96.4), maa://36679 (93.75), maa://37650 (97.06)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.81), *maa://28648 (68.75), maa://36674 (82.22)</t>
+          <t>maa://22729 (94.81), *maa://28648 (68.75), maa://36674 (80.43)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.96), maa://28051 (96.0)</t>
+          <t>maa://28501 (97.98), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.79)</t>
+          <t>maa://26228 (95.83)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (64.76), maa://27755 (92.94)</t>
+          <t>*maa://23911 (64.76), maa://27755 (93.1)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.66), maa://39599 (84.44)</t>
+          <t>maa://22430 (88.66), maa://39599 (85.11)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (89.16)</t>
+          <t>maa://24421 (89.2)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.4), *maa://22732 (51.16)</t>
+          <t>maa://22466 (89.47), *maa://22732 (51.16)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>maa://24385 (97.14)</t>
+          <t>maa://24385 (97.22)</t>
         </is>
       </c>
       <c r="U18" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.87), maa://25198 (93.4), *maa://20795 (51.56), maa://36680 (93.75)</t>
+          <t>maa://21432 (89.94), maa://25198 (93.4), *maa://20795 (51.56), maa://36680 (93.75)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.74)</t>
+          <t>maa://22864 (89.81)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (86.36)</t>
+          <t>maa://41331 (85.07)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.6), ***maa://23820 (29.31)</t>
+          <t>maa://21443 (80.71), ***maa://23820 (29.31)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.31), *maa://22432 (78.46)</t>
+          <t>maa://22524 (94.37), *maa://22432 (78.46)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (82.3), *maa://22751 (71.64)</t>
+          <t>maa://27127 (81.58), *maa://22751 (72.06)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.55), *maa://37649 (67.86)</t>
+          <t>maa://21282 (98.57), *maa://37649 (67.86)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.57), *maa://41753 (53.85)</t>
+          <t>***maa://28036 (28.57), *maa://41753 (57.14)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.11), maa://39875 (94.12)</t>
+          <t>maa://39756 (95.19), maa://39875 (94.12)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (77.9)</t>
+          <t>*maa://24368 (77.96)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (85.02), maa://23504 (93.14), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (78.08), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (85.02), maa://23504 (93.15), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (78.08), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.79), maa://36672 (80.36), maa://29910 (92.86), **maa://21440 (34.55), maa://45831 (100.0)</t>
+          <t>maa://22523 (85.86), maa://36672 (80.36), maa://29910 (92.86), **maa://21440 (34.55), maa://45831 (100.0)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.04)</t>
+          <t>maa://29753 (95.06)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.52), *maa://25311 (73.53), ***maa://22725 (4.84), **maa://45047 (50.0)</t>
+          <t>*maa://29063 (74.52), *maa://25311 (73.53), ***maa://22725 (4.84), *maa://45047 (66.67)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.44), maa://22545 (100.0), maa://42915 (100.0)</t>
+          <t>maa://20109 (92.49), maa://22545 (100.0), maa://42915 (100.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="X25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29890 (77.78)</t>
+          <t>*maa://29890 (78.26)</t>
         </is>
       </c>
       <c r="Y25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (86.92), *maa://24516 (80.0), maa://26001 (87.5)</t>
+          <t>maa://31215 (87.16), *maa://24516 (80.0), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.3), maa://24621 (96.72), maa://36676 (96.88), maa://22771 (85.71), **maa://37772 (50.0)</t>
+          <t>maa://20108 (96.3), maa://24621 (96.75), maa://36676 (96.88), maa://22771 (85.71), *maa://37772 (66.67)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.76)</t>
+          <t>maa://24913 (91.86)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.44)</t>
+          <t>maa://42235 (94.51)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (95.15), *maa://29765 (62.96)</t>
+          <t>maa://23263 (95.19), *maa://29765 (63.41)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.53), maa://41749 (91.89), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.41), maa://41749 (91.89), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.47), *maa://36701 (65.52)</t>
+          <t>maa://36660 (92.51), *maa://36701 (65.52)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>*maa://25175 (66.0)</t>
+          <t>*maa://25175 (66.67)</t>
         </is>
       </c>
       <c r="I29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.77), maa://42865 (81.25), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.77), maa://42865 (82.0), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.32), maa://45045 (100.0), maa://45822 (100.0)</t>
+          <t>maa://42979 (96.43), maa://45822 (100.0), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.5), maa://36258 (85.19), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.53), maa://36258 (85.32), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>maa://28065 (95.12)</t>
+          <t>maa://28065 (95.24)</t>
         </is>
       </c>
       <c r="M32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.08), maa://41108 (88.0), maa://41238 (96.97), maa://45523 (100.0)</t>
+          <t>maa://42859 (96.12), maa://41108 (88.0), maa://41238 (96.97), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.65)</t>
+          <t>maa://24526 (93.28)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.83)</t>
+          <t>maa://41296 (95.92)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.1), *maa://21239 (66.67)</t>
+          <t>maa://21280 (89.2), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>**maa://39354 (40.0)</t>
+          <t>**maa://39354 (45.45)</t>
         </is>
       </c>
       <c r="U37" s="1" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>*maa://24383 (69.31)</t>
+          <t>*maa://24383 (69.61)</t>
         </is>
       </c>
       <c r="Q38" s="1" t="n"/>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (87.0)</t>
+          <t>maa://36697 (87.06)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.04), maa://25199 (84.82), maa://30434 (90.79), ***maa://25036 (16.0), *maa://45059 (72.73), *maa://44165 (66.67)</t>
+          <t>maa://36670 (88.17), maa://25199 (84.82), maa://30434 (90.79), ***maa://25036 (16.0), *maa://45059 (75.0), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>*maa://45788 (77.78), maa://45790 (87.5)</t>
+          <t>maa://45788 (80.85), maa://45790 (88.89)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.75), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
+          <t>maa://23278 (95.77), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.93), maa://27728 (96.04)</t>
+          <t>maa://29768 (97.94), maa://27728 (96.04)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.49), maa://30807 (95.52), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
+          <t>maa://21229 (84.49), maa://30807 (95.59), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.72), maa://43901 (93.75)</t>
+          <t>maa://35931 (92.41), maa://43901 (88.24)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.73), **maa://32434 (33.33)</t>
+          <t>maa://32534 (93.75), **maa://32434 (33.33)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.39)</t>
+          <t>maa://32532 (92.45)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (66.67)</t>
+          <t>*maa://40438 (67.27)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (97.14), maa://43903 (100.0)</t>
+          <t>maa://42981 (97.22), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.36), *maa://20791 (63.01)</t>
+          <t>maa://22742 (91.41), *maa://20791 (63.01)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.57), **maa://20790 (44.12), ***maa://37170 (17.19), maa://45854 (100.0)</t>
+          <t>maa://24617 (89.57), **maa://20790 (43.48), ***maa://37170 (17.19), maa://45854 (100.0)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.28), maa://27484 (96.43), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.28), maa://27484 (96.46), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (94.12)</t>
+          <t>maa://24390 (94.2)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.51), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (86.05)</t>
+          <t>**maa://32495 (48.51), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (86.67)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (95.24)</t>
+          <t>maa://42407 (95.35)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (60.87), ***maa://22770 (26.09)</t>
+          <t>*maa://33152 (59.57), ***maa://22770 (26.09)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.67), *maa://36671 (68.0), *maa://42530 (62.5), maa://45272 (100.0)</t>
+          <t>*maa://26191 (69.05), *maa://36671 (68.0), *maa://42530 (62.5), maa://45272 (100.0)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.30 13:18:46</t>
+          <t>更新日期：2025.01.31 13:17:43</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (92.39), *maa://21915 (70.37)</t>
+          <t>maa://22765 (92.47), *maa://21915 (70.37)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (86.61), ***maa://22740 (5.77), **maa://39938 (42.86), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.24)</t>
+          <t>maa://28711 (86.61), ***maa://22740 (5.77), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.24)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.82), **maa://32237 (41.3), ***maa://34206 (20.0), ***maa://39951 (15.22), ***maa://39243 (28.57), *maa://45271 (55.0)</t>
+          <t>***maa://25695 (18.82), **maa://32237 (41.3), ***maa://34206 (20.0), ***maa://39951 (14.89), ***maa://39243 (28.57), *maa://45271 (52.38)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.9), maa://22501 (97.59), *maa://45521 (66.67)</t>
+          <t>maa://22747 (92.9), maa://22501 (97.59), *maa://45521 (71.43)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.87)</t>
+          <t>maa://36713 (97.88)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="AF11" s="2" t="inlineStr">
         <is>
-          <t>maa://31203 (95.83)</t>
+          <t>maa://31203 (96.0)</t>
         </is>
       </c>
       <c r="AG11" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.89), maa://36673 (92.96), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.9), maa://36673 (92.96), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (73.71), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (73.39), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.62), *maa://22583 (74.24), *maa://22500 (58.7)</t>
+          <t>maa://22676 (92.62), *maa://22583 (74.63), *maa://22500 (58.7)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (94.0), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.06), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.83), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (42.86), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.45), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (42.11), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.57), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.62), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.4), maa://36679 (93.75), maa://37650 (97.06)</t>
+          <t>maa://21441 (96.4), maa://36679 (93.88), maa://37650 (97.06)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.81), *maa://28648 (68.75), maa://36674 (80.43)</t>
+          <t>maa://22729 (94.84), *maa://28648 (69.23), maa://36674 (80.43)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.66), maa://39599 (85.11)</t>
+          <t>maa://22430 (88.66), maa://39599 (85.42)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>maa://23890 (81.0), *maa://24940 (67.86)</t>
+          <t>maa://23890 (81.19), *maa://24940 (67.86)</t>
         </is>
       </c>
       <c r="Q17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.24)</t>
+          <t>maa://24570 (97.25)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.47), *maa://22732 (51.16)</t>
+          <t>maa://22466 (89.54), *maa://22732 (51.16)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (58.39), **maa://29784 (44.44)</t>
+          <t>*maa://24313 (58.64), **maa://29784 (44.44)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (64.71), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (64.79), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AF19" s="2" t="inlineStr">
         <is>
-          <t>*maa://21663 (62.86)</t>
+          <t>*maa://21663 (63.38)</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.07)</t>
+          <t>maa://41331 (85.29)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.71), ***maa://23820 (29.31)</t>
+          <t>maa://21443 (80.76), ***maa://23820 (29.31)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.37), *maa://22432 (78.46)</t>
+          <t>maa://22524 (94.39), *maa://22432 (77.61)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.57), *maa://37649 (67.86)</t>
+          <t>maa://21282 (98.58), *maa://37649 (67.86)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="AF22" s="2" t="inlineStr">
         <is>
-          <t>maa://29658 (93.48)</t>
+          <t>maa://29658 (93.62)</t>
         </is>
       </c>
       <c r="AG22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.19), maa://39875 (94.12)</t>
+          <t>maa://39756 (95.25), maa://39875 (94.12)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.75), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (73.53)</t>
+          <t>maa://30587 (91.79), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (74.29)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (85.02), maa://23504 (93.15), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (78.08), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (85.08), maa://23504 (93.19), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (78.08), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.3), maa://24621 (96.75), maa://36676 (96.88), maa://22771 (85.71), *maa://37772 (66.67)</t>
+          <t>maa://20108 (96.3), maa://24621 (96.75), maa://36676 (96.97), maa://22771 (85.71), *maa://37772 (66.67)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>maa://41802 (92.86)</t>
+          <t>maa://41802 (93.33)</t>
         </is>
       </c>
       <c r="E26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.51)</t>
+          <t>maa://42235 (94.57)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.98), maa://25725 (83.72)</t>
+          <t>maa://24465 (90.99), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.41), maa://41749 (91.89), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.44), maa://41749 (92.0), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.19), *maa://28440 (79.05), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.21), *maa://28440 (79.05), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (56.9), *maa://30050 (51.61)</t>
+          <t>*maa://23168 (57.63), *maa://30050 (51.61)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t>maa://39477 (87.5)</t>
+          <t>maa://39477 (88.24)</t>
         </is>
       </c>
       <c r="Y30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.53), maa://36258 (85.32), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.55), maa://36258 (85.32), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.12), maa://41108 (88.0), maa://41238 (96.97), maa://45523 (100.0)</t>
+          <t>maa://42859 (96.12), maa://41108 (88.0), maa://41238 (97.0), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.92)</t>
+          <t>maa://41296 (95.97)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (80.85), maa://45790 (88.89)</t>
+          <t>maa://45788 (82.35), maa://45790 (88.89)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), maa://43177 (87.5)</t>
+          <t>**maa://35616 (38.24), maa://43177 (88.89)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (87.88)</t>
+          <t>maa://39366 (88.24)</t>
         </is>
       </c>
       <c r="U44" s="1" t="n"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.37), maa://29661 (97.24), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.38), maa://29661 (97.24), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.75), **maa://32434 (33.33)</t>
+          <t>maa://32534 (93.77), **maa://32434 (33.33)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.45)</t>
+          <t>maa://32532 (92.14)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (82.57), maa://31270 (95.2)</t>
+          <t>maa://27746 (82.73), maa://31270 (95.2)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (67.27)</t>
+          <t>*maa://40438 (67.86)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (97.22), maa://43903 (100.0)</t>
+          <t>maa://42981 (97.3), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.41), maa://36684 (95.1), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.41), maa://36684 (95.19), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.79), ***maa://21730 (25.0), ***maa://39501 (20.83), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.79), ***maa://21730 (24.66), ***maa://39501 (20.83), *maa://36675 (60.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.26), maa://20276 (86.05), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.26), maa://20276 (86.13), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.32), maa://26254 (96.43)</t>
+          <t>maa://21249 (94.37), maa://26254 (96.43)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.28), maa://27484 (96.46), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.28), maa://27484 (96.49), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.75), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.79), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.51), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (86.67)</t>
+          <t>**maa://32495 (48.51), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (87.23)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (63.27), ***maa://26209 (13.04), *maa://39394 (69.57)</t>
+          <t>*maa://30062 (63.27), ***maa://26209 (13.04), *maa://39394 (66.67)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (84.14), maa://22744 (84.0)</t>
+          <t>maa://21245 (84.21), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.31 13:17:43</t>
+          <t>更新日期：2025.02.01 13:16:44</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (73.08), **maa://39431 (50.0), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (73.08), *maa://39431 (53.85), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24371 (54.93)</t>
+          <t>*maa://24371 (54.17)</t>
         </is>
       </c>
       <c r="I8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (92.47), *maa://21915 (70.37)</t>
+          <t>maa://22765 (92.55), *maa://21915 (70.37)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (92.05), maa://39552 (90.0)</t>
+          <t>maa://22762 (92.13), maa://39552 (81.82)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.71)</t>
+          <t>maa://26223 (97.74)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (86.61), ***maa://22740 (5.77), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.24)</t>
+          <t>maa://28711 (86.73), ***maa://22740 (5.77), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.45)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (90.43), *maa://22865 (51.92)</t>
+          <t>maa://26206 (90.43), *maa://22865 (50.94)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.82), **maa://32237 (41.3), ***maa://34206 (20.0), ***maa://39951 (14.89), ***maa://39243 (28.57), *maa://45271 (52.38)</t>
+          <t>***maa://25695 (18.82), **maa://32237 (41.3), ***maa://34206 (20.0), ***maa://39951 (14.89), ***maa://39243 (28.57), *maa://45271 (54.55)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.32), maa://22755 (87.83), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.34), maa://22755 (87.83), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.45)</t>
+          <t>maa://36707 (99.46)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.9), maa://22501 (97.59), *maa://45521 (71.43)</t>
+          <t>maa://22747 (92.9), maa://22501 (97.59), *maa://45521 (75.0)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
-          <t>maa://29912 (100.0), maa://22516 (88.37), *maa://20794 (52.24)</t>
+          <t>maa://29912 (98.48), maa://22516 (88.37), *maa://20794 (52.24)</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.28), *maa://21485 (76.26), maa://37962 (88.57)</t>
+          <t>maa://22753 (91.33), *maa://21485 (76.26), maa://37962 (88.89)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.47), maa://36677 (92.59), maa://39872 (90.91)</t>
+          <t>maa://23669 (95.47), maa://36677 (92.73), maa://39872 (90.91)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.26), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.57), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.9), maa://36673 (92.96), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.9), maa://36673 (93.15), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (94.06), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.12), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.45), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (42.11), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.56), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (42.11), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>maa://23892 (97.4)</t>
+          <t>maa://23892 (97.44)</t>
         </is>
       </c>
       <c r="U15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.37), *maa://36666 (78.12), *maa://22766 (68.7)</t>
+          <t>maa://21364 (81.37), *maa://36666 (78.57), *maa://22766 (68.97)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (89.2)</t>
+          <t>maa://24421 (89.24)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.54), *maa://22732 (51.16)</t>
+          <t>maa://22466 (89.61), *maa://22732 (51.16)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (96.77), maa://22741 (85.71)</t>
+          <t>maa://21917 (96.81), maa://22741 (85.71)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.94), maa://25198 (93.4), *maa://20795 (51.56), maa://36680 (93.75)</t>
+          <t>maa://21432 (90.0), maa://25198 (93.4), *maa://20795 (51.56), maa://36680 (93.75)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (81.58), *maa://22751 (72.06)</t>
+          <t>maa://27127 (80.87), *maa://22751 (72.06)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.57), *maa://41753 (57.14)</t>
+          <t>***maa://28036 (28.57), *maa://41753 (53.33)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.25), maa://39875 (94.12)</t>
+          <t>maa://39756 (95.3), maa://39875 (94.12)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (65.28)</t>
+          <t>*maa://28503 (65.75)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (77.96)</t>
+          <t>*maa://24368 (77.81)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (85.08), maa://23504 (93.19), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (78.08), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (84.74), maa://23504 (93.19), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (78.08), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.52), *maa://25311 (73.53), ***maa://22725 (4.84), *maa://45047 (66.67)</t>
+          <t>*maa://29063 (74.05), *maa://25311 (73.53), ***maa://22725 (4.84), *maa://45047 (71.43)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (87.16), *maa://24516 (80.0), maa://26001 (87.5)</t>
+          <t>maa://31215 (87.27), *maa://24516 (80.0), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.57)</t>
+          <t>maa://42235 (94.62)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.51), *maa://36701 (65.52)</t>
+          <t>maa://36660 (92.56), *maa://36701 (65.52)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.21), *maa://28440 (79.05), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.25), *maa://28440 (79.05), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.77), maa://42865 (82.0), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.77), maa://42865 (82.35), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.43), maa://45822 (100.0), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.48), maa://45822 (100.0), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.55), maa://36258 (85.32), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.57), maa://36258 (85.32), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.49), maa://36667 (98.59), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.49), maa://36667 (98.61), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>maa://28065 (95.24)</t>
+          <t>maa://28065 (95.35)</t>
         </is>
       </c>
       <c r="M32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.12), maa://41108 (88.0), maa://41238 (97.0), maa://45523 (100.0)</t>
+          <t>maa://42859 (96.19), maa://41108 (88.0), maa://41238 (97.0), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>maa://21956 (80.56), *maa://22730 (79.31)</t>
+          <t>maa://21956 (80.69), *maa://22730 (79.31)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.17), maa://25199 (84.82), maa://30434 (90.79), ***maa://25036 (16.0), *maa://45059 (75.0), *maa://44165 (66.67)</t>
+          <t>maa://36670 (88.3), maa://25199 (84.82), maa://30434 (90.79), ***maa://25036 (16.0), *maa://45059 (75.0), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (92.31)</t>
+          <t>maa://24709 (91.67)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (82.35), maa://45790 (88.89)</t>
+          <t>maa://45788 (83.33), maa://45790 (88.89)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), maa://43177 (88.89)</t>
+          <t>**maa://35616 (38.24), maa://43177 (89.47)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.91), maa://21284 (85.11)</t>
+          <t>maa://22525 (92.31), maa://21284 (85.11)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.94), maa://27728 (96.04)</t>
+          <t>maa://29768 (97.95), maa://27728 (96.04)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.49), maa://30807 (95.59), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
+          <t>maa://21229 (84.49), maa://30807 (95.65), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.41), maa://43901 (88.24)</t>
+          <t>maa://35931 (92.43), maa://43901 (88.24)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.14)</t>
+          <t>maa://32532 (92.2)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (82.73), maa://31270 (95.2)</t>
+          <t>maa://27746 (82.88), maa://31270 (95.2)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (67.86)</t>
+          <t>*maa://40438 (68.42)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>maa://44405 (88.0)</t>
+          <t>maa://44405 (88.46)</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.88), *maa://30515 (69.9), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (90.74), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.88), *maa://30515 (69.9), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (90.91), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.5), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.51), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.26), maa://20276 (86.13), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.62), maa://20276 (86.13), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (94.2)</t>
+          <t>maa://24390 (94.29)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.32), maa://27295 (85.07), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (97.35), maa://27295 (85.07), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.51), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (87.23)</t>
+          <t>**maa://32495 (48.51), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (87.5)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (84.21), maa://22744 (84.0)</t>
+          <t>maa://21245 (84.28), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (95.35)</t>
+          <t>maa://42407 (95.45)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>maa://21955 (94.44)</t>
+          <t>maa://21955 (94.59)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.0), maa://24957 (97.73)</t>
+          <t>maa://28624 (92.31), maa://24957 (97.73)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.3), *maa://22758 (75.76)</t>
+          <t>maa://22399 (95.33), *maa://22758 (75.76)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.01 13:16:44</t>
+          <t>更新日期：2025.02.02 13:17:29</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (82.47)</t>
+          <t>maa://22736 (82.83)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.74)</t>
+          <t>maa://26223 (97.79)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (86.73), ***maa://22740 (5.77), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.45)</t>
+          <t>maa://28711 (86.84), ***maa://22740 (5.77), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.45)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (90.43), *maa://22865 (50.94)</t>
+          <t>maa://26206 (89.66), *maa://22865 (50.94)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.34), maa://22755 (87.83), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.35), maa://22755 (87.83), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.88)</t>
+          <t>maa://36713 (97.69)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
-          <t>maa://29912 (98.48), maa://22516 (88.37), *maa://20794 (52.24)</t>
+          <t>maa://29912 (98.51), maa://22516 (88.37), *maa://20794 (52.24)</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.33), *maa://21485 (76.26), maa://37962 (88.89)</t>
+          <t>maa://22753 (91.33), *maa://21485 (76.26), maa://37962 (89.19)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.47), maa://36677 (92.73), maa://39872 (90.91)</t>
+          <t>maa://23669 (95.47), maa://36677 (92.98), maa://39872 (90.91)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.57), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.87), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.9), maa://36673 (93.15), maa://25001 (85.51)</t>
+          <t>maa://24999 (91.91), maa://36673 (93.15), maa://25001 (85.51)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>maa://34957 (81.43), *maa://22768 (51.61)</t>
+          <t>maa://34957 (81.69), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (33.57), maa://39883 (92.19), *maa://39885 (57.14)</t>
+          <t>**maa://22737 (33.57), maa://39883 (92.42), *maa://39885 (57.14)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.62), maa://21288 (96.3), maa://39841 (95.7), maa://36682 (97.44)</t>
+          <t>maa://26245 (96.64), maa://21288 (96.3), maa://39841 (95.79), maa://36682 (97.44)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.69), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.7), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.56), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (42.11), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.67), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (42.11), maa://45058 (100.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.1), maa://21478 (91.67)</t>
+          <t>maa://24304 (88.15), maa://21478 (91.67)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.62), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.18), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>maa://23892 (97.44)</t>
+          <t>maa://23892 (96.2)</t>
         </is>
       </c>
       <c r="U15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.37), *maa://36666 (78.57), *maa://22766 (68.97)</t>
+          <t>maa://21364 (81.37), *maa://36666 (78.79), *maa://22766 (68.97)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.4), maa://36679 (93.88), maa://37650 (97.06)</t>
+          <t>maa://21441 (96.4), maa://36679 (94.0), maa://37650 (97.06)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.84), *maa://28648 (69.23), maa://36674 (80.43)</t>
+          <t>maa://22729 (94.84), *maa://28648 (69.7), maa://36674 (80.43)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>maa://21624 (83.78)</t>
+          <t>maa://21624 (84.21)</t>
         </is>
       </c>
       <c r="E17" s="1" t="n"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>maa://23890 (81.19), *maa://24940 (67.86)</t>
+          <t>maa://23890 (81.37), *maa://24940 (67.86)</t>
         </is>
       </c>
       <c r="Q17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.25)</t>
+          <t>maa://24570 (97.26)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.61), *maa://22732 (51.16)</t>
+          <t>maa://22466 (89.68), *maa://22732 (51.16)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (96.81), maa://22741 (85.71)</t>
+          <t>maa://21917 (96.84), maa://22741 (85.71)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (58.64), **maa://29784 (44.44)</t>
+          <t>*maa://24313 (58.9), **maa://29784 (44.44)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (64.79), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (64.87), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.0), maa://25198 (93.4), *maa://20795 (51.56), maa://36680 (93.75)</t>
+          <t>maa://21432 (90.06), maa://25198 (93.4), *maa://20795 (51.56), maa://36680 (93.75)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.29)</t>
+          <t>maa://41331 (85.51)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.76), ***maa://23820 (29.31)</t>
+          <t>maa://21443 (80.81), ***maa://23820 (29.31)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.3), maa://39875 (94.12)</t>
+          <t>maa://39756 (95.34), maa://39875 (94.2)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (65.75)</t>
+          <t>*maa://28503 (66.22)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.3), maa://24621 (96.75), maa://36676 (96.97), maa://22771 (85.71), *maa://37772 (66.67)</t>
+          <t>maa://20108 (96.32), maa://24621 (96.77), maa://36676 (96.97), maa://22771 (85.71), *maa://37772 (66.67)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>maa://28071 (89.47)</t>
+          <t>maa://28071 (90.0)</t>
         </is>
       </c>
       <c r="M27" s="1" t="n"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AF27" s="2" t="inlineStr">
         <is>
-          <t>maa://24023 (97.18)</t>
+          <t>maa://24023 (97.22)</t>
         </is>
       </c>
       <c r="AG27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.99), maa://25725 (83.72)</t>
+          <t>maa://24465 (91.01), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>maa://30770 (80.43)</t>
+          <t>maa://30770 (80.85)</t>
         </is>
       </c>
       <c r="M28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.44), maa://41749 (92.0), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.24), maa://41749 (92.0), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.56), *maa://36701 (65.52)</t>
+          <t>maa://36660 (92.31), *maa://36701 (65.52)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>*maa://25175 (66.67)</t>
+          <t>*maa://25175 (65.38)</t>
         </is>
       </c>
       <c r="I29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (57.63), *maa://30050 (51.61)</t>
+          <t>*maa://23168 (57.38), *maa://30050 (51.61)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.77), maa://42865 (82.35), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.77), maa://42865 (82.69), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>maa://30442 (95.0)</t>
+          <t>maa://30442 (95.08)</t>
         </is>
       </c>
       <c r="M30" s="1" t="n"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t>maa://39477 (88.24)</t>
+          <t>maa://39477 (88.89)</t>
         </is>
       </c>
       <c r="Y30" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.48), maa://45822 (100.0), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.58), maa://45822 (100.0), maa://45045 (100.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.57), maa://36258 (85.32), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.26), maa://36258 (84.55), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.49), maa://36667 (98.61), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.5), maa://36667 (98.61), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.19), maa://41108 (88.0), maa://41238 (97.0), maa://45523 (100.0)</t>
+          <t>maa://42859 (96.26), maa://41108 (88.0), maa://41238 (97.0), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.28)</t>
+          <t>maa://24526 (93.31)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (95.97)</t>
+          <t>maa://41296 (96.0)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.3), maa://25199 (84.82), maa://30434 (90.79), ***maa://25036 (16.0), *maa://45059 (75.0), *maa://44165 (66.67)</t>
+          <t>maa://36670 (87.37), maa://25199 (84.82), maa://30434 (90.91), ***maa://25036 (16.0), *maa://45059 (75.0), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.67)</t>
+          <t>maa://24709 (91.72)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (83.33), maa://45790 (88.89)</t>
+          <t>maa://45788 (83.05), maa://45790 (88.89)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.77), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
+          <t>maa://23278 (95.78), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>maa://24466 (93.33)</t>
+          <t>maa://24466 (93.48)</t>
         </is>
       </c>
       <c r="I41" s="1" t="n"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.31), maa://21284 (85.11)</t>
+          <t>maa://22525 (92.36), maa://21284 (85.11)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.95), maa://27728 (96.04)</t>
+          <t>maa://29768 (97.97), maa://27728 (96.08)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.43), maa://43901 (88.24)</t>
+          <t>maa://35931 (92.48), maa://43901 (88.89)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.77), **maa://32434 (33.33)</t>
+          <t>maa://32534 (93.79), **maa://32434 (33.33)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.2)</t>
+          <t>maa://32532 (91.96)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (82.88), maa://31270 (95.2)</t>
+          <t>maa://27746 (82.88), maa://31270 (95.24)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.43), maa://25390 (96.12), maa://36681 (87.34)</t>
+          <t>maa://24702 (94.46), maa://25390 (96.14), maa://36681 (87.34)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.88), *maa://30515 (69.9), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (90.91), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.88), *maa://30515 (69.9), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (91.23), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.41), *maa://20791 (63.01)</t>
+          <t>maa://22742 (91.57), *maa://20791 (62.16)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.41), maa://36684 (95.19), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.41), maa://36684 (95.41), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.79), ***maa://21730 (24.66), ***maa://39501 (20.83), *maa://36675 (60.0)</t>
+          <t>maa://25251 (92.17), ***maa://21730 (25.68), ***maa://39501 (17.24), **maa://36675 (50.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (95.92), maa://40192 (100.0), maa://39849 (88.89)</t>
+          <t>maa://36987 (96.0), maa://40192 (100.0), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.51), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.53), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.62), maa://20276 (86.13), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (66.15), maa://20276 (86.36), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.37), maa://26254 (96.43)</t>
+          <t>maa://21249 (94.42), maa://26254 (96.43)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.57), **maa://20790 (43.48), ***maa://37170 (17.19), maa://45854 (100.0)</t>
+          <t>maa://24617 (89.66), **maa://20790 (43.48), ***maa://37170 (16.92), maa://45854 (100.0)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.28), maa://27484 (96.49), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.38), maa://27484 (96.55), maa://27480 (82.86)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (94.29)</t>
+          <t>maa://24390 (94.52)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -901,7 +901,7 @@
       </c>
       <c r="AF3" s="2" t="inlineStr">
         <is>
-          <t>*maa://21289 (72.73)</t>
+          <t>*maa://21289 (73.91)</t>
         </is>
       </c>
       <c r="AG3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.79), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.94), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (97.35), maa://27295 (85.07), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (96.49), maa://27295 (85.71), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.51), ***maa://31785 (22.22), ***maa://36683 (28.26), maa://43217 (87.5)</t>
+          <t>**maa://32495 (48.51), ***maa://31785 (22.22), maa://43217 (88.24), ***maa://36683 (28.26)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (63.27), ***maa://26209 (13.04), *maa://39394 (66.67)</t>
+          <t>*maa://30062 (64.0), ***maa://26209 (13.04), *maa://39394 (66.67)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (84.28), maa://22744 (84.0)</t>
+          <t>maa://21245 (84.62), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919 (96.36), *maa://21281 (80.0)</t>
+          <t>maa://21919 (96.55), *maa://21281 (80.0)</t>
         </is>
       </c>
       <c r="Q5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (95.45)</t>
+          <t>maa://42407 (95.83)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>maa://24370 (96.61)</t>
+          <t>maa://24370 (96.67)</t>
         </is>
       </c>
       <c r="I6" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (98.97)</t>
+          <t>maa://24839 (98.99)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (92.59), maa://30381 (92.31)</t>
+          <t>maa://31836 (92.59), maa://30381 (92.86)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (59.57), ***maa://22770 (26.09)</t>
+          <t>*maa://33152 (62.0), ***maa://22770 (26.09)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>maa://21955 (94.59)</t>
+          <t>maa://21955 (94.74)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.31), maa://24957 (97.73)</t>
+          <t>maa://28624 (92.45), maa://24957 (97.73)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.33), *maa://22758 (75.76)</t>
+          <t>maa://22399 (95.33), *maa://22758 (75.36)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (69.05), *maa://36671 (68.0), *maa://42530 (62.5), maa://45272 (100.0)</t>
+          <t>*maa://26191 (68.24), *maa://36671 (68.0), *maa://42530 (62.5), maa://45272 (100.0)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.02 13:17:29</t>
+          <t>更新日期：2025.02.08 13:16:19</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24371 (54.17)</t>
+          <t>*maa://24371 (55.41)</t>
         </is>
       </c>
       <c r="I8" s="1" t="n"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (83.33), *maa://21916 (60.94), maa://23252 (91.18), maa://37496 (96.77), **maa://22759 (45.45)</t>
+          <t>maa://32931 (83.48), *maa://21916 (61.54), maa://23252 (91.18), maa://37496 (96.77), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (96.08)</t>
+          <t>maa://21411 (95.84)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (92.13), maa://39552 (81.82)</t>
+          <t>maa://22762 (92.22), maa://39552 (81.82)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (82.83)</t>
+          <t>maa://22736 (83.0)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.19), maa://26222 (97.92)</t>
+          <t>**maa://22866 (30.19), maa://26222 (98.0)</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="AA9" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (86.84), ***maa://22740 (5.77), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.45)</t>
+          <t>maa://28711 (87.18), ***maa://22740 (5.66), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.83), *maa://45044 (66.67)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.66), *maa://22865 (50.94)</t>
+          <t>maa://26206 (89.17), *maa://22865 (50.94)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.82), **maa://32237 (41.3), ***maa://34206 (20.0), ***maa://39951 (14.89), ***maa://39243 (28.57), *maa://45271 (54.55)</t>
+          <t>***maa://25695 (18.82), ***maa://34206 (20.0), ***maa://39951 (14.29), ***maa://39243 (28.57), *maa://45271 (56.0)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>**maa://24395 (41.38)</t>
+          <t>**maa://24395 (41.94)</t>
         </is>
       </c>
       <c r="M10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.35), maa://22755 (87.83), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.46), maa://22755 (87.83), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.41), *maa://22733 (60.0), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (53.33), *maa://22733 (60.0), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.46)</t>
+          <t>maa://36707 (99.47)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (88.78)</t>
+          <t>maa://21287 (88.89)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>maa://45557 (100.0)</t>
+          <t>maa://45557 (87.5)</t>
         </is>
       </c>
       <c r="Q11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.9), maa://22501 (97.59), *maa://45521 (75.0)</t>
+          <t>maa://22747 (93.04), maa://22501 (97.65), maa://45521 (81.82)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.69)</t>
+          <t>maa://36713 (97.73)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
-          <t>maa://29912 (98.51), maa://22516 (88.37), *maa://20794 (52.24)</t>
+          <t>maa://29912 (98.53), maa://22516 (88.37), *maa://20794 (52.24)</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>maa://30766 (89.29), *maa://36678 (60.0)</t>
+          <t>maa://30766 (89.29), *maa://36678 (66.67)</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -1980,12 +1980,12 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.88)</t>
+          <t>maa://21867 (89.88), **maa://45826 (33.33)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (91.33), *maa://21485 (76.26), maa://37962 (89.19)</t>
+          <t>maa://22753 (90.91), *maa://21485 (76.26), maa://37962 (90.0)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.47), maa://36677 (92.98), maa://39872 (90.91)</t>
+          <t>maa://23669 (95.47), maa://36677 (93.1), maa://39872 (91.3)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.87), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.32), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (91.91), maa://36673 (93.15), maa://25001 (85.51)</t>
+          <t>maa://24999 (92.01), maa://36673 (93.15), maa://25001 (85.71)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (73.39), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (73.08), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.62), *maa://22583 (74.63), *maa://22500 (58.7)</t>
+          <t>maa://22676 (92.68), *maa://22583 (74.63), *maa://22500 (58.7)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>maa://34957 (81.69), *maa://22768 (51.61)</t>
+          <t>maa://34957 (82.19), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (33.57), maa://39883 (92.42), *maa://39885 (57.14)</t>
+          <t>**maa://22737 (33.57), maa://39883 (92.54), *maa://39885 (57.14)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.64), maa://21288 (96.3), maa://39841 (95.79), maa://36682 (97.44)</t>
+          <t>maa://26245 (96.67), maa://21288 (96.3), maa://39841 (95.96), maa://36682 (97.44)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.7), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.73), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (94.12), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.23), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AB14" s="2" t="inlineStr">
         <is>
-          <t>maa://22764 (97.1)</t>
+          <t>maa://22764 (97.14)</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.67), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (42.11), maa://45058 (100.0)</t>
+          <t>*maa://22743 (77.51), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (44.07), maa://45058 (88.89)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (88.15), maa://21478 (91.67)</t>
+          <t>maa://24304 (87.85), maa://21478 (89.19)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>*maa://21334 (53.57)</t>
+          <t>*maa://21334 (55.17)</t>
         </is>
       </c>
       <c r="M15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.18), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.24), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.37), *maa://36666 (78.79), *maa://22766 (68.97)</t>
+          <t>maa://21364 (81.17), *maa://36666 (79.05), *maa://22766 (68.97)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.4), maa://36679 (94.0), maa://37650 (97.06)</t>
+          <t>maa://21441 (96.4), maa://36679 (94.12), maa://37650 (97.06)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>maa://28504 (90.91)</t>
+          <t>maa://28504 (91.23)</t>
         </is>
       </c>
       <c r="Q16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.84), *maa://28648 (69.7), maa://36674 (80.43)</t>
+          <t>maa://22729 (94.87), *maa://28648 (69.12), maa://36674 (80.85)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (97.98), maa://28051 (96.0)</t>
+          <t>maa://28501 (98.0), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.83)</t>
+          <t>maa://26228 (95.88)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (64.76), maa://27755 (93.1)</t>
+          <t>*maa://23911 (64.76), maa://27755 (93.48)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (48.15)</t>
+          <t>**maa://42324 (50.0)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.26)</t>
+          <t>maa://24570 (97.29)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (89.24)</t>
+          <t>maa://24421 (89.33)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.68), *maa://22732 (51.16)</t>
+          <t>maa://22466 (89.94), *maa://22732 (51.16)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>maa://24385 (97.22)</t>
+          <t>maa://24385 (97.3)</t>
         </is>
       </c>
       <c r="U18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (96.84), maa://22741 (85.71)</t>
+          <t>maa://21917 (96.88), maa://22741 (85.71)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AB18" s="2" t="inlineStr">
         <is>
-          <t>maa://24393 (97.78)</t>
+          <t>maa://24393 (97.92)</t>
         </is>
       </c>
       <c r="AC18" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (58.9), **maa://29784 (44.44)</t>
+          <t>*maa://24313 (59.39), **maa://29784 (46.43)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>maa://24386 (99.12)</t>
+          <t>maa://24386 (99.14)</t>
         </is>
       </c>
       <c r="U19" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (64.87), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (65.2), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.06), maa://25198 (93.4), *maa://20795 (51.56), maa://36680 (93.75)</t>
+          <t>maa://21432 (90.24), maa://25198 (93.4), *maa://20795 (51.16), maa://36680 (93.75)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864 (89.81)</t>
+          <t>maa://22864 (89.87)</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.51)</t>
+          <t>maa://41331 (85.0)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>maa://37442 (94.87)</t>
+          <t>maa://37442 (95.0)</t>
         </is>
       </c>
       <c r="Q20" s="1" t="n"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>maa://31731 (95.92)</t>
+          <t>maa://31731 (96.08)</t>
         </is>
       </c>
       <c r="M21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.81), ***maa://23820 (29.31)</t>
+          <t>maa://21443 (80.91), ***maa://23820 (29.31)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.39), *maa://22432 (77.61)</t>
+          <t>maa://22524 (94.47), *maa://22432 (77.14)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.59), **maa://21678 (48.94), **maa://22735 (42.86)</t>
+          <t>maa://25236 (96.63), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>maa://38495 (85.71)</t>
+          <t>maa://38495 (86.67)</t>
         </is>
       </c>
       <c r="U22" s="1" t="n"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="AF22" s="2" t="inlineStr">
         <is>
-          <t>maa://29658 (93.62)</t>
+          <t>maa://29658 (93.75)</t>
         </is>
       </c>
       <c r="AG22" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.57), *maa://41753 (53.33)</t>
+          <t>***maa://28036 (29.17), *maa://41753 (53.33)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.34), maa://39875 (94.2)</t>
+          <t>maa://39756 (95.47), maa://39875 (94.37)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.79), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (74.29)</t>
+          <t>maa://30587 (91.84), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (76.32)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>maa://24387 (81.58), maa://31212 (93.33)</t>
+          <t>maa://24387 (82.05), maa://31212 (93.55)</t>
         </is>
       </c>
       <c r="U23" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (66.22)</t>
+          <t>*maa://28503 (67.95)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (77.81)</t>
+          <t>*maa://24368 (78.04)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (84.74), maa://23504 (93.19), **maa://22892 (40.14), *maa://25141 (76.74), *maa://36663 (78.08), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (84.74), maa://23504 (93.29), **maa://22892 (40.14), *maa://25141 (76.92), *maa://36663 (78.38), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.86), maa://36672 (80.36), maa://29910 (92.86), **maa://21440 (34.55), maa://45831 (100.0)</t>
+          <t>maa://22523 (85.86), maa://36672 (80.36), maa://29910 (92.98), **maa://21440 (35.71), *maa://45831 (75.0)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.06)</t>
+          <t>maa://29753 (95.08)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.05), *maa://25311 (73.53), ***maa://22725 (4.84), *maa://45047 (71.43)</t>
+          <t>*maa://29063 (74.05), *maa://25311 (73.53), ***maa://22725 (4.84), *maa://45047 (62.5)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>maa://24382 (93.33)</t>
+          <t>maa://24382 (93.55)</t>
         </is>
       </c>
       <c r="Q25" s="1" t="n"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.49), maa://22545 (100.0), maa://42915 (100.0)</t>
+          <t>maa://20109 (92.05), maa://22545 (100.0), *maa://42915 (75.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (87.27), *maa://24516 (80.0), maa://26001 (87.5)</t>
+          <t>maa://31215 (87.5), maa://24516 (80.22), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.32), maa://24621 (96.77), maa://36676 (96.97), maa://22771 (85.71), *maa://37772 (66.67)</t>
+          <t>maa://20108 (96.32), maa://24621 (96.85), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (66.67)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (91.86)</t>
+          <t>maa://24913 (92.05)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.62)</t>
+          <t>maa://42235 (94.68)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (47.37), *maa://39601 (76.47), maa://34494 (97.14), **maa://36665 (44.44)</t>
+          <t>**maa://21283 (47.37), *maa://39601 (77.78), maa://34494 (97.14), **maa://36665 (50.0)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (91.01), maa://25725 (83.72)</t>
+          <t>maa://24465 (91.07), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.24), maa://41749 (92.0), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.48), maa://41749 (90.0), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.31), *maa://36701 (65.52)</t>
+          <t>maa://36660 (92.11), *maa://36701 (65.52)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.25), *maa://28440 (79.05), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.39), *maa://28440 (79.25), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (57.38), *maa://30050 (51.61)</t>
+          <t>*maa://23168 (58.06), *maa://30050 (53.12)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.77), maa://42865 (82.69), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.77), maa://42865 (81.82), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>maa://30442 (95.08)</t>
+          <t>maa://30442 (95.16)</t>
         </is>
       </c>
       <c r="M30" s="1" t="n"/>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>maa://21442 (99.54)</t>
+          <t>maa://21442 (99.55)</t>
         </is>
       </c>
       <c r="Q30" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.58), maa://45822 (100.0), maa://45045 (100.0)</t>
+          <t>maa://42979 (96.67), maa://45822 (100.0), *maa://45045 (80.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.26), maa://36258 (84.55), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.33), maa://36258 (84.82), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.5), maa://36667 (98.61), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.5), maa://36667 (98.67), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.26), maa://41108 (88.0), maa://41238 (97.0), maa://45523 (100.0)</t>
+          <t>maa://42859 (96.43), maa://41108 (88.0), maa://41238 (97.06), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>maa://21956 (80.69), *maa://22730 (79.31)</t>
+          <t>maa://21956 (81.08), *maa://22730 (79.31)</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.31)</t>
+          <t>maa://24526 (93.36)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.0)</t>
+          <t>maa://41296 (96.05)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="AF35" s="2" t="inlineStr">
         <is>
-          <t>maa://39479 (93.75)</t>
+          <t>maa://39479 (94.12)</t>
         </is>
       </c>
       <c r="AG35" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718 (100.0), maa://45789 (100.0)</t>
+          <t>maa://45718 (99.01), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.2), *maa://21239 (66.67)</t>
+          <t>maa://21280 (89.3), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (87.06)</t>
+          <t>maa://36697 (86.76)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (87.37), maa://25199 (84.82), maa://30434 (90.91), ***maa://25036 (16.0), *maa://45059 (75.0), *maa://44165 (66.67)</t>
+          <t>maa://36670 (88.66), maa://25199 (84.82), maa://30434 (91.03), ***maa://25036 (16.0), *maa://45059 (78.57), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.72)</t>
+          <t>maa://24709 (91.22)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (83.05), maa://45790 (88.89)</t>
+          <t>maa://45788 (80.95), maa://45790 (81.82)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.78), maa://21386 (95.74), maa://36664 (90.91), maa://45550 (100.0)</t>
+          <t>maa://23278 (95.51), maa://21386 (95.77), maa://36664 (90.91), maa://45550 (100.0)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (38.24), maa://43177 (89.47)</t>
+          <t>**maa://35616 (40.0), maa://43177 (90.48)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>maa://22525 (92.36), maa://21284 (85.11)</t>
+          <t>maa://22525 (92.36), maa://21284 (85.42)</t>
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
@@ -5740,12 +5740,12 @@
       </c>
       <c r="S43" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>maa://43198 (100.0)</t>
+          <t>maa://43198 (100.0), maa://46286 (100.0)</t>
         </is>
       </c>
       <c r="U43" s="1" t="n"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.97), maa://27728 (96.08)</t>
+          <t>maa://29768 (97.99), maa://27728 (96.08)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.49), maa://30807 (95.65), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
+          <t>maa://21229 (84.57), maa://30807 (95.65), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (38.46)</t>
+          <t>**maa://39364 (37.93)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.48), maa://43901 (88.89)</t>
+          <t>maa://35931 (92.53), maa://43901 (90.48)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.38), maa://29661 (97.24), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.41), maa://29661 (97.28), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (65.38)</t>
+          <t>*maa://39643 (66.67)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.79), **maa://32434 (33.33)</t>
+          <t>maa://32534 (93.87), **maa://32434 (33.33)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (91.96)</t>
+          <t>maa://32532 (92.07)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (98.31)</t>
+          <t>maa://25176 (98.36)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (54.84)</t>
+          <t>*maa://37964 (60.0)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (82.88), maa://31270 (95.24)</t>
+          <t>maa://27746 (83.04), maa://31270 (95.28)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (68.42)</t>
+          <t>*maa://40438 (67.24)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (97.3), maa://43903 (100.0)</t>
+          <t>maa://42981 (94.74), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.88), *maa://30515 (69.9), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (91.23), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.52), *maa://30515 (69.9), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (91.23), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.17), ***maa://21730 (25.68), ***maa://39501 (17.24), **maa://36675 (50.0)</t>
+          <t>maa://25251 (92.17), ***maa://21730 (25.33), ***maa://39501 (17.24), **maa://36675 (50.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.53), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.54), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.51), ***maa://31785 (22.22), maa://43217 (88.24), ***maa://36683 (28.26)</t>
+          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (88.24), ***maa://36683 (28.26)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.08 13:16:19</t>
+          <t>更新日期：2025.02.09 13:17:45</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.84)</t>
+          <t>maa://21411 (95.86)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.82), ***maa://34206 (20.0), ***maa://39951 (14.29), ***maa://39243 (28.57), *maa://45271 (56.0)</t>
+          <t>***maa://25695 (18.82), ***maa://34206 (20.0), ***maa://39951 (14.0), ***maa://39243 (28.57), *maa://45271 (56.0)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (92.01), maa://36673 (93.15), maa://25001 (85.71)</t>
+          <t>maa://24999 (92.02), maa://36673 (93.15), maa://25001 (85.71)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (33.57), maa://39883 (92.54), *maa://39885 (57.14)</t>
+          <t>**maa://22737 (33.33), maa://39883 (91.18), *maa://39885 (55.17)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.51), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (44.07), maa://45058 (88.89)</t>
+          <t>*maa://22743 (77.51), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (44.07), maa://45058 (90.0)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.17), *maa://36666 (79.05), *maa://22766 (68.97)</t>
+          <t>maa://21364 (81.17), *maa://36666 (79.25), *maa://22766 (68.38)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.4), maa://36679 (94.12), maa://37650 (97.06)</t>
+          <t>maa://21441 (96.4), maa://36679 (94.12), maa://37650 (97.14)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.87), *maa://28648 (69.12), maa://36674 (80.85)</t>
+          <t>maa://22729 (94.9), *maa://28648 (69.12), maa://36674 (80.85)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (64.76), maa://27755 (93.48)</t>
+          <t>*maa://23911 (65.09), maa://27755 (93.48)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.24), maa://25198 (93.4), *maa://20795 (51.16), maa://36680 (93.75)</t>
+          <t>maa://21432 (90.24), maa://25198 (93.46), *maa://20795 (51.16), maa://36680 (93.75)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.0)</t>
+          <t>maa://41331 (85.21)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>maa://37442 (95.0)</t>
+          <t>maa://37442 (95.12)</t>
         </is>
       </c>
       <c r="Q20" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.47), *maa://22432 (77.14)</t>
+          <t>maa://22524 (94.5), *maa://22432 (77.14)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (80.87), *maa://22751 (72.06)</t>
+          <t>maa://27127 (80.87), *maa://22751 (71.01)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (78.04)</t>
+          <t>*maa://24368 (78.04), **maa://46650 (50.0)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (84.74), maa://23504 (93.29), **maa://22892 (40.14), *maa://25141 (76.92), *maa://36663 (78.38), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (84.74), maa://23504 (93.29), **maa://22892 (40.14), *maa://25141 (76.92), *maa://36663 (78.67), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AF27" s="2" t="inlineStr">
         <is>
-          <t>maa://24023 (97.22)</t>
+          <t>maa://24023 (97.26)</t>
         </is>
       </c>
       <c r="AG27" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.48), maa://41749 (90.0), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.5), maa://41749 (90.12), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.11), *maa://36701 (65.52)</t>
+          <t>maa://36660 (92.13), *maa://36701 (65.52)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168 (58.06), *maa://30050 (53.12)</t>
+          <t>*maa://23168 (58.06), *maa://30050 (51.52)</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.67), maa://45822 (100.0), *maa://45045 (80.0)</t>
+          <t>maa://42979 (96.71), maa://45822 (100.0), *maa://45045 (80.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.43), maa://41108 (88.0), maa://41238 (97.06), maa://45523 (100.0)</t>
+          <t>maa://42859 (96.49), maa://41108 (88.0), maa://41238 (97.09), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.05)</t>
+          <t>maa://41296 (96.13)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718 (99.01), maa://45789 (100.0)</t>
+          <t>maa://45718 (99.04), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.76)</t>
+          <t>maa://36697 (86.41)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.66), maa://25199 (84.82), maa://30434 (91.03), ***maa://25036 (16.0), *maa://45059 (78.57), *maa://44165 (66.67)</t>
+          <t>maa://36670 (88.66), maa://25199 (84.82), maa://30434 (91.03), ***maa://25036 (16.0), *maa://45059 (80.0), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (80.95), maa://45790 (81.82)</t>
+          <t>maa://45788 (81.4), maa://45790 (81.82)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.53), maa://43901 (90.48)</t>
+          <t>maa://35931 (92.56), maa://43901 (90.48)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.41), maa://29661 (97.28), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.42), maa://29661 (97.28), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.07)</t>
+          <t>maa://32532 (92.15)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (83.04), maa://31270 (95.28)</t>
+          <t>maa://27746 (82.3), maa://31270 (95.28)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.46), maa://25390 (96.14), maa://36681 (87.34)</t>
+          <t>maa://24702 (94.48), maa://25390 (96.14), maa://36681 (87.34)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.52), *maa://30515 (69.9), *maa://34787 (72.97), ***maa://20792 (11.93), maa://39402 (91.23), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.52), *maa://30515 (69.9), *maa://34787 (72.97), maa://39402 (91.23), ***maa://20792 (11.93), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (96.0), maa://40192 (100.0), maa://39849 (88.89)</t>
+          <t>maa://36987 (96.08), maa://40192 (100.0), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.66), **maa://20790 (43.48), ***maa://37170 (16.92), maa://45854 (100.0)</t>
+          <t>maa://24617 (89.74), **maa://20790 (43.48), ***maa://37170 (16.92), maa://45854 (100.0)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -901,7 +901,7 @@
       </c>
       <c r="AF3" s="2" t="inlineStr">
         <is>
-          <t>*maa://21289 (73.91)</t>
+          <t>*maa://21289 (75.0)</t>
         </is>
       </c>
       <c r="AG3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (93.94), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (94.01), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (96.49), maa://27295 (85.71), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (96.52), maa://27295 (85.71), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (88.24), ***maa://36683 (28.26)</t>
+          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (88.68), ***maa://36683 (28.26)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (84.62), maa://22744 (84.0)</t>
+          <t>maa://21245 (84.68), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>maa://21955 (94.74)</t>
+          <t>maa://21955 (94.87)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.45), maa://24957 (97.73)</t>
+          <t>maa://28624 (92.52), maa://24957 (97.73)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.33), *maa://22758 (75.36)</t>
+          <t>maa://22399 (95.33), *maa://22758 (74.29)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.09 13:17:45</t>
+          <t>更新日期：2025.02.12 13:18:17</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476 (73.08), *maa://39431 (53.85), *maa://37551 (57.14)</t>
+          <t>*maa://21476 (73.08), *maa://39431 (57.14), *maa://37551 (57.14)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.86)</t>
+          <t>maa://21411 (95.88)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (92.22), maa://39552 (81.82)</t>
+          <t>maa://22762 (92.22), *maa://39552 (75.0)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.79)</t>
+          <t>maa://26223 (97.83)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.18), ***maa://22740 (5.66), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (95.83), *maa://45044 (66.67)</t>
+          <t>maa://28711 (87.18), ***maa://22740 (5.66), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (96.0), *maa://45044 (66.67)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.82), ***maa://34206 (20.0), ***maa://39951 (14.0), ***maa://39243 (28.57), *maa://45271 (56.0)</t>
+          <t>***maa://25695 (18.82), ***maa://34206 (20.0), ***maa://39951 (15.69), ***maa://39243 (28.57), *maa://45271 (57.69)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.33), *maa://22733 (60.0), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (53.85), *maa://22733 (60.0), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.04), maa://22501 (97.65), maa://45521 (81.82)</t>
+          <t>maa://22747 (93.08), maa://22501 (97.67), *maa://45521 (76.92)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.73)</t>
+          <t>maa://36713 (97.74)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.88), **maa://45826 (33.33)</t>
+          <t>maa://21867 (89.88), ***maa://45826 (25.0)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (90.91), *maa://21485 (76.26), maa://37962 (90.0)</t>
+          <t>maa://22753 (90.91), *maa://21485 (76.43), maa://37962 (90.24)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.47), maa://36677 (93.1), maa://39872 (91.3)</t>
+          <t>maa://23669 (95.49), maa://36677 (93.1), maa://39872 (91.3)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.32), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (77.93), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (92.02), maa://36673 (93.15), maa://25001 (85.71)</t>
+          <t>maa://24999 (92.03), maa://36673 (93.15), maa://25001 (85.71)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (73.08), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (73.19), **maa://22728 (47.73)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (33.33), maa://39883 (91.18), *maa://39885 (55.17)</t>
+          <t>**maa://22737 (33.33), maa://39883 (91.18), *maa://39885 (53.33)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (94.23), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.29), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="X14" s="2" t="inlineStr">
         <is>
-          <t>maa://37468 (90.48)</t>
+          <t>maa://37468 (90.91)</t>
         </is>
       </c>
       <c r="Y14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.51), maa://22734 (84.03), *maa://30808 (64.18), **maa://36048 (44.07), maa://45058 (90.0)</t>
+          <t>*maa://22743 (77.62), maa://22734 (84.17), *maa://30808 (64.18), **maa://36048 (44.07), maa://45058 (91.67)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="X15" s="2" t="inlineStr">
         <is>
-          <t>maa://38786 (83.33)</t>
+          <t>maa://38786 (85.71)</t>
         </is>
       </c>
       <c r="Y15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.17), *maa://36666 (79.25), *maa://22766 (68.38)</t>
+          <t>maa://21364 (81.23), *maa://36666 (79.25), *maa://22766 (68.64)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.4), maa://36679 (94.12), maa://37650 (97.14)</t>
+          <t>maa://21441 (96.4), maa://36679 (94.23), maa://37650 (97.14)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.9), *maa://28648 (69.12), maa://36674 (80.85)</t>
+          <t>maa://22729 (94.94), *maa://28648 (69.12), maa://36674 (81.25)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.66), maa://39599 (85.42)</t>
+          <t>maa://22430 (88.66), maa://39599 (85.71)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.29)</t>
+          <t>maa://24570 (97.3)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.94), *maa://22732 (51.16)</t>
+          <t>maa://22466 (89.94), *maa://22732 (51.14)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.24), maa://25198 (93.46), *maa://20795 (51.16), maa://36680 (93.75)</t>
+          <t>maa://21432 (90.42), maa://25198 (93.58), *maa://20795 (51.16), maa://36680 (93.75)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.21)</t>
+          <t>maa://41331 (85.52)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>maa://21261 (97.44)</t>
+          <t>maa://21261 (97.5)</t>
         </is>
       </c>
       <c r="E21" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.88)</t>
+          <t>maa://24372 (96.94)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (92.86)</t>
+          <t>maa://20110 (86.76), maa://34946 (93.02)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.91), ***maa://23820 (29.31)</t>
+          <t>maa://21443 (80.97), ***maa://23820 (30.0)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.5), *maa://22432 (77.14)</t>
+          <t>maa://22524 (94.5), *maa://22432 (77.78)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.58), *maa://37649 (67.86)</t>
+          <t>maa://21282 (98.59), *maa://37649 (65.52)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.47), maa://39875 (94.37)</t>
+          <t>maa://39756 (95.51), maa://39875 (94.37)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (67.95)</t>
+          <t>*maa://28503 (68.35)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (78.04), **maa://46650 (50.0)</t>
+          <t>*maa://24368 (78.16), **maa://46650 (50.0)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (84.74), maa://23504 (93.29), **maa://22892 (40.14), *maa://25141 (76.92), *maa://36663 (78.67), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (84.92), maa://23504 (93.08), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (77.63), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.86), maa://36672 (80.36), maa://29910 (92.98), **maa://21440 (35.71), *maa://45831 (75.0)</t>
+          <t>maa://22523 (85.93), maa://36672 (80.36), maa://29910 (92.98), **maa://21440 (35.71), *maa://45831 (75.0)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.08)</t>
+          <t>maa://29753 (95.09)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.05), *maa://25311 (73.53), ***maa://22725 (4.84), *maa://45047 (62.5)</t>
+          <t>*maa://29063 (74.21), *maa://25311 (73.53), ***maa://22725 (4.84), *maa://45047 (62.5)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.68)</t>
+          <t>maa://42235 (94.74)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (47.37), *maa://39601 (77.78), maa://34494 (97.14), **maa://36665 (50.0)</t>
+          <t>**maa://21283 (47.37), *maa://39601 (78.95), maa://34494 (97.14), **maa://36665 (50.0)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>*maa://30624 (77.97)</t>
+          <t>*maa://30624 (78.33)</t>
         </is>
       </c>
       <c r="U27" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (91.07), maa://25725 (83.72)</t>
+          <t>maa://24465 (91.1), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.5), maa://41749 (90.12), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.53), maa://41749 (90.36), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.39), *maa://28440 (79.25), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.39), *maa://28440 (79.44), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.77), maa://42865 (81.82), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.77), maa://42865 (81.03), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>maa://30442 (95.16)</t>
+          <t>maa://30442 (95.24)</t>
         </is>
       </c>
       <c r="M30" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.71), maa://45822 (100.0), *maa://45045 (80.0)</t>
+          <t>maa://42979 (96.77), maa://45822 (100.0), *maa://45045 (80.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.33), maa://36258 (84.82), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.36), maa://36258 (84.96), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.5), maa://36667 (98.67), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.5), maa://36667 (98.72), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.49), maa://41108 (88.0), maa://41238 (97.09), maa://45523 (100.0)</t>
+          <t>maa://42859 (96.52), maa://41108 (88.0), maa://41238 (97.09), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718 (99.04), maa://45789 (100.0)</t>
+          <t>maa://45718 (99.11), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.41)</t>
+          <t>maa://36697 (86.06)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.66), maa://25199 (84.82), maa://30434 (91.03), ***maa://25036 (16.0), *maa://45059 (80.0), *maa://44165 (66.67)</t>
+          <t>maa://36670 (88.89), maa://25199 (84.82), maa://30434 (91.14), ***maa://25036 (16.0), maa://45059 (81.25), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.22)</t>
+          <t>maa://24709 (91.33)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (81.4), maa://45790 (81.82)</t>
+          <t>maa://45788 (82.02), maa://45790 (81.82)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.51), maa://21386 (95.77), maa://36664 (90.91), maa://45550 (100.0)</t>
+          <t>maa://23278 (95.53), maa://21386 (95.77), maa://36664 (89.29), maa://45550 (100.0)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.57), maa://30807 (95.65), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
+          <t>maa://21229 (84.66), maa://30807 (95.65), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>**maa://39364 (37.93)</t>
+          <t>**maa://39364 (36.67)</t>
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.56), maa://43901 (90.48)</t>
+          <t>maa://35931 (92.63), maa://43901 (91.67)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.42), maa://29661 (97.28), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.43), maa://29661 (97.3), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.87), **maa://32434 (33.33)</t>
+          <t>maa://32534 (93.9), **maa://32434 (33.33)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.15)</t>
+          <t>maa://32532 (92.23)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746 (82.3), maa://31270 (95.28)</t>
+          <t>maa://31270 (95.28), maa://27746 (82.3)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (67.24)</t>
+          <t>*maa://40438 (67.8)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (94.74), maa://43903 (100.0)</t>
+          <t>maa://42981 (94.87), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.48), maa://25390 (96.14), maa://36681 (87.34)</t>
+          <t>maa://24702 (94.48), maa://25390 (96.15), maa://36681 (87.34)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.52), *maa://30515 (69.9), *maa://34787 (72.97), maa://39402 (91.23), ***maa://20792 (11.93), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.52), *maa://30515 (69.9), *maa://34787 (73.33), maa://39402 (91.53), ***maa://20792 (11.93), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.41), maa://36684 (95.41), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.41), maa://36684 (95.5), ***maa://22731 (6.67)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.54), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.55), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.15), maa://20276 (86.36), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.82), maa://20276 (86.44), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.42), maa://26254 (96.43)</t>
+          <t>maa://21249 (94.42), maa://26254 (96.55)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.38), maa://27484 (96.55), maa://27480 (82.86)</t>
+          <t>maa://27396 (84.16), maa://27484 (96.55), maa://27480 (83.33)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (94.01), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (94.08), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (96.52), maa://27295 (85.71), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (96.55), maa://27295 (85.71), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (88.68), ***maa://36683 (28.26)</t>
+          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (89.09), ***maa://36683 (28.26)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (84.68), maa://22744 (84.0)</t>
+          <t>maa://21245 (84.81), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.52), maa://24957 (97.73)</t>
+          <t>maa://28624 (92.59), maa://24957 (97.73)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191 (68.24), *maa://36671 (68.0), *maa://42530 (62.5), maa://45272 (100.0)</t>
+          <t>*maa://26191 (68.24), *maa://36671 (68.0), maa://45272 (100.0), *maa://42530 (62.5)</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.12 13:18:17</t>
+          <t>更新日期：2025.02.14 13:17:46</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (83.48), *maa://21916 (61.54), maa://23252 (91.18), maa://37496 (96.77), **maa://22759 (45.45)</t>
+          <t>maa://32931 (83.62), *maa://21916 (61.54), maa://23252 (91.18), maa://37496 (96.77), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.88)</t>
+          <t>maa://21411 (95.91)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AF8" s="2" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.91), *maa://21990 (51.85)</t>
+          <t>*maa://24479 (78.16), *maa://21990 (51.85)</t>
         </is>
       </c>
       <c r="AG8" s="1" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (92.22), *maa://39552 (75.0)</t>
+          <t>maa://22762 (92.31), *maa://39552 (75.0)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.83)</t>
+          <t>maa://26223 (97.84)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.82), ***maa://34206 (20.0), ***maa://39951 (15.69), ***maa://39243 (28.57), *maa://45271 (57.69)</t>
+          <t>***maa://25695 (18.82), ***maa://34206 (20.0), ***maa://39951 (15.69), ***maa://39243 (28.57), *maa://45271 (57.14)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>maa://32651 (93.75)</t>
+          <t>maa://32651 (94.12)</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.74), maa://22726 (100.0), maa://45828 (100.0)</t>
+          <t>maa://22301 (97.75), maa://22726 (100.0), maa://45828 (88.89)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
-          <t>maa://29912 (98.53), maa://22516 (88.37), *maa://20794 (52.24)</t>
+          <t>maa://29912 (97.14), maa://22516 (88.37), *maa://20794 (52.24)</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>maa://30766 (89.29), *maa://36678 (66.67)</t>
+          <t>maa://30766 (89.29), *maa://36678 (71.43)</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.88), ***maa://45826 (25.0)</t>
+          <t>maa://21867 (89.88), ***maa://45826 (20.0)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.49), maa://36677 (93.1), maa://39872 (91.3)</t>
+          <t>maa://23669 (95.5), maa://36677 (93.1), maa://39872 (91.67)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (77.93), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (77.4), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (92.03), maa://36673 (93.15), maa://25001 (85.71)</t>
+          <t>maa://24999 (92.04), maa://36673 (93.24), maa://25001 (85.71)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (33.33), maa://39883 (91.18), *maa://39885 (53.33)</t>
+          <t>**maa://22737 (33.33), maa://39883 (91.3), *maa://39885 (53.33)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.62), maa://22734 (84.17), *maa://30808 (64.18), **maa://36048 (44.07), maa://45058 (91.67)</t>
+          <t>*maa://22743 (77.62), maa://22734 (84.17), *maa://30808 (64.18), **maa://36048 (45.0), maa://45058 (91.67)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (87.85), maa://21478 (89.19)</t>
+          <t>maa://24304 (87.91), maa://21478 (89.19)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.23), *maa://36666 (79.25), *maa://22766 (68.64)</t>
+          <t>maa://21364 (81.1), *maa://36666 (78.5), *maa://22766 (68.64)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.94), *maa://28648 (69.12), maa://36674 (81.25)</t>
+          <t>maa://22729 (94.94), *maa://28648 (69.12), maa://36674 (82.35)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.66), maa://39599 (85.71)</t>
+          <t>maa://22430 (88.66), maa://39599 (86.0)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.3)</t>
+          <t>maa://24570 (97.31)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>maa://24421 (89.33)</t>
+          <t>maa://24421 (88.98)</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (89.94), *maa://22732 (51.14)</t>
+          <t>maa://22466 (90.0), *maa://22732 (51.14)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917 (96.88), maa://22741 (85.71)</t>
+          <t>maa://21917 (96.91), maa://22741 (85.71)</t>
         </is>
       </c>
       <c r="Y18" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (59.39), **maa://29784 (46.43)</t>
+          <t>*maa://24313 (59.64), **maa://29784 (46.43)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (65.2), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (65.28), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.52)</t>
+          <t>maa://41331 (85.62)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t>maa://21282 (98.59), *maa://37649 (65.52)</t>
+          <t>maa://21282 (98.6), *maa://37649 (65.52)</t>
         </is>
       </c>
       <c r="Y22" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.51), maa://39875 (94.37)</t>
+          <t>maa://39756 (95.54), maa://39875 (94.37)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.09)</t>
+          <t>maa://29753 (95.11)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (74.21), *maa://25311 (73.53), ***maa://22725 (4.84), *maa://45047 (62.5)</t>
+          <t>*maa://29063 (73.75), *maa://25311 (73.53), ***maa://22725 (4.84), *maa://45047 (62.5)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="X26" s="2" t="inlineStr">
         <is>
-          <t>maa://24389 (96.43)</t>
+          <t>maa://24389 (96.55)</t>
         </is>
       </c>
       <c r="Y26" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (95.19), *maa://29765 (63.41)</t>
+          <t>maa://23263 (95.24), *maa://29765 (63.41)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.53), maa://41749 (90.36), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.55), maa://41749 (90.36), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.13), *maa://36701 (65.52)</t>
+          <t>maa://36660 (92.15), *maa://36701 (65.52)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.39), *maa://28440 (79.44), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.41), *maa://28440 (79.44), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.77), maa://42865 (81.03), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.85), maa://42865 (81.03), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.36), maa://36258 (84.96), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.38), maa://36258 (84.96), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.5), maa://36667 (98.72), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.5), maa://36667 (98.73), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718 (99.11), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.32), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.06)</t>
+          <t>maa://36697 (86.12)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (82.02), maa://45790 (81.82)</t>
+          <t>maa://45788 (82.42), maa://45790 (81.82)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278 (95.53), maa://21386 (95.77), maa://36664 (89.29), maa://45550 (100.0)</t>
+          <t>maa://23278 (95.54), maa://21386 (95.77), maa://36664 (89.29), maa://45550 (100.0)</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.23)</t>
+          <t>maa://32532 (92.26)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (60.0)</t>
+          <t>*maa://37964 (61.11)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://31270 (95.28), maa://27746 (82.3)</t>
+          <t>maa://31270 (95.31), maa://27746 (82.3)</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG73"/>
+  <dimension ref="A1:AG74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.48), maa://25390 (96.15), maa://36681 (87.34)</t>
+          <t>maa://24702 (94.48), maa://25390 (96.17), maa://36681 (87.34)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.52), *maa://30515 (69.9), *maa://34787 (73.33), maa://39402 (91.53), ***maa://20792 (11.93), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.52), *maa://30515 (69.9), *maa://34787 (73.33), maa://39402 (91.67), ***maa://20792 (11.93), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.17), ***maa://21730 (25.33), ***maa://39501 (17.24), **maa://36675 (50.0)</t>
+          <t>maa://25251 (92.24), ***maa://21730 (25.33), ***maa://39501 (17.24), **maa://36675 (50.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.74), **maa://20790 (43.48), ***maa://37170 (16.92), maa://45854 (100.0)</t>
+          <t>maa://24617 (89.74), **maa://20790 (43.48), ***maa://37170 (16.92), maa://45854 (93.75)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -901,7 +901,7 @@
       </c>
       <c r="AF3" s="2" t="inlineStr">
         <is>
-          <t>*maa://21289 (75.0)</t>
+          <t>*maa://21289 (72.0)</t>
         </is>
       </c>
       <c r="AG3" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (98.99)</t>
+          <t>maa://24839 (99.0)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.14 13:17:46</t>
+          <t>更新日期：2025.02.15 13:17:50</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.18), ***maa://22740 (5.66), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (96.0), *maa://45044 (66.67)</t>
+          <t>maa://28711 (87.39), ***maa://22740 (5.66), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (96.0), *maa://45044 (66.67)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.82), ***maa://34206 (20.0), ***maa://39951 (15.69), ***maa://39243 (28.57), *maa://45271 (57.14)</t>
+          <t>***maa://25695 (18.72), ***maa://34206 (20.0), ***maa://39951 (15.69), ***maa://39243 (28.57), *maa://45271 (57.14)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.75), maa://22726 (100.0), maa://45828 (88.89)</t>
+          <t>maa://22301 (97.75), maa://45828 (88.89), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.85), *maa://22733 (60.0), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (54.35), *maa://22733 (60.0), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.08), maa://22501 (97.67), *maa://45521 (76.92)</t>
+          <t>maa://22747 (93.08), maa://22501 (97.67), *maa://45521 (78.57)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (92.04), maa://36673 (93.24), maa://25001 (85.71)</t>
+          <t>maa://24999 (92.05), maa://36673 (93.24), maa://25001 (85.71)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (33.33), maa://39883 (91.3), *maa://39885 (53.33)</t>
+          <t>**maa://22737 (33.33), maa://39883 (91.43), *maa://39885 (53.33)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.67), maa://21288 (96.3), maa://39841 (95.96), maa://36682 (97.44)</t>
+          <t>maa://26245 (96.69), maa://21288 (96.3), maa://39841 (96.0), maa://36682 (97.44)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (65.28), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (65.36), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.42), maa://25198 (93.58), *maa://20795 (51.16), maa://36680 (93.75)</t>
+          <t>maa://21432 (90.48), maa://25198 (93.58), *maa://20795 (51.16), maa://36680 (93.94)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.5), *maa://22432 (77.78)</t>
+          <t>maa://22524 (94.5), *maa://22432 (76.71)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.63), **maa://21678 (48.94), **maa://22735 (42.86)</t>
+          <t>maa://25236 (96.67), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (84.92), maa://23504 (93.08), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (77.63), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (84.92), maa://23504 (93.1), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (77.63), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.74)</t>
+          <t>maa://42235 (94.79)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (95.24), *maa://29765 (63.41)</t>
+          <t>maa://23263 (95.28), *maa://29765 (63.41)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.55), maa://41749 (90.36), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.55), maa://41749 (90.48), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.41), *maa://28440 (79.44), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.43), *maa://28440 (79.63), maa://31400 (100.0), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t>maa://39477 (88.89)</t>
+          <t>maa://39477 (90.0)</t>
         </is>
       </c>
       <c r="Y30" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.5), maa://36667 (98.73), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.5), maa://36667 (97.53), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4897,6 +4897,22 @@
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
+      <c r="V34" s="1" t="inlineStr">
+        <is>
+          <t>诺威尔</t>
+        </is>
+      </c>
+      <c r="W34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y34" s="1" t="n"/>
       <c r="Z34" s="1" t="inlineStr">
         <is>
           <t>海霓</t>
@@ -5187,7 +5203,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718 (98.32), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.33), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5352,7 +5368,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.12)</t>
+          <t>maa://36697 (86.19)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5373,7 +5389,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.89), maa://25199 (84.82), maa://30434 (91.14), ***maa://25036 (16.0), maa://45059 (81.25), *maa://44165 (66.67)</t>
+          <t>maa://36670 (88.89), maa://25199 (84.82), maa://30434 (91.25), ***maa://25036 (16.0), maa://45059 (81.25), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5405,7 +5421,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.33)</t>
+          <t>maa://24709 (91.39)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5421,7 +5437,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (82.42), maa://45790 (81.82)</t>
+          <t>maa://45788 (82.61), maa://45790 (81.82)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5782,7 +5798,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (97.99), maa://27728 (96.08)</t>
+          <t>maa://29768 (98.0), maa://27728 (96.08)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5835,7 +5851,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229 (84.66), maa://30807 (95.65), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
+          <t>maa://21229 (84.74), maa://30807 (95.65), *maa://22767 (55.0), ***maa://20796 (13.79), maa://42459 (84.21)</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -6234,7 +6250,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.9), **maa://32434 (33.33)</t>
+          <t>maa://32534 (93.92), **maa://32434 (33.33)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6270,7 +6286,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.26)</t>
+          <t>maa://32532 (92.28)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6396,7 +6412,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (94.87), maa://43903 (100.0)</t>
+          <t>maa://42981 (95.0), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>
@@ -6598,6 +6614,24 @@
         </is>
       </c>
       <c r="I73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>隐德来希</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.41), maa://36684 (95.5), ***maa://22731 (6.67)</t>
+          <t>maa://21246 (91.41), maa://36684 (95.5), ***maa://22731 (6.25)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.24), ***maa://21730 (25.33), ***maa://39501 (17.24), **maa://36675 (50.0)</t>
+          <t>maa://25251 (92.31), ***maa://21730 (25.33), ***maa://39501 (16.67), **maa://36675 (50.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.42), maa://26254 (96.55)</t>
+          <t>maa://21249 (94.44), maa://26254 (96.55)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.74), **maa://20790 (43.48), ***maa://37170 (16.92), maa://45854 (93.75)</t>
+          <t>maa://24617 (89.74), **maa://20790 (43.48), ***maa://37170 (16.92), maa://45854 (88.24)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (94.52)</t>
+          <t>maa://24390 (94.59)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (89.09), ***maa://36683 (28.26)</t>
+          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (89.29), ***maa://36683 (28.26)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062 (64.0), ***maa://26209 (13.04), *maa://39394 (66.67)</t>
+          <t>*maa://30062 (64.0), ***maa://26209 (13.04), *maa://39394 (64.0)</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (66.67), ***maa://22752 (12.5), **maa://26013 (37.5)</t>
+          <t>*maa://29863 (64.86), ***maa://22752 (12.5), **maa://26013 (37.5)</t>
         </is>
       </c>
       <c r="AC5" s="1" t="n"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>maa://22750 (91.49)</t>
+          <t>maa://22750 (91.67)</t>
         </is>
       </c>
       <c r="Q7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.15 13:17:50</t>
+          <t>更新日期：2025.02.15 19:34:59</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.91)</t>
+          <t>maa://21411 (95.92)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.84)</t>
+          <t>maa://26223 (97.87)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (89.17), *maa://22865 (50.94)</t>
+          <t>maa://26206 (88.43), *maa://22865 (50.94)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.72), ***maa://34206 (20.0), ***maa://39951 (15.69), ***maa://39243 (28.57), *maa://45271 (57.14)</t>
+          <t>***maa://25695 (18.72), ***maa://34206 (20.0), ***maa://39951 (15.69), ***maa://39243 (25.0), *maa://45271 (55.17)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.75), maa://45828 (88.89), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.75), maa://45828 (90.0), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.5), maa://36677 (93.1), maa://39872 (91.67)</t>
+          <t>maa://23669 (95.5), maa://36677 (93.22), maa://39872 (91.67)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>maa://34957 (82.19), *maa://22768 (51.61)</t>
+          <t>maa://34957 (82.43), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.4), maa://36679 (94.23), maa://37650 (97.14)</t>
+          <t>maa://21441 (96.4), maa://36679 (94.34), maa://37650 (97.14)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.94), *maa://28648 (69.12), maa://36674 (82.35)</t>
+          <t>maa://22729 (94.97), *maa://28648 (69.12), maa://36674 (82.69)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>maa://28501 (98.0), maa://28051 (96.0)</t>
+          <t>maa://28501 (98.02), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.88)</t>
+          <t>maa://26228 (95.92)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911 (65.09), maa://27755 (93.48)</t>
+          <t>*maa://23911 (65.09), maa://27755 (93.55)</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.31)</t>
+          <t>maa://24570 (97.32)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (90.0), *maa://22732 (51.14)</t>
+          <t>maa://22466 (90.06), *maa://22732 (51.14)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.48), maa://25198 (93.58), *maa://20795 (51.16), maa://36680 (93.94)</t>
+          <t>maa://21432 (89.94), maa://25198 (93.58), *maa://20795 (50.77), maa://36680 (91.18)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.62)</t>
+          <t>maa://41331 (85.71)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>maa://21261 (97.5)</t>
+          <t>maa://21261 (97.56)</t>
         </is>
       </c>
       <c r="E21" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (29.17), *maa://41753 (53.33)</t>
+          <t>***maa://28036 (28.77), *maa://41753 (56.25)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.54), maa://39875 (94.37)</t>
+          <t>maa://39756 (95.55), maa://39875 (94.37)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (84.92), maa://23504 (93.1), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (77.63), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (84.58), maa://23504 (93.1), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (77.63), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (87.5), maa://24516 (80.22), maa://26001 (87.5)</t>
+          <t>maa://31215 (87.61), maa://24516 (80.22), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>maa://41802 (93.33)</t>
+          <t>maa://41802 (93.75)</t>
         </is>
       </c>
       <c r="E26" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (92.05)</t>
+          <t>maa://24913 (92.13)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.79)</t>
+          <t>maa://42235 (94.85)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283 (47.37), *maa://39601 (78.95), maa://34494 (97.14), **maa://36665 (50.0)</t>
+          <t>**maa://21283 (47.37), *maa://39601 (80.0), maa://34494 (97.14), **maa://36665 (50.0)</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.55), maa://41749 (90.48), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.6), maa://41749 (90.48), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>maa://31694 (98.11)</t>
+          <t>maa://31694 (98.15)</t>
         </is>
       </c>
       <c r="E29" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.43), *maa://28440 (79.63), maa://31400 (100.0), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.43), *maa://28440 (79.63), maa://31400 (98.81), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (96.52), maa://41108 (88.0), maa://41238 (97.09), maa://45523 (100.0)</t>
+          <t>maa://42859 (95.69), maa://41108 (88.0), maa://41238 (97.09), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.13)</t>
+          <t>maa://41296 (96.18)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718 (98.33), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.35), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.39)</t>
+          <t>maa://24709 (91.45)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5432,12 +5432,12 @@
       </c>
       <c r="S39" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (82.61), maa://45790 (81.82)</t>
+          <t>maa://45788 (82.8), *maa://45790 (75.0), **maa://47079 (50.0)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (98.0), maa://27728 (96.08)</t>
+          <t>maa://29768 (98.01), maa://27728 (96.08)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.63), maa://43901 (91.67)</t>
+          <t>maa://35931 (92.63), maa://43901 (92.0)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.43), maa://29661 (97.3), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.44), maa://29661 (97.3), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981 (95.0), maa://43903 (100.0)</t>
+          <t>maa://42981 (95.12), maa://43903 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.48), maa://25390 (96.17), maa://36681 (87.34)</t>
+          <t>maa://24702 (94.48), maa://25390 (96.18), maa://36681 (87.34)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.52), *maa://30515 (69.9), *maa://34787 (73.33), maa://39402 (91.67), ***maa://20792 (11.93), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.52), *maa://30515 (69.9), *maa://34787 (73.33), maa://39402 (91.8), ***maa://20792 (11.93), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.55), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.56), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.44), maa://26254 (96.55)</t>
+          <t>maa://21249 (94.47), maa://26254 (96.55)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (89.29), ***maa://36683 (28.26)</t>
+          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (89.47), ***maa://36683 (28.26)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (95.83)</t>
+          <t>maa://42407 (95.92)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="AB6" s="2" t="inlineStr">
         <is>
-          <t>maa://22739 (92.98)</t>
+          <t>maa://22739 (91.38)</t>
         </is>
       </c>
       <c r="AC6" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.33), *maa://22758 (74.29)</t>
+          <t>maa://22399 (95.36), *maa://22758 (74.29)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.15 19:34:59</t>
+          <t>更新日期：2025.02.16 13:17:39</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.92)</t>
+          <t>maa://21411 (95.93)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (92.55), *maa://21915 (70.37)</t>
+          <t>maa://22765 (91.58), *maa://21915 (67.86)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>**maa://22866 (30.19), maa://26222 (98.0)</t>
+          <t>**maa://22866 (30.19), maa://26222 (98.04)</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.87)</t>
+          <t>maa://26223 (97.89)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.72), ***maa://34206 (20.0), ***maa://39951 (15.69), ***maa://39243 (25.0), *maa://45271 (55.17)</t>
+          <t>***maa://25695 (18.72), ***maa://39951 (15.69), ***maa://34206 (20.0), ***maa://39243 (25.0), *maa://45271 (55.17)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (90.36), maa://36669 (88.1), *maa://23264 (61.82)</t>
+          <t>maa://28977 (90.48), maa://36669 (86.36), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (54.35), *maa://22733 (60.0), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (53.76), *maa://22733 (60.0), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>maa://36707 (99.47)</t>
+          <t>maa://36707 (99.48)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (88.89)</t>
+          <t>maa://21287 (89.11)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.74)</t>
+          <t>maa://36713 (97.75)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (92.05), maa://36673 (93.24), maa://25001 (85.71)</t>
+          <t>maa://24999 (92.08), maa://36673 (93.24), maa://25001 (85.71)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>maa://34957 (82.43), *maa://22768 (51.61)</t>
+          <t>maa://34957 (81.33), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.69), maa://21288 (96.3), maa://39841 (96.0), maa://36682 (97.44)</t>
+          <t>maa://26245 (96.71), maa://21288 (96.3), maa://39841 (95.05), maa://36682 (97.44)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250 (98.73), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+          <t>maa://23250 (98.74), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.62), maa://22734 (84.17), *maa://30808 (64.18), **maa://36048 (45.0), maa://45058 (91.67)</t>
+          <t>*maa://22743 (77.73), maa://22734 (84.17), *maa://30808 (64.18), **maa://36048 (45.0), maa://45058 (91.67)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>maa://23890 (81.37), *maa://24940 (67.86)</t>
+          <t>maa://23890 (80.58), *maa://24940 (67.86)</t>
         </is>
       </c>
       <c r="Q17" s="1" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.32)</t>
+          <t>maa://24570 (97.33)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313 (59.64), **maa://29784 (46.43)</t>
+          <t>*maa://24313 (59.28), **maa://29784 (46.43)</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (65.36), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (65.52), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (89.94), maa://25198 (93.58), *maa://20795 (50.77), maa://36680 (91.18)</t>
+          <t>maa://21432 (90.0), maa://25198 (93.58), *maa://20795 (50.77), maa://36680 (91.18)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.71)</t>
+          <t>maa://41331 (85.23)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>maa://24381 (88.89)</t>
+          <t>maa://24381 (84.21)</t>
         </is>
       </c>
       <c r="Q21" s="1" t="n"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t>maa://20110 (86.76), maa://34946 (93.02)</t>
+          <t>maa://20110 (86.76), maa://34946 (90.91)</t>
         </is>
       </c>
       <c r="Y21" s="1" t="n"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236 (96.67), **maa://21678 (48.94), **maa://22735 (42.86)</t>
+          <t>maa://25236 (95.6), **maa://21678 (48.94), **maa://22735 (42.86)</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.77), *maa://41753 (56.25)</t>
+          <t>***maa://28036 (28.77), *maa://41753 (58.82)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.55), maa://39875 (94.37)</t>
+          <t>maa://39756 (95.56), maa://39875 (94.37)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.84), *maa://29748 (75.78), ***maa://29785 (16.42), *maa://37566 (76.32)</t>
+          <t>maa://30587 (91.84), *maa://29748 (75.97), ***maa://29785 (16.18), *maa://37566 (76.32)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (84.58), maa://23504 (93.1), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (77.63), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (84.58), maa://23504 (93.11), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (77.63), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.11)</t>
+          <t>maa://29753 (95.13)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.05), maa://22545 (100.0), *maa://42915 (75.0)</t>
+          <t>maa://20109 (92.09), maa://22545 (100.0), *maa://42915 (75.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="X25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29890 (78.26)</t>
+          <t>*maa://29890 (78.72)</t>
         </is>
       </c>
       <c r="Y25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (87.61), maa://24516 (80.22), maa://26001 (87.5)</t>
+          <t>maa://31215 (87.72), maa://24516 (80.22), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.85)</t>
+          <t>maa://42235 (93.94)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (91.1), maa://25725 (83.72)</t>
+          <t>maa://24465 (90.98), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.6), maa://41749 (90.48), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.62), maa://41749 (90.59), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.15), *maa://36701 (65.52)</t>
+          <t>maa://36660 (92.15), *maa://36701 (66.67)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.85), maa://42865 (81.03), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.85), maa://42865 (81.67), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.77), maa://45822 (100.0), *maa://45045 (80.0)</t>
+          <t>maa://42979 (96.84), maa://45822 (100.0), *maa://45045 (80.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.38), maa://36258 (84.96), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.43), maa://36258 (84.96), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.5), maa://36667 (97.53), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.5), maa://36667 (97.56), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.69), maa://41108 (88.0), maa://41238 (97.09), maa://45523 (100.0)</t>
+          <t>maa://42859 (95.76), maa://41108 (88.0), maa://41238 (97.09), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>maa://45558 (100.0)</t>
+          <t>maa://45558 (87.5)</t>
         </is>
       </c>
       <c r="U33" s="1" t="n"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.36)</t>
+          <t>maa://24526 (93.02)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.18)</t>
+          <t>maa://41296 (96.2)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5198,12 +5198,12 @@
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718 (98.35), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.35), maa://45789 (100.0), maa://47069 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.19)</t>
+          <t>maa://36697 (86.26)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.89), maa://25199 (84.82), maa://30434 (91.25), ***maa://25036 (16.0), maa://45059 (81.25), *maa://44165 (66.67)</t>
+          <t>maa://36670 (88.89), maa://25199 (84.82), maa://30434 (91.36), ***maa://25036 (16.0), maa://45059 (81.25), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5416,12 +5416,12 @@
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.45)</t>
+          <t>maa://24709 (91.5), maa://47093 (100.0)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (82.8), *maa://45790 (75.0), **maa://47079 (50.0)</t>
+          <t>maa://45788 (81.91), *maa://45790 (75.0), *maa://47079 (75.0)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616 (40.0), maa://43177 (90.48)</t>
+          <t>**maa://35616 (40.0), maa://43177 (90.91)</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (88.24)</t>
+          <t>maa://39366 (88.57)</t>
         </is>
       </c>
       <c r="U44" s="1" t="n"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.63), maa://43901 (92.0)</t>
+          <t>maa://35931 (92.09), maa://43901 (92.31)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.92), **maa://32434 (33.33)</t>
+          <t>maa://32534 (93.96), **maa://32434 (33.33)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.28)</t>
+          <t>maa://32532 (92.0)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176 (98.36)</t>
+          <t>maa://25176 (98.39)</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702 (94.48), maa://25390 (96.18), maa://36681 (87.34)</t>
+          <t>maa://24702 (94.5), maa://25390 (96.2), maa://36681 (87.34)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633 (56.52), *maa://30515 (69.9), *maa://34787 (73.33), maa://39402 (91.8), ***maa://20792 (11.93), ***maa://29083 (27.78)</t>
+          <t>*maa://24633 (56.17), *maa://30515 (69.9), *maa://34787 (73.33), maa://39402 (92.19), ***maa://20792 (11.93), ***maa://29083 (27.78)</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742 (91.57), *maa://20791 (62.16)</t>
+          <t>maa://22742 (91.62), *maa://20791 (62.16)</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.41), maa://36684 (95.5), ***maa://22731 (6.25)</t>
+          <t>maa://21246 (91.41), maa://36684 (95.54), ***maa://22731 (6.25)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (92.31), ***maa://21730 (25.33), ***maa://39501 (16.67), **maa://36675 (50.0)</t>
+          <t>maa://25251 (91.53), ***maa://21730 (25.33), ***maa://39501 (16.13), **maa://36675 (50.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (96.08), maa://40192 (100.0), maa://39849 (88.89)</t>
+          <t>maa://36987 (96.08), maa://40192 (98.11), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.56), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.57), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.82), maa://20276 (86.44), *maa://22749 (72.73)</t>
+          <t>*maa://22880 (65.15), maa://20276 (86.52), *maa://22749 (72.73)</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249 (94.47), maa://26254 (96.55)</t>
+          <t>maa://21249 (94.49), maa://26254 (96.55)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.74), **maa://20790 (43.48), ***maa://37170 (16.92), maa://45854 (88.24)</t>
+          <t>maa://24617 (89.74), **maa://20790 (43.48), ***maa://37170 (16.67), maa://45854 (85.71)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>maa://27396 (84.16), maa://27484 (96.55), maa://27480 (83.33)</t>
+          <t>maa://27396 (84.31), maa://27484 (96.55), maa://27480 (83.33)</t>
         </is>
       </c>
       <c r="Y3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (94.59)</t>
+          <t>maa://24390 (94.67)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -901,7 +901,7 @@
       </c>
       <c r="AF3" s="2" t="inlineStr">
         <is>
-          <t>*maa://21289 (72.0)</t>
+          <t>*maa://21289 (73.08)</t>
         </is>
       </c>
       <c r="AG3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (94.08), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (94.12), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (96.55), maa://27295 (85.71), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (96.58), maa://27295 (85.92), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (89.47), ***maa://36683 (28.26)</t>
+          <t>**maa://32495 (48.7), ***maa://31785 (22.22), maa://43217 (90.32), ***maa://36683 (28.26)</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245 (84.81), maa://22744 (84.0)</t>
+          <t>maa://21245 (84.94), maa://22744 (84.0)</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>*maa://22757 (77.14)</t>
+          <t>*maa://22757 (77.78)</t>
         </is>
       </c>
       <c r="M5" s="1" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>*maa://29863 (64.86), ***maa://22752 (12.5), **maa://26013 (37.5)</t>
+          <t>*maa://29863 (65.79), ***maa://22752 (12.5), **maa://26013 (37.5)</t>
         </is>
       </c>
       <c r="AC5" s="1" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>maa://42407 (95.92)</t>
+          <t>maa://42407 (96.3)</t>
         </is>
       </c>
       <c r="E6" s="1" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>maa://24839 (99.0)</t>
+          <t>maa://24839 (99.01)</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>maa://31836 (92.59), maa://30381 (92.86)</t>
+          <t>maa://31836 (93.1), maa://30381 (92.86)</t>
         </is>
       </c>
       <c r="Q6" s="1" t="n"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AF6" s="2" t="inlineStr">
         <is>
-          <t>*maa://33152 (62.0), ***maa://22770 (26.09)</t>
+          <t>*maa://33152 (63.46), ***maa://22770 (26.09)</t>
         </is>
       </c>
       <c r="AG6" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.59), maa://24957 (97.73)</t>
+          <t>maa://28624 (92.73), maa://24957 (97.73)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.36), *maa://22758 (74.29)</t>
+          <t>maa://22399 (95.45), *maa://22758 (74.29)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.16 13:17:39</t>
+          <t>更新日期：2025.02.22 13:17:25</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (83.62), *maa://21916 (61.54), maa://23252 (91.18), maa://37496 (96.77), **maa://22759 (45.45)</t>
+          <t>maa://32931 (83.76), *maa://21916 (62.12), maa://23252 (91.18), maa://37496 (96.77), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t>maa://21411 (95.93)</t>
+          <t>maa://21411 (95.95)</t>
         </is>
       </c>
       <c r="Y8" s="1" t="n"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
-          <t>maa://25389 (88.57)</t>
+          <t>maa://25389 (88.89)</t>
         </is>
       </c>
       <c r="AC8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (91.58), *maa://21915 (67.86)</t>
+          <t>maa://22765 (91.67), *maa://21915 (67.86)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762 (92.31), *maa://39552 (75.0)</t>
+          <t>maa://22762 (92.31), *maa://39552 (80.0)</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.89)</t>
+          <t>maa://26223 (97.9)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (87.39), ***maa://22740 (5.66), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (96.0), *maa://45044 (66.67)</t>
+          <t>maa://28711 (86.89), ***maa://22740 (5.66), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (96.15), *maa://45044 (66.67)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206 (88.43), *maa://22865 (50.94)</t>
+          <t>maa://26206 (87.7), *maa://22865 (51.85)</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.72), ***maa://39951 (15.69), ***maa://34206 (20.0), ***maa://39243 (25.0), *maa://45271 (55.17)</t>
+          <t>***maa://25695 (18.72), ***maa://39951 (15.69), ***maa://34206 (20.0), ***maa://39243 (25.0), *maa://45271 (57.58)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>**maa://24395 (41.94)</t>
+          <t>**maa://24395 (40.62)</t>
         </is>
       </c>
       <c r="M10" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977 (90.48), maa://36669 (86.36), *maa://23264 (61.82)</t>
+          <t>maa://28977 (89.41), maa://36669 (86.36), *maa://23264 (61.82)</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395 (96.46), maa://22755 (87.83), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
+          <t>maa://27395 (96.48), maa://22755 (87.83), **maa://22756 (40.91), ***maa://21737 (10.61)</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301 (97.75), maa://45828 (90.0), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.75), maa://45828 (92.31), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.76), *maa://22733 (60.0), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (54.26), *maa://22733 (60.0), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (89.11)</t>
+          <t>maa://21287 (89.22)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (93.08), maa://22501 (97.67), *maa://45521 (78.57)</t>
+          <t>maa://22747 (92.5), maa://22501 (97.7), maa://45521 (83.33)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.75)</t>
+          <t>maa://36713 (97.76)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>maa://30766 (89.29), *maa://36678 (71.43)</t>
+          <t>maa://30766 (89.29), *maa://36678 (75.0)</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867 (89.88), ***maa://45826 (20.0)</t>
+          <t>maa://21867 (89.94), ***maa://45826 (20.0)</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (90.91), *maa://21485 (76.43), maa://37962 (90.24)</t>
+          <t>maa://22753 (90.96), *maa://21485 (76.43), maa://37962 (90.24)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.5), maa://36677 (93.22), maa://39872 (91.67)</t>
+          <t>maa://23669 (95.5), maa://36677 (93.55), maa://39872 (91.67)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AF12" s="2" t="inlineStr">
         <is>
-          <t>*maa://28932 (77.4), *maa://20106 (63.96), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (77.55), *maa://20106 (63.96), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="1" t="n"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (92.08), maa://36673 (93.24), maa://25001 (85.71)</t>
+          <t>maa://24999 (92.1), maa://36673 (93.24), maa://25001 (85.71)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>*maa://21248 (73.19), **maa://22728 (47.73)</t>
+          <t>*maa://21248 (73.53), **maa://22728 (46.67)</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.68), *maa://22583 (74.63), *maa://22500 (58.7)</t>
+          <t>maa://22676 (92.74), *maa://22583 (74.63), *maa://22500 (58.7)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>maa://34957 (81.33), *maa://22768 (51.61)</t>
+          <t>maa://34957 (81.82), *maa://22768 (51.61)</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (33.33), maa://39883 (91.43), *maa://39885 (53.33)</t>
+          <t>**maa://22737 (34.25), maa://39883 (91.43), *maa://39885 (53.33)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.71), maa://21288 (96.3), maa://39841 (95.05), maa://36682 (97.44)</t>
+          <t>maa://26245 (96.71), maa://21288 (96.3), maa://39841 (95.24), maa://36682 (97.44)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="X14" s="2" t="inlineStr">
         <is>
-          <t>maa://37468 (90.91)</t>
+          <t>maa://37468 (91.3)</t>
         </is>
       </c>
       <c r="Y14" s="1" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.73), maa://22734 (84.17), *maa://30808 (64.18), **maa://36048 (45.0), maa://45058 (91.67)</t>
+          <t>*maa://22743 (77.93), maa://22734 (84.17), *maa://30808 (64.18), **maa://36048 (45.0), maa://45058 (92.86)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>maa://24304 (87.91), maa://21478 (89.19)</t>
+          <t>maa://24304 (88.02), maa://21478 (89.19)</t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>*maa://21334 (55.17)</t>
+          <t>*maa://21334 (53.33)</t>
         </is>
       </c>
       <c r="M15" s="1" t="n"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>maa://24762 (90.24), *maa://22727 (70.0)</t>
+          <t>maa://24762 (90.3), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="1" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.1), *maa://36666 (78.5), *maa://22766 (68.64)</t>
+          <t>maa://21364 (81.02), *maa://36666 (78.5), *maa://22766 (68.64)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (94.97), *maa://28648 (69.12), maa://36674 (82.69)</t>
+          <t>maa://22729 (95.0), *maa://28648 (69.12), maa://36674 (82.69)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.66), maa://39599 (86.0)</t>
+          <t>maa://22430 (88.72), maa://39599 (86.27)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>maa://23890 (80.58), *maa://24940 (67.86)</t>
+          <t>maa://23890 (80.77), *maa://24940 (67.86)</t>
         </is>
       </c>
       <c r="Q17" s="1" t="n"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (50.0)</t>
+          <t>**maa://42324 (48.28)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (90.06), *maa://22732 (51.14)</t>
+          <t>maa://22466 (90.3), *maa://22732 (51.11)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (65.52), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (65.75), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.0), maa://25198 (93.58), *maa://20795 (50.77), maa://36680 (91.18)</t>
+          <t>maa://21432 (90.12), maa://25198 (93.64), *maa://20795 (50.77), maa://36680 (91.18)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (85.23)</t>
+          <t>maa://41331 (84.97)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.94)</t>
+          <t>maa://24372 (96.97)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (80.97), ***maa://23820 (30.0)</t>
+          <t>maa://21443 (81.07), ***maa://23820 (30.0)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.5), *maa://22432 (76.71)</t>
+          <t>maa://22524 (94.14), *maa://22432 (77.03)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (80.87), *maa://22751 (71.01)</t>
+          <t>maa://27127 (80.17), *maa://22751 (71.01)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.77), *maa://41753 (58.82)</t>
+          <t>***maa://28036 (28.77), *maa://41753 (57.89)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.56), maa://39875 (94.37)</t>
+          <t>maa://39756 (95.64), maa://39875 (94.44)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>maa://30587 (91.84), *maa://29748 (75.97), ***maa://29785 (16.18), *maa://37566 (76.32)</t>
+          <t>maa://30587 (91.92), *maa://29748 (75.97), ***maa://29785 (16.18), *maa://37566 (76.32)</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="AB23" s="2" t="inlineStr">
         <is>
-          <t>maa://29652 (97.62)</t>
+          <t>maa://29652 (97.67)</t>
         </is>
       </c>
       <c r="AC23" s="1" t="n"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (84.58), maa://23504 (93.11), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (77.63), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (84.65), maa://23504 (93.14), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (77.92), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (85.93), maa://36672 (80.36), maa://29910 (92.98), **maa://21440 (35.71), *maa://45831 (75.0)</t>
+          <t>maa://22523 (86.0), maa://36672 (80.36), maa://29910 (93.1), **maa://21440 (35.71), *maa://45831 (75.0)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.13)</t>
+          <t>maa://29753 (95.15)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063 (73.75), *maa://25311 (73.53), ***maa://22725 (4.84), *maa://45047 (62.5)</t>
+          <t>*maa://29063 (73.46), *maa://25311 (73.79), ***maa://22725 (4.84), *maa://45047 (62.5)</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>maa://24378 (87.8)</t>
+          <t>maa://24378 (88.1)</t>
         </is>
       </c>
       <c r="M25" s="1" t="n"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (87.72), maa://24516 (80.22), maa://26001 (87.5)</t>
+          <t>maa://31215 (87.83), maa://24516 (80.22), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108 (96.32), maa://24621 (96.85), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (66.67)</t>
+          <t>maa://20108 (96.35), maa://24621 (96.88), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (66.67)</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913 (92.13)</t>
+          <t>maa://24913 (92.22)</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (93.94)</t>
+          <t>maa://42235 (94.06)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AF26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (82.5), *maa://29760 (64.29)</t>
+          <t>maa://30511 (82.5), *maa://29760 (60.0)</t>
         </is>
       </c>
       <c r="AG26" s="1" t="n"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (90.98), maa://25725 (83.72)</t>
+          <t>maa://24465 (91.04), maa://25725 (83.72)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263 (95.28), *maa://29765 (63.41)</t>
+          <t>*maa://29765 (63.41), maa://23263 (95.28)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.62), maa://41749 (90.59), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.65), maa://41749 (90.7), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.15), *maa://36701 (66.67)</t>
+          <t>maa://36660 (92.2), *maa://36701 (66.67)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.43), *maa://28440 (79.63), maa://31400 (98.81), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.45), *maa://28440 (79.82), maa://31400 (98.81), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.85), maa://42865 (81.67), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.85), maa://42865 (80.65), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.84), maa://45822 (100.0), *maa://45045 (80.0)</t>
+          <t>maa://42979 (96.91), maa://45822 (100.0), *maa://45045 (80.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.43), maa://36258 (84.96), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.47), maa://36258 (85.34), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.5), maa://36667 (97.56), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.5), maa://36667 (97.62), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>maa://28065 (95.35)</t>
+          <t>maa://28065 (95.45)</t>
         </is>
       </c>
       <c r="M32" s="1" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.76), maa://41108 (88.0), maa://41238 (97.09), maa://45523 (100.0)</t>
+          <t>maa://42859 (95.83), maa://41108 (88.0), maa://41238 (97.12), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.02)</t>
+          <t>maa://24526 (93.05)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>maa://41296 (96.2)</t>
+          <t>maa://41296 (96.25)</t>
         </is>
       </c>
       <c r="M35" s="1" t="n"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718 (98.35), maa://45789 (100.0), maa://47069 (100.0)</t>
+          <t>maa://45718 (98.5), *maa://47069 (75.0), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.3), *maa://21239 (66.67)</t>
+          <t>maa://21280 (89.35), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>maa://30713 (96.77)</t>
+          <t>maa://30713 (96.88)</t>
         </is>
       </c>
       <c r="U38" s="1" t="n"/>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.26)</t>
+          <t>maa://36697 (86.32)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (88.89), maa://25199 (84.82), maa://30434 (91.36), ***maa://25036 (16.0), maa://45059 (81.25), *maa://44165 (66.67)</t>
+          <t>maa://36670 (89.11), maa://25199 (84.82), maa://30434 (91.36), ***maa://25036 (16.0), maa://45059 (81.25), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.5), maa://47093 (100.0)</t>
+          <t>maa://24709 (91.56), maa://47093 (100.0)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788 (81.91), *maa://45790 (75.0), *maa://47079 (75.0)</t>
+          <t>maa://45788 (81.25), *maa://45790 (75.0), maa://47079 (92.31)</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5740,12 +5740,12 @@
       </c>
       <c r="O43" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://47403 (100.0)</t>
         </is>
       </c>
       <c r="Q43" s="1" t="n"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>maa://29768 (98.01), maa://27728 (96.08)</t>
+          <t>maa://29768 (98.04), maa://27728 (96.12)</t>
         </is>
       </c>
       <c r="I44" s="1" t="n"/>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>maa://39366 (88.57)</t>
+          <t>maa://39366 (88.89)</t>
         </is>
       </c>
       <c r="U44" s="1" t="n"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>*maa://36237 (64.29)</t>
+          <t>*maa://36237 (68.75)</t>
         </is>
       </c>
       <c r="Q45" s="1" t="n"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931 (92.09), maa://43901 (92.31)</t>
+          <t>maa://35931 (91.93), maa://43901 (92.31)</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410 (96.44), maa://29661 (97.3), maa://28038 (84.62)</t>
+          <t>maa://27410 (96.47), maa://29661 (97.32), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>*maa://39643 (66.67)</t>
+          <t>*maa://39643 (64.52)</t>
         </is>
       </c>
       <c r="Q49" s="1" t="n"/>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>maa://30769 (81.25)</t>
+          <t>maa://30769 (82.35)</t>
         </is>
       </c>
       <c r="I51" s="1" t="n"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534 (93.96), **maa://32434 (33.33)</t>
+          <t>maa://32534 (94.07), **maa://32434 (33.33)</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>maa://32532 (92.0)</t>
+          <t>maa://32532 (92.16)</t>
         </is>
       </c>
       <c r="I55" s="1" t="n"/>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>*maa://37964 (61.11)</t>
+          <t>*maa://37964 (62.16)</t>
         </is>
       </c>
       <c r="I58" s="1" t="n"/>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438 (67.8)</t>
+          <t>*maa://40438 (68.33)</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单作者版.xlsx
+++ b/Excel/悖论模拟干员名单作者版.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>maa://21246 (91.41), maa://36684 (95.54), ***maa://22731 (6.25)</t>
+          <t>maa://21246 (91.41), maa://36684 (95.61), ***maa://22731 (6.25)</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251 (91.53), ***maa://21730 (25.33), ***maa://39501 (16.13), **maa://36675 (50.0)</t>
+          <t>maa://25251 (91.53), ***maa://21730 (26.32), ***maa://39501 (15.62), **maa://36675 (50.0)</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987 (96.08), maa://40192 (98.11), maa://39849 (88.89)</t>
+          <t>maa://36987 (96.08), maa://40192 (98.15), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247 (98.57), *maa://22748 (60.0)</t>
+          <t>maa://21247 (98.58), *maa://22748 (60.0)</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617 (89.74), **maa://20790 (43.48), ***maa://37170 (16.67), maa://45854 (85.71)</t>
+          <t>maa://24617 (89.74), **maa://20790 (43.48), ***maa://37170 (16.67), maa://45854 (86.36)</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390 (94.67)</t>
+          <t>maa://24390 (94.74)</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632 (94.12), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (94.15), **maa://24303 (33.33), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509 (96.58), maa://27295 (85.92), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
+          <t>maa://32509 (95.76), maa://27295 (85.92), maa://22754 (90.41), *maa://21746 (55.81), *maa://31008 (78.57)</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>*maa://22757 (77.78)</t>
+          <t>*maa://22757 (78.38)</t>
         </is>
       </c>
       <c r="M5" s="1" t="n"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>*maa://22763 (65.62)</t>
+          <t>*maa://22763 (66.67)</t>
         </is>
       </c>
       <c r="I7" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>maa://28624 (92.73), maa://24957 (97.73)</t>
+          <t>maa://28624 (92.79), maa://24957 (97.73)</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>maa://22399 (95.45), *maa://22758 (74.29)</t>
+          <t>maa://22399 (95.48), *maa://22758 (74.29)</t>
         </is>
       </c>
       <c r="Y7" s="1" t="n"/>
@@ -1434,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.22 13:17:25</t>
+          <t>更新日期：2025.02.27 13:19:23</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931 (83.76), *maa://21916 (62.12), maa://23252 (91.18), maa://37496 (96.77), **maa://22759 (45.45)</t>
+          <t>maa://32931 (83.9), *maa://21916 (62.12), maa://23252 (91.18), maa://37496 (96.88), **maa://22759 (45.45)</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>maa://22765 (91.67), *maa://21915 (67.86)</t>
+          <t>maa://22765 (91.67), *maa://21915 (68.97)</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1593,11 +1593,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -1627,7 +1623,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>maa://22736 (83.0)</t>
+          <t>maa://22736 (83.17)</t>
         </is>
       </c>
       <c r="Q9" s="1" t="n"/>
@@ -1659,7 +1655,7 @@
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223 (97.9)</t>
+          <t>maa://26223 (97.92)</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -1675,7 +1671,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711 (86.89), ***maa://22740 (5.66), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (96.15), *maa://45044 (66.67)</t>
+          <t>maa://28711 (86.99), ***maa://22740 (5.66), **maa://39938 (46.67), **maa://27377 (42.86), ***maa://25174 (19.05), maa://40166 (96.3), *maa://45044 (66.67)</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1709,7 +1705,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.72), ***maa://39951 (15.69), ***maa://34206 (20.0), ***maa://39243 (25.0), *maa://45271 (57.58)</t>
+          <t>***maa://25695 (18.62), ***maa://39951 (14.81), ***maa://34206 (20.0), ***maa://39243 (25.0), *maa://45271 (58.33)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1821,7 +1817,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021 (54.26), *maa://22733 (60.0), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (54.74), *maa://22733 (61.11), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>
@@ -1871,7 +1867,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>maa://21287 (89.22)</t>
+          <t>maa://21287 (89.32)</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1903,7 +1899,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747 (92.5), maa://22501 (97.7), maa://45521 (83.33)</t>
+          <t>maa://22747 (92.5), maa://22501 (97.73), maa://45521 (84.21)</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1919,7 +1915,7 @@
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t>maa://36713 (97.76)</t>
+          <t>maa://36713 (97.77)</t>
         </is>
       </c>
       <c r="Y11" s="1" t="n"/>
@@ -1935,7 +1931,7 @@
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
-          <t>maa://29912 (97.14), maa://22516 (88.37), *maa://20794 (52.24)</t>
+          <t>maa://29912 (97.18), maa://22516 (88.37), *maa://20794 (52.24)</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -2049,7 +2045,7 @@
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753 (90.96), *maa://21485 (76.43), maa://37962 (90.24)</t>
+          <t>maa://22753 (91.01), *maa://21485 (76.43), maa://37962 (90.24)</t>
         </is>
       </c>
       <c r="Y12" s="1" t="n"/>
@@ -2065,7 +2061,7 @@
       </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
-          <t>maa://23669 (95.5), maa://36677 (93.55), maa://39872 (91.67)</t>
+          <t>maa://23669 (95.5), maa://36677 (93.65), maa://39872 (91.67)</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -2099,7 +2095,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>maa://24999 (92.1), maa://36673 (93.24), maa://25001 (85.71)</t>
+          <t>maa://24999 (92.12), maa://36673 (93.24), maa://25001 (85.71)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -2147,7 +2143,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676 (92.74), *maa://22583 (74.63), *maa://22500 (58.7)</t>
+          <t>maa://22676 (92.74), *maa://22583 (75.0), *maa://22500 (58.7)</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2211,7 +2207,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737 (34.25), maa://39883 (91.43), *maa://39885 (53.33)</t>
+          <t>**maa://22737 (34.25), maa://39883 (91.67), *maa://39885 (53.33)</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2261,7 +2257,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245 (96.71), maa://21288 (96.3), maa://39841 (95.24), maa://36682 (97.44)</t>
+          <t>maa://26245 (96.73), maa://21288 (96.3), maa://39841 (95.28), maa://36682 (97.44)</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2293,7 +2289,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>maa://22521 (94.29), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.34), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="1" t="n"/>
@@ -2359,7 +2355,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743 (77.93), maa://22734 (84.17), *maa://30808 (64.18), **maa://36048 (45.0), maa://45058 (92.86)</t>
+          <t>*maa://22743 (78.04), maa://22734 (84.17), *maa://30808 (64.18), **maa://36048 (45.0), maa://45058 (92.86)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -2439,7 +2435,7 @@
       </c>
       <c r="X15" s="2" t="inlineStr">
         <is>
-          <t>maa://38786 (85.71)</t>
+          <t>*maa://38786 (75.0)</t>
         </is>
       </c>
       <c r="Y15" s="1" t="n"/>
@@ -2471,7 +2467,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364 (81.02), *maa://36666 (78.5), *maa://22766 (68.64)</t>
+          <t>maa://21364 (80.78), *maa://36666 (78.18), *maa://22766 (68.64)</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2489,7 +2485,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441 (96.4), maa://36679 (94.34), maa://37650 (97.14)</t>
+          <t>maa://21441 (96.4), maa://36679 (94.34), maa://37650 (97.3)</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2553,7 +2549,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729 (95.0), *maa://28648 (69.12), maa://36674 (82.69)</t>
+          <t>maa://22729 (95.03), *maa://28648 (69.12), maa://36674 (82.69)</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2585,7 +2581,7 @@
       </c>
       <c r="AB16" s="2" t="inlineStr">
         <is>
-          <t>maa://26228 (95.92)</t>
+          <t>maa://26228 (95.96)</t>
         </is>
       </c>
       <c r="AC16" s="1" t="n"/>
@@ -2635,7 +2631,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430 (88.72), maa://39599 (86.27)</t>
+          <t>maa://22430 (88.78), maa://39599 (86.27)</t>
         </is>
       </c>
       <c r="I17" s="1" t="n"/>
@@ -2683,7 +2679,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324 (48.28)</t>
+          <t>**maa://42324 (50.0)</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2749,7 +2745,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>maa://24570 (97.33)</t>
+          <t>maa://24570 (97.35)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n"/>
@@ -2781,7 +2777,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466 (90.3), *maa://22732 (51.11)</t>
+          <t>maa://22466 (90.36), *maa://22732 (50.55)</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2975,7 +2971,7 @@
       </c>
       <c r="AB19" s="2" t="inlineStr">
         <is>
-          <t>*maa://30709 (65.75), *maa://36668 (57.5)</t>
+          <t>*maa://30709 (65.83), *maa://36668 (57.5)</t>
         </is>
       </c>
       <c r="AC19" s="1" t="n"/>
@@ -3009,7 +3005,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432 (90.12), maa://25198 (93.64), *maa://20795 (50.77), maa://36680 (91.18)</t>
+          <t>maa://21432 (90.17), maa://25198 (93.64), *maa://20795 (50.77), maa://36680 (91.18)</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3041,7 +3037,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>maa://41331 (84.97)</t>
+          <t>maa://41331 (85.06)</t>
         </is>
       </c>
       <c r="M20" s="1" t="n"/>
@@ -3139,7 +3135,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>maa://21261 (97.56)</t>
+          <t>maa://21261 (97.67)</t>
         </is>
       </c>
       <c r="E21" s="1" t="n"/>
@@ -3155,7 +3151,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>maa://24372 (96.97)</t>
+          <t>maa://24372 (97.0)</t>
         </is>
       </c>
       <c r="I21" s="1" t="n"/>
@@ -3187,7 +3183,7 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>maa://24381 (84.21)</t>
+          <t>maa://24381 (85.0)</t>
         </is>
       </c>
       <c r="Q21" s="1" t="n"/>
@@ -3235,7 +3231,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443 (81.07), ***maa://23820 (30.0)</t>
+          <t>maa://21443 (81.12), ***maa://23820 (30.0)</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3251,7 +3247,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524 (94.14), *maa://22432 (77.03)</t>
+          <t>maa://22524 (94.17), *maa://22432 (77.03)</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>
@@ -3301,7 +3297,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127 (80.17), *maa://22751 (71.01)</t>
+          <t>*maa://27127 (79.66), *maa://22751 (71.01)</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3431,7 +3427,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>maa://39756 (95.64), maa://39875 (94.44)</t>
+          <t>maa://39756 (95.68), maa://39875 (94.44)</t>
         </is>
       </c>
       <c r="M23" s="1" t="n"/>
@@ -3479,7 +3475,7 @@
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
-          <t>*maa://28503 (68.35)</t>
+          <t>*maa://28503 (68.75)</t>
         </is>
       </c>
       <c r="Y23" s="1" t="n"/>
@@ -3511,7 +3507,7 @@
       </c>
       <c r="AF23" s="2" t="inlineStr">
         <is>
-          <t>maa://31489 (93.75)</t>
+          <t>maa://31489 (94.12)</t>
         </is>
       </c>
       <c r="AG23" s="1" t="n"/>
@@ -3529,7 +3525,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368 (78.16), **maa://46650 (50.0)</t>
+          <t>*maa://24368 (78.27), *maa://46650 (60.0)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3609,7 +3605,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988 (84.65), maa://23504 (93.14), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (77.92), ***maa://22815 (23.08)</t>
+          <t>maa://29988 (84.65), maa://23504 (93.18), **maa://22892 (40.14), *maa://25141 (77.1), *maa://36663 (78.21), ***maa://22815 (23.08)</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3641,7 +3637,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523 (86.0), maa://36672 (80.36), maa://29910 (93.1), **maa://21440 (35.71), *maa://45831 (75.0)</t>
+          <t>maa://22523 (86.0), maa://36672 (80.36), maa://29910 (93.22), **maa://21440 (35.71), *maa://45831 (75.0)</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3659,7 +3655,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>maa://29753 (95.15)</t>
+          <t>maa://29753 (95.17)</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -3723,7 +3719,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109 (92.09), maa://22545 (100.0), *maa://42915 (75.0)</t>
+          <t>maa://20109 (92.13), maa://22545 (100.0), *maa://42915 (75.0)</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3755,7 +3751,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215 (87.83), maa://24516 (80.22), maa://26001 (87.5)</t>
+          <t>maa://31215 (87.93), maa://24516 (80.22), maa://26001 (87.5)</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -3789,7 +3785,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>maa://41802 (93.75)</t>
+          <t>maa://41802 (94.44)</t>
         </is>
       </c>
       <c r="E26" s="1" t="n"/>
@@ -3885,7 +3881,7 @@
       </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
-          <t>maa://42235 (94.06)</t>
+          <t>maa://42235 (94.12)</t>
         </is>
       </c>
       <c r="AC26" s="1" t="n"/>
@@ -3901,7 +3897,7 @@
       </c>
       <c r="AF26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511 (82.5), *maa://29760 (60.0)</t>
+          <t>maa://30511 (80.49), *maa://29760 (60.0)</t>
         </is>
       </c>
       <c r="AG26" s="1" t="n"/>
@@ -4049,7 +4045,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>maa://24465 (91.04), maa://25725 (83.72)</t>
+          <t>maa://24465 (90.93), maa://25725 (83.91)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n"/>
@@ -4113,7 +4109,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>*maa://29765 (63.41), maa://23263 (95.28)</t>
+          <t>*maa://29765 (63.86), maa://23263 (95.28)</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4129,7 +4125,7 @@
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929 (90.65), maa://41749 (90.7), ***maa://39723 (13.89)</t>
+          <t>maa://39929 (90.7), maa://41749 (90.7), ***maa://39723 (13.89)</t>
         </is>
       </c>
       <c r="Y28" s="1" t="n"/>
@@ -4161,7 +4157,7 @@
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660 (92.2), *maa://36701 (66.67)</t>
+          <t>maa://36660 (92.24), *maa://36701 (66.67)</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4211,7 +4207,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432 (93.45), *maa://28440 (79.82), maa://31400 (98.81), *maa://28650 (71.43)</t>
+          <t>maa://28432 (93.45), *maa://28440 (80.0), maa://31400 (98.81), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>
@@ -4291,7 +4287,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080 (68.85), maa://42865 (80.65), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (68.85), maa://42865 (80.95), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4405,7 +4401,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979 (96.91), maa://45822 (100.0), *maa://45045 (80.0)</t>
+          <t>maa://42979 (96.97), maa://45822 (100.0), *maa://45045 (80.0)</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -4471,7 +4467,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926 (93.47), maa://36258 (85.34), *maa://43904 (72.73)</t>
+          <t>maa://35926 (93.47), maa://36258 (85.47), *maa://43904 (72.73)</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -4585,7 +4581,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895 (97.5), maa://36667 (97.62), **maa://20793 (38.78), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.01), maa://36667 (97.62), **maa://20793 (38.78), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -4633,7 +4629,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859 (95.83), maa://41108 (88.0), maa://41238 (97.12), maa://45523 (100.0)</t>
+          <t>maa://42859 (95.93), maa://41108 (88.0), maa://41238 (97.12), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4893,7 +4889,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>maa://24526 (93.05)</t>
+          <t>maa://24526 (93.08)</t>
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
@@ -4941,7 +4937,7 @@
       </c>
       <c r="AF34" s="2" t="inlineStr">
         <is>
-          <t>*maa://32650 (68.75)</t>
+          <t>*maa://32650 (72.22)</t>
         </is>
       </c>
       <c r="AG34" s="1" t="n"/>
@@ -5203,7 +5199,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718 (98.5), *maa://47069 (75.0), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.55), *maa://47069 (69.23), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5219,7 +5215,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>maa://21280 (89.35), *maa://21239 (66.67)</t>
+          <t>maa://21280 (89.4), *maa://21239 (66.67)</t>
         </is>
       </c>
       <c r="Q37" s="1" t="n"/>
@@ -5368,7 +5364,7 @@
       </c>
       <c r="AF38" s="2" t="inlineStr">
         <is>
-          <t>maa://36697 (86.32)</t>
+          <t>maa://36697 (86.38)</t>
         </is>
       </c>
       <c r="AG38" s="1" t="n"/>
@@ -5389,7 +5385,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670 (89.11), maa://25199 (84.82), maa://30434 (91.36), ***maa://25036 (16.0), maa://45059 (81.25), *maa://44165 (66.67)</t>
+          <t>maa://36670 (89.11), maa://25199 (84.82), maa://30434 (91.46), ***maa://25036 (16.0), maa://45059 (82.35), *maa://44165 (66.67)</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5421,7 +5417,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709 (91.56), maa://47093 (100.0)</t>
+          <t>maa://24709 (91.61), maa://47093 (100.0)</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5437,7 +5433,7 